--- a/financial_models/opportunities/0027.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0027.HK_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C4486B5B-DCD7-43DF-8D11-A92B349C6442}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{32510DCD-D53C-4107-9DD5-98C441F5FF10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="4" r:id="rId1"/>
@@ -831,12 +831,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Consumer Monopoly</t>
-  </si>
-  <si>
-    <t>agree</t>
-  </si>
-  <si>
     <t>6. No big MCX-D&amp;A required?</t>
   </si>
   <si>
@@ -953,6 +947,12 @@
   </si>
   <si>
     <t>C0011</t>
+  </si>
+  <si>
+    <t>agree</t>
+  </si>
+  <si>
+    <t>Consumer Monopoly</t>
   </si>
 </sst>
 </file>
@@ -1511,7 +1511,7 @@
     <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="284">
+  <cellXfs count="285">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2146,6 +2146,7 @@
     <xf numFmtId="9" fontId="10" fillId="11" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3560,7 +3561,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C75" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -3571,29 +3572,29 @@
     <col min="3" max="13" width="24.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" ht="15" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B4" s="141" t="s">
         <v>196</v>
       </c>
       <c r="C4" s="189" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B5" s="141" t="s">
         <v>197</v>
       </c>
       <c r="C5" s="192" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B6" s="141" t="s">
         <v>164</v>
       </c>
@@ -3601,7 +3602,7 @@
         <v>45603</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B7" s="140" t="s">
         <v>4</v>
       </c>
@@ -3609,23 +3610,24 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B8" s="140" t="s">
         <v>217</v>
       </c>
       <c r="C8" s="192" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="E8" s="268"/>
+    </row>
+    <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B9" s="140" t="s">
         <v>218</v>
       </c>
       <c r="C9" s="193" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B10" s="140" t="s">
         <v>219</v>
       </c>
@@ -3633,7 +3635,7 @@
         <v>4373586962</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B11" s="140" t="s">
         <v>220</v>
       </c>
@@ -3641,7 +3643,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B12" s="219" t="s">
         <v>10</v>
       </c>
@@ -3649,7 +3651,7 @@
         <v>45291</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B13" s="219" t="s">
         <v>11</v>
       </c>
@@ -3657,7 +3659,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="219" t="s">
         <v>221</v>
       </c>
@@ -3665,15 +3667,15 @@
         <v>45473</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="219" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C15" s="177" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="223" t="s">
         <v>97</v>
       </c>
@@ -3687,25 +3689,25 @@
         <v>226</v>
       </c>
       <c r="C17" s="243" t="s">
-        <v>234</v>
+        <v>264</v>
       </c>
       <c r="D17" s="24"/>
     </row>
     <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="241" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C18" s="243" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D18" s="24"/>
     </row>
     <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="241" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C19" s="243" t="s">
-        <v>234</v>
+        <v>264</v>
       </c>
       <c r="D19" s="24"/>
     </row>
@@ -3714,16 +3716,16 @@
         <v>230</v>
       </c>
       <c r="C20" s="243" t="s">
-        <v>234</v>
+        <v>264</v>
       </c>
       <c r="D20" s="24"/>
     </row>
     <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="225" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C21" s="243" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D21" s="24"/>
     </row>
@@ -3732,7 +3734,7 @@
         <v>232</v>
       </c>
       <c r="C22" s="244" t="s">
-        <v>233</v>
+        <v>265</v>
       </c>
       <c r="D22" s="24"/>
     </row>
@@ -3863,7 +3865,7 @@
     </row>
     <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B29" s="97" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C29" s="151"/>
       <c r="D29" s="151"/>
@@ -4126,11 +4128,11 @@
     </row>
     <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="74" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C45" s="153">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>2.3952095808383235E-2</v>
+        <v>5.412719989536683E-2</v>
       </c>
       <c r="D45" s="153" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4175,7 +4177,7 @@
     </row>
     <row r="47" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B47" s="10" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C47" s="195" t="s">
         <v>34</v>
@@ -4541,7 +4543,7 @@
     </row>
     <row r="86" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B86" s="10" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C86" s="198">
         <v>5</v>
@@ -4549,21 +4551,21 @@
     </row>
     <row r="87" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B87" s="10" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C87" s="237" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="89" spans="2:8" ht="13.5" x14ac:dyDescent="0.35">
       <c r="B89" s="106" t="s">
         <v>128</v>
       </c>
-      <c r="C89" s="268">
+      <c r="C89" s="269">
         <f>C24</f>
         <v>45291</v>
       </c>
-      <c r="D89" s="268"/>
+      <c r="D89" s="269"/>
       <c r="E89" s="89" t="s">
         <v>208</v>
       </c>
@@ -4577,10 +4579,10 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000HKD)</v>
       </c>
-      <c r="C90" s="269" t="s">
+      <c r="C90" s="270" t="s">
         <v>101</v>
       </c>
-      <c r="D90" s="269"/>
+      <c r="D90" s="270"/>
       <c r="E90" s="236" t="s">
         <v>102</v>
       </c>
@@ -4629,7 +4631,7 @@
     </row>
     <row r="93" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B93" s="104" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C93" s="77">
         <f>C27+C28</f>
@@ -4650,7 +4652,7 @@
     </row>
     <row r="94" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B94" s="104" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C94" s="77">
         <f>C29</f>
@@ -4668,7 +4670,7 @@
     </row>
     <row r="95" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B95" s="28" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C95" s="77">
         <f>ABS(MAX(C33,0)-C32)</f>
@@ -4774,7 +4776,7 @@
   </conditionalFormatting>
   <dataValidations count="8">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8" xr:uid="{4F1A5CDA-569A-4509-AA2D-9CF95C6DB1A5}">
-      <formula1>"Y, N"</formula1>
+      <formula1>"Tier 1, Superior Cycl. ,Cigar Butts, N"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" sqref="C11" xr:uid="{7C8576B4-3288-485C-91EB-6274925EDC41}">
       <formula1>"HKD,USD,CNY,EUR"</formula1>
@@ -4810,8 +4812,8 @@
   </sheetPr>
   <dimension ref="A1:J923"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4854,17 +4856,17 @@
       <c r="B3" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="C3" s="274" t="str">
+      <c r="C3" s="275" t="str">
         <f>Inputs!C4</f>
         <v>0027.HK</v>
       </c>
-      <c r="D3" s="275"/>
+      <c r="D3" s="276"/>
       <c r="E3" s="87"/>
       <c r="F3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>33.4</v>
+        <v>14.779999732971191</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>2</v>
@@ -4874,40 +4876,40 @@
       <c r="B4" s="35" t="s">
         <v>197</v>
       </c>
-      <c r="C4" s="276" t="str">
+      <c r="C4" s="277" t="str">
         <f>Inputs!C5</f>
         <v>銀河娛樂</v>
       </c>
-      <c r="D4" s="277"/>
+      <c r="D4" s="278"/>
       <c r="E4" s="87"/>
       <c r="F4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="280">
+      <c r="G4" s="281">
         <f>Inputs!C10</f>
         <v>4373586962</v>
       </c>
-      <c r="H4" s="280"/>
+      <c r="H4" s="281"/>
       <c r="I4" s="39"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="C5" s="278">
+      <c r="C5" s="279">
         <f>Inputs!C6</f>
         <v>45603</v>
       </c>
-      <c r="D5" s="279"/>
+      <c r="D5" s="280"/>
       <c r="E5" s="34"/>
       <c r="F5" s="35" t="s">
         <v>100</v>
       </c>
-      <c r="G5" s="272">
+      <c r="G5" s="273">
         <f>G3*G4/1000000</f>
-        <v>146077.8045308</v>
-      </c>
-      <c r="H5" s="272"/>
+        <v>64641.614130486283</v>
+      </c>
+      <c r="H5" s="273"/>
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
@@ -4930,11 +4932,11 @@
       <c r="F6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="273" t="str">
+      <c r="G6" s="274" t="str">
         <f>Inputs!C11</f>
         <v>HKD</v>
       </c>
-      <c r="H6" s="273"/>
+      <c r="H6" s="274"/>
       <c r="I6" s="38"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4997,7 +4999,7 @@
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B12" s="87" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C12" s="175">
         <v>0.06</v>
@@ -5047,7 +5049,7 @@
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B17" s="87" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C17" s="176">
         <v>7.1999999999999995E-2</v>
@@ -5087,7 +5089,7 @@
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B21" s="137" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C21" s="172">
         <f>Fin_Analysis!I77</f>
@@ -5137,12 +5139,12 @@
       </c>
       <c r="G24" s="179">
         <f>(Fin_Analysis!H86*G7)/G3</f>
-        <v>3.2601996314887513E-2</v>
+        <v>7.3674336711124028E-2</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="137" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C25" s="172">
         <f>Fin_Analysis!I82</f>
@@ -5169,7 +5171,7 @@
       </c>
       <c r="G26" s="179">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>1.4970059880239521E-2</v>
+        <v>3.3829499934604268E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5186,12 +5188,12 @@
       </c>
       <c r="E28" s="58"/>
       <c r="F28" s="53" t="s">
-        <v>241</v>
-      </c>
-      <c r="G28" s="270" t="s">
-        <v>262</v>
-      </c>
-      <c r="H28" s="270"/>
+        <v>239</v>
+      </c>
+      <c r="G28" s="271" t="s">
+        <v>260</v>
+      </c>
+      <c r="H28" s="271"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="87" t="s">
@@ -5199,22 +5201,22 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>8.1854253254738367</v>
+        <v>9.9480809869715436</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>16.181670135463456</v>
+        <v>19.666243183610092</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>9.6299121476162792</v>
-      </c>
-      <c r="G29" s="271">
+        <v>11.703624690554758</v>
+      </c>
+      <c r="G29" s="272">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>14.07101750909866</v>
-      </c>
-      <c r="H29" s="271"/>
+        <v>17.101081029226169</v>
+      </c>
+      <c r="H29" s="272"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5262,7 +5264,7 @@
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C36" s="246" t="str">
         <f>Inputs!C18</f>
@@ -5272,7 +5274,7 @@
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37"/>
       <c r="B37" s="20" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C37" s="246" t="str">
         <f>Inputs!C19</f>
@@ -5299,7 +5301,7 @@
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40"/>
       <c r="B40" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C40" s="246" t="str">
         <f>Inputs!C21</f>
@@ -6245,12 +6247,9 @@
       <formula>LEN(TRIM(G20))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="4">
+  <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" sqref="G6" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"HKD,USD,CNY,EUR"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7" xr:uid="{3894A86A-E1B4-A843-BE8E-14D1CE0AE26E}">
-      <formula1>"Y, N"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" sqref="C33:C34 C36:C37 C39:C40" xr:uid="{AFC23D6B-591E-BA4C-B3BE-727ADB8DA907}">
       <formula1>"Strongly agree,agree,unclear,disagree,Strongly disagree"</formula1>
@@ -6736,7 +6735,7 @@
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
       <c r="B12" s="99" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C12" s="200">
         <f>IF(Inputs!C30="","",MAX(Inputs!C30,0)/(1-Fin_Analysis!$I$84))</f>
@@ -6787,7 +6786,7 @@
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
       <c r="B13" s="229" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C13" s="230">
         <f t="shared" ref="C13:M13" si="3">IF(C14="","",C14/C6)</f>
@@ -6838,7 +6837,7 @@
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
       <c r="B14" s="229" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C14" s="231">
         <f>IF(C6="","",C9-C10-MAX(C11,0)-MAX(C12,0))</f>
@@ -6889,7 +6888,7 @@
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
       <c r="B15" s="232" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C15" s="233" t="str">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
@@ -6991,7 +6990,7 @@
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
       <c r="B17" s="97" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C17" s="200" t="str">
         <f>IF(Inputs!C29="","",Inputs!C29)</f>
@@ -7144,7 +7143,7 @@
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
       <c r="B20" s="97" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C20" s="153">
         <f t="shared" ref="C20:M20" si="7">IF(C6="","",MAX(C21,0)/C6)</f>
@@ -8215,7 +8214,7 @@
     <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="16"/>
       <c r="B41" s="55" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C41" s="54"/>
       <c r="D41" s="54"/>
@@ -8284,7 +8283,7 @@
     <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="4"/>
       <c r="B43" s="94" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C43" s="154">
         <f t="shared" ref="C43:M43" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
@@ -8488,7 +8487,7 @@
     <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="4"/>
       <c r="B47" s="94" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C47" s="154">
         <f>IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
@@ -11438,11 +11437,11 @@
         <v>90</v>
       </c>
       <c r="C56" s="87"/>
-      <c r="D56" s="281">
+      <c r="D56" s="282">
         <f>I15+I34</f>
         <v>0</v>
       </c>
-      <c r="E56" s="279"/>
+      <c r="E56" s="280"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="I56" s="56"/>
@@ -11453,11 +11452,11 @@
         <v>91</v>
       </c>
       <c r="C57" s="87"/>
-      <c r="D57" s="280">
+      <c r="D57" s="281">
         <f>Inputs!C84</f>
         <v>0</v>
       </c>
-      <c r="E57" s="279"/>
+      <c r="E57" s="280"/>
       <c r="G57" s="87"/>
       <c r="I57" s="87"/>
       <c r="K57" s="33" t="s">
@@ -11469,11 +11468,11 @@
         <v>93</v>
       </c>
       <c r="C58" s="87"/>
-      <c r="D58" s="280">
+      <c r="D58" s="281">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="279"/>
+      <c r="E58" s="280"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
       <c r="I58" s="87"/>
@@ -11687,19 +11686,19 @@
       <c r="B72" s="106" t="s">
         <v>128</v>
       </c>
-      <c r="C72" s="268">
+      <c r="C72" s="269">
         <f>Data!C5</f>
         <v>45291</v>
       </c>
-      <c r="D72" s="268"/>
-      <c r="E72" s="282" t="s">
+      <c r="D72" s="269"/>
+      <c r="E72" s="283" t="s">
         <v>208</v>
       </c>
-      <c r="F72" s="282"/>
-      <c r="H72" s="282" t="s">
+      <c r="F72" s="283"/>
+      <c r="H72" s="283" t="s">
         <v>207</v>
       </c>
-      <c r="I72" s="282"/>
+      <c r="I72" s="283"/>
       <c r="K72" s="50" t="s">
         <v>8</v>
       </c>
@@ -11709,18 +11708,18 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000HKD)</v>
       </c>
-      <c r="C73" s="269" t="s">
+      <c r="C73" s="270" t="s">
         <v>101</v>
       </c>
-      <c r="D73" s="269"/>
-      <c r="E73" s="283" t="s">
+      <c r="D73" s="270"/>
+      <c r="E73" s="284" t="s">
         <v>102</v>
       </c>
-      <c r="F73" s="269"/>
-      <c r="H73" s="283" t="s">
+      <c r="F73" s="270"/>
+      <c r="H73" s="284" t="s">
         <v>102</v>
       </c>
-      <c r="I73" s="269"/>
+      <c r="I73" s="270"/>
       <c r="K73" s="24"/>
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11797,7 +11796,7 @@
     </row>
     <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B77" s="104" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C77" s="77">
         <f>Data!C10+MAX(Data!C11,0)</f>
@@ -11857,7 +11856,7 @@
     </row>
     <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B79" s="257" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C79" s="258">
         <f>C76-C77-C78</f>
@@ -11920,7 +11919,7 @@
     </row>
     <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B81" s="104" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C81" s="77">
         <f>MAX(Data!C17,0)</f>
@@ -11950,7 +11949,7 @@
     </row>
     <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="28" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C82" s="77">
         <f>ABS(MAX(Data!C21,0)-MAX(Data!C19,0))</f>
@@ -12087,17 +12086,17 @@
       </c>
       <c r="C87" s="262">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>3.2601996314887513E-2</v>
+        <v>7.3674336711124028E-2</v>
       </c>
       <c r="D87" s="210"/>
       <c r="E87" s="263">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>3.2601996314887513E-2</v>
+        <v>7.3674336711124028E-2</v>
       </c>
       <c r="F87" s="210"/>
       <c r="H87" s="263">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>3.2601996314887513E-2</v>
+        <v>7.3674336711124028E-2</v>
       </c>
       <c r="I87" s="210"/>
       <c r="K87" s="24"/>
@@ -12138,17 +12137,17 @@
       </c>
       <c r="C89" s="262">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>2.3952095808383235E-2</v>
+        <v>5.412719989536683E-2</v>
       </c>
       <c r="D89" s="210"/>
       <c r="E89" s="262">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>1.4970059880239521E-2</v>
+        <v>3.3829499934604268E-2</v>
       </c>
       <c r="F89" s="210"/>
       <c r="H89" s="262">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>1.4970059880239521E-2</v>
+        <v>3.3829499934604268E-2</v>
       </c>
       <c r="I89" s="210"/>
       <c r="K89" s="24"/>
@@ -12179,15 +12178,15 @@
       <c r="D92" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="E92" s="282" t="s">
+      <c r="E92" s="283" t="s">
         <v>208</v>
       </c>
-      <c r="F92" s="282"/>
+      <c r="F92" s="283"/>
       <c r="G92" s="87"/>
-      <c r="H92" s="282" t="s">
+      <c r="H92" s="283" t="s">
         <v>207</v>
       </c>
-      <c r="I92" s="282"/>
+      <c r="I92" s="283"/>
       <c r="K92" s="24"/>
     </row>
     <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -12208,14 +12207,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/C93))*Exchange_Rate</f>
-        <v>19.369193013101558</v>
+        <v>23.540169641149767</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>211</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/C93))*Exchange_Rate</f>
-        <v>19.369193013101558</v>
+        <v>23.540169641149767</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12233,14 +12232,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/C93))*Exchange_Rate</f>
-        <v>8.1600388371105836</v>
+        <v>8.9468606057332227</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>212</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/C93))*Exchange_Rate</f>
-        <v>8.1600388371105836</v>
+        <v>8.9468606057332227</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12266,7 +12265,7 @@
         <v>Pessimistic Case</v>
       </c>
       <c r="F96" s="228" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="H96" s="184" t="str">
         <f>H72</f>
@@ -12283,21 +12282,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>42117258.214019984</v>
+        <v>51186820.354751572</v>
       </c>
       <c r="D97" s="214"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>9.6299121476162792</v>
+        <v>11.703624690554758</v>
       </c>
       <c r="F97" s="214"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>9.6299121476162792</v>
+        <v>11.703624690554758</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>14.07101750909866</v>
+        <v>17.101081029226169</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12346,27 +12345,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>42117258.214019984</v>
+        <v>51186820.354751572</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>8.1854253254738367</v>
+        <v>9.9480809869715436</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>9.6299121476162792</v>
+        <v>11.703624690554758</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>9.6299121476162792</v>
+        <v>11.703624690554758</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>9.6299121476162792</v>
+        <v>11.703624690554758</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>14.07101750909866</v>
+        <v>17.101081029226169</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12390,7 +12389,7 @@
         <v>Pessimistic Case</v>
       </c>
       <c r="F102" s="228" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="H102" s="184" t="str">
         <f>H96</f>
@@ -12407,27 +12406,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>17743561.257639874</v>
+        <v>19454462.459103256</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>3.4484342486006097</v>
+        <v>3.7809453050582253</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>4.0569814689418937</v>
+        <v>4.4481709471273243</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>4.0569814689418937</v>
+        <v>4.4481709471273243</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>4.0569814689418937</v>
+        <v>4.4481709471273243</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>5.9279728006346168</v>
+        <v>6.4995703305544383</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12451,7 +12450,7 @@
         <v>Pessimistic Case</v>
       </c>
       <c r="F105" s="228" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="H105" s="185" t="str">
         <f>H96</f>
@@ -12468,27 +12467,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>29930409.735829927</v>
+        <v>35320641.406927414</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>5.816929787037223</v>
+        <v>6.8645131460148843</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>6.8434468082790865</v>
+        <v>8.0758978188410406</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>6.8434468082790865</v>
+        <v>8.0758978188410406</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>6.8434468082790865</v>
+        <v>8.0758978188410406</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>9.9994951548666382</v>
+        <v>11.800325679890303</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0027.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0027.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{32510DCD-D53C-4107-9DD5-98C441F5FF10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2F4F167E-89A9-45BF-A1FC-4C4303EA362E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -625,9 +625,6 @@
     <t>Normalized Payout Ratio</t>
   </si>
   <si>
-    <t>Normalized E/P</t>
-  </si>
-  <si>
     <t>US Riskfree</t>
   </si>
   <si>
@@ -937,6 +934,10 @@
   </si>
   <si>
     <t>Base Case Valuation</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Normalized PE Ratio</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -1511,7 +1512,7 @@
     <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="285">
+  <cellXfs count="286">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2147,6 +2148,9 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="180" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3561,7 +3565,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C75" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -3575,12 +3579,12 @@
     <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B4" s="141" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C4" s="189" t="s">
         <v>261</v>
@@ -3588,7 +3592,7 @@
     </row>
     <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B5" s="141" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C5" s="192" t="s">
         <v>262</v>
@@ -3612,7 +3616,7 @@
     </row>
     <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B8" s="140" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C8" s="192" t="s">
         <v>71</v>
@@ -3621,7 +3625,7 @@
     </row>
     <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B9" s="140" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C9" s="193" t="s">
         <v>263</v>
@@ -3629,7 +3633,7 @@
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B10" s="140" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C10" s="194">
         <v>4373586962</v>
@@ -3637,7 +3641,7 @@
     </row>
     <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B11" s="140" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C11" s="193" t="s">
         <v>2</v>
@@ -3661,7 +3665,7 @@
     </row>
     <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="219" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C14" s="220">
         <v>45473</v>
@@ -3669,10 +3673,10 @@
     </row>
     <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="219" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C15" s="177" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3686,7 +3690,7 @@
     </row>
     <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="241" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C17" s="243" t="s">
         <v>264</v>
@@ -3695,16 +3699,16 @@
     </row>
     <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="241" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C18" s="243" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D18" s="24"/>
     </row>
     <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="241" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C19" s="243" t="s">
         <v>264</v>
@@ -3713,7 +3717,7 @@
     </row>
     <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="242" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C20" s="243" t="s">
         <v>264</v>
@@ -3722,16 +3726,16 @@
     </row>
     <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="225" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C21" s="243" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D21" s="24"/>
     </row>
     <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
       <c r="B22" s="227" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C22" s="244" t="s">
         <v>265</v>
@@ -3865,7 +3869,7 @@
     </row>
     <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B29" s="97" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C29" s="151"/>
       <c r="D29" s="151"/>
@@ -4109,7 +4113,7 @@
     </row>
     <row r="44" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B44" s="74" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C44" s="251">
         <f>0.5+0.3</f>
@@ -4128,11 +4132,11 @@
     </row>
     <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="74" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C45" s="153">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>5.412719989536683E-2</v>
+        <v>2.3154848046309698E-2</v>
       </c>
       <c r="D45" s="153" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4177,13 +4181,13 @@
     </row>
     <row r="47" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B47" s="10" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C47" s="195" t="s">
         <v>34</v>
       </c>
       <c r="D47" s="195" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E47" s="111" t="s">
         <v>36</v>
@@ -4525,7 +4529,7 @@
     </row>
     <row r="83" spans="2:8" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B83" s="73" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C83" s="59"/>
     </row>
@@ -4543,7 +4547,7 @@
     </row>
     <row r="86" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B86" s="10" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C86" s="198">
         <v>5</v>
@@ -4551,26 +4555,26 @@
     </row>
     <row r="87" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B87" s="10" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C87" s="237" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="89" spans="2:8" ht="13.5" x14ac:dyDescent="0.35">
       <c r="B89" s="106" t="s">
         <v>128</v>
       </c>
-      <c r="C89" s="269">
+      <c r="C89" s="270">
         <f>C24</f>
         <v>45291</v>
       </c>
-      <c r="D89" s="269"/>
+      <c r="D89" s="270"/>
       <c r="E89" s="89" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F89" s="50" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H89" s="31"/>
     </row>
@@ -4579,10 +4583,10 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000HKD)</v>
       </c>
-      <c r="C90" s="270" t="s">
+      <c r="C90" s="271" t="s">
         <v>101</v>
       </c>
-      <c r="D90" s="270"/>
+      <c r="D90" s="271"/>
       <c r="E90" s="236" t="s">
         <v>102</v>
       </c>
@@ -4631,7 +4635,7 @@
     </row>
     <row r="93" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B93" s="104" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C93" s="77">
         <f>C27+C28</f>
@@ -4652,7 +4656,7 @@
     </row>
     <row r="94" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B94" s="104" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C94" s="77">
         <f>C29</f>
@@ -4670,7 +4674,7 @@
     </row>
     <row r="95" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B95" s="28" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C95" s="77">
         <f>ABS(MAX(C33,0)-C32)</f>
@@ -4727,7 +4731,7 @@
     </row>
     <row r="98" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B98" s="86" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C98" s="238">
         <f>C44</f>
@@ -4813,7 +4817,7 @@
   <dimension ref="A1:J923"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C3" sqref="C3:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4854,19 +4858,19 @@
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="C3" s="275" t="str">
+        <v>195</v>
+      </c>
+      <c r="C3" s="276" t="str">
         <f>Inputs!C4</f>
         <v>0027.HK</v>
       </c>
-      <c r="D3" s="276"/>
+      <c r="D3" s="277"/>
       <c r="E3" s="87"/>
       <c r="F3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>14.779999732971191</v>
+        <v>34.549999999999997</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>2</v>
@@ -4874,42 +4878,42 @@
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="35" t="s">
-        <v>197</v>
-      </c>
-      <c r="C4" s="277" t="str">
+        <v>196</v>
+      </c>
+      <c r="C4" s="278" t="str">
         <f>Inputs!C5</f>
         <v>銀河娛樂</v>
       </c>
-      <c r="D4" s="278"/>
+      <c r="D4" s="279"/>
       <c r="E4" s="87"/>
       <c r="F4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="281">
+      <c r="G4" s="282">
         <f>Inputs!C10</f>
         <v>4373586962</v>
       </c>
-      <c r="H4" s="281"/>
+      <c r="H4" s="282"/>
       <c r="I4" s="39"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="C5" s="279">
+      <c r="C5" s="280">
         <f>Inputs!C6</f>
         <v>45603</v>
       </c>
-      <c r="D5" s="280"/>
+      <c r="D5" s="281"/>
       <c r="E5" s="34"/>
       <c r="F5" s="35" t="s">
         <v>100</v>
       </c>
-      <c r="G5" s="273">
+      <c r="G5" s="274">
         <f>G3*G4/1000000</f>
-        <v>64641.614130486283</v>
-      </c>
-      <c r="H5" s="273"/>
+        <v>151107.42953709999</v>
+      </c>
+      <c r="H5" s="274"/>
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
@@ -4932,16 +4936,16 @@
       <c r="F6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="274" t="str">
+      <c r="G6" s="275" t="str">
         <f>Inputs!C11</f>
         <v>HKD</v>
       </c>
-      <c r="H6" s="274"/>
+      <c r="H6" s="275"/>
       <c r="I6" s="38"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="86" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C7" s="188" t="str">
         <f>Inputs!C8</f>
@@ -4966,40 +4970,40 @@
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="139" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F9" s="143" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C10" s="173">
         <v>4.2099999999999999E-2</v>
       </c>
       <c r="F10" s="110" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B11" s="122" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C11" s="174">
         <v>5.3099999999999994E-2</v>
       </c>
       <c r="D11" s="137" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F11" s="110" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B12" s="87" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C12" s="175">
         <v>0.06</v>
@@ -5012,29 +5016,29 @@
     <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C14" s="173">
         <v>2.1309999999999999E-2</v>
       </c>
       <c r="F14" s="110" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C15" s="173">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="F15" s="110" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B16" s="122" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C16" s="174">
         <v>0.16</v>
@@ -5044,12 +5048,12 @@
         <v>HK</v>
       </c>
       <c r="F16" s="110" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B17" s="87" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C17" s="176">
         <v>7.1999999999999995E-2</v>
@@ -5059,7 +5063,7 @@
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B19" s="142" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C19" s="135" t="s">
         <v>52</v>
@@ -5067,7 +5071,7 @@
       <c r="D19" s="87"/>
       <c r="E19" s="87"/>
       <c r="F19" s="142" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G19" s="87"/>
       <c r="H19" s="87"/>
@@ -5081,7 +5085,7 @@
         <v>0.47272944175123971</v>
       </c>
       <c r="F20" s="87" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G20" s="173">
         <v>0.15</v>
@@ -5089,7 +5093,7 @@
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B21" s="137" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C21" s="172">
         <f>Fin_Analysis!I77</f>
@@ -5100,14 +5104,14 @@
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="137" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C22" s="172">
         <f>Fin_Analysis!I78</f>
         <v>1.6858097812807804E-3</v>
       </c>
       <c r="F22" s="142" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5119,7 +5123,7 @@
         <v>0</v>
       </c>
       <c r="F23" s="140" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G23" s="178" t="e">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
@@ -5135,16 +5139,16 @@
         <v>0</v>
       </c>
       <c r="F24" s="140" t="s">
-        <v>176</v>
-      </c>
-      <c r="G24" s="179">
-        <f>(Fin_Analysis!H86*G7)/G3</f>
-        <v>7.3674336711124028E-2</v>
+        <v>260</v>
+      </c>
+      <c r="G24" s="269">
+        <f>G3/(Fin_Analysis!H86*G7)</f>
+        <v>31.729073512353718</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="137" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C25" s="172">
         <f>Fin_Analysis!I82</f>
@@ -5167,11 +5171,11 @@
         <v>0.17445779619528262</v>
       </c>
       <c r="F26" s="141" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G26" s="179">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>3.3829499934604268E-2</v>
+        <v>1.4471780028943561E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5188,12 +5192,12 @@
       </c>
       <c r="E28" s="58"/>
       <c r="F28" s="53" t="s">
-        <v>239</v>
-      </c>
-      <c r="G28" s="271" t="s">
-        <v>260</v>
-      </c>
-      <c r="H28" s="271"/>
+        <v>238</v>
+      </c>
+      <c r="G28" s="272" t="s">
+        <v>259</v>
+      </c>
+      <c r="H28" s="272"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="87" t="s">
@@ -5201,42 +5205,42 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>9.9480809869715436</v>
+        <v>8.1425053486979024</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>19.666243183610092</v>
+        <v>16.096822142989748</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>11.703624690554758</v>
-      </c>
-      <c r="G29" s="272">
+        <v>9.579418057291651</v>
+      </c>
+      <c r="G29" s="273">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>17.101081029226169</v>
-      </c>
-      <c r="H29" s="272"/>
+        <v>13.997236646078042</v>
+      </c>
+      <c r="H29" s="273"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="5"/>
       <c r="B31" s="6" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C31"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32"/>
       <c r="B32" s="197" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C32" s="225"/>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33"/>
       <c r="B33" s="20" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C33" s="246" t="str">
         <f>Inputs!C17</f>
@@ -5246,7 +5250,7 @@
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34"/>
       <c r="B34" s="19" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C34" s="226" t="e">
         <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C54&lt;0.8),"Strongly disagree",
@@ -5257,14 +5261,14 @@
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35"/>
       <c r="B35" s="197" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C35" s="225"/>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C36" s="246" t="str">
         <f>Inputs!C18</f>
@@ -5274,7 +5278,7 @@
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37"/>
       <c r="B37" s="20" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C37" s="246" t="str">
         <f>Inputs!C19</f>
@@ -5284,14 +5288,14 @@
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38"/>
       <c r="B38" s="197" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C38" s="225"/>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39"/>
       <c r="B39" s="19" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C39" s="246" t="str">
         <f>Inputs!C20</f>
@@ -5301,7 +5305,7 @@
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40"/>
       <c r="B40" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C40" s="246" t="str">
         <f>Inputs!C21</f>
@@ -5316,14 +5320,14 @@
     <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="5"/>
       <c r="B42" s="6" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C42"/>
     </row>
     <row r="43" spans="1:3" ht="65.650000000000006" x14ac:dyDescent="0.4">
       <c r="A43"/>
       <c r="B43" s="227" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C43" s="245" t="str">
         <f>Inputs!C22</f>
@@ -6308,16 +6312,16 @@
       <c r="C2" s="18"/>
       <c r="D2" s="17"/>
       <c r="E2" s="149" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F2" s="119" t="s">
+        <v>203</v>
+      </c>
+      <c r="G2" s="149" t="s">
         <v>204</v>
       </c>
-      <c r="G2" s="149" t="s">
+      <c r="H2" s="148" t="s">
         <v>205</v>
-      </c>
-      <c r="H2" s="148" t="s">
-        <v>206</v>
       </c>
       <c r="I2" s="7"/>
       <c r="J2" s="87"/>
@@ -6335,7 +6339,7 @@
         <v>45291</v>
       </c>
       <c r="E3" s="147" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F3" s="85" t="str">
         <f>H14</f>
@@ -6368,7 +6372,7 @@
         <v>HKD</v>
       </c>
       <c r="E4" s="147" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F4" s="93" t="e">
         <f>(G3/F3)^(1/H3)-1</f>
@@ -6735,7 +6739,7 @@
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
       <c r="B12" s="99" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C12" s="200">
         <f>IF(Inputs!C30="","",MAX(Inputs!C30,0)/(1-Fin_Analysis!$I$84))</f>
@@ -6786,7 +6790,7 @@
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
       <c r="B13" s="229" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C13" s="230">
         <f t="shared" ref="C13:M13" si="3">IF(C14="","",C14/C6)</f>
@@ -6837,7 +6841,7 @@
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
       <c r="B14" s="229" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C14" s="231">
         <f>IF(C6="","",C9-C10-MAX(C11,0)-MAX(C12,0))</f>
@@ -6888,7 +6892,7 @@
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
       <c r="B15" s="232" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C15" s="233" t="str">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
@@ -6990,7 +6994,7 @@
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
       <c r="B17" s="97" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C17" s="200" t="str">
         <f>IF(Inputs!C29="","",Inputs!C29)</f>
@@ -7143,7 +7147,7 @@
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
       <c r="B20" s="97" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C20" s="153">
         <f t="shared" ref="C20:M20" si="7">IF(C6="","",MAX(C21,0)/C6)</f>
@@ -8214,7 +8218,7 @@
     <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="16"/>
       <c r="B41" s="55" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C41" s="54"/>
       <c r="D41" s="54"/>
@@ -8283,7 +8287,7 @@
     <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="4"/>
       <c r="B43" s="94" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C43" s="154">
         <f t="shared" ref="C43:M43" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
@@ -8487,7 +8491,7 @@
     <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="4"/>
       <c r="B47" s="94" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C47" s="154">
         <f>IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
@@ -10385,7 +10389,7 @@
         <v>34</v>
       </c>
       <c r="D10" s="74" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E10" s="74" t="s">
         <v>35</v>
@@ -11437,11 +11441,11 @@
         <v>90</v>
       </c>
       <c r="C56" s="87"/>
-      <c r="D56" s="282">
+      <c r="D56" s="283">
         <f>I15+I34</f>
         <v>0</v>
       </c>
-      <c r="E56" s="280"/>
+      <c r="E56" s="281"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="I56" s="56"/>
@@ -11452,11 +11456,11 @@
         <v>91</v>
       </c>
       <c r="C57" s="87"/>
-      <c r="D57" s="281">
+      <c r="D57" s="282">
         <f>Inputs!C84</f>
         <v>0</v>
       </c>
-      <c r="E57" s="280"/>
+      <c r="E57" s="281"/>
       <c r="G57" s="87"/>
       <c r="I57" s="87"/>
       <c r="K57" s="33" t="s">
@@ -11468,11 +11472,11 @@
         <v>93</v>
       </c>
       <c r="C58" s="87"/>
-      <c r="D58" s="281">
+      <c r="D58" s="282">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="280"/>
+      <c r="E58" s="281"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
       <c r="I58" s="87"/>
@@ -11686,19 +11690,19 @@
       <c r="B72" s="106" t="s">
         <v>128</v>
       </c>
-      <c r="C72" s="269">
+      <c r="C72" s="270">
         <f>Data!C5</f>
         <v>45291</v>
       </c>
-      <c r="D72" s="269"/>
-      <c r="E72" s="283" t="s">
-        <v>208</v>
-      </c>
-      <c r="F72" s="283"/>
-      <c r="H72" s="283" t="s">
+      <c r="D72" s="270"/>
+      <c r="E72" s="284" t="s">
         <v>207</v>
       </c>
-      <c r="I72" s="283"/>
+      <c r="F72" s="284"/>
+      <c r="H72" s="284" t="s">
+        <v>206</v>
+      </c>
+      <c r="I72" s="284"/>
       <c r="K72" s="50" t="s">
         <v>8</v>
       </c>
@@ -11708,18 +11712,18 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000HKD)</v>
       </c>
-      <c r="C73" s="270" t="s">
+      <c r="C73" s="271" t="s">
         <v>101</v>
       </c>
-      <c r="D73" s="270"/>
-      <c r="E73" s="284" t="s">
+      <c r="D73" s="271"/>
+      <c r="E73" s="285" t="s">
         <v>102</v>
       </c>
-      <c r="F73" s="270"/>
-      <c r="H73" s="284" t="s">
+      <c r="F73" s="271"/>
+      <c r="H73" s="285" t="s">
         <v>102</v>
       </c>
-      <c r="I73" s="270"/>
+      <c r="I73" s="271"/>
       <c r="K73" s="24"/>
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11796,7 +11800,7 @@
     </row>
     <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B77" s="104" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C77" s="77">
         <f>Data!C10+MAX(Data!C11,0)</f>
@@ -11856,7 +11860,7 @@
     </row>
     <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B79" s="257" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C79" s="258">
         <f>C76-C77-C78</f>
@@ -11919,7 +11923,7 @@
     </row>
     <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B81" s="104" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C81" s="77">
         <f>MAX(Data!C17,0)</f>
@@ -11949,7 +11953,7 @@
     </row>
     <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="28" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C82" s="77">
         <f>ABS(MAX(Data!C21,0)-MAX(Data!C19,0))</f>
@@ -12082,28 +12086,28 @@
     </row>
     <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B87" s="87" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C87" s="262">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>7.3674336711124028E-2</v>
+        <v>3.1516835800788505E-2</v>
       </c>
       <c r="D87" s="210"/>
       <c r="E87" s="263">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>7.3674336711124028E-2</v>
+        <v>3.1516835800788505E-2</v>
       </c>
       <c r="F87" s="210"/>
       <c r="H87" s="263">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>7.3674336711124028E-2</v>
+        <v>3.1516835800788505E-2</v>
       </c>
       <c r="I87" s="210"/>
       <c r="K87" s="24"/>
     </row>
     <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B88" s="86" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C88" s="170">
         <f>Inputs!C44</f>
@@ -12133,21 +12137,21 @@
     </row>
     <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B89" s="87" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C89" s="262">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.412719989536683E-2</v>
+        <v>2.3154848046309698E-2</v>
       </c>
       <c r="D89" s="210"/>
       <c r="E89" s="262">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>3.3829499934604268E-2</v>
+        <v>1.4471780028943561E-2</v>
       </c>
       <c r="F89" s="210"/>
       <c r="H89" s="262">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>3.3829499934604268E-2</v>
+        <v>1.4471780028943561E-2</v>
       </c>
       <c r="I89" s="210"/>
       <c r="K89" s="24"/>
@@ -12178,15 +12182,15 @@
       <c r="D92" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="E92" s="283" t="s">
-        <v>208</v>
-      </c>
-      <c r="F92" s="283"/>
+      <c r="E92" s="284" t="s">
+        <v>207</v>
+      </c>
+      <c r="F92" s="284"/>
       <c r="G92" s="87"/>
-      <c r="H92" s="283" t="s">
-        <v>207</v>
-      </c>
-      <c r="I92" s="283"/>
+      <c r="H92" s="284" t="s">
+        <v>206</v>
+      </c>
+      <c r="I92" s="284"/>
       <c r="K92" s="24"/>
     </row>
     <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -12203,24 +12207,24 @@
         <v>5</v>
       </c>
       <c r="E93" s="87" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/C93))*Exchange_Rate</f>
-        <v>23.540169641149767</v>
+        <v>19.267631361600841</v>
       </c>
       <c r="H93" s="87" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/C93))*Exchange_Rate</f>
-        <v>23.540169641149767</v>
+        <v>19.267631361600841</v>
       </c>
       <c r="K93" s="24"/>
     </row>
     <row r="94" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B94" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C94" s="183">
         <f>Dashboard!G20</f>
@@ -12228,18 +12232,18 @@
       </c>
       <c r="D94" s="145"/>
       <c r="E94" s="87" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/C93))*Exchange_Rate</f>
-        <v>8.9468606057332227</v>
+        <v>8.1400284307572246</v>
       </c>
       <c r="H94" s="87" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/C93))*Exchange_Rate</f>
-        <v>8.9468606057332227</v>
+        <v>8.1400284307572246</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12258,14 +12262,14 @@
         <v>HKD</v>
       </c>
       <c r="D96" s="124" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E96" s="184" t="str">
         <f>E72</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F96" s="228" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H96" s="184" t="str">
         <f>H72</f>
@@ -12282,21 +12286,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>51186820.354751572</v>
+        <v>41896417.91891814</v>
       </c>
       <c r="D97" s="214"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>11.703624690554758</v>
+        <v>9.579418057291651</v>
       </c>
       <c r="F97" s="214"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>11.703624690554758</v>
+        <v>9.579418057291651</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>17.101081029226169</v>
+        <v>13.997236646078042</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12345,27 +12349,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>51186820.354751572</v>
+        <v>41896417.91891814</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>9.9480809869715436</v>
+        <v>8.1425053486979024</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>11.703624690554758</v>
+        <v>9.579418057291651</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>11.703624690554758</v>
+        <v>9.579418057291651</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>11.703624690554758</v>
+        <v>9.579418057291651</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>17.101081029226169</v>
+        <v>13.997236646078042</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12382,14 +12386,14 @@
         <v>HKD</v>
       </c>
       <c r="D102" s="124" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E102" s="184" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F102" s="228" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H102" s="184" t="str">
         <f>H96</f>
@@ -12406,27 +12410,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>19454462.459103256</v>
+        <v>17700049.715843488</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>3.7809453050582253</v>
+        <v>3.4399778463732682</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>4.4481709471273243</v>
+        <v>4.047032760439139</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>4.4481709471273243</v>
+        <v>4.047032760439139</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>4.4481709471273243</v>
+        <v>4.047032760439139</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>6.4995703305544383</v>
+        <v>5.9134359648474035</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12436,21 +12440,21 @@
     </row>
     <row r="105" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B105" s="10" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C105" s="127" t="str">
         <f>C102</f>
         <v>HKD</v>
       </c>
       <c r="D105" s="124" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E105" s="185" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F105" s="228" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H105" s="185" t="str">
         <f>H96</f>
@@ -12463,31 +12467,31 @@
     </row>
     <row r="106" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B106" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>35320641.406927414</v>
+        <v>29798233.817380808</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>6.8645131460148843</v>
+        <v>5.7912415975355849</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>8.0758978188410406</v>
+        <v>6.813225408865395</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>8.0758978188410406</v>
+        <v>6.813225408865395</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>8.0758978188410406</v>
+        <v>6.813225408865395</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>11.800325679890303</v>
+        <v>9.9553363054627226</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0027.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0027.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2F4F167E-89A9-45BF-A1FC-4C4303EA362E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F35D3840-8C95-4670-8256-5BAA247850BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="267">
   <si>
     <t>Company Info:</t>
   </si>
@@ -954,6 +954,10 @@
   </si>
   <si>
     <t>Consumer Monopoly</t>
+  </si>
+  <si>
+    <t>HKD</t>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -4136,7 +4140,7 @@
       </c>
       <c r="C45" s="153">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>2.3154848046309698E-2</v>
+        <v>2.2503516174402254E-2</v>
       </c>
       <c r="D45" s="153" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4870,10 +4874,10 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>34.549999999999997</v>
+        <v>35.549999999999997</v>
       </c>
       <c r="H3" s="134" t="s">
-        <v>2</v>
+        <v>266</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4911,7 +4915,7 @@
       </c>
       <c r="G5" s="274">
         <f>G3*G4/1000000</f>
-        <v>151107.42953709999</v>
+        <v>155481.01649909996</v>
       </c>
       <c r="H5" s="274"/>
       <c r="I5" s="38"/>
@@ -5143,7 +5147,7 @@
       </c>
       <c r="G24" s="269">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>31.729073512353718</v>
+        <v>32.647425857139645</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5175,7 +5179,7 @@
       </c>
       <c r="G26" s="179">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>1.4471780028943561E-2</v>
+        <v>1.4064697609001408E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5205,20 +5209,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>8.1425053486979024</v>
+        <v>8.1075745737157998</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>16.096822142989748</v>
+        <v>16.027767908681671</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>9.579418057291651</v>
+        <v>9.5383230279009403</v>
       </c>
       <c r="G29" s="273">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>13.997236646078042</v>
+        <v>13.937189485810151</v>
       </c>
       <c r="H29" s="273"/>
     </row>
@@ -12090,17 +12094,17 @@
       </c>
       <c r="C87" s="262">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>3.1516835800788505E-2</v>
+        <v>3.0630286270527229E-2</v>
       </c>
       <c r="D87" s="210"/>
       <c r="E87" s="263">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>3.1516835800788505E-2</v>
+        <v>3.0630286270527229E-2</v>
       </c>
       <c r="F87" s="210"/>
       <c r="H87" s="263">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>3.1516835800788505E-2</v>
+        <v>3.0630286270527229E-2</v>
       </c>
       <c r="I87" s="210"/>
       <c r="K87" s="24"/>
@@ -12141,17 +12145,17 @@
       </c>
       <c r="C89" s="262">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>2.3154848046309698E-2</v>
+        <v>2.2503516174402254E-2</v>
       </c>
       <c r="D89" s="210"/>
       <c r="E89" s="262">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>1.4471780028943561E-2</v>
+        <v>1.4064697609001408E-2</v>
       </c>
       <c r="F89" s="210"/>
       <c r="H89" s="262">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>1.4471780028943561E-2</v>
+        <v>1.4064697609001408E-2</v>
       </c>
       <c r="I89" s="210"/>
       <c r="K89" s="24"/>
@@ -12211,14 +12215,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/C93))*Exchange_Rate</f>
-        <v>19.267631361600841</v>
+        <v>19.184974578865312</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/C93))*Exchange_Rate</f>
-        <v>19.267631361600841</v>
+        <v>19.184974578865312</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12236,14 +12240,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/C93))*Exchange_Rate</f>
-        <v>8.1400284307572246</v>
+        <v>8.1237095728914355</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>211</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/C93))*Exchange_Rate</f>
-        <v>8.1400284307572246</v>
+        <v>8.1237095728914355</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12286,21 +12290,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>41896417.91891814</v>
+        <v>41716685.234171912</v>
       </c>
       <c r="D97" s="214"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>9.579418057291651</v>
+        <v>9.5383230279009403</v>
       </c>
       <c r="F97" s="214"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>9.579418057291651</v>
+        <v>9.5383230279009403</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>13.997236646078042</v>
+        <v>13.937189485810151</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12349,27 +12353,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>41896417.91891814</v>
+        <v>41716685.234171912</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>8.1425053486979024</v>
+        <v>8.1075745737157998</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>9.579418057291651</v>
+        <v>9.5383230279009403</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>9.579418057291651</v>
+        <v>9.5383230279009403</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>9.579418057291651</v>
+        <v>9.5383230279009403</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>13.997236646078042</v>
+        <v>13.937189485810151</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12410,27 +12414,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>17700049.715843488</v>
+        <v>17664565.245735388</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>3.4399778463732682</v>
+        <v>3.4330814933673843</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>4.047032760439139</v>
+        <v>4.0389194039616285</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>4.047032760439139</v>
+        <v>4.0389194039616285</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>4.047032760439139</v>
+        <v>4.0389194039616285</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>5.9134359648474035</v>
+        <v>5.9015809053927999</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12471,27 +12475,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>29798233.817380808</v>
+        <v>29690625.239953652</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>5.7912415975355849</v>
+        <v>5.7703280335415919</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>6.813225408865395</v>
+        <v>6.7886212159312844</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>6.813225408865395</v>
+        <v>6.7886212159312844</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>6.813225408865395</v>
+        <v>6.7886212159312844</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>9.9553363054627226</v>
+        <v>9.9193851956014747</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0027.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0027.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F35D3840-8C95-4670-8256-5BAA247850BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AF29C9C7-E653-402B-90CB-01887F58EA49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4140,7 +4140,7 @@
       </c>
       <c r="C45" s="153">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>2.2503516174402254E-2</v>
+        <v>2.2535211267605635E-2</v>
       </c>
       <c r="D45" s="153" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4784,7 +4784,7 @@
   </conditionalFormatting>
   <dataValidations count="8">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8" xr:uid="{4F1A5CDA-569A-4509-AA2D-9CF95C6DB1A5}">
-      <formula1>"Tier 1, Superior Cycl. ,Cigar Butts, N"</formula1>
+      <formula1>"Tier 1, Superior Cycl. ,Tier 3, N"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" sqref="C11" xr:uid="{7C8576B4-3288-485C-91EB-6274925EDC41}">
       <formula1>"HKD,USD,CNY,EUR"</formula1>
@@ -4874,7 +4874,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>35.549999999999997</v>
+        <v>35.5</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>266</v>
@@ -4915,7 +4915,7 @@
       </c>
       <c r="G5" s="274">
         <f>G3*G4/1000000</f>
-        <v>155481.01649909996</v>
+        <v>155262.33715100001</v>
       </c>
       <c r="H5" s="274"/>
       <c r="I5" s="38"/>
@@ -5147,7 +5147,7 @@
       </c>
       <c r="G24" s="269">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>32.647425857139645</v>
+        <v>32.601508239900348</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5179,7 +5179,7 @@
       </c>
       <c r="G26" s="179">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>1.4064697609001408E-2</v>
+        <v>1.4084507042253521E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5209,20 +5209,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>8.1075745737157998</v>
+        <v>8.1092715943429265</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>16.027767908681671</v>
+        <v>16.031122728609699</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>9.5383230279009403</v>
+        <v>9.5403195227563842</v>
       </c>
       <c r="G29" s="273">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>13.937189485810151</v>
+        <v>13.940106720530173</v>
       </c>
       <c r="H29" s="273"/>
     </row>
@@ -12094,17 +12094,17 @@
       </c>
       <c r="C87" s="262">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>3.0630286270527229E-2</v>
+        <v>3.0673427518795572E-2</v>
       </c>
       <c r="D87" s="210"/>
       <c r="E87" s="263">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>3.0630286270527229E-2</v>
+        <v>3.0673427518795572E-2</v>
       </c>
       <c r="F87" s="210"/>
       <c r="H87" s="263">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>3.0630286270527229E-2</v>
+        <v>3.0673427518795572E-2</v>
       </c>
       <c r="I87" s="210"/>
       <c r="K87" s="24"/>
@@ -12145,17 +12145,17 @@
       </c>
       <c r="C89" s="262">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>2.2503516174402254E-2</v>
+        <v>2.2535211267605635E-2</v>
       </c>
       <c r="D89" s="210"/>
       <c r="E89" s="262">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>1.4064697609001408E-2</v>
+        <v>1.4084507042253521E-2</v>
       </c>
       <c r="F89" s="210"/>
       <c r="H89" s="262">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>1.4064697609001408E-2</v>
+        <v>1.4084507042253521E-2</v>
       </c>
       <c r="I89" s="210"/>
       <c r="K89" s="24"/>
@@ -12215,14 +12215,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/C93))*Exchange_Rate</f>
-        <v>19.184974578865312</v>
+        <v>19.188990243142616</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/C93))*Exchange_Rate</f>
-        <v>19.184974578865312</v>
+        <v>19.188990243142616</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12240,14 +12240,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/C93))*Exchange_Rate</f>
-        <v>8.1237095728914355</v>
+        <v>8.1245030743826465</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>211</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/C93))*Exchange_Rate</f>
-        <v>8.1237095728914355</v>
+        <v>8.1245030743826465</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12290,21 +12290,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>41716685.234171912</v>
+        <v>41725417.078041382</v>
       </c>
       <c r="D97" s="214"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>9.5383230279009403</v>
+        <v>9.5403195227563842</v>
       </c>
       <c r="F97" s="214"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>9.5383230279009403</v>
+        <v>9.5403195227563842</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>13.937189485810151</v>
+        <v>13.940106720530173</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12353,27 +12353,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>41716685.234171912</v>
+        <v>41725417.078041382</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>8.1075745737157998</v>
+        <v>8.1092715943429265</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>9.5383230279009403</v>
+        <v>9.5403195227563842</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>9.5383230279009403</v>
+        <v>9.5403195227563842</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>9.5383230279009403</v>
+        <v>9.5403195227563842</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>13.937189485810151</v>
+        <v>13.940106720530173</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12414,27 +12414,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>17664565.245735388</v>
+        <v>17666290.67163083</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>3.4330814933673843</v>
+        <v>3.433416827276111</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>4.0389194039616285</v>
+        <v>4.0393139144424834</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>4.0389194039616285</v>
+        <v>4.0393139144424834</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>4.0389194039616285</v>
+        <v>4.0393139144424834</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>5.9015809053927999</v>
+        <v>5.9021573554993569</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12475,27 +12475,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>29690625.239953652</v>
+        <v>29695853.87483611</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>5.7703280335415919</v>
+        <v>5.7713442108095183</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>6.7886212159312844</v>
+        <v>6.7898167185994343</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>6.7886212159312844</v>
+        <v>6.7898167185994343</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>6.7886212159312844</v>
+        <v>6.7898167185994343</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>9.9193851956014747</v>
+        <v>9.9211320380147647</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0027.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0027.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AF29C9C7-E653-402B-90CB-01887F58EA49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8D660170-53E1-4384-AB56-6A7FC0D9F750}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/financial_models/opportunities/0027.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0027.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8D660170-53E1-4384-AB56-6A7FC0D9F750}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FF2C589E-5511-4C23-A17D-4B8AFA0205B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/financial_models/opportunities/0027.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0027.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FF2C589E-5511-4C23-A17D-4B8AFA0205B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6CBF313E-82ED-4E6B-ABD8-B24F88C51190}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4577,7 +4577,7 @@
       <c r="E89" s="89" t="s">
         <v>207</v>
       </c>
-      <c r="F89" s="50" t="s">
+      <c r="F89" s="89" t="s">
         <v>206</v>
       </c>
       <c r="H89" s="31"/>

--- a/financial_models/opportunities/0027.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0027.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6CBF313E-82ED-4E6B-ABD8-B24F88C51190}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{ECEA344D-06B7-41EE-ACBA-D461A91995CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5013,7 +5013,7 @@
         <v>0.06</v>
       </c>
       <c r="D12" s="173">
-        <v>6.6000000000000003E-2</v>
+        <v>6.4500000000000002E-2</v>
       </c>
       <c r="F12" s="110"/>
     </row>
@@ -5060,7 +5060,7 @@
         <v>256</v>
       </c>
       <c r="C17" s="176">
-        <v>7.1999999999999995E-2</v>
+        <v>6.8999999999999992E-2</v>
       </c>
       <c r="D17" s="177"/>
     </row>
@@ -5209,20 +5209,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>8.1092715943429265</v>
+        <v>8.2978593058392729</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>16.031122728609699</v>
+        <v>16.519840673240996</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>9.5403195227563842</v>
+        <v>9.7621874186344382</v>
       </c>
       <c r="G29" s="273">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>13.940106720530173</v>
+        <v>14.36507884629652</v>
       </c>
       <c r="H29" s="273"/>
     </row>
@@ -12204,7 +12204,7 @@
       </c>
       <c r="C93" s="136">
         <f>IF(C92="CN",Dashboard!C17,IF(C92="US",Dashboard!C12,IF(C92="HK",Dashboard!D12,Dashboard!D17)))</f>
-        <v>6.6000000000000003E-2</v>
+        <v>6.4500000000000002E-2</v>
       </c>
       <c r="D93" s="240">
         <f>Inputs!C86</f>
@@ -12215,14 +12215,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/C93))*Exchange_Rate</f>
-        <v>19.188990243142616</v>
+        <v>19.635245830192442</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/C93))*Exchange_Rate</f>
-        <v>19.188990243142616</v>
+        <v>19.635245830192442</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12240,14 +12240,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/C93))*Exchange_Rate</f>
-        <v>8.1245030743826465</v>
+        <v>8.3134450063450327</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>211</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/C93))*Exchange_Rate</f>
-        <v>8.1245030743826465</v>
+        <v>8.3134450063450327</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12290,21 +12290,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>41725417.078041382</v>
+        <v>42695775.614740014</v>
       </c>
       <c r="D97" s="214"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>9.5403195227563842</v>
+        <v>9.7621874186344382</v>
       </c>
       <c r="F97" s="214"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>9.5403195227563842</v>
+        <v>9.7621874186344382</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>13.940106720530173</v>
+        <v>14.36507884629652</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12353,27 +12353,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>41725417.078041382</v>
+        <v>42695775.614740014</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>8.1092715943429265</v>
+        <v>8.2978593058392729</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>9.5403195227563842</v>
+        <v>9.7621874186344382</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>9.5403195227563842</v>
+        <v>9.7621874186344382</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>9.5403195227563842</v>
+        <v>9.7621874186344382</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>13.940106720530173</v>
+        <v>14.36507884629652</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12414,27 +12414,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>17666290.67163083</v>
+        <v>18077134.640738521</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>3.433416827276111</v>
+        <v>3.5132637302360203</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>4.0393139144424834</v>
+        <v>4.1332514473364945</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>4.0393139144424834</v>
+        <v>4.1332514473364945</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>4.0393139144424834</v>
+        <v>4.1332514473364945</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>5.9021573554993569</v>
+        <v>6.0820879979441553</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12475,27 +12475,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>29695853.87483611</v>
+        <v>30386455.127739269</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>5.7713442108095183</v>
+        <v>5.9055615180376471</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>6.7898167185994343</v>
+        <v>6.9477194329854663</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>6.7898167185994343</v>
+        <v>6.9477194329854663</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>6.7898167185994343</v>
+        <v>6.9477194329854663</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>9.9211320380147647</v>
+        <v>10.223583422120338</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0027.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0027.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ECEA344D-06B7-41EE-ACBA-D461A91995CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{898CB921-4821-4FA3-B073-D76C34351C3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -964,7 +964,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="12">
+  <numFmts count="13">
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="176" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd"/>
@@ -977,6 +977,7 @@
     <numFmt numFmtId="184" formatCode="#,##0.00_ "/>
     <numFmt numFmtId="185" formatCode="#,##0.0000"/>
     <numFmt numFmtId="186" formatCode="0&quot; Years&quot;"/>
+    <numFmt numFmtId="187" formatCode="&quot;g = &quot;0.00%"/>
   </numFmts>
   <fonts count="29" x14ac:knownFonts="1">
     <font>
@@ -1516,7 +1517,7 @@
     <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="286">
+  <cellXfs count="287">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1816,9 +1817,6 @@
     <xf numFmtId="8" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="186" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="184" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2153,6 +2151,12 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="180" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="187" fontId="2" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="187" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3590,7 +3594,7 @@
       <c r="B4" s="141" t="s">
         <v>195</v>
       </c>
-      <c r="C4" s="189" t="s">
+      <c r="C4" s="188" t="s">
         <v>261</v>
       </c>
     </row>
@@ -3598,7 +3602,7 @@
       <c r="B5" s="141" t="s">
         <v>196</v>
       </c>
-      <c r="C5" s="192" t="s">
+      <c r="C5" s="191" t="s">
         <v>262</v>
       </c>
     </row>
@@ -3606,7 +3610,7 @@
       <c r="B6" s="141" t="s">
         <v>164</v>
       </c>
-      <c r="C6" s="190">
+      <c r="C6" s="189">
         <v>45603</v>
       </c>
     </row>
@@ -3614,7 +3618,7 @@
       <c r="B7" s="140" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="191">
+      <c r="C7" s="190">
         <v>8</v>
       </c>
     </row>
@@ -3622,16 +3626,16 @@
       <c r="B8" s="140" t="s">
         <v>216</v>
       </c>
-      <c r="C8" s="192" t="s">
+      <c r="C8" s="191" t="s">
         <v>71</v>
       </c>
-      <c r="E8" s="268"/>
+      <c r="E8" s="267"/>
     </row>
     <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B9" s="140" t="s">
         <v>217</v>
       </c>
-      <c r="C9" s="193" t="s">
+      <c r="C9" s="192" t="s">
         <v>263</v>
       </c>
     </row>
@@ -3639,7 +3643,7 @@
       <c r="B10" s="140" t="s">
         <v>218</v>
       </c>
-      <c r="C10" s="194">
+      <c r="C10" s="193">
         <v>4373586962</v>
       </c>
     </row>
@@ -3647,101 +3651,101 @@
       <c r="B11" s="140" t="s">
         <v>219</v>
       </c>
-      <c r="C11" s="193" t="s">
+      <c r="C11" s="192" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B12" s="219" t="s">
+      <c r="B12" s="218" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="220">
+      <c r="C12" s="219">
         <v>45291</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B13" s="219" t="s">
+      <c r="B13" s="218" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="221">
+      <c r="C13" s="220">
         <v>1000</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B14" s="219" t="s">
+      <c r="B14" s="218" t="s">
         <v>220</v>
       </c>
-      <c r="C14" s="220">
+      <c r="C14" s="219">
         <v>45473</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B15" s="219" t="s">
+      <c r="B15" s="218" t="s">
         <v>257</v>
       </c>
-      <c r="C15" s="177" t="s">
+      <c r="C15" s="176" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B16" s="223" t="s">
+      <c r="B16" s="222" t="s">
         <v>97</v>
       </c>
-      <c r="C16" s="224">
+      <c r="C16" s="223">
         <v>0.23499999999999999</v>
       </c>
       <c r="D16" s="24"/>
     </row>
     <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B17" s="241" t="s">
+      <c r="B17" s="240" t="s">
         <v>225</v>
       </c>
-      <c r="C17" s="243" t="s">
+      <c r="C17" s="242" t="s">
         <v>264</v>
       </c>
       <c r="D17" s="24"/>
     </row>
     <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B18" s="241" t="s">
+      <c r="B18" s="240" t="s">
         <v>239</v>
       </c>
-      <c r="C18" s="243" t="s">
+      <c r="C18" s="242" t="s">
         <v>246</v>
       </c>
       <c r="D18" s="24"/>
     </row>
     <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B19" s="241" t="s">
+      <c r="B19" s="240" t="s">
         <v>240</v>
       </c>
-      <c r="C19" s="243" t="s">
+      <c r="C19" s="242" t="s">
         <v>264</v>
       </c>
       <c r="D19" s="24"/>
     </row>
     <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B20" s="242" t="s">
+      <c r="B20" s="241" t="s">
         <v>229</v>
       </c>
-      <c r="C20" s="243" t="s">
+      <c r="C20" s="242" t="s">
         <v>264</v>
       </c>
       <c r="D20" s="24"/>
     </row>
     <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B21" s="225" t="s">
+      <c r="B21" s="224" t="s">
         <v>232</v>
       </c>
-      <c r="C21" s="243" t="s">
+      <c r="C21" s="242" t="s">
         <v>246</v>
       </c>
       <c r="D21" s="24"/>
     </row>
     <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
-      <c r="B22" s="227" t="s">
+      <c r="B22" s="226" t="s">
         <v>231</v>
       </c>
-      <c r="C22" s="244" t="s">
+      <c r="C22" s="243" t="s">
         <v>265</v>
       </c>
       <c r="D22" s="24"/>
@@ -3799,386 +3803,386 @@
       <c r="B25" s="94" t="s">
         <v>12</v>
       </c>
-      <c r="C25" s="150">
+      <c r="C25" s="149">
         <v>35684253</v>
       </c>
-      <c r="D25" s="150">
+      <c r="D25" s="149">
         <v>11473793</v>
       </c>
-      <c r="E25" s="150"/>
-      <c r="F25" s="150"/>
-      <c r="G25" s="150"/>
-      <c r="H25" s="150"/>
-      <c r="I25" s="150"/>
-      <c r="J25" s="150"/>
-      <c r="K25" s="150"/>
-      <c r="L25" s="150"/>
-      <c r="M25" s="150"/>
+      <c r="E25" s="149"/>
+      <c r="F25" s="149"/>
+      <c r="G25" s="149"/>
+      <c r="H25" s="149"/>
+      <c r="I25" s="149"/>
+      <c r="J25" s="149"/>
+      <c r="K25" s="149"/>
+      <c r="L25" s="149"/>
+      <c r="M25" s="149"/>
     </row>
     <row r="26" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B26" s="97" t="s">
         <v>106</v>
       </c>
-      <c r="C26" s="151">
+      <c r="C26" s="150">
         <v>16868997</v>
       </c>
-      <c r="D26" s="151">
+      <c r="D26" s="150">
         <v>6522891</v>
       </c>
-      <c r="E26" s="151"/>
-      <c r="F26" s="151"/>
-      <c r="G26" s="151"/>
-      <c r="H26" s="151"/>
-      <c r="I26" s="151"/>
-      <c r="J26" s="151"/>
-      <c r="K26" s="151"/>
-      <c r="L26" s="151"/>
-      <c r="M26" s="151"/>
+      <c r="E26" s="150"/>
+      <c r="F26" s="150"/>
+      <c r="G26" s="150"/>
+      <c r="H26" s="150"/>
+      <c r="I26" s="150"/>
+      <c r="J26" s="150"/>
+      <c r="K26" s="150"/>
+      <c r="L26" s="150"/>
+      <c r="M26" s="150"/>
     </row>
     <row r="27" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B27" s="97" t="s">
         <v>104</v>
       </c>
-      <c r="C27" s="151">
+      <c r="C27" s="150">
         <v>12529703</v>
       </c>
-      <c r="D27" s="151">
+      <c r="D27" s="150">
         <v>8392476</v>
       </c>
-      <c r="E27" s="151"/>
-      <c r="F27" s="151"/>
-      <c r="G27" s="151"/>
-      <c r="H27" s="151"/>
-      <c r="I27" s="151"/>
-      <c r="J27" s="151"/>
-      <c r="K27" s="151"/>
-      <c r="L27" s="151"/>
-      <c r="M27" s="151"/>
+      <c r="E27" s="150"/>
+      <c r="F27" s="150"/>
+      <c r="G27" s="150"/>
+      <c r="H27" s="150"/>
+      <c r="I27" s="150"/>
+      <c r="J27" s="150"/>
+      <c r="K27" s="150"/>
+      <c r="L27" s="150"/>
+      <c r="M27" s="150"/>
     </row>
     <row r="28" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B28" s="97" t="s">
         <v>107</v>
       </c>
-      <c r="C28" s="151"/>
-      <c r="D28" s="151"/>
-      <c r="E28" s="151"/>
-      <c r="F28" s="151"/>
-      <c r="G28" s="151"/>
-      <c r="H28" s="151"/>
-      <c r="I28" s="151"/>
-      <c r="J28" s="151"/>
-      <c r="K28" s="151"/>
-      <c r="L28" s="151"/>
-      <c r="M28" s="151"/>
+      <c r="C28" s="150"/>
+      <c r="D28" s="150"/>
+      <c r="E28" s="150"/>
+      <c r="F28" s="150"/>
+      <c r="G28" s="150"/>
+      <c r="H28" s="150"/>
+      <c r="I28" s="150"/>
+      <c r="J28" s="150"/>
+      <c r="K28" s="150"/>
+      <c r="L28" s="150"/>
+      <c r="M28" s="150"/>
     </row>
     <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B29" s="97" t="s">
         <v>258</v>
       </c>
-      <c r="C29" s="151"/>
-      <c r="D29" s="151"/>
-      <c r="E29" s="151"/>
-      <c r="F29" s="151"/>
-      <c r="G29" s="151"/>
-      <c r="H29" s="151"/>
-      <c r="I29" s="151"/>
-      <c r="J29" s="151"/>
-      <c r="K29" s="151"/>
-      <c r="L29" s="151"/>
-      <c r="M29" s="151"/>
+      <c r="C29" s="150"/>
+      <c r="D29" s="150"/>
+      <c r="E29" s="150"/>
+      <c r="F29" s="150"/>
+      <c r="G29" s="150"/>
+      <c r="H29" s="150"/>
+      <c r="I29" s="150"/>
+      <c r="J29" s="150"/>
+      <c r="K29" s="150"/>
+      <c r="L29" s="150"/>
+      <c r="M29" s="150"/>
     </row>
     <row r="30" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B30" s="99" t="s">
         <v>111</v>
       </c>
-      <c r="C30" s="151">
+      <c r="C30" s="150">
         <v>46020</v>
       </c>
-      <c r="D30" s="151">
+      <c r="D30" s="150">
         <v>-14407</v>
       </c>
-      <c r="E30" s="151"/>
-      <c r="F30" s="151"/>
-      <c r="G30" s="151"/>
-      <c r="H30" s="151"/>
-      <c r="I30" s="151"/>
-      <c r="J30" s="151"/>
-      <c r="K30" s="151"/>
-      <c r="L30" s="151"/>
-      <c r="M30" s="151"/>
+      <c r="E30" s="150"/>
+      <c r="F30" s="150"/>
+      <c r="G30" s="150"/>
+      <c r="H30" s="150"/>
+      <c r="I30" s="150"/>
+      <c r="J30" s="150"/>
+      <c r="K30" s="150"/>
+      <c r="L30" s="150"/>
+      <c r="M30" s="150"/>
     </row>
     <row r="31" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B31" s="97" t="s">
         <v>110</v>
       </c>
-      <c r="C31" s="151"/>
-      <c r="D31" s="151"/>
-      <c r="E31" s="151"/>
-      <c r="F31" s="151"/>
-      <c r="G31" s="151"/>
-      <c r="H31" s="151"/>
-      <c r="I31" s="151"/>
-      <c r="J31" s="151"/>
-      <c r="K31" s="151"/>
-      <c r="L31" s="151"/>
-      <c r="M31" s="151"/>
+      <c r="C31" s="150"/>
+      <c r="D31" s="150"/>
+      <c r="E31" s="150"/>
+      <c r="F31" s="150"/>
+      <c r="G31" s="150"/>
+      <c r="H31" s="150"/>
+      <c r="I31" s="150"/>
+      <c r="J31" s="150"/>
+      <c r="K31" s="150"/>
+      <c r="L31" s="150"/>
+      <c r="M31" s="150"/>
     </row>
     <row r="32" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B32" s="97" t="s">
         <v>105</v>
       </c>
-      <c r="C32" s="151"/>
-      <c r="D32" s="151"/>
-      <c r="E32" s="151"/>
-      <c r="F32" s="151"/>
-      <c r="G32" s="151"/>
-      <c r="H32" s="151"/>
-      <c r="I32" s="151"/>
-      <c r="J32" s="151"/>
-      <c r="K32" s="151"/>
-      <c r="L32" s="151"/>
-      <c r="M32" s="151"/>
+      <c r="C32" s="150"/>
+      <c r="D32" s="150"/>
+      <c r="E32" s="150"/>
+      <c r="F32" s="150"/>
+      <c r="G32" s="150"/>
+      <c r="H32" s="150"/>
+      <c r="I32" s="150"/>
+      <c r="J32" s="150"/>
+      <c r="K32" s="150"/>
+      <c r="L32" s="150"/>
+      <c r="M32" s="150"/>
     </row>
     <row r="33" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="97" t="s">
         <v>108</v>
       </c>
-      <c r="C33" s="151"/>
-      <c r="D33" s="151"/>
-      <c r="E33" s="151"/>
-      <c r="F33" s="151"/>
-      <c r="G33" s="151"/>
-      <c r="H33" s="151"/>
-      <c r="I33" s="151"/>
-      <c r="J33" s="151"/>
-      <c r="K33" s="151"/>
-      <c r="L33" s="151"/>
-      <c r="M33" s="151"/>
+      <c r="C33" s="150"/>
+      <c r="D33" s="150"/>
+      <c r="E33" s="150"/>
+      <c r="F33" s="150"/>
+      <c r="G33" s="150"/>
+      <c r="H33" s="150"/>
+      <c r="I33" s="150"/>
+      <c r="J33" s="150"/>
+      <c r="K33" s="150"/>
+      <c r="L33" s="150"/>
+      <c r="M33" s="150"/>
     </row>
     <row r="34" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B34" s="94" t="s">
         <v>15</v>
       </c>
-      <c r="C34" s="218"/>
-      <c r="D34" s="151"/>
-      <c r="E34" s="151"/>
-      <c r="F34" s="151"/>
-      <c r="G34" s="151"/>
-      <c r="H34" s="151"/>
-      <c r="I34" s="151"/>
-      <c r="J34" s="151"/>
-      <c r="K34" s="151"/>
-      <c r="L34" s="151"/>
-      <c r="M34" s="151"/>
+      <c r="C34" s="217"/>
+      <c r="D34" s="150"/>
+      <c r="E34" s="150"/>
+      <c r="F34" s="150"/>
+      <c r="G34" s="150"/>
+      <c r="H34" s="150"/>
+      <c r="I34" s="150"/>
+      <c r="J34" s="150"/>
+      <c r="K34" s="150"/>
+      <c r="L34" s="150"/>
+      <c r="M34" s="150"/>
     </row>
     <row r="35" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="94" t="s">
         <v>117</v>
       </c>
-      <c r="C35" s="218"/>
-      <c r="D35" s="151"/>
-      <c r="E35" s="151"/>
-      <c r="F35" s="151"/>
-      <c r="G35" s="151"/>
-      <c r="H35" s="151"/>
-      <c r="I35" s="151"/>
-      <c r="J35" s="151"/>
-      <c r="K35" s="151"/>
-      <c r="L35" s="151"/>
-      <c r="M35" s="151"/>
+      <c r="C35" s="217"/>
+      <c r="D35" s="150"/>
+      <c r="E35" s="150"/>
+      <c r="F35" s="150"/>
+      <c r="G35" s="150"/>
+      <c r="H35" s="150"/>
+      <c r="I35" s="150"/>
+      <c r="J35" s="150"/>
+      <c r="K35" s="150"/>
+      <c r="L35" s="150"/>
+      <c r="M35" s="150"/>
     </row>
     <row r="36" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="94" t="s">
         <v>149</v>
       </c>
-      <c r="C36" s="218"/>
-      <c r="D36" s="151"/>
-      <c r="E36" s="151"/>
-      <c r="F36" s="151"/>
-      <c r="G36" s="151"/>
-      <c r="H36" s="151"/>
-      <c r="I36" s="151"/>
-      <c r="J36" s="151"/>
-      <c r="K36" s="151"/>
-      <c r="L36" s="151"/>
-      <c r="M36" s="151"/>
+      <c r="C36" s="217"/>
+      <c r="D36" s="150"/>
+      <c r="E36" s="150"/>
+      <c r="F36" s="150"/>
+      <c r="G36" s="150"/>
+      <c r="H36" s="150"/>
+      <c r="I36" s="150"/>
+      <c r="J36" s="150"/>
+      <c r="K36" s="150"/>
+      <c r="L36" s="150"/>
+      <c r="M36" s="150"/>
     </row>
     <row r="37" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B37" s="94" t="s">
         <v>16</v>
       </c>
-      <c r="C37" s="218"/>
-      <c r="D37" s="151"/>
-      <c r="E37" s="151"/>
-      <c r="F37" s="151"/>
-      <c r="G37" s="151"/>
-      <c r="H37" s="151"/>
-      <c r="I37" s="151"/>
-      <c r="J37" s="151"/>
-      <c r="K37" s="151"/>
-      <c r="L37" s="151"/>
-      <c r="M37" s="151"/>
+      <c r="C37" s="217"/>
+      <c r="D37" s="150"/>
+      <c r="E37" s="150"/>
+      <c r="F37" s="150"/>
+      <c r="G37" s="150"/>
+      <c r="H37" s="150"/>
+      <c r="I37" s="150"/>
+      <c r="J37" s="150"/>
+      <c r="K37" s="150"/>
+      <c r="L37" s="150"/>
+      <c r="M37" s="150"/>
     </row>
     <row r="38" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B38" s="94" t="s">
         <v>116</v>
       </c>
-      <c r="C38" s="218"/>
-      <c r="D38" s="151"/>
-      <c r="E38" s="151"/>
-      <c r="F38" s="151"/>
-      <c r="G38" s="151"/>
-      <c r="H38" s="151"/>
-      <c r="I38" s="151"/>
-      <c r="J38" s="151"/>
-      <c r="K38" s="151"/>
-      <c r="L38" s="151"/>
-      <c r="M38" s="151"/>
+      <c r="C38" s="217"/>
+      <c r="D38" s="150"/>
+      <c r="E38" s="150"/>
+      <c r="F38" s="150"/>
+      <c r="G38" s="150"/>
+      <c r="H38" s="150"/>
+      <c r="I38" s="150"/>
+      <c r="J38" s="150"/>
+      <c r="K38" s="150"/>
+      <c r="L38" s="150"/>
+      <c r="M38" s="150"/>
     </row>
     <row r="39" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B39" s="94" t="s">
         <v>17</v>
       </c>
-      <c r="C39" s="218"/>
-      <c r="D39" s="151"/>
-      <c r="E39" s="151"/>
-      <c r="F39" s="151"/>
-      <c r="G39" s="151"/>
-      <c r="H39" s="151"/>
-      <c r="I39" s="151"/>
-      <c r="J39" s="151"/>
-      <c r="K39" s="151"/>
-      <c r="L39" s="151"/>
-      <c r="M39" s="151"/>
+      <c r="C39" s="217"/>
+      <c r="D39" s="150"/>
+      <c r="E39" s="150"/>
+      <c r="F39" s="150"/>
+      <c r="G39" s="150"/>
+      <c r="H39" s="150"/>
+      <c r="I39" s="150"/>
+      <c r="J39" s="150"/>
+      <c r="K39" s="150"/>
+      <c r="L39" s="150"/>
+      <c r="M39" s="150"/>
     </row>
     <row r="40" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B40" s="94" t="s">
         <v>18</v>
       </c>
-      <c r="C40" s="218"/>
-      <c r="D40" s="151"/>
-      <c r="E40" s="151"/>
-      <c r="F40" s="151"/>
-      <c r="G40" s="151"/>
-      <c r="H40" s="151"/>
-      <c r="I40" s="151"/>
-      <c r="J40" s="151"/>
-      <c r="K40" s="151"/>
-      <c r="L40" s="151"/>
-      <c r="M40" s="151"/>
+      <c r="C40" s="217"/>
+      <c r="D40" s="150"/>
+      <c r="E40" s="150"/>
+      <c r="F40" s="150"/>
+      <c r="G40" s="150"/>
+      <c r="H40" s="150"/>
+      <c r="I40" s="150"/>
+      <c r="J40" s="150"/>
+      <c r="K40" s="150"/>
+      <c r="L40" s="150"/>
+      <c r="M40" s="150"/>
     </row>
     <row r="41" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B41" s="94" t="s">
         <v>138</v>
       </c>
-      <c r="C41" s="218"/>
-      <c r="D41" s="151"/>
-      <c r="E41" s="151"/>
-      <c r="F41" s="151"/>
-      <c r="G41" s="151"/>
-      <c r="H41" s="151"/>
-      <c r="I41" s="151"/>
-      <c r="J41" s="151"/>
-      <c r="K41" s="151"/>
-      <c r="L41" s="151"/>
-      <c r="M41" s="151"/>
+      <c r="C41" s="217"/>
+      <c r="D41" s="150"/>
+      <c r="E41" s="150"/>
+      <c r="F41" s="150"/>
+      <c r="G41" s="150"/>
+      <c r="H41" s="150"/>
+      <c r="I41" s="150"/>
+      <c r="J41" s="150"/>
+      <c r="K41" s="150"/>
+      <c r="L41" s="150"/>
+      <c r="M41" s="150"/>
     </row>
     <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B42" s="94" t="s">
         <v>139</v>
       </c>
-      <c r="C42" s="218"/>
-      <c r="D42" s="151"/>
-      <c r="E42" s="151"/>
-      <c r="F42" s="151"/>
-      <c r="G42" s="151"/>
-      <c r="H42" s="151"/>
-      <c r="I42" s="151"/>
-      <c r="J42" s="151"/>
-      <c r="K42" s="151"/>
-      <c r="L42" s="151"/>
-      <c r="M42" s="151"/>
+      <c r="C42" s="217"/>
+      <c r="D42" s="150"/>
+      <c r="E42" s="150"/>
+      <c r="F42" s="150"/>
+      <c r="G42" s="150"/>
+      <c r="H42" s="150"/>
+      <c r="I42" s="150"/>
+      <c r="J42" s="150"/>
+      <c r="K42" s="150"/>
+      <c r="L42" s="150"/>
+      <c r="M42" s="150"/>
     </row>
     <row r="43" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B43" s="94" t="s">
         <v>137</v>
       </c>
-      <c r="C43" s="218"/>
-      <c r="D43" s="151"/>
-      <c r="E43" s="151"/>
-      <c r="F43" s="151"/>
-      <c r="G43" s="151"/>
-      <c r="H43" s="151"/>
-      <c r="I43" s="151"/>
-      <c r="J43" s="151"/>
-      <c r="K43" s="151"/>
-      <c r="L43" s="151"/>
-      <c r="M43" s="151"/>
+      <c r="C43" s="217"/>
+      <c r="D43" s="150"/>
+      <c r="E43" s="150"/>
+      <c r="F43" s="150"/>
+      <c r="G43" s="150"/>
+      <c r="H43" s="150"/>
+      <c r="I43" s="150"/>
+      <c r="J43" s="150"/>
+      <c r="K43" s="150"/>
+      <c r="L43" s="150"/>
+      <c r="M43" s="150"/>
     </row>
     <row r="44" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B44" s="74" t="s">
         <v>208</v>
       </c>
-      <c r="C44" s="251">
+      <c r="C44" s="250">
         <f>0.5+0.3</f>
         <v>0.8</v>
       </c>
-      <c r="D44" s="251"/>
-      <c r="E44" s="251"/>
-      <c r="F44" s="251"/>
-      <c r="G44" s="251"/>
-      <c r="H44" s="251"/>
-      <c r="I44" s="251"/>
-      <c r="J44" s="251"/>
-      <c r="K44" s="251"/>
-      <c r="L44" s="251"/>
-      <c r="M44" s="251"/>
+      <c r="D44" s="250"/>
+      <c r="E44" s="250"/>
+      <c r="F44" s="250"/>
+      <c r="G44" s="250"/>
+      <c r="H44" s="250"/>
+      <c r="I44" s="250"/>
+      <c r="J44" s="250"/>
+      <c r="K44" s="250"/>
+      <c r="L44" s="250"/>
+      <c r="M44" s="250"/>
     </row>
     <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="74" t="s">
         <v>254</v>
       </c>
-      <c r="C45" s="153">
+      <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>2.2535211267605635E-2</v>
-      </c>
-      <c r="D45" s="153" t="str">
+        <v>2.2503516174402254E-2</v>
+      </c>
+      <c r="D45" s="152" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="E45" s="153" t="str">
+      <c r="E45" s="152" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="F45" s="153" t="str">
+      <c r="F45" s="152" t="str">
         <f>IF(F44="","",F44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="G45" s="153" t="str">
+      <c r="G45" s="152" t="str">
         <f>IF(G44="","",G44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="H45" s="153" t="str">
+      <c r="H45" s="152" t="str">
         <f>IF(H44="","",H44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="I45" s="153" t="str">
+      <c r="I45" s="152" t="str">
         <f>IF(I44="","",I44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="J45" s="153" t="str">
+      <c r="J45" s="152" t="str">
         <f>IF(J44="","",J44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="K45" s="153" t="str">
+      <c r="K45" s="152" t="str">
         <f>IF(K44="","",K44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="L45" s="153" t="str">
+      <c r="L45" s="152" t="str">
         <f>IF(L44="","",L44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="M45" s="153" t="str">
+      <c r="M45" s="152" t="str">
         <f>IF(M44="","",M44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
@@ -4187,10 +4191,10 @@
       <c r="B47" s="10" t="s">
         <v>250</v>
       </c>
-      <c r="C47" s="195" t="s">
+      <c r="C47" s="194" t="s">
         <v>34</v>
       </c>
-      <c r="D47" s="195" t="s">
+      <c r="D47" s="194" t="s">
         <v>197</v>
       </c>
       <c r="E47" s="111" t="s">
@@ -4289,7 +4293,7 @@
         <f>D50</f>
         <v>0.6</v>
       </c>
-      <c r="E56" s="222" t="s">
+      <c r="E56" s="221" t="s">
         <v>71</v>
       </c>
     </row>
@@ -4301,7 +4305,7 @@
       <c r="D57" s="60">
         <v>0.6</v>
       </c>
-      <c r="E57" s="222" t="s">
+      <c r="E57" s="221" t="s">
         <v>46</v>
       </c>
     </row>
@@ -4321,7 +4325,7 @@
         <v>51</v>
       </c>
       <c r="C59" s="120"/>
-      <c r="D59" s="196">
+      <c r="D59" s="195">
         <f>D70</f>
         <v>0.05</v>
       </c>
@@ -4389,7 +4393,7 @@
       <c r="D65" s="60">
         <v>0.1</v>
       </c>
-      <c r="E65" s="222" t="s">
+      <c r="E65" s="221" t="s">
         <v>71</v>
       </c>
     </row>
@@ -4401,7 +4405,7 @@
       <c r="D66" s="60">
         <v>0.2</v>
       </c>
-      <c r="E66" s="222" t="s">
+      <c r="E66" s="221" t="s">
         <v>71</v>
       </c>
     </row>
@@ -4414,7 +4418,7 @@
         <f>D65</f>
         <v>0.1</v>
       </c>
-      <c r="E67" s="222" t="s">
+      <c r="E67" s="221" t="s">
         <v>46</v>
       </c>
     </row>
@@ -4462,14 +4466,14 @@
       <c r="E71" s="112"/>
     </row>
     <row r="72" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B72" s="247" t="s">
+      <c r="B72" s="246" t="s">
         <v>76</v>
       </c>
-      <c r="C72" s="248"/>
-      <c r="D72" s="249">
-        <v>0</v>
-      </c>
-      <c r="E72" s="250"/>
+      <c r="C72" s="247"/>
+      <c r="D72" s="248">
+        <v>0</v>
+      </c>
+      <c r="E72" s="249"/>
     </row>
     <row r="73" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B73" s="3" t="s">
@@ -4553,7 +4557,7 @@
       <c r="B86" s="10" t="s">
         <v>251</v>
       </c>
-      <c r="C86" s="198">
+      <c r="C86" s="197">
         <v>5</v>
       </c>
     </row>
@@ -4561,19 +4565,20 @@
       <c r="B87" s="10" t="s">
         <v>249</v>
       </c>
-      <c r="C87" s="237" t="s">
+      <c r="C87" s="236" t="s">
         <v>252</v>
       </c>
+      <c r="D87" s="269"/>
     </row>
     <row r="89" spans="2:8" ht="13.5" x14ac:dyDescent="0.35">
       <c r="B89" s="106" t="s">
         <v>128</v>
       </c>
-      <c r="C89" s="270">
+      <c r="C89" s="271">
         <f>C24</f>
         <v>45291</v>
       </c>
-      <c r="D89" s="270"/>
+      <c r="D89" s="271"/>
       <c r="E89" s="89" t="s">
         <v>207</v>
       </c>
@@ -4587,14 +4592,14 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000HKD)</v>
       </c>
-      <c r="C90" s="271" t="s">
+      <c r="C90" s="272" t="s">
         <v>101</v>
       </c>
-      <c r="D90" s="271"/>
-      <c r="E90" s="236" t="s">
+      <c r="D90" s="272"/>
+      <c r="E90" s="235" t="s">
         <v>102</v>
       </c>
-      <c r="F90" s="256" t="s">
+      <c r="F90" s="255" t="s">
         <v>102</v>
       </c>
     </row>
@@ -4606,12 +4611,12 @@
         <f>C25</f>
         <v>35684253</v>
       </c>
-      <c r="D91" s="210"/>
-      <c r="E91" s="252">
+      <c r="D91" s="209"/>
+      <c r="E91" s="251">
         <f>C91</f>
         <v>35684253</v>
       </c>
-      <c r="F91" s="252">
+      <c r="F91" s="251">
         <f>C91</f>
         <v>35684253</v>
       </c>
@@ -4624,15 +4629,15 @@
         <f>C26</f>
         <v>16868997</v>
       </c>
-      <c r="D92" s="160">
+      <c r="D92" s="159">
         <f>C92/C91</f>
         <v>0.47272944175123971</v>
       </c>
-      <c r="E92" s="253">
+      <c r="E92" s="252">
         <f>E91*D92</f>
         <v>16868997</v>
       </c>
-      <c r="F92" s="253">
+      <c r="F92" s="252">
         <f>F91*D92</f>
         <v>16868997</v>
       </c>
@@ -4645,15 +4650,15 @@
         <f>C27+C28</f>
         <v>12529703</v>
       </c>
-      <c r="D93" s="160">
+      <c r="D93" s="159">
         <f>C93/C91</f>
         <v>0.35112695227219692</v>
       </c>
-      <c r="E93" s="253">
+      <c r="E93" s="252">
         <f>E91*D93</f>
         <v>12529703</v>
       </c>
-      <c r="F93" s="253">
+      <c r="F93" s="252">
         <f>F91*D93</f>
         <v>12529703</v>
       </c>
@@ -4666,12 +4671,12 @@
         <f>C29</f>
         <v>0</v>
       </c>
-      <c r="D94" s="160">
+      <c r="D94" s="159">
         <f>C94/C91</f>
         <v>0</v>
       </c>
-      <c r="E94" s="254"/>
-      <c r="F94" s="253">
+      <c r="E94" s="253"/>
+      <c r="F94" s="252">
         <f>F91*D94</f>
         <v>0</v>
       </c>
@@ -4684,15 +4689,15 @@
         <f>ABS(MAX(C33,0)-C32)</f>
         <v>0</v>
       </c>
-      <c r="D95" s="160">
+      <c r="D95" s="159">
         <f>C95/C91</f>
         <v>0</v>
       </c>
-      <c r="E95" s="253">
+      <c r="E95" s="252">
         <f>E91*D95</f>
         <v>0</v>
       </c>
-      <c r="F95" s="253">
+      <c r="F95" s="252">
         <f>F91*D95</f>
         <v>0</v>
       </c>
@@ -4705,12 +4710,12 @@
         <f>MAX(C31,0)</f>
         <v>0</v>
       </c>
-      <c r="D96" s="160">
+      <c r="D96" s="159">
         <f>C96/C91</f>
         <v>0</v>
       </c>
-      <c r="E96" s="254"/>
-      <c r="F96" s="253">
+      <c r="E96" s="253"/>
+      <c r="F96" s="252">
         <f>F91*D96</f>
         <v>0</v>
       </c>
@@ -4723,12 +4728,12 @@
         <f>MAX(C30,0)/(1-C16)</f>
         <v>60156.862745098035</v>
       </c>
-      <c r="D97" s="160">
+      <c r="D97" s="159">
         <f>C97/C91</f>
         <v>1.6858097812807804E-3</v>
       </c>
-      <c r="E97" s="254"/>
-      <c r="F97" s="253">
+      <c r="E97" s="253"/>
+      <c r="F97" s="252">
         <f>F91*D97</f>
         <v>60156.862745098035</v>
       </c>
@@ -4737,16 +4742,16 @@
       <c r="B98" s="86" t="s">
         <v>208</v>
       </c>
-      <c r="C98" s="238">
+      <c r="C98" s="237">
         <f>C44</f>
         <v>0.8</v>
       </c>
-      <c r="D98" s="267"/>
-      <c r="E98" s="255">
+      <c r="D98" s="266"/>
+      <c r="E98" s="254">
         <f>F98</f>
         <v>0.5</v>
       </c>
-      <c r="F98" s="255">
+      <c r="F98" s="254">
         <v>0.5</v>
       </c>
       <c r="G98" s="1"/>
@@ -4864,17 +4869,17 @@
       <c r="B3" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="C3" s="276" t="str">
+      <c r="C3" s="277" t="str">
         <f>Inputs!C4</f>
         <v>0027.HK</v>
       </c>
-      <c r="D3" s="277"/>
+      <c r="D3" s="278"/>
       <c r="E3" s="87"/>
       <c r="F3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>35.5</v>
+        <v>35.549999999999997</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>266</v>
@@ -4884,40 +4889,40 @@
       <c r="B4" s="35" t="s">
         <v>196</v>
       </c>
-      <c r="C4" s="278" t="str">
+      <c r="C4" s="279" t="str">
         <f>Inputs!C5</f>
         <v>銀河娛樂</v>
       </c>
-      <c r="D4" s="279"/>
+      <c r="D4" s="280"/>
       <c r="E4" s="87"/>
       <c r="F4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="282">
+      <c r="G4" s="283">
         <f>Inputs!C10</f>
         <v>4373586962</v>
       </c>
-      <c r="H4" s="282"/>
+      <c r="H4" s="283"/>
       <c r="I4" s="39"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="C5" s="280">
+      <c r="C5" s="281">
         <f>Inputs!C6</f>
         <v>45603</v>
       </c>
-      <c r="D5" s="281"/>
+      <c r="D5" s="282"/>
       <c r="E5" s="34"/>
       <c r="F5" s="35" t="s">
         <v>100</v>
       </c>
-      <c r="G5" s="274">
+      <c r="G5" s="275">
         <f>G3*G4/1000000</f>
-        <v>155262.33715100001</v>
-      </c>
-      <c r="H5" s="274"/>
+        <v>155481.01649909996</v>
+      </c>
+      <c r="H5" s="275"/>
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
@@ -4925,11 +4930,11 @@
       <c r="B6" s="87" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="186">
+      <c r="C6" s="185">
         <f>Inputs!C7</f>
         <v>8</v>
       </c>
-      <c r="D6" s="187">
+      <c r="D6" s="186">
         <f>EOMONTH(EDATE(Fin_Analysis!D9,C6),0)</f>
         <v>45716</v>
       </c>
@@ -4940,22 +4945,22 @@
       <c r="F6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="275" t="str">
+      <c r="G6" s="276" t="str">
         <f>Inputs!C11</f>
         <v>HKD</v>
       </c>
-      <c r="H6" s="275"/>
+      <c r="H6" s="276"/>
       <c r="I6" s="38"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="86" t="s">
         <v>193</v>
       </c>
-      <c r="C7" s="188" t="str">
+      <c r="C7" s="187" t="str">
         <f>Inputs!C8</f>
         <v>N</v>
       </c>
-      <c r="D7" s="188" t="str">
+      <c r="D7" s="187" t="str">
         <f>Inputs!C9</f>
         <v>C0011</v>
       </c>
@@ -4984,7 +4989,7 @@
       <c r="B10" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="C10" s="173">
+      <c r="C10" s="172">
         <v>4.2099999999999999E-2</v>
       </c>
       <c r="F10" s="110" t="s">
@@ -4995,7 +5000,7 @@
       <c r="B11" s="122" t="s">
         <v>180</v>
       </c>
-      <c r="C11" s="174">
+      <c r="C11" s="173">
         <v>5.3099999999999994E-2</v>
       </c>
       <c r="D11" s="137" t="s">
@@ -5009,11 +5014,11 @@
       <c r="B12" s="87" t="s">
         <v>255</v>
       </c>
-      <c r="C12" s="175">
+      <c r="C12" s="174">
         <v>0.06</v>
       </c>
-      <c r="D12" s="173">
-        <v>6.4500000000000002E-2</v>
+      <c r="D12" s="172">
+        <v>6.6000000000000003E-2</v>
       </c>
       <c r="F12" s="110"/>
     </row>
@@ -5022,7 +5027,7 @@
       <c r="B14" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="C14" s="173">
+      <c r="C14" s="172">
         <v>2.1309999999999999E-2</v>
       </c>
       <c r="F14" s="110" t="s">
@@ -5033,7 +5038,7 @@
       <c r="B15" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="C15" s="173">
+      <c r="C15" s="172">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="F15" s="110" t="s">
@@ -5044,10 +5049,10 @@
       <c r="B16" s="122" t="s">
         <v>188</v>
       </c>
-      <c r="C16" s="174">
+      <c r="C16" s="173">
         <v>0.16</v>
       </c>
-      <c r="D16" s="266" t="str">
+      <c r="D16" s="265" t="str">
         <f>Inputs!C15</f>
         <v>HK</v>
       </c>
@@ -5059,10 +5064,10 @@
       <c r="B17" s="87" t="s">
         <v>256</v>
       </c>
-      <c r="C17" s="176">
-        <v>6.8999999999999992E-2</v>
-      </c>
-      <c r="D17" s="177"/>
+      <c r="C17" s="175">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="D17" s="176"/>
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5084,14 +5089,14 @@
       <c r="B20" s="137" t="s">
         <v>170</v>
       </c>
-      <c r="C20" s="172">
+      <c r="C20" s="171">
         <f>Fin_Analysis!I75</f>
         <v>0.47272944175123971</v>
       </c>
       <c r="F20" s="87" t="s">
         <v>212</v>
       </c>
-      <c r="G20" s="173">
+      <c r="G20" s="172">
         <v>0.15</v>
       </c>
     </row>
@@ -5099,7 +5104,7 @@
       <c r="B21" s="137" t="s">
         <v>245</v>
       </c>
-      <c r="C21" s="172">
+      <c r="C21" s="171">
         <f>Fin_Analysis!I77</f>
         <v>0.35112695227219692</v>
       </c>
@@ -5110,7 +5115,7 @@
       <c r="B22" s="137" t="s">
         <v>192</v>
       </c>
-      <c r="C22" s="172">
+      <c r="C22" s="171">
         <f>Fin_Analysis!I78</f>
         <v>1.6858097812807804E-3</v>
       </c>
@@ -5122,14 +5127,14 @@
       <c r="B23" s="137" t="s">
         <v>172</v>
       </c>
-      <c r="C23" s="172">
+      <c r="C23" s="171">
         <f>Fin_Analysis!I80</f>
         <v>0</v>
       </c>
       <c r="F23" s="140" t="s">
         <v>189</v>
       </c>
-      <c r="G23" s="178" t="e">
+      <c r="G23" s="177" t="e">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
         <v>#DIV/0!</v>
       </c>
@@ -5138,30 +5143,30 @@
       <c r="B24" s="137" t="s">
         <v>171</v>
       </c>
-      <c r="C24" s="172">
+      <c r="C24" s="171">
         <f>Fin_Analysis!I81</f>
         <v>0</v>
       </c>
       <c r="F24" s="140" t="s">
         <v>260</v>
       </c>
-      <c r="G24" s="269">
+      <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>32.601508239900348</v>
+        <v>32.647425857139645</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="137" t="s">
         <v>244</v>
       </c>
-      <c r="C25" s="172">
+      <c r="C25" s="171">
         <f>Fin_Analysis!I82</f>
         <v>0</v>
       </c>
       <c r="F25" s="140" t="s">
         <v>175</v>
       </c>
-      <c r="G25" s="172">
+      <c r="G25" s="171">
         <f>Fin_Analysis!I88</f>
         <v>0.45917617239296266</v>
       </c>
@@ -5170,16 +5175,16 @@
       <c r="B26" s="138" t="s">
         <v>174</v>
       </c>
-      <c r="C26" s="172">
+      <c r="C26" s="171">
         <f>Fin_Analysis!I83</f>
         <v>0.17445779619528262</v>
       </c>
       <c r="F26" s="141" t="s">
         <v>194</v>
       </c>
-      <c r="G26" s="179">
+      <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>1.4084507042253521E-2</v>
+        <v>1.4064697609001408E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5198,10 +5203,10 @@
       <c r="F28" s="53" t="s">
         <v>238</v>
       </c>
-      <c r="G28" s="272" t="s">
+      <c r="G28" s="273" t="s">
         <v>259</v>
       </c>
-      <c r="H28" s="272"/>
+      <c r="H28" s="273"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="87" t="s">
@@ -5209,22 +5214,22 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>8.2978593058392729</v>
+        <v>8.1075745737157998</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>16.519840673240996</v>
+        <v>16.027767908681671</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>9.7621874186344382</v>
-      </c>
-      <c r="G29" s="273">
+        <v>9.5383230279009403</v>
+      </c>
+      <c r="G29" s="274">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>14.36507884629652</v>
-      </c>
-      <c r="H29" s="273"/>
+        <v>13.937189485810151</v>
+      </c>
+      <c r="H29" s="274"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5236,17 +5241,17 @@
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32"/>
-      <c r="B32" s="197" t="s">
+      <c r="B32" s="196" t="s">
         <v>224</v>
       </c>
-      <c r="C32" s="225"/>
+      <c r="C32" s="224"/>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33"/>
       <c r="B33" s="20" t="s">
         <v>225</v>
       </c>
-      <c r="C33" s="246" t="str">
+      <c r="C33" s="245" t="str">
         <f>Inputs!C17</f>
         <v>agree</v>
       </c>
@@ -5256,7 +5261,7 @@
       <c r="B34" s="19" t="s">
         <v>226</v>
       </c>
-      <c r="C34" s="226" t="e">
+      <c r="C34" s="225" t="e">
         <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C54&lt;0.8),"Strongly disagree",
 IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C54&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C54&lt;1.4),"agree","Strongly agree")))</f>
         <v>#DIV/0!</v>
@@ -5264,17 +5269,17 @@
     </row>
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35"/>
-      <c r="B35" s="197" t="s">
+      <c r="B35" s="196" t="s">
         <v>227</v>
       </c>
-      <c r="C35" s="225"/>
+      <c r="C35" s="224"/>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
         <v>239</v>
       </c>
-      <c r="C36" s="246" t="str">
+      <c r="C36" s="245" t="str">
         <f>Inputs!C18</f>
         <v>unclear</v>
       </c>
@@ -5284,24 +5289,24 @@
       <c r="B37" s="20" t="s">
         <v>240</v>
       </c>
-      <c r="C37" s="246" t="str">
+      <c r="C37" s="245" t="str">
         <f>Inputs!C19</f>
         <v>agree</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38"/>
-      <c r="B38" s="197" t="s">
+      <c r="B38" s="196" t="s">
         <v>228</v>
       </c>
-      <c r="C38" s="225"/>
+      <c r="C38" s="224"/>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39"/>
       <c r="B39" s="19" t="s">
         <v>229</v>
       </c>
-      <c r="C39" s="246" t="str">
+      <c r="C39" s="245" t="str">
         <f>Inputs!C20</f>
         <v>agree</v>
       </c>
@@ -5311,7 +5316,7 @@
       <c r="B40" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="C40" s="246" t="str">
+      <c r="C40" s="245" t="str">
         <f>Inputs!C21</f>
         <v>unclear</v>
       </c>
@@ -5330,10 +5335,10 @@
     </row>
     <row r="43" spans="1:3" ht="65.650000000000006" x14ac:dyDescent="0.4">
       <c r="A43"/>
-      <c r="B43" s="227" t="s">
+      <c r="B43" s="226" t="s">
         <v>231</v>
       </c>
-      <c r="C43" s="245" t="str">
+      <c r="C43" s="244" t="str">
         <f>Inputs!C22</f>
         <v>Consumer Monopoly</v>
       </c>
@@ -6315,16 +6320,16 @@
       </c>
       <c r="C2" s="18"/>
       <c r="D2" s="17"/>
-      <c r="E2" s="149" t="s">
+      <c r="E2" s="148" t="s">
         <v>200</v>
       </c>
       <c r="F2" s="119" t="s">
         <v>203</v>
       </c>
-      <c r="G2" s="149" t="s">
+      <c r="G2" s="148" t="s">
         <v>204</v>
       </c>
-      <c r="H2" s="148" t="s">
+      <c r="H2" s="147" t="s">
         <v>205</v>
       </c>
       <c r="I2" s="7"/>
@@ -6338,11 +6343,11 @@
       <c r="B3" s="103" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="202">
+      <c r="C3" s="201">
         <f>Inputs!C12</f>
         <v>45291</v>
       </c>
-      <c r="E3" s="147" t="s">
+      <c r="E3" s="146" t="s">
         <v>201</v>
       </c>
       <c r="F3" s="85" t="str">
@@ -6375,7 +6380,7 @@
         <f>Dashboard!G6</f>
         <v>HKD</v>
       </c>
-      <c r="E4" s="147" t="s">
+      <c r="E4" s="146" t="s">
         <v>202</v>
       </c>
       <c r="F4" s="93" t="e">
@@ -6439,47 +6444,47 @@
       <c r="B6" s="94" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="201">
+      <c r="C6" s="200">
         <f>IF(Inputs!C25=""," ",Inputs!C25)</f>
         <v>35684253</v>
       </c>
-      <c r="D6" s="201">
+      <c r="D6" s="200">
         <f>IF(Inputs!D25="","",Inputs!D25)</f>
         <v>11473793</v>
       </c>
-      <c r="E6" s="201" t="str">
+      <c r="E6" s="200" t="str">
         <f>IF(Inputs!E25="","",Inputs!E25)</f>
         <v/>
       </c>
-      <c r="F6" s="201" t="str">
+      <c r="F6" s="200" t="str">
         <f>IF(Inputs!F25="","",Inputs!F25)</f>
         <v/>
       </c>
-      <c r="G6" s="201" t="str">
+      <c r="G6" s="200" t="str">
         <f>IF(Inputs!G25="","",Inputs!G25)</f>
         <v/>
       </c>
-      <c r="H6" s="201" t="str">
+      <c r="H6" s="200" t="str">
         <f>IF(Inputs!H25="","",Inputs!H25)</f>
         <v/>
       </c>
-      <c r="I6" s="201" t="str">
+      <c r="I6" s="200" t="str">
         <f>IF(Inputs!I25="","",Inputs!I25)</f>
         <v/>
       </c>
-      <c r="J6" s="201" t="str">
+      <c r="J6" s="200" t="str">
         <f>IF(Inputs!J25="","",Inputs!J25)</f>
         <v/>
       </c>
-      <c r="K6" s="201" t="str">
+      <c r="K6" s="200" t="str">
         <f>IF(Inputs!K25="","",Inputs!K25)</f>
         <v/>
       </c>
-      <c r="L6" s="201" t="str">
+      <c r="L6" s="200" t="str">
         <f>IF(Inputs!L25="","",Inputs!L25)</f>
         <v/>
       </c>
-      <c r="M6" s="201" t="str">
+      <c r="M6" s="200" t="str">
         <f>IF(Inputs!M25="","",Inputs!M25)</f>
         <v/>
       </c>
@@ -6541,47 +6546,47 @@
       <c r="B8" s="97" t="s">
         <v>106</v>
       </c>
-      <c r="C8" s="200">
+      <c r="C8" s="199">
         <f>IF(Inputs!C26="","",Inputs!C26)</f>
         <v>16868997</v>
       </c>
-      <c r="D8" s="200">
+      <c r="D8" s="199">
         <f>IF(Inputs!D26="","",Inputs!D26)</f>
         <v>6522891</v>
       </c>
-      <c r="E8" s="200" t="str">
+      <c r="E8" s="199" t="str">
         <f>IF(Inputs!E26="","",Inputs!E26)</f>
         <v/>
       </c>
-      <c r="F8" s="200" t="str">
+      <c r="F8" s="199" t="str">
         <f>IF(Inputs!F26="","",Inputs!F26)</f>
         <v/>
       </c>
-      <c r="G8" s="200" t="str">
+      <c r="G8" s="199" t="str">
         <f>IF(Inputs!G26="","",Inputs!G26)</f>
         <v/>
       </c>
-      <c r="H8" s="200" t="str">
+      <c r="H8" s="199" t="str">
         <f>IF(Inputs!H26="","",Inputs!H26)</f>
         <v/>
       </c>
-      <c r="I8" s="200" t="str">
+      <c r="I8" s="199" t="str">
         <f>IF(Inputs!I26="","",Inputs!I26)</f>
         <v/>
       </c>
-      <c r="J8" s="200" t="str">
+      <c r="J8" s="199" t="str">
         <f>IF(Inputs!J26="","",Inputs!J26)</f>
         <v/>
       </c>
-      <c r="K8" s="200" t="str">
+      <c r="K8" s="199" t="str">
         <f>IF(Inputs!K26="","",Inputs!K26)</f>
         <v/>
       </c>
-      <c r="L8" s="200" t="str">
+      <c r="L8" s="199" t="str">
         <f>IF(Inputs!L26="","",Inputs!L26)</f>
         <v/>
       </c>
-      <c r="M8" s="200" t="str">
+      <c r="M8" s="199" t="str">
         <f>IF(Inputs!M26="","",Inputs!M26)</f>
         <v/>
       </c>
@@ -6592,47 +6597,47 @@
       <c r="B9" s="98" t="s">
         <v>103</v>
       </c>
-      <c r="C9" s="152">
+      <c r="C9" s="151">
         <f t="shared" ref="C9:M9" si="2">IF(C6="","",(C6-C8))</f>
         <v>18815256</v>
       </c>
-      <c r="D9" s="152">
+      <c r="D9" s="151">
         <f t="shared" si="2"/>
         <v>4950902</v>
       </c>
-      <c r="E9" s="152" t="str">
+      <c r="E9" s="151" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="F9" s="152" t="str">
+      <c r="F9" s="151" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G9" s="152" t="str">
+      <c r="G9" s="151" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="H9" s="152" t="str">
+      <c r="H9" s="151" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I9" s="152" t="str">
+      <c r="I9" s="151" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="J9" s="152" t="str">
+      <c r="J9" s="151" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="K9" s="152" t="str">
+      <c r="K9" s="151" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L9" s="152" t="str">
+      <c r="L9" s="151" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="M9" s="152" t="str">
+      <c r="M9" s="151" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -6643,47 +6648,47 @@
       <c r="B10" s="97" t="s">
         <v>104</v>
       </c>
-      <c r="C10" s="200">
+      <c r="C10" s="199">
         <f>IF(Inputs!C27="","",Inputs!C27)</f>
         <v>12529703</v>
       </c>
-      <c r="D10" s="200">
+      <c r="D10" s="199">
         <f>IF(Inputs!D27="","",Inputs!D27)</f>
         <v>8392476</v>
       </c>
-      <c r="E10" s="200" t="str">
+      <c r="E10" s="199" t="str">
         <f>IF(Inputs!E27="","",Inputs!E27)</f>
         <v/>
       </c>
-      <c r="F10" s="200" t="str">
+      <c r="F10" s="199" t="str">
         <f>IF(Inputs!F27="","",Inputs!F27)</f>
         <v/>
       </c>
-      <c r="G10" s="200" t="str">
+      <c r="G10" s="199" t="str">
         <f>IF(Inputs!G27="","",Inputs!G27)</f>
         <v/>
       </c>
-      <c r="H10" s="200" t="str">
+      <c r="H10" s="199" t="str">
         <f>IF(Inputs!H27="","",Inputs!H27)</f>
         <v/>
       </c>
-      <c r="I10" s="200" t="str">
+      <c r="I10" s="199" t="str">
         <f>IF(Inputs!I27="","",Inputs!I27)</f>
         <v/>
       </c>
-      <c r="J10" s="200" t="str">
+      <c r="J10" s="199" t="str">
         <f>IF(Inputs!J27="","",Inputs!J27)</f>
         <v/>
       </c>
-      <c r="K10" s="200" t="str">
+      <c r="K10" s="199" t="str">
         <f>IF(Inputs!K27="","",Inputs!K27)</f>
         <v/>
       </c>
-      <c r="L10" s="200" t="str">
+      <c r="L10" s="199" t="str">
         <f>IF(Inputs!L27="","",Inputs!L27)</f>
         <v/>
       </c>
-      <c r="M10" s="200" t="str">
+      <c r="M10" s="199" t="str">
         <f>IF(Inputs!M27="","",Inputs!M27)</f>
         <v/>
       </c>
@@ -6694,47 +6699,47 @@
       <c r="B11" s="97" t="s">
         <v>107</v>
       </c>
-      <c r="C11" s="200" t="str">
+      <c r="C11" s="199" t="str">
         <f>IF(Inputs!C28="","",Inputs!C28)</f>
         <v/>
       </c>
-      <c r="D11" s="200" t="str">
+      <c r="D11" s="199" t="str">
         <f>IF(Inputs!D28="","",Inputs!D28)</f>
         <v/>
       </c>
-      <c r="E11" s="200" t="str">
+      <c r="E11" s="199" t="str">
         <f>IF(Inputs!E28="","",Inputs!E28)</f>
         <v/>
       </c>
-      <c r="F11" s="200" t="str">
+      <c r="F11" s="199" t="str">
         <f>IF(Inputs!F28="","",Inputs!F28)</f>
         <v/>
       </c>
-      <c r="G11" s="200" t="str">
+      <c r="G11" s="199" t="str">
         <f>IF(Inputs!G28="","",Inputs!G28)</f>
         <v/>
       </c>
-      <c r="H11" s="200" t="str">
+      <c r="H11" s="199" t="str">
         <f>IF(Inputs!H28="","",Inputs!H28)</f>
         <v/>
       </c>
-      <c r="I11" s="200" t="str">
+      <c r="I11" s="199" t="str">
         <f>IF(Inputs!I28="","",Inputs!I28)</f>
         <v/>
       </c>
-      <c r="J11" s="200" t="str">
+      <c r="J11" s="199" t="str">
         <f>IF(Inputs!J28="","",Inputs!J28)</f>
         <v/>
       </c>
-      <c r="K11" s="200" t="str">
+      <c r="K11" s="199" t="str">
         <f>IF(Inputs!K28="","",Inputs!K28)</f>
         <v/>
       </c>
-      <c r="L11" s="200" t="str">
+      <c r="L11" s="199" t="str">
         <f>IF(Inputs!L28="","",Inputs!L28)</f>
         <v/>
       </c>
-      <c r="M11" s="200" t="str">
+      <c r="M11" s="199" t="str">
         <f>IF(Inputs!M28="","",Inputs!M28)</f>
         <v/>
       </c>
@@ -6745,47 +6750,47 @@
       <c r="B12" s="99" t="s">
         <v>241</v>
       </c>
-      <c r="C12" s="200">
+      <c r="C12" s="199">
         <f>IF(Inputs!C30="","",MAX(Inputs!C30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>60156.862745098035</v>
       </c>
-      <c r="D12" s="200">
+      <c r="D12" s="199">
         <f>IF(Inputs!D30="","",MAX(Inputs!D30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>0</v>
       </c>
-      <c r="E12" s="200" t="str">
+      <c r="E12" s="199" t="str">
         <f>IF(Inputs!E30="","",MAX(Inputs!E30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="F12" s="200" t="str">
+      <c r="F12" s="199" t="str">
         <f>IF(Inputs!F30="","",MAX(Inputs!F30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="G12" s="200" t="str">
+      <c r="G12" s="199" t="str">
         <f>IF(Inputs!G30="","",MAX(Inputs!G30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="H12" s="200" t="str">
+      <c r="H12" s="199" t="str">
         <f>IF(Inputs!H30="","",MAX(Inputs!H30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="I12" s="200" t="str">
+      <c r="I12" s="199" t="str">
         <f>IF(Inputs!I30="","",MAX(Inputs!I30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="J12" s="200" t="str">
+      <c r="J12" s="199" t="str">
         <f>IF(Inputs!J30="","",MAX(Inputs!J30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="K12" s="200" t="str">
+      <c r="K12" s="199" t="str">
         <f>IF(Inputs!K30="","",MAX(Inputs!K30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="L12" s="200" t="str">
+      <c r="L12" s="199" t="str">
         <f>IF(Inputs!L30="","",MAX(Inputs!L30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="M12" s="200" t="str">
+      <c r="M12" s="199" t="str">
         <f>IF(Inputs!M30="","",MAX(Inputs!M30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
@@ -6793,50 +6798,50 @@
     </row>
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
-      <c r="B13" s="229" t="s">
+      <c r="B13" s="228" t="s">
         <v>242</v>
       </c>
-      <c r="C13" s="230">
+      <c r="C13" s="229">
         <f t="shared" ref="C13:M13" si="3">IF(C14="","",C14/C6)</f>
         <v>0.17445779619528262</v>
       </c>
-      <c r="D13" s="230">
+      <c r="D13" s="229">
         <f t="shared" si="3"/>
         <v>-0.29995085321828624</v>
       </c>
-      <c r="E13" s="230" t="str">
+      <c r="E13" s="229" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F13" s="230" t="str">
+      <c r="F13" s="229" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="G13" s="230" t="str">
+      <c r="G13" s="229" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="H13" s="230" t="str">
+      <c r="H13" s="229" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="I13" s="230" t="str">
+      <c r="I13" s="229" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="J13" s="230" t="str">
+      <c r="J13" s="229" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="K13" s="230" t="str">
+      <c r="K13" s="229" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="L13" s="230" t="str">
+      <c r="L13" s="229" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="M13" s="230" t="str">
+      <c r="M13" s="229" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -6844,50 +6849,50 @@
     </row>
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
-      <c r="B14" s="229" t="s">
+      <c r="B14" s="228" t="s">
         <v>234</v>
       </c>
-      <c r="C14" s="231">
+      <c r="C14" s="230">
         <f>IF(C6="","",C9-C10-MAX(C11,0)-MAX(C12,0))</f>
         <v>6225396.1372549022</v>
       </c>
-      <c r="D14" s="231">
+      <c r="D14" s="230">
         <f t="shared" ref="D14:M14" si="4">IF(D6="","",D9-D10-MAX(D11,0)-MAX(D12,0))</f>
         <v>-3441574</v>
       </c>
-      <c r="E14" s="231" t="str">
+      <c r="E14" s="230" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="F14" s="231" t="str">
+      <c r="F14" s="230" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G14" s="231" t="str">
+      <c r="G14" s="230" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="H14" s="231" t="str">
+      <c r="H14" s="230" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="I14" s="231" t="str">
+      <c r="I14" s="230" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="J14" s="231" t="str">
+      <c r="J14" s="230" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="K14" s="231" t="str">
+      <c r="K14" s="230" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="L14" s="231" t="str">
+      <c r="L14" s="230" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="M14" s="231" t="str">
+      <c r="M14" s="230" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -6895,50 +6900,50 @@
     </row>
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
-      <c r="B15" s="232" t="s">
+      <c r="B15" s="231" t="s">
         <v>243</v>
       </c>
-      <c r="C15" s="233" t="str">
+      <c r="C15" s="232" t="str">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
         <v>Turn</v>
       </c>
-      <c r="D15" s="233" t="str">
+      <c r="D15" s="232" t="str">
         <f t="shared" ref="D15:M15" si="5">IF(E14="","",IF(ABS(D14+E14)=ABS(D14)+ABS(E14),IF(D14&lt;0,-1,1)*(D14-E14)/E14,"Turn"))</f>
         <v/>
       </c>
-      <c r="E15" s="233" t="str">
+      <c r="E15" s="232" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="F15" s="233" t="str">
+      <c r="F15" s="232" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="G15" s="233" t="str">
+      <c r="G15" s="232" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="H15" s="233" t="str">
+      <c r="H15" s="232" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I15" s="233" t="str">
+      <c r="I15" s="232" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="J15" s="233" t="str">
+      <c r="J15" s="232" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="K15" s="233" t="str">
+      <c r="K15" s="232" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="L15" s="233" t="str">
+      <c r="L15" s="232" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="M15" s="233" t="str">
+      <c r="M15" s="232" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
@@ -6949,47 +6954,47 @@
       <c r="B16" s="97" t="s">
         <v>110</v>
       </c>
-      <c r="C16" s="200" t="str">
+      <c r="C16" s="199" t="str">
         <f>IF(Inputs!C31="","",Inputs!C31)</f>
         <v/>
       </c>
-      <c r="D16" s="200" t="str">
+      <c r="D16" s="199" t="str">
         <f>IF(Inputs!D31="","",Inputs!D31)</f>
         <v/>
       </c>
-      <c r="E16" s="200" t="str">
+      <c r="E16" s="199" t="str">
         <f>IF(Inputs!E31="","",Inputs!E31)</f>
         <v/>
       </c>
-      <c r="F16" s="200" t="str">
+      <c r="F16" s="199" t="str">
         <f>IF(Inputs!F31="","",Inputs!F31)</f>
         <v/>
       </c>
-      <c r="G16" s="200" t="str">
+      <c r="G16" s="199" t="str">
         <f>IF(Inputs!G31="","",Inputs!G31)</f>
         <v/>
       </c>
-      <c r="H16" s="200" t="str">
+      <c r="H16" s="199" t="str">
         <f>IF(Inputs!H31="","",Inputs!H31)</f>
         <v/>
       </c>
-      <c r="I16" s="200" t="str">
+      <c r="I16" s="199" t="str">
         <f>IF(Inputs!I31="","",Inputs!I31)</f>
         <v/>
       </c>
-      <c r="J16" s="200" t="str">
+      <c r="J16" s="199" t="str">
         <f>IF(Inputs!J31="","",Inputs!J31)</f>
         <v/>
       </c>
-      <c r="K16" s="200" t="str">
+      <c r="K16" s="199" t="str">
         <f>IF(Inputs!K31="","",Inputs!K31)</f>
         <v/>
       </c>
-      <c r="L16" s="200" t="str">
+      <c r="L16" s="199" t="str">
         <f>IF(Inputs!L31="","",Inputs!L31)</f>
         <v/>
       </c>
-      <c r="M16" s="200" t="str">
+      <c r="M16" s="199" t="str">
         <f>IF(Inputs!M31="","",Inputs!M31)</f>
         <v/>
       </c>
@@ -7000,47 +7005,47 @@
       <c r="B17" s="97" t="s">
         <v>258</v>
       </c>
-      <c r="C17" s="200" t="str">
+      <c r="C17" s="199" t="str">
         <f>IF(Inputs!C29="","",Inputs!C29)</f>
         <v/>
       </c>
-      <c r="D17" s="200" t="str">
+      <c r="D17" s="199" t="str">
         <f>IF(Inputs!D29="","",Inputs!D29)</f>
         <v/>
       </c>
-      <c r="E17" s="200" t="str">
+      <c r="E17" s="199" t="str">
         <f>IF(Inputs!E29="","",Inputs!E29)</f>
         <v/>
       </c>
-      <c r="F17" s="200" t="str">
+      <c r="F17" s="199" t="str">
         <f>IF(Inputs!F29="","",Inputs!F29)</f>
         <v/>
       </c>
-      <c r="G17" s="200" t="str">
+      <c r="G17" s="199" t="str">
         <f>IF(Inputs!G29="","",Inputs!G29)</f>
         <v/>
       </c>
-      <c r="H17" s="200" t="str">
+      <c r="H17" s="199" t="str">
         <f>IF(Inputs!H29="","",Inputs!H29)</f>
         <v/>
       </c>
-      <c r="I17" s="200" t="str">
+      <c r="I17" s="199" t="str">
         <f>IF(Inputs!I29="","",Inputs!I29)</f>
         <v/>
       </c>
-      <c r="J17" s="200" t="str">
+      <c r="J17" s="199" t="str">
         <f>IF(Inputs!J29="","",Inputs!J29)</f>
         <v/>
       </c>
-      <c r="K17" s="200" t="str">
+      <c r="K17" s="199" t="str">
         <f>IF(Inputs!K29="","",Inputs!K29)</f>
         <v/>
       </c>
-      <c r="L17" s="200" t="str">
+      <c r="L17" s="199" t="str">
         <f>IF(Inputs!L29="","",Inputs!L29)</f>
         <v/>
       </c>
-      <c r="M17" s="200" t="str">
+      <c r="M17" s="199" t="str">
         <f>IF(Inputs!M29="","",Inputs!M29)</f>
         <v/>
       </c>
@@ -7051,47 +7056,47 @@
       <c r="B18" s="94" t="s">
         <v>99</v>
       </c>
-      <c r="C18" s="153" t="str">
+      <c r="C18" s="152" t="str">
         <f t="shared" ref="C18:M18" si="6">IF(OR(C6="",C19=""),"",C19/C6)</f>
         <v/>
       </c>
-      <c r="D18" s="153" t="str">
+      <c r="D18" s="152" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="E18" s="153" t="str">
+      <c r="E18" s="152" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="F18" s="153" t="str">
+      <c r="F18" s="152" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="G18" s="153" t="str">
+      <c r="G18" s="152" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="H18" s="153" t="str">
+      <c r="H18" s="152" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="I18" s="153" t="str">
+      <c r="I18" s="152" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="J18" s="153" t="str">
+      <c r="J18" s="152" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="K18" s="153" t="str">
+      <c r="K18" s="152" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="L18" s="153" t="str">
+      <c r="L18" s="152" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="M18" s="153" t="str">
+      <c r="M18" s="152" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
@@ -7102,47 +7107,47 @@
       <c r="B19" s="97" t="s">
         <v>105</v>
       </c>
-      <c r="C19" s="200" t="str">
+      <c r="C19" s="199" t="str">
         <f>IF(Inputs!C32="","",Inputs!C32)</f>
         <v/>
       </c>
-      <c r="D19" s="200" t="str">
+      <c r="D19" s="199" t="str">
         <f>IF(Inputs!D32="","",Inputs!D32)</f>
         <v/>
       </c>
-      <c r="E19" s="200" t="str">
+      <c r="E19" s="199" t="str">
         <f>IF(Inputs!E32="","",Inputs!E32)</f>
         <v/>
       </c>
-      <c r="F19" s="200" t="str">
+      <c r="F19" s="199" t="str">
         <f>IF(Inputs!F32="","",Inputs!F32)</f>
         <v/>
       </c>
-      <c r="G19" s="200" t="str">
+      <c r="G19" s="199" t="str">
         <f>IF(Inputs!G32="","",Inputs!G32)</f>
         <v/>
       </c>
-      <c r="H19" s="200" t="str">
+      <c r="H19" s="199" t="str">
         <f>IF(Inputs!H32="","",Inputs!H32)</f>
         <v/>
       </c>
-      <c r="I19" s="200" t="str">
+      <c r="I19" s="199" t="str">
         <f>IF(Inputs!I32="","",Inputs!I32)</f>
         <v/>
       </c>
-      <c r="J19" s="200" t="str">
+      <c r="J19" s="199" t="str">
         <f>IF(Inputs!J32="","",Inputs!J32)</f>
         <v/>
       </c>
-      <c r="K19" s="200" t="str">
+      <c r="K19" s="199" t="str">
         <f>IF(Inputs!K32="","",Inputs!K32)</f>
         <v/>
       </c>
-      <c r="L19" s="200" t="str">
+      <c r="L19" s="199" t="str">
         <f>IF(Inputs!L32="","",Inputs!L32)</f>
         <v/>
       </c>
-      <c r="M19" s="200" t="str">
+      <c r="M19" s="199" t="str">
         <f>IF(Inputs!M32="","",Inputs!M32)</f>
         <v/>
       </c>
@@ -7153,47 +7158,47 @@
       <c r="B20" s="97" t="s">
         <v>236</v>
       </c>
-      <c r="C20" s="153">
+      <c r="C20" s="152">
         <f t="shared" ref="C20:M20" si="7">IF(C6="","",MAX(C21,0)/C6)</f>
         <v>0</v>
       </c>
-      <c r="D20" s="153">
+      <c r="D20" s="152">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="E20" s="153" t="str">
+      <c r="E20" s="152" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="F20" s="153" t="str">
+      <c r="F20" s="152" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="G20" s="153" t="str">
+      <c r="G20" s="152" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="H20" s="153" t="str">
+      <c r="H20" s="152" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="I20" s="153" t="str">
+      <c r="I20" s="152" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="J20" s="153" t="str">
+      <c r="J20" s="152" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="K20" s="153" t="str">
+      <c r="K20" s="152" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="L20" s="153" t="str">
+      <c r="L20" s="152" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="M20" s="153" t="str">
+      <c r="M20" s="152" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
@@ -7204,47 +7209,47 @@
       <c r="B21" s="97" t="s">
         <v>108</v>
       </c>
-      <c r="C21" s="200" t="str">
+      <c r="C21" s="199" t="str">
         <f>IF(Inputs!C33="","",Inputs!C33)</f>
         <v/>
       </c>
-      <c r="D21" s="200" t="str">
+      <c r="D21" s="199" t="str">
         <f>IF(Inputs!D33="","",Inputs!D33)</f>
         <v/>
       </c>
-      <c r="E21" s="200" t="str">
+      <c r="E21" s="199" t="str">
         <f>IF(Inputs!E33="","",Inputs!E33)</f>
         <v/>
       </c>
-      <c r="F21" s="200" t="str">
+      <c r="F21" s="199" t="str">
         <f>IF(Inputs!F33="","",Inputs!F33)</f>
         <v/>
       </c>
-      <c r="G21" s="200" t="str">
+      <c r="G21" s="199" t="str">
         <f>IF(Inputs!G33="","",Inputs!G33)</f>
         <v/>
       </c>
-      <c r="H21" s="200" t="str">
+      <c r="H21" s="199" t="str">
         <f>IF(Inputs!H33="","",Inputs!H33)</f>
         <v/>
       </c>
-      <c r="I21" s="200" t="str">
+      <c r="I21" s="199" t="str">
         <f>IF(Inputs!I33="","",Inputs!I33)</f>
         <v/>
       </c>
-      <c r="J21" s="200" t="str">
+      <c r="J21" s="199" t="str">
         <f>IF(Inputs!J33="","",Inputs!J33)</f>
         <v/>
       </c>
-      <c r="K21" s="200" t="str">
+      <c r="K21" s="199" t="str">
         <f>IF(Inputs!K33="","",Inputs!K33)</f>
         <v/>
       </c>
-      <c r="L21" s="200" t="str">
+      <c r="L21" s="199" t="str">
         <f>IF(Inputs!L33="","",Inputs!L33)</f>
         <v/>
       </c>
-      <c r="M21" s="200" t="str">
+      <c r="M21" s="199" t="str">
         <f>IF(Inputs!M33="","",Inputs!M33)</f>
         <v/>
       </c>
@@ -7255,47 +7260,47 @@
       <c r="B22" s="98" t="s">
         <v>112</v>
       </c>
-      <c r="C22" s="162">
+      <c r="C22" s="161">
         <f>IF(C6="","",C14-MAX(C16,0)-MAX(C17,0)-ABS(MAX(C21,0)-MAX(C19,0)))</f>
         <v>6225396.1372549022</v>
       </c>
-      <c r="D22" s="162">
+      <c r="D22" s="161">
         <f t="shared" ref="D22:M22" si="8">IF(D6="","",D14-MAX(D16,0)-MAX(D17,0)-ABS(MAX(D21,0)-MAX(D19,0)))</f>
         <v>-3441574</v>
       </c>
-      <c r="E22" s="162" t="str">
+      <c r="E22" s="161" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="F22" s="162" t="str">
+      <c r="F22" s="161" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="G22" s="162" t="str">
+      <c r="G22" s="161" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="H22" s="162" t="str">
+      <c r="H22" s="161" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="I22" s="162" t="str">
+      <c r="I22" s="161" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="J22" s="162" t="str">
+      <c r="J22" s="161" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="K22" s="162" t="str">
+      <c r="K22" s="161" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="L22" s="162" t="str">
+      <c r="L22" s="161" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="M22" s="162" t="str">
+      <c r="M22" s="161" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
@@ -7306,47 +7311,47 @@
       <c r="B23" s="100" t="s">
         <v>113</v>
       </c>
-      <c r="C23" s="154">
+      <c r="C23" s="153">
         <f t="shared" ref="C23:M23" si="9">IF(C6="","",C24/C6)</f>
         <v>0.13346021408939118</v>
       </c>
-      <c r="D23" s="154">
+      <c r="D23" s="153">
         <f t="shared" si="9"/>
         <v>-0.22946240271198895</v>
       </c>
-      <c r="E23" s="154" t="str">
+      <c r="E23" s="153" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="F23" s="154" t="str">
+      <c r="F23" s="153" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="G23" s="154" t="str">
+      <c r="G23" s="153" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="H23" s="154" t="str">
+      <c r="H23" s="153" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="I23" s="154" t="str">
+      <c r="I23" s="153" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="J23" s="154" t="str">
+      <c r="J23" s="153" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="K23" s="154" t="str">
+      <c r="K23" s="153" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="L23" s="154" t="str">
+      <c r="L23" s="153" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="M23" s="154" t="str">
+      <c r="M23" s="153" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
@@ -7357,7 +7362,7 @@
       <c r="B24" s="101" t="s">
         <v>114</v>
       </c>
-      <c r="C24" s="155">
+      <c r="C24" s="154">
         <f>IF(C6="","",C22*(1-Fin_Analysis!$I$84))</f>
         <v>4762428.0449999999</v>
       </c>
@@ -7405,50 +7410,50 @@
     </row>
     <row r="25" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="4"/>
-      <c r="B25" s="235" t="s">
+      <c r="B25" s="234" t="s">
         <v>129</v>
       </c>
-      <c r="C25" s="234" t="str">
+      <c r="C25" s="233" t="str">
         <f>IF(D24="","",IF(ABS(C24+D24)=ABS(C24)+ABS(D24),IF(C24&lt;0,-1,1)*(C24-D24)/D24,"Turn"))</f>
         <v>Turn</v>
       </c>
-      <c r="D25" s="234" t="str">
+      <c r="D25" s="233" t="str">
         <f t="shared" ref="D25:M25" si="10">IF(E24="","",IF(ABS(D24+E24)=ABS(D24)+ABS(E24),IF(D24&lt;0,-1,1)*(D24-E24)/E24,"Turn"))</f>
         <v/>
       </c>
-      <c r="E25" s="234" t="str">
+      <c r="E25" s="233" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="F25" s="234" t="str">
+      <c r="F25" s="233" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="G25" s="234" t="str">
+      <c r="G25" s="233" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="H25" s="234" t="str">
+      <c r="H25" s="233" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="I25" s="234" t="str">
+      <c r="I25" s="233" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="J25" s="234" t="str">
+      <c r="J25" s="233" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="K25" s="234" t="str">
+      <c r="K25" s="233" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="L25" s="234" t="str">
+      <c r="L25" s="233" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="M25" s="234" t="str">
+      <c r="M25" s="233" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
@@ -7565,43 +7570,43 @@
         <f>Fin_Analysis!C28</f>
         <v>0</v>
       </c>
-      <c r="D28" s="200" t="str">
+      <c r="D28" s="199" t="str">
         <f>IF(Inputs!D34="","",Inputs!D34)</f>
         <v/>
       </c>
-      <c r="E28" s="200" t="str">
+      <c r="E28" s="199" t="str">
         <f>IF(Inputs!E34="","",Inputs!E34)</f>
         <v/>
       </c>
-      <c r="F28" s="200" t="str">
+      <c r="F28" s="199" t="str">
         <f>IF(Inputs!F34="","",Inputs!F34)</f>
         <v/>
       </c>
-      <c r="G28" s="200" t="str">
+      <c r="G28" s="199" t="str">
         <f>IF(Inputs!G34="","",Inputs!G34)</f>
         <v/>
       </c>
-      <c r="H28" s="200" t="str">
+      <c r="H28" s="199" t="str">
         <f>IF(Inputs!H34="","",Inputs!H34)</f>
         <v/>
       </c>
-      <c r="I28" s="200" t="str">
+      <c r="I28" s="199" t="str">
         <f>IF(Inputs!I34="","",Inputs!I34)</f>
         <v/>
       </c>
-      <c r="J28" s="200" t="str">
+      <c r="J28" s="199" t="str">
         <f>IF(Inputs!J34="","",Inputs!J34)</f>
         <v/>
       </c>
-      <c r="K28" s="200" t="str">
+      <c r="K28" s="199" t="str">
         <f>IF(Inputs!K34="","",Inputs!K34)</f>
         <v/>
       </c>
-      <c r="L28" s="200" t="str">
+      <c r="L28" s="199" t="str">
         <f>IF(Inputs!L34="","",Inputs!L34)</f>
         <v/>
       </c>
-      <c r="M28" s="200" t="str">
+      <c r="M28" s="199" t="str">
         <f>IF(Inputs!M34="","",Inputs!M34)</f>
         <v/>
       </c>
@@ -7616,43 +7621,43 @@
         <f>Fin_Analysis!C13</f>
         <v>0</v>
       </c>
-      <c r="D29" s="200" t="str">
+      <c r="D29" s="199" t="str">
         <f>IF(Inputs!D35="","",Inputs!D35)</f>
         <v/>
       </c>
-      <c r="E29" s="200" t="str">
+      <c r="E29" s="199" t="str">
         <f>IF(Inputs!E35="","",Inputs!E35)</f>
         <v/>
       </c>
-      <c r="F29" s="200" t="str">
+      <c r="F29" s="199" t="str">
         <f>IF(Inputs!F35="","",Inputs!F35)</f>
         <v/>
       </c>
-      <c r="G29" s="200" t="str">
+      <c r="G29" s="199" t="str">
         <f>IF(Inputs!G35="","",Inputs!G35)</f>
         <v/>
       </c>
-      <c r="H29" s="200" t="str">
+      <c r="H29" s="199" t="str">
         <f>IF(Inputs!H35="","",Inputs!H35)</f>
         <v/>
       </c>
-      <c r="I29" s="200" t="str">
+      <c r="I29" s="199" t="str">
         <f>IF(Inputs!I35="","",Inputs!I35)</f>
         <v/>
       </c>
-      <c r="J29" s="200" t="str">
+      <c r="J29" s="199" t="str">
         <f>IF(Inputs!J35="","",Inputs!J35)</f>
         <v/>
       </c>
-      <c r="K29" s="200" t="str">
+      <c r="K29" s="199" t="str">
         <f>IF(Inputs!K35="","",Inputs!K35)</f>
         <v/>
       </c>
-      <c r="L29" s="200" t="str">
+      <c r="L29" s="199" t="str">
         <f>IF(Inputs!L35="","",Inputs!L35)</f>
         <v/>
       </c>
-      <c r="M29" s="200" t="str">
+      <c r="M29" s="199" t="str">
         <f>IF(Inputs!M35="","",Inputs!M35)</f>
         <v/>
       </c>
@@ -7667,43 +7672,43 @@
         <f>Fin_Analysis!C18</f>
         <v>0</v>
       </c>
-      <c r="D30" s="200" t="str">
+      <c r="D30" s="199" t="str">
         <f>IF(Inputs!D36="","",Inputs!D36)</f>
         <v/>
       </c>
-      <c r="E30" s="200" t="str">
+      <c r="E30" s="199" t="str">
         <f>IF(Inputs!E36="","",Inputs!E36)</f>
         <v/>
       </c>
-      <c r="F30" s="200" t="str">
+      <c r="F30" s="199" t="str">
         <f>IF(Inputs!F36="","",Inputs!F36)</f>
         <v/>
       </c>
-      <c r="G30" s="200" t="str">
+      <c r="G30" s="199" t="str">
         <f>IF(Inputs!G36="","",Inputs!G36)</f>
         <v/>
       </c>
-      <c r="H30" s="200" t="str">
+      <c r="H30" s="199" t="str">
         <f>IF(Inputs!H36="","",Inputs!H36)</f>
         <v/>
       </c>
-      <c r="I30" s="200" t="str">
+      <c r="I30" s="199" t="str">
         <f>IF(Inputs!I36="","",Inputs!I36)</f>
         <v/>
       </c>
-      <c r="J30" s="200" t="str">
+      <c r="J30" s="199" t="str">
         <f>IF(Inputs!J36="","",Inputs!J36)</f>
         <v/>
       </c>
-      <c r="K30" s="200" t="str">
+      <c r="K30" s="199" t="str">
         <f>IF(Inputs!K36="","",Inputs!K36)</f>
         <v/>
       </c>
-      <c r="L30" s="200" t="str">
+      <c r="L30" s="199" t="str">
         <f>IF(Inputs!L36="","",Inputs!L36)</f>
         <v/>
       </c>
-      <c r="M30" s="200" t="str">
+      <c r="M30" s="199" t="str">
         <f>IF(Inputs!M36="","",Inputs!M36)</f>
         <v/>
       </c>
@@ -7718,43 +7723,43 @@
         <f>Fin_Analysis!I28</f>
         <v>0</v>
       </c>
-      <c r="D31" s="200" t="str">
+      <c r="D31" s="199" t="str">
         <f>IF(Inputs!D37="","",Inputs!D37)</f>
         <v/>
       </c>
-      <c r="E31" s="200" t="str">
+      <c r="E31" s="199" t="str">
         <f>IF(Inputs!E37="","",Inputs!E37)</f>
         <v/>
       </c>
-      <c r="F31" s="200" t="str">
+      <c r="F31" s="199" t="str">
         <f>IF(Inputs!F37="","",Inputs!F37)</f>
         <v/>
       </c>
-      <c r="G31" s="200" t="str">
+      <c r="G31" s="199" t="str">
         <f>IF(Inputs!G37="","",Inputs!G37)</f>
         <v/>
       </c>
-      <c r="H31" s="200" t="str">
+      <c r="H31" s="199" t="str">
         <f>IF(Inputs!H37="","",Inputs!H37)</f>
         <v/>
       </c>
-      <c r="I31" s="200" t="str">
+      <c r="I31" s="199" t="str">
         <f>IF(Inputs!I37="","",Inputs!I37)</f>
         <v/>
       </c>
-      <c r="J31" s="200" t="str">
+      <c r="J31" s="199" t="str">
         <f>IF(Inputs!J37="","",Inputs!J37)</f>
         <v/>
       </c>
-      <c r="K31" s="200" t="str">
+      <c r="K31" s="199" t="str">
         <f>IF(Inputs!K37="","",Inputs!K37)</f>
         <v/>
       </c>
-      <c r="L31" s="200" t="str">
+      <c r="L31" s="199" t="str">
         <f>IF(Inputs!L37="","",Inputs!L37)</f>
         <v/>
       </c>
-      <c r="M31" s="200" t="str">
+      <c r="M31" s="199" t="str">
         <f>IF(Inputs!M37="","",Inputs!M37)</f>
         <v/>
       </c>
@@ -7769,43 +7774,43 @@
         <f>Fin_Analysis!I48</f>
         <v>0</v>
       </c>
-      <c r="D32" s="200" t="str">
+      <c r="D32" s="199" t="str">
         <f>IF(Inputs!D38="","",Inputs!D38)</f>
         <v/>
       </c>
-      <c r="E32" s="200" t="str">
+      <c r="E32" s="199" t="str">
         <f>IF(Inputs!E38="","",Inputs!E38)</f>
         <v/>
       </c>
-      <c r="F32" s="200" t="str">
+      <c r="F32" s="199" t="str">
         <f>IF(Inputs!F38="","",Inputs!F38)</f>
         <v/>
       </c>
-      <c r="G32" s="200" t="str">
+      <c r="G32" s="199" t="str">
         <f>IF(Inputs!G38="","",Inputs!G38)</f>
         <v/>
       </c>
-      <c r="H32" s="200" t="str">
+      <c r="H32" s="199" t="str">
         <f>IF(Inputs!H38="","",Inputs!H38)</f>
         <v/>
       </c>
-      <c r="I32" s="200" t="str">
+      <c r="I32" s="199" t="str">
         <f>IF(Inputs!I38="","",Inputs!I38)</f>
         <v/>
       </c>
-      <c r="J32" s="200" t="str">
+      <c r="J32" s="199" t="str">
         <f>IF(Inputs!J38="","",Inputs!J38)</f>
         <v/>
       </c>
-      <c r="K32" s="200" t="str">
+      <c r="K32" s="199" t="str">
         <f>IF(Inputs!K38="","",Inputs!K38)</f>
         <v/>
       </c>
-      <c r="L32" s="200" t="str">
+      <c r="L32" s="199" t="str">
         <f>IF(Inputs!L38="","",Inputs!L38)</f>
         <v/>
       </c>
-      <c r="M32" s="200" t="str">
+      <c r="M32" s="199" t="str">
         <f>IF(Inputs!M38="","",Inputs!M38)</f>
         <v/>
       </c>
@@ -7820,43 +7825,43 @@
         <f>Fin_Analysis!I15</f>
         <v>0</v>
       </c>
-      <c r="D33" s="200" t="str">
+      <c r="D33" s="199" t="str">
         <f>IF(Inputs!D39="","",Inputs!D39)</f>
         <v/>
       </c>
-      <c r="E33" s="200" t="str">
+      <c r="E33" s="199" t="str">
         <f>IF(Inputs!E39="","",Inputs!E39)</f>
         <v/>
       </c>
-      <c r="F33" s="200" t="str">
+      <c r="F33" s="199" t="str">
         <f>IF(Inputs!F39="","",Inputs!F39)</f>
         <v/>
       </c>
-      <c r="G33" s="200" t="str">
+      <c r="G33" s="199" t="str">
         <f>IF(Inputs!G39="","",Inputs!G39)</f>
         <v/>
       </c>
-      <c r="H33" s="200" t="str">
+      <c r="H33" s="199" t="str">
         <f>IF(Inputs!H39="","",Inputs!H39)</f>
         <v/>
       </c>
-      <c r="I33" s="200" t="str">
+      <c r="I33" s="199" t="str">
         <f>IF(Inputs!I39="","",Inputs!I39)</f>
         <v/>
       </c>
-      <c r="J33" s="200" t="str">
+      <c r="J33" s="199" t="str">
         <f>IF(Inputs!J39="","",Inputs!J39)</f>
         <v/>
       </c>
-      <c r="K33" s="200" t="str">
+      <c r="K33" s="199" t="str">
         <f>IF(Inputs!K39="","",Inputs!K39)</f>
         <v/>
       </c>
-      <c r="L33" s="200" t="str">
+      <c r="L33" s="199" t="str">
         <f>IF(Inputs!L39="","",Inputs!L39)</f>
         <v/>
       </c>
-      <c r="M33" s="200" t="str">
+      <c r="M33" s="199" t="str">
         <f>IF(Inputs!M39="","",Inputs!M39)</f>
         <v/>
       </c>
@@ -7871,43 +7876,43 @@
         <f>Fin_Analysis!I34</f>
         <v>0</v>
       </c>
-      <c r="D34" s="200" t="str">
+      <c r="D34" s="199" t="str">
         <f>IF(Inputs!D40="","",Inputs!D40)</f>
         <v/>
       </c>
-      <c r="E34" s="200" t="str">
+      <c r="E34" s="199" t="str">
         <f>IF(Inputs!E40="","",Inputs!E40)</f>
         <v/>
       </c>
-      <c r="F34" s="200" t="str">
+      <c r="F34" s="199" t="str">
         <f>IF(Inputs!F40="","",Inputs!F40)</f>
         <v/>
       </c>
-      <c r="G34" s="200" t="str">
+      <c r="G34" s="199" t="str">
         <f>IF(Inputs!G40="","",Inputs!G40)</f>
         <v/>
       </c>
-      <c r="H34" s="200" t="str">
+      <c r="H34" s="199" t="str">
         <f>IF(Inputs!H40="","",Inputs!H40)</f>
         <v/>
       </c>
-      <c r="I34" s="200" t="str">
+      <c r="I34" s="199" t="str">
         <f>IF(Inputs!I40="","",Inputs!I40)</f>
         <v/>
       </c>
-      <c r="J34" s="200" t="str">
+      <c r="J34" s="199" t="str">
         <f>IF(Inputs!J40="","",Inputs!J40)</f>
         <v/>
       </c>
-      <c r="K34" s="200" t="str">
+      <c r="K34" s="199" t="str">
         <f>IF(Inputs!K40="","",Inputs!K40)</f>
         <v/>
       </c>
-      <c r="L34" s="200" t="str">
+      <c r="L34" s="199" t="str">
         <f>IF(Inputs!L40="","",Inputs!L40)</f>
         <v/>
       </c>
-      <c r="M34" s="200" t="str">
+      <c r="M34" s="199" t="str">
         <f>IF(Inputs!M40="","",Inputs!M40)</f>
         <v/>
       </c>
@@ -7973,43 +7978,43 @@
         <f>Fin_Analysis!D3</f>
         <v>0</v>
       </c>
-      <c r="D36" s="200" t="str">
+      <c r="D36" s="199" t="str">
         <f>IF(Inputs!D41="","",Inputs!D41)</f>
         <v/>
       </c>
-      <c r="E36" s="200" t="str">
+      <c r="E36" s="199" t="str">
         <f>IF(Inputs!E41="","",Inputs!E41)</f>
         <v/>
       </c>
-      <c r="F36" s="200" t="str">
+      <c r="F36" s="199" t="str">
         <f>IF(Inputs!F41="","",Inputs!F41)</f>
         <v/>
       </c>
-      <c r="G36" s="200" t="str">
+      <c r="G36" s="199" t="str">
         <f>IF(Inputs!G41="","",Inputs!G41)</f>
         <v/>
       </c>
-      <c r="H36" s="200" t="str">
+      <c r="H36" s="199" t="str">
         <f>IF(Inputs!H41="","",Inputs!H41)</f>
         <v/>
       </c>
-      <c r="I36" s="200" t="str">
+      <c r="I36" s="199" t="str">
         <f>IF(Inputs!I41="","",Inputs!I41)</f>
         <v/>
       </c>
-      <c r="J36" s="200" t="str">
+      <c r="J36" s="199" t="str">
         <f>IF(Inputs!J41="","",Inputs!J41)</f>
         <v/>
       </c>
-      <c r="K36" s="200" t="str">
+      <c r="K36" s="199" t="str">
         <f>IF(Inputs!K41="","",Inputs!K41)</f>
         <v/>
       </c>
-      <c r="L36" s="200" t="str">
+      <c r="L36" s="199" t="str">
         <f>IF(Inputs!L41="","",Inputs!L41)</f>
         <v/>
       </c>
-      <c r="M36" s="200" t="str">
+      <c r="M36" s="199" t="str">
         <f>IF(Inputs!M41="","",Inputs!M41)</f>
         <v/>
       </c>
@@ -8024,43 +8029,43 @@
         <f>Fin_Analysis!D4</f>
         <v>0</v>
       </c>
-      <c r="D37" s="200" t="str">
+      <c r="D37" s="199" t="str">
         <f>IF(Inputs!D42="","",Inputs!D42)</f>
         <v/>
       </c>
-      <c r="E37" s="200" t="str">
+      <c r="E37" s="199" t="str">
         <f>IF(Inputs!E42="","",Inputs!E42)</f>
         <v/>
       </c>
-      <c r="F37" s="200" t="str">
+      <c r="F37" s="199" t="str">
         <f>IF(Inputs!F42="","",Inputs!F42)</f>
         <v/>
       </c>
-      <c r="G37" s="200" t="str">
+      <c r="G37" s="199" t="str">
         <f>IF(Inputs!G42="","",Inputs!G42)</f>
         <v/>
       </c>
-      <c r="H37" s="200" t="str">
+      <c r="H37" s="199" t="str">
         <f>IF(Inputs!H42="","",Inputs!H42)</f>
         <v/>
       </c>
-      <c r="I37" s="200" t="str">
+      <c r="I37" s="199" t="str">
         <f>IF(Inputs!I42="","",Inputs!I42)</f>
         <v/>
       </c>
-      <c r="J37" s="200" t="str">
+      <c r="J37" s="199" t="str">
         <f>IF(Inputs!J42="","",Inputs!J42)</f>
         <v/>
       </c>
-      <c r="K37" s="200" t="str">
+      <c r="K37" s="199" t="str">
         <f>IF(Inputs!K42="","",Inputs!K42)</f>
         <v/>
       </c>
-      <c r="L37" s="200" t="str">
+      <c r="L37" s="199" t="str">
         <f>IF(Inputs!L42="","",Inputs!L42)</f>
         <v/>
       </c>
-      <c r="M37" s="200" t="str">
+      <c r="M37" s="199" t="str">
         <f>IF(Inputs!M42="","",Inputs!M42)</f>
         <v/>
       </c>
@@ -8075,43 +8080,43 @@
         <f>Fin_Analysis!C63</f>
         <v>0</v>
       </c>
-      <c r="D38" s="200" t="str">
+      <c r="D38" s="199" t="str">
         <f>IF(Inputs!D43="","",Inputs!D43)</f>
         <v/>
       </c>
-      <c r="E38" s="200" t="str">
+      <c r="E38" s="199" t="str">
         <f>IF(Inputs!E43="","",Inputs!E43)</f>
         <v/>
       </c>
-      <c r="F38" s="200" t="str">
+      <c r="F38" s="199" t="str">
         <f>IF(Inputs!F43="","",Inputs!F43)</f>
         <v/>
       </c>
-      <c r="G38" s="200" t="str">
+      <c r="G38" s="199" t="str">
         <f>IF(Inputs!G43="","",Inputs!G43)</f>
         <v/>
       </c>
-      <c r="H38" s="200" t="str">
+      <c r="H38" s="199" t="str">
         <f>IF(Inputs!H43="","",Inputs!H43)</f>
         <v/>
       </c>
-      <c r="I38" s="200" t="str">
+      <c r="I38" s="199" t="str">
         <f>IF(Inputs!I43="","",Inputs!I43)</f>
         <v/>
       </c>
-      <c r="J38" s="200" t="str">
+      <c r="J38" s="199" t="str">
         <f>IF(Inputs!J43="","",Inputs!J43)</f>
         <v/>
       </c>
-      <c r="K38" s="200" t="str">
+      <c r="K38" s="199" t="str">
         <f>IF(Inputs!K43="","",Inputs!K43)</f>
         <v/>
       </c>
-      <c r="L38" s="200" t="str">
+      <c r="L38" s="199" t="str">
         <f>IF(Inputs!L43="","",Inputs!L43)</f>
         <v/>
       </c>
-      <c r="M38" s="200" t="str">
+      <c r="M38" s="199" t="str">
         <f>IF(Inputs!M43="","",Inputs!M43)</f>
         <v/>
       </c>
@@ -8173,47 +8178,47 @@
       <c r="B40" s="98" t="s">
         <v>158</v>
       </c>
-      <c r="C40" s="156" t="e">
+      <c r="C40" s="155" t="e">
         <f>IF(C6="","",C14/MAX(C39,0))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D40" s="156" t="e">
+      <c r="D40" s="155" t="e">
         <f>IF(D6="","",D14/MAX(D39,0))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E40" s="156" t="str">
+      <c r="E40" s="155" t="str">
         <f>IF(E6="","",E14/MAX(E39,0))</f>
         <v/>
       </c>
-      <c r="F40" s="156" t="str">
+      <c r="F40" s="155" t="str">
         <f t="shared" ref="F40:M40" si="33">IF(F39="","",F14/F39)</f>
         <v/>
       </c>
-      <c r="G40" s="156" t="str">
+      <c r="G40" s="155" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="H40" s="156" t="str">
+      <c r="H40" s="155" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="I40" s="156" t="str">
+      <c r="I40" s="155" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="J40" s="156" t="str">
+      <c r="J40" s="155" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="K40" s="156" t="str">
+      <c r="K40" s="155" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="L40" s="156" t="str">
+      <c r="L40" s="155" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="M40" s="156" t="str">
+      <c r="M40" s="155" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
@@ -8242,47 +8247,47 @@
       <c r="B42" s="95" t="s">
         <v>98</v>
       </c>
-      <c r="C42" s="157">
+      <c r="C42" s="156">
         <f t="shared" ref="C42:M42" si="34">IF(C6="","",C8/C6)</f>
         <v>0.47272944175123971</v>
       </c>
-      <c r="D42" s="157">
+      <c r="D42" s="156">
         <f t="shared" si="34"/>
         <v>0.56850345827225579</v>
       </c>
-      <c r="E42" s="157" t="str">
+      <c r="E42" s="156" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="F42" s="157" t="str">
+      <c r="F42" s="156" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="G42" s="157" t="str">
+      <c r="G42" s="156" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="H42" s="157" t="str">
+      <c r="H42" s="156" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="I42" s="157" t="str">
+      <c r="I42" s="156" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="J42" s="157" t="str">
+      <c r="J42" s="156" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="K42" s="157" t="str">
+      <c r="K42" s="156" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="L42" s="157" t="str">
+      <c r="L42" s="156" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="M42" s="157" t="str">
+      <c r="M42" s="156" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
@@ -8293,47 +8298,47 @@
       <c r="B43" s="94" t="s">
         <v>235</v>
       </c>
-      <c r="C43" s="154">
+      <c r="C43" s="153">
         <f t="shared" ref="C43:M43" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
         <v>0.35112695227219692</v>
       </c>
-      <c r="D43" s="154">
+      <c r="D43" s="153">
         <f t="shared" si="35"/>
         <v>0.7314473949460305</v>
       </c>
-      <c r="E43" s="154" t="str">
+      <c r="E43" s="153" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="F43" s="154" t="str">
+      <c r="F43" s="153" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="G43" s="154" t="str">
+      <c r="G43" s="153" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="H43" s="154" t="str">
+      <c r="H43" s="153" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="I43" s="154" t="str">
+      <c r="I43" s="153" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="J43" s="154" t="str">
+      <c r="J43" s="153" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="K43" s="154" t="str">
+      <c r="K43" s="153" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="L43" s="154" t="str">
+      <c r="L43" s="153" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="M43" s="154" t="str">
+      <c r="M43" s="153" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
@@ -8344,47 +8349,47 @@
       <c r="B44" s="94" t="s">
         <v>109</v>
       </c>
-      <c r="C44" s="154">
+      <c r="C44" s="153">
         <f t="shared" ref="C44:M44" si="36">IF(C6="","",MAX(C16,0)/C6)</f>
         <v>0</v>
       </c>
-      <c r="D44" s="154">
+      <c r="D44" s="153">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="E44" s="154" t="str">
+      <c r="E44" s="153" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="F44" s="154" t="str">
+      <c r="F44" s="153" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="G44" s="154" t="str">
+      <c r="G44" s="153" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="H44" s="154" t="str">
+      <c r="H44" s="153" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="I44" s="154" t="str">
+      <c r="I44" s="153" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="J44" s="154" t="str">
+      <c r="J44" s="153" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="K44" s="154" t="str">
+      <c r="K44" s="153" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="L44" s="154" t="str">
+      <c r="L44" s="153" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="M44" s="154" t="str">
+      <c r="M44" s="153" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
@@ -8395,47 +8400,47 @@
       <c r="B45" s="94" t="s">
         <v>122</v>
       </c>
-      <c r="C45" s="154">
+      <c r="C45" s="153">
         <f t="shared" ref="C45:M45" si="37">IF(C6="","",MAX(C17,0)/C6)</f>
         <v>0</v>
       </c>
-      <c r="D45" s="154">
+      <c r="D45" s="153">
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-      <c r="E45" s="154" t="str">
+      <c r="E45" s="153" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="F45" s="154" t="str">
+      <c r="F45" s="153" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="G45" s="154" t="str">
+      <c r="G45" s="153" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="H45" s="154" t="str">
+      <c r="H45" s="153" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="I45" s="154" t="str">
+      <c r="I45" s="153" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="J45" s="154" t="str">
+      <c r="J45" s="153" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="K45" s="154" t="str">
+      <c r="K45" s="153" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="L45" s="154" t="str">
+      <c r="L45" s="153" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="M45" s="154" t="str">
+      <c r="M45" s="153" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
@@ -8446,47 +8451,47 @@
       <c r="B46" s="94" t="s">
         <v>130</v>
       </c>
-      <c r="C46" s="154">
+      <c r="C46" s="153">
         <f>IF(C6="","",MAX(C12,0)/C6)</f>
         <v>1.6858097812807804E-3</v>
       </c>
-      <c r="D46" s="154">
+      <c r="D46" s="153">
         <f t="shared" ref="D46:M46" si="38">IF(D6="","",MAX(D12,0)/D6)</f>
         <v>0</v>
       </c>
-      <c r="E46" s="154" t="str">
+      <c r="E46" s="153" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="F46" s="154" t="str">
+      <c r="F46" s="153" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="G46" s="154" t="str">
+      <c r="G46" s="153" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="H46" s="154" t="str">
+      <c r="H46" s="153" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="I46" s="154" t="str">
+      <c r="I46" s="153" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="J46" s="154" t="str">
+      <c r="J46" s="153" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="K46" s="154" t="str">
+      <c r="K46" s="153" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="L46" s="154" t="str">
+      <c r="L46" s="153" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="M46" s="154" t="str">
+      <c r="M46" s="153" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
@@ -8497,47 +8502,47 @@
       <c r="B47" s="94" t="s">
         <v>237</v>
       </c>
-      <c r="C47" s="154">
+      <c r="C47" s="153">
         <f>IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
         <v>0</v>
       </c>
-      <c r="D47" s="154">
+      <c r="D47" s="153">
         <f t="shared" ref="D47:M47" si="39">IF(D6="","",ABS(MAX(D21,0)-MAX(D19,0))/D6)</f>
         <v>0</v>
       </c>
-      <c r="E47" s="154" t="str">
+      <c r="E47" s="153" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="F47" s="154" t="str">
+      <c r="F47" s="153" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="G47" s="154" t="str">
+      <c r="G47" s="153" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="H47" s="154" t="str">
+      <c r="H47" s="153" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="I47" s="154" t="str">
+      <c r="I47" s="153" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="J47" s="154" t="str">
+      <c r="J47" s="153" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="K47" s="154" t="str">
+      <c r="K47" s="153" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="L47" s="154" t="str">
+      <c r="L47" s="153" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="M47" s="154" t="str">
+      <c r="M47" s="153" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
@@ -8548,47 +8553,47 @@
       <c r="B48" s="94" t="s">
         <v>124</v>
       </c>
-      <c r="C48" s="154">
+      <c r="C48" s="153">
         <f t="shared" ref="C48:M48" si="40">IF(C6="","",C22/C6)</f>
         <v>0.17445779619528262</v>
       </c>
-      <c r="D48" s="154">
+      <c r="D48" s="153">
         <f t="shared" si="40"/>
         <v>-0.29995085321828624</v>
       </c>
-      <c r="E48" s="154" t="str">
+      <c r="E48" s="153" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="F48" s="154" t="str">
+      <c r="F48" s="153" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="G48" s="154" t="str">
+      <c r="G48" s="153" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="H48" s="154" t="str">
+      <c r="H48" s="153" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="I48" s="154" t="str">
+      <c r="I48" s="153" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="J48" s="154" t="str">
+      <c r="J48" s="153" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="K48" s="154" t="str">
+      <c r="K48" s="153" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="L48" s="154" t="str">
+      <c r="L48" s="153" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="M48" s="154" t="str">
+      <c r="M48" s="153" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
@@ -8617,47 +8622,47 @@
       <c r="B50" s="95" t="s">
         <v>147</v>
       </c>
-      <c r="C50" s="157">
+      <c r="C50" s="156">
         <f t="shared" ref="C50:M50" si="41">IF(C29="","",C29/C6)</f>
         <v>0</v>
       </c>
-      <c r="D50" s="157" t="str">
+      <c r="D50" s="156" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="E50" s="157" t="str">
+      <c r="E50" s="156" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="F50" s="157" t="str">
+      <c r="F50" s="156" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="G50" s="157" t="str">
+      <c r="G50" s="156" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="H50" s="157" t="str">
+      <c r="H50" s="156" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="I50" s="157" t="str">
+      <c r="I50" s="156" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="J50" s="157" t="str">
+      <c r="J50" s="156" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="K50" s="157" t="str">
+      <c r="K50" s="156" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="L50" s="157" t="str">
+      <c r="L50" s="156" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="M50" s="157" t="str">
+      <c r="M50" s="156" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
@@ -8668,47 +8673,47 @@
       <c r="B51" s="94" t="s">
         <v>148</v>
       </c>
-      <c r="C51" s="154">
+      <c r="C51" s="153">
         <f t="shared" ref="C51:M51" si="42">IF(C30="","",C30/C6)</f>
         <v>0</v>
       </c>
-      <c r="D51" s="154" t="str">
+      <c r="D51" s="153" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="E51" s="154" t="str">
+      <c r="E51" s="153" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="F51" s="154" t="str">
+      <c r="F51" s="153" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="G51" s="154" t="str">
+      <c r="G51" s="153" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="H51" s="154" t="str">
+      <c r="H51" s="153" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="I51" s="154" t="str">
+      <c r="I51" s="153" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="J51" s="154" t="str">
+      <c r="J51" s="153" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="K51" s="154" t="str">
+      <c r="K51" s="153" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="L51" s="154" t="str">
+      <c r="L51" s="153" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="M51" s="154" t="str">
+      <c r="M51" s="153" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
@@ -8736,47 +8741,47 @@
       <c r="B53" s="95" t="s">
         <v>20</v>
       </c>
-      <c r="C53" s="157" t="e">
+      <c r="C53" s="156" t="e">
         <f>IF(C36="","",(C27-C36)/C27)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D53" s="157" t="str">
+      <c r="D53" s="156" t="str">
         <f t="shared" ref="D53:M53" si="43">IF(D36="","",(D27-D36)/D27)</f>
         <v/>
       </c>
-      <c r="E53" s="157" t="str">
+      <c r="E53" s="156" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="F53" s="157" t="str">
+      <c r="F53" s="156" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="G53" s="157" t="str">
+      <c r="G53" s="156" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="H53" s="157" t="str">
+      <c r="H53" s="156" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="I53" s="157" t="str">
+      <c r="I53" s="156" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="J53" s="157" t="str">
+      <c r="J53" s="156" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="K53" s="157" t="str">
+      <c r="K53" s="156" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="L53" s="157" t="str">
+      <c r="L53" s="156" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="M53" s="157" t="str">
+      <c r="M53" s="156" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
@@ -8786,47 +8791,47 @@
       <c r="B54" s="94" t="s">
         <v>121</v>
       </c>
-      <c r="C54" s="158" t="str">
+      <c r="C54" s="157" t="str">
         <f t="shared" ref="C54:M54" si="44">IF(OR(C22="",C35=""),"",IF(C35&lt;=0,"-",C22/C35))</f>
         <v>-</v>
       </c>
-      <c r="D54" s="158" t="str">
+      <c r="D54" s="157" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="E54" s="158" t="str">
+      <c r="E54" s="157" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="F54" s="158" t="str">
+      <c r="F54" s="157" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="G54" s="158" t="str">
+      <c r="G54" s="157" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="H54" s="158" t="str">
+      <c r="H54" s="157" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="I54" s="158" t="str">
+      <c r="I54" s="157" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="J54" s="158" t="str">
+      <c r="J54" s="157" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="K54" s="158" t="str">
+      <c r="K54" s="157" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="L54" s="158" t="str">
+      <c r="L54" s="157" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="M54" s="158" t="str">
+      <c r="M54" s="157" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
@@ -8836,47 +8841,47 @@
       <c r="B55" s="94" t="s">
         <v>123</v>
       </c>
-      <c r="C55" s="154" t="str">
+      <c r="C55" s="153" t="str">
         <f t="shared" ref="C55:M55" si="45">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
         <v>-</v>
       </c>
-      <c r="D55" s="154" t="str">
+      <c r="D55" s="153" t="str">
         <f t="shared" si="45"/>
         <v>-</v>
       </c>
-      <c r="E55" s="154" t="str">
+      <c r="E55" s="153" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="F55" s="154" t="str">
+      <c r="F55" s="153" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="G55" s="154" t="str">
+      <c r="G55" s="153" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="H55" s="154" t="str">
+      <c r="H55" s="153" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="I55" s="154" t="str">
+      <c r="I55" s="153" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="J55" s="154" t="str">
+      <c r="J55" s="153" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="K55" s="154" t="str">
+      <c r="K55" s="153" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="L55" s="154" t="str">
+      <c r="L55" s="153" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="M55" s="154" t="str">
+      <c r="M55" s="153" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
@@ -8886,47 +8891,47 @@
       <c r="B56" s="98" t="s">
         <v>21</v>
       </c>
-      <c r="C56" s="159" t="e">
+      <c r="C56" s="158" t="e">
         <f t="shared" ref="C56:M56" si="46">IF(C28="","",C28/C31)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D56" s="159" t="str">
+      <c r="D56" s="158" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="E56" s="159" t="str">
+      <c r="E56" s="158" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="F56" s="159" t="str">
+      <c r="F56" s="158" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="G56" s="159" t="str">
+      <c r="G56" s="158" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="H56" s="159" t="str">
+      <c r="H56" s="158" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="I56" s="159" t="str">
+      <c r="I56" s="158" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="J56" s="159" t="str">
+      <c r="J56" s="158" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="K56" s="159" t="str">
+      <c r="K56" s="158" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="L56" s="159" t="str">
+      <c r="L56" s="158" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="M56" s="159" t="str">
+      <c r="M56" s="158" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
@@ -10224,8 +10229,8 @@
   </sheetPr>
   <dimension ref="A2:K108"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H103" sqref="H103"/>
+    <sheetView showGridLines="0" topLeftCell="B70" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C82" sqref="C82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -10274,7 +10279,7 @@
       <c r="H3" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="I3" s="205">
+      <c r="I3" s="204">
         <f>Inputs!C83</f>
         <v>0</v>
       </c>
@@ -10371,7 +10376,7 @@
         <v>32</v>
       </c>
       <c r="C9" s="86"/>
-      <c r="D9" s="204">
+      <c r="D9" s="203">
         <f>Inputs!C14</f>
         <v>45473</v>
       </c>
@@ -10418,7 +10423,7 @@
         <f>Inputs!C48</f>
         <v>0</v>
       </c>
-      <c r="D11" s="199">
+      <c r="D11" s="198">
         <f>Inputs!D48</f>
         <v>0.9</v>
       </c>
@@ -10446,7 +10451,7 @@
         <f>Inputs!C49</f>
         <v>0</v>
       </c>
-      <c r="D12" s="199">
+      <c r="D12" s="198">
         <f>Inputs!D49</f>
         <v>0.8</v>
       </c>
@@ -10474,7 +10479,7 @@
         <f>Inputs!C50</f>
         <v>0</v>
       </c>
-      <c r="D13" s="199">
+      <c r="D13" s="198">
         <f>Inputs!D50</f>
         <v>0.6</v>
       </c>
@@ -10502,7 +10507,7 @@
         <f>Inputs!C51</f>
         <v>0</v>
       </c>
-      <c r="D14" s="199">
+      <c r="D14" s="198">
         <f>Inputs!D51</f>
         <v>0.6</v>
       </c>
@@ -10515,7 +10520,7 @@
       <c r="H14" s="86" t="s">
         <v>43</v>
       </c>
-      <c r="I14" s="206">
+      <c r="I14" s="205">
         <f>Inputs!C76</f>
         <v>0</v>
       </c>
@@ -10530,7 +10535,7 @@
         <f>Inputs!C52</f>
         <v>0</v>
       </c>
-      <c r="D15" s="199">
+      <c r="D15" s="198">
         <f>Inputs!D52</f>
         <v>0.5</v>
       </c>
@@ -10557,7 +10562,7 @@
         <f>Inputs!C53</f>
         <v>0</v>
       </c>
-      <c r="D16" s="199">
+      <c r="D16" s="198">
         <f>Inputs!D53</f>
         <v>0.6</v>
       </c>
@@ -10579,7 +10584,7 @@
         <f>Inputs!C54</f>
         <v>0</v>
       </c>
-      <c r="D17" s="199">
+      <c r="D17" s="198">
         <f>Inputs!D54</f>
         <v>0.1</v>
       </c>
@@ -10601,7 +10606,7 @@
         <f>Inputs!C55</f>
         <v>0</v>
       </c>
-      <c r="D18" s="199">
+      <c r="D18" s="198">
         <f>Inputs!D55</f>
         <v>0.5</v>
       </c>
@@ -10622,7 +10627,7 @@
         <f>Inputs!C56</f>
         <v>0</v>
       </c>
-      <c r="D19" s="199">
+      <c r="D19" s="198">
         <f>Inputs!D56</f>
         <v>0.6</v>
       </c>
@@ -10647,7 +10652,7 @@
         <f>Inputs!C57</f>
         <v>0</v>
       </c>
-      <c r="D20" s="199">
+      <c r="D20" s="198">
         <f>Inputs!D57</f>
         <v>0.6</v>
       </c>
@@ -10674,7 +10679,7 @@
         <f>Inputs!C58</f>
         <v>0</v>
       </c>
-      <c r="D21" s="199">
+      <c r="D21" s="198">
         <f>Inputs!D58</f>
         <v>0.9</v>
       </c>
@@ -10695,7 +10700,7 @@
         <f>Inputs!C59</f>
         <v>0</v>
       </c>
-      <c r="D22" s="199">
+      <c r="D22" s="198">
         <f>Inputs!D59</f>
         <v>0.05</v>
       </c>
@@ -10860,7 +10865,7 @@
       <c r="H28" s="78" t="s">
         <v>16</v>
       </c>
-      <c r="I28" s="207">
+      <c r="I28" s="206">
         <f>Inputs!C77</f>
         <v>0</v>
       </c>
@@ -10889,7 +10894,7 @@
         <f>Inputs!C60</f>
         <v>0</v>
       </c>
-      <c r="D30" s="199">
+      <c r="D30" s="198">
         <f>Inputs!D60</f>
         <v>0.8</v>
       </c>
@@ -10915,7 +10920,7 @@
         <f>Inputs!C61</f>
         <v>0</v>
       </c>
-      <c r="D31" s="199">
+      <c r="D31" s="198">
         <f>Inputs!D61</f>
         <v>0.6</v>
       </c>
@@ -10942,7 +10947,7 @@
         <f>Inputs!C62</f>
         <v>0</v>
       </c>
-      <c r="D32" s="199">
+      <c r="D32" s="198">
         <f>Inputs!D62</f>
         <v>0.5</v>
       </c>
@@ -10969,7 +10974,7 @@
         <f>Inputs!C63</f>
         <v>0</v>
       </c>
-      <c r="D33" s="199">
+      <c r="D33" s="198">
         <f>Inputs!D63</f>
         <v>0.5</v>
       </c>
@@ -10985,7 +10990,7 @@
       <c r="H33" s="86" t="s">
         <v>67</v>
       </c>
-      <c r="I33" s="206">
+      <c r="I33" s="205">
         <f>Inputs!C81</f>
         <v>0</v>
       </c>
@@ -10999,7 +11004,7 @@
         <f>Inputs!C64</f>
         <v>0</v>
       </c>
-      <c r="D34" s="199">
+      <c r="D34" s="198">
         <f>Inputs!D64</f>
         <v>0.4</v>
       </c>
@@ -11026,7 +11031,7 @@
         <f>Inputs!C65</f>
         <v>0</v>
       </c>
-      <c r="D35" s="199">
+      <c r="D35" s="198">
         <f>Inputs!D65</f>
         <v>0.1</v>
       </c>
@@ -11052,7 +11057,7 @@
         <f>Inputs!C66</f>
         <v>0</v>
       </c>
-      <c r="D36" s="199">
+      <c r="D36" s="198">
         <f>Inputs!D66</f>
         <v>0.2</v>
       </c>
@@ -11079,7 +11084,7 @@
         <f>Inputs!C67</f>
         <v>0</v>
       </c>
-      <c r="D37" s="199">
+      <c r="D37" s="198">
         <f>Inputs!D67</f>
         <v>0.1</v>
       </c>
@@ -11106,7 +11111,7 @@
         <f>Inputs!C68</f>
         <v>0</v>
       </c>
-      <c r="D38" s="199">
+      <c r="D38" s="198">
         <f>Inputs!D68</f>
         <v>0.1</v>
       </c>
@@ -11127,7 +11132,7 @@
         <f>Inputs!C69</f>
         <v>0</v>
       </c>
-      <c r="D39" s="199">
+      <c r="D39" s="198">
         <f>Inputs!D69</f>
         <v>0.05</v>
       </c>
@@ -11148,7 +11153,7 @@
         <f>Inputs!C70</f>
         <v>0</v>
       </c>
-      <c r="D40" s="199">
+      <c r="D40" s="198">
         <f>Inputs!D70</f>
         <v>0.05</v>
       </c>
@@ -11169,7 +11174,7 @@
         <f>Inputs!C71</f>
         <v>0</v>
       </c>
-      <c r="D41" s="199">
+      <c r="D41" s="198">
         <f>Inputs!D71</f>
         <v>0.9</v>
       </c>
@@ -11190,7 +11195,7 @@
         <f>Inputs!C72</f>
         <v>0</v>
       </c>
-      <c r="D42" s="199">
+      <c r="D42" s="198">
         <f>Inputs!D72</f>
         <v>0</v>
       </c>
@@ -11336,7 +11341,7 @@
       <c r="H48" s="80" t="s">
         <v>85</v>
       </c>
-      <c r="I48" s="208">
+      <c r="I48" s="207">
         <f>Inputs!C82</f>
         <v>0</v>
       </c>
@@ -11445,11 +11450,11 @@
         <v>90</v>
       </c>
       <c r="C56" s="87"/>
-      <c r="D56" s="283">
+      <c r="D56" s="284">
         <f>I15+I34</f>
         <v>0</v>
       </c>
-      <c r="E56" s="281"/>
+      <c r="E56" s="282"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="I56" s="56"/>
@@ -11460,11 +11465,11 @@
         <v>91</v>
       </c>
       <c r="C57" s="87"/>
-      <c r="D57" s="282">
+      <c r="D57" s="283">
         <f>Inputs!C84</f>
         <v>0</v>
       </c>
-      <c r="E57" s="281"/>
+      <c r="E57" s="282"/>
       <c r="G57" s="87"/>
       <c r="I57" s="87"/>
       <c r="K57" s="33" t="s">
@@ -11476,11 +11481,11 @@
         <v>93</v>
       </c>
       <c r="C58" s="87"/>
-      <c r="D58" s="282">
+      <c r="D58" s="283">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="281"/>
+      <c r="E58" s="282"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
       <c r="I58" s="87"/>
@@ -11576,8 +11581,8 @@
       <c r="B64" s="121" t="s">
         <v>152</v>
       </c>
-      <c r="C64" s="209"/>
-      <c r="D64" s="209"/>
+      <c r="C64" s="208"/>
+      <c r="D64" s="208"/>
       <c r="E64" s="69">
         <f>D56+D57+D58</f>
         <v>0</v>
@@ -11657,8 +11662,8 @@
       <c r="B69" s="121" t="s">
         <v>153</v>
       </c>
-      <c r="C69" s="209"/>
-      <c r="D69" s="209"/>
+      <c r="C69" s="208"/>
+      <c r="D69" s="208"/>
       <c r="E69" s="126">
         <f>I49-E64</f>
         <v>0</v>
@@ -11694,19 +11699,19 @@
       <c r="B72" s="106" t="s">
         <v>128</v>
       </c>
-      <c r="C72" s="270">
+      <c r="C72" s="271">
         <f>Data!C5</f>
         <v>45291</v>
       </c>
-      <c r="D72" s="270"/>
-      <c r="E72" s="284" t="s">
+      <c r="D72" s="271"/>
+      <c r="E72" s="285" t="s">
         <v>207</v>
       </c>
-      <c r="F72" s="284"/>
-      <c r="H72" s="284" t="s">
+      <c r="F72" s="285"/>
+      <c r="H72" s="285" t="s">
         <v>206</v>
       </c>
-      <c r="I72" s="284"/>
+      <c r="I72" s="285"/>
       <c r="K72" s="50" t="s">
         <v>8</v>
       </c>
@@ -11716,18 +11721,18 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000HKD)</v>
       </c>
-      <c r="C73" s="271" t="s">
+      <c r="C73" s="272" t="s">
         <v>101</v>
       </c>
-      <c r="D73" s="271"/>
-      <c r="E73" s="285" t="s">
+      <c r="D73" s="272"/>
+      <c r="E73" s="286" t="s">
         <v>102</v>
       </c>
-      <c r="F73" s="271"/>
-      <c r="H73" s="285" t="s">
+      <c r="F73" s="272"/>
+      <c r="H73" s="286" t="s">
         <v>102</v>
       </c>
-      <c r="I73" s="271"/>
+      <c r="I73" s="272"/>
       <c r="K73" s="24"/>
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11738,17 +11743,17 @@
         <f>Data!C6</f>
         <v>35684253</v>
       </c>
-      <c r="D74" s="210"/>
-      <c r="E74" s="239">
+      <c r="D74" s="209"/>
+      <c r="E74" s="238">
         <f>Inputs!E91</f>
         <v>35684253</v>
       </c>
-      <c r="F74" s="210"/>
-      <c r="H74" s="239">
+      <c r="F74" s="209"/>
+      <c r="H74" s="238">
         <f>Inputs!F91</f>
         <v>35684253</v>
       </c>
-      <c r="I74" s="210"/>
+      <c r="I74" s="209"/>
       <c r="K74" s="24"/>
     </row>
     <row r="75" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11759,23 +11764,23 @@
         <f>Data!C8</f>
         <v>16868997</v>
       </c>
-      <c r="D75" s="160">
+      <c r="D75" s="159">
         <f>C75/$C$74</f>
         <v>0.47272944175123971</v>
       </c>
-      <c r="E75" s="239">
+      <c r="E75" s="238">
         <f>Inputs!E92</f>
         <v>16868997</v>
       </c>
-      <c r="F75" s="161">
+      <c r="F75" s="160">
         <f>E75/E74</f>
         <v>0.47272944175123971</v>
       </c>
-      <c r="H75" s="239">
+      <c r="H75" s="238">
         <f>Inputs!F92</f>
         <v>16868997</v>
       </c>
-      <c r="I75" s="161">
+      <c r="I75" s="160">
         <f>H75/$H$74</f>
         <v>0.47272944175123971</v>
       </c>
@@ -11785,21 +11790,21 @@
       <c r="B76" s="35" t="s">
         <v>96</v>
       </c>
-      <c r="C76" s="162">
+      <c r="C76" s="161">
         <f>C74-C75</f>
         <v>18815256</v>
       </c>
-      <c r="D76" s="211"/>
-      <c r="E76" s="163">
+      <c r="D76" s="210"/>
+      <c r="E76" s="162">
         <f>E74-E75</f>
         <v>18815256</v>
       </c>
-      <c r="F76" s="211"/>
-      <c r="H76" s="163">
+      <c r="F76" s="210"/>
+      <c r="H76" s="162">
         <f>H74-H75</f>
         <v>18815256</v>
       </c>
-      <c r="I76" s="211"/>
+      <c r="I76" s="210"/>
       <c r="K76" s="24"/>
     </row>
     <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11810,23 +11815,23 @@
         <f>Data!C10+MAX(Data!C11,0)</f>
         <v>12529703</v>
       </c>
-      <c r="D77" s="160">
+      <c r="D77" s="159">
         <f>C77/$C$74</f>
         <v>0.35112695227219692</v>
       </c>
-      <c r="E77" s="239">
+      <c r="E77" s="238">
         <f>Inputs!E93</f>
         <v>12529703</v>
       </c>
-      <c r="F77" s="161">
+      <c r="F77" s="160">
         <f>E77/E74</f>
         <v>0.35112695227219692</v>
       </c>
-      <c r="H77" s="239">
+      <c r="H77" s="238">
         <f>Inputs!F93</f>
         <v>12529703</v>
       </c>
-      <c r="I77" s="161">
+      <c r="I77" s="160">
         <f>H77/$H$74</f>
         <v>0.35112695227219692</v>
       </c>
@@ -11840,54 +11845,54 @@
         <f>MAX(Data!C12,0)</f>
         <v>60156.862745098035</v>
       </c>
-      <c r="D78" s="160">
+      <c r="D78" s="159">
         <f>C78/$C$74</f>
         <v>1.6858097812807804E-3</v>
       </c>
-      <c r="E78" s="181">
+      <c r="E78" s="180">
         <f>E74*F78</f>
         <v>60156.862745098035</v>
       </c>
-      <c r="F78" s="161">
+      <c r="F78" s="160">
         <f>I78</f>
         <v>1.6858097812807804E-3</v>
       </c>
-      <c r="H78" s="239">
+      <c r="H78" s="238">
         <f>Inputs!F97</f>
         <v>60156.862745098035</v>
       </c>
-      <c r="I78" s="161">
+      <c r="I78" s="160">
         <f>H78/$H$74</f>
         <v>1.6858097812807804E-3</v>
       </c>
       <c r="K78" s="24"/>
     </row>
     <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B79" s="257" t="s">
+      <c r="B79" s="256" t="s">
         <v>233</v>
       </c>
-      <c r="C79" s="258">
+      <c r="C79" s="257">
         <f>C76-C77-C78</f>
         <v>6225396.1372549022</v>
       </c>
-      <c r="D79" s="259">
+      <c r="D79" s="258">
         <f>C79/C74</f>
         <v>0.17445779619528262</v>
       </c>
-      <c r="E79" s="260">
+      <c r="E79" s="259">
         <f>E76-E77-E78</f>
         <v>6225396.1372549022</v>
       </c>
-      <c r="F79" s="259">
+      <c r="F79" s="258">
         <f>E79/E74</f>
         <v>0.17445779619528262</v>
       </c>
-      <c r="G79" s="261"/>
-      <c r="H79" s="260">
+      <c r="G79" s="260"/>
+      <c r="H79" s="259">
         <f>H76-H77-H78</f>
         <v>6225396.1372549022</v>
       </c>
-      <c r="I79" s="259">
+      <c r="I79" s="258">
         <f>H79/H74</f>
         <v>0.17445779619528262</v>
       </c>
@@ -11901,27 +11906,27 @@
         <f>MAX(Data!C16,0)</f>
         <v>0</v>
       </c>
-      <c r="D80" s="160">
+      <c r="D80" s="159">
         <f>C80/$C$74</f>
         <v>0</v>
       </c>
-      <c r="E80" s="181">
+      <c r="E80" s="180">
         <f>E74*F80</f>
         <v>0</v>
       </c>
-      <c r="F80" s="161">
+      <c r="F80" s="160">
         <f>I80</f>
         <v>0</v>
       </c>
-      <c r="H80" s="239">
+      <c r="H80" s="238">
         <f>Inputs!F96</f>
         <v>0</v>
       </c>
-      <c r="I80" s="161">
+      <c r="I80" s="160">
         <f>H80/$H$74</f>
         <v>0</v>
       </c>
-      <c r="K80" s="182" t="s">
+      <c r="K80" s="181" t="s">
         <v>132</v>
       </c>
     </row>
@@ -11933,23 +11938,23 @@
         <f>MAX(Data!C17,0)</f>
         <v>0</v>
       </c>
-      <c r="D81" s="160">
+      <c r="D81" s="159">
         <f>C81/$C$74</f>
         <v>0</v>
       </c>
-      <c r="E81" s="181">
+      <c r="E81" s="180">
         <f>E74*F81</f>
         <v>0</v>
       </c>
-      <c r="F81" s="161">
+      <c r="F81" s="160">
         <f>I81</f>
         <v>0</v>
       </c>
-      <c r="H81" s="239">
+      <c r="H81" s="238">
         <f>Inputs!F94</f>
         <v>0</v>
       </c>
-      <c r="I81" s="161">
+      <c r="I81" s="160">
         <f>H81/$H$74</f>
         <v>0</v>
       </c>
@@ -11963,23 +11968,23 @@
         <f>ABS(MAX(Data!C21,0)-MAX(Data!C19,0))</f>
         <v>0</v>
       </c>
-      <c r="D82" s="160">
+      <c r="D82" s="159">
         <f>C82/$C$74</f>
         <v>0</v>
       </c>
-      <c r="E82" s="239">
+      <c r="E82" s="238">
         <f>Inputs!E95</f>
         <v>0</v>
       </c>
-      <c r="F82" s="161">
+      <c r="F82" s="160">
         <f>E82/E74</f>
         <v>0</v>
       </c>
-      <c r="H82" s="239">
+      <c r="H82" s="238">
         <f>Inputs!F95</f>
         <v>0</v>
       </c>
-      <c r="I82" s="161">
+      <c r="I82" s="160">
         <f>H82/$H$74</f>
         <v>0</v>
       </c>
@@ -11989,27 +11994,27 @@
       <c r="B83" s="105" t="s">
         <v>126</v>
       </c>
-      <c r="C83" s="164">
+      <c r="C83" s="163">
         <f>C79-C81-C82-C80</f>
         <v>6225396.1372549022</v>
       </c>
-      <c r="D83" s="165">
+      <c r="D83" s="164">
         <f>C83/$C$74</f>
         <v>0.17445779619528262</v>
       </c>
-      <c r="E83" s="166">
+      <c r="E83" s="165">
         <f>E79-E81-E82-E80</f>
         <v>6225396.1372549022</v>
       </c>
-      <c r="F83" s="165">
+      <c r="F83" s="164">
         <f>E83/E74</f>
         <v>0.17445779619528262</v>
       </c>
-      <c r="H83" s="166">
+      <c r="H83" s="165">
         <f>H79-H81-H82-H80</f>
         <v>6225396.1372549022</v>
       </c>
-      <c r="I83" s="165">
+      <c r="I83" s="164">
         <f>H83/$H$74</f>
         <v>0.17445779619528262</v>
       </c>
@@ -12019,49 +12024,49 @@
       <c r="B84" s="28" t="s">
         <v>97</v>
       </c>
-      <c r="C84" s="212"/>
-      <c r="D84" s="160">
+      <c r="C84" s="211"/>
+      <c r="D84" s="159">
         <f>I84</f>
         <v>0.23499999999999999</v>
       </c>
-      <c r="E84" s="213"/>
-      <c r="F84" s="180">
+      <c r="E84" s="212"/>
+      <c r="F84" s="179">
         <f t="shared" ref="F84" si="3">I84</f>
         <v>0.23499999999999999</v>
       </c>
-      <c r="H84" s="213"/>
-      <c r="I84" s="203">
+      <c r="H84" s="212"/>
+      <c r="I84" s="202">
         <f>Inputs!C16</f>
         <v>0.23499999999999999</v>
       </c>
       <c r="K84" s="24"/>
     </row>
     <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B85" s="264" t="s">
+      <c r="B85" s="263" t="s">
         <v>165</v>
       </c>
-      <c r="C85" s="258">
+      <c r="C85" s="257">
         <f>C83*(1-I84)</f>
         <v>4762428.0449999999</v>
       </c>
-      <c r="D85" s="259">
+      <c r="D85" s="258">
         <f>C85/$C$74</f>
         <v>0.13346021408939118</v>
       </c>
-      <c r="E85" s="265">
+      <c r="E85" s="264">
         <f>E83*(1-F84)</f>
         <v>4762428.0449999999</v>
       </c>
-      <c r="F85" s="259">
+      <c r="F85" s="258">
         <f>E85/E74</f>
         <v>0.13346021408939118</v>
       </c>
-      <c r="G85" s="261"/>
-      <c r="H85" s="265">
+      <c r="G85" s="260"/>
+      <c r="H85" s="264">
         <f>H83*(1-I84)</f>
         <v>4762428.0449999999</v>
       </c>
-      <c r="I85" s="259">
+      <c r="I85" s="258">
         <f>H85/$H$74</f>
         <v>0.13346021408939118</v>
       </c>
@@ -12071,69 +12076,69 @@
       <c r="B86" s="87" t="s">
         <v>161</v>
       </c>
-      <c r="C86" s="168">
+      <c r="C86" s="167">
         <f>C85*Data!C4/Common_Shares</f>
         <v>1.0889066769172429</v>
       </c>
-      <c r="D86" s="210"/>
-      <c r="E86" s="169">
+      <c r="D86" s="209"/>
+      <c r="E86" s="168">
         <f>E85*Data!C4/Common_Shares</f>
         <v>1.0889066769172429</v>
       </c>
-      <c r="F86" s="210"/>
-      <c r="H86" s="169">
+      <c r="F86" s="209"/>
+      <c r="H86" s="168">
         <f>H85*Data!C4/Common_Shares</f>
         <v>1.0889066769172429</v>
       </c>
-      <c r="I86" s="210"/>
+      <c r="I86" s="209"/>
       <c r="K86" s="24"/>
     </row>
     <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B87" s="87" t="s">
         <v>209</v>
       </c>
-      <c r="C87" s="262">
+      <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>3.0673427518795572E-2</v>
-      </c>
-      <c r="D87" s="210"/>
-      <c r="E87" s="263">
+        <v>3.0630286270527229E-2</v>
+      </c>
+      <c r="D87" s="209"/>
+      <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>3.0673427518795572E-2</v>
-      </c>
-      <c r="F87" s="210"/>
-      <c r="H87" s="263">
+        <v>3.0630286270527229E-2</v>
+      </c>
+      <c r="F87" s="209"/>
+      <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>3.0673427518795572E-2</v>
-      </c>
-      <c r="I87" s="210"/>
+        <v>3.0630286270527229E-2</v>
+      </c>
+      <c r="I87" s="209"/>
       <c r="K87" s="24"/>
     </row>
     <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B88" s="86" t="s">
         <v>208</v>
       </c>
-      <c r="C88" s="170">
+      <c r="C88" s="169">
         <f>Inputs!C44</f>
         <v>0.8</v>
       </c>
-      <c r="D88" s="167">
+      <c r="D88" s="166">
         <f>C88/C86</f>
         <v>0.73468187582874034</v>
       </c>
-      <c r="E88" s="171">
+      <c r="E88" s="170">
         <f>Inputs!E98</f>
         <v>0.5</v>
       </c>
-      <c r="F88" s="167">
+      <c r="F88" s="166">
         <f>E88/E86</f>
         <v>0.45917617239296266</v>
       </c>
-      <c r="H88" s="171">
+      <c r="H88" s="170">
         <f>Inputs!F98</f>
         <v>0.5</v>
       </c>
-      <c r="I88" s="167">
+      <c r="I88" s="166">
         <f>H88/H86</f>
         <v>0.45917617239296266</v>
       </c>
@@ -12143,21 +12148,21 @@
       <c r="B89" s="87" t="s">
         <v>222</v>
       </c>
-      <c r="C89" s="262">
+      <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>2.2535211267605635E-2</v>
-      </c>
-      <c r="D89" s="210"/>
-      <c r="E89" s="262">
+        <v>2.2503516174402254E-2</v>
+      </c>
+      <c r="D89" s="209"/>
+      <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>1.4084507042253521E-2</v>
-      </c>
-      <c r="F89" s="210"/>
-      <c r="H89" s="262">
+        <v>1.4064697609001408E-2</v>
+      </c>
+      <c r="F89" s="209"/>
+      <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>1.4084507042253521E-2</v>
-      </c>
-      <c r="I89" s="210"/>
+        <v>1.4064697609001408E-2</v>
+      </c>
+      <c r="I89" s="209"/>
       <c r="K89" s="24"/>
     </row>
     <row r="90" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -12179,22 +12184,22 @@
       <c r="B92" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="C92" s="199" t="str">
+      <c r="C92" s="198" t="str">
         <f>Inputs!C15</f>
         <v>HK</v>
       </c>
       <c r="D92" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="E92" s="284" t="s">
+      <c r="E92" s="285" t="s">
         <v>207</v>
       </c>
-      <c r="F92" s="284"/>
+      <c r="F92" s="285"/>
       <c r="G92" s="87"/>
-      <c r="H92" s="284" t="s">
+      <c r="H92" s="285" t="s">
         <v>206</v>
       </c>
-      <c r="I92" s="284"/>
+      <c r="I92" s="285"/>
       <c r="K92" s="24"/>
     </row>
     <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -12204,9 +12209,9 @@
       </c>
       <c r="C93" s="136">
         <f>IF(C92="CN",Dashboard!C17,IF(C92="US",Dashboard!C12,IF(C92="HK",Dashboard!D12,Dashboard!D17)))</f>
-        <v>6.4500000000000002E-2</v>
-      </c>
-      <c r="D93" s="240">
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="D93" s="239">
         <f>Inputs!C86</f>
         <v>5</v>
       </c>
@@ -12214,15 +12219,15 @@
         <v>210</v>
       </c>
       <c r="F93" s="144">
-        <f>FV(E87,D93,0,-(E86/C93))*Exchange_Rate</f>
-        <v>19.635245830192442</v>
+        <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
+        <v>19.184974578865312</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I93" s="144">
-        <f>FV(H87,D93,0,-(H86/C93))*Exchange_Rate</f>
-        <v>19.635245830192442</v>
+        <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
+        <v>19.184974578865312</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12230,24 +12235,27 @@
       <c r="B94" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="C94" s="183">
+      <c r="C94" s="182">
         <f>Dashboard!G20</f>
         <v>0.15</v>
       </c>
-      <c r="D94" s="145"/>
+      <c r="D94" s="270">
+        <f>Inputs!D87</f>
+        <v>0</v>
+      </c>
       <c r="E94" s="87" t="s">
         <v>211</v>
       </c>
       <c r="F94" s="144">
-        <f>FV(E89,D93,0,-(E88/C93))*Exchange_Rate</f>
-        <v>8.3134450063450327</v>
+        <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
+        <v>8.1237095728914355</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>211</v>
       </c>
       <c r="I94" s="144">
-        <f>FV(H89,D93,0,-(H88/C93))*Exchange_Rate</f>
-        <v>8.3134450063450327</v>
+        <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
+        <v>8.1237095728914355</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12268,14 +12276,14 @@
       <c r="D96" s="124" t="s">
         <v>214</v>
       </c>
-      <c r="E96" s="184" t="str">
+      <c r="E96" s="183" t="str">
         <f>E72</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F96" s="228" t="s">
+      <c r="F96" s="227" t="s">
         <v>238</v>
       </c>
-      <c r="H96" s="184" t="str">
+      <c r="H96" s="183" t="str">
         <f>H72</f>
         <v>Base Case</v>
       </c>
@@ -12290,21 +12298,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>42695775.614740014</v>
-      </c>
-      <c r="D97" s="214"/>
+        <v>41716685.234171912</v>
+      </c>
+      <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>9.7621874186344382</v>
-      </c>
-      <c r="F97" s="214"/>
+        <v>9.5383230279009403</v>
+      </c>
+      <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>9.7621874186344382</v>
+        <v>9.5383230279009403</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>14.36507884629652</v>
+        <v>13.937189485810151</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12316,14 +12324,14 @@
         <f>E53*Exchange_Rate</f>
         <v>0</v>
       </c>
-      <c r="D98" s="214"/>
-      <c r="E98" s="214"/>
-      <c r="F98" s="214"/>
+      <c r="D98" s="213"/>
+      <c r="E98" s="213"/>
+      <c r="F98" s="213"/>
       <c r="H98" s="123">
         <f>C98*Data!$C$4/Common_Shares</f>
         <v>0</v>
       </c>
-      <c r="I98" s="216"/>
+      <c r="I98" s="215"/>
       <c r="K98" s="24"/>
     </row>
     <row r="99" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -12334,17 +12342,17 @@
         <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
         <v>0</v>
       </c>
-      <c r="D99" s="215"/>
-      <c r="E99" s="146">
+      <c r="D99" s="214"/>
+      <c r="E99" s="145">
         <f>IF(H99&gt;0,H99*(1-C94),H99*(1+C94))</f>
         <v>0</v>
       </c>
-      <c r="F99" s="215"/>
-      <c r="H99" s="146">
+      <c r="F99" s="214"/>
+      <c r="H99" s="145">
         <f>C99*Data!$C$4/Common_Shares</f>
         <v>0</v>
       </c>
-      <c r="I99" s="217"/>
+      <c r="I99" s="216"/>
       <c r="K99" s="24"/>
     </row>
     <row r="100" spans="2:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
@@ -12353,27 +12361,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>42695775.614740014</v>
+        <v>41716685.234171912</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>8.2978593058392729</v>
+        <v>8.1075745737157998</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>9.7621874186344382</v>
+        <v>9.5383230279009403</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>9.7621874186344382</v>
+        <v>9.5383230279009403</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>9.7621874186344382</v>
+        <v>9.5383230279009403</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>14.36507884629652</v>
+        <v>13.937189485810151</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12392,14 +12400,14 @@
       <c r="D102" s="124" t="s">
         <v>214</v>
       </c>
-      <c r="E102" s="184" t="str">
+      <c r="E102" s="183" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F102" s="228" t="s">
+      <c r="F102" s="227" t="s">
         <v>238</v>
       </c>
-      <c r="H102" s="184" t="str">
+      <c r="H102" s="183" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
@@ -12414,27 +12422,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>18077134.640738521</v>
+        <v>17664565.245735388</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>3.5132637302360203</v>
+        <v>3.4330814933673843</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>4.1332514473364945</v>
+        <v>4.0389194039616285</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>4.1332514473364945</v>
+        <v>4.0389194039616285</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>4.1332514473364945</v>
+        <v>4.0389194039616285</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>6.0820879979441553</v>
+        <v>5.9015809053927999</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12453,14 +12461,14 @@
       <c r="D105" s="124" t="s">
         <v>214</v>
       </c>
-      <c r="E105" s="185" t="str">
+      <c r="E105" s="184" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F105" s="228" t="s">
+      <c r="F105" s="227" t="s">
         <v>238</v>
       </c>
-      <c r="H105" s="185" t="str">
+      <c r="H105" s="184" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
@@ -12475,27 +12483,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>30386455.127739269</v>
+        <v>29690625.239953652</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>5.9055615180376471</v>
+        <v>5.7703280335415919</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>6.9477194329854663</v>
+        <v>6.7886212159312844</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>6.9477194329854663</v>
+        <v>6.7886212159312844</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>6.9477194329854663</v>
+        <v>6.7886212159312844</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>10.223583422120338</v>
+        <v>9.9193851956014747</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0027.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0027.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{898CB921-4821-4FA3-B073-D76C34351C3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DFD62DD8-56C8-4847-8A07-51C3BE5CB9C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3574,7 +3574,7 @@
   <dimension ref="A2:M98"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E91" sqref="E91:F98"/>
+      <selection activeCell="F87" sqref="F87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -4144,7 +4144,7 @@
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>2.2503516174402254E-2</v>
+        <v>2.2727272727272728E-2</v>
       </c>
       <c r="D45" s="152" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4568,7 +4568,9 @@
       <c r="C87" s="236" t="s">
         <v>252</v>
       </c>
-      <c r="D87" s="269"/>
+      <c r="D87" s="269">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="89" spans="2:8" ht="13.5" x14ac:dyDescent="0.35">
       <c r="B89" s="106" t="s">
@@ -4879,7 +4881,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>35.549999999999997</v>
+        <v>35.200000000000003</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>266</v>
@@ -4920,7 +4922,7 @@
       </c>
       <c r="G5" s="275">
         <f>G3*G4/1000000</f>
-        <v>155481.01649909996</v>
+        <v>153950.26106240004</v>
       </c>
       <c r="H5" s="275"/>
       <c r="I5" s="38"/>
@@ -5015,10 +5017,10 @@
         <v>255</v>
       </c>
       <c r="C12" s="174">
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
       <c r="D12" s="172">
-        <v>6.6000000000000003E-2</v>
+        <v>8.5999999999999993E-2</v>
       </c>
       <c r="F12" s="110"/>
     </row>
@@ -5065,7 +5067,7 @@
         <v>256</v>
       </c>
       <c r="C17" s="175">
-        <v>7.1999999999999995E-2</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="D17" s="176"/>
     </row>
@@ -5152,7 +5154,7 @@
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>32.647425857139645</v>
+        <v>32.326002536464571</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5184,7 +5186,7 @@
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>1.4064697609001408E-2</v>
+        <v>1.4204545454545454E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5214,20 +5216,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>8.1075745737157998</v>
+        <v>8.1195610400495291</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>16.027767908681671</v>
+        <v>14.626874704048552</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>9.5383230279009403</v>
+        <v>9.5524247529994462</v>
       </c>
       <c r="G29" s="274">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>13.937189485810151</v>
+        <v>12.719021481781351</v>
       </c>
       <c r="H29" s="274"/>
     </row>
@@ -12099,17 +12101,17 @@
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>3.0630286270527229E-2</v>
+        <v>3.0934848776058035E-2</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>3.0630286270527229E-2</v>
+        <v>3.0934848776058035E-2</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>3.0630286270527229E-2</v>
+        <v>3.0934848776058035E-2</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
@@ -12150,17 +12152,17 @@
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>2.2503516174402254E-2</v>
+        <v>2.2727272727272728E-2</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>1.4064697609001408E-2</v>
+        <v>1.4204545454545454E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>1.4064697609001408E-2</v>
+        <v>1.4204545454545454E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -12209,7 +12211,7 @@
       </c>
       <c r="C93" s="136">
         <f>IF(C92="CN",Dashboard!C17,IF(C92="US",Dashboard!C12,IF(C92="HK",Dashboard!D12,Dashboard!D17)))</f>
-        <v>6.6000000000000003E-2</v>
+        <v>8.5999999999999993E-2</v>
       </c>
       <c r="D93" s="239">
         <f>Inputs!C86</f>
@@ -12220,14 +12222,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>19.184974578865312</v>
+        <v>19.213338184998342</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>19.184974578865312</v>
+        <v>19.213338184998342</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12241,21 +12243,21 @@
       </c>
       <c r="D94" s="270">
         <f>Inputs!D87</f>
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="E94" s="87" t="s">
         <v>211</v>
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>8.1237095728914355</v>
+        <v>8.1293127492859565</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>211</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>8.1237095728914355</v>
+        <v>8.1293127492859565</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12298,21 +12300,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>41716685.234171912</v>
+        <v>41778360.355204448</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>9.5383230279009403</v>
+        <v>9.5524247529994462</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>9.5383230279009403</v>
+        <v>9.5524247529994462</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>13.937189485810151</v>
+        <v>12.719021481781351</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12361,27 +12363,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>41716685.234171912</v>
+        <v>41778360.355204448</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>8.1075745737157998</v>
+        <v>8.1195610400495291</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>9.5383230279009403</v>
+        <v>9.5524247529994462</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>9.5383230279009403</v>
+        <v>9.5524247529994462</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>9.5383230279009403</v>
+        <v>9.5524247529994462</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>13.937189485810151</v>
+        <v>12.719021481781351</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12422,27 +12424,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>17664565.245735388</v>
+        <v>17676749.048481692</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>3.4330814933673843</v>
+        <v>3.4354493969724431</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>4.0389194039616285</v>
+        <v>4.041705172908757</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>4.0389194039616285</v>
+        <v>4.041705172908757</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>4.0389194039616285</v>
+        <v>4.041705172908757</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>5.9015809053927999</v>
+        <v>5.381516865768738</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12483,27 +12485,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>29690625.239953652</v>
+        <v>29727554.701843072</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>5.7703280335415919</v>
+        <v>5.7775052185109859</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>6.7886212159312844</v>
+        <v>6.7970649629541011</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>6.7886212159312844</v>
+        <v>6.7970649629541011</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>6.7886212159312844</v>
+        <v>6.7970649629541011</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>9.9193851956014747</v>
+        <v>9.0502691737750443</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0027.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0027.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DFD62DD8-56C8-4847-8A07-51C3BE5CB9C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E1EF0C9C-B174-4F61-975B-476CA0DCA8FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4144,7 +4144,7 @@
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>2.2727272727272728E-2</v>
+        <v>2.2857142857142857E-2</v>
       </c>
       <c r="D45" s="152" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4881,7 +4881,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>35.200000000000003</v>
+        <v>35</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>266</v>
@@ -4922,7 +4922,7 @@
       </c>
       <c r="G5" s="275">
         <f>G3*G4/1000000</f>
-        <v>153950.26106240004</v>
+        <v>153075.54367000001</v>
       </c>
       <c r="H5" s="275"/>
       <c r="I5" s="38"/>
@@ -5154,7 +5154,7 @@
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>32.326002536464571</v>
+        <v>32.14233206750739</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5186,7 +5186,7 @@
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>1.4204545454545454E-2</v>
+        <v>1.4285714285714285E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5216,20 +5216,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>8.1195610400495291</v>
+        <v>8.126524582338428</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>14.626874704048552</v>
+        <v>14.639419084225469</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>9.5524247529994462</v>
+        <v>9.5606171556922686</v>
       </c>
       <c r="G29" s="274">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>12.719021481781351</v>
+        <v>12.72992963845693</v>
       </c>
       <c r="H29" s="274"/>
     </row>
@@ -12101,17 +12101,17 @@
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>3.0934848776058035E-2</v>
+        <v>3.1111619340492652E-2</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>3.0934848776058035E-2</v>
+        <v>3.1111619340492652E-2</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>3.0934848776058035E-2</v>
+        <v>3.1111619340492652E-2</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
@@ -12152,17 +12152,17 @@
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>2.2727272727272728E-2</v>
+        <v>2.2857142857142857E-2</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>1.4204545454545454E-2</v>
+        <v>1.4285714285714285E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>1.4204545454545454E-2</v>
+        <v>1.4285714285714285E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -12222,14 +12222,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>19.213338184998342</v>
+        <v>19.229816033037444</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>19.213338184998342</v>
+        <v>19.229816033037444</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12250,14 +12250,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>8.1293127492859565</v>
+        <v>8.1325662963303493</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>211</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>8.1293127492859565</v>
+        <v>8.1325662963303493</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12300,21 +12300,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>41778360.355204448</v>
+        <v>41814190.540809229</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>9.5524247529994462</v>
+        <v>9.5606171556922686</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>9.5524247529994462</v>
+        <v>9.5606171556922686</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>12.719021481781351</v>
+        <v>12.72992963845693</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12363,27 +12363,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>41778360.355204448</v>
+        <v>41814190.540809229</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>8.1195610400495291</v>
+        <v>8.126524582338428</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>9.5524247529994462</v>
+        <v>9.5606171556922686</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>9.5524247529994462</v>
+        <v>9.5606171556922686</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>9.5524247529994462</v>
+        <v>9.5606171556922686</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>12.719021481781351</v>
+        <v>12.72992963845693</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12424,27 +12424,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>17676749.048481692</v>
+        <v>17683823.709820837</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>3.4354493969724431</v>
+        <v>3.4368243466854631</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>4.041705172908757</v>
+        <v>4.0433227608064275</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>4.041705172908757</v>
+        <v>4.0433227608064275</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>4.041705172908757</v>
+        <v>4.0433227608064275</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>5.381516865768738</v>
+        <v>5.3836706786226607</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12485,27 +12485,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>29727554.701843072</v>
+        <v>29749007.125315033</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>5.7775052185109859</v>
+        <v>5.781674464511946</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>6.7970649629541011</v>
+        <v>6.801969958249348</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>6.7970649629541011</v>
+        <v>6.801969958249348</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>6.7970649629541011</v>
+        <v>6.801969958249348</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>9.0502691737750443</v>
+        <v>9.0568001585397955</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0027.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0027.HK_Valuation.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E1EF0C9C-B174-4F61-975B-476CA0DCA8FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4AF486DF-813F-4AA9-A8FF-CA74514C6E41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="269">
   <si>
     <t>Company Info:</t>
   </si>
@@ -938,6 +938,14 @@
   </si>
   <si>
     <t>Normalized PE Ratio</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>LT AR or Prepayments</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prepayments or Contract Assets</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -3574,7 +3582,7 @@
   <dimension ref="A2:M98"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F87" sqref="F87"/>
+      <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -3595,7 +3603,7 @@
         <v>195</v>
       </c>
       <c r="C4" s="188" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3603,7 +3611,7 @@
         <v>196</v>
       </c>
       <c r="C5" s="191" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3636,7 +3644,7 @@
         <v>217</v>
       </c>
       <c r="C9" s="192" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3701,7 +3709,7 @@
         <v>225</v>
       </c>
       <c r="C17" s="242" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D17" s="24"/>
     </row>
@@ -3719,7 +3727,7 @@
         <v>240</v>
       </c>
       <c r="C19" s="242" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D19" s="24"/>
     </row>
@@ -3728,7 +3736,7 @@
         <v>229</v>
       </c>
       <c r="C20" s="242" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D20" s="24"/>
     </row>
@@ -3746,7 +3754,7 @@
         <v>231</v>
       </c>
       <c r="C22" s="243" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D22" s="24"/>
     </row>
@@ -4144,7 +4152,7 @@
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>2.2857142857142857E-2</v>
+        <v>2.197802197802198E-2</v>
       </c>
       <c r="D45" s="152" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4265,7 +4273,7 @@
     </row>
     <row r="54" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B54" s="3" t="s">
-        <v>118</v>
+        <v>262</v>
       </c>
       <c r="C54" s="59"/>
       <c r="D54" s="60">
@@ -4377,7 +4385,7 @@
     </row>
     <row r="64" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B64" s="3" t="s">
-        <v>68</v>
+        <v>261</v>
       </c>
       <c r="C64" s="59"/>
       <c r="D64" s="60">
@@ -4881,10 +4889,10 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>35</v>
+        <v>36.4</v>
       </c>
       <c r="H3" s="134" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4922,7 +4930,7 @@
       </c>
       <c r="G5" s="275">
         <f>G3*G4/1000000</f>
-        <v>153075.54367000001</v>
+        <v>159198.56541679997</v>
       </c>
       <c r="H5" s="275"/>
       <c r="I5" s="38"/>
@@ -5017,10 +5025,10 @@
         <v>255</v>
       </c>
       <c r="C12" s="174">
-        <v>0.08</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="D12" s="172">
-        <v>8.5999999999999993E-2</v>
+        <v>7.5250000000000011E-2</v>
       </c>
       <c r="F12" s="110"/>
     </row>
@@ -5067,7 +5075,7 @@
         <v>256</v>
       </c>
       <c r="C17" s="175">
-        <v>9.1999999999999998E-2</v>
+        <v>8.0500000000000002E-2</v>
       </c>
       <c r="D17" s="176"/>
     </row>
@@ -5154,7 +5162,7 @@
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>32.14233206750739</v>
+        <v>33.428025350207683</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5186,7 +5194,7 @@
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>1.4285714285714285E-2</v>
+        <v>1.3736263736263736E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5216,20 +5224,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>8.126524582338428</v>
+        <v>9.6515054123741386</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>14.639419084225469</v>
+        <v>18.273255171142811</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>9.5606171556922686</v>
+        <v>11.354712249851929</v>
       </c>
       <c r="G29" s="274">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>12.72992963845693</v>
+        <v>15.889787105341576</v>
       </c>
       <c r="H29" s="274"/>
     </row>
@@ -12101,17 +12109,17 @@
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>3.1111619340492652E-2</v>
+        <v>2.9915018596627551E-2</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>3.1111619340492652E-2</v>
+        <v>2.9915018596627551E-2</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>3.1111619340492652E-2</v>
+        <v>2.9915018596627551E-2</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
@@ -12152,17 +12160,17 @@
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>2.2857142857142857E-2</v>
+        <v>2.197802197802198E-2</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>1.4285714285714285E-2</v>
+        <v>1.3736263736263736E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>1.4285714285714285E-2</v>
+        <v>1.3736263736263736E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -12211,7 +12219,7 @@
       </c>
       <c r="C93" s="136">
         <f>IF(C92="CN",Dashboard!C17,IF(C92="US",Dashboard!C12,IF(C92="HK",Dashboard!D12,Dashboard!D17)))</f>
-        <v>8.5999999999999993E-2</v>
+        <v>7.5250000000000011E-2</v>
       </c>
       <c r="D93" s="239">
         <f>Inputs!C86</f>
@@ -12222,14 +12230,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>19.229816033037444</v>
+        <v>22.838382095733966</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>19.229816033037444</v>
+        <v>22.838382095733966</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12250,14 +12258,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>8.1325662963303493</v>
+        <v>9.6886358810488673</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>211</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>8.1325662963303493</v>
+        <v>9.6886358810488673</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12300,21 +12308,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>41814190.540809229</v>
+        <v>49660821.453214079</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>9.5606171556922686</v>
+        <v>11.354712249851929</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>9.5606171556922686</v>
+        <v>11.354712249851929</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>12.72992963845693</v>
+        <v>15.889787105341576</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12363,27 +12371,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>41814190.540809229</v>
+        <v>49660821.453214079</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>8.126524582338428</v>
+        <v>9.6515054123741386</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>9.5606171556922686</v>
+        <v>11.354712249851929</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>9.5606171556922686</v>
+        <v>11.354712249851929</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>9.5606171556922686</v>
+        <v>11.354712249851929</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>12.72992963845693</v>
+        <v>15.889787105341576</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12424,27 +12432,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>17683823.709820837</v>
+        <v>21067412.507466789</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>3.4368243466854631</v>
+        <v>4.0944197033086844</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>4.0433227608064275</v>
+        <v>4.8169643568337461</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>4.0433227608064275</v>
+        <v>4.8169643568337461</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>4.0433227608064275</v>
+        <v>4.8169643568337461</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>5.3836706786226607</v>
+        <v>6.7408611015312134</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12485,27 +12493,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>29749007.125315033</v>
+        <v>35364116.980340436</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>5.781674464511946</v>
+        <v>6.8729625578414115</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>6.801969958249348</v>
+        <v>8.0858383033428378</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>6.801969958249348</v>
+        <v>8.0858383033428378</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>6.801969958249348</v>
+        <v>8.0858383033428378</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>9.0568001585397955</v>
+        <v>11.315324103436394</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0027.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0027.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4AF486DF-813F-4AA9-A8FF-CA74514C6E41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{01681167-CA5E-4CEE-82E0-6F5E364030D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="270">
   <si>
     <t>Company Info:</t>
   </si>
@@ -946,6 +946,10 @@
   </si>
   <si>
     <t>Prepayments or Contract Assets</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>ΔWC/Δsales</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -3581,7 +3585,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C75" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -3603,7 +3607,7 @@
         <v>195</v>
       </c>
       <c r="C4" s="188" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3611,7 +3615,7 @@
         <v>196</v>
       </c>
       <c r="C5" s="191" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3644,7 +3648,7 @@
         <v>217</v>
       </c>
       <c r="C9" s="192" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3709,7 +3713,7 @@
         <v>225</v>
       </c>
       <c r="C17" s="242" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D17" s="24"/>
     </row>
@@ -3727,7 +3731,7 @@
         <v>240</v>
       </c>
       <c r="C19" s="242" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D19" s="24"/>
     </row>
@@ -3736,7 +3740,7 @@
         <v>229</v>
       </c>
       <c r="C20" s="242" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D20" s="24"/>
     </row>
@@ -3754,7 +3758,7 @@
         <v>231</v>
       </c>
       <c r="C22" s="243" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D22" s="24"/>
     </row>
@@ -4152,7 +4156,7 @@
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>2.197802197802198E-2</v>
+        <v>2.2068965517241381E-2</v>
       </c>
       <c r="D45" s="152" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4889,10 +4893,10 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>36.4</v>
+        <v>36.25</v>
       </c>
       <c r="H3" s="134" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4930,7 +4934,7 @@
       </c>
       <c r="G5" s="275">
         <f>G3*G4/1000000</f>
-        <v>159198.56541679997</v>
+        <v>158542.52737249999</v>
       </c>
       <c r="H5" s="275"/>
       <c r="I5" s="38"/>
@@ -5000,7 +5004,7 @@
         <v>176</v>
       </c>
       <c r="C10" s="172">
-        <v>4.2099999999999999E-2</v>
+        <v>4.2000000000000003E-2</v>
       </c>
       <c r="F10" s="110" t="s">
         <v>183</v>
@@ -5011,7 +5015,7 @@
         <v>180</v>
       </c>
       <c r="C11" s="173">
-        <v>5.3099999999999994E-2</v>
+        <v>5.2299999999999999E-2</v>
       </c>
       <c r="D11" s="137" t="s">
         <v>190</v>
@@ -5038,7 +5042,7 @@
         <v>177</v>
       </c>
       <c r="C14" s="172">
-        <v>2.1309999999999999E-2</v>
+        <v>1.8100000000000002E-2</v>
       </c>
       <c r="F14" s="110" t="s">
         <v>182</v>
@@ -5162,7 +5166,7 @@
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>33.428025350207683</v>
+        <v>33.290272498489792</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5194,7 +5198,7 @@
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>1.3736263736263736E-2</v>
+        <v>1.3793103448275862E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5224,20 +5228,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>9.6515054123741386</v>
+        <v>9.6573069163384595</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>18.273255171142811</v>
+        <v>18.284239194648666</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>11.354712249851929</v>
+        <v>11.361537548633482</v>
       </c>
       <c r="G29" s="274">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>15.889787105341576</v>
+        <v>15.899338430129276</v>
       </c>
       <c r="H29" s="274"/>
     </row>
@@ -5272,8 +5276,8 @@
         <v>226</v>
       </c>
       <c r="C34" s="225" t="e">
-        <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C54&lt;0.8),"Strongly disagree",
-IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C54&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C54&lt;1.4),"agree","Strongly agree")))</f>
+        <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C55&lt;0.8),"Strongly disagree",
+IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C55&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C55&lt;1.4),"agree","Strongly agree")))</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -6299,12 +6303,12 @@
   <sheetPr codeName="Sheet2">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:N930"/>
+  <dimension ref="A1:N931"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="B19" sqref="B19"/>
+      <selection pane="topRight" activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -8730,118 +8734,119 @@
       <c r="N51" s="87"/>
     </row>
     <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A52" s="16"/>
-      <c r="B52" s="102" t="s">
+      <c r="A52" s="4"/>
+      <c r="B52" s="94" t="s">
+        <v>263</v>
+      </c>
+      <c r="C52" s="153" t="e">
+        <f>IF(D6="","",C16/(C6-D6))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D52" s="153" t="str">
+        <f t="shared" ref="D52:M52" si="43">IF(E6="","",D16/(D6-E6))</f>
+        <v/>
+      </c>
+      <c r="E52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="F52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="G52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="H52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="I52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="J52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="K52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="L52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="M52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="N52" s="87"/>
+    </row>
+    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A53" s="16"/>
+      <c r="B53" s="102" t="s">
         <v>125</v>
       </c>
-      <c r="C52" s="36"/>
-      <c r="D52" s="36"/>
-      <c r="E52" s="36"/>
-      <c r="F52" s="36"/>
-      <c r="G52" s="36"/>
-      <c r="H52" s="36"/>
-      <c r="I52" s="36"/>
-      <c r="J52" s="36"/>
-      <c r="K52" s="36"/>
-      <c r="L52" s="36"/>
-      <c r="M52" s="36"/>
-    </row>
-    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A53" s="4"/>
-      <c r="B53" s="95" t="s">
+      <c r="C53" s="36"/>
+      <c r="D53" s="36"/>
+      <c r="E53" s="36"/>
+      <c r="F53" s="36"/>
+      <c r="G53" s="36"/>
+      <c r="H53" s="36"/>
+      <c r="I53" s="36"/>
+      <c r="J53" s="36"/>
+      <c r="K53" s="36"/>
+      <c r="L53" s="36"/>
+      <c r="M53" s="36"/>
+    </row>
+    <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A54" s="4"/>
+      <c r="B54" s="95" t="s">
         <v>20</v>
       </c>
-      <c r="C53" s="156" t="e">
+      <c r="C54" s="156" t="e">
         <f>IF(C36="","",(C27-C36)/C27)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D53" s="156" t="str">
-        <f t="shared" ref="D53:M53" si="43">IF(D36="","",(D27-D36)/D27)</f>
-        <v/>
-      </c>
-      <c r="E53" s="156" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="F53" s="156" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="G53" s="156" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="H53" s="156" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="I53" s="156" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="J53" s="156" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="K53" s="156" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="L53" s="156" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="M53" s="156" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-    </row>
-    <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A54" s="4"/>
-      <c r="B54" s="94" t="s">
-        <v>121</v>
-      </c>
-      <c r="C54" s="157" t="str">
-        <f t="shared" ref="C54:M54" si="44">IF(OR(C22="",C35=""),"",IF(C35&lt;=0,"-",C22/C35))</f>
-        <v>-</v>
-      </c>
-      <c r="D54" s="157" t="str">
+      <c r="D54" s="156" t="str">
+        <f t="shared" ref="D54:M54" si="44">IF(D36="","",(D27-D36)/D27)</f>
+        <v/>
+      </c>
+      <c r="E54" s="156" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="E54" s="157" t="str">
+      <c r="F54" s="156" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="F54" s="157" t="str">
+      <c r="G54" s="156" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="G54" s="157" t="str">
+      <c r="H54" s="156" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="H54" s="157" t="str">
+      <c r="I54" s="156" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="I54" s="157" t="str">
+      <c r="J54" s="156" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="J54" s="157" t="str">
+      <c r="K54" s="156" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="K54" s="157" t="str">
+      <c r="L54" s="156" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="L54" s="157" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="M54" s="157" t="str">
+      <c r="M54" s="156" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
@@ -8849,107 +8854,154 @@
     <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="4"/>
       <c r="B55" s="94" t="s">
-        <v>123</v>
-      </c>
-      <c r="C55" s="153" t="str">
-        <f t="shared" ref="C55:M55" si="45">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
+        <v>121</v>
+      </c>
+      <c r="C55" s="157" t="str">
+        <f t="shared" ref="C55:M55" si="45">IF(OR(C22="",C35=""),"",IF(C35&lt;=0,"-",C22/C35))</f>
         <v>-</v>
       </c>
-      <c r="D55" s="153" t="str">
+      <c r="D55" s="157" t="str">
         <f t="shared" si="45"/>
-        <v>-</v>
-      </c>
-      <c r="E55" s="153" t="str">
+        <v/>
+      </c>
+      <c r="E55" s="157" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="F55" s="153" t="str">
+      <c r="F55" s="157" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="G55" s="153" t="str">
+      <c r="G55" s="157" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="H55" s="153" t="str">
+      <c r="H55" s="157" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="I55" s="153" t="str">
+      <c r="I55" s="157" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="J55" s="153" t="str">
+      <c r="J55" s="157" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="K55" s="153" t="str">
+      <c r="K55" s="157" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="L55" s="153" t="str">
+      <c r="L55" s="157" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="M55" s="153" t="str">
+      <c r="M55" s="157" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
     </row>
     <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="4"/>
-      <c r="B56" s="98" t="s">
+      <c r="B56" s="94" t="s">
+        <v>123</v>
+      </c>
+      <c r="C56" s="153" t="str">
+        <f t="shared" ref="C56:M56" si="46">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
+        <v>-</v>
+      </c>
+      <c r="D56" s="153" t="str">
+        <f t="shared" si="46"/>
+        <v>-</v>
+      </c>
+      <c r="E56" s="153" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="F56" s="153" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="G56" s="153" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="H56" s="153" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="I56" s="153" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="J56" s="153" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="K56" s="153" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="L56" s="153" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="M56" s="153" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+    </row>
+    <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A57" s="4"/>
+      <c r="B57" s="98" t="s">
         <v>21</v>
       </c>
-      <c r="C56" s="158" t="e">
-        <f t="shared" ref="C56:M56" si="46">IF(C28="","",C28/C31)</f>
+      <c r="C57" s="158" t="e">
+        <f t="shared" ref="C57:M57" si="47">IF(C28="","",C28/C31)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="E56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="F56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="G56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="H56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="I56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="J56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="K56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="L56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="M56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-    </row>
-    <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A58" s="4"/>
-    </row>
+      <c r="D57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="E57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="F57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="G57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="H57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="I57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="J57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="K57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="L57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="M57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+    </row>
+    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="4"/>
     </row>
@@ -9517,7 +9569,9 @@
     <row r="247" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A247" s="4"/>
     </row>
-    <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A248" s="4"/>
+    </row>
     <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="250" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="251" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -10200,6 +10254,7 @@
     <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <phoneticPr fontId="20" type="noConversion"/>
   <conditionalFormatting sqref="C6:M23 C27:M40">
@@ -12109,17 +12164,17 @@
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>2.9915018596627551E-2</v>
+        <v>3.0038804880475663E-2</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>2.9915018596627551E-2</v>
+        <v>3.0038804880475663E-2</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>2.9915018596627551E-2</v>
+        <v>3.0038804880475663E-2</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
@@ -12160,17 +12215,17 @@
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>2.197802197802198E-2</v>
+        <v>2.2068965517241381E-2</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>1.3736263736263736E-2</v>
+        <v>1.3793103448275862E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>1.3736263736263736E-2</v>
+        <v>1.3793103448275862E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -12230,14 +12285,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>22.838382095733966</v>
+        <v>22.852110209495077</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>22.838382095733966</v>
+        <v>22.852110209495077</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12258,14 +12313,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>9.6886358810488673</v>
+        <v>9.6913523717739665</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>211</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>9.6886358810488673</v>
+        <v>9.6913523717739665</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12308,21 +12363,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>49660821.453214079</v>
+        <v>49690672.49097684</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>11.354712249851929</v>
+        <v>11.361537548633482</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>11.354712249851929</v>
+        <v>11.361537548633482</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>15.889787105341576</v>
+        <v>15.899338430129276</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12371,27 +12426,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>49660821.453214079</v>
+        <v>49690672.49097684</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>9.6515054123741386</v>
+        <v>9.6573069163384595</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>11.354712249851929</v>
+        <v>11.361537548633482</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>11.354712249851929</v>
+        <v>11.361537548633482</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>11.354712249851929</v>
+        <v>11.361537548633482</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>15.889787105341576</v>
+        <v>15.899338430129276</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12432,27 +12487,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>21067412.507466789</v>
+        <v>21073319.369008597</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>4.0944197033086844</v>
+        <v>4.0955676929003317</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>4.8169643568337461</v>
+        <v>4.8183149328239194</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>4.8169643568337461</v>
+        <v>4.8183149328239194</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>4.8169643568337461</v>
+        <v>4.8183149328239194</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>6.7408611015312134</v>
+        <v>6.7427510979028709</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12493,27 +12548,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>35364116.980340436</v>
+        <v>35381995.92999272</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>6.8729625578414115</v>
+        <v>6.8764373046193956</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>8.0858383033428378</v>
+        <v>8.0899262407287011</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>8.0858383033428378</v>
+        <v>8.0899262407287011</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>8.0858383033428378</v>
+        <v>8.0899262407287011</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>11.315324103436394</v>
+        <v>11.321044764016074</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0027.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0027.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{01681167-CA5E-4CEE-82E0-6F5E364030D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{40AFBC20-77BD-4F31-B24F-8BCEE2FF6425}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4156,7 +4156,7 @@
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>2.2068965517241381E-2</v>
+        <v>2.2130013831258646E-2</v>
       </c>
       <c r="D45" s="152" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4893,7 +4893,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>36.25</v>
+        <v>36.15</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>269</v>
@@ -4934,7 +4934,7 @@
       </c>
       <c r="G5" s="275">
         <f>G3*G4/1000000</f>
-        <v>158542.52737249999</v>
+        <v>158105.16867629997</v>
       </c>
       <c r="H5" s="275"/>
       <c r="I5" s="38"/>
@@ -5166,7 +5166,7 @@
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>33.290272498489792</v>
+        <v>33.198437264011197</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5198,7 +5198,7 @@
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>1.3793103448275862E-2</v>
+        <v>1.3831258644536654E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5228,20 +5228,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>9.6573069163384595</v>
+        <v>9.6612028977007256</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>18.284239194648666</v>
+        <v>18.291615480371249</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>11.361537548633482</v>
+        <v>11.366121056118502</v>
       </c>
       <c r="G29" s="274">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>15.899338430129276</v>
+        <v>15.905752591627174</v>
       </c>
       <c r="H29" s="274"/>
     </row>
@@ -10294,8 +10294,8 @@
   </sheetPr>
   <dimension ref="A2:K108"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B70" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C82" sqref="C82"/>
+    <sheetView showGridLines="0" topLeftCell="A85" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I100" sqref="I100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -12164,17 +12164,17 @@
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>3.0038804880475663E-2</v>
+        <v>3.0121899776410593E-2</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>3.0038804880475663E-2</v>
+        <v>3.0121899776410593E-2</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>3.0038804880475663E-2</v>
+        <v>3.0121899776410593E-2</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
@@ -12215,17 +12215,17 @@
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>2.2068965517241381E-2</v>
+        <v>2.2130013831258646E-2</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>1.3793103448275862E-2</v>
+        <v>1.3831258644536654E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>1.3793103448275862E-2</v>
+        <v>1.3831258644536654E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -12285,14 +12285,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>22.852110209495077</v>
+        <v>22.861329280219032</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>22.852110209495077</v>
+        <v>22.861329280219032</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12313,14 +12313,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>9.6913523717739665</v>
+        <v>9.6931762315209014</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>211</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>9.6913523717739665</v>
+        <v>9.6931762315209014</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12363,21 +12363,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>49690672.49097684</v>
+        <v>49710718.859553553</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>11.361537548633482</v>
+        <v>11.366121056118502</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>11.361537548633482</v>
+        <v>11.366121056118502</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>15.899338430129276</v>
+        <v>15.905752591627174</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12386,7 +12386,7 @@
         <v>145</v>
       </c>
       <c r="C98" s="91">
-        <f>E53*Exchange_Rate</f>
+        <f>-E53*Exchange_Rate</f>
         <v>0</v>
       </c>
       <c r="D98" s="213"/>
@@ -12425,28 +12425,28 @@
         <v>115</v>
       </c>
       <c r="C100" s="91">
-        <f>C97-C98+$C$99</f>
-        <v>49690672.49097684</v>
+        <f>C97+C98+$C$99</f>
+        <v>49710718.859553553</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>9.6573069163384595</v>
+        <v>9.6612028977007256</v>
       </c>
       <c r="E100" s="109">
-        <f>MAX(E97-H98+E99,0)</f>
-        <v>11.361537548633482</v>
+        <f>MAX(E97+H98+E99,0)</f>
+        <v>11.366121056118502</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>11.361537548633482</v>
+        <v>11.366121056118502</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>11.361537548633482</v>
+        <v>11.366121056118502</v>
       </c>
       <c r="I100" s="109">
-        <f>MAX(I97-H98+H99,0)</f>
-        <v>15.899338430129276</v>
+        <f>MAX(I97+H98+H99,0)</f>
+        <v>15.905752591627174</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12487,27 +12487,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>21073319.369008597</v>
+        <v>21077285.252969582</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>4.0955676929003317</v>
+        <v>4.0963384564397609</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>4.8183149328239194</v>
+        <v>4.8192217134585427</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>4.8183149328239194</v>
+        <v>4.8192217134585427</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>4.8183149328239194</v>
+        <v>4.8192217134585427</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>6.7427510979028709</v>
+        <v>6.7440200469452032</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12548,27 +12548,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>35381995.92999272</v>
+        <v>35394002.056261569</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>6.8764373046193956</v>
+        <v>6.8787706770702428</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>8.0899262407287011</v>
+        <v>8.0926713847885221</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>8.0899262407287011</v>
+        <v>8.0926713847885221</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>8.0899262407287011</v>
+        <v>8.0926713847885221</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>11.321044764016074</v>
+        <v>11.324886319286188</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0027.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0027.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{40AFBC20-77BD-4F31-B24F-8BCEE2FF6425}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{68697B7D-B066-4009-AA86-6EBD9BAF012C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4156,7 +4156,7 @@
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>2.2130013831258646E-2</v>
+        <v>2.2377622377622378E-2</v>
       </c>
       <c r="D45" s="152" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4893,7 +4893,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>36.15</v>
+        <v>35.75</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>269</v>
@@ -4934,7 +4934,7 @@
       </c>
       <c r="G5" s="275">
         <f>G3*G4/1000000</f>
-        <v>158105.16867629997</v>
+        <v>156355.73389149999</v>
       </c>
       <c r="H5" s="275"/>
       <c r="I5" s="38"/>
@@ -5166,7 +5166,7 @@
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>33.198437264011197</v>
+        <v>32.831096326096834</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5198,7 +5198,7 @@
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>1.3831258644536654E-2</v>
+        <v>1.3986013986013986E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5228,20 +5228,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>9.6612028977007256</v>
+        <v>9.6770176746321965</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>18.291615480371249</v>
+        <v>18.321557695807709</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>11.366121056118502</v>
+        <v>11.384726676037879</v>
       </c>
       <c r="G29" s="274">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>15.905752591627174</v>
+        <v>15.931789300702356</v>
       </c>
       <c r="H29" s="274"/>
     </row>
@@ -12164,17 +12164,17 @@
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>3.0121899776410593E-2</v>
+        <v>3.0458928025657143E-2</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>3.0121899776410593E-2</v>
+        <v>3.0458928025657143E-2</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>3.0121899776410593E-2</v>
+        <v>3.0458928025657143E-2</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
@@ -12215,17 +12215,17 @@
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>2.2130013831258646E-2</v>
+        <v>2.2377622377622378E-2</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>1.3831258644536654E-2</v>
+        <v>1.3986013986013986E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>1.3831258644536654E-2</v>
+        <v>1.3986013986013986E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -12285,14 +12285,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>22.861329280219032</v>
+        <v>22.898751827571765</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>22.861329280219032</v>
+        <v>22.898751827571765</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12313,14 +12313,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>9.6931762315209014</v>
+        <v>9.7005765203198671</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>211</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>9.6931762315209014</v>
+        <v>9.7005765203198671</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12363,21 +12363,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>49710718.859553553</v>
+        <v>49792092.156252861</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>11.366121056118502</v>
+        <v>11.384726676037879</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>11.366121056118502</v>
+        <v>11.384726676037879</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>15.905752591627174</v>
+        <v>15.931789300702356</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12426,27 +12426,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97+C98+$C$99</f>
-        <v>49710718.859553553</v>
+        <v>49792092.156252861</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>9.6612028977007256</v>
+        <v>9.6770176746321965</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>11.366121056118502</v>
+        <v>11.384726676037879</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>11.366121056118502</v>
+        <v>11.384726676037879</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>11.366121056118502</v>
+        <v>11.384726676037879</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>15.905752591627174</v>
+        <v>15.931789300702356</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12487,27 +12487,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>21077285.252969582</v>
+        <v>21093376.779033341</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>4.0963384564397609</v>
+        <v>4.0994658201512948</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>4.8192217134585427</v>
+        <v>4.8229009648838765</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>4.8192217134585427</v>
+        <v>4.8229009648838765</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>4.8192217134585427</v>
+        <v>4.8229009648838765</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>6.7440200469452032</v>
+        <v>6.7491687922915542</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12548,27 +12548,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>35394002.056261569</v>
+        <v>35442734.467643104</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>6.8787706770702428</v>
+        <v>6.8882417473917457</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>8.0926713847885221</v>
+        <v>8.1038138204608785</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>8.0926713847885221</v>
+        <v>8.1038138204608785</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>8.0926713847885221</v>
+        <v>8.1038138204608785</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>11.324886319286188</v>
+        <v>11.340479046496956</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0027.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0027.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{68697B7D-B066-4009-AA86-6EBD9BAF012C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7551FAE2-43D9-456F-B490-D769FEE7C14D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4156,7 +4156,7 @@
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>2.2377622377622378E-2</v>
+        <v>2.2191400832177535E-2</v>
       </c>
       <c r="D45" s="152" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4893,7 +4893,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>35.75</v>
+        <v>36.049999999999997</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>269</v>
@@ -4934,7 +4934,7 @@
       </c>
       <c r="G5" s="275">
         <f>G3*G4/1000000</f>
-        <v>156355.73389149999</v>
+        <v>157667.80998009996</v>
       </c>
       <c r="H5" s="275"/>
       <c r="I5" s="38"/>
@@ -5029,10 +5029,10 @@
         <v>255</v>
       </c>
       <c r="C12" s="174">
-        <v>7.0000000000000007E-2</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="D12" s="172">
-        <v>7.5250000000000011E-2</v>
+        <v>8.0625000000000002E-2</v>
       </c>
       <c r="F12" s="110"/>
     </row>
@@ -5079,7 +5079,7 @@
         <v>256</v>
       </c>
       <c r="C17" s="175">
-        <v>8.0500000000000002E-2</v>
+        <v>8.6249999999999993E-2</v>
       </c>
       <c r="D17" s="176"/>
     </row>
@@ -5166,7 +5166,7 @@
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>32.831096326096834</v>
+        <v>33.106602029532603</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5198,7 +5198,7 @@
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>1.3986013986013986E-2</v>
+        <v>1.3869625520110958E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5228,20 +5228,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>9.6770176746321965</v>
+        <v>8.8082140586137925</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>18.321557695807709</v>
+        <v>16.266005833008066</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>11.384726676037879</v>
+        <v>10.362604774839756</v>
       </c>
       <c r="G29" s="274">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>15.931789300702356</v>
+        <v>14.144352898267885</v>
       </c>
       <c r="H29" s="274"/>
     </row>
@@ -12164,17 +12164,17 @@
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>3.0458928025657143E-2</v>
+        <v>3.0205455670381218E-2</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>3.0458928025657143E-2</v>
+        <v>3.0205455670381218E-2</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>3.0458928025657143E-2</v>
+        <v>3.0205455670381218E-2</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
@@ -12215,17 +12215,17 @@
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>2.2377622377622378E-2</v>
+        <v>2.2191400832177535E-2</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>1.3986013986013986E-2</v>
+        <v>1.3869625520110958E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>1.3986013986013986E-2</v>
+        <v>1.3869625520110958E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -12274,7 +12274,7 @@
       </c>
       <c r="C93" s="136">
         <f>IF(C92="CN",Dashboard!C17,IF(C92="US",Dashboard!C12,IF(C92="HK",Dashboard!D12,Dashboard!D17)))</f>
-        <v>7.5250000000000011E-2</v>
+        <v>8.0625000000000002E-2</v>
       </c>
       <c r="D93" s="239">
         <f>Inputs!C86</f>
@@ -12285,14 +12285,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>22.898751827571765</v>
+        <v>20.842899595095755</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>22.898751827571765</v>
+        <v>20.842899595095755</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12313,14 +12313,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>9.7005765203198671</v>
+        <v>8.8354528558656078</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>211</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>9.7005765203198671</v>
+        <v>8.8354528558656078</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12363,21 +12363,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>49792092.156252861</v>
+        <v>45321753.135598108</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>11.384726676037879</v>
+        <v>10.362604774839756</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>11.384726676037879</v>
+        <v>10.362604774839756</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>15.931789300702356</v>
+        <v>14.144352898267885</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12426,27 +12426,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97+C98+$C$99</f>
-        <v>49792092.156252861</v>
+        <v>45321753.135598108</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>9.6770176746321965</v>
+        <v>8.8082140586137925</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>11.384726676037879</v>
+        <v>10.362604774839756</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>11.384726676037879</v>
+        <v>10.362604774839756</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>11.384726676037879</v>
+        <v>10.362604774839756</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>15.931789300702356</v>
+        <v>14.144352898267885</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12487,27 +12487,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>21093376.779033341</v>
+        <v>19212212.357870676</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>4.0994658201512948</v>
+        <v>3.7338643648970327</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>4.8229009648838765</v>
+        <v>4.3927816057612148</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>4.8229009648838765</v>
+        <v>4.3927816057612148</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>4.8229009648838765</v>
+        <v>4.3927816057612148</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>6.7491687922915542</v>
+        <v>5.9958914372344472</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12548,27 +12548,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>35442734.467643104</v>
+        <v>32266982.746734388</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>6.8882417473917457</v>
+        <v>6.2710392117554123</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>8.1038138204608785</v>
+        <v>7.3776931903004854</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>8.1038138204608785</v>
+        <v>7.3776931903004854</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>8.1038138204608785</v>
+        <v>7.3776931903004854</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>11.340479046496956</v>
+        <v>10.070122167751165</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0027.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0027.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7551FAE2-43D9-456F-B490-D769FEE7C14D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{20EAABA2-9AD7-404B-99A8-E922C6467C04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,6 +26,17 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId9" roundtripDataSignature="AMtx7mi73Cg0ax9bLfpeUuF69nNRn7idDQ=="/>
@@ -4156,7 +4167,7 @@
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>2.2191400832177535E-2</v>
+        <v>2.2662889518413602E-2</v>
       </c>
       <c r="D45" s="152" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4893,7 +4904,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>36.049999999999997</v>
+        <v>35.299999999999997</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>269</v>
@@ -4934,7 +4945,7 @@
       </c>
       <c r="G5" s="275">
         <f>G3*G4/1000000</f>
-        <v>157667.80998009996</v>
+        <v>154387.61975859996</v>
       </c>
       <c r="H5" s="275"/>
       <c r="I5" s="38"/>
@@ -5166,7 +5177,7 @@
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>33.106602029532603</v>
+        <v>32.417837770943159</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5198,7 +5209,7 @@
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>1.3869625520110958E-2</v>
+        <v>1.4164305949008501E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5228,20 +5239,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>8.8082140586137925</v>
+        <v>8.8356833243138961</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>16.266005833008066</v>
+        <v>16.31673294217379</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>10.362604774839756</v>
+        <v>10.39492155801635</v>
       </c>
       <c r="G29" s="274">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>14.144352898267885</v>
+        <v>14.18846342797721</v>
       </c>
       <c r="H29" s="274"/>
     </row>
@@ -12164,17 +12175,17 @@
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>3.0205455670381218E-2</v>
+        <v>3.0847214643547959E-2</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>3.0205455670381218E-2</v>
+        <v>3.0847214643547959E-2</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>3.0205455670381218E-2</v>
+        <v>3.0847214643547959E-2</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
@@ -12215,17 +12226,17 @@
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>2.2191400832177535E-2</v>
+        <v>2.2662889518413602E-2</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>1.3869625520110958E-2</v>
+        <v>1.4164305949008501E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>1.3869625520110958E-2</v>
+        <v>1.4164305949008501E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -12285,14 +12296,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>20.842899595095755</v>
+        <v>20.907900189214878</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>20.842899595095755</v>
+        <v>20.907900189214878</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12313,14 +12324,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>8.8354528558656078</v>
+        <v>8.8483004099322535</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>211</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>8.8354528558656078</v>
+        <v>8.8483004099322535</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12363,21 +12374,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>45321753.135598108</v>
+        <v>45463093.397153027</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>10.362604774839756</v>
+        <v>10.39492155801635</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>10.362604774839756</v>
+        <v>10.39492155801635</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>14.144352898267885</v>
+        <v>14.18846342797721</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12426,27 +12437,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97+C98+$C$99</f>
-        <v>45321753.135598108</v>
+        <v>45463093.397153027</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>8.8082140586137925</v>
+        <v>8.8356833243138961</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>10.362604774839756</v>
+        <v>10.39492155801635</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>10.362604774839756</v>
+        <v>10.39492155801635</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>10.362604774839756</v>
+        <v>10.39492155801635</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>14.144352898267885</v>
+        <v>14.18846342797721</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12487,27 +12498,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>19212212.357870676</v>
+        <v>19240148.666403376</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>3.7338643648970327</v>
+        <v>3.7392937441363419</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>4.3927816057612148</v>
+        <v>4.3991691107486375</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>4.3927816057612148</v>
+        <v>4.3991691107486375</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>4.3927816057612148</v>
+        <v>4.3991691107486375</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>5.9958914372344472</v>
+        <v>6.0046100100879558</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12548,27 +12559,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>32266982.746734388</v>
+        <v>32351621.031778205</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>6.2710392117554123</v>
+        <v>6.287488534225119</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>7.3776931903004854</v>
+        <v>7.3970453343824936</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>7.3776931903004854</v>
+        <v>7.3970453343824936</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>7.3776931903004854</v>
+        <v>7.3970453343824936</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>10.070122167751165</v>
+        <v>10.096536719032583</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0027.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0027.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{20EAABA2-9AD7-404B-99A8-E922C6467C04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F71D0384-5D53-431C-8078-D397ACBD717C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="273">
   <si>
     <t>Company Info:</t>
   </si>
@@ -108,9 +108,6 @@
     <t>Interest-bearing Debt</t>
   </si>
   <si>
-    <t>Total Liabilities / Total Assets</t>
-  </si>
-  <si>
     <t>Current Ratio</t>
   </si>
   <si>
@@ -129,15 +126,9 @@
     <t>Discount</t>
   </si>
   <si>
-    <t>Orderly Liquidation Values =</t>
-  </si>
-  <si>
     <t>Book Current Ratio</t>
   </si>
   <si>
-    <t>Orderly Liquidation Value per Shares =</t>
-  </si>
-  <si>
     <t>Book Quick Ratio</t>
   </si>
   <si>
@@ -452,10 +443,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Solvency Analysis</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>Pre-tax Profit =</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -552,10 +539,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Profibility Qaulity Analysis</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>2. Total Debt + PS + Options</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -920,10 +903,6 @@
     <t>Profit</t>
   </si>
   <si>
-    <t>Cost Analysis</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>Dividend Yield</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -961,6 +940,42 @@
   </si>
   <si>
     <t>ΔWC/Δsales</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Minority interests</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Profibility Analysis</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Asset Turnover</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Leverage Analysis</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sales/Op_Assets</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Common_Equity / Total Assets</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>ROE</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>EBIT ROE</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pre-tax ROE</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -1540,7 +1555,7 @@
     <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="287">
+  <cellXfs count="291">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2180,6 +2195,16 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="187" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3596,7 +3621,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C75" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -3610,28 +3635,28 @@
     <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B4" s="141" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="C4" s="188" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B5" s="141" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="C5" s="191" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B6" s="141" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="C6" s="189">
         <v>45603</v>
@@ -3647,24 +3672,24 @@
     </row>
     <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B8" s="140" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="C8" s="191" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E8" s="267"/>
     </row>
     <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B9" s="140" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="C9" s="192" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B10" s="140" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="C10" s="193">
         <v>4373586962</v>
@@ -3672,7 +3697,7 @@
     </row>
     <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B11" s="140" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="C11" s="192" t="s">
         <v>2</v>
@@ -3696,7 +3721,7 @@
     </row>
     <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="218" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="C14" s="219">
         <v>45473</v>
@@ -3704,15 +3729,15 @@
     </row>
     <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="218" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="C15" s="176" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="222" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C16" s="223">
         <v>0.23499999999999999</v>
@@ -3721,61 +3746,61 @@
     </row>
     <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="240" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="C17" s="242" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="D17" s="24"/>
     </row>
     <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="240" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="C18" s="242" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="D18" s="24"/>
     </row>
     <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="240" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="C19" s="242" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="D19" s="24"/>
     </row>
     <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="241" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C20" s="242" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="D20" s="24"/>
     </row>
     <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="224" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="C21" s="242" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="D21" s="24"/>
     </row>
     <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
       <c r="B22" s="226" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="C22" s="243" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="D22" s="24"/>
     </row>
     <row r="24" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B24" s="115" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C24" s="48">
         <f>C12</f>
@@ -3844,7 +3869,7 @@
     </row>
     <row r="26" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B26" s="97" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C26" s="150">
         <v>16868997</v>
@@ -3864,7 +3889,7 @@
     </row>
     <row r="27" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B27" s="97" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C27" s="150">
         <v>12529703</v>
@@ -3884,7 +3909,7 @@
     </row>
     <row r="28" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B28" s="97" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C28" s="150"/>
       <c r="D28" s="150"/>
@@ -3900,7 +3925,7 @@
     </row>
     <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B29" s="97" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="C29" s="150"/>
       <c r="D29" s="150"/>
@@ -3916,7 +3941,7 @@
     </row>
     <row r="30" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B30" s="99" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C30" s="150">
         <v>46020</v>
@@ -3936,7 +3961,7 @@
     </row>
     <row r="31" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B31" s="97" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C31" s="150"/>
       <c r="D31" s="150"/>
@@ -3952,7 +3977,7 @@
     </row>
     <row r="32" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B32" s="97" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C32" s="150"/>
       <c r="D32" s="150"/>
@@ -3968,7 +3993,7 @@
     </row>
     <row r="33" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="97" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C33" s="150"/>
       <c r="D33" s="150"/>
@@ -4000,7 +4025,7 @@
     </row>
     <row r="35" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="94" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C35" s="217"/>
       <c r="D35" s="150"/>
@@ -4016,7 +4041,7 @@
     </row>
     <row r="36" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="94" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C36" s="217"/>
       <c r="D36" s="150"/>
@@ -4048,7 +4073,7 @@
     </row>
     <row r="38" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B38" s="94" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C38" s="217"/>
       <c r="D38" s="150"/>
@@ -4096,7 +4121,7 @@
     </row>
     <row r="41" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B41" s="94" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C41" s="217"/>
       <c r="D41" s="150"/>
@@ -4112,7 +4137,7 @@
     </row>
     <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B42" s="94" t="s">
-        <v>139</v>
+        <v>258</v>
       </c>
       <c r="C42" s="217"/>
       <c r="D42" s="150"/>
@@ -4128,7 +4153,7 @@
     </row>
     <row r="43" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B43" s="94" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C43" s="217"/>
       <c r="D43" s="150"/>
@@ -4144,7 +4169,7 @@
     </row>
     <row r="44" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B44" s="74" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="C44" s="250">
         <f>0.5+0.3</f>
@@ -4163,11 +4188,11 @@
     </row>
     <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="74" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>2.2662889518413602E-2</v>
+        <v>2.318840579710145E-2</v>
       </c>
       <c r="D45" s="152" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4212,21 +4237,21 @@
     </row>
     <row r="47" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B47" s="10" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="C47" s="194" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D47" s="194" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="E47" s="111" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="48" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B48" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C48" s="59"/>
       <c r="D48" s="60">
@@ -4236,7 +4261,7 @@
     </row>
     <row r="49" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B49" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C49" s="59"/>
       <c r="D49" s="60">
@@ -4246,7 +4271,7 @@
     </row>
     <row r="50" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B50" s="3" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C50" s="59"/>
       <c r="D50" s="60">
@@ -4257,7 +4282,7 @@
     </row>
     <row r="51" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B51" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C51" s="59"/>
       <c r="D51" s="60">
@@ -4267,7 +4292,7 @@
     </row>
     <row r="52" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B52" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C52" s="59"/>
       <c r="D52" s="60">
@@ -4277,7 +4302,7 @@
     </row>
     <row r="53" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="1" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="C53" s="59"/>
       <c r="D53" s="60">
@@ -4288,7 +4313,7 @@
     </row>
     <row r="54" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B54" s="3" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="C54" s="59"/>
       <c r="D54" s="60">
@@ -4298,7 +4323,7 @@
     </row>
     <row r="55" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C55" s="59"/>
       <c r="D55" s="60">
@@ -4309,7 +4334,7 @@
     </row>
     <row r="56" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B56" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C56" s="59"/>
       <c r="D56" s="60">
@@ -4317,24 +4342,24 @@
         <v>0.6</v>
       </c>
       <c r="E56" s="221" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="57" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B57" s="3" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C57" s="59"/>
       <c r="D57" s="60">
         <v>0.6</v>
       </c>
       <c r="E57" s="221" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="58" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B58" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C58" s="59"/>
       <c r="D58" s="60">
@@ -4345,7 +4370,7 @@
     </row>
     <row r="59" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B59" s="35" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C59" s="120"/>
       <c r="D59" s="195">
@@ -4356,7 +4381,7 @@
     </row>
     <row r="60" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C60" s="59"/>
       <c r="D60" s="60">
@@ -4367,7 +4392,7 @@
     </row>
     <row r="61" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B61" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C61" s="59"/>
       <c r="D61" s="60">
@@ -4378,7 +4403,7 @@
     </row>
     <row r="62" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B62" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C62" s="59"/>
       <c r="D62" s="60">
@@ -4389,7 +4414,7 @@
     </row>
     <row r="63" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="1" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="C63" s="59"/>
       <c r="D63" s="60">
@@ -4400,7 +4425,7 @@
     </row>
     <row r="64" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B64" s="3" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="C64" s="59"/>
       <c r="D64" s="60">
@@ -4410,31 +4435,31 @@
     </row>
     <row r="65" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B65" s="3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C65" s="59"/>
       <c r="D65" s="60">
         <v>0.1</v>
       </c>
       <c r="E65" s="221" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="66" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B66" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C66" s="59"/>
       <c r="D66" s="60">
         <v>0.2</v>
       </c>
       <c r="E66" s="221" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="67" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C67" s="59"/>
       <c r="D67" s="60">
@@ -4442,12 +4467,12 @@
         <v>0.1</v>
       </c>
       <c r="E67" s="221" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="68" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C68" s="59"/>
       <c r="D68" s="60">
@@ -4458,7 +4483,7 @@
     </row>
     <row r="69" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B69" s="3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C69" s="59"/>
       <c r="D69" s="60">
@@ -4469,7 +4494,7 @@
     </row>
     <row r="70" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B70" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C70" s="59"/>
       <c r="D70" s="60">
@@ -4479,7 +4504,7 @@
     </row>
     <row r="71" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B71" s="3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C71" s="59"/>
       <c r="D71" s="60">
@@ -4490,7 +4515,7 @@
     </row>
     <row r="72" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B72" s="246" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C72" s="247"/>
       <c r="D72" s="248">
@@ -4500,25 +4525,25 @@
     </row>
     <row r="73" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B73" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C73" s="59"/>
     </row>
     <row r="74" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B74" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C74" s="59"/>
     </row>
     <row r="75" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B75" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C75" s="59"/>
     </row>
     <row r="76" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B76" s="86" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C76" s="120"/>
     </row>
@@ -4530,55 +4555,55 @@
     </row>
     <row r="78" spans="2:5" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B78" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C78" s="59"/>
     </row>
     <row r="79" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B79" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C79" s="59"/>
     </row>
     <row r="80" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B80" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C80" s="59"/>
     </row>
     <row r="81" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B81" s="86" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C81" s="120"/>
     </row>
     <row r="82" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B82" s="80" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C82" s="83"/>
     </row>
     <row r="83" spans="2:8" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B83" s="73" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C83" s="59"/>
     </row>
     <row r="84" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B84" s="20" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C84" s="59"/>
     </row>
     <row r="85" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B85" s="20" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C85" s="59"/>
     </row>
     <row r="86" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B86" s="10" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="C86" s="197">
         <v>5</v>
@@ -4586,10 +4611,10 @@
     </row>
     <row r="87" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B87" s="10" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="C87" s="236" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="D87" s="269">
         <v>0.02</v>
@@ -4597,18 +4622,18 @@
     </row>
     <row r="89" spans="2:8" ht="13.5" x14ac:dyDescent="0.35">
       <c r="B89" s="106" t="s">
-        <v>128</v>
-      </c>
-      <c r="C89" s="271">
+        <v>124</v>
+      </c>
+      <c r="C89" s="275">
         <f>C24</f>
         <v>45291</v>
       </c>
-      <c r="D89" s="271"/>
+      <c r="D89" s="275"/>
       <c r="E89" s="89" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="F89" s="89" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="H89" s="31"/>
     </row>
@@ -4617,20 +4642,20 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000HKD)</v>
       </c>
-      <c r="C90" s="272" t="s">
-        <v>101</v>
-      </c>
-      <c r="D90" s="272"/>
+      <c r="C90" s="276" t="s">
+        <v>98</v>
+      </c>
+      <c r="D90" s="276"/>
       <c r="E90" s="235" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="F90" s="255" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="91" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B91" s="3" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C91" s="77">
         <f>C25</f>
@@ -4648,7 +4673,7 @@
     </row>
     <row r="92" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B92" s="104" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C92" s="77">
         <f>C26</f>
@@ -4669,7 +4694,7 @@
     </row>
     <row r="93" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B93" s="104" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="C93" s="77">
         <f>C27+C28</f>
@@ -4690,7 +4715,7 @@
     </row>
     <row r="94" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B94" s="104" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="C94" s="77">
         <f>C29</f>
@@ -4708,7 +4733,7 @@
     </row>
     <row r="95" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B95" s="28" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="C95" s="77">
         <f>ABS(MAX(C33,0)-C32)</f>
@@ -4729,7 +4754,7 @@
     </row>
     <row r="96" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B96" s="28" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C96" s="77">
         <f>MAX(C31,0)</f>
@@ -4747,7 +4772,7 @@
     </row>
     <row r="97" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B97" s="73" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="C97" s="77">
         <f>MAX(C30,0)/(1-C16)</f>
@@ -4765,7 +4790,7 @@
     </row>
     <row r="98" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B98" s="86" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="C98" s="237">
         <f>C44</f>
@@ -4892,62 +4917,62 @@
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="C3" s="277" t="str">
+        <v>190</v>
+      </c>
+      <c r="C3" s="281" t="str">
         <f>Inputs!C4</f>
         <v>0027.HK</v>
       </c>
-      <c r="D3" s="278"/>
+      <c r="D3" s="282"/>
       <c r="E3" s="87"/>
       <c r="F3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>35.299999999999997</v>
+        <v>34.5</v>
       </c>
       <c r="H3" s="134" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="35" t="s">
-        <v>196</v>
-      </c>
-      <c r="C4" s="279" t="str">
+        <v>191</v>
+      </c>
+      <c r="C4" s="283" t="str">
         <f>Inputs!C5</f>
         <v>銀河娛樂</v>
       </c>
-      <c r="D4" s="280"/>
+      <c r="D4" s="284"/>
       <c r="E4" s="87"/>
       <c r="F4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="283">
+      <c r="G4" s="287">
         <f>Inputs!C10</f>
         <v>4373586962</v>
       </c>
-      <c r="H4" s="283"/>
+      <c r="H4" s="287"/>
       <c r="I4" s="39"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="C5" s="281">
+        <v>159</v>
+      </c>
+      <c r="C5" s="285">
         <f>Inputs!C6</f>
         <v>45603</v>
       </c>
-      <c r="D5" s="282"/>
+      <c r="D5" s="286"/>
       <c r="E5" s="34"/>
       <c r="F5" s="35" t="s">
-        <v>100</v>
-      </c>
-      <c r="G5" s="275">
+        <v>97</v>
+      </c>
+      <c r="G5" s="279">
         <f>G3*G4/1000000</f>
-        <v>154387.61975859996</v>
-      </c>
-      <c r="H5" s="275"/>
+        <v>150888.75018900001</v>
+      </c>
+      <c r="H5" s="279"/>
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
@@ -4970,16 +4995,16 @@
       <c r="F6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="276" t="str">
+      <c r="G6" s="280" t="str">
         <f>Inputs!C11</f>
         <v>HKD</v>
       </c>
-      <c r="H6" s="276"/>
+      <c r="H6" s="280"/>
       <c r="I6" s="38"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="86" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C7" s="187" t="str">
         <f>Inputs!C8</f>
@@ -5004,40 +5029,40 @@
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="139" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="F9" s="143" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="1" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="C10" s="172">
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="F10" s="110" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B11" s="122" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="C11" s="173">
         <v>5.2299999999999999E-2</v>
       </c>
       <c r="D11" s="137" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="F11" s="110" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B12" s="87" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="C12" s="174">
         <v>7.4999999999999997E-2</v>
@@ -5050,29 +5075,29 @@
     <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="1" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="C14" s="172">
         <v>1.8100000000000002E-2</v>
       </c>
       <c r="F14" s="110" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="1" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="C15" s="172">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="F15" s="110" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B16" s="122" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="C16" s="173">
         <v>0.16</v>
@@ -5082,12 +5107,12 @@
         <v>HK</v>
       </c>
       <c r="F16" s="110" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B17" s="87" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="C17" s="175">
         <v>8.6249999999999993E-2</v>
@@ -5097,29 +5122,29 @@
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B19" s="142" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="C19" s="135" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D19" s="87"/>
       <c r="E19" s="87"/>
       <c r="F19" s="142" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="G19" s="87"/>
       <c r="H19" s="87"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B20" s="137" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="C20" s="171">
         <f>Fin_Analysis!I75</f>
         <v>0.47272944175123971</v>
       </c>
       <c r="F20" s="87" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="G20" s="172">
         <v>0.15</v>
@@ -5127,7 +5152,7 @@
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B21" s="137" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="C21" s="171">
         <f>Fin_Analysis!I77</f>
@@ -5138,26 +5163,26 @@
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="137" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="C22" s="171">
         <f>Fin_Analysis!I78</f>
         <v>1.6858097812807804E-3</v>
       </c>
       <c r="F22" s="142" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B23" s="137" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C23" s="171">
         <f>Fin_Analysis!I80</f>
         <v>0</v>
       </c>
       <c r="F23" s="140" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="G23" s="177" t="e">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
@@ -5166,30 +5191,30 @@
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="137" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C24" s="171">
         <f>Fin_Analysis!I81</f>
         <v>0</v>
       </c>
       <c r="F24" s="140" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>32.417837770943159</v>
+        <v>31.683155895114425</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="137" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="C25" s="171">
         <f>Fin_Analysis!I82</f>
         <v>0</v>
       </c>
       <c r="F25" s="140" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="G25" s="171">
         <f>Fin_Analysis!I88</f>
@@ -5198,18 +5223,18 @@
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="138" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="C26" s="171">
         <f>Fin_Analysis!I83</f>
         <v>0.17445779619528262</v>
       </c>
       <c r="F26" s="141" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>1.4164305949008501E-2</v>
+        <v>1.4492753623188406E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5219,62 +5244,62 @@
         <v>7</v>
       </c>
       <c r="C28" s="89" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="D28" s="43" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="E28" s="58"/>
       <c r="F28" s="53" t="s">
-        <v>238</v>
-      </c>
-      <c r="G28" s="273" t="s">
-        <v>259</v>
-      </c>
-      <c r="H28" s="273"/>
+        <v>233</v>
+      </c>
+      <c r="G28" s="277" t="s">
+        <v>253</v>
+      </c>
+      <c r="H28" s="277"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="87" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>8.8356833243138961</v>
+        <v>8.8663809933736104</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>16.31673294217379</v>
+        <v>16.373421898716206</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>10.39492155801635</v>
-      </c>
-      <c r="G29" s="274">
+        <v>10.431036462792484</v>
+      </c>
+      <c r="G29" s="278">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>14.18846342797721</v>
-      </c>
-      <c r="H29" s="274"/>
+        <v>14.237758172796703</v>
+      </c>
+      <c r="H29" s="278"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="5"/>
       <c r="B31" s="6" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="C31"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32"/>
       <c r="B32" s="196" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="C32" s="224"/>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33"/>
       <c r="B33" s="20" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="C33" s="245" t="str">
         <f>Inputs!C17</f>
@@ -5284,25 +5309,25 @@
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34"/>
       <c r="B34" s="19" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="C34" s="225" t="e">
-        <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C55&lt;0.8),"Strongly disagree",
-IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C55&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C55&lt;1.4),"agree","Strongly agree")))</f>
+        <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C56&lt;0.8),"Strongly disagree",
+IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C56&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C56&lt;1.4),"agree","Strongly agree")))</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35"/>
       <c r="B35" s="196" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="C35" s="224"/>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="C36" s="245" t="str">
         <f>Inputs!C18</f>
@@ -5312,7 +5337,7 @@
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37"/>
       <c r="B37" s="20" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="C37" s="245" t="str">
         <f>Inputs!C19</f>
@@ -5322,14 +5347,14 @@
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38"/>
       <c r="B38" s="196" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="C38" s="224"/>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39"/>
       <c r="B39" s="19" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C39" s="245" t="str">
         <f>Inputs!C20</f>
@@ -5339,7 +5364,7 @@
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40"/>
       <c r="B40" s="1" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="C40" s="245" t="str">
         <f>Inputs!C21</f>
@@ -5354,14 +5379,14 @@
     <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="5"/>
       <c r="B42" s="6" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="C42"/>
     </row>
     <row r="43" spans="1:3" ht="65.650000000000006" x14ac:dyDescent="0.4">
       <c r="A43"/>
       <c r="B43" s="226" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="C43" s="244" t="str">
         <f>Inputs!C22</f>
@@ -6314,12 +6339,12 @@
   <sheetPr codeName="Sheet2">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:N931"/>
+  <dimension ref="A1:N932"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="D52" sqref="D52"/>
+      <selection pane="topRight" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -6346,16 +6371,16 @@
       <c r="C2" s="18"/>
       <c r="D2" s="17"/>
       <c r="E2" s="148" t="s">
+        <v>195</v>
+      </c>
+      <c r="F2" s="119" t="s">
+        <v>198</v>
+      </c>
+      <c r="G2" s="148" t="s">
+        <v>199</v>
+      </c>
+      <c r="H2" s="147" t="s">
         <v>200</v>
-      </c>
-      <c r="F2" s="119" t="s">
-        <v>203</v>
-      </c>
-      <c r="G2" s="148" t="s">
-        <v>204</v>
-      </c>
-      <c r="H2" s="147" t="s">
-        <v>205</v>
       </c>
       <c r="I2" s="7"/>
       <c r="J2" s="87"/>
@@ -6373,7 +6398,7 @@
         <v>45291</v>
       </c>
       <c r="E3" s="146" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="F3" s="85" t="str">
         <f>H14</f>
@@ -6406,7 +6431,7 @@
         <v>HKD</v>
       </c>
       <c r="E4" s="146" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="F4" s="93" t="e">
         <f>(G3/F3)^(1/H3)-1</f>
@@ -6417,7 +6442,7 @@
     <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="16"/>
       <c r="B5" s="115" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C5" s="48">
         <f>C3</f>
@@ -6569,7 +6594,7 @@
     <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="4"/>
       <c r="B8" s="97" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C8" s="199">
         <f>IF(Inputs!C26="","",Inputs!C26)</f>
@@ -6620,7 +6645,7 @@
     <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="4"/>
       <c r="B9" s="98" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C9" s="151">
         <f t="shared" ref="C9:M9" si="2">IF(C6="","",(C6-C8))</f>
@@ -6671,7 +6696,7 @@
     <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="4"/>
       <c r="B10" s="97" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C10" s="199">
         <f>IF(Inputs!C27="","",Inputs!C27)</f>
@@ -6722,7 +6747,7 @@
     <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="4"/>
       <c r="B11" s="97" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C11" s="199" t="str">
         <f>IF(Inputs!C28="","",Inputs!C28)</f>
@@ -6773,7 +6798,7 @@
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
       <c r="B12" s="99" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="C12" s="199">
         <f>IF(Inputs!C30="","",MAX(Inputs!C30,0)/(1-Fin_Analysis!$I$84))</f>
@@ -6824,7 +6849,7 @@
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
       <c r="B13" s="228" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="C13" s="229">
         <f t="shared" ref="C13:M13" si="3">IF(C14="","",C14/C6)</f>
@@ -6875,7 +6900,7 @@
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
       <c r="B14" s="228" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="C14" s="230">
         <f>IF(C6="","",C9-C10-MAX(C11,0)-MAX(C12,0))</f>
@@ -6926,7 +6951,7 @@
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
       <c r="B15" s="231" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="C15" s="232" t="str">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
@@ -6977,7 +7002,7 @@
     <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="4"/>
       <c r="B16" s="97" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C16" s="199" t="str">
         <f>IF(Inputs!C31="","",Inputs!C31)</f>
@@ -7028,7 +7053,7 @@
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
       <c r="B17" s="97" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="C17" s="199" t="str">
         <f>IF(Inputs!C29="","",Inputs!C29)</f>
@@ -7079,7 +7104,7 @@
     <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="4"/>
       <c r="B18" s="94" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C18" s="152" t="str">
         <f t="shared" ref="C18:M18" si="6">IF(OR(C6="",C19=""),"",C19/C6)</f>
@@ -7130,7 +7155,7 @@
     <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="4"/>
       <c r="B19" s="97" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C19" s="199" t="str">
         <f>IF(Inputs!C32="","",Inputs!C32)</f>
@@ -7181,7 +7206,7 @@
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
       <c r="B20" s="97" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="C20" s="152">
         <f t="shared" ref="C20:M20" si="7">IF(C6="","",MAX(C21,0)/C6)</f>
@@ -7232,7 +7257,7 @@
     <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="4"/>
       <c r="B21" s="97" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C21" s="199" t="str">
         <f>IF(Inputs!C33="","",Inputs!C33)</f>
@@ -7283,7 +7308,7 @@
     <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="4"/>
       <c r="B22" s="98" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C22" s="161">
         <f>IF(C6="","",C14-MAX(C16,0)-MAX(C17,0)-ABS(MAX(C21,0)-MAX(C19,0)))</f>
@@ -7334,7 +7359,7 @@
     <row r="23" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="4"/>
       <c r="B23" s="100" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C23" s="153">
         <f t="shared" ref="C23:M23" si="9">IF(C6="","",C24/C6)</f>
@@ -7385,7 +7410,7 @@
     <row r="24" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="4"/>
       <c r="B24" s="101" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C24" s="154">
         <f>IF(C6="","",C22*(1-Fin_Analysis!$I$84))</f>
@@ -7436,7 +7461,7 @@
     <row r="25" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="4"/>
       <c r="B25" s="234" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C25" s="233" t="str">
         <f>IF(D24="","",IF(ABS(C24+D24)=ABS(C24)+ABS(D24),IF(C24&lt;0,-1,1)*(C24-D24)/D24,"Turn"))</f>
@@ -7487,7 +7512,7 @@
     <row r="26" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A26" s="16"/>
       <c r="B26" s="114" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C26" s="48">
         <f>Fin_Analysis!D9</f>
@@ -7640,7 +7665,7 @@
     <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="4"/>
       <c r="B29" s="94" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C29" s="65">
         <f>Fin_Analysis!C13</f>
@@ -7691,7 +7716,7 @@
     <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="4"/>
       <c r="B30" s="94" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C30" s="65">
         <f>Fin_Analysis!C18</f>
@@ -7793,7 +7818,7 @@
     <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="4"/>
       <c r="B32" s="94" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C32" s="65">
         <f>Fin_Analysis!I48</f>
@@ -7997,7 +8022,7 @@
     <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="4"/>
       <c r="B36" s="94" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C36" s="65">
         <f>Fin_Analysis!D3</f>
@@ -8048,7 +8073,7 @@
     <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="4"/>
       <c r="B37" s="94" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C37" s="65">
         <f>Fin_Analysis!D4</f>
@@ -8099,7 +8124,7 @@
     <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="4"/>
       <c r="B38" s="94" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C38" s="65">
         <f>Fin_Analysis!C63</f>
@@ -8150,7 +8175,7 @@
     <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="4"/>
       <c r="B39" s="94" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C39" s="65">
         <f>Fin_Analysis!C68</f>
@@ -8201,7 +8226,7 @@
     <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="4"/>
       <c r="B40" s="98" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C40" s="155" t="e">
         <f>IF(C6="","",C14/MAX(C39,0))</f>
@@ -8252,7 +8277,7 @@
     <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="16"/>
       <c r="B41" s="55" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="C41" s="54"/>
       <c r="D41" s="54"/>
@@ -8270,7 +8295,7 @@
     <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="4"/>
       <c r="B42" s="95" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C42" s="156">
         <f t="shared" ref="C42:M42" si="34">IF(C6="","",C8/C6)</f>
@@ -8321,7 +8346,7 @@
     <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="4"/>
       <c r="B43" s="94" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="C43" s="153">
         <f t="shared" ref="C43:M43" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
@@ -8372,7 +8397,7 @@
     <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="4"/>
       <c r="B44" s="94" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C44" s="153">
         <f t="shared" ref="C44:M44" si="36">IF(C6="","",MAX(C16,0)/C6)</f>
@@ -8423,7 +8448,7 @@
     <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="4"/>
       <c r="B45" s="94" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C45" s="153">
         <f t="shared" ref="C45:M45" si="37">IF(C6="","",MAX(C17,0)/C6)</f>
@@ -8474,7 +8499,7 @@
     <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="4"/>
       <c r="B46" s="94" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C46" s="153">
         <f>IF(C6="","",MAX(C12,0)/C6)</f>
@@ -8525,7 +8550,7 @@
     <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="4"/>
       <c r="B47" s="94" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="C47" s="153">
         <f>IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
@@ -8576,7 +8601,7 @@
     <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="4"/>
       <c r="B48" s="94" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C48" s="153">
         <f t="shared" ref="C48:M48" si="40">IF(C6="","",C22/C6)</f>
@@ -8627,7 +8652,7 @@
     <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="16"/>
       <c r="B49" s="102" t="s">
-        <v>150</v>
+        <v>260</v>
       </c>
       <c r="C49" s="36"/>
       <c r="D49" s="36"/>
@@ -8644,50 +8669,50 @@
     </row>
     <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="4"/>
-      <c r="B50" s="95" t="s">
-        <v>147</v>
-      </c>
-      <c r="C50" s="156">
-        <f t="shared" ref="C50:M50" si="41">IF(C29="","",C29/C6)</f>
-        <v>0</v>
-      </c>
-      <c r="D50" s="156" t="str">
+      <c r="B50" s="271" t="s">
+        <v>262</v>
+      </c>
+      <c r="C50" s="272" t="e">
+        <f>IF(C6="","",C6/C39)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D50" s="272" t="e">
+        <f t="shared" ref="D50:M50" si="41">IF(D6="","",D6/D39)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E50" s="272" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="E50" s="156" t="str">
+      <c r="F50" s="272" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="F50" s="156" t="str">
+      <c r="G50" s="272" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="G50" s="156" t="str">
+      <c r="H50" s="272" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="H50" s="156" t="str">
+      <c r="I50" s="272" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="I50" s="156" t="str">
+      <c r="J50" s="272" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="J50" s="156" t="str">
+      <c r="K50" s="272" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="K50" s="156" t="str">
+      <c r="L50" s="272" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="L50" s="156" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="M50" s="156" t="str">
+      <c r="M50" s="272" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
@@ -8696,10 +8721,10 @@
     <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="4"/>
       <c r="B51" s="94" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="C51" s="153">
-        <f t="shared" ref="C51:M51" si="42">IF(C30="","",C30/C6)</f>
+        <f t="shared" ref="C51:M51" si="42">IF(C29="","",C29/C6)</f>
         <v>0</v>
       </c>
       <c r="D51" s="153" t="str">
@@ -8747,167 +8772,168 @@
     <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="4"/>
       <c r="B52" s="94" t="s">
-        <v>263</v>
-      </c>
-      <c r="C52" s="153" t="e">
+        <v>144</v>
+      </c>
+      <c r="C52" s="153">
+        <f t="shared" ref="C52:M52" si="43">IF(C30="","",C30/C6)</f>
+        <v>0</v>
+      </c>
+      <c r="D52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="E52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="F52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="G52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="H52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="I52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="J52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="K52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="L52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="M52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="N52" s="87"/>
+    </row>
+    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A53" s="4"/>
+      <c r="B53" s="94" t="s">
+        <v>257</v>
+      </c>
+      <c r="C53" s="153" t="e">
         <f>IF(D6="","",C16/(C6-D6))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D52" s="153" t="str">
-        <f t="shared" ref="D52:M52" si="43">IF(E6="","",D16/(D6-E6))</f>
-        <v/>
-      </c>
-      <c r="E52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="F52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="G52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="H52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="I52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="J52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="K52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="L52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="M52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="N52" s="87"/>
-    </row>
-    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A53" s="16"/>
-      <c r="B53" s="102" t="s">
-        <v>125</v>
-      </c>
-      <c r="C53" s="36"/>
-      <c r="D53" s="36"/>
-      <c r="E53" s="36"/>
-      <c r="F53" s="36"/>
-      <c r="G53" s="36"/>
-      <c r="H53" s="36"/>
-      <c r="I53" s="36"/>
-      <c r="J53" s="36"/>
-      <c r="K53" s="36"/>
-      <c r="L53" s="36"/>
-      <c r="M53" s="36"/>
+      <c r="D53" s="153" t="str">
+        <f t="shared" ref="D53:M53" si="44">IF(E6="","",D16/(D6-E6))</f>
+        <v/>
+      </c>
+      <c r="E53" s="153" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="F53" s="153" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="G53" s="153" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="H53" s="153" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="I53" s="153" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="J53" s="153" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="K53" s="153" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="L53" s="153" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="M53" s="153" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="N53" s="87"/>
     </row>
     <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A54" s="4"/>
-      <c r="B54" s="95" t="s">
-        <v>20</v>
-      </c>
-      <c r="C54" s="156" t="e">
-        <f>IF(C36="","",(C27-C36)/C27)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D54" s="156" t="str">
-        <f t="shared" ref="D54:M54" si="44">IF(D36="","",(D27-D36)/D27)</f>
-        <v/>
-      </c>
-      <c r="E54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="F54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="G54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="H54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="I54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="J54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="K54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="L54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="M54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
+      <c r="A54" s="16"/>
+      <c r="B54" s="102" t="s">
+        <v>261</v>
+      </c>
+      <c r="C54" s="36"/>
+      <c r="D54" s="36"/>
+      <c r="E54" s="36"/>
+      <c r="F54" s="36"/>
+      <c r="G54" s="36"/>
+      <c r="H54" s="36"/>
+      <c r="I54" s="36"/>
+      <c r="J54" s="36"/>
+      <c r="K54" s="36"/>
+      <c r="L54" s="36"/>
+      <c r="M54" s="36"/>
     </row>
     <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="4"/>
-      <c r="B55" s="94" t="s">
-        <v>121</v>
-      </c>
-      <c r="C55" s="157" t="str">
-        <f t="shared" ref="C55:M55" si="45">IF(OR(C22="",C35=""),"",IF(C35&lt;=0,"-",C22/C35))</f>
-        <v>-</v>
-      </c>
-      <c r="D55" s="157" t="str">
+      <c r="B55" s="95" t="s">
+        <v>263</v>
+      </c>
+      <c r="C55" s="156" t="e">
+        <f>IF(C36="","",(C36-C37)/C27)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D55" s="156" t="str">
+        <f t="shared" ref="D55:M55" si="45">IF(D36="","",(D36-D37)/D27)</f>
+        <v/>
+      </c>
+      <c r="E55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="E55" s="157" t="str">
+      <c r="F55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="F55" s="157" t="str">
+      <c r="G55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="G55" s="157" t="str">
+      <c r="H55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="H55" s="157" t="str">
+      <c r="I55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="I55" s="157" t="str">
+      <c r="J55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="J55" s="157" t="str">
+      <c r="K55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="K55" s="157" t="str">
+      <c r="L55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="L55" s="157" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="M55" s="157" t="str">
+      <c r="M55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
@@ -8915,112 +8941,302 @@
     <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="4"/>
       <c r="B56" s="94" t="s">
-        <v>123</v>
-      </c>
-      <c r="C56" s="153" t="str">
-        <f t="shared" ref="C56:M56" si="46">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
+        <v>118</v>
+      </c>
+      <c r="C56" s="157" t="str">
+        <f t="shared" ref="C56:M56" si="46">IF(OR(C22="",C35=""),"",IF(C35&lt;=0,"-",C22/C35))</f>
         <v>-</v>
       </c>
-      <c r="D56" s="153" t="str">
+      <c r="D56" s="157" t="str">
         <f t="shared" si="46"/>
-        <v>-</v>
-      </c>
-      <c r="E56" s="153" t="str">
+        <v/>
+      </c>
+      <c r="E56" s="157" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="F56" s="153" t="str">
+      <c r="F56" s="157" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="G56" s="153" t="str">
+      <c r="G56" s="157" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="H56" s="153" t="str">
+      <c r="H56" s="157" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="I56" s="153" t="str">
+      <c r="I56" s="157" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="J56" s="153" t="str">
+      <c r="J56" s="157" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="K56" s="153" t="str">
+      <c r="K56" s="157" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="L56" s="153" t="str">
+      <c r="L56" s="157" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="M56" s="153" t="str">
+      <c r="M56" s="157" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
     </row>
     <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A57" s="4"/>
-      <c r="B57" s="98" t="s">
-        <v>21</v>
-      </c>
-      <c r="C57" s="158" t="e">
-        <f t="shared" ref="C57:M57" si="47">IF(C28="","",C28/C31)</f>
+      <c r="B57" s="94" t="s">
+        <v>120</v>
+      </c>
+      <c r="C57" s="153" t="str">
+        <f t="shared" ref="C57:M57" si="47">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
+        <v>-</v>
+      </c>
+      <c r="D57" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v>-</v>
+      </c>
+      <c r="E57" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="F57" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="G57" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="H57" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="I57" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="J57" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="K57" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="L57" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="M57" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+    </row>
+    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A58" s="4"/>
+      <c r="B58" s="98" t="s">
+        <v>20</v>
+      </c>
+      <c r="C58" s="158" t="e">
+        <f t="shared" ref="C58:M58" si="48">IF(C28="","",C28/C31)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="E57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="F57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="G57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="H57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="I57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="J57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="K57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="L57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="M57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-    </row>
-    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+      <c r="D58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="E58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="F58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="G58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="H58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="I58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="J58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="K58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="L58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="M58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+    </row>
     <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A59" s="4"/>
+      <c r="A59" s="16"/>
+      <c r="B59" s="102" t="s">
+        <v>264</v>
+      </c>
+      <c r="C59" s="273" t="str">
+        <f>IFERROR(IF(C13*C50*(1/C55)=C60,"","Error"),"")</f>
+        <v/>
+      </c>
+      <c r="D59" s="273" t="str">
+        <f t="shared" ref="D59:M59" si="49">IFERROR(IF(D13*D50*(1/D55)=D60,"","Error"),"")</f>
+        <v/>
+      </c>
+      <c r="E59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="F59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="G59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="H59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="I59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="J59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="K59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="L59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="M59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
     </row>
     <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="4"/>
+      <c r="B60" s="271" t="s">
+        <v>265</v>
+      </c>
+      <c r="C60" s="274" t="e">
+        <f>IF(C14="","",C14/(C36-C37))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D60" s="274" t="e">
+        <f t="shared" ref="D60:M60" si="50">IF(D14="","",D14/(D36-D37))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E60" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="F60" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="G60" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="H60" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="I60" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="J60" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="K60" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="L60" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="M60" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
     </row>
     <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="4"/>
+      <c r="B61" s="271" t="s">
+        <v>266</v>
+      </c>
+      <c r="C61" s="274" t="e">
+        <f>IF(C22="","",C22/(C36-C37))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D61" s="274" t="e">
+        <f t="shared" ref="D61:M61" si="51">IF(D22="","",D22/(D36-D37))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E61" s="274" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+      <c r="F61" s="274" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+      <c r="G61" s="274" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+      <c r="H61" s="274" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+      <c r="I61" s="274" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+      <c r="J61" s="274" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+      <c r="K61" s="274" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+      <c r="L61" s="274" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+      <c r="M61" s="274" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
     </row>
     <row r="62" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A62" s="4"/>
@@ -9583,7 +9799,9 @@
     <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A248" s="4"/>
     </row>
-    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A249" s="4"/>
+    </row>
     <row r="250" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="251" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="252" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -10266,6 +10484,7 @@
     <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <phoneticPr fontId="20" type="noConversion"/>
   <conditionalFormatting sqref="C6:M23 C27:M40">
@@ -10305,8 +10524,8 @@
   </sheetPr>
   <dimension ref="A2:K108"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A85" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I100" sqref="I100"/>
+    <sheetView showGridLines="0" topLeftCell="A78" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E82" sqref="E82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -10324,7 +10543,7 @@
     <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2"/>
       <c r="B2" s="45" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C2" s="45"/>
       <c r="D2" s="64"/>
@@ -10339,7 +10558,7 @@
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C3" s="87"/>
       <c r="D3" s="116">
@@ -10353,7 +10572,7 @@
       <c r="F3" s="87"/>
       <c r="G3" s="87"/>
       <c r="H3" s="47" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I3" s="204">
         <f>Inputs!C83</f>
@@ -10363,7 +10582,7 @@
     </row>
     <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C4" s="87"/>
       <c r="D4" s="65">
@@ -10381,10 +10600,10 @@
       <c r="C5" s="87"/>
       <c r="D5" s="87"/>
       <c r="E5" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>28</v>
       </c>
       <c r="I5" s="63" t="e">
         <f>C28/I28</f>
@@ -10393,12 +10612,13 @@
       <c r="K5" s="24"/>
     </row>
     <row r="6" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B6" s="20" t="s">
-        <v>27</v>
+      <c r="B6" s="20" t="str">
+        <f>"Adj. Net Asset in "&amp;Dashboard!G6</f>
+        <v>Adj. Net Asset in HKD</v>
       </c>
       <c r="C6" s="87"/>
       <c r="D6" s="69">
-        <f>(E49-I49-E53)*Exchange_Rate</f>
+        <f>(E49-I49-E53)</f>
         <v>0</v>
       </c>
       <c r="E6" s="56" t="e">
@@ -10408,7 +10628,7 @@
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
       <c r="H6" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I6" s="63" t="e">
         <f>(C24+C25)/I28</f>
@@ -10418,8 +10638,9 @@
       <c r="K6" s="24"/>
     </row>
     <row r="7" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="19" t="s">
-        <v>29</v>
+      <c r="B7" s="19" t="str">
+        <f>"Adj. Net Asset per Shares in "&amp;Dashboard!H3</f>
+        <v>Adj. Net Asset per Shares in HKD</v>
       </c>
       <c r="C7" s="87"/>
       <c r="D7" s="66">
@@ -10431,7 +10652,7 @@
         <v>HKD</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="I7" s="63" t="e">
         <f>C24/I28</f>
@@ -10449,7 +10670,7 @@
     <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="2"/>
       <c r="B9" s="46" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C9" s="86"/>
       <c r="D9" s="203">
@@ -10468,32 +10689,32 @@
     </row>
     <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="74" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="74" t="s">
+        <v>192</v>
+      </c>
+      <c r="E10" s="74" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" s="111" t="s">
         <v>33</v>
-      </c>
-      <c r="C10" s="74" t="s">
-        <v>34</v>
-      </c>
-      <c r="D10" s="74" t="s">
-        <v>197</v>
-      </c>
-      <c r="E10" s="74" t="s">
-        <v>35</v>
-      </c>
-      <c r="F10" s="111" t="s">
-        <v>36</v>
       </c>
       <c r="G10" s="87"/>
       <c r="H10" s="22" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="I10" s="74" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="K10" s="24"/>
     </row>
     <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C11" s="40">
         <f>Inputs!C48</f>
@@ -10510,7 +10731,7 @@
       <c r="F11" s="112"/>
       <c r="G11" s="87"/>
       <c r="H11" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="I11" s="40">
         <f>Inputs!C73</f>
@@ -10521,7 +10742,7 @@
     </row>
     <row r="12" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B12" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C12" s="40">
         <f>Inputs!C49</f>
@@ -10538,7 +10759,7 @@
       <c r="F12" s="112"/>
       <c r="G12" s="87"/>
       <c r="H12" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="I12" s="40">
         <f>Inputs!C74</f>
@@ -10549,7 +10770,7 @@
     </row>
     <row r="13" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B13" s="3" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C13" s="40">
         <f>Inputs!C50</f>
@@ -10566,7 +10787,7 @@
       <c r="F13" s="112"/>
       <c r="G13" s="87"/>
       <c r="H13" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="I13" s="40">
         <f>Inputs!C75</f>
@@ -10577,7 +10798,7 @@
     </row>
     <row r="14" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C14" s="40">
         <f>Inputs!C51</f>
@@ -10594,7 +10815,7 @@
       <c r="F14" s="112"/>
       <c r="G14" s="87"/>
       <c r="H14" s="86" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="I14" s="205">
         <f>Inputs!C76</f>
@@ -10605,7 +10826,7 @@
     </row>
     <row r="15" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C15" s="40">
         <f>Inputs!C52</f>
@@ -10622,7 +10843,7 @@
       <c r="F15" s="112"/>
       <c r="G15" s="87"/>
       <c r="H15" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="I15" s="84">
         <f>SUM(I11:I14)</f>
@@ -10632,7 +10853,7 @@
     </row>
     <row r="16" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="1" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="C16" s="40">
         <f>Inputs!C53</f>
@@ -10654,7 +10875,7 @@
     </row>
     <row r="17" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C17" s="40">
         <f>Inputs!C54</f>
@@ -10676,7 +10897,7 @@
     </row>
     <row r="18" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C18" s="40">
         <f>Inputs!C55</f>
@@ -10697,7 +10918,7 @@
     </row>
     <row r="19" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C19" s="40">
         <f>Inputs!C56</f>
@@ -10722,7 +10943,7 @@
     </row>
     <row r="20" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="3" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C20" s="40">
         <f>Inputs!C57</f>
@@ -10749,7 +10970,7 @@
     </row>
     <row r="21" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C21" s="40">
         <f>Inputs!C58</f>
@@ -10770,7 +10991,7 @@
     </row>
     <row r="22" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C22" s="40">
         <f>Inputs!C59</f>
@@ -10787,7 +11008,7 @@
       <c r="F22" s="112"/>
       <c r="G22" s="87"/>
       <c r="H22" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="I22" s="52">
         <f>I28-SUM(I11:I14)</f>
@@ -10799,13 +11020,13 @@
       <c r="D23" s="87"/>
       <c r="E23" s="87"/>
       <c r="F23" s="111" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G23" s="87"/>
     </row>
     <row r="24" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="23" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C24" s="61">
         <f>SUM(C11:C14)</f>
@@ -10827,7 +11048,7 @@
     </row>
     <row r="25" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="23" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C25" s="61">
         <f>SUM(C15:C17)</f>
@@ -10847,7 +11068,7 @@
       </c>
       <c r="G25" s="87"/>
       <c r="H25" s="23" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="I25" s="63" t="e">
         <f>E28/I28</f>
@@ -10856,7 +11077,7 @@
     </row>
     <row r="26" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="23" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C26" s="61">
         <f>C18+C19+C20</f>
@@ -10876,7 +11097,7 @@
       </c>
       <c r="G26" s="87"/>
       <c r="H26" s="23" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="I26" s="63" t="e">
         <f>E24/($I$28-I22)</f>
@@ -10889,7 +11110,7 @@
     </row>
     <row r="27" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B27" s="23" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C27" s="77">
         <f>C21+C22</f>
@@ -10909,7 +11130,7 @@
       </c>
       <c r="G27" s="87"/>
       <c r="H27" s="23" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="I27" s="63" t="e">
         <f>(E25+E24)/$I$28</f>
@@ -10955,7 +11176,7 @@
       <c r="D29" s="87"/>
       <c r="E29" s="87"/>
       <c r="F29" s="112" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G29" s="87"/>
       <c r="H29" s="87"/>
@@ -10964,7 +11185,7 @@
     </row>
     <row r="30" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B30" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C30" s="40">
         <f>Inputs!C60</f>
@@ -10980,7 +11201,7 @@
       <c r="F30" s="112"/>
       <c r="G30" s="87"/>
       <c r="H30" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="I30" s="40">
         <f>Inputs!C78</f>
@@ -10990,7 +11211,7 @@
     </row>
     <row r="31" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B31" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C31" s="40">
         <f>Inputs!C61</f>
@@ -11007,7 +11228,7 @@
       <c r="F31" s="112"/>
       <c r="G31" s="87"/>
       <c r="H31" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="I31" s="40">
         <f>Inputs!C79</f>
@@ -11017,7 +11238,7 @@
     </row>
     <row r="32" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C32" s="40">
         <f>Inputs!C62</f>
@@ -11034,7 +11255,7 @@
       <c r="F32" s="112"/>
       <c r="G32" s="87"/>
       <c r="H32" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="I32" s="40">
         <f>Inputs!C80</f>
@@ -11044,7 +11265,7 @@
     </row>
     <row r="33" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="1" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="C33" s="40">
         <f>Inputs!C63</f>
@@ -11064,7 +11285,7 @@
         <v>1</v>
       </c>
       <c r="H33" s="86" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="I33" s="205">
         <f>Inputs!C81</f>
@@ -11074,7 +11295,7 @@
     </row>
     <row r="34" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B34" s="3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C34" s="40">
         <f>Inputs!C64</f>
@@ -11091,7 +11312,7 @@
       <c r="F34" s="112"/>
       <c r="G34" s="87"/>
       <c r="H34" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="I34" s="84">
         <f>SUM(I30:I33)</f>
@@ -11101,7 +11322,7 @@
     </row>
     <row r="35" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C35" s="40">
         <f>Inputs!C65</f>
@@ -11127,7 +11348,7 @@
     </row>
     <row r="36" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C36" s="40">
         <f>Inputs!C66</f>
@@ -11154,7 +11375,7 @@
     </row>
     <row r="37" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B37" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C37" s="40">
         <f>Inputs!C67</f>
@@ -11181,7 +11402,7 @@
     </row>
     <row r="38" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B38" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C38" s="40">
         <f>Inputs!C68</f>
@@ -11202,7 +11423,7 @@
     </row>
     <row r="39" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B39" s="3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C39" s="40">
         <f>Inputs!C69</f>
@@ -11223,7 +11444,7 @@
     </row>
     <row r="40" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B40" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C40" s="40">
         <f>Inputs!C70</f>
@@ -11244,7 +11465,7 @@
     </row>
     <row r="41" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B41" s="3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C41" s="40">
         <f>Inputs!C71</f>
@@ -11265,7 +11486,7 @@
     </row>
     <row r="42" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B42" s="3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C42" s="40">
         <f>Inputs!C72</f>
@@ -11282,7 +11503,7 @@
       <c r="F42" s="112"/>
       <c r="G42" s="87"/>
       <c r="H42" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="I42" s="52">
         <f>I48-SUM(I30:I33)</f>
@@ -11300,7 +11521,7 @@
     </row>
     <row r="44" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B44" s="23" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C44" s="61">
         <f>SUM(C30:C31)</f>
@@ -11319,7 +11540,7 @@
     </row>
     <row r="45" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B45" s="23" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C45" s="61">
         <f>SUM(C32:C35)</f>
@@ -11338,7 +11559,7 @@
     </row>
     <row r="46" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B46" s="23" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C46" s="61">
         <f>C36+C37+C38+C39</f>
@@ -11355,7 +11576,7 @@
       <c r="F46" s="87"/>
       <c r="G46" s="87"/>
       <c r="H46" s="23" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="I46" s="63" t="e">
         <f>(E44+E24)/E64</f>
@@ -11368,7 +11589,7 @@
     </row>
     <row r="47" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B47" s="23" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C47" s="61">
         <f>C40+C41+C42</f>
@@ -11385,7 +11606,7 @@
       <c r="F47" s="87"/>
       <c r="G47" s="87"/>
       <c r="H47" s="23" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="I47" s="63" t="e">
         <f>(E44+E45+E24+E25)/$I$49</f>
@@ -11398,7 +11619,7 @@
     </row>
     <row r="48" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B48" s="80" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C48" s="81">
         <f>SUM(C30:C42)</f>
@@ -11415,7 +11636,7 @@
       <c r="F48" s="87"/>
       <c r="G48" s="87"/>
       <c r="H48" s="80" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="I48" s="207">
         <f>Inputs!C82</f>
@@ -11442,7 +11663,7 @@
       <c r="F49" s="87"/>
       <c r="G49" s="87"/>
       <c r="H49" s="3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I49" s="52">
         <f>I28+I48</f>
@@ -11458,14 +11679,14 @@
     </row>
     <row r="51" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B51" s="10" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C51" s="31"/>
       <c r="D51" s="18"/>
     </row>
     <row r="52" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B52" s="44" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C52" s="87"/>
       <c r="D52" s="74" t="str">
@@ -11482,7 +11703,7 @@
     </row>
     <row r="53" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="3" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C53" s="88">
         <f>MAX(D4,0)</f>
@@ -11512,7 +11733,7 @@
     </row>
     <row r="55" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="25" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="C55" s="3"/>
       <c r="E55" s="125"/>
@@ -11523,14 +11744,14 @@
     </row>
     <row r="56" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B56" s="20" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C56" s="87"/>
-      <c r="D56" s="284">
+      <c r="D56" s="288">
         <f>I15+I34</f>
         <v>0</v>
       </c>
-      <c r="E56" s="282"/>
+      <c r="E56" s="286"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="I56" s="56"/>
@@ -11538,30 +11759,30 @@
     </row>
     <row r="57" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B57" s="20" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C57" s="87"/>
-      <c r="D57" s="283">
+      <c r="D57" s="287">
         <f>Inputs!C84</f>
         <v>0</v>
       </c>
-      <c r="E57" s="282"/>
+      <c r="E57" s="286"/>
       <c r="G57" s="87"/>
       <c r="I57" s="87"/>
       <c r="K57" s="33" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="58" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B58" s="20" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C58" s="87"/>
-      <c r="D58" s="283">
+      <c r="D58" s="287">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="282"/>
+      <c r="E58" s="286"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
       <c r="I58" s="87"/>
@@ -11578,11 +11799,11 @@
     </row>
     <row r="60" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="25" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="75" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E60" s="87"/>
       <c r="F60" s="9"/>
@@ -11592,7 +11813,7 @@
     </row>
     <row r="61" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B61" s="19" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C61" s="68">
         <f>C14+C15+(C19*G19)+(C20*G20)+C31+C32+(C35*G35)+(C36*G36)+(C37*G37)</f>
@@ -11613,7 +11834,7 @@
     </row>
     <row r="62" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B62" s="35" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C62" s="117">
         <f>C11+C30</f>
@@ -11634,7 +11855,7 @@
     </row>
     <row r="63" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="19" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C63" s="68">
         <f>C61+C62</f>
@@ -11655,7 +11876,7 @@
     </row>
     <row r="64" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B64" s="121" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="C64" s="208"/>
       <c r="D64" s="208"/>
@@ -11670,7 +11891,7 @@
     </row>
     <row r="65" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B65" s="3" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C65" s="68">
         <f>C63-E64</f>
@@ -11701,11 +11922,11 @@
     </row>
     <row r="67" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="25" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="C67" s="3"/>
       <c r="D67" s="75" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E67" s="61"/>
       <c r="F67" s="87"/>
@@ -11715,7 +11936,7 @@
     </row>
     <row r="68" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="19" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C68" s="68">
         <f>C49-C63</f>
@@ -11736,7 +11957,7 @@
     </row>
     <row r="69" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B69" s="121" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C69" s="208"/>
       <c r="D69" s="208"/>
@@ -11751,7 +11972,7 @@
     </row>
     <row r="70" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B70" s="19" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C70" s="68">
         <f>C68-E69</f>
@@ -11773,21 +11994,21 @@
     <row r="72" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="5"/>
       <c r="B72" s="106" t="s">
-        <v>128</v>
-      </c>
-      <c r="C72" s="271">
+        <v>124</v>
+      </c>
+      <c r="C72" s="275">
         <f>Data!C5</f>
         <v>45291</v>
       </c>
-      <c r="D72" s="271"/>
-      <c r="E72" s="285" t="s">
-        <v>207</v>
-      </c>
-      <c r="F72" s="285"/>
-      <c r="H72" s="285" t="s">
-        <v>206</v>
-      </c>
-      <c r="I72" s="285"/>
+      <c r="D72" s="275"/>
+      <c r="E72" s="289" t="s">
+        <v>202</v>
+      </c>
+      <c r="F72" s="289"/>
+      <c r="H72" s="289" t="s">
+        <v>201</v>
+      </c>
+      <c r="I72" s="289"/>
       <c r="K72" s="50" t="s">
         <v>8</v>
       </c>
@@ -11797,23 +12018,23 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000HKD)</v>
       </c>
-      <c r="C73" s="272" t="s">
-        <v>101</v>
-      </c>
-      <c r="D73" s="272"/>
-      <c r="E73" s="286" t="s">
-        <v>102</v>
-      </c>
-      <c r="F73" s="272"/>
-      <c r="H73" s="286" t="s">
-        <v>102</v>
-      </c>
-      <c r="I73" s="272"/>
+      <c r="C73" s="276" t="s">
+        <v>98</v>
+      </c>
+      <c r="D73" s="276"/>
+      <c r="E73" s="290" t="s">
+        <v>99</v>
+      </c>
+      <c r="F73" s="276"/>
+      <c r="H73" s="290" t="s">
+        <v>99</v>
+      </c>
+      <c r="I73" s="276"/>
       <c r="K73" s="24"/>
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B74" s="3" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C74" s="77">
         <f>Data!C6</f>
@@ -11834,7 +12055,7 @@
     </row>
     <row r="75" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B75" s="104" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C75" s="77">
         <f>Data!C8</f>
@@ -11864,7 +12085,7 @@
     </row>
     <row r="76" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B76" s="35" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C76" s="161">
         <f>C74-C75</f>
@@ -11885,7 +12106,7 @@
     </row>
     <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B77" s="104" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="C77" s="77">
         <f>Data!C10+MAX(Data!C11,0)</f>
@@ -11915,7 +12136,7 @@
     </row>
     <row r="78" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B78" s="73" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="C78" s="77">
         <f>MAX(Data!C12,0)</f>
@@ -11945,7 +12166,7 @@
     </row>
     <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B79" s="256" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="C79" s="257">
         <f>C76-C77-C78</f>
@@ -11976,7 +12197,7 @@
     </row>
     <row r="80" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B80" s="28" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C80" s="77">
         <f>MAX(Data!C16,0)</f>
@@ -12003,12 +12224,12 @@
         <v>0</v>
       </c>
       <c r="K80" s="181" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B81" s="104" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="C81" s="77">
         <f>MAX(Data!C17,0)</f>
@@ -12038,7 +12259,7 @@
     </row>
     <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="28" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="C82" s="77">
         <f>ABS(MAX(Data!C21,0)-MAX(Data!C19,0))</f>
@@ -12068,7 +12289,7 @@
     </row>
     <row r="83" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B83" s="105" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C83" s="163">
         <f>C79-C81-C82-C80</f>
@@ -12098,7 +12319,7 @@
     </row>
     <row r="84" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B84" s="28" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C84" s="211"/>
       <c r="D84" s="159">
@@ -12119,7 +12340,7 @@
     </row>
     <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B85" s="263" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="C85" s="257">
         <f>C83*(1-I84)</f>
@@ -12150,7 +12371,7 @@
     </row>
     <row r="86" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B86" s="87" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="C86" s="167">
         <f>C85*Data!C4/Common_Shares</f>
@@ -12171,28 +12392,28 @@
     </row>
     <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B87" s="87" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>3.0847214643547959E-2</v>
+        <v>3.1562512374412835E-2</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>3.0847214643547959E-2</v>
+        <v>3.1562512374412835E-2</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>3.0847214643547959E-2</v>
+        <v>3.1562512374412835E-2</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
     </row>
     <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B88" s="86" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="C88" s="169">
         <f>Inputs!C44</f>
@@ -12222,21 +12443,21 @@
     </row>
     <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B89" s="87" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>2.2662889518413602E-2</v>
+        <v>2.318840579710145E-2</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>1.4164305949008501E-2</v>
+        <v>1.4492753623188406E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>1.4164305949008501E-2</v>
+        <v>1.4492753623188406E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -12253,29 +12474,29 @@
       </c>
       <c r="C91" s="21"/>
       <c r="K91" s="50" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="92" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B92" s="10" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="C92" s="198" t="str">
         <f>Inputs!C15</f>
         <v>HK</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="E92" s="285" t="s">
-        <v>207</v>
-      </c>
-      <c r="F92" s="285"/>
+        <v>152</v>
+      </c>
+      <c r="E92" s="289" t="s">
+        <v>202</v>
+      </c>
+      <c r="F92" s="289"/>
       <c r="G92" s="87"/>
-      <c r="H92" s="285" t="s">
-        <v>206</v>
-      </c>
-      <c r="I92" s="285"/>
+      <c r="H92" s="289" t="s">
+        <v>201</v>
+      </c>
+      <c r="I92" s="289"/>
       <c r="K92" s="24"/>
     </row>
     <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -12292,24 +12513,24 @@
         <v>5</v>
       </c>
       <c r="E93" s="87" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>20.907900189214878</v>
+        <v>20.980540162512234</v>
       </c>
       <c r="H93" s="87" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>20.907900189214878</v>
+        <v>20.980540162512234</v>
       </c>
       <c r="K93" s="24"/>
     </row>
     <row r="94" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B94" s="1" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="C94" s="182">
         <f>Dashboard!G20</f>
@@ -12320,18 +12541,18 @@
         <v>0.02</v>
       </c>
       <c r="E94" s="87" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>8.8483004099322535</v>
+        <v>8.862637764793984</v>
       </c>
       <c r="H94" s="87" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>8.8483004099322535</v>
+        <v>8.862637764793984</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12350,51 +12571,51 @@
         <v>HKD</v>
       </c>
       <c r="D96" s="124" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="E96" s="183" t="str">
         <f>E72</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F96" s="227" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="H96" s="183" t="str">
         <f>H72</f>
         <v>Base Case</v>
       </c>
       <c r="I96" s="124" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="K96" s="24"/>
     </row>
     <row r="97" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B97" s="1" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>45463093.397153027</v>
+        <v>45621045.0738158</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>10.39492155801635</v>
+        <v>10.431036462792484</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>10.39492155801635</v>
+        <v>10.431036462792484</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>14.18846342797721</v>
+        <v>14.237758172796703</v>
       </c>
       <c r="K97" s="24"/>
     </row>
     <row r="98" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B98" s="28" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C98" s="91">
         <f>-E53*Exchange_Rate</f>
@@ -12412,7 +12633,7 @@
     </row>
     <row r="99" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B99" s="105" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C99" s="108">
         <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
@@ -12433,31 +12654,31 @@
     </row>
     <row r="100" spans="2:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B100" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C100" s="91">
         <f>C97+C98+$C$99</f>
-        <v>45463093.397153027</v>
+        <v>45621045.0738158</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>8.8356833243138961</v>
+        <v>8.8663809933736104</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>10.39492155801635</v>
+        <v>10.431036462792484</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>10.39492155801635</v>
+        <v>10.431036462792484</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>10.39492155801635</v>
+        <v>10.431036462792484</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>14.18846342797721</v>
+        <v>14.237758172796703</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12467,58 +12688,58 @@
     </row>
     <row r="102" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B102" s="10" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="C102" s="127" t="str">
         <f>C96</f>
         <v>HKD</v>
       </c>
       <c r="D102" s="124" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="E102" s="183" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F102" s="227" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="H102" s="183" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
       <c r="I102" s="124" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="K102" s="24"/>
     </row>
     <row r="103" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B103" s="1" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>19240148.666403376</v>
+        <v>19271324.465849902</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>3.7392937441363419</v>
+        <v>3.7453527135268652</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>4.3991691107486375</v>
+        <v>4.4062973100316061</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>4.3991691107486375</v>
+        <v>4.4062973100316061</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>4.3991691107486375</v>
+        <v>4.4062973100316061</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>6.0046100100879558</v>
+        <v>6.0143395875810866</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12528,58 +12749,58 @@
     </row>
     <row r="105" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B105" s="10" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="C105" s="127" t="str">
         <f>C102</f>
         <v>HKD</v>
       </c>
       <c r="D105" s="124" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="E105" s="184" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F105" s="227" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="H105" s="184" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
       <c r="I105" s="124" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="K105" s="24"/>
     </row>
     <row r="106" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B106" s="1" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>32351621.031778205</v>
+        <v>32446184.769832857</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>6.287488534225119</v>
+        <v>6.3058668534502376</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>7.3970453343824936</v>
+        <v>7.4186668864120451</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>7.3970453343824936</v>
+        <v>7.4186668864120451</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>7.3970453343824936</v>
+        <v>7.4186668864120451</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>10.096536719032583</v>
+        <v>10.126048880188895</v>
       </c>
       <c r="K106" s="24"/>
     </row>
@@ -12588,7 +12809,7 @@
     </row>
     <row r="108" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B108" s="10" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="C108" s="128" t="str">
         <f>Inputs!C87</f>
@@ -12597,6 +12818,7 @@
       <c r="K108" s="24"/>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="11">
     <mergeCell ref="D56:E56"/>
     <mergeCell ref="D57:E57"/>

--- a/financial_models/opportunities/0027.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0027.HK_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F71D0384-5D53-431C-8078-D397ACBD717C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E5D2F3F2-E299-45ED-A8EF-E34B16C119A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="4" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="271">
   <si>
     <t>Company Info:</t>
   </si>
@@ -527,14 +527,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>ST AR / Sales</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>ST Inventory / Sales</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>ST Inventory</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -601,21 +593,9 @@
     <t>Value Range</t>
   </si>
   <si>
-    <t>COGS</t>
-  </si>
-  <si>
-    <t>Interest</t>
-  </si>
-  <si>
-    <t>ΔWC</t>
-  </si>
-  <si>
     <t>- Non-controling Interests</t>
   </si>
   <si>
-    <t xml:space="preserve">Pre-tax Profit </t>
-  </si>
-  <si>
     <t>Normalized Payout Ratio</t>
   </si>
   <si>
@@ -643,9 +623,6 @@
     <t>https://fred.stlouisfed.org/series/DGS10</t>
   </si>
   <si>
-    <t>Normalized Cost Structure</t>
-  </si>
-  <si>
     <t>Price Indicators</t>
   </si>
   <si>
@@ -667,9 +644,6 @@
     <t>Market Yields</t>
   </si>
   <si>
-    <t>Non-controlling Interests</t>
-  </si>
-  <si>
     <t>Watchlist &amp; Comp_Group:</t>
   </si>
   <si>
@@ -869,14 +843,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>CAPX-D&amp;A</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>OPEX+R&amp;D</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>unclear</t>
   </si>
   <si>
@@ -959,10 +925,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Sales/Op_Assets</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>Common_Equity / Total Assets</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -976,6 +938,42 @@
   </si>
   <si>
     <t>Pre-tax ROE</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sales/Total_Assets</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>ST_AR / Sales</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>ST_Inventory / Sales</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sales Turnover</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>EBIT Margin</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Interest Expense</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Normalized ΔWC</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Normalized CAPX-D&amp;A</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>ROE &amp; Cost Structure</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -1291,7 +1289,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -1549,13 +1547,129 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="291">
+  <cellXfs count="299">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2205,6 +2319,30 @@
     </xf>
     <xf numFmtId="10" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="4" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2444,981 +2582,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-GB"/>
-              <a:t>Normalized Cost Structure</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:pieChart>
-        <c:varyColors val="1"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-B454-40E1-9655-EE22B1F916AE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-B454-40E1-9655-EE22B1F916AE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="2"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-B454-40E1-9655-EE22B1F916AE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="3"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000007-B454-40E1-9655-EE22B1F916AE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="4"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000009-B454-40E1-9655-EE22B1F916AE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="5"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000B-B454-40E1-9655-EE22B1F916AE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="6"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="80000"/>
-                  <a:lumOff val="20000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000D-B454-40E1-9655-EE22B1F916AE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:cat>
-            <c:strRef>
-              <c:f>Dashboard!$B$20:$B$26</c:f>
-              <c:strCache>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>COGS</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>OPEX+R&amp;D</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Non-controlling Interests</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>ΔWC</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Interest</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>CAPX-D&amp;A</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Pre-tax Profit </c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Dashboard!$C$20:$C$26</c:f>
-              <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>0.47272944175123971</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.35112695227219692</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.6858097812807804E-3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.17445779619528262</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-0A50-CA42-B693-027654020280}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:showLeaderLines val="1"/>
-        </c:dLbls>
-        <c:firstSliceAng val="0"/>
-      </c:pieChart>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="zh-CN"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="11">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent5"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="25400">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>387350</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>158750</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>1003300</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{773B95BE-F378-2977-0A32-CF810A38528E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3621,7 +2784,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -3635,28 +2798,28 @@
     <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B4" s="141" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="C4" s="188" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B5" s="141" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="C5" s="191" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B6" s="141" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C6" s="189">
         <v>45603</v>
@@ -3672,7 +2835,7 @@
     </row>
     <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B8" s="140" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="C8" s="191" t="s">
         <v>68</v>
@@ -3681,15 +2844,15 @@
     </row>
     <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B9" s="140" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="C9" s="192" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B10" s="140" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="C10" s="193">
         <v>4373586962</v>
@@ -3697,7 +2860,7 @@
     </row>
     <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B11" s="140" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="C11" s="192" t="s">
         <v>2</v>
@@ -3721,7 +2884,7 @@
     </row>
     <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="218" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="C14" s="219">
         <v>45473</v>
@@ -3729,10 +2892,10 @@
     </row>
     <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="218" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="C15" s="176" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3746,55 +2909,55 @@
     </row>
     <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="240" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="C17" s="242" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D17" s="24"/>
     </row>
     <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="240" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="C18" s="242" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="D18" s="24"/>
     </row>
     <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="240" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="C19" s="242" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D19" s="24"/>
     </row>
     <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="241" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="C20" s="242" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D20" s="24"/>
     </row>
     <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="224" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="C21" s="242" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="D21" s="24"/>
     </row>
     <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
       <c r="B22" s="226" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="C22" s="243" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D22" s="24"/>
     </row>
@@ -3925,7 +3088,7 @@
     </row>
     <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B29" s="97" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="C29" s="150"/>
       <c r="D29" s="150"/>
@@ -4041,7 +3204,7 @@
     </row>
     <row r="36" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="94" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C36" s="217"/>
       <c r="D36" s="150"/>
@@ -4137,7 +3300,7 @@
     </row>
     <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B42" s="94" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="C42" s="217"/>
       <c r="D42" s="150"/>
@@ -4169,7 +3332,7 @@
     </row>
     <row r="44" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B44" s="74" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="C44" s="250">
         <f>0.5+0.3</f>
@@ -4188,11 +3351,11 @@
     </row>
     <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="74" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>2.318840579710145E-2</v>
+        <v>2.3054755043227664E-2</v>
       </c>
       <c r="D45" s="152" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4237,13 +3400,13 @@
     </row>
     <row r="47" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B47" s="10" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="C47" s="194" t="s">
         <v>31</v>
       </c>
       <c r="D47" s="194" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="E47" s="111" t="s">
         <v>33</v>
@@ -4302,7 +3465,7 @@
     </row>
     <row r="53" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C53" s="59"/>
       <c r="D53" s="60">
@@ -4313,7 +3476,7 @@
     </row>
     <row r="54" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B54" s="3" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="C54" s="59"/>
       <c r="D54" s="60">
@@ -4414,7 +3577,7 @@
     </row>
     <row r="63" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C63" s="59"/>
       <c r="D63" s="60">
@@ -4425,7 +3588,7 @@
     </row>
     <row r="64" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B64" s="3" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="C64" s="59"/>
       <c r="D64" s="60">
@@ -4585,7 +3748,7 @@
     </row>
     <row r="83" spans="2:8" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B83" s="73" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="C83" s="59"/>
     </row>
@@ -4603,7 +3766,7 @@
     </row>
     <row r="86" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B86" s="10" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="C86" s="197">
         <v>5</v>
@@ -4611,10 +3774,10 @@
     </row>
     <row r="87" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B87" s="10" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="C87" s="236" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="D87" s="269">
         <v>0.02</v>
@@ -4624,16 +3787,16 @@
       <c r="B89" s="106" t="s">
         <v>124</v>
       </c>
-      <c r="C89" s="275">
+      <c r="C89" s="283">
         <f>C24</f>
         <v>45291</v>
       </c>
-      <c r="D89" s="275"/>
+      <c r="D89" s="283"/>
       <c r="E89" s="89" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="F89" s="89" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="H89" s="31"/>
     </row>
@@ -4642,10 +3805,10 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000HKD)</v>
       </c>
-      <c r="C90" s="276" t="s">
+      <c r="C90" s="284" t="s">
         <v>98</v>
       </c>
-      <c r="D90" s="276"/>
+      <c r="D90" s="284"/>
       <c r="E90" s="235" t="s">
         <v>99</v>
       </c>
@@ -4694,7 +3857,7 @@
     </row>
     <row r="93" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B93" s="104" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="C93" s="77">
         <f>C27+C28</f>
@@ -4715,7 +3878,7 @@
     </row>
     <row r="94" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B94" s="104" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="C94" s="77">
         <f>C29</f>
@@ -4733,7 +3896,7 @@
     </row>
     <row r="95" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B95" s="28" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="C95" s="77">
         <f>ABS(MAX(C33,0)-C32)</f>
@@ -4772,7 +3935,7 @@
     </row>
     <row r="97" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B97" s="73" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="C97" s="77">
         <f>MAX(C30,0)/(1-C16)</f>
@@ -4790,7 +3953,7 @@
     </row>
     <row r="98" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B98" s="86" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="C98" s="237">
         <f>C44</f>
@@ -4875,8 +4038,8 @@
   </sheetPr>
   <dimension ref="A1:J923"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:D3"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4917,62 +4080,62 @@
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="C3" s="281" t="str">
+        <v>182</v>
+      </c>
+      <c r="C3" s="289" t="str">
         <f>Inputs!C4</f>
         <v>0027.HK</v>
       </c>
-      <c r="D3" s="282"/>
+      <c r="D3" s="290"/>
       <c r="E3" s="87"/>
       <c r="F3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>34.5</v>
+        <v>34.700000000000003</v>
       </c>
       <c r="H3" s="134" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="35" t="s">
-        <v>191</v>
-      </c>
-      <c r="C4" s="283" t="str">
+        <v>183</v>
+      </c>
+      <c r="C4" s="291" t="str">
         <f>Inputs!C5</f>
         <v>銀河娛樂</v>
       </c>
-      <c r="D4" s="284"/>
+      <c r="D4" s="292"/>
       <c r="E4" s="87"/>
       <c r="F4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="287">
+      <c r="G4" s="295">
         <f>Inputs!C10</f>
         <v>4373586962</v>
       </c>
-      <c r="H4" s="287"/>
+      <c r="H4" s="295"/>
       <c r="I4" s="39"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="C5" s="285">
+        <v>157</v>
+      </c>
+      <c r="C5" s="293">
         <f>Inputs!C6</f>
         <v>45603</v>
       </c>
-      <c r="D5" s="286"/>
+      <c r="D5" s="294"/>
       <c r="E5" s="34"/>
       <c r="F5" s="35" t="s">
         <v>97</v>
       </c>
-      <c r="G5" s="279">
+      <c r="G5" s="287">
         <f>G3*G4/1000000</f>
-        <v>150888.75018900001</v>
-      </c>
-      <c r="H5" s="279"/>
+        <v>151763.46758140004</v>
+      </c>
+      <c r="H5" s="287"/>
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
@@ -4995,16 +4158,16 @@
       <c r="F6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="280" t="str">
+      <c r="G6" s="288" t="str">
         <f>Inputs!C11</f>
         <v>HKD</v>
       </c>
-      <c r="H6" s="280"/>
+      <c r="H6" s="288"/>
       <c r="I6" s="38"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="86" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="C7" s="187" t="str">
         <f>Inputs!C8</f>
@@ -5029,40 +4192,40 @@
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="139" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="F9" s="143" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="1" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="C10" s="172">
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="F10" s="110" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B11" s="122" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="C11" s="173">
         <v>5.2299999999999999E-2</v>
       </c>
       <c r="D11" s="137" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="F11" s="110" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B12" s="87" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="C12" s="174">
         <v>7.4999999999999997E-2</v>
@@ -5075,29 +4238,29 @@
     <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="1" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="C14" s="172">
         <v>1.8100000000000002E-2</v>
       </c>
       <c r="F14" s="110" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="1" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="C15" s="172">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="F15" s="110" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B16" s="122" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="C16" s="173">
         <v>0.16</v>
@@ -5107,12 +4270,12 @@
         <v>HK</v>
       </c>
       <c r="F16" s="110" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B17" s="87" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="C17" s="175">
         <v>8.6249999999999993E-2</v>
@@ -5120,9 +4283,9 @@
       <c r="D17" s="176"/>
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B19" s="142" t="s">
-        <v>179</v>
+        <v>264</v>
       </c>
       <c r="C19" s="135" t="s">
         <v>49</v>
@@ -5130,59 +4293,59 @@
       <c r="D19" s="87"/>
       <c r="E19" s="87"/>
       <c r="F19" s="142" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="G19" s="87"/>
       <c r="H19" s="87"/>
     </row>
-    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B20" s="137" t="s">
-        <v>165</v>
-      </c>
-      <c r="C20" s="171">
-        <f>Fin_Analysis!I75</f>
-        <v>0.47272944175123971</v>
+    <row r="20" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B20" s="275" t="s">
+        <v>254</v>
+      </c>
+      <c r="C20" s="276" t="e">
+        <f>C23*C22*(1/C21)</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="F20" s="87" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="G20" s="172">
         <v>0.15</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B21" s="137" t="s">
-        <v>240</v>
-      </c>
-      <c r="C21" s="171">
-        <f>Fin_Analysis!I77</f>
-        <v>0.35112695227219692</v>
+    <row r="21" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="B21" s="277" t="s">
+        <v>252</v>
+      </c>
+      <c r="C21" s="278" t="e">
+        <f>Data!C55</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="F21" s="87"/>
       <c r="G21" s="29"/>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="137" t="s">
-        <v>187</v>
-      </c>
-      <c r="C22" s="171">
-        <f>Fin_Analysis!I78</f>
-        <v>1.6858097812807804E-3</v>
+      <c r="B22" s="279" t="s">
+        <v>259</v>
+      </c>
+      <c r="C22" s="280" t="e">
+        <f>Data!C50</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="F22" s="142" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B23" s="137" t="s">
-        <v>167</v>
-      </c>
-      <c r="C23" s="171">
-        <f>Fin_Analysis!I80</f>
-        <v>0</v>
+        <v>173</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B23" s="281" t="s">
+        <v>260</v>
+      </c>
+      <c r="C23" s="282">
+        <f>Data!C13</f>
+        <v>0.17445779619528262</v>
       </c>
       <c r="F23" s="140" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="G23" s="177" t="e">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
@@ -5191,30 +4354,30 @@
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="137" t="s">
-        <v>166</v>
+        <v>261</v>
       </c>
       <c r="C24" s="171">
         <f>Fin_Analysis!I81</f>
         <v>0</v>
       </c>
       <c r="F24" s="140" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>31.683155895114425</v>
+        <v>31.86682636407161</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="137" t="s">
-        <v>239</v>
+        <v>262</v>
       </c>
       <c r="C25" s="171">
-        <f>Fin_Analysis!I82</f>
+        <f>Fin_Analysis!I80</f>
         <v>0</v>
       </c>
       <c r="F25" s="140" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="G25" s="171">
         <f>Fin_Analysis!I88</f>
@@ -5223,18 +4386,18 @@
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="138" t="s">
-        <v>169</v>
+        <v>263</v>
       </c>
       <c r="C26" s="171">
-        <f>Fin_Analysis!I83</f>
-        <v>0.17445779619528262</v>
+        <f>Fin_Analysis!I80+Fin_Analysis!I82</f>
+        <v>0</v>
       </c>
       <c r="F26" s="141" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>1.4492753623188406E-2</v>
+        <v>1.4409221902017291E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5244,62 +4407,62 @@
         <v>7</v>
       </c>
       <c r="C28" s="89" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D28" s="43" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E28" s="58"/>
       <c r="F28" s="53" t="s">
-        <v>233</v>
-      </c>
-      <c r="G28" s="277" t="s">
-        <v>253</v>
-      </c>
-      <c r="H28" s="277"/>
+        <v>225</v>
+      </c>
+      <c r="G28" s="285" t="s">
+        <v>243</v>
+      </c>
+      <c r="H28" s="285"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="87" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>8.8663809933736104</v>
+        <v>8.8585657995580522</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>16.373421898716206</v>
+        <v>16.358989689491491</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>10.431036462792484</v>
-      </c>
-      <c r="G29" s="278">
+        <v>10.42184211712712</v>
+      </c>
+      <c r="G29" s="286">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>14.237758172796703</v>
-      </c>
-      <c r="H29" s="278"/>
+        <v>14.225208425644775</v>
+      </c>
+      <c r="H29" s="286"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="5"/>
       <c r="B31" s="6" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="C31"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32"/>
       <c r="B32" s="196" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="C32" s="224"/>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33"/>
       <c r="B33" s="20" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="C33" s="245" t="str">
         <f>Inputs!C17</f>
@@ -5309,7 +4472,7 @@
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34"/>
       <c r="B34" s="19" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="C34" s="225" t="e">
         <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C56&lt;0.8),"Strongly disagree",
@@ -5320,14 +4483,14 @@
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35"/>
       <c r="B35" s="196" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="C35" s="224"/>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="C36" s="245" t="str">
         <f>Inputs!C18</f>
@@ -5337,7 +4500,7 @@
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37"/>
       <c r="B37" s="20" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="C37" s="245" t="str">
         <f>Inputs!C19</f>
@@ -5347,14 +4510,14 @@
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38"/>
       <c r="B38" s="196" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="C38" s="224"/>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39"/>
       <c r="B39" s="19" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="C39" s="245" t="str">
         <f>Inputs!C20</f>
@@ -5364,7 +4527,7 @@
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40"/>
       <c r="B40" s="1" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="C40" s="245" t="str">
         <f>Inputs!C21</f>
@@ -5379,14 +4542,14 @@
     <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="5"/>
       <c r="B42" s="6" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="C42"/>
     </row>
     <row r="43" spans="1:3" ht="65.650000000000006" x14ac:dyDescent="0.4">
       <c r="A43"/>
       <c r="B43" s="226" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="C43" s="244" t="str">
         <f>Inputs!C22</f>
@@ -6330,7 +5493,6 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup scale="99" orientation="landscape" r:id="rId6"/>
-  <drawing r:id="rId7"/>
 </worksheet>
 </file>
 
@@ -6344,7 +5506,7 @@
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="C4" sqref="C4"/>
+      <selection pane="topRight" activeCell="C60" sqref="C60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -6371,16 +5533,16 @@
       <c r="C2" s="18"/>
       <c r="D2" s="17"/>
       <c r="E2" s="148" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="F2" s="119" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="G2" s="148" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="H2" s="147" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="I2" s="7"/>
       <c r="J2" s="87"/>
@@ -6398,7 +5560,7 @@
         <v>45291</v>
       </c>
       <c r="E3" s="146" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="F3" s="85" t="str">
         <f>H14</f>
@@ -6431,7 +5593,7 @@
         <v>HKD</v>
       </c>
       <c r="E4" s="146" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="F4" s="93" t="e">
         <f>(G3/F3)^(1/H3)-1</f>
@@ -6798,7 +5960,7 @@
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
       <c r="B12" s="99" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="C12" s="199">
         <f>IF(Inputs!C30="","",MAX(Inputs!C30,0)/(1-Fin_Analysis!$I$84))</f>
@@ -6849,7 +6011,7 @@
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
       <c r="B13" s="228" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="C13" s="229">
         <f t="shared" ref="C13:M13" si="3">IF(C14="","",C14/C6)</f>
@@ -6900,7 +6062,7 @@
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
       <c r="B14" s="228" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="C14" s="230">
         <f>IF(C6="","",C9-C10-MAX(C11,0)-MAX(C12,0))</f>
@@ -6951,7 +6113,7 @@
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
       <c r="B15" s="231" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="C15" s="232" t="str">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
@@ -7053,7 +6215,7 @@
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
       <c r="B17" s="97" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="C17" s="199" t="str">
         <f>IF(Inputs!C29="","",Inputs!C29)</f>
@@ -7206,7 +6368,7 @@
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
       <c r="B20" s="97" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="C20" s="152">
         <f t="shared" ref="C20:M20" si="7">IF(C6="","",MAX(C21,0)/C6)</f>
@@ -7716,7 +6878,7 @@
     <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="4"/>
       <c r="B30" s="94" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C30" s="65">
         <f>Fin_Analysis!C18</f>
@@ -8226,7 +7388,7 @@
     <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="4"/>
       <c r="B40" s="98" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C40" s="155" t="e">
         <f>IF(C6="","",C14/MAX(C39,0))</f>
@@ -8277,7 +7439,7 @@
     <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="16"/>
       <c r="B41" s="55" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="C41" s="54"/>
       <c r="D41" s="54"/>
@@ -8346,7 +7508,7 @@
     <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="4"/>
       <c r="B43" s="94" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="C43" s="153">
         <f t="shared" ref="C43:M43" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
@@ -8550,7 +7712,7 @@
     <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="4"/>
       <c r="B47" s="94" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="C47" s="153">
         <f>IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
@@ -8652,7 +7814,7 @@
     <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="16"/>
       <c r="B49" s="102" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="C49" s="36"/>
       <c r="D49" s="36"/>
@@ -8670,14 +7832,14 @@
     <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="4"/>
       <c r="B50" s="271" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="C50" s="272" t="e">
-        <f>IF(C6="","",C6/C39)</f>
+        <f>IF(C6="","",C6/C27)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D50" s="272" t="e">
-        <f t="shared" ref="D50:M50" si="41">IF(D6="","",D6/D39)</f>
+        <f t="shared" ref="D50:M50" si="41">IF(D6="","",D6/D27)</f>
         <v>#VALUE!</v>
       </c>
       <c r="E50" s="272" t="str">
@@ -8721,7 +7883,7 @@
     <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="4"/>
       <c r="B51" s="94" t="s">
-        <v>143</v>
+        <v>257</v>
       </c>
       <c r="C51" s="153">
         <f t="shared" ref="C51:M51" si="42">IF(C29="","",C29/C6)</f>
@@ -8772,7 +7934,7 @@
     <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="4"/>
       <c r="B52" s="94" t="s">
-        <v>144</v>
+        <v>258</v>
       </c>
       <c r="C52" s="153">
         <f t="shared" ref="C52:M52" si="43">IF(C30="","",C30/C6)</f>
@@ -8823,7 +7985,7 @@
     <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="4"/>
       <c r="B53" s="94" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="C53" s="153" t="e">
         <f>IF(D6="","",C16/(C6-D6))</f>
@@ -8874,7 +8036,7 @@
     <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A54" s="16"/>
       <c r="B54" s="102" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="C54" s="36"/>
       <c r="D54" s="36"/>
@@ -8891,7 +8053,7 @@
     <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="4"/>
       <c r="B55" s="95" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="C55" s="156" t="e">
         <f>IF(C36="","",(C36-C37)/C27)</f>
@@ -9091,7 +8253,7 @@
     <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="16"/>
       <c r="B59" s="102" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="C59" s="273" t="str">
         <f>IFERROR(IF(C13*C50*(1/C55)=C60,"","Error"),"")</f>
@@ -9141,7 +8303,7 @@
     <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="4"/>
       <c r="B60" s="271" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="C60" s="274" t="e">
         <f>IF(C14="","",C14/(C36-C37))</f>
@@ -9191,7 +8353,7 @@
     <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="4"/>
       <c r="B61" s="271" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="C61" s="274" t="e">
         <f>IF(C22="","",C22/(C36-C37))</f>
@@ -10695,7 +9857,7 @@
         <v>31</v>
       </c>
       <c r="D10" s="74" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="E10" s="74" t="s">
         <v>32</v>
@@ -10853,7 +10015,7 @@
     </row>
     <row r="16" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C16" s="40">
         <f>Inputs!C53</f>
@@ -11265,7 +10427,7 @@
     </row>
     <row r="33" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C33" s="40">
         <f>Inputs!C63</f>
@@ -11733,7 +10895,7 @@
     </row>
     <row r="55" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="25" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C55" s="3"/>
       <c r="E55" s="125"/>
@@ -11747,11 +10909,11 @@
         <v>87</v>
       </c>
       <c r="C56" s="87"/>
-      <c r="D56" s="288">
+      <c r="D56" s="296">
         <f>I15+I34</f>
         <v>0</v>
       </c>
-      <c r="E56" s="286"/>
+      <c r="E56" s="294"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="I56" s="56"/>
@@ -11762,11 +10924,11 @@
         <v>88</v>
       </c>
       <c r="C57" s="87"/>
-      <c r="D57" s="287">
+      <c r="D57" s="295">
         <f>Inputs!C84</f>
         <v>0</v>
       </c>
-      <c r="E57" s="286"/>
+      <c r="E57" s="294"/>
       <c r="G57" s="87"/>
       <c r="I57" s="87"/>
       <c r="K57" s="33" t="s">
@@ -11778,11 +10940,11 @@
         <v>90</v>
       </c>
       <c r="C58" s="87"/>
-      <c r="D58" s="287">
+      <c r="D58" s="295">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="286"/>
+      <c r="E58" s="294"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
       <c r="I58" s="87"/>
@@ -11799,7 +10961,7 @@
     </row>
     <row r="60" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="25" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="75" t="s">
@@ -11876,7 +11038,7 @@
     </row>
     <row r="64" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B64" s="121" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C64" s="208"/>
       <c r="D64" s="208"/>
@@ -11922,7 +11084,7 @@
     </row>
     <row r="67" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="25" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C67" s="3"/>
       <c r="D67" s="75" t="s">
@@ -11957,7 +11119,7 @@
     </row>
     <row r="69" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B69" s="121" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C69" s="208"/>
       <c r="D69" s="208"/>
@@ -11996,19 +11158,19 @@
       <c r="B72" s="106" t="s">
         <v>124</v>
       </c>
-      <c r="C72" s="275">
+      <c r="C72" s="283">
         <f>Data!C5</f>
         <v>45291</v>
       </c>
-      <c r="D72" s="275"/>
-      <c r="E72" s="289" t="s">
-        <v>202</v>
-      </c>
-      <c r="F72" s="289"/>
-      <c r="H72" s="289" t="s">
-        <v>201</v>
-      </c>
-      <c r="I72" s="289"/>
+      <c r="D72" s="283"/>
+      <c r="E72" s="297" t="s">
+        <v>194</v>
+      </c>
+      <c r="F72" s="297"/>
+      <c r="H72" s="297" t="s">
+        <v>193</v>
+      </c>
+      <c r="I72" s="297"/>
       <c r="K72" s="50" t="s">
         <v>8</v>
       </c>
@@ -12018,18 +11180,18 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000HKD)</v>
       </c>
-      <c r="C73" s="276" t="s">
+      <c r="C73" s="284" t="s">
         <v>98</v>
       </c>
-      <c r="D73" s="276"/>
-      <c r="E73" s="290" t="s">
+      <c r="D73" s="284"/>
+      <c r="E73" s="298" t="s">
         <v>99</v>
       </c>
-      <c r="F73" s="276"/>
-      <c r="H73" s="290" t="s">
+      <c r="F73" s="284"/>
+      <c r="H73" s="298" t="s">
         <v>99</v>
       </c>
-      <c r="I73" s="276"/>
+      <c r="I73" s="284"/>
       <c r="K73" s="24"/>
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -12106,7 +11268,7 @@
     </row>
     <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B77" s="104" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="C77" s="77">
         <f>Data!C10+MAX(Data!C11,0)</f>
@@ -12136,7 +11298,7 @@
     </row>
     <row r="78" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B78" s="73" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="C78" s="77">
         <f>MAX(Data!C12,0)</f>
@@ -12166,7 +11328,7 @@
     </row>
     <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B79" s="256" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="C79" s="257">
         <f>C76-C77-C78</f>
@@ -12229,7 +11391,7 @@
     </row>
     <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B81" s="104" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="C81" s="77">
         <f>MAX(Data!C17,0)</f>
@@ -12259,7 +11421,7 @@
     </row>
     <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="28" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="C82" s="77">
         <f>ABS(MAX(Data!C21,0)-MAX(Data!C19,0))</f>
@@ -12340,7 +11502,7 @@
     </row>
     <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B85" s="263" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C85" s="257">
         <f>C83*(1-I84)</f>
@@ -12371,7 +11533,7 @@
     </row>
     <row r="86" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B86" s="87" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C86" s="167">
         <f>C85*Data!C4/Common_Shares</f>
@@ -12392,28 +11554,28 @@
     </row>
     <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B87" s="87" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>3.1562512374412835E-2</v>
+        <v>3.1380595876577599E-2</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>3.1562512374412835E-2</v>
+        <v>3.1380595876577599E-2</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>3.1562512374412835E-2</v>
+        <v>3.1380595876577599E-2</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
     </row>
     <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B88" s="86" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="C88" s="169">
         <f>Inputs!C44</f>
@@ -12443,21 +11605,21 @@
     </row>
     <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B89" s="87" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>2.318840579710145E-2</v>
+        <v>2.3054755043227664E-2</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>1.4492753623188406E-2</v>
+        <v>1.4409221902017291E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>1.4492753623188406E-2</v>
+        <v>1.4409221902017291E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -12479,24 +11641,24 @@
     </row>
     <row r="92" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B92" s="10" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C92" s="198" t="str">
         <f>Inputs!C15</f>
         <v>HK</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="E92" s="289" t="s">
-        <v>202</v>
-      </c>
-      <c r="F92" s="289"/>
+        <v>150</v>
+      </c>
+      <c r="E92" s="297" t="s">
+        <v>194</v>
+      </c>
+      <c r="F92" s="297"/>
       <c r="G92" s="87"/>
-      <c r="H92" s="289" t="s">
-        <v>201</v>
-      </c>
-      <c r="I92" s="289"/>
+      <c r="H92" s="297" t="s">
+        <v>193</v>
+      </c>
+      <c r="I92" s="297"/>
       <c r="K92" s="24"/>
     </row>
     <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -12513,24 +11675,24 @@
         <v>5</v>
       </c>
       <c r="E93" s="87" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>20.980540162512234</v>
+        <v>20.962047049273842</v>
       </c>
       <c r="H93" s="87" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>20.980540162512234</v>
+        <v>20.962047049273842</v>
       </c>
       <c r="K93" s="24"/>
     </row>
     <row r="94" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B94" s="1" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="C94" s="182">
         <f>Dashboard!G20</f>
@@ -12541,18 +11703,18 @@
         <v>0.02</v>
       </c>
       <c r="E94" s="87" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>8.862637764793984</v>
+        <v>8.8589896880488439</v>
       </c>
       <c r="H94" s="87" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>8.862637764793984</v>
+        <v>8.8589896880488439</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12571,14 +11733,14 @@
         <v>HKD</v>
       </c>
       <c r="D96" s="124" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="E96" s="183" t="str">
         <f>E72</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F96" s="227" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="H96" s="183" t="str">
         <f>H72</f>
@@ -12595,21 +11757,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>45621045.0738158</v>
+        <v>45580832.803489648</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>10.431036462792484</v>
+        <v>10.42184211712712</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>10.431036462792484</v>
+        <v>10.42184211712712</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>14.237758172796703</v>
+        <v>14.225208425644775</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12658,27 +11820,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97+C98+$C$99</f>
-        <v>45621045.0738158</v>
+        <v>45580832.803489648</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>8.8663809933736104</v>
+        <v>8.8585657995580522</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>10.431036462792484</v>
+        <v>10.42184211712712</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>10.431036462792484</v>
+        <v>10.42184211712712</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>10.431036462792484</v>
+        <v>10.42184211712712</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>14.237758172796703</v>
+        <v>14.225208425644775</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12688,21 +11850,21 @@
     </row>
     <row r="102" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B102" s="10" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C102" s="127" t="str">
         <f>C96</f>
         <v>HKD</v>
       </c>
       <c r="D102" s="124" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="E102" s="183" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F102" s="227" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="H102" s="183" t="str">
         <f>H96</f>
@@ -12715,31 +11877,31 @@
     </row>
     <row r="103" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B103" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>19271324.465849902</v>
+        <v>19263391.921104457</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>3.7453527135268652</v>
+        <v>3.7438110354735388</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>4.4062973100316061</v>
+        <v>4.4044835711453398</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>4.4062973100316061</v>
+        <v>4.4044835711453398</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>4.4062973100316061</v>
+        <v>4.4044835711453398</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>6.0143395875810866</v>
+        <v>6.0118639394761857</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12749,21 +11911,21 @@
     </row>
     <row r="105" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B105" s="10" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="C105" s="127" t="str">
         <f>C102</f>
         <v>HKD</v>
       </c>
       <c r="D105" s="124" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="E105" s="184" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F105" s="227" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="H105" s="184" t="str">
         <f>H96</f>
@@ -12776,31 +11938,31 @@
     </row>
     <row r="106" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B106" s="1" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>32446184.769832857</v>
+        <v>32422112.362297054</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>6.3058668534502376</v>
+        <v>6.3011884175157959</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>7.4186668864120451</v>
+        <v>7.4131628441362301</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>7.4186668864120451</v>
+        <v>7.4131628441362301</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>7.4186668864120451</v>
+        <v>7.4131628441362301</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>10.126048880188895</v>
+        <v>10.118536182560479</v>
       </c>
       <c r="K106" s="24"/>
     </row>
@@ -12809,7 +11971,7 @@
     </row>
     <row r="108" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B108" s="10" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C108" s="128" t="str">
         <f>Inputs!C87</f>

--- a/financial_models/opportunities/0027.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0027.HK_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E5D2F3F2-E299-45ED-A8EF-E34B16C119A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{90CF4B32-7F44-4ABC-9919-4A4C0223D899}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="4" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="272">
   <si>
     <t>Company Info:</t>
   </si>
@@ -407,10 +407,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Noncurrent Liabilities</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>ST AR</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -909,10 +905,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Minority interests</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>Profibility Analysis</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -974,6 +966,18 @@
   </si>
   <si>
     <t>ROE &amp; Cost Structure</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Total Liabilities</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlaceHolder_2</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlaceHolder_1</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -2393,7 +2397,7 @@
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="2" builtinId="8"/>
   </cellStyles>
-  <dxfs count="21">
+  <dxfs count="23">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -2490,12 +2494,28 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7B7B7"/>
+          <bgColor rgb="FFB7B7B7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7B7B7"/>
+          <bgColor rgb="FFB7B7B7"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2784,7 +2804,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C75" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -2798,28 +2818,28 @@
     <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B4" s="141" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C4" s="188" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B5" s="141" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C5" s="191" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B6" s="141" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C6" s="189">
         <v>45603</v>
@@ -2835,7 +2855,7 @@
     </row>
     <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B8" s="140" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C8" s="191" t="s">
         <v>68</v>
@@ -2844,15 +2864,15 @@
     </row>
     <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B9" s="140" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C9" s="192" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B10" s="140" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C10" s="193">
         <v>4373586962</v>
@@ -2860,7 +2880,7 @@
     </row>
     <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B11" s="140" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C11" s="192" t="s">
         <v>2</v>
@@ -2884,7 +2904,7 @@
     </row>
     <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="218" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C14" s="219">
         <v>45473</v>
@@ -2892,10 +2912,10 @@
     </row>
     <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="218" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C15" s="176" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -2909,61 +2929,61 @@
     </row>
     <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="240" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C17" s="242" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D17" s="24"/>
     </row>
     <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="240" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C18" s="242" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D18" s="24"/>
     </row>
     <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="240" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C19" s="242" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D19" s="24"/>
     </row>
     <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="241" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C20" s="242" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D20" s="24"/>
     </row>
     <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="224" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C21" s="242" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D21" s="24"/>
     </row>
     <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
       <c r="B22" s="226" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C22" s="243" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D22" s="24"/>
     </row>
     <row r="24" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B24" s="115" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C24" s="48">
         <f>C12</f>
@@ -3088,7 +3108,7 @@
     </row>
     <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B29" s="97" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C29" s="150"/>
       <c r="D29" s="150"/>
@@ -3170,9 +3190,9 @@
       <c r="L33" s="150"/>
       <c r="M33" s="150"/>
     </row>
-    <row r="34" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B34" s="94" t="s">
-        <v>15</v>
+    <row r="34" spans="2:13" ht="13.9" hidden="1" x14ac:dyDescent="0.4">
+      <c r="B34" s="97" t="s">
+        <v>265</v>
       </c>
       <c r="C34" s="217"/>
       <c r="D34" s="150"/>
@@ -3188,7 +3208,7 @@
     </row>
     <row r="35" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="94" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C35" s="217"/>
       <c r="D35" s="150"/>
@@ -3204,7 +3224,7 @@
     </row>
     <row r="36" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="94" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C36" s="217"/>
       <c r="D36" s="150"/>
@@ -3219,10 +3239,11 @@
       <c r="M36" s="150"/>
     </row>
     <row r="37" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B37" s="94" t="s">
-        <v>16</v>
-      </c>
-      <c r="C37" s="217"/>
+      <c r="B37" s="94" t="str">
+        <f>"Total Liabilities"&amp;IF(C77+C82=0,"",IF(C37=C77+C82,""," Error"))</f>
+        <v>Total Liabilities</v>
+      </c>
+      <c r="C37" s="150"/>
       <c r="D37" s="150"/>
       <c r="E37" s="150"/>
       <c r="F37" s="150"/>
@@ -3234,9 +3255,9 @@
       <c r="L37" s="150"/>
       <c r="M37" s="150"/>
     </row>
-    <row r="38" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="38" spans="2:13" ht="13.9" hidden="1" x14ac:dyDescent="0.4">
       <c r="B38" s="94" t="s">
-        <v>113</v>
+        <v>264</v>
       </c>
       <c r="C38" s="217"/>
       <c r="D38" s="150"/>
@@ -3283,10 +3304,11 @@
       <c r="M40" s="150"/>
     </row>
     <row r="41" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B41" s="94" t="s">
-        <v>134</v>
-      </c>
-      <c r="C41" s="217"/>
+      <c r="B41" s="94" t="str">
+        <f>"Total Equity"&amp;IF(C83="","",IF(C41=Fin_Analysis!D3,""," Error"))</f>
+        <v>Total Equity</v>
+      </c>
+      <c r="C41" s="150"/>
       <c r="D41" s="150"/>
       <c r="E41" s="150"/>
       <c r="F41" s="150"/>
@@ -3300,9 +3322,9 @@
     </row>
     <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B42" s="94" t="s">
-        <v>248</v>
-      </c>
-      <c r="C42" s="217"/>
+        <v>134</v>
+      </c>
+      <c r="C42" s="150"/>
       <c r="D42" s="150"/>
       <c r="E42" s="150"/>
       <c r="F42" s="150"/>
@@ -3316,7 +3338,7 @@
     </row>
     <row r="43" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B43" s="94" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C43" s="217"/>
       <c r="D43" s="150"/>
@@ -3332,7 +3354,7 @@
     </row>
     <row r="44" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B44" s="74" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C44" s="250">
         <f>0.5+0.3</f>
@@ -3351,7 +3373,7 @@
     </row>
     <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="74" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -3400,13 +3422,13 @@
     </row>
     <row r="47" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B47" s="10" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C47" s="194" t="s">
         <v>31</v>
       </c>
       <c r="D47" s="194" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E47" s="111" t="s">
         <v>33</v>
@@ -3424,7 +3446,7 @@
     </row>
     <row r="49" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B49" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C49" s="59"/>
       <c r="D49" s="60">
@@ -3434,7 +3456,7 @@
     </row>
     <row r="50" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B50" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C50" s="59"/>
       <c r="D50" s="60">
@@ -3465,7 +3487,7 @@
     </row>
     <row r="53" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C53" s="59"/>
       <c r="D53" s="60">
@@ -3476,7 +3498,7 @@
     </row>
     <row r="54" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B54" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C54" s="59"/>
       <c r="D54" s="60">
@@ -3510,7 +3532,7 @@
     </row>
     <row r="57" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B57" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C57" s="59"/>
       <c r="D57" s="60">
@@ -3577,7 +3599,7 @@
     </row>
     <row r="63" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C63" s="59"/>
       <c r="D63" s="60">
@@ -3588,7 +3610,7 @@
     </row>
     <row r="64" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B64" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C64" s="59"/>
       <c r="D64" s="60">
@@ -3635,7 +3657,7 @@
     </row>
     <row r="68" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C68" s="59"/>
       <c r="D68" s="60">
@@ -3748,7 +3770,7 @@
     </row>
     <row r="83" spans="2:8" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B83" s="73" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C83" s="59"/>
     </row>
@@ -3766,7 +3788,7 @@
     </row>
     <row r="86" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B86" s="10" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C86" s="197">
         <v>5</v>
@@ -3774,10 +3796,10 @@
     </row>
     <row r="87" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B87" s="10" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C87" s="236" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D87" s="269">
         <v>0.02</v>
@@ -3785,7 +3807,7 @@
     </row>
     <row r="89" spans="2:8" ht="13.5" x14ac:dyDescent="0.35">
       <c r="B89" s="106" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C89" s="283">
         <f>C24</f>
@@ -3793,10 +3815,10 @@
       </c>
       <c r="D89" s="283"/>
       <c r="E89" s="89" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F89" s="89" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H89" s="31"/>
     </row>
@@ -3818,7 +3840,7 @@
     </row>
     <row r="91" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B91" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C91" s="77">
         <f>C25</f>
@@ -3857,7 +3879,7 @@
     </row>
     <row r="93" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B93" s="104" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C93" s="77">
         <f>C27+C28</f>
@@ -3878,7 +3900,7 @@
     </row>
     <row r="94" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B94" s="104" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C94" s="77">
         <f>C29</f>
@@ -3896,7 +3918,7 @@
     </row>
     <row r="95" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B95" s="28" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C95" s="77">
         <f>ABS(MAX(C33,0)-C32)</f>
@@ -3935,7 +3957,7 @@
     </row>
     <row r="97" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B97" s="73" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C97" s="77">
         <f>MAX(C30,0)/(1-C16)</f>
@@ -3953,7 +3975,7 @@
     </row>
     <row r="98" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B98" s="86" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C98" s="237">
         <f>C44</f>
@@ -3975,28 +3997,33 @@
     <mergeCell ref="C90:D90"/>
   </mergeCells>
   <phoneticPr fontId="20" type="noConversion"/>
-  <conditionalFormatting sqref="C16 C25:M33 C44:M44 E91:F93 F94 E95:F95 F96:F98">
-    <cfRule type="containsBlanks" dxfId="20" priority="11">
+  <conditionalFormatting sqref="C16 C25:M33 D34:M43 C44:M44 E91:F93 F94 E95:F95 F96:F98">
+    <cfRule type="containsBlanks" dxfId="22" priority="14">
       <formula>LEN(TRIM(C16))=0</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="C37">
+    <cfRule type="containsBlanks" dxfId="21" priority="3">
+      <formula>LEN(TRIM(C37))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C41:C42">
+    <cfRule type="containsBlanks" dxfId="20" priority="1">
+      <formula>LEN(TRIM(C41))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="C87">
-    <cfRule type="containsBlanks" dxfId="19" priority="4">
+    <cfRule type="containsBlanks" dxfId="19" priority="7">
       <formula>LEN(TRIM(C87))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C98">
-    <cfRule type="containsBlanks" dxfId="18" priority="3">
+    <cfRule type="containsBlanks" dxfId="18" priority="6">
       <formula>LEN(TRIM(C98))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D34:M43">
-    <cfRule type="containsBlanks" dxfId="17" priority="17">
-      <formula>LEN(TRIM(D34))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="E98">
-    <cfRule type="containsBlanks" dxfId="16" priority="1">
+    <cfRule type="containsBlanks" dxfId="17" priority="4">
       <formula>LEN(TRIM(E98))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4038,8 +4065,8 @@
   </sheetPr>
   <dimension ref="A1:J923"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4080,7 +4107,7 @@
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C3" s="289" t="str">
         <f>Inputs!C4</f>
@@ -4095,12 +4122,12 @@
         <v>34.700000000000003</v>
       </c>
       <c r="H3" s="134" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="35" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C4" s="291" t="str">
         <f>Inputs!C5</f>
@@ -4120,7 +4147,7 @@
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C5" s="293">
         <f>Inputs!C6</f>
@@ -4167,7 +4194,7 @@
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="86" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C7" s="187" t="str">
         <f>Inputs!C8</f>
@@ -4192,40 +4219,40 @@
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="139" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F9" s="143" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C10" s="172">
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="F10" s="110" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B11" s="122" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C11" s="173">
         <v>5.2299999999999999E-2</v>
       </c>
       <c r="D11" s="137" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F11" s="110" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B12" s="87" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C12" s="174">
         <v>7.4999999999999997E-2</v>
@@ -4238,29 +4265,29 @@
     <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C14" s="172">
         <v>1.8100000000000002E-2</v>
       </c>
       <c r="F14" s="110" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C15" s="172">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="F15" s="110" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B16" s="122" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C16" s="173">
         <v>0.16</v>
@@ -4270,12 +4297,12 @@
         <v>HK</v>
       </c>
       <c r="F16" s="110" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B17" s="87" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C17" s="175">
         <v>8.6249999999999993E-2</v>
@@ -4285,7 +4312,7 @@
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B19" s="142" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C19" s="135" t="s">
         <v>49</v>
@@ -4293,21 +4320,21 @@
       <c r="D19" s="87"/>
       <c r="E19" s="87"/>
       <c r="F19" s="142" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G19" s="87"/>
       <c r="H19" s="87"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B20" s="275" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C20" s="276" t="e">
         <f>C23*C22*(1/C21)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F20" s="87" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G20" s="172">
         <v>0.15</v>
@@ -4315,10 +4342,10 @@
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B21" s="277" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C21" s="278" t="e">
-        <f>Data!C55</f>
+        <f>Data!C53</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F21" s="87"/>
@@ -4326,42 +4353,42 @@
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="279" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C22" s="280" t="e">
-        <f>Data!C50</f>
+        <f>Data!C48</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F22" s="142" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B23" s="281" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C23" s="282">
         <f>Data!C13</f>
         <v>0.17445779619528262</v>
       </c>
       <c r="F23" s="140" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G23" s="177" t="e">
-        <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
+        <f>G3/(Data!C34*Data!C4/Common_Shares*Exchange_Rate)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="137" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C24" s="171">
         <f>Fin_Analysis!I81</f>
         <v>0</v>
       </c>
       <c r="F24" s="140" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
@@ -4370,14 +4397,14 @@
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="137" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C25" s="171">
         <f>Fin_Analysis!I80</f>
         <v>0</v>
       </c>
       <c r="F25" s="140" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G25" s="171">
         <f>Fin_Analysis!I88</f>
@@ -4386,14 +4413,14 @@
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="138" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C26" s="171">
         <f>Fin_Analysis!I80+Fin_Analysis!I82</f>
         <v>0</v>
       </c>
       <c r="F26" s="141" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
@@ -4407,23 +4434,23 @@
         <v>7</v>
       </c>
       <c r="C28" s="89" t="s">
+        <v>159</v>
+      </c>
+      <c r="D28" s="43" t="s">
         <v>160</v>
-      </c>
-      <c r="D28" s="43" t="s">
-        <v>161</v>
       </c>
       <c r="E28" s="58"/>
       <c r="F28" s="53" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G28" s="285" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H28" s="285"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="87" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
@@ -4448,21 +4475,21 @@
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="5"/>
       <c r="B31" s="6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C31"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32"/>
       <c r="B32" s="196" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C32" s="224"/>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33"/>
       <c r="B33" s="20" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C33" s="245" t="str">
         <f>Inputs!C17</f>
@@ -4472,25 +4499,25 @@
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34"/>
       <c r="B34" s="19" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C34" s="225" t="e">
-        <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C56&lt;0.8),"Strongly disagree",
-IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C56&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C56&lt;1.4),"agree","Strongly agree")))</f>
+        <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C54&lt;0.8),"Strongly disagree",
+IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C54&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C54&lt;1.4),"agree","Strongly agree")))</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35"/>
       <c r="B35" s="196" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C35" s="224"/>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C36" s="245" t="str">
         <f>Inputs!C18</f>
@@ -4500,7 +4527,7 @@
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37"/>
       <c r="B37" s="20" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C37" s="245" t="str">
         <f>Inputs!C19</f>
@@ -4510,14 +4537,14 @@
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38"/>
       <c r="B38" s="196" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C38" s="224"/>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39"/>
       <c r="B39" s="19" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C39" s="245" t="str">
         <f>Inputs!C20</f>
@@ -4527,7 +4554,7 @@
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40"/>
       <c r="B40" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C40" s="245" t="str">
         <f>Inputs!C21</f>
@@ -4542,14 +4569,14 @@
     <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="5"/>
       <c r="B42" s="6" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C42"/>
     </row>
     <row r="43" spans="1:3" ht="65.650000000000006" x14ac:dyDescent="0.4">
       <c r="A43"/>
       <c r="B43" s="226" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C43" s="244" t="str">
         <f>Inputs!C22</f>
@@ -5449,27 +5476,27 @@
   </mergeCells>
   <phoneticPr fontId="20" type="noConversion"/>
   <conditionalFormatting sqref="C11:C12 C16:C17">
-    <cfRule type="containsBlanks" dxfId="15" priority="5">
+    <cfRule type="containsBlanks" dxfId="16" priority="5">
       <formula>LEN(TRIM(C11))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12">
-    <cfRule type="containsBlanks" dxfId="14" priority="3">
+    <cfRule type="containsBlanks" dxfId="15" priority="3">
       <formula>LEN(TRIM(D12))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17">
-    <cfRule type="containsBlanks" dxfId="13" priority="2">
+    <cfRule type="containsBlanks" dxfId="14" priority="2">
       <formula>LEN(TRIM(D17))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E28">
-    <cfRule type="cellIs" dxfId="12" priority="41" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="13" priority="41" operator="greaterThan">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G20">
-    <cfRule type="containsBlanks" dxfId="11" priority="1">
+    <cfRule type="containsBlanks" dxfId="12" priority="1">
       <formula>LEN(TRIM(G20))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5501,12 +5528,12 @@
   <sheetPr codeName="Sheet2">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:N932"/>
+  <dimension ref="A1:N930"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="C60" sqref="C60"/>
+      <selection pane="topRight" activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5533,16 +5560,16 @@
       <c r="C2" s="18"/>
       <c r="D2" s="17"/>
       <c r="E2" s="148" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F2" s="119" t="s">
+        <v>189</v>
+      </c>
+      <c r="G2" s="148" t="s">
         <v>190</v>
       </c>
-      <c r="G2" s="148" t="s">
+      <c r="H2" s="147" t="s">
         <v>191</v>
-      </c>
-      <c r="H2" s="147" t="s">
-        <v>192</v>
       </c>
       <c r="I2" s="7"/>
       <c r="J2" s="87"/>
@@ -5560,7 +5587,7 @@
         <v>45291</v>
       </c>
       <c r="E3" s="146" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F3" s="85" t="str">
         <f>H14</f>
@@ -5593,7 +5620,7 @@
         <v>HKD</v>
       </c>
       <c r="E4" s="146" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F4" s="93" t="e">
         <f>(G3/F3)^(1/H3)-1</f>
@@ -5604,7 +5631,7 @@
     <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="16"/>
       <c r="B5" s="115" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C5" s="48">
         <f>C3</f>
@@ -5960,7 +5987,7 @@
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
       <c r="B12" s="99" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C12" s="199">
         <f>IF(Inputs!C30="","",MAX(Inputs!C30,0)/(1-Fin_Analysis!$I$84))</f>
@@ -6011,7 +6038,7 @@
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
       <c r="B13" s="228" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C13" s="229">
         <f t="shared" ref="C13:M13" si="3">IF(C14="","",C14/C6)</f>
@@ -6062,7 +6089,7 @@
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
       <c r="B14" s="228" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C14" s="230">
         <f>IF(C6="","",C9-C10-MAX(C11,0)-MAX(C12,0))</f>
@@ -6113,7 +6140,7 @@
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
       <c r="B15" s="231" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C15" s="232" t="str">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
@@ -6215,7 +6242,7 @@
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
       <c r="B17" s="97" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C17" s="199" t="str">
         <f>IF(Inputs!C29="","",Inputs!C29)</f>
@@ -6368,7 +6395,7 @@
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
       <c r="B20" s="97" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C20" s="152">
         <f t="shared" ref="C20:M20" si="7">IF(C6="","",MAX(C21,0)/C6)</f>
@@ -6623,7 +6650,7 @@
     <row r="25" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="4"/>
       <c r="B25" s="234" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C25" s="233" t="str">
         <f>IF(D24="","",IF(ABS(C24+D24)=ABS(C24)+ABS(D24),IF(C24&lt;0,-1,1)*(C24-D24)/D24,"Turn"))</f>
@@ -6674,7 +6701,7 @@
     <row r="26" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A26" s="16"/>
       <c r="B26" s="114" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C26" s="48">
         <f>Fin_Analysis!D9</f>
@@ -6728,15 +6755,15 @@
         <v>14</v>
       </c>
       <c r="C27" s="65">
-        <f>IF(C36="","",C36+C31+C32)</f>
+        <f>IF(C34="","",C34+C30)</f>
         <v>0</v>
       </c>
       <c r="D27" s="65" t="str">
-        <f t="shared" ref="D27:M27" si="20">IF(D36="","",D36+D31+D32)</f>
+        <f>IF(D34="","",D34+D30)</f>
         <v/>
       </c>
       <c r="E27" s="65" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" ref="E27:M27" si="20">IF(E34="","",E34+E30)</f>
         <v/>
       </c>
       <c r="F27" s="65" t="str">
@@ -6776,50 +6803,50 @@
     <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="4"/>
       <c r="B28" s="94" t="s">
-        <v>15</v>
+        <v>113</v>
       </c>
       <c r="C28" s="65">
-        <f>Fin_Analysis!C28</f>
+        <f>Fin_Analysis!C13</f>
         <v>0</v>
       </c>
       <c r="D28" s="199" t="str">
-        <f>IF(Inputs!D34="","",Inputs!D34)</f>
+        <f>IF(Inputs!D35="","",Inputs!D35)</f>
         <v/>
       </c>
       <c r="E28" s="199" t="str">
-        <f>IF(Inputs!E34="","",Inputs!E34)</f>
+        <f>IF(Inputs!E35="","",Inputs!E35)</f>
         <v/>
       </c>
       <c r="F28" s="199" t="str">
-        <f>IF(Inputs!F34="","",Inputs!F34)</f>
+        <f>IF(Inputs!F35="","",Inputs!F35)</f>
         <v/>
       </c>
       <c r="G28" s="199" t="str">
-        <f>IF(Inputs!G34="","",Inputs!G34)</f>
+        <f>IF(Inputs!G35="","",Inputs!G35)</f>
         <v/>
       </c>
       <c r="H28" s="199" t="str">
-        <f>IF(Inputs!H34="","",Inputs!H34)</f>
+        <f>IF(Inputs!H35="","",Inputs!H35)</f>
         <v/>
       </c>
       <c r="I28" s="199" t="str">
-        <f>IF(Inputs!I34="","",Inputs!I34)</f>
+        <f>IF(Inputs!I35="","",Inputs!I35)</f>
         <v/>
       </c>
       <c r="J28" s="199" t="str">
-        <f>IF(Inputs!J34="","",Inputs!J34)</f>
+        <f>IF(Inputs!J35="","",Inputs!J35)</f>
         <v/>
       </c>
       <c r="K28" s="199" t="str">
-        <f>IF(Inputs!K34="","",Inputs!K34)</f>
+        <f>IF(Inputs!K35="","",Inputs!K35)</f>
         <v/>
       </c>
       <c r="L28" s="199" t="str">
-        <f>IF(Inputs!L34="","",Inputs!L34)</f>
+        <f>IF(Inputs!L35="","",Inputs!L35)</f>
         <v/>
       </c>
       <c r="M28" s="199" t="str">
-        <f>IF(Inputs!M34="","",Inputs!M34)</f>
+        <f>IF(Inputs!M35="","",Inputs!M35)</f>
         <v/>
       </c>
       <c r="N28" s="87"/>
@@ -6827,50 +6854,50 @@
     <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="4"/>
       <c r="B29" s="94" t="s">
-        <v>114</v>
+        <v>142</v>
       </c>
       <c r="C29" s="65">
-        <f>Fin_Analysis!C13</f>
+        <f>Fin_Analysis!C18</f>
         <v>0</v>
       </c>
       <c r="D29" s="199" t="str">
-        <f>IF(Inputs!D35="","",Inputs!D35)</f>
+        <f>IF(Inputs!D36="","",Inputs!D36)</f>
         <v/>
       </c>
       <c r="E29" s="199" t="str">
-        <f>IF(Inputs!E35="","",Inputs!E35)</f>
+        <f>IF(Inputs!E36="","",Inputs!E36)</f>
         <v/>
       </c>
       <c r="F29" s="199" t="str">
-        <f>IF(Inputs!F35="","",Inputs!F35)</f>
+        <f>IF(Inputs!F36="","",Inputs!F36)</f>
         <v/>
       </c>
       <c r="G29" s="199" t="str">
-        <f>IF(Inputs!G35="","",Inputs!G35)</f>
+        <f>IF(Inputs!G36="","",Inputs!G36)</f>
         <v/>
       </c>
       <c r="H29" s="199" t="str">
-        <f>IF(Inputs!H35="","",Inputs!H35)</f>
+        <f>IF(Inputs!H36="","",Inputs!H36)</f>
         <v/>
       </c>
       <c r="I29" s="199" t="str">
-        <f>IF(Inputs!I35="","",Inputs!I35)</f>
+        <f>IF(Inputs!I36="","",Inputs!I36)</f>
         <v/>
       </c>
       <c r="J29" s="199" t="str">
-        <f>IF(Inputs!J35="","",Inputs!J35)</f>
+        <f>IF(Inputs!J36="","",Inputs!J36)</f>
         <v/>
       </c>
       <c r="K29" s="199" t="str">
-        <f>IF(Inputs!K35="","",Inputs!K35)</f>
+        <f>IF(Inputs!K36="","",Inputs!K36)</f>
         <v/>
       </c>
       <c r="L29" s="199" t="str">
-        <f>IF(Inputs!L35="","",Inputs!L35)</f>
+        <f>IF(Inputs!L36="","",Inputs!L36)</f>
         <v/>
       </c>
       <c r="M29" s="199" t="str">
-        <f>IF(Inputs!M35="","",Inputs!M35)</f>
+        <f>IF(Inputs!M36="","",Inputs!M36)</f>
         <v/>
       </c>
       <c r="N29" s="87"/>
@@ -6878,101 +6905,101 @@
     <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="4"/>
       <c r="B30" s="94" t="s">
-        <v>143</v>
+        <v>263</v>
       </c>
       <c r="C30" s="65">
-        <f>Fin_Analysis!C18</f>
+        <f>Inputs!C37</f>
         <v>0</v>
       </c>
       <c r="D30" s="199" t="str">
-        <f>IF(Inputs!D36="","",Inputs!D36)</f>
+        <f>IF(Inputs!D37="","",Inputs!D37)</f>
         <v/>
       </c>
       <c r="E30" s="199" t="str">
-        <f>IF(Inputs!E36="","",Inputs!E36)</f>
+        <f>IF(Inputs!E37="","",Inputs!E37)</f>
         <v/>
       </c>
       <c r="F30" s="199" t="str">
-        <f>IF(Inputs!F36="","",Inputs!F36)</f>
+        <f>IF(Inputs!F37="","",Inputs!F37)</f>
         <v/>
       </c>
       <c r="G30" s="199" t="str">
-        <f>IF(Inputs!G36="","",Inputs!G36)</f>
+        <f>IF(Inputs!G37="","",Inputs!G37)</f>
         <v/>
       </c>
       <c r="H30" s="199" t="str">
-        <f>IF(Inputs!H36="","",Inputs!H36)</f>
+        <f>IF(Inputs!H37="","",Inputs!H37)</f>
         <v/>
       </c>
       <c r="I30" s="199" t="str">
-        <f>IF(Inputs!I36="","",Inputs!I36)</f>
+        <f>IF(Inputs!I37="","",Inputs!I37)</f>
         <v/>
       </c>
       <c r="J30" s="199" t="str">
-        <f>IF(Inputs!J36="","",Inputs!J36)</f>
+        <f>IF(Inputs!J37="","",Inputs!J37)</f>
         <v/>
       </c>
       <c r="K30" s="199" t="str">
-        <f>IF(Inputs!K36="","",Inputs!K36)</f>
+        <f>IF(Inputs!K37="","",Inputs!K37)</f>
         <v/>
       </c>
       <c r="L30" s="199" t="str">
-        <f>IF(Inputs!L36="","",Inputs!L36)</f>
+        <f>IF(Inputs!L37="","",Inputs!L37)</f>
         <v/>
       </c>
       <c r="M30" s="199" t="str">
-        <f>IF(Inputs!M36="","",Inputs!M36)</f>
+        <f>IF(Inputs!M37="","",Inputs!M37)</f>
         <v/>
       </c>
       <c r="N30" s="87"/>
     </row>
-    <row r="31" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="4"/>
       <c r="B31" s="94" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C31" s="65">
-        <f>Fin_Analysis!I28</f>
+        <f>Fin_Analysis!I15</f>
         <v>0</v>
       </c>
       <c r="D31" s="199" t="str">
-        <f>IF(Inputs!D37="","",Inputs!D37)</f>
+        <f>IF(Inputs!D39="","",Inputs!D39)</f>
         <v/>
       </c>
       <c r="E31" s="199" t="str">
-        <f>IF(Inputs!E37="","",Inputs!E37)</f>
+        <f>IF(Inputs!E39="","",Inputs!E39)</f>
         <v/>
       </c>
       <c r="F31" s="199" t="str">
-        <f>IF(Inputs!F37="","",Inputs!F37)</f>
+        <f>IF(Inputs!F39="","",Inputs!F39)</f>
         <v/>
       </c>
       <c r="G31" s="199" t="str">
-        <f>IF(Inputs!G37="","",Inputs!G37)</f>
+        <f>IF(Inputs!G39="","",Inputs!G39)</f>
         <v/>
       </c>
       <c r="H31" s="199" t="str">
-        <f>IF(Inputs!H37="","",Inputs!H37)</f>
+        <f>IF(Inputs!H39="","",Inputs!H39)</f>
         <v/>
       </c>
       <c r="I31" s="199" t="str">
-        <f>IF(Inputs!I37="","",Inputs!I37)</f>
+        <f>IF(Inputs!I39="","",Inputs!I39)</f>
         <v/>
       </c>
       <c r="J31" s="199" t="str">
-        <f>IF(Inputs!J37="","",Inputs!J37)</f>
+        <f>IF(Inputs!J39="","",Inputs!J39)</f>
         <v/>
       </c>
       <c r="K31" s="199" t="str">
-        <f>IF(Inputs!K37="","",Inputs!K37)</f>
+        <f>IF(Inputs!K39="","",Inputs!K39)</f>
         <v/>
       </c>
       <c r="L31" s="199" t="str">
-        <f>IF(Inputs!L37="","",Inputs!L37)</f>
+        <f>IF(Inputs!L39="","",Inputs!L39)</f>
         <v/>
       </c>
       <c r="M31" s="199" t="str">
-        <f>IF(Inputs!M37="","",Inputs!M37)</f>
+        <f>IF(Inputs!M39="","",Inputs!M39)</f>
         <v/>
       </c>
       <c r="N31" s="87"/>
@@ -6980,101 +7007,101 @@
     <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="4"/>
       <c r="B32" s="94" t="s">
-        <v>113</v>
+        <v>18</v>
       </c>
       <c r="C32" s="65">
-        <f>Fin_Analysis!I48</f>
+        <f>Fin_Analysis!I34</f>
         <v>0</v>
       </c>
       <c r="D32" s="199" t="str">
-        <f>IF(Inputs!D38="","",Inputs!D38)</f>
+        <f>IF(Inputs!D40="","",Inputs!D40)</f>
         <v/>
       </c>
       <c r="E32" s="199" t="str">
-        <f>IF(Inputs!E38="","",Inputs!E38)</f>
+        <f>IF(Inputs!E40="","",Inputs!E40)</f>
         <v/>
       </c>
       <c r="F32" s="199" t="str">
-        <f>IF(Inputs!F38="","",Inputs!F38)</f>
+        <f>IF(Inputs!F40="","",Inputs!F40)</f>
         <v/>
       </c>
       <c r="G32" s="199" t="str">
-        <f>IF(Inputs!G38="","",Inputs!G38)</f>
+        <f>IF(Inputs!G40="","",Inputs!G40)</f>
         <v/>
       </c>
       <c r="H32" s="199" t="str">
-        <f>IF(Inputs!H38="","",Inputs!H38)</f>
+        <f>IF(Inputs!H40="","",Inputs!H40)</f>
         <v/>
       </c>
       <c r="I32" s="199" t="str">
-        <f>IF(Inputs!I38="","",Inputs!I38)</f>
+        <f>IF(Inputs!I40="","",Inputs!I40)</f>
         <v/>
       </c>
       <c r="J32" s="199" t="str">
-        <f>IF(Inputs!J38="","",Inputs!J38)</f>
+        <f>IF(Inputs!J40="","",Inputs!J40)</f>
         <v/>
       </c>
       <c r="K32" s="199" t="str">
-        <f>IF(Inputs!K38="","",Inputs!K38)</f>
+        <f>IF(Inputs!K40="","",Inputs!K40)</f>
         <v/>
       </c>
       <c r="L32" s="199" t="str">
-        <f>IF(Inputs!L38="","",Inputs!L38)</f>
+        <f>IF(Inputs!L40="","",Inputs!L40)</f>
         <v/>
       </c>
       <c r="M32" s="199" t="str">
-        <f>IF(Inputs!M38="","",Inputs!M38)</f>
+        <f>IF(Inputs!M40="","",Inputs!M40)</f>
         <v/>
       </c>
       <c r="N32" s="87"/>
     </row>
-    <row r="33" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="4"/>
       <c r="B33" s="94" t="s">
-        <v>17</v>
-      </c>
-      <c r="C33" s="65">
-        <f>Fin_Analysis!I15</f>
-        <v>0</v>
-      </c>
-      <c r="D33" s="199" t="str">
-        <f>IF(Inputs!D39="","",Inputs!D39)</f>
-        <v/>
-      </c>
-      <c r="E33" s="199" t="str">
-        <f>IF(Inputs!E39="","",Inputs!E39)</f>
-        <v/>
-      </c>
-      <c r="F33" s="199" t="str">
-        <f>IF(Inputs!F39="","",Inputs!F39)</f>
-        <v/>
-      </c>
-      <c r="G33" s="199" t="str">
-        <f>IF(Inputs!G39="","",Inputs!G39)</f>
-        <v/>
-      </c>
-      <c r="H33" s="199" t="str">
-        <f>IF(Inputs!H39="","",Inputs!H39)</f>
-        <v/>
-      </c>
-      <c r="I33" s="199" t="str">
-        <f>IF(Inputs!I39="","",Inputs!I39)</f>
-        <v/>
-      </c>
-      <c r="J33" s="199" t="str">
-        <f>IF(Inputs!J39="","",Inputs!J39)</f>
-        <v/>
-      </c>
-      <c r="K33" s="199" t="str">
-        <f>IF(Inputs!K39="","",Inputs!K39)</f>
-        <v/>
-      </c>
-      <c r="L33" s="199" t="str">
-        <f>IF(Inputs!L39="","",Inputs!L39)</f>
-        <v/>
-      </c>
-      <c r="M33" s="199" t="str">
-        <f>IF(Inputs!M39="","",Inputs!M39)</f>
+        <v>19</v>
+      </c>
+      <c r="C33" s="77">
+        <f t="shared" ref="C33" si="21">IF(OR(C31="",C32=""),"",C31+C32)</f>
+        <v>0</v>
+      </c>
+      <c r="D33" s="77" t="str">
+        <f t="shared" ref="D33" si="22">IF(OR(D31="",D32=""),"",D31+D32)</f>
+        <v/>
+      </c>
+      <c r="E33" s="77" t="str">
+        <f t="shared" ref="E33" si="23">IF(OR(E31="",E32=""),"",E31+E32)</f>
+        <v/>
+      </c>
+      <c r="F33" s="77" t="str">
+        <f t="shared" ref="F33" si="24">IF(OR(F31="",F32=""),"",F31+F32)</f>
+        <v/>
+      </c>
+      <c r="G33" s="77" t="str">
+        <f t="shared" ref="G33" si="25">IF(OR(G31="",G32=""),"",G31+G32)</f>
+        <v/>
+      </c>
+      <c r="H33" s="77" t="str">
+        <f t="shared" ref="H33" si="26">IF(OR(H31="",H32=""),"",H31+H32)</f>
+        <v/>
+      </c>
+      <c r="I33" s="77" t="str">
+        <f t="shared" ref="I33" si="27">IF(OR(I31="",I32=""),"",I31+I32)</f>
+        <v/>
+      </c>
+      <c r="J33" s="77" t="str">
+        <f t="shared" ref="J33" si="28">IF(OR(J31="",J32=""),"",J31+J32)</f>
+        <v/>
+      </c>
+      <c r="K33" s="77" t="str">
+        <f t="shared" ref="K33" si="29">IF(OR(K31="",K32=""),"",K31+K32)</f>
+        <v/>
+      </c>
+      <c r="L33" s="77" t="str">
+        <f t="shared" ref="L33" si="30">IF(OR(L31="",L32=""),"",L31+L32)</f>
+        <v/>
+      </c>
+      <c r="M33" s="77" t="str">
+        <f t="shared" ref="M33" si="31">IF(OR(M31="",M32=""),"",M31+M32)</f>
         <v/>
       </c>
       <c r="N33" s="87"/>
@@ -7082,50 +7109,50 @@
     <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="4"/>
       <c r="B34" s="94" t="s">
-        <v>18</v>
+        <v>133</v>
       </c>
       <c r="C34" s="65">
-        <f>Fin_Analysis!I34</f>
+        <f>Inputs!C41</f>
         <v>0</v>
       </c>
       <c r="D34" s="199" t="str">
-        <f>IF(Inputs!D40="","",Inputs!D40)</f>
+        <f>IF(Inputs!D41="","",Inputs!D41)</f>
         <v/>
       </c>
       <c r="E34" s="199" t="str">
-        <f>IF(Inputs!E40="","",Inputs!E40)</f>
+        <f>IF(Inputs!E41="","",Inputs!E41)</f>
         <v/>
       </c>
       <c r="F34" s="199" t="str">
-        <f>IF(Inputs!F40="","",Inputs!F40)</f>
+        <f>IF(Inputs!F41="","",Inputs!F41)</f>
         <v/>
       </c>
       <c r="G34" s="199" t="str">
-        <f>IF(Inputs!G40="","",Inputs!G40)</f>
+        <f>IF(Inputs!G41="","",Inputs!G41)</f>
         <v/>
       </c>
       <c r="H34" s="199" t="str">
-        <f>IF(Inputs!H40="","",Inputs!H40)</f>
+        <f>IF(Inputs!H41="","",Inputs!H41)</f>
         <v/>
       </c>
       <c r="I34" s="199" t="str">
-        <f>IF(Inputs!I40="","",Inputs!I40)</f>
+        <f>IF(Inputs!I41="","",Inputs!I41)</f>
         <v/>
       </c>
       <c r="J34" s="199" t="str">
-        <f>IF(Inputs!J40="","",Inputs!J40)</f>
+        <f>IF(Inputs!J41="","",Inputs!J41)</f>
         <v/>
       </c>
       <c r="K34" s="199" t="str">
-        <f>IF(Inputs!K40="","",Inputs!K40)</f>
+        <f>IF(Inputs!K41="","",Inputs!K41)</f>
         <v/>
       </c>
       <c r="L34" s="199" t="str">
-        <f>IF(Inputs!L40="","",Inputs!L40)</f>
+        <f>IF(Inputs!L41="","",Inputs!L41)</f>
         <v/>
       </c>
       <c r="M34" s="199" t="str">
-        <f>IF(Inputs!M40="","",Inputs!M40)</f>
+        <f>IF(Inputs!M41="","",Inputs!M41)</f>
         <v/>
       </c>
       <c r="N34" s="87"/>
@@ -7133,50 +7160,50 @@
     <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="4"/>
       <c r="B35" s="94" t="s">
-        <v>19</v>
-      </c>
-      <c r="C35" s="77">
-        <f t="shared" ref="C35" si="21">IF(OR(C33="",C34=""),"",C33+C34)</f>
-        <v>0</v>
-      </c>
-      <c r="D35" s="77" t="str">
-        <f t="shared" ref="D35" si="22">IF(OR(D33="",D34=""),"",D33+D34)</f>
-        <v/>
-      </c>
-      <c r="E35" s="77" t="str">
-        <f t="shared" ref="E35" si="23">IF(OR(E33="",E34=""),"",E33+E34)</f>
-        <v/>
-      </c>
-      <c r="F35" s="77" t="str">
-        <f t="shared" ref="F35" si="24">IF(OR(F33="",F34=""),"",F33+F34)</f>
-        <v/>
-      </c>
-      <c r="G35" s="77" t="str">
-        <f t="shared" ref="G35" si="25">IF(OR(G33="",G34=""),"",G33+G34)</f>
-        <v/>
-      </c>
-      <c r="H35" s="77" t="str">
-        <f t="shared" ref="H35" si="26">IF(OR(H33="",H34=""),"",H33+H34)</f>
-        <v/>
-      </c>
-      <c r="I35" s="77" t="str">
-        <f t="shared" ref="I35" si="27">IF(OR(I33="",I34=""),"",I33+I34)</f>
-        <v/>
-      </c>
-      <c r="J35" s="77" t="str">
-        <f t="shared" ref="J35" si="28">IF(OR(J33="",J34=""),"",J33+J34)</f>
-        <v/>
-      </c>
-      <c r="K35" s="77" t="str">
-        <f t="shared" ref="K35" si="29">IF(OR(K33="",K34=""),"",K33+K34)</f>
-        <v/>
-      </c>
-      <c r="L35" s="77" t="str">
-        <f t="shared" ref="L35" si="30">IF(OR(L33="",L34=""),"",L33+L34)</f>
-        <v/>
-      </c>
-      <c r="M35" s="77" t="str">
-        <f t="shared" ref="M35" si="31">IF(OR(M33="",M34=""),"",M33+M34)</f>
+        <v>134</v>
+      </c>
+      <c r="C35" s="65">
+        <f>Inputs!C42</f>
+        <v>0</v>
+      </c>
+      <c r="D35" s="199" t="str">
+        <f>IF(Inputs!D42="","",Inputs!D42)</f>
+        <v/>
+      </c>
+      <c r="E35" s="199" t="str">
+        <f>IF(Inputs!E42="","",Inputs!E42)</f>
+        <v/>
+      </c>
+      <c r="F35" s="199" t="str">
+        <f>IF(Inputs!F42="","",Inputs!F42)</f>
+        <v/>
+      </c>
+      <c r="G35" s="199" t="str">
+        <f>IF(Inputs!G42="","",Inputs!G42)</f>
+        <v/>
+      </c>
+      <c r="H35" s="199" t="str">
+        <f>IF(Inputs!H42="","",Inputs!H42)</f>
+        <v/>
+      </c>
+      <c r="I35" s="199" t="str">
+        <f>IF(Inputs!I42="","",Inputs!I42)</f>
+        <v/>
+      </c>
+      <c r="J35" s="199" t="str">
+        <f>IF(Inputs!J42="","",Inputs!J42)</f>
+        <v/>
+      </c>
+      <c r="K35" s="199" t="str">
+        <f>IF(Inputs!K42="","",Inputs!K42)</f>
+        <v/>
+      </c>
+      <c r="L35" s="199" t="str">
+        <f>IF(Inputs!L42="","",Inputs!L42)</f>
+        <v/>
+      </c>
+      <c r="M35" s="199" t="str">
+        <f>IF(Inputs!M42="","",Inputs!M42)</f>
         <v/>
       </c>
       <c r="N35" s="87"/>
@@ -7184,50 +7211,50 @@
     <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="4"/>
       <c r="B36" s="94" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C36" s="65">
-        <f>Fin_Analysis!D3</f>
+        <f>Inputs!C40</f>
         <v>0</v>
       </c>
       <c r="D36" s="199" t="str">
-        <f>IF(Inputs!D41="","",Inputs!D41)</f>
+        <f>IF(Inputs!D43="","",Inputs!D43)</f>
         <v/>
       </c>
       <c r="E36" s="199" t="str">
-        <f>IF(Inputs!E41="","",Inputs!E41)</f>
+        <f>IF(Inputs!E43="","",Inputs!E43)</f>
         <v/>
       </c>
       <c r="F36" s="199" t="str">
-        <f>IF(Inputs!F41="","",Inputs!F41)</f>
+        <f>IF(Inputs!F43="","",Inputs!F43)</f>
         <v/>
       </c>
       <c r="G36" s="199" t="str">
-        <f>IF(Inputs!G41="","",Inputs!G41)</f>
+        <f>IF(Inputs!G43="","",Inputs!G43)</f>
         <v/>
       </c>
       <c r="H36" s="199" t="str">
-        <f>IF(Inputs!H41="","",Inputs!H41)</f>
+        <f>IF(Inputs!H43="","",Inputs!H43)</f>
         <v/>
       </c>
       <c r="I36" s="199" t="str">
-        <f>IF(Inputs!I41="","",Inputs!I41)</f>
+        <f>IF(Inputs!I43="","",Inputs!I43)</f>
         <v/>
       </c>
       <c r="J36" s="199" t="str">
-        <f>IF(Inputs!J41="","",Inputs!J41)</f>
+        <f>IF(Inputs!J43="","",Inputs!J43)</f>
         <v/>
       </c>
       <c r="K36" s="199" t="str">
-        <f>IF(Inputs!K41="","",Inputs!K41)</f>
+        <f>IF(Inputs!K43="","",Inputs!K43)</f>
         <v/>
       </c>
       <c r="L36" s="199" t="str">
-        <f>IF(Inputs!L41="","",Inputs!L41)</f>
+        <f>IF(Inputs!L43="","",Inputs!L43)</f>
         <v/>
       </c>
       <c r="M36" s="199" t="str">
-        <f>IF(Inputs!M41="","",Inputs!M41)</f>
+        <f>IF(Inputs!M43="","",Inputs!M43)</f>
         <v/>
       </c>
       <c r="N36" s="87"/>
@@ -7235,272 +7262,272 @@
     <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="4"/>
       <c r="B37" s="94" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C37" s="65">
-        <f>Fin_Analysis!D4</f>
-        <v>0</v>
-      </c>
-      <c r="D37" s="199" t="str">
-        <f>IF(Inputs!D42="","",Inputs!D42)</f>
-        <v/>
-      </c>
-      <c r="E37" s="199" t="str">
-        <f>IF(Inputs!E42="","",Inputs!E42)</f>
-        <v/>
-      </c>
-      <c r="F37" s="199" t="str">
-        <f>IF(Inputs!F42="","",Inputs!F42)</f>
-        <v/>
-      </c>
-      <c r="G37" s="199" t="str">
-        <f>IF(Inputs!G42="","",Inputs!G42)</f>
-        <v/>
-      </c>
-      <c r="H37" s="199" t="str">
-        <f>IF(Inputs!H42="","",Inputs!H42)</f>
-        <v/>
-      </c>
-      <c r="I37" s="199" t="str">
-        <f>IF(Inputs!I42="","",Inputs!I42)</f>
-        <v/>
-      </c>
-      <c r="J37" s="199" t="str">
-        <f>IF(Inputs!J42="","",Inputs!J42)</f>
-        <v/>
-      </c>
-      <c r="K37" s="199" t="str">
-        <f>IF(Inputs!K42="","",Inputs!K42)</f>
-        <v/>
-      </c>
-      <c r="L37" s="199" t="str">
-        <f>IF(Inputs!L42="","",Inputs!L42)</f>
-        <v/>
-      </c>
-      <c r="M37" s="199" t="str">
-        <f>IF(Inputs!M42="","",Inputs!M42)</f>
+        <f>Fin_Analysis!C68</f>
+        <v>0</v>
+      </c>
+      <c r="D37" s="65" t="str">
+        <f t="shared" ref="D37:M37" si="32">IF(D36="","",D27-D36)</f>
+        <v/>
+      </c>
+      <c r="E37" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="F37" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="G37" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="H37" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="I37" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="J37" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="K37" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="L37" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="M37" s="65" t="str">
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="N37" s="87"/>
     </row>
     <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="4"/>
-      <c r="B38" s="94" t="s">
-        <v>133</v>
-      </c>
-      <c r="C38" s="65">
-        <f>Fin_Analysis!C63</f>
-        <v>0</v>
-      </c>
-      <c r="D38" s="199" t="str">
-        <f>IF(Inputs!D43="","",Inputs!D43)</f>
-        <v/>
-      </c>
-      <c r="E38" s="199" t="str">
-        <f>IF(Inputs!E43="","",Inputs!E43)</f>
-        <v/>
-      </c>
-      <c r="F38" s="199" t="str">
-        <f>IF(Inputs!F43="","",Inputs!F43)</f>
-        <v/>
-      </c>
-      <c r="G38" s="199" t="str">
-        <f>IF(Inputs!G43="","",Inputs!G43)</f>
-        <v/>
-      </c>
-      <c r="H38" s="199" t="str">
-        <f>IF(Inputs!H43="","",Inputs!H43)</f>
-        <v/>
-      </c>
-      <c r="I38" s="199" t="str">
-        <f>IF(Inputs!I43="","",Inputs!I43)</f>
-        <v/>
-      </c>
-      <c r="J38" s="199" t="str">
-        <f>IF(Inputs!J43="","",Inputs!J43)</f>
-        <v/>
-      </c>
-      <c r="K38" s="199" t="str">
-        <f>IF(Inputs!K43="","",Inputs!K43)</f>
-        <v/>
-      </c>
-      <c r="L38" s="199" t="str">
-        <f>IF(Inputs!L43="","",Inputs!L43)</f>
-        <v/>
-      </c>
-      <c r="M38" s="199" t="str">
-        <f>IF(Inputs!M43="","",Inputs!M43)</f>
+      <c r="B38" s="98" t="s">
+        <v>150</v>
+      </c>
+      <c r="C38" s="155" t="e">
+        <f>IF(C6="","",C14/MAX(C37,0))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D38" s="155" t="e">
+        <f>IF(D6="","",D14/MAX(D37,0))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E38" s="155" t="str">
+        <f>IF(E6="","",E14/MAX(E37,0))</f>
+        <v/>
+      </c>
+      <c r="F38" s="155" t="str">
+        <f t="shared" ref="F38:M38" si="33">IF(F37="","",F14/F37)</f>
+        <v/>
+      </c>
+      <c r="G38" s="155" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="H38" s="155" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="I38" s="155" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="J38" s="155" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="K38" s="155" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="L38" s="155" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="M38" s="155" t="str">
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="N38" s="87"/>
     </row>
     <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="4"/>
-      <c r="B39" s="94" t="s">
-        <v>137</v>
-      </c>
-      <c r="C39" s="65">
-        <f>Fin_Analysis!C68</f>
-        <v>0</v>
-      </c>
-      <c r="D39" s="65" t="str">
-        <f>IF(D38="","",D27-D38)</f>
-        <v/>
-      </c>
-      <c r="E39" s="65" t="str">
-        <f t="shared" ref="E39:M39" si="32">IF(E38="","",E27-E38)</f>
-        <v/>
-      </c>
-      <c r="F39" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="G39" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="H39" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="I39" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="J39" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="K39" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="L39" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="M39" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
+      <c r="A39" s="16"/>
+      <c r="B39" s="55" t="s">
+        <v>247</v>
+      </c>
+      <c r="C39" s="54"/>
+      <c r="D39" s="54"/>
+      <c r="E39" s="54"/>
+      <c r="F39" s="54"/>
+      <c r="G39" s="54"/>
+      <c r="H39" s="54"/>
+      <c r="I39" s="54"/>
+      <c r="J39" s="54"/>
+      <c r="K39" s="54"/>
+      <c r="L39" s="54"/>
+      <c r="M39" s="54"/>
       <c r="N39" s="87"/>
     </row>
     <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="4"/>
-      <c r="B40" s="98" t="s">
-        <v>151</v>
-      </c>
-      <c r="C40" s="155" t="e">
-        <f>IF(C6="","",C14/MAX(C39,0))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D40" s="155" t="e">
-        <f>IF(D6="","",D14/MAX(D39,0))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E40" s="155" t="str">
-        <f>IF(E6="","",E14/MAX(E39,0))</f>
-        <v/>
-      </c>
-      <c r="F40" s="155" t="str">
-        <f t="shared" ref="F40:M40" si="33">IF(F39="","",F14/F39)</f>
-        <v/>
-      </c>
-      <c r="G40" s="155" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="H40" s="155" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="I40" s="155" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="J40" s="155" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="K40" s="155" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="L40" s="155" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="M40" s="155" t="str">
-        <f t="shared" si="33"/>
+      <c r="B40" s="95" t="s">
+        <v>95</v>
+      </c>
+      <c r="C40" s="156">
+        <f t="shared" ref="C40:M40" si="34">IF(C6="","",C8/C6)</f>
+        <v>0.47272944175123971</v>
+      </c>
+      <c r="D40" s="156">
+        <f t="shared" si="34"/>
+        <v>0.56850345827225579</v>
+      </c>
+      <c r="E40" s="156" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="F40" s="156" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="G40" s="156" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="H40" s="156" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="I40" s="156" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="J40" s="156" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="K40" s="156" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="L40" s="156" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="M40" s="156" t="str">
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="N40" s="87"/>
     </row>
     <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="16"/>
-      <c r="B41" s="55" t="s">
-        <v>249</v>
-      </c>
-      <c r="C41" s="54"/>
-      <c r="D41" s="54"/>
-      <c r="E41" s="54"/>
-      <c r="F41" s="54"/>
-      <c r="G41" s="54"/>
-      <c r="H41" s="54"/>
-      <c r="I41" s="54"/>
-      <c r="J41" s="54"/>
-      <c r="K41" s="54"/>
-      <c r="L41" s="54"/>
-      <c r="M41" s="54"/>
+      <c r="A41" s="4"/>
+      <c r="B41" s="94" t="s">
+        <v>221</v>
+      </c>
+      <c r="C41" s="153">
+        <f t="shared" ref="C41:M41" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
+        <v>0.35112695227219692</v>
+      </c>
+      <c r="D41" s="153">
+        <f t="shared" si="35"/>
+        <v>0.7314473949460305</v>
+      </c>
+      <c r="E41" s="153" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="F41" s="153" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="G41" s="153" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="H41" s="153" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="I41" s="153" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="J41" s="153" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="K41" s="153" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="L41" s="153" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="M41" s="153" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
       <c r="N41" s="87"/>
     </row>
     <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="4"/>
-      <c r="B42" s="95" t="s">
-        <v>95</v>
-      </c>
-      <c r="C42" s="156">
-        <f t="shared" ref="C42:M42" si="34">IF(C6="","",C8/C6)</f>
-        <v>0.47272944175123971</v>
-      </c>
-      <c r="D42" s="156">
-        <f t="shared" si="34"/>
-        <v>0.56850345827225579</v>
-      </c>
-      <c r="E42" s="156" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="F42" s="156" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="G42" s="156" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="H42" s="156" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="I42" s="156" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="J42" s="156" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="K42" s="156" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="L42" s="156" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="M42" s="156" t="str">
-        <f t="shared" si="34"/>
+      <c r="B42" s="94" t="s">
+        <v>106</v>
+      </c>
+      <c r="C42" s="153">
+        <f t="shared" ref="C42:M42" si="36">IF(C6="","",MAX(C16,0)/C6)</f>
+        <v>0</v>
+      </c>
+      <c r="D42" s="153">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="E42" s="153" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="F42" s="153" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="G42" s="153" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="H42" s="153" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="I42" s="153" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="J42" s="153" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="K42" s="153" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="L42" s="153" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="M42" s="153" t="str">
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="N42" s="87"/>
@@ -7508,50 +7535,50 @@
     <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="4"/>
       <c r="B43" s="94" t="s">
-        <v>222</v>
+        <v>118</v>
       </c>
       <c r="C43" s="153">
-        <f t="shared" ref="C43:M43" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
-        <v>0.35112695227219692</v>
+        <f t="shared" ref="C43:M43" si="37">IF(C6="","",MAX(C17,0)/C6)</f>
+        <v>0</v>
       </c>
       <c r="D43" s="153">
-        <f t="shared" si="35"/>
-        <v>0.7314473949460305</v>
+        <f t="shared" si="37"/>
+        <v>0</v>
       </c>
       <c r="E43" s="153" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="F43" s="153" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="G43" s="153" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="H43" s="153" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="I43" s="153" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="J43" s="153" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="K43" s="153" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="L43" s="153" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="M43" s="153" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="N43" s="87"/>
@@ -7559,50 +7586,50 @@
     <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="4"/>
       <c r="B44" s="94" t="s">
-        <v>106</v>
+        <v>125</v>
       </c>
       <c r="C44" s="153">
-        <f t="shared" ref="C44:M44" si="36">IF(C6="","",MAX(C16,0)/C6)</f>
-        <v>0</v>
+        <f t="shared" ref="C44:M44" si="38">IF(C6="","",MAX(C12,0)/C6)</f>
+        <v>1.6858097812807804E-3</v>
       </c>
       <c r="D44" s="153">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="E44" s="153" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="F44" s="153" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="G44" s="153" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="H44" s="153" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="I44" s="153" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="J44" s="153" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="K44" s="153" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="L44" s="153" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="M44" s="153" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="N44" s="87"/>
@@ -7610,50 +7637,50 @@
     <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="4"/>
       <c r="B45" s="94" t="s">
-        <v>119</v>
+        <v>223</v>
       </c>
       <c r="C45" s="153">
-        <f t="shared" ref="C45:M45" si="37">IF(C6="","",MAX(C17,0)/C6)</f>
+        <f t="shared" ref="C45:M45" si="39">IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
         <v>0</v>
       </c>
       <c r="D45" s="153">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="E45" s="153" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="F45" s="153" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="G45" s="153" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="H45" s="153" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="I45" s="153" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="J45" s="153" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="K45" s="153" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="L45" s="153" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="M45" s="153" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="N45" s="87"/>
@@ -7661,221 +7688,221 @@
     <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="4"/>
       <c r="B46" s="94" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="C46" s="153">
-        <f>IF(C6="","",MAX(C12,0)/C6)</f>
-        <v>1.6858097812807804E-3</v>
+        <f t="shared" ref="C46:M46" si="40">IF(C6="","",C22/C6)</f>
+        <v>0.17445779619528262</v>
       </c>
       <c r="D46" s="153">
-        <f t="shared" ref="D46:M46" si="38">IF(D6="","",MAX(D12,0)/D6)</f>
-        <v>0</v>
+        <f t="shared" si="40"/>
+        <v>-0.29995085321828624</v>
       </c>
       <c r="E46" s="153" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="F46" s="153" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="G46" s="153" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="H46" s="153" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="I46" s="153" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="J46" s="153" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="K46" s="153" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="L46" s="153" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="M46" s="153" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="N46" s="87"/>
     </row>
     <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A47" s="4"/>
-      <c r="B47" s="94" t="s">
-        <v>224</v>
-      </c>
-      <c r="C47" s="153">
-        <f>IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
-        <v>0</v>
-      </c>
-      <c r="D47" s="153">
-        <f t="shared" ref="D47:M47" si="39">IF(D6="","",ABS(MAX(D21,0)-MAX(D19,0))/D6)</f>
-        <v>0</v>
-      </c>
-      <c r="E47" s="153" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="F47" s="153" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="G47" s="153" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="H47" s="153" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="I47" s="153" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="J47" s="153" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="K47" s="153" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="L47" s="153" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="M47" s="153" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
+      <c r="A47" s="16"/>
+      <c r="B47" s="102" t="s">
+        <v>248</v>
+      </c>
+      <c r="C47" s="36"/>
+      <c r="D47" s="36"/>
+      <c r="E47" s="36"/>
+      <c r="F47" s="36"/>
+      <c r="G47" s="36"/>
+      <c r="H47" s="36"/>
+      <c r="I47" s="36"/>
+      <c r="J47" s="36"/>
+      <c r="K47" s="36"/>
+      <c r="L47" s="36"/>
+      <c r="M47" s="36"/>
       <c r="N47" s="87"/>
     </row>
     <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="4"/>
-      <c r="B48" s="94" t="s">
-        <v>121</v>
-      </c>
-      <c r="C48" s="153">
-        <f t="shared" ref="C48:M48" si="40">IF(C6="","",C22/C6)</f>
-        <v>0.17445779619528262</v>
-      </c>
-      <c r="D48" s="153">
-        <f t="shared" si="40"/>
-        <v>-0.29995085321828624</v>
-      </c>
-      <c r="E48" s="153" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="F48" s="153" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="G48" s="153" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="H48" s="153" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="I48" s="153" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="J48" s="153" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="K48" s="153" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="L48" s="153" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="M48" s="153" t="str">
-        <f t="shared" si="40"/>
+      <c r="B48" s="271" t="s">
+        <v>254</v>
+      </c>
+      <c r="C48" s="272" t="e">
+        <f t="shared" ref="C48:M48" si="41">IF(C6="","",C6/C27)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D48" s="272" t="e">
+        <f t="shared" si="41"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E48" s="272" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="F48" s="272" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="G48" s="272" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="H48" s="272" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="I48" s="272" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="J48" s="272" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="K48" s="272" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="L48" s="272" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="M48" s="272" t="str">
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="N48" s="87"/>
     </row>
     <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A49" s="16"/>
-      <c r="B49" s="102" t="s">
-        <v>250</v>
-      </c>
-      <c r="C49" s="36"/>
-      <c r="D49" s="36"/>
-      <c r="E49" s="36"/>
-      <c r="F49" s="36"/>
-      <c r="G49" s="36"/>
-      <c r="H49" s="36"/>
-      <c r="I49" s="36"/>
-      <c r="J49" s="36"/>
-      <c r="K49" s="36"/>
-      <c r="L49" s="36"/>
-      <c r="M49" s="36"/>
+      <c r="A49" s="4"/>
+      <c r="B49" s="94" t="s">
+        <v>255</v>
+      </c>
+      <c r="C49" s="153">
+        <f t="shared" ref="C49:M49" si="42">IF(C28="","",C28/C6)</f>
+        <v>0</v>
+      </c>
+      <c r="D49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="E49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="F49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="G49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="H49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="I49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="J49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="K49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="L49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="M49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
       <c r="N49" s="87"/>
     </row>
     <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="4"/>
-      <c r="B50" s="271" t="s">
+      <c r="B50" s="94" t="s">
         <v>256</v>
       </c>
-      <c r="C50" s="272" t="e">
-        <f>IF(C6="","",C6/C27)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D50" s="272" t="e">
-        <f t="shared" ref="D50:M50" si="41">IF(D6="","",D6/D27)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E50" s="272" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="F50" s="272" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="G50" s="272" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="H50" s="272" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="I50" s="272" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="J50" s="272" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="K50" s="272" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="L50" s="272" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="M50" s="272" t="str">
-        <f t="shared" si="41"/>
+      <c r="C50" s="153">
+        <f t="shared" ref="C50:M50" si="43">IF(C29="","",C29/C6)</f>
+        <v>0</v>
+      </c>
+      <c r="D50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="E50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="F50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="G50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="H50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="I50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="J50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="K50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="L50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="M50" s="153" t="str">
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="N50" s="87"/>
@@ -7883,522 +7910,426 @@
     <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="4"/>
       <c r="B51" s="94" t="s">
-        <v>257</v>
-      </c>
-      <c r="C51" s="153">
-        <f t="shared" ref="C51:M51" si="42">IF(C29="","",C29/C6)</f>
-        <v>0</v>
+        <v>246</v>
+      </c>
+      <c r="C51" s="153" t="e">
+        <f t="shared" ref="C51:M51" si="44">IF(D6="","",C16/(C6-D6))</f>
+        <v>#VALUE!</v>
       </c>
       <c r="D51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="E51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="F51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="G51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="H51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="I51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="J51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="K51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="L51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="M51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="N51" s="87"/>
     </row>
     <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A52" s="4"/>
-      <c r="B52" s="94" t="s">
-        <v>258</v>
-      </c>
-      <c r="C52" s="153">
-        <f t="shared" ref="C52:M52" si="43">IF(C30="","",C30/C6)</f>
-        <v>0</v>
-      </c>
-      <c r="D52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="E52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="F52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="G52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="H52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="I52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="J52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="K52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="L52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="M52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="N52" s="87"/>
+      <c r="A52" s="16"/>
+      <c r="B52" s="102" t="s">
+        <v>249</v>
+      </c>
+      <c r="C52" s="36"/>
+      <c r="D52" s="36"/>
+      <c r="E52" s="36"/>
+      <c r="F52" s="36"/>
+      <c r="G52" s="36"/>
+      <c r="H52" s="36"/>
+      <c r="I52" s="36"/>
+      <c r="J52" s="36"/>
+      <c r="K52" s="36"/>
+      <c r="L52" s="36"/>
+      <c r="M52" s="36"/>
     </row>
     <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="4"/>
-      <c r="B53" s="94" t="s">
-        <v>247</v>
-      </c>
-      <c r="C53" s="153" t="e">
-        <f>IF(D6="","",C16/(C6-D6))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D53" s="153" t="str">
-        <f t="shared" ref="D53:M53" si="44">IF(E6="","",D16/(D6-E6))</f>
-        <v/>
-      </c>
-      <c r="E53" s="153" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="F53" s="153" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="G53" s="153" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="H53" s="153" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="I53" s="153" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="J53" s="153" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="K53" s="153" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="L53" s="153" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="M53" s="153" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="N53" s="87"/>
+      <c r="B53" s="95" t="s">
+        <v>250</v>
+      </c>
+      <c r="C53" s="156" t="e">
+        <f t="shared" ref="C53:M53" si="45">IF(C34="","",(C34-C35)/C27)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="E53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="F53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="G53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="H53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="I53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="J53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="K53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="L53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="M53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
     </row>
     <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A54" s="16"/>
-      <c r="B54" s="102" t="s">
-        <v>251</v>
-      </c>
-      <c r="C54" s="36"/>
-      <c r="D54" s="36"/>
-      <c r="E54" s="36"/>
-      <c r="F54" s="36"/>
-      <c r="G54" s="36"/>
-      <c r="H54" s="36"/>
-      <c r="I54" s="36"/>
-      <c r="J54" s="36"/>
-      <c r="K54" s="36"/>
-      <c r="L54" s="36"/>
-      <c r="M54" s="36"/>
+      <c r="A54" s="4"/>
+      <c r="B54" s="94" t="s">
+        <v>117</v>
+      </c>
+      <c r="C54" s="157" t="str">
+        <f t="shared" ref="C54:M54" si="46">IF(OR(C22="",C33=""),"",IF(C33&lt;=0,"-",C22/C33))</f>
+        <v>-</v>
+      </c>
+      <c r="D54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="E54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="F54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="G54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="H54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="I54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="J54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="K54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="L54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="M54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
     </row>
     <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="4"/>
-      <c r="B55" s="95" t="s">
-        <v>252</v>
-      </c>
-      <c r="C55" s="156" t="e">
-        <f>IF(C36="","",(C36-C37)/C27)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D55" s="156" t="str">
-        <f t="shared" ref="D55:M55" si="45">IF(D36="","",(D36-D37)/D27)</f>
-        <v/>
-      </c>
-      <c r="E55" s="156" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="F55" s="156" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="G55" s="156" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="H55" s="156" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="I55" s="156" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="J55" s="156" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="K55" s="156" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="L55" s="156" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="M55" s="156" t="str">
-        <f t="shared" si="45"/>
+      <c r="B55" s="94" t="s">
+        <v>119</v>
+      </c>
+      <c r="C55" s="153" t="str">
+        <f t="shared" ref="C55:M55" si="47">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
+        <v>-</v>
+      </c>
+      <c r="D55" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v>-</v>
+      </c>
+      <c r="E55" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="F55" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="G55" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="H55" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="I55" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="J55" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="K55" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="L55" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="M55" s="153" t="str">
+        <f t="shared" si="47"/>
         <v/>
       </c>
     </row>
     <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="4"/>
-      <c r="B56" s="94" t="s">
-        <v>118</v>
-      </c>
-      <c r="C56" s="157" t="str">
-        <f t="shared" ref="C56:M56" si="46">IF(OR(C22="",C35=""),"",IF(C35&lt;=0,"-",C22/C35))</f>
-        <v>-</v>
-      </c>
-      <c r="D56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="E56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="F56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="G56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="H56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="I56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="J56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="K56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="L56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="M56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
+      <c r="B56" s="98" t="s">
+        <v>20</v>
+      </c>
+      <c r="C56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/C30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/D30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/E30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/F30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/G30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/H30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="I56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/I30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="J56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/J30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/K30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="L56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/L30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="M56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/M30)</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A57" s="4"/>
-      <c r="B57" s="94" t="s">
-        <v>120</v>
-      </c>
-      <c r="C57" s="153" t="str">
-        <f t="shared" ref="C57:M57" si="47">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
-        <v>-</v>
-      </c>
-      <c r="D57" s="153" t="str">
-        <f t="shared" si="47"/>
-        <v>-</v>
-      </c>
-      <c r="E57" s="153" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="F57" s="153" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="G57" s="153" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="H57" s="153" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="I57" s="153" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="J57" s="153" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="K57" s="153" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="L57" s="153" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="M57" s="153" t="str">
-        <f t="shared" si="47"/>
+      <c r="A57" s="16"/>
+      <c r="B57" s="102" t="s">
+        <v>251</v>
+      </c>
+      <c r="C57" s="273" t="str">
+        <f t="shared" ref="C57:M57" si="48">IFERROR(IF(C13*C48*(1/C53)=C58,"","Error"),"")</f>
+        <v/>
+      </c>
+      <c r="D57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="E57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="F57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="G57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="H57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="I57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="J57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="K57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="L57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="M57" s="273" t="str">
+        <f t="shared" si="48"/>
         <v/>
       </c>
     </row>
     <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="4"/>
-      <c r="B58" s="98" t="s">
-        <v>20</v>
-      </c>
-      <c r="C58" s="158" t="e">
-        <f t="shared" ref="C58:M58" si="48">IF(C28="","",C28/C31)</f>
+      <c r="B58" s="271" t="s">
+        <v>252</v>
+      </c>
+      <c r="C58" s="274" t="e">
+        <f t="shared" ref="C58:M58" si="49">IF(C14="","",C14/(C34-C35))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="E58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="F58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="G58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="H58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="I58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="J58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="K58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="L58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="M58" s="158" t="str">
-        <f t="shared" si="48"/>
+      <c r="D58" s="274" t="e">
+        <f t="shared" si="49"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E58" s="274" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="F58" s="274" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="G58" s="274" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="H58" s="274" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="I58" s="274" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="J58" s="274" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="K58" s="274" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="L58" s="274" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="M58" s="274" t="str">
+        <f t="shared" si="49"/>
         <v/>
       </c>
     </row>
     <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A59" s="16"/>
-      <c r="B59" s="102" t="s">
+      <c r="A59" s="4"/>
+      <c r="B59" s="271" t="s">
         <v>253</v>
       </c>
-      <c r="C59" s="273" t="str">
-        <f>IFERROR(IF(C13*C50*(1/C55)=C60,"","Error"),"")</f>
-        <v/>
-      </c>
-      <c r="D59" s="273" t="str">
-        <f t="shared" ref="D59:M59" si="49">IFERROR(IF(D13*D50*(1/D55)=D60,"","Error"),"")</f>
-        <v/>
-      </c>
-      <c r="E59" s="273" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="F59" s="273" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="G59" s="273" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="H59" s="273" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="I59" s="273" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="J59" s="273" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="K59" s="273" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="L59" s="273" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="M59" s="273" t="str">
-        <f t="shared" si="49"/>
+      <c r="C59" s="274" t="e">
+        <f t="shared" ref="C59:M59" si="50">IF(C22="","",C22/(C34-C35))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D59" s="274" t="e">
+        <f t="shared" si="50"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E59" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="F59" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="G59" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="H59" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="I59" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="J59" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="K59" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="L59" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="M59" s="274" t="str">
+        <f t="shared" si="50"/>
         <v/>
       </c>
     </row>
     <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="4"/>
-      <c r="B60" s="271" t="s">
-        <v>254</v>
-      </c>
-      <c r="C60" s="274" t="e">
-        <f>IF(C14="","",C14/(C36-C37))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D60" s="274" t="e">
-        <f t="shared" ref="D60:M60" si="50">IF(D14="","",D14/(D36-D37))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E60" s="274" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="F60" s="274" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="G60" s="274" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="H60" s="274" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="I60" s="274" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="J60" s="274" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="K60" s="274" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="L60" s="274" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="M60" s="274" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
     </row>
     <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="4"/>
-      <c r="B61" s="271" t="s">
-        <v>255</v>
-      </c>
-      <c r="C61" s="274" t="e">
-        <f>IF(C22="","",C22/(C36-C37))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D61" s="274" t="e">
-        <f t="shared" ref="D61:M61" si="51">IF(D22="","",D22/(D36-D37))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E61" s="274" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="F61" s="274" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="G61" s="274" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="H61" s="274" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="I61" s="274" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="J61" s="274" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="K61" s="274" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="L61" s="274" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="M61" s="274" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
     </row>
     <row r="62" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A62" s="4"/>
@@ -8958,12 +8889,8 @@
     <row r="247" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A247" s="4"/>
     </row>
-    <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A248" s="4"/>
-    </row>
-    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A249" s="4"/>
-    </row>
+    <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="250" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="251" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="252" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -9645,27 +9572,30 @@
     <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <phoneticPr fontId="20" type="noConversion"/>
-  <conditionalFormatting sqref="C6:M23 C27:M40">
-    <cfRule type="containsBlanks" dxfId="10" priority="4">
+  <conditionalFormatting sqref="C6:M23">
+    <cfRule type="containsBlanks" dxfId="11" priority="5">
       <formula>LEN(TRIM(C6))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C25:M25">
-    <cfRule type="containsBlanks" dxfId="9" priority="3">
+    <cfRule type="containsBlanks" dxfId="10" priority="4">
       <formula>LEN(TRIM(C25))=0</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="C27:M38">
+    <cfRule type="containsBlanks" dxfId="9" priority="1">
+      <formula>LEN(TRIM(C27))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="D24:M24">
-    <cfRule type="containsBlanks" dxfId="8" priority="2">
+    <cfRule type="containsBlanks" dxfId="8" priority="3">
       <formula>LEN(TRIM(D24))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4">
-    <cfRule type="containsBlanks" dxfId="7" priority="1">
+    <cfRule type="containsBlanks" dxfId="7" priority="2">
       <formula>LEN(TRIM(F4))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9857,7 +9787,7 @@
         <v>31</v>
       </c>
       <c r="D10" s="74" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E10" s="74" t="s">
         <v>32</v>
@@ -9904,7 +9834,7 @@
     </row>
     <row r="12" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B12" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C12" s="40">
         <f>Inputs!C49</f>
@@ -9932,7 +9862,7 @@
     </row>
     <row r="13" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B13" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C13" s="40">
         <f>Inputs!C50</f>
@@ -10015,7 +9945,7 @@
     </row>
     <row r="16" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C16" s="40">
         <f>Inputs!C53</f>
@@ -10037,7 +9967,7 @@
     </row>
     <row r="17" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C17" s="40">
         <f>Inputs!C54</f>
@@ -10105,7 +10035,7 @@
     </row>
     <row r="20" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C20" s="40">
         <f>Inputs!C57</f>
@@ -10427,7 +10357,7 @@
     </row>
     <row r="33" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C33" s="40">
         <f>Inputs!C63</f>
@@ -10564,7 +10494,7 @@
     </row>
     <row r="38" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B38" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C38" s="40">
         <f>Inputs!C68</f>
@@ -10895,7 +10825,7 @@
     </row>
     <row r="55" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="25" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C55" s="3"/>
       <c r="E55" s="125"/>
@@ -10961,7 +10891,7 @@
     </row>
     <row r="60" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="25" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="75" t="s">
@@ -10996,7 +10926,7 @@
     </row>
     <row r="62" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B62" s="35" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C62" s="117">
         <f>C11+C30</f>
@@ -11017,7 +10947,7 @@
     </row>
     <row r="63" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="19" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C63" s="68">
         <f>C61+C62</f>
@@ -11038,7 +10968,7 @@
     </row>
     <row r="64" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B64" s="121" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C64" s="208"/>
       <c r="D64" s="208"/>
@@ -11053,7 +10983,7 @@
     </row>
     <row r="65" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B65" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C65" s="68">
         <f>C63-E64</f>
@@ -11084,7 +11014,7 @@
     </row>
     <row r="67" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="25" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C67" s="3"/>
       <c r="D67" s="75" t="s">
@@ -11098,7 +11028,7 @@
     </row>
     <row r="68" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="19" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C68" s="68">
         <f>C49-C63</f>
@@ -11119,7 +11049,7 @@
     </row>
     <row r="69" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B69" s="121" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C69" s="208"/>
       <c r="D69" s="208"/>
@@ -11134,7 +11064,7 @@
     </row>
     <row r="70" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B70" s="19" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C70" s="68">
         <f>C68-E69</f>
@@ -11156,7 +11086,7 @@
     <row r="72" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="5"/>
       <c r="B72" s="106" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C72" s="283">
         <f>Data!C5</f>
@@ -11164,11 +11094,11 @@
       </c>
       <c r="D72" s="283"/>
       <c r="E72" s="297" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F72" s="297"/>
       <c r="H72" s="297" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I72" s="297"/>
       <c r="K72" s="50" t="s">
@@ -11196,7 +11126,7 @@
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B74" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C74" s="77">
         <f>Data!C6</f>
@@ -11268,7 +11198,7 @@
     </row>
     <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B77" s="104" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C77" s="77">
         <f>Data!C10+MAX(Data!C11,0)</f>
@@ -11298,7 +11228,7 @@
     </row>
     <row r="78" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B78" s="73" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C78" s="77">
         <f>MAX(Data!C12,0)</f>
@@ -11328,7 +11258,7 @@
     </row>
     <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B79" s="256" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C79" s="257">
         <f>C76-C77-C78</f>
@@ -11386,12 +11316,12 @@
         <v>0</v>
       </c>
       <c r="K80" s="181" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B81" s="104" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C81" s="77">
         <f>MAX(Data!C17,0)</f>
@@ -11421,7 +11351,7 @@
     </row>
     <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="28" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C82" s="77">
         <f>ABS(MAX(Data!C21,0)-MAX(Data!C19,0))</f>
@@ -11451,7 +11381,7 @@
     </row>
     <row r="83" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B83" s="105" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C83" s="163">
         <f>C79-C81-C82-C80</f>
@@ -11502,7 +11432,7 @@
     </row>
     <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B85" s="263" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C85" s="257">
         <f>C83*(1-I84)</f>
@@ -11533,7 +11463,7 @@
     </row>
     <row r="86" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B86" s="87" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C86" s="167">
         <f>C85*Data!C4/Common_Shares</f>
@@ -11554,7 +11484,7 @@
     </row>
     <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B87" s="87" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
@@ -11575,7 +11505,7 @@
     </row>
     <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B88" s="86" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C88" s="169">
         <f>Inputs!C44</f>
@@ -11605,7 +11535,7 @@
     </row>
     <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B89" s="87" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
@@ -11636,27 +11566,27 @@
       </c>
       <c r="C91" s="21"/>
       <c r="K91" s="50" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="92" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B92" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C92" s="198" t="str">
         <f>Inputs!C15</f>
         <v>HK</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E92" s="297" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F92" s="297"/>
       <c r="G92" s="87"/>
       <c r="H92" s="297" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I92" s="297"/>
       <c r="K92" s="24"/>
@@ -11675,14 +11605,14 @@
         <v>5</v>
       </c>
       <c r="E93" s="87" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
         <v>20.962047049273842</v>
       </c>
       <c r="H93" s="87" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
@@ -11692,7 +11622,7 @@
     </row>
     <row r="94" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B94" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C94" s="182">
         <f>Dashboard!G20</f>
@@ -11703,14 +11633,14 @@
         <v>0.02</v>
       </c>
       <c r="E94" s="87" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
         <v>8.8589896880488439</v>
       </c>
       <c r="H94" s="87" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
@@ -11733,14 +11663,14 @@
         <v>HKD</v>
       </c>
       <c r="D96" s="124" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E96" s="183" t="str">
         <f>E72</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F96" s="227" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H96" s="183" t="str">
         <f>H72</f>
@@ -11753,7 +11683,7 @@
     </row>
     <row r="97" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B97" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
@@ -11777,7 +11707,7 @@
     </row>
     <row r="98" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B98" s="28" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C98" s="91">
         <f>-E53*Exchange_Rate</f>
@@ -11795,7 +11725,7 @@
     </row>
     <row r="99" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B99" s="105" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C99" s="108">
         <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
@@ -11850,21 +11780,21 @@
     </row>
     <row r="102" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B102" s="10" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C102" s="127" t="str">
         <f>C96</f>
         <v>HKD</v>
       </c>
       <c r="D102" s="124" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E102" s="183" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F102" s="227" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H102" s="183" t="str">
         <f>H96</f>
@@ -11877,7 +11807,7 @@
     </row>
     <row r="103" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B103" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
@@ -11911,21 +11841,21 @@
     </row>
     <row r="105" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B105" s="10" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C105" s="127" t="str">
         <f>C102</f>
         <v>HKD</v>
       </c>
       <c r="D105" s="124" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E105" s="184" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F105" s="227" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H105" s="184" t="str">
         <f>H96</f>
@@ -11938,7 +11868,7 @@
     </row>
     <row r="106" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B106" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
@@ -11971,7 +11901,7 @@
     </row>
     <row r="108" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B108" s="10" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C108" s="128" t="str">
         <f>Inputs!C87</f>

--- a/financial_models/opportunities/0027.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0027.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{90CF4B32-7F44-4ABC-9919-4A4C0223D899}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{48D492EE-E72F-4A41-87DD-AD0ECE81640C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="274">
   <si>
     <t>Company Info:</t>
   </si>
@@ -748,10 +748,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Common Equity =</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>D/P Dividend Yield</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -945,10 +941,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Sales Turnover</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>EBIT Margin</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -978,6 +970,22 @@
   </si>
   <si>
     <t>PlaceHolder_1</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Asset Turnover Ratio</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t># In general, the higher the accounts receivable, the higher the inventory, and the lower the fixed assets, the lower the asset turnover ratio.</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlaceHolder_3</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlaceHolder_4</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -1908,7 +1916,6 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2144,12 +2151,8 @@
     <xf numFmtId="181" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -2348,6 +2351,11 @@
     </xf>
     <xf numFmtId="10" fontId="4" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2587,8 +2595,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF0000FF"/>
       <color rgb="FFB6D7A8"/>
-      <color rgb="FF0000FF"/>
       <color rgb="FFFFFFCC"/>
       <color rgb="FFCCFF33"/>
     </mruColors>
@@ -2804,7 +2812,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C75" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C73" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -2822,162 +2830,162 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B4" s="141" t="s">
+      <c r="B4" s="140" t="s">
         <v>181</v>
       </c>
-      <c r="C4" s="188" t="s">
-        <v>266</v>
+      <c r="C4" s="187" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B5" s="141" t="s">
+      <c r="B5" s="140" t="s">
         <v>182</v>
       </c>
-      <c r="C5" s="191" t="s">
-        <v>267</v>
+      <c r="C5" s="190" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B6" s="141" t="s">
+      <c r="B6" s="140" t="s">
         <v>156</v>
       </c>
-      <c r="C6" s="189">
+      <c r="C6" s="188">
         <v>45603</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B7" s="140" t="s">
+      <c r="B7" s="139" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="190">
+      <c r="C7" s="189">
         <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B8" s="140" t="s">
+      <c r="B8" s="139" t="s">
         <v>202</v>
       </c>
-      <c r="C8" s="191" t="s">
+      <c r="C8" s="190" t="s">
         <v>68</v>
       </c>
-      <c r="E8" s="267"/>
+      <c r="E8" s="264"/>
     </row>
     <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B9" s="140" t="s">
+      <c r="B9" s="139" t="s">
         <v>203</v>
       </c>
-      <c r="C9" s="192" t="s">
-        <v>268</v>
+      <c r="C9" s="191" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B10" s="140" t="s">
+      <c r="B10" s="139" t="s">
         <v>204</v>
       </c>
-      <c r="C10" s="193">
+      <c r="C10" s="192">
         <v>4373586962</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B11" s="140" t="s">
+      <c r="B11" s="139" t="s">
         <v>205</v>
       </c>
-      <c r="C11" s="192" t="s">
+      <c r="C11" s="191" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B12" s="218" t="s">
+      <c r="B12" s="215" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="219">
+      <c r="C12" s="216">
         <v>45291</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B13" s="218" t="s">
+      <c r="B13" s="215" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="220">
+      <c r="C13" s="217">
         <v>1000</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B14" s="218" t="s">
+      <c r="B14" s="215" t="s">
         <v>206</v>
       </c>
-      <c r="C14" s="219">
+      <c r="C14" s="216">
         <v>45473</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B15" s="218" t="s">
-        <v>240</v>
-      </c>
-      <c r="C15" s="176" t="s">
+      <c r="B15" s="215" t="s">
+        <v>239</v>
+      </c>
+      <c r="C15" s="175" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B16" s="222" t="s">
+      <c r="B16" s="219" t="s">
         <v>94</v>
       </c>
-      <c r="C16" s="223">
+      <c r="C16" s="220">
         <v>0.23499999999999999</v>
       </c>
       <c r="D16" s="24"/>
     </row>
     <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B17" s="240" t="s">
-        <v>211</v>
-      </c>
-      <c r="C17" s="242" t="s">
-        <v>269</v>
+      <c r="B17" s="237" t="s">
+        <v>210</v>
+      </c>
+      <c r="C17" s="239" t="s">
+        <v>271</v>
       </c>
       <c r="D17" s="24"/>
     </row>
     <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B18" s="240" t="s">
+      <c r="B18" s="237" t="s">
+        <v>224</v>
+      </c>
+      <c r="C18" s="239" t="s">
+        <v>229</v>
+      </c>
+      <c r="D18" s="24"/>
+    </row>
+    <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B19" s="237" t="s">
         <v>225</v>
       </c>
-      <c r="C18" s="242" t="s">
-        <v>230</v>
-      </c>
-      <c r="D18" s="24"/>
-    </row>
-    <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B19" s="240" t="s">
-        <v>226</v>
-      </c>
-      <c r="C19" s="242" t="s">
-        <v>269</v>
+      <c r="C19" s="239" t="s">
+        <v>271</v>
       </c>
       <c r="D19" s="24"/>
     </row>
     <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B20" s="241" t="s">
-        <v>215</v>
-      </c>
-      <c r="C20" s="242" t="s">
-        <v>269</v>
+      <c r="B20" s="238" t="s">
+        <v>214</v>
+      </c>
+      <c r="C20" s="239" t="s">
+        <v>271</v>
       </c>
       <c r="D20" s="24"/>
     </row>
     <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B21" s="224" t="s">
-        <v>218</v>
-      </c>
-      <c r="C21" s="242" t="s">
-        <v>230</v>
+      <c r="B21" s="221" t="s">
+        <v>217</v>
+      </c>
+      <c r="C21" s="239" t="s">
+        <v>229</v>
       </c>
       <c r="D21" s="24"/>
     </row>
     <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
-      <c r="B22" s="226" t="s">
-        <v>217</v>
-      </c>
-      <c r="C22" s="243" t="s">
-        <v>270</v>
+      <c r="B22" s="223" t="s">
+        <v>216</v>
+      </c>
+      <c r="C22" s="240" t="s">
+        <v>272</v>
       </c>
       <c r="D22" s="24"/>
     </row>
@@ -3034,400 +3042,404 @@
       <c r="B25" s="94" t="s">
         <v>12</v>
       </c>
-      <c r="C25" s="149">
+      <c r="C25" s="148">
         <v>35684253</v>
       </c>
-      <c r="D25" s="149">
+      <c r="D25" s="148">
         <v>11473793</v>
       </c>
-      <c r="E25" s="149"/>
-      <c r="F25" s="149"/>
-      <c r="G25" s="149"/>
-      <c r="H25" s="149"/>
-      <c r="I25" s="149"/>
-      <c r="J25" s="149"/>
-      <c r="K25" s="149"/>
-      <c r="L25" s="149"/>
-      <c r="M25" s="149"/>
+      <c r="E25" s="148"/>
+      <c r="F25" s="148"/>
+      <c r="G25" s="148"/>
+      <c r="H25" s="148"/>
+      <c r="I25" s="148"/>
+      <c r="J25" s="148"/>
+      <c r="K25" s="148"/>
+      <c r="L25" s="148"/>
+      <c r="M25" s="148"/>
     </row>
     <row r="26" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B26" s="97" t="s">
         <v>103</v>
       </c>
-      <c r="C26" s="150">
+      <c r="C26" s="149">
         <v>16868997</v>
       </c>
-      <c r="D26" s="150">
+      <c r="D26" s="149">
         <v>6522891</v>
       </c>
-      <c r="E26" s="150"/>
-      <c r="F26" s="150"/>
-      <c r="G26" s="150"/>
-      <c r="H26" s="150"/>
-      <c r="I26" s="150"/>
-      <c r="J26" s="150"/>
-      <c r="K26" s="150"/>
-      <c r="L26" s="150"/>
-      <c r="M26" s="150"/>
+      <c r="E26" s="149"/>
+      <c r="F26" s="149"/>
+      <c r="G26" s="149"/>
+      <c r="H26" s="149"/>
+      <c r="I26" s="149"/>
+      <c r="J26" s="149"/>
+      <c r="K26" s="149"/>
+      <c r="L26" s="149"/>
+      <c r="M26" s="149"/>
     </row>
     <row r="27" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B27" s="97" t="s">
         <v>101</v>
       </c>
-      <c r="C27" s="150">
+      <c r="C27" s="149">
         <v>12529703</v>
       </c>
-      <c r="D27" s="150">
+      <c r="D27" s="149">
         <v>8392476</v>
       </c>
-      <c r="E27" s="150"/>
-      <c r="F27" s="150"/>
-      <c r="G27" s="150"/>
-      <c r="H27" s="150"/>
-      <c r="I27" s="150"/>
-      <c r="J27" s="150"/>
-      <c r="K27" s="150"/>
-      <c r="L27" s="150"/>
-      <c r="M27" s="150"/>
+      <c r="E27" s="149"/>
+      <c r="F27" s="149"/>
+      <c r="G27" s="149"/>
+      <c r="H27" s="149"/>
+      <c r="I27" s="149"/>
+      <c r="J27" s="149"/>
+      <c r="K27" s="149"/>
+      <c r="L27" s="149"/>
+      <c r="M27" s="149"/>
     </row>
     <row r="28" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B28" s="97" t="s">
         <v>104</v>
       </c>
-      <c r="C28" s="150"/>
-      <c r="D28" s="150"/>
-      <c r="E28" s="150"/>
-      <c r="F28" s="150"/>
-      <c r="G28" s="150"/>
-      <c r="H28" s="150"/>
-      <c r="I28" s="150"/>
-      <c r="J28" s="150"/>
-      <c r="K28" s="150"/>
-      <c r="L28" s="150"/>
-      <c r="M28" s="150"/>
+      <c r="C28" s="149"/>
+      <c r="D28" s="149"/>
+      <c r="E28" s="149"/>
+      <c r="F28" s="149"/>
+      <c r="G28" s="149"/>
+      <c r="H28" s="149"/>
+      <c r="I28" s="149"/>
+      <c r="J28" s="149"/>
+      <c r="K28" s="149"/>
+      <c r="L28" s="149"/>
+      <c r="M28" s="149"/>
     </row>
     <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B29" s="97" t="s">
-        <v>241</v>
-      </c>
-      <c r="C29" s="150"/>
-      <c r="D29" s="150"/>
-      <c r="E29" s="150"/>
-      <c r="F29" s="150"/>
-      <c r="G29" s="150"/>
-      <c r="H29" s="150"/>
-      <c r="I29" s="150"/>
-      <c r="J29" s="150"/>
-      <c r="K29" s="150"/>
-      <c r="L29" s="150"/>
-      <c r="M29" s="150"/>
+        <v>240</v>
+      </c>
+      <c r="C29" s="149"/>
+      <c r="D29" s="149"/>
+      <c r="E29" s="149"/>
+      <c r="F29" s="149"/>
+      <c r="G29" s="149"/>
+      <c r="H29" s="149"/>
+      <c r="I29" s="149"/>
+      <c r="J29" s="149"/>
+      <c r="K29" s="149"/>
+      <c r="L29" s="149"/>
+      <c r="M29" s="149"/>
     </row>
     <row r="30" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B30" s="99" t="s">
         <v>108</v>
       </c>
-      <c r="C30" s="150">
+      <c r="C30" s="149">
         <v>46020</v>
       </c>
-      <c r="D30" s="150">
+      <c r="D30" s="149">
         <v>-14407</v>
       </c>
-      <c r="E30" s="150"/>
-      <c r="F30" s="150"/>
-      <c r="G30" s="150"/>
-      <c r="H30" s="150"/>
-      <c r="I30" s="150"/>
-      <c r="J30" s="150"/>
-      <c r="K30" s="150"/>
-      <c r="L30" s="150"/>
-      <c r="M30" s="150"/>
+      <c r="E30" s="149"/>
+      <c r="F30" s="149"/>
+      <c r="G30" s="149"/>
+      <c r="H30" s="149"/>
+      <c r="I30" s="149"/>
+      <c r="J30" s="149"/>
+      <c r="K30" s="149"/>
+      <c r="L30" s="149"/>
+      <c r="M30" s="149"/>
     </row>
     <row r="31" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B31" s="97" t="s">
         <v>107</v>
       </c>
-      <c r="C31" s="150"/>
-      <c r="D31" s="150"/>
-      <c r="E31" s="150"/>
-      <c r="F31" s="150"/>
-      <c r="G31" s="150"/>
-      <c r="H31" s="150"/>
-      <c r="I31" s="150"/>
-      <c r="J31" s="150"/>
-      <c r="K31" s="150"/>
-      <c r="L31" s="150"/>
-      <c r="M31" s="150"/>
+      <c r="C31" s="149"/>
+      <c r="D31" s="149"/>
+      <c r="E31" s="149"/>
+      <c r="F31" s="149"/>
+      <c r="G31" s="149"/>
+      <c r="H31" s="149"/>
+      <c r="I31" s="149"/>
+      <c r="J31" s="149"/>
+      <c r="K31" s="149"/>
+      <c r="L31" s="149"/>
+      <c r="M31" s="149"/>
     </row>
     <row r="32" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B32" s="97" t="s">
         <v>102</v>
       </c>
-      <c r="C32" s="150"/>
-      <c r="D32" s="150"/>
-      <c r="E32" s="150"/>
-      <c r="F32" s="150"/>
-      <c r="G32" s="150"/>
-      <c r="H32" s="150"/>
-      <c r="I32" s="150"/>
-      <c r="J32" s="150"/>
-      <c r="K32" s="150"/>
-      <c r="L32" s="150"/>
-      <c r="M32" s="150"/>
+      <c r="C32" s="149"/>
+      <c r="D32" s="149"/>
+      <c r="E32" s="149"/>
+      <c r="F32" s="149"/>
+      <c r="G32" s="149"/>
+      <c r="H32" s="149"/>
+      <c r="I32" s="149"/>
+      <c r="J32" s="149"/>
+      <c r="K32" s="149"/>
+      <c r="L32" s="149"/>
+      <c r="M32" s="149"/>
     </row>
     <row r="33" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="97" t="s">
         <v>105</v>
       </c>
-      <c r="C33" s="150"/>
-      <c r="D33" s="150"/>
-      <c r="E33" s="150"/>
-      <c r="F33" s="150"/>
-      <c r="G33" s="150"/>
-      <c r="H33" s="150"/>
-      <c r="I33" s="150"/>
-      <c r="J33" s="150"/>
-      <c r="K33" s="150"/>
-      <c r="L33" s="150"/>
-      <c r="M33" s="150"/>
+      <c r="C33" s="149"/>
+      <c r="D33" s="149"/>
+      <c r="E33" s="149"/>
+      <c r="F33" s="149"/>
+      <c r="G33" s="149"/>
+      <c r="H33" s="149"/>
+      <c r="I33" s="149"/>
+      <c r="J33" s="149"/>
+      <c r="K33" s="149"/>
+      <c r="L33" s="149"/>
+      <c r="M33" s="149"/>
     </row>
     <row r="34" spans="2:13" ht="13.9" hidden="1" x14ac:dyDescent="0.4">
       <c r="B34" s="97" t="s">
-        <v>265</v>
-      </c>
-      <c r="C34" s="217"/>
-      <c r="D34" s="150"/>
-      <c r="E34" s="150"/>
-      <c r="F34" s="150"/>
-      <c r="G34" s="150"/>
-      <c r="H34" s="150"/>
-      <c r="I34" s="150"/>
-      <c r="J34" s="150"/>
-      <c r="K34" s="150"/>
-      <c r="L34" s="150"/>
-      <c r="M34" s="150"/>
+        <v>263</v>
+      </c>
+      <c r="C34" s="214"/>
+      <c r="D34" s="149"/>
+      <c r="E34" s="149"/>
+      <c r="F34" s="149"/>
+      <c r="G34" s="149"/>
+      <c r="H34" s="149"/>
+      <c r="I34" s="149"/>
+      <c r="J34" s="149"/>
+      <c r="K34" s="149"/>
+      <c r="L34" s="149"/>
+      <c r="M34" s="149"/>
     </row>
     <row r="35" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="94" t="s">
         <v>113</v>
       </c>
-      <c r="C35" s="217"/>
-      <c r="D35" s="150"/>
-      <c r="E35" s="150"/>
-      <c r="F35" s="150"/>
-      <c r="G35" s="150"/>
-      <c r="H35" s="150"/>
-      <c r="I35" s="150"/>
-      <c r="J35" s="150"/>
-      <c r="K35" s="150"/>
-      <c r="L35" s="150"/>
-      <c r="M35" s="150"/>
+      <c r="C35" s="214"/>
+      <c r="D35" s="149"/>
+      <c r="E35" s="149"/>
+      <c r="F35" s="149"/>
+      <c r="G35" s="149"/>
+      <c r="H35" s="149"/>
+      <c r="I35" s="149"/>
+      <c r="J35" s="149"/>
+      <c r="K35" s="149"/>
+      <c r="L35" s="149"/>
+      <c r="M35" s="149"/>
     </row>
     <row r="36" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="94" t="s">
         <v>142</v>
       </c>
-      <c r="C36" s="217"/>
-      <c r="D36" s="150"/>
-      <c r="E36" s="150"/>
-      <c r="F36" s="150"/>
-      <c r="G36" s="150"/>
-      <c r="H36" s="150"/>
-      <c r="I36" s="150"/>
-      <c r="J36" s="150"/>
-      <c r="K36" s="150"/>
-      <c r="L36" s="150"/>
-      <c r="M36" s="150"/>
+      <c r="C36" s="214"/>
+      <c r="D36" s="149"/>
+      <c r="E36" s="149"/>
+      <c r="F36" s="149"/>
+      <c r="G36" s="149"/>
+      <c r="H36" s="149"/>
+      <c r="I36" s="149"/>
+      <c r="J36" s="149"/>
+      <c r="K36" s="149"/>
+      <c r="L36" s="149"/>
+      <c r="M36" s="149"/>
     </row>
     <row r="37" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B37" s="94" t="str">
-        <f>"Total Liabilities"&amp;IF(C77+C82=0,"",IF(C37=C77+C82,""," Error"))</f>
-        <v>Total Liabilities</v>
-      </c>
-      <c r="C37" s="150"/>
-      <c r="D37" s="150"/>
-      <c r="E37" s="150"/>
-      <c r="F37" s="150"/>
-      <c r="G37" s="150"/>
-      <c r="H37" s="150"/>
-      <c r="I37" s="150"/>
-      <c r="J37" s="150"/>
-      <c r="K37" s="150"/>
-      <c r="L37" s="150"/>
-      <c r="M37" s="150"/>
+      <c r="B37" s="94" t="s">
+        <v>261</v>
+      </c>
+      <c r="C37" s="149">
+        <v>0</v>
+      </c>
+      <c r="D37" s="149"/>
+      <c r="E37" s="149"/>
+      <c r="F37" s="149"/>
+      <c r="G37" s="149"/>
+      <c r="H37" s="149"/>
+      <c r="I37" s="149"/>
+      <c r="J37" s="149"/>
+      <c r="K37" s="149"/>
+      <c r="L37" s="149"/>
+      <c r="M37" s="149"/>
     </row>
     <row r="38" spans="2:13" ht="13.9" hidden="1" x14ac:dyDescent="0.4">
       <c r="B38" s="94" t="s">
-        <v>264</v>
-      </c>
-      <c r="C38" s="217"/>
-      <c r="D38" s="150"/>
-      <c r="E38" s="150"/>
-      <c r="F38" s="150"/>
-      <c r="G38" s="150"/>
-      <c r="H38" s="150"/>
-      <c r="I38" s="150"/>
-      <c r="J38" s="150"/>
-      <c r="K38" s="150"/>
-      <c r="L38" s="150"/>
-      <c r="M38" s="150"/>
+        <v>262</v>
+      </c>
+      <c r="C38" s="214"/>
+      <c r="D38" s="149"/>
+      <c r="E38" s="149"/>
+      <c r="F38" s="149"/>
+      <c r="G38" s="149"/>
+      <c r="H38" s="149"/>
+      <c r="I38" s="149"/>
+      <c r="J38" s="149"/>
+      <c r="K38" s="149"/>
+      <c r="L38" s="149"/>
+      <c r="M38" s="149"/>
     </row>
     <row r="39" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B39" s="94" t="s">
         <v>17</v>
       </c>
-      <c r="C39" s="217"/>
-      <c r="D39" s="150"/>
-      <c r="E39" s="150"/>
-      <c r="F39" s="150"/>
-      <c r="G39" s="150"/>
-      <c r="H39" s="150"/>
-      <c r="I39" s="150"/>
-      <c r="J39" s="150"/>
-      <c r="K39" s="150"/>
-      <c r="L39" s="150"/>
-      <c r="M39" s="150"/>
+      <c r="C39" s="214"/>
+      <c r="D39" s="149"/>
+      <c r="E39" s="149"/>
+      <c r="F39" s="149"/>
+      <c r="G39" s="149"/>
+      <c r="H39" s="149"/>
+      <c r="I39" s="149"/>
+      <c r="J39" s="149"/>
+      <c r="K39" s="149"/>
+      <c r="L39" s="149"/>
+      <c r="M39" s="149"/>
     </row>
     <row r="40" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B40" s="94" t="s">
         <v>18</v>
       </c>
-      <c r="C40" s="217"/>
-      <c r="D40" s="150"/>
-      <c r="E40" s="150"/>
-      <c r="F40" s="150"/>
-      <c r="G40" s="150"/>
-      <c r="H40" s="150"/>
-      <c r="I40" s="150"/>
-      <c r="J40" s="150"/>
-      <c r="K40" s="150"/>
-      <c r="L40" s="150"/>
-      <c r="M40" s="150"/>
+      <c r="C40" s="214"/>
+      <c r="D40" s="149"/>
+      <c r="E40" s="149"/>
+      <c r="F40" s="149"/>
+      <c r="G40" s="149"/>
+      <c r="H40" s="149"/>
+      <c r="I40" s="149"/>
+      <c r="J40" s="149"/>
+      <c r="K40" s="149"/>
+      <c r="L40" s="149"/>
+      <c r="M40" s="149"/>
     </row>
     <row r="41" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B41" s="94" t="str">
-        <f>"Total Equity"&amp;IF(C83="","",IF(C41=Fin_Analysis!D3,""," Error"))</f>
-        <v>Total Equity</v>
-      </c>
-      <c r="C41" s="150"/>
-      <c r="D41" s="150"/>
-      <c r="E41" s="150"/>
-      <c r="F41" s="150"/>
-      <c r="G41" s="150"/>
-      <c r="H41" s="150"/>
-      <c r="I41" s="150"/>
-      <c r="J41" s="150"/>
-      <c r="K41" s="150"/>
-      <c r="L41" s="150"/>
-      <c r="M41" s="150"/>
+      <c r="B41" s="94" t="s">
+        <v>133</v>
+      </c>
+      <c r="C41" s="149">
+        <v>0</v>
+      </c>
+      <c r="D41" s="149"/>
+      <c r="E41" s="149"/>
+      <c r="F41" s="149"/>
+      <c r="G41" s="149"/>
+      <c r="H41" s="149"/>
+      <c r="I41" s="149"/>
+      <c r="J41" s="149"/>
+      <c r="K41" s="149"/>
+      <c r="L41" s="149"/>
+      <c r="M41" s="149"/>
     </row>
     <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B42" s="94" t="s">
         <v>134</v>
       </c>
-      <c r="C42" s="150"/>
-      <c r="D42" s="150"/>
-      <c r="E42" s="150"/>
-      <c r="F42" s="150"/>
-      <c r="G42" s="150"/>
-      <c r="H42" s="150"/>
-      <c r="I42" s="150"/>
-      <c r="J42" s="150"/>
-      <c r="K42" s="150"/>
-      <c r="L42" s="150"/>
-      <c r="M42" s="150"/>
+      <c r="C42" s="149">
+        <v>0</v>
+      </c>
+      <c r="D42" s="149"/>
+      <c r="E42" s="149"/>
+      <c r="F42" s="149"/>
+      <c r="G42" s="149"/>
+      <c r="H42" s="149"/>
+      <c r="I42" s="149"/>
+      <c r="J42" s="149"/>
+      <c r="K42" s="149"/>
+      <c r="L42" s="149"/>
+      <c r="M42" s="149"/>
     </row>
     <row r="43" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B43" s="94" t="s">
         <v>132</v>
       </c>
-      <c r="C43" s="217"/>
-      <c r="D43" s="150"/>
-      <c r="E43" s="150"/>
-      <c r="F43" s="150"/>
-      <c r="G43" s="150"/>
-      <c r="H43" s="150"/>
-      <c r="I43" s="150"/>
-      <c r="J43" s="150"/>
-      <c r="K43" s="150"/>
-      <c r="L43" s="150"/>
-      <c r="M43" s="150"/>
+      <c r="C43" s="214"/>
+      <c r="D43" s="149"/>
+      <c r="E43" s="149"/>
+      <c r="F43" s="149"/>
+      <c r="G43" s="149"/>
+      <c r="H43" s="149"/>
+      <c r="I43" s="149"/>
+      <c r="J43" s="149"/>
+      <c r="K43" s="149"/>
+      <c r="L43" s="149"/>
+      <c r="M43" s="149"/>
     </row>
     <row r="44" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B44" s="74" t="s">
         <v>194</v>
       </c>
-      <c r="C44" s="250">
+      <c r="C44" s="247">
         <f>0.5+0.3</f>
         <v>0.8</v>
       </c>
-      <c r="D44" s="250"/>
-      <c r="E44" s="250"/>
-      <c r="F44" s="250"/>
-      <c r="G44" s="250"/>
-      <c r="H44" s="250"/>
-      <c r="I44" s="250"/>
-      <c r="J44" s="250"/>
-      <c r="K44" s="250"/>
-      <c r="L44" s="250"/>
-      <c r="M44" s="250"/>
+      <c r="D44" s="247"/>
+      <c r="E44" s="247"/>
+      <c r="F44" s="247"/>
+      <c r="G44" s="247"/>
+      <c r="H44" s="247"/>
+      <c r="I44" s="247"/>
+      <c r="J44" s="247"/>
+      <c r="K44" s="247"/>
+      <c r="L44" s="247"/>
+      <c r="M44" s="247"/>
     </row>
     <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="74" t="s">
-        <v>237</v>
-      </c>
-      <c r="C45" s="152">
+        <v>236</v>
+      </c>
+      <c r="C45" s="151">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>2.3054755043227664E-2</v>
-      </c>
-      <c r="D45" s="152" t="str">
+        <v>2.3460410557184751E-2</v>
+      </c>
+      <c r="D45" s="151" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="E45" s="152" t="str">
+      <c r="E45" s="151" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="F45" s="152" t="str">
+      <c r="F45" s="151" t="str">
         <f>IF(F44="","",F44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="G45" s="152" t="str">
+      <c r="G45" s="151" t="str">
         <f>IF(G44="","",G44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="H45" s="152" t="str">
+      <c r="H45" s="151" t="str">
         <f>IF(H44="","",H44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="I45" s="152" t="str">
+      <c r="I45" s="151" t="str">
         <f>IF(I44="","",I44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="J45" s="152" t="str">
+      <c r="J45" s="151" t="str">
         <f>IF(J44="","",J44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="K45" s="152" t="str">
+      <c r="K45" s="151" t="str">
         <f>IF(K44="","",K44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="L45" s="152" t="str">
+      <c r="L45" s="151" t="str">
         <f>IF(L44="","",L44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="M45" s="152" t="str">
+      <c r="M45" s="151" t="str">
         <f>IF(M44="","",M44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
     </row>
     <row r="47" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B47" s="10" t="s">
-        <v>234</v>
-      </c>
-      <c r="C47" s="194" t="s">
+        <v>233</v>
+      </c>
+      <c r="C47" s="193" t="s">
         <v>31</v>
       </c>
-      <c r="D47" s="194" t="s">
+      <c r="D47" s="193" t="s">
         <v>183</v>
       </c>
       <c r="E47" s="111" t="s">
@@ -3498,7 +3510,7 @@
     </row>
     <row r="54" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B54" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C54" s="59"/>
       <c r="D54" s="60">
@@ -3526,7 +3538,7 @@
         <f>D50</f>
         <v>0.6</v>
       </c>
-      <c r="E56" s="221" t="s">
+      <c r="E56" s="218" t="s">
         <v>68</v>
       </c>
     </row>
@@ -3538,7 +3550,7 @@
       <c r="D57" s="60">
         <v>0.6</v>
       </c>
-      <c r="E57" s="221" t="s">
+      <c r="E57" s="218" t="s">
         <v>43</v>
       </c>
     </row>
@@ -3557,8 +3569,8 @@
       <c r="B59" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="C59" s="120"/>
-      <c r="D59" s="195">
+      <c r="C59" s="119"/>
+      <c r="D59" s="194">
         <f>D70</f>
         <v>0.05</v>
       </c>
@@ -3610,7 +3622,7 @@
     </row>
     <row r="64" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B64" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C64" s="59"/>
       <c r="D64" s="60">
@@ -3626,7 +3638,7 @@
       <c r="D65" s="60">
         <v>0.1</v>
       </c>
-      <c r="E65" s="221" t="s">
+      <c r="E65" s="218" t="s">
         <v>68</v>
       </c>
     </row>
@@ -3638,7 +3650,7 @@
       <c r="D66" s="60">
         <v>0.2</v>
       </c>
-      <c r="E66" s="221" t="s">
+      <c r="E66" s="218" t="s">
         <v>68</v>
       </c>
     </row>
@@ -3651,7 +3663,7 @@
         <f>D65</f>
         <v>0.1</v>
       </c>
-      <c r="E67" s="221" t="s">
+      <c r="E67" s="218" t="s">
         <v>43</v>
       </c>
     </row>
@@ -3699,14 +3711,14 @@
       <c r="E71" s="112"/>
     </row>
     <row r="72" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B72" s="246" t="s">
+      <c r="B72" s="243" t="s">
         <v>73</v>
       </c>
-      <c r="C72" s="247"/>
-      <c r="D72" s="248">
-        <v>0</v>
-      </c>
-      <c r="E72" s="249"/>
+      <c r="C72" s="244"/>
+      <c r="D72" s="245">
+        <v>0</v>
+      </c>
+      <c r="E72" s="246"/>
     </row>
     <row r="73" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B73" s="3" t="s">
@@ -3730,7 +3742,7 @@
       <c r="B76" s="86" t="s">
         <v>40</v>
       </c>
-      <c r="C76" s="120"/>
+      <c r="C76" s="119"/>
     </row>
     <row r="77" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B77" s="80" t="s">
@@ -3760,19 +3772,19 @@
       <c r="B81" s="86" t="s">
         <v>64</v>
       </c>
-      <c r="C81" s="120"/>
-    </row>
-    <row r="82" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C81" s="119"/>
+    </row>
+    <row r="82" spans="2:8" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B82" s="80" t="s">
-        <v>82</v>
-      </c>
-      <c r="C82" s="83"/>
-    </row>
-    <row r="83" spans="2:8" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
+        <v>266</v>
+      </c>
+      <c r="C82" s="214"/>
+    </row>
+    <row r="83" spans="2:8" ht="14.25" hidden="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B83" s="73" t="s">
-        <v>207</v>
-      </c>
-      <c r="C83" s="59"/>
+        <v>267</v>
+      </c>
+      <c r="C83" s="214"/>
     </row>
     <row r="84" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B84" s="20" t="s">
@@ -3788,20 +3800,20 @@
     </row>
     <row r="86" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B86" s="10" t="s">
-        <v>235</v>
-      </c>
-      <c r="C86" s="197">
+        <v>234</v>
+      </c>
+      <c r="C86" s="196">
         <v>5</v>
       </c>
     </row>
     <row r="87" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B87" s="10" t="s">
-        <v>233</v>
-      </c>
-      <c r="C87" s="236" t="s">
-        <v>236</v>
-      </c>
-      <c r="D87" s="269">
+        <v>232</v>
+      </c>
+      <c r="C87" s="233" t="s">
+        <v>235</v>
+      </c>
+      <c r="D87" s="266">
         <v>0.02</v>
       </c>
     </row>
@@ -3831,10 +3843,10 @@
         <v>98</v>
       </c>
       <c r="D90" s="284"/>
-      <c r="E90" s="235" t="s">
+      <c r="E90" s="232" t="s">
         <v>99</v>
       </c>
-      <c r="F90" s="255" t="s">
+      <c r="F90" s="252" t="s">
         <v>99</v>
       </c>
     </row>
@@ -3846,12 +3858,12 @@
         <f>C25</f>
         <v>35684253</v>
       </c>
-      <c r="D91" s="209"/>
-      <c r="E91" s="251">
+      <c r="D91" s="206"/>
+      <c r="E91" s="248">
         <f>C91</f>
         <v>35684253</v>
       </c>
-      <c r="F91" s="251">
+      <c r="F91" s="248">
         <f>C91</f>
         <v>35684253</v>
       </c>
@@ -3864,75 +3876,75 @@
         <f>C26</f>
         <v>16868997</v>
       </c>
-      <c r="D92" s="159">
+      <c r="D92" s="158">
         <f>C92/C91</f>
         <v>0.47272944175123971</v>
       </c>
-      <c r="E92" s="252">
+      <c r="E92" s="249">
         <f>E91*D92</f>
         <v>16868997</v>
       </c>
-      <c r="F92" s="252">
+      <c r="F92" s="249">
         <f>F91*D92</f>
         <v>16868997</v>
       </c>
     </row>
     <row r="93" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B93" s="104" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C93" s="77">
         <f>C27+C28</f>
         <v>12529703</v>
       </c>
-      <c r="D93" s="159">
+      <c r="D93" s="158">
         <f>C93/C91</f>
         <v>0.35112695227219692</v>
       </c>
-      <c r="E93" s="252">
+      <c r="E93" s="249">
         <f>E91*D93</f>
         <v>12529703</v>
       </c>
-      <c r="F93" s="252">
+      <c r="F93" s="249">
         <f>F91*D93</f>
         <v>12529703</v>
       </c>
     </row>
     <row r="94" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B94" s="104" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C94" s="77">
         <f>C29</f>
         <v>0</v>
       </c>
-      <c r="D94" s="159">
+      <c r="D94" s="158">
         <f>C94/C91</f>
         <v>0</v>
       </c>
-      <c r="E94" s="253"/>
-      <c r="F94" s="252">
+      <c r="E94" s="250"/>
+      <c r="F94" s="249">
         <f>F91*D94</f>
         <v>0</v>
       </c>
     </row>
     <row r="95" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B95" s="28" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C95" s="77">
         <f>ABS(MAX(C33,0)-C32)</f>
         <v>0</v>
       </c>
-      <c r="D95" s="159">
+      <c r="D95" s="158">
         <f>C95/C91</f>
         <v>0</v>
       </c>
-      <c r="E95" s="252">
+      <c r="E95" s="249">
         <f>E91*D95</f>
         <v>0</v>
       </c>
-      <c r="F95" s="252">
+      <c r="F95" s="249">
         <f>F91*D95</f>
         <v>0</v>
       </c>
@@ -3945,12 +3957,12 @@
         <f>MAX(C31,0)</f>
         <v>0</v>
       </c>
-      <c r="D96" s="159">
+      <c r="D96" s="158">
         <f>C96/C91</f>
         <v>0</v>
       </c>
-      <c r="E96" s="253"/>
-      <c r="F96" s="252">
+      <c r="E96" s="250"/>
+      <c r="F96" s="249">
         <f>F91*D96</f>
         <v>0</v>
       </c>
@@ -3963,12 +3975,12 @@
         <f>MAX(C30,0)/(1-C16)</f>
         <v>60156.862745098035</v>
       </c>
-      <c r="D97" s="159">
+      <c r="D97" s="158">
         <f>C97/C91</f>
         <v>1.6858097812807804E-3</v>
       </c>
-      <c r="E97" s="253"/>
-      <c r="F97" s="252">
+      <c r="E97" s="250"/>
+      <c r="F97" s="249">
         <f>F91*D97</f>
         <v>60156.862745098035</v>
       </c>
@@ -3977,16 +3989,16 @@
       <c r="B98" s="86" t="s">
         <v>194</v>
       </c>
-      <c r="C98" s="237">
+      <c r="C98" s="234">
         <f>C44</f>
         <v>0.8</v>
       </c>
-      <c r="D98" s="266"/>
-      <c r="E98" s="254">
+      <c r="D98" s="263"/>
+      <c r="E98" s="251">
         <f>F98</f>
         <v>0.5</v>
       </c>
-      <c r="F98" s="254">
+      <c r="F98" s="251">
         <v>0.5</v>
       </c>
       <c r="G98" s="1"/>
@@ -4066,7 +4078,7 @@
   <dimension ref="A1:J923"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4118,11 +4130,11 @@
       <c r="F3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="132">
-        <v>34.700000000000003</v>
-      </c>
-      <c r="H3" s="134" t="s">
-        <v>271</v>
+      <c r="G3" s="131">
+        <v>34.1</v>
+      </c>
+      <c r="H3" s="133" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4160,7 +4172,7 @@
       </c>
       <c r="G5" s="287">
         <f>G3*G4/1000000</f>
-        <v>151763.46758140004</v>
+        <v>149139.31540420002</v>
       </c>
       <c r="H5" s="287"/>
       <c r="I5" s="38"/>
@@ -4170,11 +4182,11 @@
       <c r="B6" s="87" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="185">
+      <c r="C6" s="184">
         <f>Inputs!C7</f>
         <v>8</v>
       </c>
-      <c r="D6" s="186">
+      <c r="D6" s="185">
         <f>EOMONTH(EDATE(Fin_Analysis!D9,C6),0)</f>
         <v>45716</v>
       </c>
@@ -4196,11 +4208,11 @@
       <c r="B7" s="86" t="s">
         <v>179</v>
       </c>
-      <c r="C7" s="187" t="str">
+      <c r="C7" s="186" t="str">
         <f>Inputs!C8</f>
         <v>N</v>
       </c>
-      <c r="D7" s="187" t="str">
+      <c r="D7" s="186" t="str">
         <f>Inputs!C9</f>
         <v>C0011</v>
       </c>
@@ -4208,7 +4220,7 @@
       <c r="F7" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="133">
+      <c r="G7" s="132">
         <v>1</v>
       </c>
       <c r="H7" s="71" t="str">
@@ -4218,10 +4230,10 @@
     </row>
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="139" t="s">
+      <c r="B9" s="138" t="s">
         <v>178</v>
       </c>
-      <c r="F9" s="143" t="s">
+      <c r="F9" s="142" t="s">
         <v>173</v>
       </c>
     </row>
@@ -4229,7 +4241,7 @@
       <c r="B10" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="C10" s="172">
+      <c r="C10" s="171">
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="F10" s="110" t="s">
@@ -4237,13 +4249,13 @@
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="122" t="s">
+      <c r="B11" s="121" t="s">
         <v>168</v>
       </c>
-      <c r="C11" s="173">
+      <c r="C11" s="172">
         <v>5.2299999999999999E-2</v>
       </c>
-      <c r="D11" s="137" t="s">
+      <c r="D11" s="136" t="s">
         <v>177</v>
       </c>
       <c r="F11" s="110" t="s">
@@ -4252,12 +4264,12 @@
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B12" s="87" t="s">
-        <v>238</v>
-      </c>
-      <c r="C12" s="174">
+        <v>237</v>
+      </c>
+      <c r="C12" s="173">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="D12" s="172">
+      <c r="D12" s="171">
         <v>8.0625000000000002E-2</v>
       </c>
       <c r="F12" s="110"/>
@@ -4267,7 +4279,7 @@
       <c r="B14" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="C14" s="172">
+      <c r="C14" s="171">
         <v>1.8100000000000002E-2</v>
       </c>
       <c r="F14" s="110" t="s">
@@ -4278,7 +4290,7 @@
       <c r="B15" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="C15" s="172">
+      <c r="C15" s="171">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="F15" s="110" t="s">
@@ -4286,13 +4298,13 @@
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="122" t="s">
+      <c r="B16" s="121" t="s">
         <v>175</v>
       </c>
-      <c r="C16" s="173">
+      <c r="C16" s="172">
         <v>0.16</v>
       </c>
-      <c r="D16" s="265" t="str">
+      <c r="D16" s="262" t="str">
         <f>Inputs!C15</f>
         <v>HK</v>
       </c>
@@ -4302,49 +4314,49 @@
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B17" s="87" t="s">
-        <v>239</v>
-      </c>
-      <c r="C17" s="175">
+        <v>238</v>
+      </c>
+      <c r="C17" s="174">
         <v>8.6249999999999993E-2</v>
       </c>
-      <c r="D17" s="176"/>
+      <c r="D17" s="175"/>
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="142" t="s">
-        <v>262</v>
-      </c>
-      <c r="C19" s="135" t="s">
+      <c r="B19" s="141" t="s">
+        <v>260</v>
+      </c>
+      <c r="C19" s="134" t="s">
         <v>49</v>
       </c>
       <c r="D19" s="87"/>
       <c r="E19" s="87"/>
-      <c r="F19" s="142" t="s">
+      <c r="F19" s="141" t="s">
         <v>199</v>
       </c>
       <c r="G19" s="87"/>
       <c r="H19" s="87"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="275" t="s">
-        <v>252</v>
-      </c>
-      <c r="C20" s="276" t="e">
+      <c r="B20" s="272" t="s">
+        <v>251</v>
+      </c>
+      <c r="C20" s="273" t="e">
         <f>C23*C22*(1/C21)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F20" s="87" t="s">
         <v>198</v>
       </c>
-      <c r="G20" s="172">
+      <c r="G20" s="171">
         <v>0.15</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B21" s="277" t="s">
-        <v>250</v>
-      </c>
-      <c r="C21" s="278" t="e">
+      <c r="B21" s="274" t="s">
+        <v>249</v>
+      </c>
+      <c r="C21" s="275" t="e">
         <f>Data!C53</f>
         <v>#DIV/0!</v>
       </c>
@@ -4352,79 +4364,79 @@
       <c r="G21" s="29"/>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="279" t="s">
-        <v>257</v>
-      </c>
-      <c r="C22" s="280" t="e">
+      <c r="B22" s="276" t="s">
+        <v>264</v>
+      </c>
+      <c r="C22" s="277" t="e">
         <f>Data!C48</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F22" s="142" t="s">
+      <c r="F22" s="141" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="281" t="s">
-        <v>258</v>
-      </c>
-      <c r="C23" s="282">
+      <c r="B23" s="278" t="s">
+        <v>256</v>
+      </c>
+      <c r="C23" s="279">
         <f>Data!C13</f>
         <v>0.17445779619528262</v>
       </c>
-      <c r="F23" s="140" t="s">
+      <c r="F23" s="139" t="s">
         <v>176</v>
       </c>
-      <c r="G23" s="177" t="e">
+      <c r="G23" s="176" t="e">
         <f>G3/(Data!C34*Data!C4/Common_Shares*Exchange_Rate)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B24" s="137" t="s">
-        <v>259</v>
-      </c>
-      <c r="C24" s="171">
+      <c r="B24" s="136" t="s">
+        <v>257</v>
+      </c>
+      <c r="C24" s="170">
         <f>Fin_Analysis!I81</f>
         <v>0</v>
       </c>
-      <c r="F24" s="140" t="s">
-        <v>243</v>
-      </c>
-      <c r="G24" s="268">
+      <c r="F24" s="139" t="s">
+        <v>242</v>
+      </c>
+      <c r="G24" s="265">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>31.86682636407161</v>
+        <v>31.315814957200054</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B25" s="137" t="s">
-        <v>260</v>
-      </c>
-      <c r="C25" s="171">
+      <c r="B25" s="136" t="s">
+        <v>258</v>
+      </c>
+      <c r="C25" s="170">
         <f>Fin_Analysis!I80</f>
         <v>0</v>
       </c>
-      <c r="F25" s="140" t="s">
+      <c r="F25" s="139" t="s">
         <v>163</v>
       </c>
-      <c r="G25" s="171">
+      <c r="G25" s="170">
         <f>Fin_Analysis!I88</f>
         <v>0.45917617239296266</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B26" s="138" t="s">
-        <v>261</v>
-      </c>
-      <c r="C26" s="171">
+      <c r="B26" s="137" t="s">
+        <v>259</v>
+      </c>
+      <c r="C26" s="170">
         <f>Fin_Analysis!I80+Fin_Analysis!I82</f>
         <v>0</v>
       </c>
-      <c r="F26" s="141" t="s">
+      <c r="F26" s="140" t="s">
         <v>180</v>
       </c>
-      <c r="G26" s="178">
+      <c r="G26" s="177">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>1.4409221902017291E-2</v>
+        <v>1.4662756598240468E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4441,10 +4453,10 @@
       </c>
       <c r="E28" s="58"/>
       <c r="F28" s="53" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G28" s="285" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H28" s="285"/>
     </row>
@@ -4452,22 +4464,22 @@
       <c r="B29" s="87" t="s">
         <v>161</v>
       </c>
-      <c r="C29" s="130">
+      <c r="C29" s="129">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>8.8585657995580522</v>
-      </c>
-      <c r="D29" s="129">
+        <v>8.8823034385738087</v>
+      </c>
+      <c r="D29" s="128">
         <f>G29*(1+G20)</f>
-        <v>16.358989689491491</v>
+        <v>16.402825655797798</v>
       </c>
       <c r="E29" s="87"/>
-      <c r="F29" s="131">
+      <c r="F29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>10.42184211712712</v>
+        <v>10.449768751263305</v>
       </c>
       <c r="G29" s="286">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>14.225208425644775</v>
+        <v>14.263326657215478</v>
       </c>
       <c r="H29" s="286"/>
     </row>
@@ -4475,23 +4487,23 @@
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="5"/>
       <c r="B31" s="6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C31"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32"/>
-      <c r="B32" s="196" t="s">
-        <v>210</v>
-      </c>
-      <c r="C32" s="224"/>
+      <c r="B32" s="195" t="s">
+        <v>209</v>
+      </c>
+      <c r="C32" s="221"/>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33"/>
       <c r="B33" s="20" t="s">
-        <v>211</v>
-      </c>
-      <c r="C33" s="245" t="str">
+        <v>210</v>
+      </c>
+      <c r="C33" s="242" t="str">
         <f>Inputs!C17</f>
         <v>agree</v>
       </c>
@@ -4499,9 +4511,9 @@
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34"/>
       <c r="B34" s="19" t="s">
-        <v>212</v>
-      </c>
-      <c r="C34" s="225" t="e">
+        <v>211</v>
+      </c>
+      <c r="C34" s="222" t="e">
         <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C54&lt;0.8),"Strongly disagree",
 IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C54&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C54&lt;1.4),"agree","Strongly agree")))</f>
         <v>#DIV/0!</v>
@@ -4509,17 +4521,17 @@
     </row>
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35"/>
-      <c r="B35" s="196" t="s">
-        <v>213</v>
-      </c>
-      <c r="C35" s="224"/>
+      <c r="B35" s="195" t="s">
+        <v>212</v>
+      </c>
+      <c r="C35" s="221"/>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
-        <v>225</v>
-      </c>
-      <c r="C36" s="245" t="str">
+        <v>224</v>
+      </c>
+      <c r="C36" s="242" t="str">
         <f>Inputs!C18</f>
         <v>unclear</v>
       </c>
@@ -4527,26 +4539,26 @@
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37"/>
       <c r="B37" s="20" t="s">
-        <v>226</v>
-      </c>
-      <c r="C37" s="245" t="str">
+        <v>225</v>
+      </c>
+      <c r="C37" s="242" t="str">
         <f>Inputs!C19</f>
         <v>agree</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38"/>
-      <c r="B38" s="196" t="s">
-        <v>214</v>
-      </c>
-      <c r="C38" s="224"/>
+      <c r="B38" s="195" t="s">
+        <v>213</v>
+      </c>
+      <c r="C38" s="221"/>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39"/>
       <c r="B39" s="19" t="s">
-        <v>215</v>
-      </c>
-      <c r="C39" s="245" t="str">
+        <v>214</v>
+      </c>
+      <c r="C39" s="242" t="str">
         <f>Inputs!C20</f>
         <v>agree</v>
       </c>
@@ -4554,9 +4566,9 @@
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40"/>
       <c r="B40" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="C40" s="245" t="str">
+        <v>217</v>
+      </c>
+      <c r="C40" s="242" t="str">
         <f>Inputs!C21</f>
         <v>unclear</v>
       </c>
@@ -4569,16 +4581,16 @@
     <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="5"/>
       <c r="B42" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C42"/>
     </row>
     <row r="43" spans="1:3" ht="65.650000000000006" x14ac:dyDescent="0.4">
       <c r="A43"/>
-      <c r="B43" s="226" t="s">
-        <v>217</v>
-      </c>
-      <c r="C43" s="244" t="str">
+      <c r="B43" s="223" t="s">
+        <v>216</v>
+      </c>
+      <c r="C43" s="241" t="str">
         <f>Inputs!C22</f>
         <v>Consumer Monopoly</v>
       </c>
@@ -5530,10 +5542,10 @@
   </sheetPr>
   <dimension ref="A1:N930"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="D36" sqref="D36"/>
+      <selection pane="topRight" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5559,16 +5571,16 @@
       </c>
       <c r="C2" s="18"/>
       <c r="D2" s="17"/>
-      <c r="E2" s="148" t="s">
+      <c r="E2" s="147" t="s">
         <v>186</v>
       </c>
-      <c r="F2" s="119" t="s">
+      <c r="F2" s="118" t="s">
         <v>189</v>
       </c>
-      <c r="G2" s="148" t="s">
+      <c r="G2" s="147" t="s">
         <v>190</v>
       </c>
-      <c r="H2" s="147" t="s">
+      <c r="H2" s="146" t="s">
         <v>191</v>
       </c>
       <c r="I2" s="7"/>
@@ -5582,11 +5594,11 @@
       <c r="B3" s="103" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="201">
+      <c r="C3" s="200">
         <f>Inputs!C12</f>
         <v>45291</v>
       </c>
-      <c r="E3" s="146" t="s">
+      <c r="E3" s="145" t="s">
         <v>187</v>
       </c>
       <c r="F3" s="85" t="str">
@@ -5611,7 +5623,7 @@
       <c r="B4" s="103" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="128">
+      <c r="C4" s="127">
         <f>Inputs!C13</f>
         <v>1000</v>
       </c>
@@ -5619,7 +5631,7 @@
         <f>Dashboard!G6</f>
         <v>HKD</v>
       </c>
-      <c r="E4" s="146" t="s">
+      <c r="E4" s="145" t="s">
         <v>188</v>
       </c>
       <c r="F4" s="93" t="e">
@@ -5683,47 +5695,47 @@
       <c r="B6" s="94" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="200">
+      <c r="C6" s="199">
         <f>IF(Inputs!C25=""," ",Inputs!C25)</f>
         <v>35684253</v>
       </c>
-      <c r="D6" s="200">
+      <c r="D6" s="199">
         <f>IF(Inputs!D25="","",Inputs!D25)</f>
         <v>11473793</v>
       </c>
-      <c r="E6" s="200" t="str">
+      <c r="E6" s="199" t="str">
         <f>IF(Inputs!E25="","",Inputs!E25)</f>
         <v/>
       </c>
-      <c r="F6" s="200" t="str">
+      <c r="F6" s="199" t="str">
         <f>IF(Inputs!F25="","",Inputs!F25)</f>
         <v/>
       </c>
-      <c r="G6" s="200" t="str">
+      <c r="G6" s="199" t="str">
         <f>IF(Inputs!G25="","",Inputs!G25)</f>
         <v/>
       </c>
-      <c r="H6" s="200" t="str">
+      <c r="H6" s="199" t="str">
         <f>IF(Inputs!H25="","",Inputs!H25)</f>
         <v/>
       </c>
-      <c r="I6" s="200" t="str">
+      <c r="I6" s="199" t="str">
         <f>IF(Inputs!I25="","",Inputs!I25)</f>
         <v/>
       </c>
-      <c r="J6" s="200" t="str">
+      <c r="J6" s="199" t="str">
         <f>IF(Inputs!J25="","",Inputs!J25)</f>
         <v/>
       </c>
-      <c r="K6" s="200" t="str">
+      <c r="K6" s="199" t="str">
         <f>IF(Inputs!K25="","",Inputs!K25)</f>
         <v/>
       </c>
-      <c r="L6" s="200" t="str">
+      <c r="L6" s="199" t="str">
         <f>IF(Inputs!L25="","",Inputs!L25)</f>
         <v/>
       </c>
-      <c r="M6" s="200" t="str">
+      <c r="M6" s="199" t="str">
         <f>IF(Inputs!M25="","",Inputs!M25)</f>
         <v/>
       </c>
@@ -5785,47 +5797,47 @@
       <c r="B8" s="97" t="s">
         <v>103</v>
       </c>
-      <c r="C8" s="199">
+      <c r="C8" s="198">
         <f>IF(Inputs!C26="","",Inputs!C26)</f>
         <v>16868997</v>
       </c>
-      <c r="D8" s="199">
+      <c r="D8" s="198">
         <f>IF(Inputs!D26="","",Inputs!D26)</f>
         <v>6522891</v>
       </c>
-      <c r="E8" s="199" t="str">
+      <c r="E8" s="198" t="str">
         <f>IF(Inputs!E26="","",Inputs!E26)</f>
         <v/>
       </c>
-      <c r="F8" s="199" t="str">
+      <c r="F8" s="198" t="str">
         <f>IF(Inputs!F26="","",Inputs!F26)</f>
         <v/>
       </c>
-      <c r="G8" s="199" t="str">
+      <c r="G8" s="198" t="str">
         <f>IF(Inputs!G26="","",Inputs!G26)</f>
         <v/>
       </c>
-      <c r="H8" s="199" t="str">
+      <c r="H8" s="198" t="str">
         <f>IF(Inputs!H26="","",Inputs!H26)</f>
         <v/>
       </c>
-      <c r="I8" s="199" t="str">
+      <c r="I8" s="198" t="str">
         <f>IF(Inputs!I26="","",Inputs!I26)</f>
         <v/>
       </c>
-      <c r="J8" s="199" t="str">
+      <c r="J8" s="198" t="str">
         <f>IF(Inputs!J26="","",Inputs!J26)</f>
         <v/>
       </c>
-      <c r="K8" s="199" t="str">
+      <c r="K8" s="198" t="str">
         <f>IF(Inputs!K26="","",Inputs!K26)</f>
         <v/>
       </c>
-      <c r="L8" s="199" t="str">
+      <c r="L8" s="198" t="str">
         <f>IF(Inputs!L26="","",Inputs!L26)</f>
         <v/>
       </c>
-      <c r="M8" s="199" t="str">
+      <c r="M8" s="198" t="str">
         <f>IF(Inputs!M26="","",Inputs!M26)</f>
         <v/>
       </c>
@@ -5836,47 +5848,47 @@
       <c r="B9" s="98" t="s">
         <v>100</v>
       </c>
-      <c r="C9" s="151">
+      <c r="C9" s="150">
         <f t="shared" ref="C9:M9" si="2">IF(C6="","",(C6-C8))</f>
         <v>18815256</v>
       </c>
-      <c r="D9" s="151">
+      <c r="D9" s="150">
         <f t="shared" si="2"/>
         <v>4950902</v>
       </c>
-      <c r="E9" s="151" t="str">
+      <c r="E9" s="150" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="F9" s="151" t="str">
+      <c r="F9" s="150" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G9" s="151" t="str">
+      <c r="G9" s="150" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="H9" s="151" t="str">
+      <c r="H9" s="150" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I9" s="151" t="str">
+      <c r="I9" s="150" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="J9" s="151" t="str">
+      <c r="J9" s="150" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="K9" s="151" t="str">
+      <c r="K9" s="150" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L9" s="151" t="str">
+      <c r="L9" s="150" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="M9" s="151" t="str">
+      <c r="M9" s="150" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -5887,47 +5899,47 @@
       <c r="B10" s="97" t="s">
         <v>101</v>
       </c>
-      <c r="C10" s="199">
+      <c r="C10" s="198">
         <f>IF(Inputs!C27="","",Inputs!C27)</f>
         <v>12529703</v>
       </c>
-      <c r="D10" s="199">
+      <c r="D10" s="198">
         <f>IF(Inputs!D27="","",Inputs!D27)</f>
         <v>8392476</v>
       </c>
-      <c r="E10" s="199" t="str">
+      <c r="E10" s="198" t="str">
         <f>IF(Inputs!E27="","",Inputs!E27)</f>
         <v/>
       </c>
-      <c r="F10" s="199" t="str">
+      <c r="F10" s="198" t="str">
         <f>IF(Inputs!F27="","",Inputs!F27)</f>
         <v/>
       </c>
-      <c r="G10" s="199" t="str">
+      <c r="G10" s="198" t="str">
         <f>IF(Inputs!G27="","",Inputs!G27)</f>
         <v/>
       </c>
-      <c r="H10" s="199" t="str">
+      <c r="H10" s="198" t="str">
         <f>IF(Inputs!H27="","",Inputs!H27)</f>
         <v/>
       </c>
-      <c r="I10" s="199" t="str">
+      <c r="I10" s="198" t="str">
         <f>IF(Inputs!I27="","",Inputs!I27)</f>
         <v/>
       </c>
-      <c r="J10" s="199" t="str">
+      <c r="J10" s="198" t="str">
         <f>IF(Inputs!J27="","",Inputs!J27)</f>
         <v/>
       </c>
-      <c r="K10" s="199" t="str">
+      <c r="K10" s="198" t="str">
         <f>IF(Inputs!K27="","",Inputs!K27)</f>
         <v/>
       </c>
-      <c r="L10" s="199" t="str">
+      <c r="L10" s="198" t="str">
         <f>IF(Inputs!L27="","",Inputs!L27)</f>
         <v/>
       </c>
-      <c r="M10" s="199" t="str">
+      <c r="M10" s="198" t="str">
         <f>IF(Inputs!M27="","",Inputs!M27)</f>
         <v/>
       </c>
@@ -5938,47 +5950,47 @@
       <c r="B11" s="97" t="s">
         <v>104</v>
       </c>
-      <c r="C11" s="199" t="str">
+      <c r="C11" s="198" t="str">
         <f>IF(Inputs!C28="","",Inputs!C28)</f>
         <v/>
       </c>
-      <c r="D11" s="199" t="str">
+      <c r="D11" s="198" t="str">
         <f>IF(Inputs!D28="","",Inputs!D28)</f>
         <v/>
       </c>
-      <c r="E11" s="199" t="str">
+      <c r="E11" s="198" t="str">
         <f>IF(Inputs!E28="","",Inputs!E28)</f>
         <v/>
       </c>
-      <c r="F11" s="199" t="str">
+      <c r="F11" s="198" t="str">
         <f>IF(Inputs!F28="","",Inputs!F28)</f>
         <v/>
       </c>
-      <c r="G11" s="199" t="str">
+      <c r="G11" s="198" t="str">
         <f>IF(Inputs!G28="","",Inputs!G28)</f>
         <v/>
       </c>
-      <c r="H11" s="199" t="str">
+      <c r="H11" s="198" t="str">
         <f>IF(Inputs!H28="","",Inputs!H28)</f>
         <v/>
       </c>
-      <c r="I11" s="199" t="str">
+      <c r="I11" s="198" t="str">
         <f>IF(Inputs!I28="","",Inputs!I28)</f>
         <v/>
       </c>
-      <c r="J11" s="199" t="str">
+      <c r="J11" s="198" t="str">
         <f>IF(Inputs!J28="","",Inputs!J28)</f>
         <v/>
       </c>
-      <c r="K11" s="199" t="str">
+      <c r="K11" s="198" t="str">
         <f>IF(Inputs!K28="","",Inputs!K28)</f>
         <v/>
       </c>
-      <c r="L11" s="199" t="str">
+      <c r="L11" s="198" t="str">
         <f>IF(Inputs!L28="","",Inputs!L28)</f>
         <v/>
       </c>
-      <c r="M11" s="199" t="str">
+      <c r="M11" s="198" t="str">
         <f>IF(Inputs!M28="","",Inputs!M28)</f>
         <v/>
       </c>
@@ -5987,49 +5999,49 @@
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
       <c r="B12" s="99" t="s">
-        <v>227</v>
-      </c>
-      <c r="C12" s="199">
+        <v>226</v>
+      </c>
+      <c r="C12" s="198">
         <f>IF(Inputs!C30="","",MAX(Inputs!C30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>60156.862745098035</v>
       </c>
-      <c r="D12" s="199">
+      <c r="D12" s="198">
         <f>IF(Inputs!D30="","",MAX(Inputs!D30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>0</v>
       </c>
-      <c r="E12" s="199" t="str">
+      <c r="E12" s="198" t="str">
         <f>IF(Inputs!E30="","",MAX(Inputs!E30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="F12" s="199" t="str">
+      <c r="F12" s="198" t="str">
         <f>IF(Inputs!F30="","",MAX(Inputs!F30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="G12" s="199" t="str">
+      <c r="G12" s="198" t="str">
         <f>IF(Inputs!G30="","",MAX(Inputs!G30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="H12" s="199" t="str">
+      <c r="H12" s="198" t="str">
         <f>IF(Inputs!H30="","",MAX(Inputs!H30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="I12" s="199" t="str">
+      <c r="I12" s="198" t="str">
         <f>IF(Inputs!I30="","",MAX(Inputs!I30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="J12" s="199" t="str">
+      <c r="J12" s="198" t="str">
         <f>IF(Inputs!J30="","",MAX(Inputs!J30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="K12" s="199" t="str">
+      <c r="K12" s="198" t="str">
         <f>IF(Inputs!K30="","",MAX(Inputs!K30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="L12" s="199" t="str">
+      <c r="L12" s="198" t="str">
         <f>IF(Inputs!L30="","",MAX(Inputs!L30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="M12" s="199" t="str">
+      <c r="M12" s="198" t="str">
         <f>IF(Inputs!M30="","",MAX(Inputs!M30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
@@ -6037,50 +6049,50 @@
     </row>
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
-      <c r="B13" s="228" t="s">
-        <v>228</v>
-      </c>
-      <c r="C13" s="229">
+      <c r="B13" s="225" t="s">
+        <v>227</v>
+      </c>
+      <c r="C13" s="226">
         <f t="shared" ref="C13:M13" si="3">IF(C14="","",C14/C6)</f>
         <v>0.17445779619528262</v>
       </c>
-      <c r="D13" s="229">
+      <c r="D13" s="226">
         <f t="shared" si="3"/>
         <v>-0.29995085321828624</v>
       </c>
-      <c r="E13" s="229" t="str">
+      <c r="E13" s="226" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F13" s="229" t="str">
+      <c r="F13" s="226" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="G13" s="229" t="str">
+      <c r="G13" s="226" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="H13" s="229" t="str">
+      <c r="H13" s="226" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="I13" s="229" t="str">
+      <c r="I13" s="226" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="J13" s="229" t="str">
+      <c r="J13" s="226" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="K13" s="229" t="str">
+      <c r="K13" s="226" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="L13" s="229" t="str">
+      <c r="L13" s="226" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="M13" s="229" t="str">
+      <c r="M13" s="226" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -6088,50 +6100,50 @@
     </row>
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
-      <c r="B14" s="228" t="s">
-        <v>220</v>
-      </c>
-      <c r="C14" s="230">
+      <c r="B14" s="225" t="s">
+        <v>219</v>
+      </c>
+      <c r="C14" s="227">
         <f>IF(C6="","",C9-C10-MAX(C11,0)-MAX(C12,0))</f>
         <v>6225396.1372549022</v>
       </c>
-      <c r="D14" s="230">
+      <c r="D14" s="227">
         <f t="shared" ref="D14:M14" si="4">IF(D6="","",D9-D10-MAX(D11,0)-MAX(D12,0))</f>
         <v>-3441574</v>
       </c>
-      <c r="E14" s="230" t="str">
+      <c r="E14" s="227" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="F14" s="230" t="str">
+      <c r="F14" s="227" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G14" s="230" t="str">
+      <c r="G14" s="227" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="H14" s="230" t="str">
+      <c r="H14" s="227" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="I14" s="230" t="str">
+      <c r="I14" s="227" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="J14" s="230" t="str">
+      <c r="J14" s="227" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="K14" s="230" t="str">
+      <c r="K14" s="227" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="L14" s="230" t="str">
+      <c r="L14" s="227" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="M14" s="230" t="str">
+      <c r="M14" s="227" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -6139,50 +6151,50 @@
     </row>
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
-      <c r="B15" s="231" t="s">
-        <v>229</v>
-      </c>
-      <c r="C15" s="232" t="str">
+      <c r="B15" s="228" t="s">
+        <v>228</v>
+      </c>
+      <c r="C15" s="229" t="str">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
         <v>Turn</v>
       </c>
-      <c r="D15" s="232" t="str">
+      <c r="D15" s="229" t="str">
         <f t="shared" ref="D15:M15" si="5">IF(E14="","",IF(ABS(D14+E14)=ABS(D14)+ABS(E14),IF(D14&lt;0,-1,1)*(D14-E14)/E14,"Turn"))</f>
         <v/>
       </c>
-      <c r="E15" s="232" t="str">
+      <c r="E15" s="229" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="F15" s="232" t="str">
+      <c r="F15" s="229" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="G15" s="232" t="str">
+      <c r="G15" s="229" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="H15" s="232" t="str">
+      <c r="H15" s="229" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I15" s="232" t="str">
+      <c r="I15" s="229" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="J15" s="232" t="str">
+      <c r="J15" s="229" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="K15" s="232" t="str">
+      <c r="K15" s="229" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="L15" s="232" t="str">
+      <c r="L15" s="229" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="M15" s="232" t="str">
+      <c r="M15" s="229" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
@@ -6193,47 +6205,47 @@
       <c r="B16" s="97" t="s">
         <v>107</v>
       </c>
-      <c r="C16" s="199" t="str">
+      <c r="C16" s="198" t="str">
         <f>IF(Inputs!C31="","",Inputs!C31)</f>
         <v/>
       </c>
-      <c r="D16" s="199" t="str">
+      <c r="D16" s="198" t="str">
         <f>IF(Inputs!D31="","",Inputs!D31)</f>
         <v/>
       </c>
-      <c r="E16" s="199" t="str">
+      <c r="E16" s="198" t="str">
         <f>IF(Inputs!E31="","",Inputs!E31)</f>
         <v/>
       </c>
-      <c r="F16" s="199" t="str">
+      <c r="F16" s="198" t="str">
         <f>IF(Inputs!F31="","",Inputs!F31)</f>
         <v/>
       </c>
-      <c r="G16" s="199" t="str">
+      <c r="G16" s="198" t="str">
         <f>IF(Inputs!G31="","",Inputs!G31)</f>
         <v/>
       </c>
-      <c r="H16" s="199" t="str">
+      <c r="H16" s="198" t="str">
         <f>IF(Inputs!H31="","",Inputs!H31)</f>
         <v/>
       </c>
-      <c r="I16" s="199" t="str">
+      <c r="I16" s="198" t="str">
         <f>IF(Inputs!I31="","",Inputs!I31)</f>
         <v/>
       </c>
-      <c r="J16" s="199" t="str">
+      <c r="J16" s="198" t="str">
         <f>IF(Inputs!J31="","",Inputs!J31)</f>
         <v/>
       </c>
-      <c r="K16" s="199" t="str">
+      <c r="K16" s="198" t="str">
         <f>IF(Inputs!K31="","",Inputs!K31)</f>
         <v/>
       </c>
-      <c r="L16" s="199" t="str">
+      <c r="L16" s="198" t="str">
         <f>IF(Inputs!L31="","",Inputs!L31)</f>
         <v/>
       </c>
-      <c r="M16" s="199" t="str">
+      <c r="M16" s="198" t="str">
         <f>IF(Inputs!M31="","",Inputs!M31)</f>
         <v/>
       </c>
@@ -6242,49 +6254,49 @@
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
       <c r="B17" s="97" t="s">
-        <v>241</v>
-      </c>
-      <c r="C17" s="199" t="str">
+        <v>240</v>
+      </c>
+      <c r="C17" s="198" t="str">
         <f>IF(Inputs!C29="","",Inputs!C29)</f>
         <v/>
       </c>
-      <c r="D17" s="199" t="str">
+      <c r="D17" s="198" t="str">
         <f>IF(Inputs!D29="","",Inputs!D29)</f>
         <v/>
       </c>
-      <c r="E17" s="199" t="str">
+      <c r="E17" s="198" t="str">
         <f>IF(Inputs!E29="","",Inputs!E29)</f>
         <v/>
       </c>
-      <c r="F17" s="199" t="str">
+      <c r="F17" s="198" t="str">
         <f>IF(Inputs!F29="","",Inputs!F29)</f>
         <v/>
       </c>
-      <c r="G17" s="199" t="str">
+      <c r="G17" s="198" t="str">
         <f>IF(Inputs!G29="","",Inputs!G29)</f>
         <v/>
       </c>
-      <c r="H17" s="199" t="str">
+      <c r="H17" s="198" t="str">
         <f>IF(Inputs!H29="","",Inputs!H29)</f>
         <v/>
       </c>
-      <c r="I17" s="199" t="str">
+      <c r="I17" s="198" t="str">
         <f>IF(Inputs!I29="","",Inputs!I29)</f>
         <v/>
       </c>
-      <c r="J17" s="199" t="str">
+      <c r="J17" s="198" t="str">
         <f>IF(Inputs!J29="","",Inputs!J29)</f>
         <v/>
       </c>
-      <c r="K17" s="199" t="str">
+      <c r="K17" s="198" t="str">
         <f>IF(Inputs!K29="","",Inputs!K29)</f>
         <v/>
       </c>
-      <c r="L17" s="199" t="str">
+      <c r="L17" s="198" t="str">
         <f>IF(Inputs!L29="","",Inputs!L29)</f>
         <v/>
       </c>
-      <c r="M17" s="199" t="str">
+      <c r="M17" s="198" t="str">
         <f>IF(Inputs!M29="","",Inputs!M29)</f>
         <v/>
       </c>
@@ -6295,47 +6307,47 @@
       <c r="B18" s="94" t="s">
         <v>96</v>
       </c>
-      <c r="C18" s="152" t="str">
+      <c r="C18" s="151" t="str">
         <f t="shared" ref="C18:M18" si="6">IF(OR(C6="",C19=""),"",C19/C6)</f>
         <v/>
       </c>
-      <c r="D18" s="152" t="str">
+      <c r="D18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="E18" s="152" t="str">
+      <c r="E18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="F18" s="152" t="str">
+      <c r="F18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="G18" s="152" t="str">
+      <c r="G18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="H18" s="152" t="str">
+      <c r="H18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="I18" s="152" t="str">
+      <c r="I18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="J18" s="152" t="str">
+      <c r="J18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="K18" s="152" t="str">
+      <c r="K18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="L18" s="152" t="str">
+      <c r="L18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="M18" s="152" t="str">
+      <c r="M18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
@@ -6346,47 +6358,47 @@
       <c r="B19" s="97" t="s">
         <v>102</v>
       </c>
-      <c r="C19" s="199" t="str">
+      <c r="C19" s="198" t="str">
         <f>IF(Inputs!C32="","",Inputs!C32)</f>
         <v/>
       </c>
-      <c r="D19" s="199" t="str">
+      <c r="D19" s="198" t="str">
         <f>IF(Inputs!D32="","",Inputs!D32)</f>
         <v/>
       </c>
-      <c r="E19" s="199" t="str">
+      <c r="E19" s="198" t="str">
         <f>IF(Inputs!E32="","",Inputs!E32)</f>
         <v/>
       </c>
-      <c r="F19" s="199" t="str">
+      <c r="F19" s="198" t="str">
         <f>IF(Inputs!F32="","",Inputs!F32)</f>
         <v/>
       </c>
-      <c r="G19" s="199" t="str">
+      <c r="G19" s="198" t="str">
         <f>IF(Inputs!G32="","",Inputs!G32)</f>
         <v/>
       </c>
-      <c r="H19" s="199" t="str">
+      <c r="H19" s="198" t="str">
         <f>IF(Inputs!H32="","",Inputs!H32)</f>
         <v/>
       </c>
-      <c r="I19" s="199" t="str">
+      <c r="I19" s="198" t="str">
         <f>IF(Inputs!I32="","",Inputs!I32)</f>
         <v/>
       </c>
-      <c r="J19" s="199" t="str">
+      <c r="J19" s="198" t="str">
         <f>IF(Inputs!J32="","",Inputs!J32)</f>
         <v/>
       </c>
-      <c r="K19" s="199" t="str">
+      <c r="K19" s="198" t="str">
         <f>IF(Inputs!K32="","",Inputs!K32)</f>
         <v/>
       </c>
-      <c r="L19" s="199" t="str">
+      <c r="L19" s="198" t="str">
         <f>IF(Inputs!L32="","",Inputs!L32)</f>
         <v/>
       </c>
-      <c r="M19" s="199" t="str">
+      <c r="M19" s="198" t="str">
         <f>IF(Inputs!M32="","",Inputs!M32)</f>
         <v/>
       </c>
@@ -6395,49 +6407,49 @@
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
       <c r="B20" s="97" t="s">
-        <v>222</v>
-      </c>
-      <c r="C20" s="152">
+        <v>221</v>
+      </c>
+      <c r="C20" s="151">
         <f t="shared" ref="C20:M20" si="7">IF(C6="","",MAX(C21,0)/C6)</f>
         <v>0</v>
       </c>
-      <c r="D20" s="152">
+      <c r="D20" s="151">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="E20" s="152" t="str">
+      <c r="E20" s="151" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="F20" s="152" t="str">
+      <c r="F20" s="151" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="G20" s="152" t="str">
+      <c r="G20" s="151" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="H20" s="152" t="str">
+      <c r="H20" s="151" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="I20" s="152" t="str">
+      <c r="I20" s="151" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="J20" s="152" t="str">
+      <c r="J20" s="151" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="K20" s="152" t="str">
+      <c r="K20" s="151" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="L20" s="152" t="str">
+      <c r="L20" s="151" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="M20" s="152" t="str">
+      <c r="M20" s="151" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
@@ -6448,47 +6460,47 @@
       <c r="B21" s="97" t="s">
         <v>105</v>
       </c>
-      <c r="C21" s="199" t="str">
+      <c r="C21" s="198" t="str">
         <f>IF(Inputs!C33="","",Inputs!C33)</f>
         <v/>
       </c>
-      <c r="D21" s="199" t="str">
+      <c r="D21" s="198" t="str">
         <f>IF(Inputs!D33="","",Inputs!D33)</f>
         <v/>
       </c>
-      <c r="E21" s="199" t="str">
+      <c r="E21" s="198" t="str">
         <f>IF(Inputs!E33="","",Inputs!E33)</f>
         <v/>
       </c>
-      <c r="F21" s="199" t="str">
+      <c r="F21" s="198" t="str">
         <f>IF(Inputs!F33="","",Inputs!F33)</f>
         <v/>
       </c>
-      <c r="G21" s="199" t="str">
+      <c r="G21" s="198" t="str">
         <f>IF(Inputs!G33="","",Inputs!G33)</f>
         <v/>
       </c>
-      <c r="H21" s="199" t="str">
+      <c r="H21" s="198" t="str">
         <f>IF(Inputs!H33="","",Inputs!H33)</f>
         <v/>
       </c>
-      <c r="I21" s="199" t="str">
+      <c r="I21" s="198" t="str">
         <f>IF(Inputs!I33="","",Inputs!I33)</f>
         <v/>
       </c>
-      <c r="J21" s="199" t="str">
+      <c r="J21" s="198" t="str">
         <f>IF(Inputs!J33="","",Inputs!J33)</f>
         <v/>
       </c>
-      <c r="K21" s="199" t="str">
+      <c r="K21" s="198" t="str">
         <f>IF(Inputs!K33="","",Inputs!K33)</f>
         <v/>
       </c>
-      <c r="L21" s="199" t="str">
+      <c r="L21" s="198" t="str">
         <f>IF(Inputs!L33="","",Inputs!L33)</f>
         <v/>
       </c>
-      <c r="M21" s="199" t="str">
+      <c r="M21" s="198" t="str">
         <f>IF(Inputs!M33="","",Inputs!M33)</f>
         <v/>
       </c>
@@ -6499,47 +6511,47 @@
       <c r="B22" s="98" t="s">
         <v>109</v>
       </c>
-      <c r="C22" s="161">
+      <c r="C22" s="160">
         <f>IF(C6="","",C14-MAX(C16,0)-MAX(C17,0)-ABS(MAX(C21,0)-MAX(C19,0)))</f>
         <v>6225396.1372549022</v>
       </c>
-      <c r="D22" s="161">
+      <c r="D22" s="160">
         <f t="shared" ref="D22:M22" si="8">IF(D6="","",D14-MAX(D16,0)-MAX(D17,0)-ABS(MAX(D21,0)-MAX(D19,0)))</f>
         <v>-3441574</v>
       </c>
-      <c r="E22" s="161" t="str">
+      <c r="E22" s="160" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="F22" s="161" t="str">
+      <c r="F22" s="160" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="G22" s="161" t="str">
+      <c r="G22" s="160" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="H22" s="161" t="str">
+      <c r="H22" s="160" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="I22" s="161" t="str">
+      <c r="I22" s="160" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="J22" s="161" t="str">
+      <c r="J22" s="160" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="K22" s="161" t="str">
+      <c r="K22" s="160" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="L22" s="161" t="str">
+      <c r="L22" s="160" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="M22" s="161" t="str">
+      <c r="M22" s="160" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
@@ -6550,47 +6562,47 @@
       <c r="B23" s="100" t="s">
         <v>110</v>
       </c>
-      <c r="C23" s="153">
+      <c r="C23" s="152">
         <f t="shared" ref="C23:M23" si="9">IF(C6="","",C24/C6)</f>
         <v>0.13346021408939118</v>
       </c>
-      <c r="D23" s="153">
+      <c r="D23" s="152">
         <f t="shared" si="9"/>
         <v>-0.22946240271198895</v>
       </c>
-      <c r="E23" s="153" t="str">
+      <c r="E23" s="152" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="F23" s="153" t="str">
+      <c r="F23" s="152" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="G23" s="153" t="str">
+      <c r="G23" s="152" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="H23" s="153" t="str">
+      <c r="H23" s="152" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="I23" s="153" t="str">
+      <c r="I23" s="152" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="J23" s="153" t="str">
+      <c r="J23" s="152" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="K23" s="153" t="str">
+      <c r="K23" s="152" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="L23" s="153" t="str">
+      <c r="L23" s="152" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="M23" s="153" t="str">
+      <c r="M23" s="152" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
@@ -6601,7 +6613,7 @@
       <c r="B24" s="101" t="s">
         <v>111</v>
       </c>
-      <c r="C24" s="154">
+      <c r="C24" s="153">
         <f>IF(C6="","",C22*(1-Fin_Analysis!$I$84))</f>
         <v>4762428.0449999999</v>
       </c>
@@ -6649,50 +6661,50 @@
     </row>
     <row r="25" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="4"/>
-      <c r="B25" s="234" t="s">
+      <c r="B25" s="231" t="s">
         <v>124</v>
       </c>
-      <c r="C25" s="233" t="str">
+      <c r="C25" s="230" t="str">
         <f>IF(D24="","",IF(ABS(C24+D24)=ABS(C24)+ABS(D24),IF(C24&lt;0,-1,1)*(C24-D24)/D24,"Turn"))</f>
         <v>Turn</v>
       </c>
-      <c r="D25" s="233" t="str">
+      <c r="D25" s="230" t="str">
         <f t="shared" ref="D25:M25" si="10">IF(E24="","",IF(ABS(D24+E24)=ABS(D24)+ABS(E24),IF(D24&lt;0,-1,1)*(D24-E24)/E24,"Turn"))</f>
         <v/>
       </c>
-      <c r="E25" s="233" t="str">
+      <c r="E25" s="230" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="F25" s="233" t="str">
+      <c r="F25" s="230" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="G25" s="233" t="str">
+      <c r="G25" s="230" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="H25" s="233" t="str">
+      <c r="H25" s="230" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="I25" s="233" t="str">
+      <c r="I25" s="230" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="J25" s="233" t="str">
+      <c r="J25" s="230" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="K25" s="233" t="str">
+      <c r="K25" s="230" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="L25" s="233" t="str">
+      <c r="L25" s="230" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="M25" s="233" t="str">
+      <c r="M25" s="230" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
@@ -6809,43 +6821,43 @@
         <f>Fin_Analysis!C13</f>
         <v>0</v>
       </c>
-      <c r="D28" s="199" t="str">
+      <c r="D28" s="198" t="str">
         <f>IF(Inputs!D35="","",Inputs!D35)</f>
         <v/>
       </c>
-      <c r="E28" s="199" t="str">
+      <c r="E28" s="198" t="str">
         <f>IF(Inputs!E35="","",Inputs!E35)</f>
         <v/>
       </c>
-      <c r="F28" s="199" t="str">
+      <c r="F28" s="198" t="str">
         <f>IF(Inputs!F35="","",Inputs!F35)</f>
         <v/>
       </c>
-      <c r="G28" s="199" t="str">
+      <c r="G28" s="198" t="str">
         <f>IF(Inputs!G35="","",Inputs!G35)</f>
         <v/>
       </c>
-      <c r="H28" s="199" t="str">
+      <c r="H28" s="198" t="str">
         <f>IF(Inputs!H35="","",Inputs!H35)</f>
         <v/>
       </c>
-      <c r="I28" s="199" t="str">
+      <c r="I28" s="198" t="str">
         <f>IF(Inputs!I35="","",Inputs!I35)</f>
         <v/>
       </c>
-      <c r="J28" s="199" t="str">
+      <c r="J28" s="198" t="str">
         <f>IF(Inputs!J35="","",Inputs!J35)</f>
         <v/>
       </c>
-      <c r="K28" s="199" t="str">
+      <c r="K28" s="198" t="str">
         <f>IF(Inputs!K35="","",Inputs!K35)</f>
         <v/>
       </c>
-      <c r="L28" s="199" t="str">
+      <c r="L28" s="198" t="str">
         <f>IF(Inputs!L35="","",Inputs!L35)</f>
         <v/>
       </c>
-      <c r="M28" s="199" t="str">
+      <c r="M28" s="198" t="str">
         <f>IF(Inputs!M35="","",Inputs!M35)</f>
         <v/>
       </c>
@@ -6860,43 +6872,43 @@
         <f>Fin_Analysis!C18</f>
         <v>0</v>
       </c>
-      <c r="D29" s="199" t="str">
+      <c r="D29" s="198" t="str">
         <f>IF(Inputs!D36="","",Inputs!D36)</f>
         <v/>
       </c>
-      <c r="E29" s="199" t="str">
+      <c r="E29" s="198" t="str">
         <f>IF(Inputs!E36="","",Inputs!E36)</f>
         <v/>
       </c>
-      <c r="F29" s="199" t="str">
+      <c r="F29" s="198" t="str">
         <f>IF(Inputs!F36="","",Inputs!F36)</f>
         <v/>
       </c>
-      <c r="G29" s="199" t="str">
+      <c r="G29" s="198" t="str">
         <f>IF(Inputs!G36="","",Inputs!G36)</f>
         <v/>
       </c>
-      <c r="H29" s="199" t="str">
+      <c r="H29" s="198" t="str">
         <f>IF(Inputs!H36="","",Inputs!H36)</f>
         <v/>
       </c>
-      <c r="I29" s="199" t="str">
+      <c r="I29" s="198" t="str">
         <f>IF(Inputs!I36="","",Inputs!I36)</f>
         <v/>
       </c>
-      <c r="J29" s="199" t="str">
+      <c r="J29" s="198" t="str">
         <f>IF(Inputs!J36="","",Inputs!J36)</f>
         <v/>
       </c>
-      <c r="K29" s="199" t="str">
+      <c r="K29" s="198" t="str">
         <f>IF(Inputs!K36="","",Inputs!K36)</f>
         <v/>
       </c>
-      <c r="L29" s="199" t="str">
+      <c r="L29" s="198" t="str">
         <f>IF(Inputs!L36="","",Inputs!L36)</f>
         <v/>
       </c>
-      <c r="M29" s="199" t="str">
+      <c r="M29" s="198" t="str">
         <f>IF(Inputs!M36="","",Inputs!M36)</f>
         <v/>
       </c>
@@ -6905,49 +6917,49 @@
     <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="4"/>
       <c r="B30" s="94" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C30" s="65">
         <f>Inputs!C37</f>
         <v>0</v>
       </c>
-      <c r="D30" s="199" t="str">
+      <c r="D30" s="198" t="str">
         <f>IF(Inputs!D37="","",Inputs!D37)</f>
         <v/>
       </c>
-      <c r="E30" s="199" t="str">
+      <c r="E30" s="198" t="str">
         <f>IF(Inputs!E37="","",Inputs!E37)</f>
         <v/>
       </c>
-      <c r="F30" s="199" t="str">
+      <c r="F30" s="198" t="str">
         <f>IF(Inputs!F37="","",Inputs!F37)</f>
         <v/>
       </c>
-      <c r="G30" s="199" t="str">
+      <c r="G30" s="198" t="str">
         <f>IF(Inputs!G37="","",Inputs!G37)</f>
         <v/>
       </c>
-      <c r="H30" s="199" t="str">
+      <c r="H30" s="198" t="str">
         <f>IF(Inputs!H37="","",Inputs!H37)</f>
         <v/>
       </c>
-      <c r="I30" s="199" t="str">
+      <c r="I30" s="198" t="str">
         <f>IF(Inputs!I37="","",Inputs!I37)</f>
         <v/>
       </c>
-      <c r="J30" s="199" t="str">
+      <c r="J30" s="198" t="str">
         <f>IF(Inputs!J37="","",Inputs!J37)</f>
         <v/>
       </c>
-      <c r="K30" s="199" t="str">
+      <c r="K30" s="198" t="str">
         <f>IF(Inputs!K37="","",Inputs!K37)</f>
         <v/>
       </c>
-      <c r="L30" s="199" t="str">
+      <c r="L30" s="198" t="str">
         <f>IF(Inputs!L37="","",Inputs!L37)</f>
         <v/>
       </c>
-      <c r="M30" s="199" t="str">
+      <c r="M30" s="198" t="str">
         <f>IF(Inputs!M37="","",Inputs!M37)</f>
         <v/>
       </c>
@@ -6962,43 +6974,43 @@
         <f>Fin_Analysis!I15</f>
         <v>0</v>
       </c>
-      <c r="D31" s="199" t="str">
+      <c r="D31" s="198" t="str">
         <f>IF(Inputs!D39="","",Inputs!D39)</f>
         <v/>
       </c>
-      <c r="E31" s="199" t="str">
+      <c r="E31" s="198" t="str">
         <f>IF(Inputs!E39="","",Inputs!E39)</f>
         <v/>
       </c>
-      <c r="F31" s="199" t="str">
+      <c r="F31" s="198" t="str">
         <f>IF(Inputs!F39="","",Inputs!F39)</f>
         <v/>
       </c>
-      <c r="G31" s="199" t="str">
+      <c r="G31" s="198" t="str">
         <f>IF(Inputs!G39="","",Inputs!G39)</f>
         <v/>
       </c>
-      <c r="H31" s="199" t="str">
+      <c r="H31" s="198" t="str">
         <f>IF(Inputs!H39="","",Inputs!H39)</f>
         <v/>
       </c>
-      <c r="I31" s="199" t="str">
+      <c r="I31" s="198" t="str">
         <f>IF(Inputs!I39="","",Inputs!I39)</f>
         <v/>
       </c>
-      <c r="J31" s="199" t="str">
+      <c r="J31" s="198" t="str">
         <f>IF(Inputs!J39="","",Inputs!J39)</f>
         <v/>
       </c>
-      <c r="K31" s="199" t="str">
+      <c r="K31" s="198" t="str">
         <f>IF(Inputs!K39="","",Inputs!K39)</f>
         <v/>
       </c>
-      <c r="L31" s="199" t="str">
+      <c r="L31" s="198" t="str">
         <f>IF(Inputs!L39="","",Inputs!L39)</f>
         <v/>
       </c>
-      <c r="M31" s="199" t="str">
+      <c r="M31" s="198" t="str">
         <f>IF(Inputs!M39="","",Inputs!M39)</f>
         <v/>
       </c>
@@ -7013,43 +7025,43 @@
         <f>Fin_Analysis!I34</f>
         <v>0</v>
       </c>
-      <c r="D32" s="199" t="str">
+      <c r="D32" s="198" t="str">
         <f>IF(Inputs!D40="","",Inputs!D40)</f>
         <v/>
       </c>
-      <c r="E32" s="199" t="str">
+      <c r="E32" s="198" t="str">
         <f>IF(Inputs!E40="","",Inputs!E40)</f>
         <v/>
       </c>
-      <c r="F32" s="199" t="str">
+      <c r="F32" s="198" t="str">
         <f>IF(Inputs!F40="","",Inputs!F40)</f>
         <v/>
       </c>
-      <c r="G32" s="199" t="str">
+      <c r="G32" s="198" t="str">
         <f>IF(Inputs!G40="","",Inputs!G40)</f>
         <v/>
       </c>
-      <c r="H32" s="199" t="str">
+      <c r="H32" s="198" t="str">
         <f>IF(Inputs!H40="","",Inputs!H40)</f>
         <v/>
       </c>
-      <c r="I32" s="199" t="str">
+      <c r="I32" s="198" t="str">
         <f>IF(Inputs!I40="","",Inputs!I40)</f>
         <v/>
       </c>
-      <c r="J32" s="199" t="str">
+      <c r="J32" s="198" t="str">
         <f>IF(Inputs!J40="","",Inputs!J40)</f>
         <v/>
       </c>
-      <c r="K32" s="199" t="str">
+      <c r="K32" s="198" t="str">
         <f>IF(Inputs!K40="","",Inputs!K40)</f>
         <v/>
       </c>
-      <c r="L32" s="199" t="str">
+      <c r="L32" s="198" t="str">
         <f>IF(Inputs!L40="","",Inputs!L40)</f>
         <v/>
       </c>
-      <c r="M32" s="199" t="str">
+      <c r="M32" s="198" t="str">
         <f>IF(Inputs!M40="","",Inputs!M40)</f>
         <v/>
       </c>
@@ -7115,43 +7127,43 @@
         <f>Inputs!C41</f>
         <v>0</v>
       </c>
-      <c r="D34" s="199" t="str">
+      <c r="D34" s="198" t="str">
         <f>IF(Inputs!D41="","",Inputs!D41)</f>
         <v/>
       </c>
-      <c r="E34" s="199" t="str">
+      <c r="E34" s="198" t="str">
         <f>IF(Inputs!E41="","",Inputs!E41)</f>
         <v/>
       </c>
-      <c r="F34" s="199" t="str">
+      <c r="F34" s="198" t="str">
         <f>IF(Inputs!F41="","",Inputs!F41)</f>
         <v/>
       </c>
-      <c r="G34" s="199" t="str">
+      <c r="G34" s="198" t="str">
         <f>IF(Inputs!G41="","",Inputs!G41)</f>
         <v/>
       </c>
-      <c r="H34" s="199" t="str">
+      <c r="H34" s="198" t="str">
         <f>IF(Inputs!H41="","",Inputs!H41)</f>
         <v/>
       </c>
-      <c r="I34" s="199" t="str">
+      <c r="I34" s="198" t="str">
         <f>IF(Inputs!I41="","",Inputs!I41)</f>
         <v/>
       </c>
-      <c r="J34" s="199" t="str">
+      <c r="J34" s="198" t="str">
         <f>IF(Inputs!J41="","",Inputs!J41)</f>
         <v/>
       </c>
-      <c r="K34" s="199" t="str">
+      <c r="K34" s="198" t="str">
         <f>IF(Inputs!K41="","",Inputs!K41)</f>
         <v/>
       </c>
-      <c r="L34" s="199" t="str">
+      <c r="L34" s="198" t="str">
         <f>IF(Inputs!L41="","",Inputs!L41)</f>
         <v/>
       </c>
-      <c r="M34" s="199" t="str">
+      <c r="M34" s="198" t="str">
         <f>IF(Inputs!M41="","",Inputs!M41)</f>
         <v/>
       </c>
@@ -7166,43 +7178,43 @@
         <f>Inputs!C42</f>
         <v>0</v>
       </c>
-      <c r="D35" s="199" t="str">
+      <c r="D35" s="198" t="str">
         <f>IF(Inputs!D42="","",Inputs!D42)</f>
         <v/>
       </c>
-      <c r="E35" s="199" t="str">
+      <c r="E35" s="198" t="str">
         <f>IF(Inputs!E42="","",Inputs!E42)</f>
         <v/>
       </c>
-      <c r="F35" s="199" t="str">
+      <c r="F35" s="198" t="str">
         <f>IF(Inputs!F42="","",Inputs!F42)</f>
         <v/>
       </c>
-      <c r="G35" s="199" t="str">
+      <c r="G35" s="198" t="str">
         <f>IF(Inputs!G42="","",Inputs!G42)</f>
         <v/>
       </c>
-      <c r="H35" s="199" t="str">
+      <c r="H35" s="198" t="str">
         <f>IF(Inputs!H42="","",Inputs!H42)</f>
         <v/>
       </c>
-      <c r="I35" s="199" t="str">
+      <c r="I35" s="198" t="str">
         <f>IF(Inputs!I42="","",Inputs!I42)</f>
         <v/>
       </c>
-      <c r="J35" s="199" t="str">
+      <c r="J35" s="198" t="str">
         <f>IF(Inputs!J42="","",Inputs!J42)</f>
         <v/>
       </c>
-      <c r="K35" s="199" t="str">
+      <c r="K35" s="198" t="str">
         <f>IF(Inputs!K42="","",Inputs!K42)</f>
         <v/>
       </c>
-      <c r="L35" s="199" t="str">
+      <c r="L35" s="198" t="str">
         <f>IF(Inputs!L42="","",Inputs!L42)</f>
         <v/>
       </c>
-      <c r="M35" s="199" t="str">
+      <c r="M35" s="198" t="str">
         <f>IF(Inputs!M42="","",Inputs!M42)</f>
         <v/>
       </c>
@@ -7217,43 +7229,43 @@
         <f>Inputs!C40</f>
         <v>0</v>
       </c>
-      <c r="D36" s="199" t="str">
+      <c r="D36" s="198" t="str">
         <f>IF(Inputs!D43="","",Inputs!D43)</f>
         <v/>
       </c>
-      <c r="E36" s="199" t="str">
+      <c r="E36" s="198" t="str">
         <f>IF(Inputs!E43="","",Inputs!E43)</f>
         <v/>
       </c>
-      <c r="F36" s="199" t="str">
+      <c r="F36" s="198" t="str">
         <f>IF(Inputs!F43="","",Inputs!F43)</f>
         <v/>
       </c>
-      <c r="G36" s="199" t="str">
+      <c r="G36" s="198" t="str">
         <f>IF(Inputs!G43="","",Inputs!G43)</f>
         <v/>
       </c>
-      <c r="H36" s="199" t="str">
+      <c r="H36" s="198" t="str">
         <f>IF(Inputs!H43="","",Inputs!H43)</f>
         <v/>
       </c>
-      <c r="I36" s="199" t="str">
+      <c r="I36" s="198" t="str">
         <f>IF(Inputs!I43="","",Inputs!I43)</f>
         <v/>
       </c>
-      <c r="J36" s="199" t="str">
+      <c r="J36" s="198" t="str">
         <f>IF(Inputs!J43="","",Inputs!J43)</f>
         <v/>
       </c>
-      <c r="K36" s="199" t="str">
+      <c r="K36" s="198" t="str">
         <f>IF(Inputs!K43="","",Inputs!K43)</f>
         <v/>
       </c>
-      <c r="L36" s="199" t="str">
+      <c r="L36" s="198" t="str">
         <f>IF(Inputs!L43="","",Inputs!L43)</f>
         <v/>
       </c>
-      <c r="M36" s="199" t="str">
+      <c r="M36" s="198" t="str">
         <f>IF(Inputs!M43="","",Inputs!M43)</f>
         <v/>
       </c>
@@ -7315,47 +7327,47 @@
       <c r="B38" s="98" t="s">
         <v>150</v>
       </c>
-      <c r="C38" s="155" t="e">
+      <c r="C38" s="154" t="e">
         <f>IF(C6="","",C14/MAX(C37,0))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D38" s="155" t="e">
+      <c r="D38" s="154" t="e">
         <f>IF(D6="","",D14/MAX(D37,0))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E38" s="155" t="str">
+      <c r="E38" s="154" t="str">
         <f>IF(E6="","",E14/MAX(E37,0))</f>
         <v/>
       </c>
-      <c r="F38" s="155" t="str">
+      <c r="F38" s="154" t="str">
         <f t="shared" ref="F38:M38" si="33">IF(F37="","",F14/F37)</f>
         <v/>
       </c>
-      <c r="G38" s="155" t="str">
+      <c r="G38" s="154" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="H38" s="155" t="str">
+      <c r="H38" s="154" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="I38" s="155" t="str">
+      <c r="I38" s="154" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="J38" s="155" t="str">
+      <c r="J38" s="154" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="K38" s="155" t="str">
+      <c r="K38" s="154" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="L38" s="155" t="str">
+      <c r="L38" s="154" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="M38" s="155" t="str">
+      <c r="M38" s="154" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
@@ -7364,7 +7376,7 @@
     <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="16"/>
       <c r="B39" s="55" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C39" s="54"/>
       <c r="D39" s="54"/>
@@ -7384,47 +7396,47 @@
       <c r="B40" s="95" t="s">
         <v>95</v>
       </c>
-      <c r="C40" s="156">
+      <c r="C40" s="155">
         <f t="shared" ref="C40:M40" si="34">IF(C6="","",C8/C6)</f>
         <v>0.47272944175123971</v>
       </c>
-      <c r="D40" s="156">
+      <c r="D40" s="155">
         <f t="shared" si="34"/>
         <v>0.56850345827225579</v>
       </c>
-      <c r="E40" s="156" t="str">
+      <c r="E40" s="155" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="F40" s="156" t="str">
+      <c r="F40" s="155" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="G40" s="156" t="str">
+      <c r="G40" s="155" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="H40" s="156" t="str">
+      <c r="H40" s="155" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="I40" s="156" t="str">
+      <c r="I40" s="155" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="J40" s="156" t="str">
+      <c r="J40" s="155" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="K40" s="156" t="str">
+      <c r="K40" s="155" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="L40" s="156" t="str">
+      <c r="L40" s="155" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="M40" s="156" t="str">
+      <c r="M40" s="155" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
@@ -7433,49 +7445,49 @@
     <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="4"/>
       <c r="B41" s="94" t="s">
-        <v>221</v>
-      </c>
-      <c r="C41" s="153">
+        <v>220</v>
+      </c>
+      <c r="C41" s="152">
         <f t="shared" ref="C41:M41" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
         <v>0.35112695227219692</v>
       </c>
-      <c r="D41" s="153">
+      <c r="D41" s="152">
         <f t="shared" si="35"/>
         <v>0.7314473949460305</v>
       </c>
-      <c r="E41" s="153" t="str">
+      <c r="E41" s="152" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="F41" s="153" t="str">
+      <c r="F41" s="152" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="G41" s="153" t="str">
+      <c r="G41" s="152" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="H41" s="153" t="str">
+      <c r="H41" s="152" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="I41" s="153" t="str">
+      <c r="I41" s="152" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="J41" s="153" t="str">
+      <c r="J41" s="152" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="K41" s="153" t="str">
+      <c r="K41" s="152" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="L41" s="153" t="str">
+      <c r="L41" s="152" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="M41" s="153" t="str">
+      <c r="M41" s="152" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
@@ -7486,47 +7498,47 @@
       <c r="B42" s="94" t="s">
         <v>106</v>
       </c>
-      <c r="C42" s="153">
+      <c r="C42" s="152">
         <f t="shared" ref="C42:M42" si="36">IF(C6="","",MAX(C16,0)/C6)</f>
         <v>0</v>
       </c>
-      <c r="D42" s="153">
+      <c r="D42" s="152">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="E42" s="153" t="str">
+      <c r="E42" s="152" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="F42" s="153" t="str">
+      <c r="F42" s="152" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="G42" s="153" t="str">
+      <c r="G42" s="152" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="H42" s="153" t="str">
+      <c r="H42" s="152" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="I42" s="153" t="str">
+      <c r="I42" s="152" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="J42" s="153" t="str">
+      <c r="J42" s="152" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="K42" s="153" t="str">
+      <c r="K42" s="152" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="L42" s="153" t="str">
+      <c r="L42" s="152" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="M42" s="153" t="str">
+      <c r="M42" s="152" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
@@ -7537,47 +7549,47 @@
       <c r="B43" s="94" t="s">
         <v>118</v>
       </c>
-      <c r="C43" s="153">
+      <c r="C43" s="152">
         <f t="shared" ref="C43:M43" si="37">IF(C6="","",MAX(C17,0)/C6)</f>
         <v>0</v>
       </c>
-      <c r="D43" s="153">
+      <c r="D43" s="152">
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-      <c r="E43" s="153" t="str">
+      <c r="E43" s="152" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="F43" s="153" t="str">
+      <c r="F43" s="152" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="G43" s="153" t="str">
+      <c r="G43" s="152" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="H43" s="153" t="str">
+      <c r="H43" s="152" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="I43" s="153" t="str">
+      <c r="I43" s="152" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="J43" s="153" t="str">
+      <c r="J43" s="152" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="K43" s="153" t="str">
+      <c r="K43" s="152" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="L43" s="153" t="str">
+      <c r="L43" s="152" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="M43" s="153" t="str">
+      <c r="M43" s="152" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
@@ -7588,47 +7600,47 @@
       <c r="B44" s="94" t="s">
         <v>125</v>
       </c>
-      <c r="C44" s="153">
+      <c r="C44" s="152">
         <f t="shared" ref="C44:M44" si="38">IF(C6="","",MAX(C12,0)/C6)</f>
         <v>1.6858097812807804E-3</v>
       </c>
-      <c r="D44" s="153">
+      <c r="D44" s="152">
         <f t="shared" si="38"/>
         <v>0</v>
       </c>
-      <c r="E44" s="153" t="str">
+      <c r="E44" s="152" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="F44" s="153" t="str">
+      <c r="F44" s="152" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="G44" s="153" t="str">
+      <c r="G44" s="152" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="H44" s="153" t="str">
+      <c r="H44" s="152" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="I44" s="153" t="str">
+      <c r="I44" s="152" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="J44" s="153" t="str">
+      <c r="J44" s="152" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="K44" s="153" t="str">
+      <c r="K44" s="152" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="L44" s="153" t="str">
+      <c r="L44" s="152" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="M44" s="153" t="str">
+      <c r="M44" s="152" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
@@ -7637,49 +7649,49 @@
     <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="4"/>
       <c r="B45" s="94" t="s">
-        <v>223</v>
-      </c>
-      <c r="C45" s="153">
+        <v>222</v>
+      </c>
+      <c r="C45" s="152">
         <f t="shared" ref="C45:M45" si="39">IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
         <v>0</v>
       </c>
-      <c r="D45" s="153">
+      <c r="D45" s="152">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="E45" s="153" t="str">
+      <c r="E45" s="152" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="F45" s="153" t="str">
+      <c r="F45" s="152" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="G45" s="153" t="str">
+      <c r="G45" s="152" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="H45" s="153" t="str">
+      <c r="H45" s="152" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="I45" s="153" t="str">
+      <c r="I45" s="152" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="J45" s="153" t="str">
+      <c r="J45" s="152" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="K45" s="153" t="str">
+      <c r="K45" s="152" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="L45" s="153" t="str">
+      <c r="L45" s="152" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="M45" s="153" t="str">
+      <c r="M45" s="152" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
@@ -7690,47 +7702,47 @@
       <c r="B46" s="94" t="s">
         <v>120</v>
       </c>
-      <c r="C46" s="153">
+      <c r="C46" s="152">
         <f t="shared" ref="C46:M46" si="40">IF(C6="","",C22/C6)</f>
         <v>0.17445779619528262</v>
       </c>
-      <c r="D46" s="153">
+      <c r="D46" s="152">
         <f t="shared" si="40"/>
         <v>-0.29995085321828624</v>
       </c>
-      <c r="E46" s="153" t="str">
+      <c r="E46" s="152" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="F46" s="153" t="str">
+      <c r="F46" s="152" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="G46" s="153" t="str">
+      <c r="G46" s="152" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="H46" s="153" t="str">
+      <c r="H46" s="152" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="I46" s="153" t="str">
+      <c r="I46" s="152" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="J46" s="153" t="str">
+      <c r="J46" s="152" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="K46" s="153" t="str">
+      <c r="K46" s="152" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="L46" s="153" t="str">
+      <c r="L46" s="152" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="M46" s="153" t="str">
+      <c r="M46" s="152" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
@@ -7739,9 +7751,11 @@
     <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="16"/>
       <c r="B47" s="102" t="s">
-        <v>248</v>
-      </c>
-      <c r="C47" s="36"/>
+        <v>247</v>
+      </c>
+      <c r="C47" s="280" t="s">
+        <v>265</v>
+      </c>
       <c r="D47" s="36"/>
       <c r="E47" s="36"/>
       <c r="F47" s="36"/>
@@ -7756,50 +7770,50 @@
     </row>
     <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="4"/>
-      <c r="B48" s="271" t="s">
-        <v>254</v>
-      </c>
-      <c r="C48" s="272" t="e">
+      <c r="B48" s="268" t="s">
+        <v>253</v>
+      </c>
+      <c r="C48" s="269" t="e">
         <f t="shared" ref="C48:M48" si="41">IF(C6="","",C6/C27)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D48" s="272" t="e">
+      <c r="D48" s="269" t="e">
         <f t="shared" si="41"/>
         <v>#VALUE!</v>
       </c>
-      <c r="E48" s="272" t="str">
+      <c r="E48" s="269" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="F48" s="272" t="str">
+      <c r="F48" s="269" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="G48" s="272" t="str">
+      <c r="G48" s="269" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="H48" s="272" t="str">
+      <c r="H48" s="269" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="I48" s="272" t="str">
+      <c r="I48" s="269" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="J48" s="272" t="str">
+      <c r="J48" s="269" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="K48" s="272" t="str">
+      <c r="K48" s="269" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="L48" s="272" t="str">
+      <c r="L48" s="269" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="M48" s="272" t="str">
+      <c r="M48" s="269" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
@@ -7808,49 +7822,49 @@
     <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="4"/>
       <c r="B49" s="94" t="s">
-        <v>255</v>
-      </c>
-      <c r="C49" s="153">
+        <v>254</v>
+      </c>
+      <c r="C49" s="152">
         <f t="shared" ref="C49:M49" si="42">IF(C28="","",C28/C6)</f>
         <v>0</v>
       </c>
-      <c r="D49" s="153" t="str">
+      <c r="D49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="E49" s="153" t="str">
+      <c r="E49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="F49" s="153" t="str">
+      <c r="F49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="G49" s="153" t="str">
+      <c r="G49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="H49" s="153" t="str">
+      <c r="H49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="I49" s="153" t="str">
+      <c r="I49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="J49" s="153" t="str">
+      <c r="J49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="K49" s="153" t="str">
+      <c r="K49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="L49" s="153" t="str">
+      <c r="L49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="M49" s="153" t="str">
+      <c r="M49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
@@ -7859,49 +7873,49 @@
     <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="4"/>
       <c r="B50" s="94" t="s">
-        <v>256</v>
-      </c>
-      <c r="C50" s="153">
+        <v>255</v>
+      </c>
+      <c r="C50" s="152">
         <f t="shared" ref="C50:M50" si="43">IF(C29="","",C29/C6)</f>
         <v>0</v>
       </c>
-      <c r="D50" s="153" t="str">
+      <c r="D50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="E50" s="153" t="str">
+      <c r="E50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="F50" s="153" t="str">
+      <c r="F50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="G50" s="153" t="str">
+      <c r="G50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="H50" s="153" t="str">
+      <c r="H50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="I50" s="153" t="str">
+      <c r="I50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="J50" s="153" t="str">
+      <c r="J50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="K50" s="153" t="str">
+      <c r="K50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="L50" s="153" t="str">
+      <c r="L50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="M50" s="153" t="str">
+      <c r="M50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
@@ -7910,49 +7924,49 @@
     <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="4"/>
       <c r="B51" s="94" t="s">
-        <v>246</v>
-      </c>
-      <c r="C51" s="153" t="e">
+        <v>245</v>
+      </c>
+      <c r="C51" s="152" t="e">
         <f t="shared" ref="C51:M51" si="44">IF(D6="","",C16/(C6-D6))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D51" s="153" t="str">
+      <c r="D51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="E51" s="153" t="str">
+      <c r="E51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="F51" s="153" t="str">
+      <c r="F51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="G51" s="153" t="str">
+      <c r="G51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="H51" s="153" t="str">
+      <c r="H51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="I51" s="153" t="str">
+      <c r="I51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="J51" s="153" t="str">
+      <c r="J51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="K51" s="153" t="str">
+      <c r="K51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="L51" s="153" t="str">
+      <c r="L51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="M51" s="153" t="str">
+      <c r="M51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
@@ -7961,7 +7975,7 @@
     <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="16"/>
       <c r="B52" s="102" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C52" s="36"/>
       <c r="D52" s="36"/>
@@ -7978,49 +7992,49 @@
     <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="4"/>
       <c r="B53" s="95" t="s">
-        <v>250</v>
-      </c>
-      <c r="C53" s="156" t="e">
+        <v>249</v>
+      </c>
+      <c r="C53" s="155" t="e">
         <f t="shared" ref="C53:M53" si="45">IF(C34="","",(C34-C35)/C27)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D53" s="156" t="str">
+      <c r="D53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="E53" s="156" t="str">
+      <c r="E53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="F53" s="156" t="str">
+      <c r="F53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="G53" s="156" t="str">
+      <c r="G53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="H53" s="156" t="str">
+      <c r="H53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="I53" s="156" t="str">
+      <c r="I53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="J53" s="156" t="str">
+      <c r="J53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="K53" s="156" t="str">
+      <c r="K53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="L53" s="156" t="str">
+      <c r="L53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="M53" s="156" t="str">
+      <c r="M53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
@@ -8030,47 +8044,47 @@
       <c r="B54" s="94" t="s">
         <v>117</v>
       </c>
-      <c r="C54" s="157" t="str">
+      <c r="C54" s="156" t="str">
         <f t="shared" ref="C54:M54" si="46">IF(OR(C22="",C33=""),"",IF(C33&lt;=0,"-",C22/C33))</f>
         <v>-</v>
       </c>
-      <c r="D54" s="157" t="str">
+      <c r="D54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="E54" s="157" t="str">
+      <c r="E54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="F54" s="157" t="str">
+      <c r="F54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="G54" s="157" t="str">
+      <c r="G54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="H54" s="157" t="str">
+      <c r="H54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="I54" s="157" t="str">
+      <c r="I54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="J54" s="157" t="str">
+      <c r="J54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="K54" s="157" t="str">
+      <c r="K54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="L54" s="157" t="str">
+      <c r="L54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="M54" s="157" t="str">
+      <c r="M54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
@@ -8080,47 +8094,47 @@
       <c r="B55" s="94" t="s">
         <v>119</v>
       </c>
-      <c r="C55" s="153" t="str">
+      <c r="C55" s="152" t="str">
         <f t="shared" ref="C55:M55" si="47">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
         <v>-</v>
       </c>
-      <c r="D55" s="153" t="str">
+      <c r="D55" s="152" t="str">
         <f t="shared" si="47"/>
         <v>-</v>
       </c>
-      <c r="E55" s="153" t="str">
+      <c r="E55" s="152" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="F55" s="153" t="str">
+      <c r="F55" s="152" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="G55" s="153" t="str">
+      <c r="G55" s="152" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="H55" s="153" t="str">
+      <c r="H55" s="152" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="I55" s="153" t="str">
+      <c r="I55" s="152" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="J55" s="153" t="str">
+      <c r="J55" s="152" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="K55" s="153" t="str">
+      <c r="K55" s="152" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="L55" s="153" t="str">
+      <c r="L55" s="152" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="M55" s="153" t="str">
+      <c r="M55" s="152" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
@@ -8130,47 +8144,47 @@
       <c r="B56" s="98" t="s">
         <v>20</v>
       </c>
-      <c r="C56" s="158" t="e">
+      <c r="C56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/C30)</f>
         <v>#REF!</v>
       </c>
-      <c r="D56" s="158" t="e">
+      <c r="D56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/D30)</f>
         <v>#REF!</v>
       </c>
-      <c r="E56" s="158" t="e">
+      <c r="E56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/E30)</f>
         <v>#REF!</v>
       </c>
-      <c r="F56" s="158" t="e">
+      <c r="F56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/F30)</f>
         <v>#REF!</v>
       </c>
-      <c r="G56" s="158" t="e">
+      <c r="G56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/G30)</f>
         <v>#REF!</v>
       </c>
-      <c r="H56" s="158" t="e">
+      <c r="H56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/H30)</f>
         <v>#REF!</v>
       </c>
-      <c r="I56" s="158" t="e">
+      <c r="I56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/I30)</f>
         <v>#REF!</v>
       </c>
-      <c r="J56" s="158" t="e">
+      <c r="J56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/J30)</f>
         <v>#REF!</v>
       </c>
-      <c r="K56" s="158" t="e">
+      <c r="K56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/K30)</f>
         <v>#REF!</v>
       </c>
-      <c r="L56" s="158" t="e">
+      <c r="L56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/L30)</f>
         <v>#REF!</v>
       </c>
-      <c r="M56" s="158" t="e">
+      <c r="M56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/M30)</f>
         <v>#REF!</v>
       </c>
@@ -8178,149 +8192,149 @@
     <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A57" s="16"/>
       <c r="B57" s="102" t="s">
-        <v>251</v>
-      </c>
-      <c r="C57" s="273" t="str">
+        <v>250</v>
+      </c>
+      <c r="C57" s="270" t="str">
         <f t="shared" ref="C57:M57" si="48">IFERROR(IF(C13*C48*(1/C53)=C58,"","Error"),"")</f>
         <v/>
       </c>
-      <c r="D57" s="273" t="str">
+      <c r="D57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="E57" s="273" t="str">
+      <c r="E57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="F57" s="273" t="str">
+      <c r="F57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="G57" s="273" t="str">
+      <c r="G57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="H57" s="273" t="str">
+      <c r="H57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="I57" s="273" t="str">
+      <c r="I57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="J57" s="273" t="str">
+      <c r="J57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="K57" s="273" t="str">
+      <c r="K57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="L57" s="273" t="str">
+      <c r="L57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="M57" s="273" t="str">
+      <c r="M57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
     </row>
     <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="4"/>
-      <c r="B58" s="271" t="s">
-        <v>252</v>
-      </c>
-      <c r="C58" s="274" t="e">
+      <c r="B58" s="268" t="s">
+        <v>251</v>
+      </c>
+      <c r="C58" s="271" t="e">
         <f t="shared" ref="C58:M58" si="49">IF(C14="","",C14/(C34-C35))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D58" s="274" t="e">
+      <c r="D58" s="271" t="e">
         <f t="shared" si="49"/>
         <v>#VALUE!</v>
       </c>
-      <c r="E58" s="274" t="str">
+      <c r="E58" s="271" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="F58" s="274" t="str">
+      <c r="F58" s="271" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="G58" s="274" t="str">
+      <c r="G58" s="271" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="H58" s="274" t="str">
+      <c r="H58" s="271" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="I58" s="274" t="str">
+      <c r="I58" s="271" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="J58" s="274" t="str">
+      <c r="J58" s="271" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="K58" s="274" t="str">
+      <c r="K58" s="271" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="L58" s="274" t="str">
+      <c r="L58" s="271" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="M58" s="274" t="str">
+      <c r="M58" s="271" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
     </row>
     <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="4"/>
-      <c r="B59" s="271" t="s">
-        <v>253</v>
-      </c>
-      <c r="C59" s="274" t="e">
+      <c r="B59" s="268" t="s">
+        <v>252</v>
+      </c>
+      <c r="C59" s="271" t="e">
         <f t="shared" ref="C59:M59" si="50">IF(C22="","",C22/(C34-C35))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D59" s="274" t="e">
+      <c r="D59" s="271" t="e">
         <f t="shared" si="50"/>
         <v>#VALUE!</v>
       </c>
-      <c r="E59" s="274" t="str">
+      <c r="E59" s="271" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="F59" s="274" t="str">
+      <c r="F59" s="271" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="G59" s="274" t="str">
+      <c r="G59" s="271" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="H59" s="274" t="str">
+      <c r="H59" s="271" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="I59" s="274" t="str">
+      <c r="I59" s="271" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="J59" s="274" t="str">
+      <c r="J59" s="271" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="K59" s="274" t="str">
+      <c r="K59" s="271" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="L59" s="274" t="str">
+      <c r="L59" s="271" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="M59" s="274" t="str">
+      <c r="M59" s="271" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
@@ -9616,8 +9630,8 @@
   </sheetPr>
   <dimension ref="A2:K108"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A78" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E82" sqref="E82"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -9653,8 +9667,8 @@
         <v>22</v>
       </c>
       <c r="C3" s="87"/>
-      <c r="D3" s="116">
-        <f>C49-I49</f>
+      <c r="D3" s="204">
+        <f>Inputs!C41</f>
         <v>0</v>
       </c>
       <c r="E3" s="67" t="str">
@@ -9666,8 +9680,8 @@
       <c r="H3" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="I3" s="204">
-        <f>Inputs!C83</f>
+      <c r="I3" s="282">
+        <f>D3-D4</f>
         <v>0</v>
       </c>
       <c r="K3" s="24"/>
@@ -9677,8 +9691,8 @@
         <v>24</v>
       </c>
       <c r="C4" s="87"/>
-      <c r="D4" s="65">
-        <f>D3-I3</f>
+      <c r="D4" s="198">
+        <f>Inputs!C42</f>
         <v>0</v>
       </c>
       <c r="E4" s="37"/>
@@ -9765,11 +9779,11 @@
         <v>29</v>
       </c>
       <c r="C9" s="86"/>
-      <c r="D9" s="203">
+      <c r="D9" s="202">
         <f>Inputs!C14</f>
         <v>45473</v>
       </c>
-      <c r="E9" s="119" t="str">
+      <c r="E9" s="118" t="str">
         <f>IF(MONTH(D9)=MONTH(Data!C3),"FY","Quarter")</f>
         <v>Quarter</v>
       </c>
@@ -9812,7 +9826,7 @@
         <f>Inputs!C48</f>
         <v>0</v>
       </c>
-      <c r="D11" s="198">
+      <c r="D11" s="197">
         <f>Inputs!D48</f>
         <v>0.9</v>
       </c>
@@ -9840,7 +9854,7 @@
         <f>Inputs!C49</f>
         <v>0</v>
       </c>
-      <c r="D12" s="198">
+      <c r="D12" s="197">
         <f>Inputs!D49</f>
         <v>0.8</v>
       </c>
@@ -9868,7 +9882,7 @@
         <f>Inputs!C50</f>
         <v>0</v>
       </c>
-      <c r="D13" s="198">
+      <c r="D13" s="197">
         <f>Inputs!D50</f>
         <v>0.6</v>
       </c>
@@ -9896,7 +9910,7 @@
         <f>Inputs!C51</f>
         <v>0</v>
       </c>
-      <c r="D14" s="198">
+      <c r="D14" s="197">
         <f>Inputs!D51</f>
         <v>0.6</v>
       </c>
@@ -9909,7 +9923,7 @@
       <c r="H14" s="86" t="s">
         <v>40</v>
       </c>
-      <c r="I14" s="205">
+      <c r="I14" s="203">
         <f>Inputs!C76</f>
         <v>0</v>
       </c>
@@ -9924,7 +9938,7 @@
         <f>Inputs!C52</f>
         <v>0</v>
       </c>
-      <c r="D15" s="198">
+      <c r="D15" s="197">
         <f>Inputs!D52</f>
         <v>0.5</v>
       </c>
@@ -9951,7 +9965,7 @@
         <f>Inputs!C53</f>
         <v>0</v>
       </c>
-      <c r="D16" s="198">
+      <c r="D16" s="197">
         <f>Inputs!D53</f>
         <v>0.6</v>
       </c>
@@ -9973,7 +9987,7 @@
         <f>Inputs!C54</f>
         <v>0</v>
       </c>
-      <c r="D17" s="198">
+      <c r="D17" s="197">
         <f>Inputs!D54</f>
         <v>0.1</v>
       </c>
@@ -9995,7 +10009,7 @@
         <f>Inputs!C55</f>
         <v>0</v>
       </c>
-      <c r="D18" s="198">
+      <c r="D18" s="197">
         <f>Inputs!D55</f>
         <v>0.5</v>
       </c>
@@ -10016,7 +10030,7 @@
         <f>Inputs!C56</f>
         <v>0</v>
       </c>
-      <c r="D19" s="198">
+      <c r="D19" s="197">
         <f>Inputs!D56</f>
         <v>0.6</v>
       </c>
@@ -10024,7 +10038,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F19" s="134" t="str">
+      <c r="F19" s="133" t="str">
         <f>Inputs!E56</f>
         <v>N</v>
       </c>
@@ -10041,7 +10055,7 @@
         <f>Inputs!C57</f>
         <v>0</v>
       </c>
-      <c r="D20" s="198">
+      <c r="D20" s="197">
         <f>Inputs!D57</f>
         <v>0.6</v>
       </c>
@@ -10049,7 +10063,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F20" s="134" t="str">
+      <c r="F20" s="133" t="str">
         <f>Inputs!E57</f>
         <v>Y</v>
       </c>
@@ -10068,7 +10082,7 @@
         <f>Inputs!C58</f>
         <v>0</v>
       </c>
-      <c r="D21" s="198">
+      <c r="D21" s="197">
         <f>Inputs!D58</f>
         <v>0.9</v>
       </c>
@@ -10089,7 +10103,7 @@
         <f>Inputs!C59</f>
         <v>0</v>
       </c>
-      <c r="D22" s="198">
+      <c r="D22" s="197">
         <f>Inputs!D59</f>
         <v>0.05</v>
       </c>
@@ -10254,7 +10268,7 @@
       <c r="H28" s="78" t="s">
         <v>16</v>
       </c>
-      <c r="I28" s="206">
+      <c r="I28" s="204">
         <f>Inputs!C77</f>
         <v>0</v>
       </c>
@@ -10283,7 +10297,7 @@
         <f>Inputs!C60</f>
         <v>0</v>
       </c>
-      <c r="D30" s="198">
+      <c r="D30" s="197">
         <f>Inputs!D60</f>
         <v>0.8</v>
       </c>
@@ -10309,7 +10323,7 @@
         <f>Inputs!C61</f>
         <v>0</v>
       </c>
-      <c r="D31" s="198">
+      <c r="D31" s="197">
         <f>Inputs!D61</f>
         <v>0.6</v>
       </c>
@@ -10336,7 +10350,7 @@
         <f>Inputs!C62</f>
         <v>0</v>
       </c>
-      <c r="D32" s="198">
+      <c r="D32" s="197">
         <f>Inputs!D62</f>
         <v>0.5</v>
       </c>
@@ -10363,7 +10377,7 @@
         <f>Inputs!C63</f>
         <v>0</v>
       </c>
-      <c r="D33" s="198">
+      <c r="D33" s="197">
         <f>Inputs!D63</f>
         <v>0.5</v>
       </c>
@@ -10379,7 +10393,7 @@
       <c r="H33" s="86" t="s">
         <v>64</v>
       </c>
-      <c r="I33" s="205">
+      <c r="I33" s="203">
         <f>Inputs!C81</f>
         <v>0</v>
       </c>
@@ -10393,7 +10407,7 @@
         <f>Inputs!C64</f>
         <v>0</v>
       </c>
-      <c r="D34" s="198">
+      <c r="D34" s="197">
         <f>Inputs!D64</f>
         <v>0.4</v>
       </c>
@@ -10420,7 +10434,7 @@
         <f>Inputs!C65</f>
         <v>0</v>
       </c>
-      <c r="D35" s="198">
+      <c r="D35" s="197">
         <f>Inputs!D65</f>
         <v>0.1</v>
       </c>
@@ -10428,7 +10442,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F35" s="134" t="str">
+      <c r="F35" s="133" t="str">
         <f>Inputs!E65</f>
         <v>N</v>
       </c>
@@ -10446,7 +10460,7 @@
         <f>Inputs!C66</f>
         <v>0</v>
       </c>
-      <c r="D36" s="198">
+      <c r="D36" s="197">
         <f>Inputs!D66</f>
         <v>0.2</v>
       </c>
@@ -10454,7 +10468,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F36" s="134" t="str">
+      <c r="F36" s="133" t="str">
         <f>Inputs!E66</f>
         <v>N</v>
       </c>
@@ -10473,7 +10487,7 @@
         <f>Inputs!C67</f>
         <v>0</v>
       </c>
-      <c r="D37" s="198">
+      <c r="D37" s="197">
         <f>Inputs!D67</f>
         <v>0.1</v>
       </c>
@@ -10481,7 +10495,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F37" s="134" t="str">
+      <c r="F37" s="133" t="str">
         <f>Inputs!E67</f>
         <v>Y</v>
       </c>
@@ -10500,7 +10514,7 @@
         <f>Inputs!C68</f>
         <v>0</v>
       </c>
-      <c r="D38" s="198">
+      <c r="D38" s="197">
         <f>Inputs!D68</f>
         <v>0.1</v>
       </c>
@@ -10521,7 +10535,7 @@
         <f>Inputs!C69</f>
         <v>0</v>
       </c>
-      <c r="D39" s="198">
+      <c r="D39" s="197">
         <f>Inputs!D69</f>
         <v>0.05</v>
       </c>
@@ -10542,7 +10556,7 @@
         <f>Inputs!C70</f>
         <v>0</v>
       </c>
-      <c r="D40" s="198">
+      <c r="D40" s="197">
         <f>Inputs!D70</f>
         <v>0.05</v>
       </c>
@@ -10563,7 +10577,7 @@
         <f>Inputs!C71</f>
         <v>0</v>
       </c>
-      <c r="D41" s="198">
+      <c r="D41" s="197">
         <f>Inputs!D71</f>
         <v>0.9</v>
       </c>
@@ -10584,7 +10598,7 @@
         <f>Inputs!C72</f>
         <v>0</v>
       </c>
-      <c r="D42" s="198">
+      <c r="D42" s="197">
         <f>Inputs!D72</f>
         <v>0</v>
       </c>
@@ -10730,8 +10744,8 @@
       <c r="H48" s="80" t="s">
         <v>82</v>
       </c>
-      <c r="I48" s="207">
-        <f>Inputs!C82</f>
+      <c r="I48" s="281">
+        <f>I49-I28</f>
         <v>0</v>
       </c>
       <c r="J48" s="8"/>
@@ -10757,8 +10771,8 @@
       <c r="H49" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="I49" s="52">
-        <f>I28+I48</f>
+      <c r="I49" s="40">
+        <f>Inputs!C37</f>
         <v>0</v>
       </c>
       <c r="J49" s="87"/>
@@ -10828,7 +10842,7 @@
         <v>143</v>
       </c>
       <c r="C55" s="3"/>
-      <c r="E55" s="125"/>
+      <c r="E55" s="124"/>
       <c r="F55" s="3"/>
       <c r="G55" s="3"/>
       <c r="I55" s="87"/>
@@ -10928,7 +10942,7 @@
       <c r="B62" s="35" t="s">
         <v>135</v>
       </c>
-      <c r="C62" s="117">
+      <c r="C62" s="116">
         <f>C11+C30</f>
         <v>0</v>
       </c>
@@ -10936,7 +10950,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="E62" s="118">
+      <c r="E62" s="117">
         <f>E11+E30</f>
         <v>0</v>
       </c>
@@ -10967,11 +10981,11 @@
       <c r="K63" s="33"/>
     </row>
     <row r="64" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B64" s="121" t="s">
+      <c r="B64" s="120" t="s">
         <v>144</v>
       </c>
-      <c r="C64" s="208"/>
-      <c r="D64" s="208"/>
+      <c r="C64" s="205"/>
+      <c r="D64" s="205"/>
       <c r="E64" s="69">
         <f>D56+D57+D58</f>
         <v>0</v>
@@ -11048,12 +11062,12 @@
       <c r="K68" s="33"/>
     </row>
     <row r="69" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B69" s="121" t="s">
+      <c r="B69" s="120" t="s">
         <v>145</v>
       </c>
-      <c r="C69" s="208"/>
-      <c r="D69" s="208"/>
-      <c r="E69" s="126">
+      <c r="C69" s="205"/>
+      <c r="D69" s="205"/>
+      <c r="E69" s="125">
         <f>I49-E64</f>
         <v>0</v>
       </c>
@@ -11132,17 +11146,17 @@
         <f>Data!C6</f>
         <v>35684253</v>
       </c>
-      <c r="D74" s="209"/>
-      <c r="E74" s="238">
+      <c r="D74" s="206"/>
+      <c r="E74" s="235">
         <f>Inputs!E91</f>
         <v>35684253</v>
       </c>
-      <c r="F74" s="209"/>
-      <c r="H74" s="238">
+      <c r="F74" s="206"/>
+      <c r="H74" s="235">
         <f>Inputs!F91</f>
         <v>35684253</v>
       </c>
-      <c r="I74" s="209"/>
+      <c r="I74" s="206"/>
       <c r="K74" s="24"/>
     </row>
     <row r="75" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11153,23 +11167,23 @@
         <f>Data!C8</f>
         <v>16868997</v>
       </c>
-      <c r="D75" s="159">
+      <c r="D75" s="158">
         <f>C75/$C$74</f>
         <v>0.47272944175123971</v>
       </c>
-      <c r="E75" s="238">
+      <c r="E75" s="235">
         <f>Inputs!E92</f>
         <v>16868997</v>
       </c>
-      <c r="F75" s="160">
+      <c r="F75" s="159">
         <f>E75/E74</f>
         <v>0.47272944175123971</v>
       </c>
-      <c r="H75" s="238">
+      <c r="H75" s="235">
         <f>Inputs!F92</f>
         <v>16868997</v>
       </c>
-      <c r="I75" s="160">
+      <c r="I75" s="159">
         <f>H75/$H$74</f>
         <v>0.47272944175123971</v>
       </c>
@@ -11179,48 +11193,48 @@
       <c r="B76" s="35" t="s">
         <v>93</v>
       </c>
-      <c r="C76" s="161">
+      <c r="C76" s="160">
         <f>C74-C75</f>
         <v>18815256</v>
       </c>
-      <c r="D76" s="210"/>
-      <c r="E76" s="162">
+      <c r="D76" s="207"/>
+      <c r="E76" s="161">
         <f>E74-E75</f>
         <v>18815256</v>
       </c>
-      <c r="F76" s="210"/>
-      <c r="H76" s="162">
+      <c r="F76" s="207"/>
+      <c r="H76" s="161">
         <f>H74-H75</f>
         <v>18815256</v>
       </c>
-      <c r="I76" s="210"/>
+      <c r="I76" s="207"/>
       <c r="K76" s="24"/>
     </row>
     <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B77" s="104" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C77" s="77">
         <f>Data!C10+MAX(Data!C11,0)</f>
         <v>12529703</v>
       </c>
-      <c r="D77" s="159">
+      <c r="D77" s="158">
         <f>C77/$C$74</f>
         <v>0.35112695227219692</v>
       </c>
-      <c r="E77" s="238">
+      <c r="E77" s="235">
         <f>Inputs!E93</f>
         <v>12529703</v>
       </c>
-      <c r="F77" s="160">
+      <c r="F77" s="159">
         <f>E77/E74</f>
         <v>0.35112695227219692</v>
       </c>
-      <c r="H77" s="238">
+      <c r="H77" s="235">
         <f>Inputs!F93</f>
         <v>12529703</v>
       </c>
-      <c r="I77" s="160">
+      <c r="I77" s="159">
         <f>H77/$H$74</f>
         <v>0.35112695227219692</v>
       </c>
@@ -11234,54 +11248,54 @@
         <f>MAX(Data!C12,0)</f>
         <v>60156.862745098035</v>
       </c>
-      <c r="D78" s="159">
+      <c r="D78" s="158">
         <f>C78/$C$74</f>
         <v>1.6858097812807804E-3</v>
       </c>
-      <c r="E78" s="180">
+      <c r="E78" s="179">
         <f>E74*F78</f>
         <v>60156.862745098035</v>
       </c>
-      <c r="F78" s="160">
+      <c r="F78" s="159">
         <f>I78</f>
         <v>1.6858097812807804E-3</v>
       </c>
-      <c r="H78" s="238">
+      <c r="H78" s="235">
         <f>Inputs!F97</f>
         <v>60156.862745098035</v>
       </c>
-      <c r="I78" s="160">
+      <c r="I78" s="159">
         <f>H78/$H$74</f>
         <v>1.6858097812807804E-3</v>
       </c>
       <c r="K78" s="24"/>
     </row>
     <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B79" s="256" t="s">
-        <v>219</v>
-      </c>
-      <c r="C79" s="257">
+      <c r="B79" s="253" t="s">
+        <v>218</v>
+      </c>
+      <c r="C79" s="254">
         <f>C76-C77-C78</f>
         <v>6225396.1372549022</v>
       </c>
-      <c r="D79" s="258">
+      <c r="D79" s="255">
         <f>C79/C74</f>
         <v>0.17445779619528262</v>
       </c>
-      <c r="E79" s="259">
+      <c r="E79" s="256">
         <f>E76-E77-E78</f>
         <v>6225396.1372549022</v>
       </c>
-      <c r="F79" s="258">
+      <c r="F79" s="255">
         <f>E79/E74</f>
         <v>0.17445779619528262</v>
       </c>
-      <c r="G79" s="260"/>
-      <c r="H79" s="259">
+      <c r="G79" s="257"/>
+      <c r="H79" s="256">
         <f>H76-H77-H78</f>
         <v>6225396.1372549022</v>
       </c>
-      <c r="I79" s="258">
+      <c r="I79" s="255">
         <f>H79/H74</f>
         <v>0.17445779619528262</v>
       </c>
@@ -11295,55 +11309,55 @@
         <f>MAX(Data!C16,0)</f>
         <v>0</v>
       </c>
-      <c r="D80" s="159">
+      <c r="D80" s="158">
         <f>C80/$C$74</f>
         <v>0</v>
       </c>
-      <c r="E80" s="180">
+      <c r="E80" s="179">
         <f>E74*F80</f>
         <v>0</v>
       </c>
-      <c r="F80" s="160">
+      <c r="F80" s="159">
         <f>I80</f>
         <v>0</v>
       </c>
-      <c r="H80" s="238">
+      <c r="H80" s="235">
         <f>Inputs!F96</f>
         <v>0</v>
       </c>
-      <c r="I80" s="160">
+      <c r="I80" s="159">
         <f>H80/$H$74</f>
         <v>0</v>
       </c>
-      <c r="K80" s="181" t="s">
+      <c r="K80" s="180" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B81" s="104" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C81" s="77">
         <f>MAX(Data!C17,0)</f>
         <v>0</v>
       </c>
-      <c r="D81" s="159">
+      <c r="D81" s="158">
         <f>C81/$C$74</f>
         <v>0</v>
       </c>
-      <c r="E81" s="180">
+      <c r="E81" s="179">
         <f>E74*F81</f>
         <v>0</v>
       </c>
-      <c r="F81" s="160">
+      <c r="F81" s="159">
         <f>I81</f>
         <v>0</v>
       </c>
-      <c r="H81" s="238">
+      <c r="H81" s="235">
         <f>Inputs!F94</f>
         <v>0</v>
       </c>
-      <c r="I81" s="160">
+      <c r="I81" s="159">
         <f>H81/$H$74</f>
         <v>0</v>
       </c>
@@ -11351,29 +11365,29 @@
     </row>
     <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="28" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C82" s="77">
         <f>ABS(MAX(Data!C21,0)-MAX(Data!C19,0))</f>
         <v>0</v>
       </c>
-      <c r="D82" s="159">
+      <c r="D82" s="158">
         <f>C82/$C$74</f>
         <v>0</v>
       </c>
-      <c r="E82" s="238">
+      <c r="E82" s="235">
         <f>Inputs!E95</f>
         <v>0</v>
       </c>
-      <c r="F82" s="160">
+      <c r="F82" s="159">
         <f>E82/E74</f>
         <v>0</v>
       </c>
-      <c r="H82" s="238">
+      <c r="H82" s="235">
         <f>Inputs!F95</f>
         <v>0</v>
       </c>
-      <c r="I82" s="160">
+      <c r="I82" s="159">
         <f>H82/$H$74</f>
         <v>0</v>
       </c>
@@ -11383,27 +11397,27 @@
       <c r="B83" s="105" t="s">
         <v>121</v>
       </c>
-      <c r="C83" s="163">
+      <c r="C83" s="162">
         <f>C79-C81-C82-C80</f>
         <v>6225396.1372549022</v>
       </c>
-      <c r="D83" s="164">
+      <c r="D83" s="163">
         <f>C83/$C$74</f>
         <v>0.17445779619528262</v>
       </c>
-      <c r="E83" s="165">
+      <c r="E83" s="164">
         <f>E79-E81-E82-E80</f>
         <v>6225396.1372549022</v>
       </c>
-      <c r="F83" s="164">
+      <c r="F83" s="163">
         <f>E83/E74</f>
         <v>0.17445779619528262</v>
       </c>
-      <c r="H83" s="165">
+      <c r="H83" s="164">
         <f>H79-H81-H82-H80</f>
         <v>6225396.1372549022</v>
       </c>
-      <c r="I83" s="164">
+      <c r="I83" s="163">
         <f>H83/$H$74</f>
         <v>0.17445779619528262</v>
       </c>
@@ -11413,49 +11427,49 @@
       <c r="B84" s="28" t="s">
         <v>94</v>
       </c>
-      <c r="C84" s="211"/>
-      <c r="D84" s="159">
+      <c r="C84" s="208"/>
+      <c r="D84" s="158">
         <f>I84</f>
         <v>0.23499999999999999</v>
       </c>
-      <c r="E84" s="212"/>
-      <c r="F84" s="179">
+      <c r="E84" s="209"/>
+      <c r="F84" s="178">
         <f t="shared" ref="F84" si="3">I84</f>
         <v>0.23499999999999999</v>
       </c>
-      <c r="H84" s="212"/>
-      <c r="I84" s="202">
+      <c r="H84" s="209"/>
+      <c r="I84" s="201">
         <f>Inputs!C16</f>
         <v>0.23499999999999999</v>
       </c>
       <c r="K84" s="24"/>
     </row>
     <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B85" s="263" t="s">
+      <c r="B85" s="260" t="s">
         <v>157</v>
       </c>
-      <c r="C85" s="257">
+      <c r="C85" s="254">
         <f>C83*(1-I84)</f>
         <v>4762428.0449999999</v>
       </c>
-      <c r="D85" s="258">
+      <c r="D85" s="255">
         <f>C85/$C$74</f>
         <v>0.13346021408939118</v>
       </c>
-      <c r="E85" s="264">
+      <c r="E85" s="261">
         <f>E83*(1-F84)</f>
         <v>4762428.0449999999</v>
       </c>
-      <c r="F85" s="258">
+      <c r="F85" s="255">
         <f>E85/E74</f>
         <v>0.13346021408939118</v>
       </c>
-      <c r="G85" s="260"/>
-      <c r="H85" s="264">
+      <c r="G85" s="257"/>
+      <c r="H85" s="261">
         <f>H83*(1-I84)</f>
         <v>4762428.0449999999</v>
       </c>
-      <c r="I85" s="258">
+      <c r="I85" s="255">
         <f>H85/$H$74</f>
         <v>0.13346021408939118</v>
       </c>
@@ -11465,69 +11479,69 @@
       <c r="B86" s="87" t="s">
         <v>153</v>
       </c>
-      <c r="C86" s="167">
+      <c r="C86" s="166">
         <f>C85*Data!C4/Common_Shares</f>
         <v>1.0889066769172429</v>
       </c>
-      <c r="D86" s="209"/>
-      <c r="E86" s="168">
+      <c r="D86" s="206"/>
+      <c r="E86" s="167">
         <f>E85*Data!C4/Common_Shares</f>
         <v>1.0889066769172429</v>
       </c>
-      <c r="F86" s="209"/>
-      <c r="H86" s="168">
+      <c r="F86" s="206"/>
+      <c r="H86" s="167">
         <f>H85*Data!C4/Common_Shares</f>
         <v>1.0889066769172429</v>
       </c>
-      <c r="I86" s="209"/>
+      <c r="I86" s="206"/>
       <c r="K86" s="24"/>
     </row>
     <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B87" s="87" t="s">
         <v>195</v>
       </c>
-      <c r="C87" s="261">
+      <c r="C87" s="258">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>3.1380595876577599E-2</v>
-      </c>
-      <c r="D87" s="209"/>
-      <c r="E87" s="262">
+        <v>3.1932747123672812E-2</v>
+      </c>
+      <c r="D87" s="206"/>
+      <c r="E87" s="259">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>3.1380595876577599E-2</v>
-      </c>
-      <c r="F87" s="209"/>
-      <c r="H87" s="262">
+        <v>3.1932747123672812E-2</v>
+      </c>
+      <c r="F87" s="206"/>
+      <c r="H87" s="259">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>3.1380595876577599E-2</v>
-      </c>
-      <c r="I87" s="209"/>
+        <v>3.1932747123672812E-2</v>
+      </c>
+      <c r="I87" s="206"/>
       <c r="K87" s="24"/>
     </row>
     <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B88" s="86" t="s">
         <v>194</v>
       </c>
-      <c r="C88" s="169">
+      <c r="C88" s="168">
         <f>Inputs!C44</f>
         <v>0.8</v>
       </c>
-      <c r="D88" s="166">
+      <c r="D88" s="165">
         <f>C88/C86</f>
         <v>0.73468187582874034</v>
       </c>
-      <c r="E88" s="170">
+      <c r="E88" s="169">
         <f>Inputs!E98</f>
         <v>0.5</v>
       </c>
-      <c r="F88" s="166">
+      <c r="F88" s="165">
         <f>E88/E86</f>
         <v>0.45917617239296266</v>
       </c>
-      <c r="H88" s="170">
+      <c r="H88" s="169">
         <f>Inputs!F98</f>
         <v>0.5</v>
       </c>
-      <c r="I88" s="166">
+      <c r="I88" s="165">
         <f>H88/H86</f>
         <v>0.45917617239296266</v>
       </c>
@@ -11535,23 +11549,23 @@
     </row>
     <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B89" s="87" t="s">
-        <v>208</v>
-      </c>
-      <c r="C89" s="261">
+        <v>207</v>
+      </c>
+      <c r="C89" s="258">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>2.3054755043227664E-2</v>
-      </c>
-      <c r="D89" s="209"/>
-      <c r="E89" s="261">
+        <v>2.3460410557184751E-2</v>
+      </c>
+      <c r="D89" s="206"/>
+      <c r="E89" s="258">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>1.4409221902017291E-2</v>
-      </c>
-      <c r="F89" s="209"/>
-      <c r="H89" s="261">
+        <v>1.4662756598240468E-2</v>
+      </c>
+      <c r="F89" s="206"/>
+      <c r="H89" s="258">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>1.4409221902017291E-2</v>
-      </c>
-      <c r="I89" s="209"/>
+        <v>1.4662756598240468E-2</v>
+      </c>
+      <c r="I89" s="206"/>
       <c r="K89" s="24"/>
     </row>
     <row r="90" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11573,7 +11587,7 @@
       <c r="B92" s="10" t="s">
         <v>148</v>
       </c>
-      <c r="C92" s="198" t="str">
+      <c r="C92" s="197" t="str">
         <f>Inputs!C15</f>
         <v>HK</v>
       </c>
@@ -11596,27 +11610,27 @@
         <f>C92&amp;" Discount Rate"</f>
         <v>HK Discount Rate</v>
       </c>
-      <c r="C93" s="136">
+      <c r="C93" s="135">
         <f>IF(C92="CN",Dashboard!C17,IF(C92="US",Dashboard!C12,IF(C92="HK",Dashboard!D12,Dashboard!D17)))</f>
         <v>8.0625000000000002E-2</v>
       </c>
-      <c r="D93" s="239">
+      <c r="D93" s="236">
         <f>Inputs!C86</f>
         <v>5</v>
       </c>
       <c r="E93" s="87" t="s">
         <v>196</v>
       </c>
-      <c r="F93" s="144">
+      <c r="F93" s="143">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>20.962047049273842</v>
+        <v>21.018217485566339</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>196</v>
       </c>
-      <c r="I93" s="144">
+      <c r="I93" s="143">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>20.962047049273842</v>
+        <v>21.018217485566339</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -11624,27 +11638,27 @@
       <c r="B94" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="C94" s="182">
+      <c r="C94" s="181">
         <f>Dashboard!G20</f>
         <v>0.15</v>
       </c>
-      <c r="D94" s="270">
+      <c r="D94" s="267">
         <f>Inputs!D87</f>
         <v>0.02</v>
       </c>
       <c r="E94" s="87" t="s">
         <v>197</v>
       </c>
-      <c r="F94" s="144">
+      <c r="F94" s="143">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>8.8589896880488439</v>
+        <v>8.8700660082496157</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>197</v>
       </c>
-      <c r="I94" s="144">
+      <c r="I94" s="143">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>8.8589896880488439</v>
+        <v>8.8700660082496157</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -11658,25 +11672,25 @@
         <f xml:space="preserve"> "Valuation in "&amp;Dashboard!H3</f>
         <v>Valuation in HKD</v>
       </c>
-      <c r="C96" s="127" t="str">
+      <c r="C96" s="126" t="str">
         <f>Dashboard!H3</f>
         <v>HKD</v>
       </c>
-      <c r="D96" s="124" t="s">
+      <c r="D96" s="123" t="s">
         <v>200</v>
       </c>
-      <c r="E96" s="183" t="str">
+      <c r="E96" s="182" t="str">
         <f>E72</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F96" s="227" t="s">
-        <v>224</v>
-      </c>
-      <c r="H96" s="183" t="str">
+      <c r="F96" s="224" t="s">
+        <v>223</v>
+      </c>
+      <c r="H96" s="182" t="str">
         <f>H72</f>
         <v>Base Case</v>
       </c>
-      <c r="I96" s="124" t="s">
+      <c r="I96" s="123" t="s">
         <v>112</v>
       </c>
       <c r="K96" s="24"/>
@@ -11687,21 +11701,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>45580832.803489648</v>
-      </c>
-      <c r="D97" s="213"/>
-      <c r="E97" s="123">
+        <v>45702972.366440207</v>
+      </c>
+      <c r="D97" s="210"/>
+      <c r="E97" s="122">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>10.42184211712712</v>
-      </c>
-      <c r="F97" s="213"/>
-      <c r="H97" s="123">
+        <v>10.449768751263305</v>
+      </c>
+      <c r="F97" s="210"/>
+      <c r="H97" s="122">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>10.42184211712712</v>
-      </c>
-      <c r="I97" s="123">
+        <v>10.449768751263305</v>
+      </c>
+      <c r="I97" s="122">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>14.225208425644775</v>
+        <v>14.263326657215478</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -11713,14 +11727,14 @@
         <f>-E53*Exchange_Rate</f>
         <v>0</v>
       </c>
-      <c r="D98" s="213"/>
-      <c r="E98" s="213"/>
-      <c r="F98" s="213"/>
-      <c r="H98" s="123">
+      <c r="D98" s="210"/>
+      <c r="E98" s="210"/>
+      <c r="F98" s="210"/>
+      <c r="H98" s="122">
         <f>C98*Data!$C$4/Common_Shares</f>
         <v>0</v>
       </c>
-      <c r="I98" s="215"/>
+      <c r="I98" s="212"/>
       <c r="K98" s="24"/>
     </row>
     <row r="99" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -11731,17 +11745,17 @@
         <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
         <v>0</v>
       </c>
-      <c r="D99" s="214"/>
-      <c r="E99" s="145">
+      <c r="D99" s="211"/>
+      <c r="E99" s="144">
         <f>IF(H99&gt;0,H99*(1-C94),H99*(1+C94))</f>
         <v>0</v>
       </c>
-      <c r="F99" s="214"/>
-      <c r="H99" s="145">
+      <c r="F99" s="211"/>
+      <c r="H99" s="144">
         <f>C99*Data!$C$4/Common_Shares</f>
         <v>0</v>
       </c>
-      <c r="I99" s="216"/>
+      <c r="I99" s="213"/>
       <c r="K99" s="24"/>
     </row>
     <row r="100" spans="2:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
@@ -11750,27 +11764,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97+C98+$C$99</f>
-        <v>45580832.803489648</v>
+        <v>45702972.366440207</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>8.8585657995580522</v>
+        <v>8.8823034385738087</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>10.42184211712712</v>
+        <v>10.449768751263305</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>10.42184211712712</v>
+        <v>10.449768751263305</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>10.42184211712712</v>
+        <v>10.449768751263305</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>14.225208425644775</v>
+        <v>14.263326657215478</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -11782,25 +11796,25 @@
       <c r="B102" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="C102" s="127" t="str">
+      <c r="C102" s="126" t="str">
         <f>C96</f>
         <v>HKD</v>
       </c>
-      <c r="D102" s="124" t="s">
+      <c r="D102" s="123" t="s">
         <v>200</v>
       </c>
-      <c r="E102" s="183" t="str">
+      <c r="E102" s="182" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F102" s="227" t="s">
-        <v>224</v>
-      </c>
-      <c r="H102" s="183" t="str">
+      <c r="F102" s="224" t="s">
+        <v>223</v>
+      </c>
+      <c r="H102" s="182" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
-      <c r="I102" s="124" t="s">
+      <c r="I102" s="123" t="s">
         <v>112</v>
       </c>
       <c r="K102" s="24"/>
@@ -11811,27 +11825,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>19263391.921104457</v>
+        <v>19287476.777796295</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>3.7438110354735388</v>
-      </c>
-      <c r="E103" s="123">
+        <v>3.7484918908825962</v>
+      </c>
+      <c r="E103" s="122">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>4.4044835711453398</v>
+        <v>4.409990459861878</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>4.4044835711453398</v>
-      </c>
-      <c r="H103" s="123">
+        <v>4.409990459861878</v>
+      </c>
+      <c r="H103" s="122">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>4.4044835711453398</v>
+        <v>4.409990459861878</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>6.0118639394761857</v>
+        <v>6.0193805223306551</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -11843,25 +11857,25 @@
       <c r="B105" s="10" t="s">
         <v>184</v>
       </c>
-      <c r="C105" s="127" t="str">
+      <c r="C105" s="126" t="str">
         <f>C102</f>
         <v>HKD</v>
       </c>
-      <c r="D105" s="124" t="s">
+      <c r="D105" s="123" t="s">
         <v>200</v>
       </c>
-      <c r="E105" s="184" t="str">
+      <c r="E105" s="183" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F105" s="227" t="s">
-        <v>224</v>
-      </c>
-      <c r="H105" s="184" t="str">
+      <c r="F105" s="224" t="s">
+        <v>223</v>
+      </c>
+      <c r="H105" s="183" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
-      <c r="I105" s="124" t="s">
+      <c r="I105" s="123" t="s">
         <v>112</v>
       </c>
       <c r="K105" s="24"/>
@@ -11872,27 +11886,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>32422112.362297054</v>
+        <v>32495224.572118256</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>6.3011884175157959</v>
-      </c>
-      <c r="E106" s="123">
+        <v>6.3153976647282022</v>
+      </c>
+      <c r="E106" s="122">
         <f>(E100+E103)/2</f>
-        <v>7.4131628441362301</v>
+        <v>7.4298796055625917</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>7.4131628441362301</v>
-      </c>
-      <c r="H106" s="123">
+        <v>7.4298796055625917</v>
+      </c>
+      <c r="H106" s="122">
         <f>(H100+H103)/2</f>
-        <v>7.4131628441362301</v>
-      </c>
-      <c r="I106" s="123">
+        <v>7.4298796055625917</v>
+      </c>
+      <c r="I106" s="122">
         <f>(I100+I103)/2</f>
-        <v>10.118536182560479</v>
+        <v>10.141353589773066</v>
       </c>
       <c r="K106" s="24"/>
     </row>
@@ -11903,14 +11917,13 @@
       <c r="B108" s="10" t="s">
         <v>158</v>
       </c>
-      <c r="C108" s="128" t="str">
+      <c r="C108" s="127" t="str">
         <f>Inputs!C87</f>
         <v>Profit</v>
       </c>
       <c r="K108" s="24"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="11">
     <mergeCell ref="D56:E56"/>
     <mergeCell ref="D57:E57"/>

--- a/financial_models/opportunities/0027.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0027.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{48D492EE-E72F-4A41-87DD-AD0ECE81640C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5BD7884C-5C73-438C-A93E-573CAF7422A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3250,9 +3250,7 @@
       <c r="B37" s="94" t="s">
         <v>261</v>
       </c>
-      <c r="C37" s="149">
-        <v>0</v>
-      </c>
+      <c r="C37" s="149"/>
       <c r="D37" s="149"/>
       <c r="E37" s="149"/>
       <c r="F37" s="149"/>
@@ -3316,9 +3314,7 @@
       <c r="B41" s="94" t="s">
         <v>133</v>
       </c>
-      <c r="C41" s="149">
-        <v>0</v>
-      </c>
+      <c r="C41" s="149"/>
       <c r="D41" s="149"/>
       <c r="E41" s="149"/>
       <c r="F41" s="149"/>
@@ -3334,9 +3330,7 @@
       <c r="B42" s="94" t="s">
         <v>134</v>
       </c>
-      <c r="C42" s="149">
-        <v>0</v>
-      </c>
+      <c r="C42" s="149"/>
       <c r="D42" s="149"/>
       <c r="E42" s="149"/>
       <c r="F42" s="149"/>
@@ -3389,7 +3383,7 @@
       </c>
       <c r="C45" s="151">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>2.3460410557184751E-2</v>
+        <v>2.3391812865497075E-2</v>
       </c>
       <c r="D45" s="151" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4131,7 +4125,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="131">
-        <v>34.1</v>
+        <v>34.200000000000003</v>
       </c>
       <c r="H3" s="133" t="s">
         <v>273</v>
@@ -4172,7 +4166,7 @@
       </c>
       <c r="G5" s="287">
         <f>G3*G4/1000000</f>
-        <v>149139.31540420002</v>
+        <v>149576.67410040004</v>
       </c>
       <c r="H5" s="287"/>
       <c r="I5" s="38"/>
@@ -4404,7 +4398,7 @@
       </c>
       <c r="G24" s="265">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>31.315814957200054</v>
+        <v>31.407650191678648</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4436,7 +4430,7 @@
       </c>
       <c r="G26" s="177">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>1.4662756598240468E-2</v>
+        <v>1.4619883040935672E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4466,20 +4460,20 @@
       </c>
       <c r="C29" s="129">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>8.8823034385738087</v>
+        <v>8.8782857543463614</v>
       </c>
       <c r="D29" s="128">
         <f>G29*(1+G20)</f>
-        <v>16.402825655797798</v>
+        <v>16.395406254470362</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>10.449768751263305</v>
+        <v>10.445042063936896</v>
       </c>
       <c r="G29" s="286">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>14.263326657215478</v>
+        <v>14.256875003887272</v>
       </c>
       <c r="H29" s="286"/>
     </row>
@@ -11502,17 +11496,17 @@
       </c>
       <c r="C87" s="258">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>3.1932747123672812E-2</v>
+        <v>3.1839376518048031E-2</v>
       </c>
       <c r="D87" s="206"/>
       <c r="E87" s="259">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>3.1932747123672812E-2</v>
+        <v>3.1839376518048031E-2</v>
       </c>
       <c r="F87" s="206"/>
       <c r="H87" s="259">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>3.1932747123672812E-2</v>
+        <v>3.1839376518048031E-2</v>
       </c>
       <c r="I87" s="206"/>
       <c r="K87" s="24"/>
@@ -11553,17 +11547,17 @@
       </c>
       <c r="C89" s="258">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>2.3460410557184751E-2</v>
+        <v>2.3391812865497075E-2</v>
       </c>
       <c r="D89" s="206"/>
       <c r="E89" s="258">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>1.4662756598240468E-2</v>
+        <v>1.4619883040935672E-2</v>
       </c>
       <c r="F89" s="206"/>
       <c r="H89" s="258">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>1.4662756598240468E-2</v>
+        <v>1.4619883040935672E-2</v>
       </c>
       <c r="I89" s="206"/>
       <c r="K89" s="24"/>
@@ -11623,14 +11617,14 @@
       </c>
       <c r="F93" s="143">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>21.018217485566339</v>
+        <v>21.008710429039304</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>196</v>
       </c>
       <c r="I93" s="143">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>21.018217485566339</v>
+        <v>21.008710429039304</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -11651,14 +11645,14 @@
       </c>
       <c r="F94" s="143">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>8.8700660082496157</v>
+        <v>8.8681921878864802</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>197</v>
       </c>
       <c r="I94" s="143">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>8.8700660082496157</v>
+        <v>8.8681921878864802</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -11701,21 +11695,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>45702972.366440207</v>
+        <v>45682299.788375974</v>
       </c>
       <c r="D97" s="210"/>
       <c r="E97" s="122">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>10.449768751263305</v>
+        <v>10.445042063936896</v>
       </c>
       <c r="F97" s="210"/>
       <c r="H97" s="122">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>10.449768751263305</v>
+        <v>10.445042063936896</v>
       </c>
       <c r="I97" s="122">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>14.263326657215478</v>
+        <v>14.256875003887272</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -11764,27 +11758,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97+C98+$C$99</f>
-        <v>45702972.366440207</v>
+        <v>45682299.788375974</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>8.8823034385738087</v>
+        <v>8.8782857543463614</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>10.449768751263305</v>
+        <v>10.445042063936896</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>10.449768751263305</v>
+        <v>10.445042063936896</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>10.449768751263305</v>
+        <v>10.445042063936896</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>14.263326657215478</v>
+        <v>14.256875003887272</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -11825,27 +11819,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>19287476.777796295</v>
+        <v>19283402.257188883</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>3.7484918908825962</v>
+        <v>3.747700013975519</v>
       </c>
       <c r="E103" s="122">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>4.409990459861878</v>
+        <v>4.4090588399711992</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>4.409990459861878</v>
+        <v>4.4090588399711992</v>
       </c>
       <c r="H103" s="122">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>4.409990459861878</v>
+        <v>4.4090588399711992</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>6.0193805223306551</v>
+        <v>6.018108915356625</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -11886,27 +11880,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>32495224.572118256</v>
+        <v>32482851.02278243</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>6.3153976647282022</v>
+        <v>6.3129928841609404</v>
       </c>
       <c r="E106" s="122">
         <f>(E100+E103)/2</f>
-        <v>7.4298796055625917</v>
+        <v>7.427050451954047</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>7.4298796055625917</v>
+        <v>7.427050451954047</v>
       </c>
       <c r="H106" s="122">
         <f>(H100+H103)/2</f>
-        <v>7.4298796055625917</v>
+        <v>7.427050451954047</v>
       </c>
       <c r="I106" s="122">
         <f>(I100+I103)/2</f>
-        <v>10.141353589773066</v>
+        <v>10.137491959621949</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0027.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0027.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5BD7884C-5C73-438C-A93E-573CAF7422A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C88F4E98-20F4-46E4-8422-C876E220A4FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="273">
   <si>
     <t>Company Info:</t>
   </si>
@@ -108,9 +108,6 @@
     <t>Interest-bearing Debt</t>
   </si>
   <si>
-    <t>Current Ratio</t>
-  </si>
-  <si>
     <t>Output</t>
   </si>
   <si>
@@ -850,10 +847,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Balance Sheet</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>Years of Projection</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -965,10 +958,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>PlaceHolder_2</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>PlaceHolder_1</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -986,6 +975,14 @@
   </si>
   <si>
     <t>PlaceHolder_4</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Contingent Liabilities</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Contin. Liabilities / Total Assets</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -1681,7 +1678,7 @@
     <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="299">
+  <cellXfs count="298">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1829,7 +1826,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2019,9 +2015,6 @@
     <xf numFmtId="179" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="10" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -2357,6 +2350,7 @@
     <xf numFmtId="3" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2812,7 +2806,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C73" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -2826,172 +2820,172 @@
     <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B4" s="139" t="s">
+        <v>180</v>
+      </c>
+      <c r="C4" s="185" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B5" s="139" t="s">
+        <v>181</v>
+      </c>
+      <c r="C5" s="188" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B6" s="139" t="s">
+        <v>155</v>
+      </c>
+      <c r="C6" s="186">
+        <v>45603</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B7" s="138" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="187">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B8" s="138" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B4" s="140" t="s">
-        <v>181</v>
-      </c>
-      <c r="C4" s="187" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B5" s="140" t="s">
-        <v>182</v>
-      </c>
-      <c r="C5" s="190" t="s">
+      <c r="C8" s="188" t="s">
+        <v>67</v>
+      </c>
+      <c r="E8" s="262"/>
+    </row>
+    <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B9" s="138" t="s">
+        <v>202</v>
+      </c>
+      <c r="C9" s="189" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B6" s="140" t="s">
-        <v>156</v>
-      </c>
-      <c r="C6" s="188">
-        <v>45603</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B7" s="139" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="189">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B8" s="139" t="s">
-        <v>202</v>
-      </c>
-      <c r="C8" s="190" t="s">
-        <v>68</v>
-      </c>
-      <c r="E8" s="264"/>
-    </row>
-    <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B9" s="139" t="s">
+    <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B10" s="138" t="s">
         <v>203</v>
       </c>
-      <c r="C9" s="191" t="s">
+      <c r="C10" s="190">
+        <v>4373586962</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B11" s="138" t="s">
+        <v>204</v>
+      </c>
+      <c r="C11" s="189" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B12" s="213" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="214">
+        <v>45291</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B13" s="213" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="215">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B14" s="213" t="s">
+        <v>205</v>
+      </c>
+      <c r="C14" s="214">
+        <v>45473</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B15" s="213" t="s">
+        <v>237</v>
+      </c>
+      <c r="C15" s="173" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B16" s="217" t="s">
+        <v>93</v>
+      </c>
+      <c r="C16" s="218">
+        <v>0.23499999999999999</v>
+      </c>
+      <c r="D16" s="24"/>
+    </row>
+    <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B17" s="235" t="s">
+        <v>209</v>
+      </c>
+      <c r="C17" s="237" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B10" s="139" t="s">
-        <v>204</v>
-      </c>
-      <c r="C10" s="192">
-        <v>4373586962</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B11" s="139" t="s">
-        <v>205</v>
-      </c>
-      <c r="C11" s="191" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B12" s="215" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="216">
-        <v>45291</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B13" s="215" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="217">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B14" s="215" t="s">
-        <v>206</v>
-      </c>
-      <c r="C14" s="216">
-        <v>45473</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B15" s="215" t="s">
-        <v>239</v>
-      </c>
-      <c r="C15" s="175" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B16" s="219" t="s">
-        <v>94</v>
-      </c>
-      <c r="C16" s="220">
-        <v>0.23499999999999999</v>
-      </c>
-      <c r="D16" s="24"/>
-    </row>
-    <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B17" s="237" t="s">
-        <v>210</v>
-      </c>
-      <c r="C17" s="239" t="s">
+      <c r="D17" s="24"/>
+    </row>
+    <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B18" s="235" t="s">
+        <v>223</v>
+      </c>
+      <c r="C18" s="237" t="s">
+        <v>228</v>
+      </c>
+      <c r="D18" s="24"/>
+    </row>
+    <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B19" s="235" t="s">
+        <v>224</v>
+      </c>
+      <c r="C19" s="237" t="s">
+        <v>270</v>
+      </c>
+      <c r="D19" s="24"/>
+    </row>
+    <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B20" s="236" t="s">
+        <v>213</v>
+      </c>
+      <c r="C20" s="237" t="s">
+        <v>270</v>
+      </c>
+      <c r="D20" s="24"/>
+    </row>
+    <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B21" s="219" t="s">
+        <v>216</v>
+      </c>
+      <c r="C21" s="237" t="s">
+        <v>228</v>
+      </c>
+      <c r="D21" s="24"/>
+    </row>
+    <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
+      <c r="B22" s="221" t="s">
+        <v>215</v>
+      </c>
+      <c r="C22" s="238" t="s">
         <v>271</v>
       </c>
-      <c r="D17" s="24"/>
-    </row>
-    <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B18" s="237" t="s">
-        <v>224</v>
-      </c>
-      <c r="C18" s="239" t="s">
-        <v>229</v>
-      </c>
-      <c r="D18" s="24"/>
-    </row>
-    <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B19" s="237" t="s">
-        <v>225</v>
-      </c>
-      <c r="C19" s="239" t="s">
-        <v>271</v>
-      </c>
-      <c r="D19" s="24"/>
-    </row>
-    <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B20" s="238" t="s">
-        <v>214</v>
-      </c>
-      <c r="C20" s="239" t="s">
-        <v>271</v>
-      </c>
-      <c r="D20" s="24"/>
-    </row>
-    <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B21" s="221" t="s">
-        <v>217</v>
-      </c>
-      <c r="C21" s="239" t="s">
-        <v>229</v>
-      </c>
-      <c r="D21" s="24"/>
-    </row>
-    <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
-      <c r="B22" s="223" t="s">
-        <v>216</v>
-      </c>
-      <c r="C22" s="240" t="s">
-        <v>272</v>
-      </c>
       <c r="D22" s="24"/>
     </row>
     <row r="24" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B24" s="115" t="s">
-        <v>129</v>
+      <c r="B24" s="114" t="s">
+        <v>128</v>
       </c>
       <c r="C24" s="48">
         <f>C12</f>
@@ -3039,792 +3033,793 @@
       </c>
     </row>
     <row r="25" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B25" s="94" t="s">
+      <c r="B25" s="93" t="s">
         <v>12</v>
       </c>
-      <c r="C25" s="148">
+      <c r="C25" s="147">
         <v>35684253</v>
       </c>
-      <c r="D25" s="148">
+      <c r="D25" s="147">
         <v>11473793</v>
       </c>
-      <c r="E25" s="148"/>
-      <c r="F25" s="148"/>
-      <c r="G25" s="148"/>
-      <c r="H25" s="148"/>
-      <c r="I25" s="148"/>
-      <c r="J25" s="148"/>
-      <c r="K25" s="148"/>
-      <c r="L25" s="148"/>
-      <c r="M25" s="148"/>
+      <c r="E25" s="147"/>
+      <c r="F25" s="147"/>
+      <c r="G25" s="147"/>
+      <c r="H25" s="147"/>
+      <c r="I25" s="147"/>
+      <c r="J25" s="147"/>
+      <c r="K25" s="147"/>
+      <c r="L25" s="147"/>
+      <c r="M25" s="147"/>
     </row>
     <row r="26" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B26" s="97" t="s">
+      <c r="B26" s="96" t="s">
+        <v>102</v>
+      </c>
+      <c r="C26" s="148">
+        <v>16868997</v>
+      </c>
+      <c r="D26" s="148">
+        <v>6522891</v>
+      </c>
+      <c r="E26" s="148"/>
+      <c r="F26" s="148"/>
+      <c r="G26" s="148"/>
+      <c r="H26" s="148"/>
+      <c r="I26" s="148"/>
+      <c r="J26" s="148"/>
+      <c r="K26" s="148"/>
+      <c r="L26" s="148"/>
+      <c r="M26" s="148"/>
+    </row>
+    <row r="27" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B27" s="96" t="s">
+        <v>100</v>
+      </c>
+      <c r="C27" s="148">
+        <v>12529703</v>
+      </c>
+      <c r="D27" s="148">
+        <v>8392476</v>
+      </c>
+      <c r="E27" s="148"/>
+      <c r="F27" s="148"/>
+      <c r="G27" s="148"/>
+      <c r="H27" s="148"/>
+      <c r="I27" s="148"/>
+      <c r="J27" s="148"/>
+      <c r="K27" s="148"/>
+      <c r="L27" s="148"/>
+      <c r="M27" s="148"/>
+    </row>
+    <row r="28" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B28" s="96" t="s">
         <v>103</v>
       </c>
-      <c r="C26" s="149">
-        <v>16868997</v>
-      </c>
-      <c r="D26" s="149">
-        <v>6522891</v>
-      </c>
-      <c r="E26" s="149"/>
-      <c r="F26" s="149"/>
-      <c r="G26" s="149"/>
-      <c r="H26" s="149"/>
-      <c r="I26" s="149"/>
-      <c r="J26" s="149"/>
-      <c r="K26" s="149"/>
-      <c r="L26" s="149"/>
-      <c r="M26" s="149"/>
-    </row>
-    <row r="27" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B27" s="97" t="s">
+      <c r="C28" s="148"/>
+      <c r="D28" s="148"/>
+      <c r="E28" s="148"/>
+      <c r="F28" s="148"/>
+      <c r="G28" s="148"/>
+      <c r="H28" s="148"/>
+      <c r="I28" s="148"/>
+      <c r="J28" s="148"/>
+      <c r="K28" s="148"/>
+      <c r="L28" s="148"/>
+      <c r="M28" s="148"/>
+    </row>
+    <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B29" s="96" t="s">
+        <v>238</v>
+      </c>
+      <c r="C29" s="148"/>
+      <c r="D29" s="148"/>
+      <c r="E29" s="148"/>
+      <c r="F29" s="148"/>
+      <c r="G29" s="148"/>
+      <c r="H29" s="148"/>
+      <c r="I29" s="148"/>
+      <c r="J29" s="148"/>
+      <c r="K29" s="148"/>
+      <c r="L29" s="148"/>
+      <c r="M29" s="148"/>
+    </row>
+    <row r="30" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B30" s="98" t="s">
+        <v>107</v>
+      </c>
+      <c r="C30" s="148">
+        <v>46020</v>
+      </c>
+      <c r="D30" s="148">
+        <v>-14407</v>
+      </c>
+      <c r="E30" s="148"/>
+      <c r="F30" s="148"/>
+      <c r="G30" s="148"/>
+      <c r="H30" s="148"/>
+      <c r="I30" s="148"/>
+      <c r="J30" s="148"/>
+      <c r="K30" s="148"/>
+      <c r="L30" s="148"/>
+      <c r="M30" s="148"/>
+    </row>
+    <row r="31" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B31" s="96" t="s">
+        <v>106</v>
+      </c>
+      <c r="C31" s="148"/>
+      <c r="D31" s="148"/>
+      <c r="E31" s="148"/>
+      <c r="F31" s="148"/>
+      <c r="G31" s="148"/>
+      <c r="H31" s="148"/>
+      <c r="I31" s="148"/>
+      <c r="J31" s="148"/>
+      <c r="K31" s="148"/>
+      <c r="L31" s="148"/>
+      <c r="M31" s="148"/>
+    </row>
+    <row r="32" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B32" s="96" t="s">
         <v>101</v>
       </c>
-      <c r="C27" s="149">
-        <v>12529703</v>
-      </c>
-      <c r="D27" s="149">
-        <v>8392476</v>
-      </c>
-      <c r="E27" s="149"/>
-      <c r="F27" s="149"/>
-      <c r="G27" s="149"/>
-      <c r="H27" s="149"/>
-      <c r="I27" s="149"/>
-      <c r="J27" s="149"/>
-      <c r="K27" s="149"/>
-      <c r="L27" s="149"/>
-      <c r="M27" s="149"/>
-    </row>
-    <row r="28" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B28" s="97" t="s">
+      <c r="C32" s="148"/>
+      <c r="D32" s="148"/>
+      <c r="E32" s="148"/>
+      <c r="F32" s="148"/>
+      <c r="G32" s="148"/>
+      <c r="H32" s="148"/>
+      <c r="I32" s="148"/>
+      <c r="J32" s="148"/>
+      <c r="K32" s="148"/>
+      <c r="L32" s="148"/>
+      <c r="M32" s="148"/>
+    </row>
+    <row r="33" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B33" s="96" t="s">
         <v>104</v>
       </c>
-      <c r="C28" s="149"/>
-      <c r="D28" s="149"/>
-      <c r="E28" s="149"/>
-      <c r="F28" s="149"/>
-      <c r="G28" s="149"/>
-      <c r="H28" s="149"/>
-      <c r="I28" s="149"/>
-      <c r="J28" s="149"/>
-      <c r="K28" s="149"/>
-      <c r="L28" s="149"/>
-      <c r="M28" s="149"/>
-    </row>
-    <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B29" s="97" t="s">
-        <v>240</v>
-      </c>
-      <c r="C29" s="149"/>
-      <c r="D29" s="149"/>
-      <c r="E29" s="149"/>
-      <c r="F29" s="149"/>
-      <c r="G29" s="149"/>
-      <c r="H29" s="149"/>
-      <c r="I29" s="149"/>
-      <c r="J29" s="149"/>
-      <c r="K29" s="149"/>
-      <c r="L29" s="149"/>
-      <c r="M29" s="149"/>
-    </row>
-    <row r="30" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B30" s="99" t="s">
-        <v>108</v>
-      </c>
-      <c r="C30" s="149">
-        <v>46020</v>
-      </c>
-      <c r="D30" s="149">
-        <v>-14407</v>
-      </c>
-      <c r="E30" s="149"/>
-      <c r="F30" s="149"/>
-      <c r="G30" s="149"/>
-      <c r="H30" s="149"/>
-      <c r="I30" s="149"/>
-      <c r="J30" s="149"/>
-      <c r="K30" s="149"/>
-      <c r="L30" s="149"/>
-      <c r="M30" s="149"/>
-    </row>
-    <row r="31" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B31" s="97" t="s">
-        <v>107</v>
-      </c>
-      <c r="C31" s="149"/>
-      <c r="D31" s="149"/>
-      <c r="E31" s="149"/>
-      <c r="F31" s="149"/>
-      <c r="G31" s="149"/>
-      <c r="H31" s="149"/>
-      <c r="I31" s="149"/>
-      <c r="J31" s="149"/>
-      <c r="K31" s="149"/>
-      <c r="L31" s="149"/>
-      <c r="M31" s="149"/>
-    </row>
-    <row r="32" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B32" s="97" t="s">
-        <v>102</v>
-      </c>
-      <c r="C32" s="149"/>
-      <c r="D32" s="149"/>
-      <c r="E32" s="149"/>
-      <c r="F32" s="149"/>
-      <c r="G32" s="149"/>
-      <c r="H32" s="149"/>
-      <c r="I32" s="149"/>
-      <c r="J32" s="149"/>
-      <c r="K32" s="149"/>
-      <c r="L32" s="149"/>
-      <c r="M32" s="149"/>
-    </row>
-    <row r="33" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B33" s="97" t="s">
-        <v>105</v>
-      </c>
-      <c r="C33" s="149"/>
-      <c r="D33" s="149"/>
-      <c r="E33" s="149"/>
-      <c r="F33" s="149"/>
-      <c r="G33" s="149"/>
-      <c r="H33" s="149"/>
-      <c r="I33" s="149"/>
-      <c r="J33" s="149"/>
-      <c r="K33" s="149"/>
-      <c r="L33" s="149"/>
-      <c r="M33" s="149"/>
+      <c r="C33" s="148"/>
+      <c r="D33" s="148"/>
+      <c r="E33" s="148"/>
+      <c r="F33" s="148"/>
+      <c r="G33" s="148"/>
+      <c r="H33" s="148"/>
+      <c r="I33" s="148"/>
+      <c r="J33" s="148"/>
+      <c r="K33" s="148"/>
+      <c r="L33" s="148"/>
+      <c r="M33" s="148"/>
     </row>
     <row r="34" spans="2:13" ht="13.9" hidden="1" x14ac:dyDescent="0.4">
-      <c r="B34" s="97" t="s">
-        <v>263</v>
-      </c>
-      <c r="C34" s="214"/>
-      <c r="D34" s="149"/>
-      <c r="E34" s="149"/>
-      <c r="F34" s="149"/>
-      <c r="G34" s="149"/>
-      <c r="H34" s="149"/>
-      <c r="I34" s="149"/>
-      <c r="J34" s="149"/>
-      <c r="K34" s="149"/>
-      <c r="L34" s="149"/>
-      <c r="M34" s="149"/>
+      <c r="B34" s="96" t="s">
+        <v>260</v>
+      </c>
+      <c r="C34" s="212"/>
+      <c r="D34" s="148"/>
+      <c r="E34" s="148"/>
+      <c r="F34" s="148"/>
+      <c r="G34" s="148"/>
+      <c r="H34" s="148"/>
+      <c r="I34" s="148"/>
+      <c r="J34" s="148"/>
+      <c r="K34" s="148"/>
+      <c r="L34" s="148"/>
+      <c r="M34" s="148"/>
     </row>
     <row r="35" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B35" s="94" t="s">
-        <v>113</v>
-      </c>
-      <c r="C35" s="214"/>
-      <c r="D35" s="149"/>
-      <c r="E35" s="149"/>
-      <c r="F35" s="149"/>
-      <c r="G35" s="149"/>
-      <c r="H35" s="149"/>
-      <c r="I35" s="149"/>
-      <c r="J35" s="149"/>
-      <c r="K35" s="149"/>
-      <c r="L35" s="149"/>
-      <c r="M35" s="149"/>
+      <c r="B35" s="93" t="s">
+        <v>112</v>
+      </c>
+      <c r="C35" s="212"/>
+      <c r="D35" s="148"/>
+      <c r="E35" s="148"/>
+      <c r="F35" s="148"/>
+      <c r="G35" s="148"/>
+      <c r="H35" s="148"/>
+      <c r="I35" s="148"/>
+      <c r="J35" s="148"/>
+      <c r="K35" s="148"/>
+      <c r="L35" s="148"/>
+      <c r="M35" s="148"/>
     </row>
     <row r="36" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B36" s="94" t="s">
-        <v>142</v>
-      </c>
-      <c r="C36" s="214"/>
-      <c r="D36" s="149"/>
-      <c r="E36" s="149"/>
-      <c r="F36" s="149"/>
-      <c r="G36" s="149"/>
-      <c r="H36" s="149"/>
-      <c r="I36" s="149"/>
-      <c r="J36" s="149"/>
-      <c r="K36" s="149"/>
-      <c r="L36" s="149"/>
-      <c r="M36" s="149"/>
+      <c r="B36" s="93" t="s">
+        <v>141</v>
+      </c>
+      <c r="C36" s="212"/>
+      <c r="D36" s="148"/>
+      <c r="E36" s="148"/>
+      <c r="F36" s="148"/>
+      <c r="G36" s="148"/>
+      <c r="H36" s="148"/>
+      <c r="I36" s="148"/>
+      <c r="J36" s="148"/>
+      <c r="K36" s="148"/>
+      <c r="L36" s="148"/>
+      <c r="M36" s="148"/>
     </row>
     <row r="37" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B37" s="94" t="s">
-        <v>261</v>
-      </c>
-      <c r="C37" s="149"/>
-      <c r="D37" s="149"/>
-      <c r="E37" s="149"/>
-      <c r="F37" s="149"/>
-      <c r="G37" s="149"/>
-      <c r="H37" s="149"/>
-      <c r="I37" s="149"/>
-      <c r="J37" s="149"/>
-      <c r="K37" s="149"/>
-      <c r="L37" s="149"/>
-      <c r="M37" s="149"/>
-    </row>
-    <row r="38" spans="2:13" ht="13.9" hidden="1" x14ac:dyDescent="0.4">
-      <c r="B38" s="94" t="s">
-        <v>262</v>
-      </c>
-      <c r="C38" s="214"/>
-      <c r="D38" s="149"/>
-      <c r="E38" s="149"/>
-      <c r="F38" s="149"/>
-      <c r="G38" s="149"/>
-      <c r="H38" s="149"/>
-      <c r="I38" s="149"/>
-      <c r="J38" s="149"/>
-      <c r="K38" s="149"/>
-      <c r="L38" s="149"/>
-      <c r="M38" s="149"/>
+      <c r="B37" s="93" t="s">
+        <v>259</v>
+      </c>
+      <c r="C37" s="148"/>
+      <c r="D37" s="148"/>
+      <c r="E37" s="148"/>
+      <c r="F37" s="148"/>
+      <c r="G37" s="148"/>
+      <c r="H37" s="148"/>
+      <c r="I37" s="148"/>
+      <c r="J37" s="148"/>
+      <c r="K37" s="148"/>
+      <c r="L37" s="148"/>
+      <c r="M37" s="148"/>
+    </row>
+    <row r="38" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B38" s="93" t="s">
+        <v>265</v>
+      </c>
+      <c r="C38" s="148"/>
+      <c r="D38" s="148"/>
+      <c r="E38" s="148"/>
+      <c r="F38" s="148"/>
+      <c r="G38" s="148"/>
+      <c r="H38" s="148"/>
+      <c r="I38" s="148"/>
+      <c r="J38" s="148"/>
+      <c r="K38" s="148"/>
+      <c r="L38" s="148"/>
+      <c r="M38" s="148"/>
     </row>
     <row r="39" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B39" s="94" t="s">
+      <c r="B39" s="93" t="s">
         <v>17</v>
       </c>
-      <c r="C39" s="214"/>
-      <c r="D39" s="149"/>
-      <c r="E39" s="149"/>
-      <c r="F39" s="149"/>
-      <c r="G39" s="149"/>
-      <c r="H39" s="149"/>
-      <c r="I39" s="149"/>
-      <c r="J39" s="149"/>
-      <c r="K39" s="149"/>
-      <c r="L39" s="149"/>
-      <c r="M39" s="149"/>
+      <c r="C39" s="212"/>
+      <c r="D39" s="148"/>
+      <c r="E39" s="148"/>
+      <c r="F39" s="148"/>
+      <c r="G39" s="148"/>
+      <c r="H39" s="148"/>
+      <c r="I39" s="148"/>
+      <c r="J39" s="148"/>
+      <c r="K39" s="148"/>
+      <c r="L39" s="148"/>
+      <c r="M39" s="148"/>
     </row>
     <row r="40" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B40" s="94" t="s">
+      <c r="B40" s="93" t="s">
         <v>18</v>
       </c>
-      <c r="C40" s="214"/>
-      <c r="D40" s="149"/>
-      <c r="E40" s="149"/>
-      <c r="F40" s="149"/>
-      <c r="G40" s="149"/>
-      <c r="H40" s="149"/>
-      <c r="I40" s="149"/>
-      <c r="J40" s="149"/>
-      <c r="K40" s="149"/>
-      <c r="L40" s="149"/>
-      <c r="M40" s="149"/>
+      <c r="C40" s="212"/>
+      <c r="D40" s="148"/>
+      <c r="E40" s="148"/>
+      <c r="F40" s="148"/>
+      <c r="G40" s="148"/>
+      <c r="H40" s="148"/>
+      <c r="I40" s="148"/>
+      <c r="J40" s="148"/>
+      <c r="K40" s="148"/>
+      <c r="L40" s="148"/>
+      <c r="M40" s="148"/>
     </row>
     <row r="41" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B41" s="94" t="s">
+      <c r="B41" s="93" t="s">
+        <v>132</v>
+      </c>
+      <c r="C41" s="148"/>
+      <c r="D41" s="148"/>
+      <c r="E41" s="148"/>
+      <c r="F41" s="148"/>
+      <c r="G41" s="148"/>
+      <c r="H41" s="148"/>
+      <c r="I41" s="148"/>
+      <c r="J41" s="148"/>
+      <c r="K41" s="148"/>
+      <c r="L41" s="148"/>
+      <c r="M41" s="148"/>
+    </row>
+    <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B42" s="93" t="s">
         <v>133</v>
       </c>
-      <c r="C41" s="149"/>
-      <c r="D41" s="149"/>
-      <c r="E41" s="149"/>
-      <c r="F41" s="149"/>
-      <c r="G41" s="149"/>
-      <c r="H41" s="149"/>
-      <c r="I41" s="149"/>
-      <c r="J41" s="149"/>
-      <c r="K41" s="149"/>
-      <c r="L41" s="149"/>
-      <c r="M41" s="149"/>
-    </row>
-    <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B42" s="94" t="s">
-        <v>134</v>
-      </c>
-      <c r="C42" s="149"/>
-      <c r="D42" s="149"/>
-      <c r="E42" s="149"/>
-      <c r="F42" s="149"/>
-      <c r="G42" s="149"/>
-      <c r="H42" s="149"/>
-      <c r="I42" s="149"/>
-      <c r="J42" s="149"/>
-      <c r="K42" s="149"/>
-      <c r="L42" s="149"/>
-      <c r="M42" s="149"/>
+      <c r="C42" s="148"/>
+      <c r="D42" s="148"/>
+      <c r="E42" s="148"/>
+      <c r="F42" s="148"/>
+      <c r="G42" s="148"/>
+      <c r="H42" s="148"/>
+      <c r="I42" s="148"/>
+      <c r="J42" s="148"/>
+      <c r="K42" s="148"/>
+      <c r="L42" s="148"/>
+      <c r="M42" s="148"/>
     </row>
     <row r="43" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B43" s="94" t="s">
-        <v>132</v>
-      </c>
-      <c r="C43" s="214"/>
-      <c r="D43" s="149"/>
-      <c r="E43" s="149"/>
-      <c r="F43" s="149"/>
-      <c r="G43" s="149"/>
-      <c r="H43" s="149"/>
-      <c r="I43" s="149"/>
-      <c r="J43" s="149"/>
-      <c r="K43" s="149"/>
-      <c r="L43" s="149"/>
-      <c r="M43" s="149"/>
+      <c r="B43" s="93" t="s">
+        <v>131</v>
+      </c>
+      <c r="C43" s="212"/>
+      <c r="D43" s="148"/>
+      <c r="E43" s="148"/>
+      <c r="F43" s="148"/>
+      <c r="G43" s="148"/>
+      <c r="H43" s="148"/>
+      <c r="I43" s="148"/>
+      <c r="J43" s="148"/>
+      <c r="K43" s="148"/>
+      <c r="L43" s="148"/>
+      <c r="M43" s="148"/>
     </row>
     <row r="44" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B44" s="74" t="s">
-        <v>194</v>
-      </c>
-      <c r="C44" s="247">
+        <v>193</v>
+      </c>
+      <c r="C44" s="245">
         <f>0.5+0.3</f>
         <v>0.8</v>
       </c>
-      <c r="D44" s="247"/>
-      <c r="E44" s="247"/>
-      <c r="F44" s="247"/>
-      <c r="G44" s="247"/>
-      <c r="H44" s="247"/>
-      <c r="I44" s="247"/>
-      <c r="J44" s="247"/>
-      <c r="K44" s="247"/>
-      <c r="L44" s="247"/>
-      <c r="M44" s="247"/>
+      <c r="D44" s="245"/>
+      <c r="E44" s="245"/>
+      <c r="F44" s="245"/>
+      <c r="G44" s="245"/>
+      <c r="H44" s="245"/>
+      <c r="I44" s="245"/>
+      <c r="J44" s="245"/>
+      <c r="K44" s="245"/>
+      <c r="L44" s="245"/>
+      <c r="M44" s="245"/>
     </row>
     <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="74" t="s">
-        <v>236</v>
-      </c>
-      <c r="C45" s="151">
+        <v>234</v>
+      </c>
+      <c r="C45" s="150">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>2.3391812865497075E-2</v>
-      </c>
-      <c r="D45" s="151" t="str">
+        <v>2.3357664233576644E-2</v>
+      </c>
+      <c r="D45" s="150" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="E45" s="151" t="str">
+      <c r="E45" s="150" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="F45" s="151" t="str">
+      <c r="F45" s="150" t="str">
         <f>IF(F44="","",F44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="G45" s="151" t="str">
+      <c r="G45" s="150" t="str">
         <f>IF(G44="","",G44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="H45" s="151" t="str">
+      <c r="H45" s="150" t="str">
         <f>IF(H44="","",H44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="I45" s="151" t="str">
+      <c r="I45" s="150" t="str">
         <f>IF(I44="","",I44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="J45" s="151" t="str">
+      <c r="J45" s="150" t="str">
         <f>IF(J44="","",J44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="K45" s="151" t="str">
+      <c r="K45" s="150" t="str">
         <f>IF(K44="","",K44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="L45" s="151" t="str">
+      <c r="L45" s="150" t="str">
         <f>IF(L44="","",L44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="M45" s="151" t="str">
+      <c r="M45" s="150" t="str">
         <f>IF(M44="","",M44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
     </row>
     <row r="47" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B47" s="10" t="s">
-        <v>233</v>
-      </c>
-      <c r="C47" s="193" t="s">
-        <v>31</v>
-      </c>
-      <c r="D47" s="193" t="s">
-        <v>183</v>
-      </c>
-      <c r="E47" s="111" t="s">
-        <v>33</v>
+      <c r="B47" s="10" t="str">
+        <f>"Balance Sheet"&amp;IF(SUM(C48:C72)=C37+C41,"","- Error")</f>
+        <v>Balance Sheet</v>
+      </c>
+      <c r="C47" s="191" t="s">
+        <v>30</v>
+      </c>
+      <c r="D47" s="191" t="s">
+        <v>182</v>
+      </c>
+      <c r="E47" s="110" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="48" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B48" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C48" s="59"/>
       <c r="D48" s="60">
         <v>0.9</v>
       </c>
-      <c r="E48" s="112"/>
+      <c r="E48" s="111"/>
     </row>
     <row r="49" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B49" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C49" s="59"/>
       <c r="D49" s="60">
         <v>0.8</v>
       </c>
-      <c r="E49" s="112"/>
+      <c r="E49" s="111"/>
     </row>
     <row r="50" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B50" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C50" s="59"/>
       <c r="D50" s="60">
         <f>D51</f>
         <v>0.6</v>
       </c>
-      <c r="E50" s="112"/>
+      <c r="E50" s="111"/>
     </row>
     <row r="51" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B51" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C51" s="59"/>
       <c r="D51" s="60">
         <v>0.6</v>
       </c>
-      <c r="E51" s="112"/>
+      <c r="E51" s="111"/>
     </row>
     <row r="52" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B52" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C52" s="59"/>
       <c r="D52" s="60">
         <v>0.5</v>
       </c>
-      <c r="E52" s="112"/>
+      <c r="E52" s="111"/>
     </row>
     <row r="53" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C53" s="59"/>
       <c r="D53" s="60">
         <f>D50</f>
         <v>0.6</v>
       </c>
-      <c r="E53" s="112"/>
+      <c r="E53" s="111"/>
     </row>
     <row r="54" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B54" s="3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C54" s="59"/>
       <c r="D54" s="60">
         <v>0.1</v>
       </c>
-      <c r="E54" s="112"/>
+      <c r="E54" s="111"/>
     </row>
     <row r="55" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C55" s="59"/>
       <c r="D55" s="60">
         <f>D52</f>
         <v>0.5</v>
       </c>
-      <c r="E55" s="112"/>
+      <c r="E55" s="111"/>
     </row>
     <row r="56" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B56" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C56" s="59"/>
       <c r="D56" s="60">
         <f>D50</f>
         <v>0.6</v>
       </c>
-      <c r="E56" s="218" t="s">
-        <v>68</v>
+      <c r="E56" s="216" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="57" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B57" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C57" s="59"/>
       <c r="D57" s="60">
         <v>0.6</v>
       </c>
-      <c r="E57" s="218" t="s">
-        <v>43</v>
+      <c r="E57" s="216" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="58" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B58" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C58" s="59"/>
       <c r="D58" s="60">
         <f>D48</f>
         <v>0.9</v>
       </c>
-      <c r="E58" s="112"/>
+      <c r="E58" s="111"/>
     </row>
     <row r="59" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B59" s="35" t="s">
-        <v>48</v>
-      </c>
-      <c r="C59" s="119"/>
-      <c r="D59" s="194">
+        <v>47</v>
+      </c>
+      <c r="C59" s="118"/>
+      <c r="D59" s="192">
         <f>D70</f>
         <v>0.05</v>
       </c>
-      <c r="E59" s="112"/>
+      <c r="E59" s="111"/>
     </row>
     <row r="60" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C60" s="59"/>
       <c r="D60" s="60">
         <f>D49</f>
         <v>0.8</v>
       </c>
-      <c r="E60" s="112"/>
+      <c r="E60" s="111"/>
     </row>
     <row r="61" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B61" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C61" s="59"/>
       <c r="D61" s="60">
         <f>D51</f>
         <v>0.6</v>
       </c>
-      <c r="E61" s="112"/>
+      <c r="E61" s="111"/>
     </row>
     <row r="62" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B62" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C62" s="59"/>
       <c r="D62" s="60">
         <f>D52</f>
         <v>0.5</v>
       </c>
-      <c r="E62" s="112"/>
+      <c r="E62" s="111"/>
     </row>
     <row r="63" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C63" s="59"/>
       <c r="D63" s="60">
         <f>D62</f>
         <v>0.5</v>
       </c>
-      <c r="E63" s="112"/>
+      <c r="E63" s="111"/>
     </row>
     <row r="64" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B64" s="3" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C64" s="59"/>
       <c r="D64" s="60">
         <v>0.4</v>
       </c>
-      <c r="E64" s="112"/>
+      <c r="E64" s="111"/>
     </row>
     <row r="65" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B65" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C65" s="59"/>
       <c r="D65" s="60">
         <v>0.1</v>
       </c>
-      <c r="E65" s="218" t="s">
-        <v>68</v>
+      <c r="E65" s="216" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="66" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B66" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C66" s="59"/>
       <c r="D66" s="60">
         <v>0.2</v>
       </c>
-      <c r="E66" s="218" t="s">
-        <v>68</v>
+      <c r="E66" s="216" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="67" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C67" s="59"/>
       <c r="D67" s="60">
         <f>D65</f>
         <v>0.1</v>
       </c>
-      <c r="E67" s="218" t="s">
-        <v>43</v>
+      <c r="E67" s="216" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="68" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C68" s="59"/>
       <c r="D68" s="60">
         <f>D65</f>
         <v>0.1</v>
       </c>
-      <c r="E68" s="112"/>
+      <c r="E68" s="111"/>
     </row>
     <row r="69" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B69" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C69" s="59"/>
       <c r="D69" s="60">
         <f>D70</f>
         <v>0.05</v>
       </c>
-      <c r="E69" s="112"/>
+      <c r="E69" s="111"/>
     </row>
     <row r="70" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B70" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C70" s="59"/>
       <c r="D70" s="60">
         <v>0.05</v>
       </c>
-      <c r="E70" s="112"/>
+      <c r="E70" s="111"/>
     </row>
     <row r="71" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B71" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C71" s="59"/>
       <c r="D71" s="60">
         <f>D58</f>
         <v>0.9</v>
       </c>
-      <c r="E71" s="112"/>
+      <c r="E71" s="111"/>
     </row>
     <row r="72" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B72" s="243" t="s">
-        <v>73</v>
-      </c>
-      <c r="C72" s="244"/>
-      <c r="D72" s="245">
-        <v>0</v>
-      </c>
-      <c r="E72" s="246"/>
+      <c r="B72" s="241" t="s">
+        <v>72</v>
+      </c>
+      <c r="C72" s="242"/>
+      <c r="D72" s="243">
+        <v>0</v>
+      </c>
+      <c r="E72" s="244"/>
     </row>
     <row r="73" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B73" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C73" s="59"/>
     </row>
     <row r="74" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B74" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C74" s="59"/>
     </row>
     <row r="75" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B75" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C75" s="59"/>
     </row>
     <row r="76" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B76" s="86" t="s">
-        <v>40</v>
-      </c>
-      <c r="C76" s="119"/>
+      <c r="B76" s="85" t="s">
+        <v>39</v>
+      </c>
+      <c r="C76" s="118"/>
     </row>
     <row r="77" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B77" s="80" t="s">
         <v>16</v>
       </c>
-      <c r="C77" s="83"/>
+      <c r="C77" s="82"/>
     </row>
     <row r="78" spans="2:5" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B78" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C78" s="59"/>
     </row>
     <row r="79" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B79" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C79" s="59"/>
     </row>
     <row r="80" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B80" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C80" s="59"/>
+    </row>
+    <row r="81" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B81" s="85" t="s">
         <v>63</v>
       </c>
-      <c r="C80" s="59"/>
-    </row>
-    <row r="81" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B81" s="86" t="s">
-        <v>64</v>
-      </c>
-      <c r="C81" s="119"/>
+      <c r="C81" s="118"/>
     </row>
     <row r="82" spans="2:8" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B82" s="80" t="s">
-        <v>266</v>
-      </c>
-      <c r="C82" s="214"/>
+        <v>263</v>
+      </c>
+      <c r="C82" s="212"/>
     </row>
     <row r="83" spans="2:8" ht="14.25" hidden="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B83" s="73" t="s">
-        <v>267</v>
-      </c>
-      <c r="C83" s="214"/>
+        <v>264</v>
+      </c>
+      <c r="C83" s="212"/>
     </row>
     <row r="84" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B84" s="20" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C84" s="59"/>
     </row>
     <row r="85" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B85" s="20" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C85" s="59"/>
     </row>
     <row r="86" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B86" s="10" t="s">
-        <v>234</v>
-      </c>
-      <c r="C86" s="196">
+        <v>232</v>
+      </c>
+      <c r="C86" s="194">
         <v>5</v>
       </c>
     </row>
     <row r="87" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B87" s="10" t="s">
-        <v>232</v>
-      </c>
-      <c r="C87" s="233" t="s">
-        <v>235</v>
-      </c>
-      <c r="D87" s="266">
+        <v>231</v>
+      </c>
+      <c r="C87" s="231" t="s">
+        <v>233</v>
+      </c>
+      <c r="D87" s="264">
         <v>0.02</v>
       </c>
     </row>
     <row r="89" spans="2:8" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B89" s="106" t="s">
-        <v>123</v>
-      </c>
-      <c r="C89" s="283">
+      <c r="B89" s="105" t="s">
+        <v>122</v>
+      </c>
+      <c r="C89" s="282">
         <f>C24</f>
         <v>45291</v>
       </c>
-      <c r="D89" s="283"/>
-      <c r="E89" s="89" t="s">
-        <v>193</v>
-      </c>
-      <c r="F89" s="89" t="s">
+      <c r="D89" s="282"/>
+      <c r="E89" s="88" t="s">
         <v>192</v>
+      </c>
+      <c r="F89" s="88" t="s">
+        <v>191</v>
       </c>
       <c r="H89" s="31"/>
     </row>
@@ -3833,166 +3828,166 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000HKD)</v>
       </c>
-      <c r="C90" s="284" t="s">
+      <c r="C90" s="283" t="s">
+        <v>97</v>
+      </c>
+      <c r="D90" s="283"/>
+      <c r="E90" s="230" t="s">
         <v>98</v>
       </c>
-      <c r="D90" s="284"/>
-      <c r="E90" s="232" t="s">
-        <v>99</v>
-      </c>
-      <c r="F90" s="252" t="s">
-        <v>99</v>
+      <c r="F90" s="250" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="91" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B91" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C91" s="77">
         <f>C25</f>
         <v>35684253</v>
       </c>
-      <c r="D91" s="206"/>
-      <c r="E91" s="248">
+      <c r="D91" s="204"/>
+      <c r="E91" s="246">
         <f>C91</f>
         <v>35684253</v>
       </c>
-      <c r="F91" s="248">
+      <c r="F91" s="246">
         <f>C91</f>
         <v>35684253</v>
       </c>
     </row>
     <row r="92" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B92" s="104" t="s">
-        <v>103</v>
+      <c r="B92" s="103" t="s">
+        <v>102</v>
       </c>
       <c r="C92" s="77">
         <f>C26</f>
         <v>16868997</v>
       </c>
-      <c r="D92" s="158">
+      <c r="D92" s="156">
         <f>C92/C91</f>
         <v>0.47272944175123971</v>
       </c>
-      <c r="E92" s="249">
+      <c r="E92" s="247">
         <f>E91*D92</f>
         <v>16868997</v>
       </c>
-      <c r="F92" s="249">
+      <c r="F92" s="247">
         <f>F91*D92</f>
         <v>16868997</v>
       </c>
     </row>
     <row r="93" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B93" s="104" t="s">
-        <v>231</v>
+      <c r="B93" s="103" t="s">
+        <v>230</v>
       </c>
       <c r="C93" s="77">
         <f>C27+C28</f>
         <v>12529703</v>
       </c>
-      <c r="D93" s="158">
+      <c r="D93" s="156">
         <f>C93/C91</f>
         <v>0.35112695227219692</v>
       </c>
-      <c r="E93" s="249">
+      <c r="E93" s="247">
         <f>E91*D93</f>
         <v>12529703</v>
       </c>
-      <c r="F93" s="249">
+      <c r="F93" s="247">
         <f>F91*D93</f>
         <v>12529703</v>
       </c>
     </row>
     <row r="94" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B94" s="104" t="s">
-        <v>240</v>
+      <c r="B94" s="103" t="s">
+        <v>238</v>
       </c>
       <c r="C94" s="77">
         <f>C29</f>
         <v>0</v>
       </c>
-      <c r="D94" s="158">
+      <c r="D94" s="156">
         <f>C94/C91</f>
         <v>0</v>
       </c>
-      <c r="E94" s="250"/>
-      <c r="F94" s="249">
+      <c r="E94" s="248"/>
+      <c r="F94" s="247">
         <f>F91*D94</f>
         <v>0</v>
       </c>
     </row>
     <row r="95" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B95" s="28" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C95" s="77">
         <f>ABS(MAX(C33,0)-C32)</f>
         <v>0</v>
       </c>
-      <c r="D95" s="158">
+      <c r="D95" s="156">
         <f>C95/C91</f>
         <v>0</v>
       </c>
-      <c r="E95" s="249">
+      <c r="E95" s="247">
         <f>E91*D95</f>
         <v>0</v>
       </c>
-      <c r="F95" s="249">
+      <c r="F95" s="247">
         <f>F91*D95</f>
         <v>0</v>
       </c>
     </row>
     <row r="96" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B96" s="28" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C96" s="77">
         <f>MAX(C31,0)</f>
         <v>0</v>
       </c>
-      <c r="D96" s="158">
+      <c r="D96" s="156">
         <f>C96/C91</f>
         <v>0</v>
       </c>
-      <c r="E96" s="250"/>
-      <c r="F96" s="249">
+      <c r="E96" s="248"/>
+      <c r="F96" s="247">
         <f>F91*D96</f>
         <v>0</v>
       </c>
     </row>
     <row r="97" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B97" s="73" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C97" s="77">
         <f>MAX(C30,0)/(1-C16)</f>
         <v>60156.862745098035</v>
       </c>
-      <c r="D97" s="158">
+      <c r="D97" s="156">
         <f>C97/C91</f>
         <v>1.6858097812807804E-3</v>
       </c>
-      <c r="E97" s="250"/>
-      <c r="F97" s="249">
+      <c r="E97" s="248"/>
+      <c r="F97" s="247">
         <f>F91*D97</f>
         <v>60156.862745098035</v>
       </c>
     </row>
     <row r="98" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B98" s="86" t="s">
-        <v>194</v>
-      </c>
-      <c r="C98" s="234">
+      <c r="B98" s="85" t="s">
+        <v>193</v>
+      </c>
+      <c r="C98" s="232">
         <f>C44</f>
         <v>0.8</v>
       </c>
-      <c r="D98" s="263"/>
-      <c r="E98" s="251">
+      <c r="D98" s="261"/>
+      <c r="E98" s="249">
         <f>F98</f>
         <v>0.5</v>
       </c>
-      <c r="F98" s="251">
+      <c r="F98" s="249">
         <v>0.5</v>
       </c>
       <c r="G98" s="1"/>
@@ -4004,32 +3999,32 @@
   </mergeCells>
   <phoneticPr fontId="20" type="noConversion"/>
   <conditionalFormatting sqref="C16 C25:M33 D34:M43 C44:M44 E91:F93 F94 E95:F95 F96:F98">
-    <cfRule type="containsBlanks" dxfId="22" priority="14">
+    <cfRule type="containsBlanks" dxfId="22" priority="15">
       <formula>LEN(TRIM(C16))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C37">
-    <cfRule type="containsBlanks" dxfId="21" priority="3">
+  <conditionalFormatting sqref="C37:C38">
+    <cfRule type="containsBlanks" dxfId="21" priority="1">
       <formula>LEN(TRIM(C37))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C41:C42">
-    <cfRule type="containsBlanks" dxfId="20" priority="1">
+    <cfRule type="containsBlanks" dxfId="20" priority="2">
       <formula>LEN(TRIM(C41))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C87">
-    <cfRule type="containsBlanks" dxfId="19" priority="7">
+    <cfRule type="containsBlanks" dxfId="19" priority="8">
       <formula>LEN(TRIM(C87))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C98">
-    <cfRule type="containsBlanks" dxfId="18" priority="6">
+    <cfRule type="containsBlanks" dxfId="18" priority="7">
       <formula>LEN(TRIM(C98))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E98">
-    <cfRule type="containsBlanks" dxfId="17" priority="4">
+    <cfRule type="containsBlanks" dxfId="17" priority="5">
       <formula>LEN(TRIM(E98))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4088,13 +4083,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
+      <c r="B1" s="86"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
     </row>
     <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
@@ -4105,82 +4100,82 @@
         <f>C3&amp;" : "&amp;C4</f>
         <v>0027.HK : 銀河娛樂</v>
       </c>
-      <c r="D2" s="87"/>
+      <c r="D2" s="86"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
-      <c r="G2" s="86"/>
-      <c r="H2" s="86"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="85"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="C3" s="289" t="str">
+        <v>180</v>
+      </c>
+      <c r="C3" s="288" t="str">
         <f>Inputs!C4</f>
         <v>0027.HK</v>
       </c>
-      <c r="D3" s="290"/>
-      <c r="E3" s="87"/>
+      <c r="D3" s="289"/>
+      <c r="E3" s="86"/>
       <c r="F3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="131">
-        <v>34.200000000000003</v>
-      </c>
-      <c r="H3" s="133" t="s">
-        <v>273</v>
+      <c r="G3" s="130">
+        <v>34.25</v>
+      </c>
+      <c r="H3" s="132" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="35" t="s">
-        <v>182</v>
-      </c>
-      <c r="C4" s="291" t="str">
+        <v>181</v>
+      </c>
+      <c r="C4" s="290" t="str">
         <f>Inputs!C5</f>
         <v>銀河娛樂</v>
       </c>
-      <c r="D4" s="292"/>
-      <c r="E4" s="87"/>
+      <c r="D4" s="291"/>
+      <c r="E4" s="86"/>
       <c r="F4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="295">
+      <c r="G4" s="294">
         <f>Inputs!C10</f>
         <v>4373586962</v>
       </c>
-      <c r="H4" s="295"/>
+      <c r="H4" s="294"/>
       <c r="I4" s="39"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="C5" s="293">
+        <v>155</v>
+      </c>
+      <c r="C5" s="292">
         <f>Inputs!C6</f>
         <v>45603</v>
       </c>
-      <c r="D5" s="294"/>
+      <c r="D5" s="293"/>
       <c r="E5" s="34"/>
       <c r="F5" s="35" t="s">
-        <v>97</v>
-      </c>
-      <c r="G5" s="287">
+        <v>96</v>
+      </c>
+      <c r="G5" s="286">
         <f>G3*G4/1000000</f>
-        <v>149576.67410040004</v>
-      </c>
-      <c r="H5" s="287"/>
+        <v>149795.35344850001</v>
+      </c>
+      <c r="H5" s="286"/>
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
     <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="87" t="s">
+      <c r="B6" s="86" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="184">
+      <c r="C6" s="182">
         <f>Inputs!C7</f>
         <v>8</v>
       </c>
-      <c r="D6" s="185">
+      <c r="D6" s="183">
         <f>EOMONTH(EDATE(Fin_Analysis!D9,C6),0)</f>
         <v>45716</v>
       </c>
@@ -4191,30 +4186,30 @@
       <c r="F6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="288" t="str">
+      <c r="G6" s="287" t="str">
         <f>Inputs!C11</f>
         <v>HKD</v>
       </c>
-      <c r="H6" s="288"/>
+      <c r="H6" s="287"/>
       <c r="I6" s="38"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="86" t="s">
-        <v>179</v>
-      </c>
-      <c r="C7" s="186" t="str">
+      <c r="B7" s="85" t="s">
+        <v>178</v>
+      </c>
+      <c r="C7" s="184" t="str">
         <f>Inputs!C8</f>
         <v>N</v>
       </c>
-      <c r="D7" s="186" t="str">
+      <c r="D7" s="184" t="str">
         <f>Inputs!C9</f>
         <v>C0011</v>
       </c>
-      <c r="E7" s="87"/>
+      <c r="E7" s="86"/>
       <c r="F7" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="132">
+      <c r="G7" s="131">
         <v>1</v>
       </c>
       <c r="H7" s="71" t="str">
@@ -4224,280 +4219,280 @@
     </row>
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="138" t="s">
-        <v>178</v>
-      </c>
-      <c r="F9" s="142" t="s">
-        <v>173</v>
+      <c r="B9" s="137" t="s">
+        <v>177</v>
+      </c>
+      <c r="F9" s="141" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="C10" s="171">
+        <v>163</v>
+      </c>
+      <c r="C10" s="169">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="F10" s="110" t="s">
-        <v>171</v>
+      <c r="F10" s="109" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="121" t="s">
-        <v>168</v>
-      </c>
-      <c r="C11" s="172">
+      <c r="B11" s="120" t="s">
+        <v>167</v>
+      </c>
+      <c r="C11" s="170">
         <v>5.2299999999999999E-2</v>
       </c>
-      <c r="D11" s="136" t="s">
-        <v>177</v>
-      </c>
-      <c r="F11" s="110" t="s">
-        <v>166</v>
+      <c r="D11" s="135" t="s">
+        <v>176</v>
+      </c>
+      <c r="F11" s="109" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="87" t="s">
-        <v>237</v>
-      </c>
-      <c r="C12" s="173">
+      <c r="B12" s="86" t="s">
+        <v>235</v>
+      </c>
+      <c r="C12" s="171">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="D12" s="171">
+      <c r="D12" s="169">
         <v>8.0625000000000002E-2</v>
       </c>
-      <c r="F12" s="110"/>
+      <c r="F12" s="109"/>
     </row>
     <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="C14" s="171">
+        <v>164</v>
+      </c>
+      <c r="C14" s="169">
         <v>1.8100000000000002E-2</v>
       </c>
-      <c r="F14" s="110" t="s">
-        <v>170</v>
+      <c r="F14" s="109" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C15" s="169">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="F15" s="109" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B16" s="120" t="s">
         <v>174</v>
       </c>
-      <c r="C15" s="171">
-        <v>6.5000000000000002E-2</v>
-      </c>
-      <c r="F15" s="110" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="121" t="s">
-        <v>175</v>
-      </c>
-      <c r="C16" s="172">
+      <c r="C16" s="170">
         <v>0.16</v>
       </c>
-      <c r="D16" s="262" t="str">
+      <c r="D16" s="260" t="str">
         <f>Inputs!C15</f>
         <v>HK</v>
       </c>
-      <c r="F16" s="110" t="s">
-        <v>167</v>
+      <c r="F16" s="109" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B17" s="87" t="s">
-        <v>238</v>
-      </c>
-      <c r="C17" s="174">
+      <c r="B17" s="86" t="s">
+        <v>236</v>
+      </c>
+      <c r="C17" s="172">
         <v>8.6249999999999993E-2</v>
       </c>
-      <c r="D17" s="175"/>
+      <c r="D17" s="173"/>
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="141" t="s">
-        <v>260</v>
-      </c>
-      <c r="C19" s="134" t="s">
-        <v>49</v>
-      </c>
-      <c r="D19" s="87"/>
-      <c r="E19" s="87"/>
-      <c r="F19" s="141" t="s">
-        <v>199</v>
-      </c>
-      <c r="G19" s="87"/>
-      <c r="H19" s="87"/>
+      <c r="B19" s="140" t="s">
+        <v>258</v>
+      </c>
+      <c r="C19" s="133" t="s">
+        <v>48</v>
+      </c>
+      <c r="D19" s="86"/>
+      <c r="E19" s="86"/>
+      <c r="F19" s="140" t="s">
+        <v>198</v>
+      </c>
+      <c r="G19" s="86"/>
+      <c r="H19" s="86"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="272" t="s">
-        <v>251</v>
-      </c>
-      <c r="C20" s="273" t="e">
+      <c r="B20" s="270" t="s">
+        <v>249</v>
+      </c>
+      <c r="C20" s="271" t="e">
         <f>C23*C22*(1/C21)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F20" s="87" t="s">
-        <v>198</v>
-      </c>
-      <c r="G20" s="171">
+      <c r="F20" s="86" t="s">
+        <v>197</v>
+      </c>
+      <c r="G20" s="169">
         <v>0.15</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B21" s="274" t="s">
-        <v>249</v>
-      </c>
-      <c r="C21" s="275" t="e">
+      <c r="B21" s="272" t="s">
+        <v>247</v>
+      </c>
+      <c r="C21" s="273" t="e">
         <f>Data!C53</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F21" s="87"/>
+      <c r="F21" s="86"/>
       <c r="G21" s="29"/>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="276" t="s">
-        <v>264</v>
-      </c>
-      <c r="C22" s="277" t="e">
+      <c r="B22" s="274" t="s">
+        <v>261</v>
+      </c>
+      <c r="C22" s="275" t="e">
         <f>Data!C48</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F22" s="141" t="s">
-        <v>172</v>
+      <c r="F22" s="140" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="278" t="s">
-        <v>256</v>
-      </c>
-      <c r="C23" s="279">
+      <c r="B23" s="276" t="s">
+        <v>254</v>
+      </c>
+      <c r="C23" s="277">
         <f>Data!C13</f>
         <v>0.17445779619528262</v>
       </c>
-      <c r="F23" s="139" t="s">
-        <v>176</v>
-      </c>
-      <c r="G23" s="176" t="e">
+      <c r="F23" s="138" t="s">
+        <v>175</v>
+      </c>
+      <c r="G23" s="174" t="e">
         <f>G3/(Data!C34*Data!C4/Common_Shares*Exchange_Rate)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B24" s="136" t="s">
-        <v>257</v>
-      </c>
-      <c r="C24" s="170">
+      <c r="B24" s="135" t="s">
+        <v>255</v>
+      </c>
+      <c r="C24" s="168">
         <f>Fin_Analysis!I81</f>
         <v>0</v>
       </c>
-      <c r="F24" s="139" t="s">
-        <v>242</v>
-      </c>
-      <c r="G24" s="265">
+      <c r="F24" s="138" t="s">
+        <v>240</v>
+      </c>
+      <c r="G24" s="263">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>31.407650191678648</v>
+        <v>31.453567808917942</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B25" s="136" t="s">
-        <v>258</v>
-      </c>
-      <c r="C25" s="170">
+      <c r="B25" s="135" t="s">
+        <v>256</v>
+      </c>
+      <c r="C25" s="168">
         <f>Fin_Analysis!I80</f>
         <v>0</v>
       </c>
-      <c r="F25" s="139" t="s">
-        <v>163</v>
-      </c>
-      <c r="G25" s="170">
+      <c r="F25" s="138" t="s">
+        <v>162</v>
+      </c>
+      <c r="G25" s="168">
         <f>Fin_Analysis!I88</f>
         <v>0.45917617239296266</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B26" s="137" t="s">
-        <v>259</v>
-      </c>
-      <c r="C26" s="170">
+      <c r="B26" s="136" t="s">
+        <v>257</v>
+      </c>
+      <c r="C26" s="168">
         <f>Fin_Analysis!I80+Fin_Analysis!I82</f>
         <v>0</v>
       </c>
-      <c r="F26" s="140" t="s">
-        <v>180</v>
-      </c>
-      <c r="G26" s="177">
+      <c r="F26" s="139" t="s">
+        <v>179</v>
+      </c>
+      <c r="G26" s="175">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>1.4619883040935672E-2</v>
+        <v>1.4598540145985401E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="5"/>
-      <c r="B28" s="90" t="s">
+      <c r="B28" s="89" t="s">
         <v>7</v>
       </c>
-      <c r="C28" s="89" t="s">
+      <c r="C28" s="88" t="s">
+        <v>158</v>
+      </c>
+      <c r="D28" s="43" t="s">
         <v>159</v>
-      </c>
-      <c r="D28" s="43" t="s">
-        <v>160</v>
       </c>
       <c r="E28" s="58"/>
       <c r="F28" s="53" t="s">
-        <v>223</v>
-      </c>
-      <c r="G28" s="285" t="s">
-        <v>241</v>
-      </c>
-      <c r="H28" s="285"/>
+        <v>222</v>
+      </c>
+      <c r="G28" s="284" t="s">
+        <v>239</v>
+      </c>
+      <c r="H28" s="284"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B29" s="87" t="s">
-        <v>161</v>
-      </c>
-      <c r="C29" s="129">
+      <c r="B29" s="86" t="s">
+        <v>160</v>
+      </c>
+      <c r="C29" s="128">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>8.8782857543463614</v>
-      </c>
-      <c r="D29" s="128">
+        <v>8.8762862521640837</v>
+      </c>
+      <c r="D29" s="127">
         <f>G29*(1+G20)</f>
-        <v>16.395406254470362</v>
-      </c>
-      <c r="E29" s="87"/>
-      <c r="F29" s="130">
+        <v>16.391713801727544</v>
+      </c>
+      <c r="E29" s="86"/>
+      <c r="F29" s="129">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>10.445042063936896</v>
-      </c>
-      <c r="G29" s="286">
+        <v>10.442689708428334</v>
+      </c>
+      <c r="G29" s="285">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>14.256875003887272</v>
-      </c>
-      <c r="H29" s="286"/>
+        <v>14.253664175415258</v>
+      </c>
+      <c r="H29" s="285"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="5"/>
       <c r="B31" s="6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C31"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32"/>
-      <c r="B32" s="195" t="s">
-        <v>209</v>
-      </c>
-      <c r="C32" s="221"/>
+      <c r="B32" s="193" t="s">
+        <v>208</v>
+      </c>
+      <c r="C32" s="219"/>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33"/>
       <c r="B33" s="20" t="s">
-        <v>210</v>
-      </c>
-      <c r="C33" s="242" t="str">
+        <v>209</v>
+      </c>
+      <c r="C33" s="240" t="str">
         <f>Inputs!C17</f>
         <v>agree</v>
       </c>
@@ -4505,9 +4500,9 @@
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34"/>
       <c r="B34" s="19" t="s">
-        <v>211</v>
-      </c>
-      <c r="C34" s="222" t="e">
+        <v>210</v>
+      </c>
+      <c r="C34" s="220" t="e">
         <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C54&lt;0.8),"Strongly disagree",
 IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C54&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C54&lt;1.4),"agree","Strongly agree")))</f>
         <v>#DIV/0!</v>
@@ -4515,17 +4510,17 @@
     </row>
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35"/>
-      <c r="B35" s="195" t="s">
-        <v>212</v>
-      </c>
-      <c r="C35" s="221"/>
+      <c r="B35" s="193" t="s">
+        <v>211</v>
+      </c>
+      <c r="C35" s="219"/>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
-        <v>224</v>
-      </c>
-      <c r="C36" s="242" t="str">
+        <v>223</v>
+      </c>
+      <c r="C36" s="240" t="str">
         <f>Inputs!C18</f>
         <v>unclear</v>
       </c>
@@ -4533,26 +4528,26 @@
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37"/>
       <c r="B37" s="20" t="s">
-        <v>225</v>
-      </c>
-      <c r="C37" s="242" t="str">
+        <v>224</v>
+      </c>
+      <c r="C37" s="240" t="str">
         <f>Inputs!C19</f>
         <v>agree</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38"/>
-      <c r="B38" s="195" t="s">
-        <v>213</v>
-      </c>
-      <c r="C38" s="221"/>
+      <c r="B38" s="193" t="s">
+        <v>212</v>
+      </c>
+      <c r="C38" s="219"/>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39"/>
       <c r="B39" s="19" t="s">
-        <v>214</v>
-      </c>
-      <c r="C39" s="242" t="str">
+        <v>213</v>
+      </c>
+      <c r="C39" s="240" t="str">
         <f>Inputs!C20</f>
         <v>agree</v>
       </c>
@@ -4560,9 +4555,9 @@
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40"/>
       <c r="B40" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="C40" s="242" t="str">
+        <v>216</v>
+      </c>
+      <c r="C40" s="240" t="str">
         <f>Inputs!C21</f>
         <v>unclear</v>
       </c>
@@ -4575,16 +4570,16 @@
     <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="5"/>
       <c r="B42" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C42"/>
     </row>
     <row r="43" spans="1:3" ht="65.650000000000006" x14ac:dyDescent="0.4">
       <c r="A43"/>
-      <c r="B43" s="223" t="s">
-        <v>216</v>
-      </c>
-      <c r="C43" s="241" t="str">
+      <c r="B43" s="221" t="s">
+        <v>215</v>
+      </c>
+      <c r="C43" s="239" t="str">
         <f>Inputs!C22</f>
         <v>Consumer Monopoly</v>
       </c>
@@ -5536,10 +5531,10 @@
   </sheetPr>
   <dimension ref="A1:N930"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="C2" sqref="C2"/>
+      <selection pane="topRight" activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5565,59 +5560,59 @@
       </c>
       <c r="C2" s="18"/>
       <c r="D2" s="17"/>
-      <c r="E2" s="147" t="s">
-        <v>186</v>
-      </c>
-      <c r="F2" s="118" t="s">
+      <c r="E2" s="146" t="s">
+        <v>185</v>
+      </c>
+      <c r="F2" s="117" t="s">
+        <v>188</v>
+      </c>
+      <c r="G2" s="146" t="s">
         <v>189</v>
       </c>
-      <c r="G2" s="147" t="s">
+      <c r="H2" s="145" t="s">
         <v>190</v>
       </c>
-      <c r="H2" s="146" t="s">
-        <v>191</v>
-      </c>
       <c r="I2" s="7"/>
-      <c r="J2" s="87"/>
+      <c r="J2" s="86"/>
       <c r="K2" s="7"/>
       <c r="L2" s="7"/>
       <c r="M2" s="7"/>
     </row>
     <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="4"/>
-      <c r="B3" s="103" t="s">
+      <c r="B3" s="102" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="200">
+      <c r="C3" s="198">
         <f>Inputs!C12</f>
         <v>45291</v>
       </c>
-      <c r="E3" s="145" t="s">
-        <v>187</v>
-      </c>
-      <c r="F3" s="85" t="str">
+      <c r="E3" s="144" t="s">
+        <v>186</v>
+      </c>
+      <c r="F3" s="84" t="str">
         <f>H14</f>
         <v/>
       </c>
-      <c r="G3" s="85">
+      <c r="G3" s="84">
         <f>C14</f>
         <v>6225396.1372549022</v>
       </c>
-      <c r="H3" s="85">
+      <c r="H3" s="84">
         <v>6</v>
       </c>
-      <c r="I3" s="87"/>
+      <c r="I3" s="86"/>
       <c r="J3" s="42"/>
-      <c r="K3" s="87"/>
-      <c r="L3" s="87"/>
-      <c r="M3" s="87"/>
+      <c r="K3" s="86"/>
+      <c r="L3" s="86"/>
+      <c r="M3" s="86"/>
     </row>
     <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="4"/>
-      <c r="B4" s="103" t="s">
+      <c r="B4" s="102" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="127">
+      <c r="C4" s="126">
         <f>Inputs!C13</f>
         <v>1000</v>
       </c>
@@ -5625,19 +5620,19 @@
         <f>Dashboard!G6</f>
         <v>HKD</v>
       </c>
-      <c r="E4" s="145" t="s">
-        <v>188</v>
-      </c>
-      <c r="F4" s="93" t="e">
+      <c r="E4" s="144" t="s">
+        <v>187</v>
+      </c>
+      <c r="F4" s="92" t="e">
         <f>(G3/F3)^(1/H3)-1</f>
         <v>#VALUE!</v>
       </c>
-      <c r="J4" s="87"/>
+      <c r="J4" s="86"/>
     </row>
     <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="16"/>
-      <c r="B5" s="115" t="s">
-        <v>129</v>
+      <c r="B5" s="114" t="s">
+        <v>128</v>
       </c>
       <c r="C5" s="48">
         <f>C3</f>
@@ -5686,928 +5681,928 @@
     </row>
     <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="4"/>
-      <c r="B6" s="94" t="s">
+      <c r="B6" s="93" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="199">
+      <c r="C6" s="197">
         <f>IF(Inputs!C25=""," ",Inputs!C25)</f>
         <v>35684253</v>
       </c>
-      <c r="D6" s="199">
+      <c r="D6" s="197">
         <f>IF(Inputs!D25="","",Inputs!D25)</f>
         <v>11473793</v>
       </c>
-      <c r="E6" s="199" t="str">
+      <c r="E6" s="197" t="str">
         <f>IF(Inputs!E25="","",Inputs!E25)</f>
         <v/>
       </c>
-      <c r="F6" s="199" t="str">
+      <c r="F6" s="197" t="str">
         <f>IF(Inputs!F25="","",Inputs!F25)</f>
         <v/>
       </c>
-      <c r="G6" s="199" t="str">
+      <c r="G6" s="197" t="str">
         <f>IF(Inputs!G25="","",Inputs!G25)</f>
         <v/>
       </c>
-      <c r="H6" s="199" t="str">
+      <c r="H6" s="197" t="str">
         <f>IF(Inputs!H25="","",Inputs!H25)</f>
         <v/>
       </c>
-      <c r="I6" s="199" t="str">
+      <c r="I6" s="197" t="str">
         <f>IF(Inputs!I25="","",Inputs!I25)</f>
         <v/>
       </c>
-      <c r="J6" s="199" t="str">
+      <c r="J6" s="197" t="str">
         <f>IF(Inputs!J25="","",Inputs!J25)</f>
         <v/>
       </c>
-      <c r="K6" s="199" t="str">
+      <c r="K6" s="197" t="str">
         <f>IF(Inputs!K25="","",Inputs!K25)</f>
         <v/>
       </c>
-      <c r="L6" s="199" t="str">
+      <c r="L6" s="197" t="str">
         <f>IF(Inputs!L25="","",Inputs!L25)</f>
         <v/>
       </c>
-      <c r="M6" s="199" t="str">
+      <c r="M6" s="197" t="str">
         <f>IF(Inputs!M25="","",Inputs!M25)</f>
         <v/>
       </c>
-      <c r="N6" s="87"/>
+      <c r="N6" s="86"/>
     </row>
     <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="4"/>
-      <c r="B7" s="96" t="s">
+      <c r="B7" s="95" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="92">
+      <c r="C7" s="91">
         <f t="shared" ref="C7:M7" si="1">IF(D6="","",C6/D6-1)</f>
         <v>2.1100659563929729</v>
       </c>
-      <c r="D7" s="92" t="str">
+      <c r="D7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="E7" s="92" t="str">
+      <c r="E7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F7" s="92" t="str">
+      <c r="F7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G7" s="92" t="str">
+      <c r="G7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="H7" s="92" t="str">
+      <c r="H7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="I7" s="92" t="str">
+      <c r="I7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="J7" s="92" t="str">
+      <c r="J7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="K7" s="92" t="str">
+      <c r="K7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L7" s="92" t="str">
+      <c r="L7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="M7" s="92" t="str">
+      <c r="M7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="N7" s="87"/>
+      <c r="N7" s="86"/>
     </row>
     <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="4"/>
-      <c r="B8" s="97" t="s">
-        <v>103</v>
-      </c>
-      <c r="C8" s="198">
+      <c r="B8" s="96" t="s">
+        <v>102</v>
+      </c>
+      <c r="C8" s="196">
         <f>IF(Inputs!C26="","",Inputs!C26)</f>
         <v>16868997</v>
       </c>
-      <c r="D8" s="198">
+      <c r="D8" s="196">
         <f>IF(Inputs!D26="","",Inputs!D26)</f>
         <v>6522891</v>
       </c>
-      <c r="E8" s="198" t="str">
+      <c r="E8" s="196" t="str">
         <f>IF(Inputs!E26="","",Inputs!E26)</f>
         <v/>
       </c>
-      <c r="F8" s="198" t="str">
+      <c r="F8" s="196" t="str">
         <f>IF(Inputs!F26="","",Inputs!F26)</f>
         <v/>
       </c>
-      <c r="G8" s="198" t="str">
+      <c r="G8" s="196" t="str">
         <f>IF(Inputs!G26="","",Inputs!G26)</f>
         <v/>
       </c>
-      <c r="H8" s="198" t="str">
+      <c r="H8" s="196" t="str">
         <f>IF(Inputs!H26="","",Inputs!H26)</f>
         <v/>
       </c>
-      <c r="I8" s="198" t="str">
+      <c r="I8" s="196" t="str">
         <f>IF(Inputs!I26="","",Inputs!I26)</f>
         <v/>
       </c>
-      <c r="J8" s="198" t="str">
+      <c r="J8" s="196" t="str">
         <f>IF(Inputs!J26="","",Inputs!J26)</f>
         <v/>
       </c>
-      <c r="K8" s="198" t="str">
+      <c r="K8" s="196" t="str">
         <f>IF(Inputs!K26="","",Inputs!K26)</f>
         <v/>
       </c>
-      <c r="L8" s="198" t="str">
+      <c r="L8" s="196" t="str">
         <f>IF(Inputs!L26="","",Inputs!L26)</f>
         <v/>
       </c>
-      <c r="M8" s="198" t="str">
+      <c r="M8" s="196" t="str">
         <f>IF(Inputs!M26="","",Inputs!M26)</f>
         <v/>
       </c>
-      <c r="N8" s="87"/>
+      <c r="N8" s="86"/>
     </row>
     <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="4"/>
-      <c r="B9" s="98" t="s">
-        <v>100</v>
-      </c>
-      <c r="C9" s="150">
+      <c r="B9" s="97" t="s">
+        <v>99</v>
+      </c>
+      <c r="C9" s="149">
         <f t="shared" ref="C9:M9" si="2">IF(C6="","",(C6-C8))</f>
         <v>18815256</v>
       </c>
-      <c r="D9" s="150">
+      <c r="D9" s="149">
         <f t="shared" si="2"/>
         <v>4950902</v>
       </c>
-      <c r="E9" s="150" t="str">
+      <c r="E9" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="F9" s="150" t="str">
+      <c r="F9" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G9" s="150" t="str">
+      <c r="G9" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="H9" s="150" t="str">
+      <c r="H9" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I9" s="150" t="str">
+      <c r="I9" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="J9" s="150" t="str">
+      <c r="J9" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="K9" s="150" t="str">
+      <c r="K9" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L9" s="150" t="str">
+      <c r="L9" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="M9" s="150" t="str">
+      <c r="M9" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="N9" s="87"/>
+      <c r="N9" s="86"/>
     </row>
     <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="4"/>
-      <c r="B10" s="97" t="s">
-        <v>101</v>
-      </c>
-      <c r="C10" s="198">
+      <c r="B10" s="96" t="s">
+        <v>100</v>
+      </c>
+      <c r="C10" s="196">
         <f>IF(Inputs!C27="","",Inputs!C27)</f>
         <v>12529703</v>
       </c>
-      <c r="D10" s="198">
+      <c r="D10" s="196">
         <f>IF(Inputs!D27="","",Inputs!D27)</f>
         <v>8392476</v>
       </c>
-      <c r="E10" s="198" t="str">
+      <c r="E10" s="196" t="str">
         <f>IF(Inputs!E27="","",Inputs!E27)</f>
         <v/>
       </c>
-      <c r="F10" s="198" t="str">
+      <c r="F10" s="196" t="str">
         <f>IF(Inputs!F27="","",Inputs!F27)</f>
         <v/>
       </c>
-      <c r="G10" s="198" t="str">
+      <c r="G10" s="196" t="str">
         <f>IF(Inputs!G27="","",Inputs!G27)</f>
         <v/>
       </c>
-      <c r="H10" s="198" t="str">
+      <c r="H10" s="196" t="str">
         <f>IF(Inputs!H27="","",Inputs!H27)</f>
         <v/>
       </c>
-      <c r="I10" s="198" t="str">
+      <c r="I10" s="196" t="str">
         <f>IF(Inputs!I27="","",Inputs!I27)</f>
         <v/>
       </c>
-      <c r="J10" s="198" t="str">
+      <c r="J10" s="196" t="str">
         <f>IF(Inputs!J27="","",Inputs!J27)</f>
         <v/>
       </c>
-      <c r="K10" s="198" t="str">
+      <c r="K10" s="196" t="str">
         <f>IF(Inputs!K27="","",Inputs!K27)</f>
         <v/>
       </c>
-      <c r="L10" s="198" t="str">
+      <c r="L10" s="196" t="str">
         <f>IF(Inputs!L27="","",Inputs!L27)</f>
         <v/>
       </c>
-      <c r="M10" s="198" t="str">
+      <c r="M10" s="196" t="str">
         <f>IF(Inputs!M27="","",Inputs!M27)</f>
         <v/>
       </c>
-      <c r="N10" s="87"/>
+      <c r="N10" s="86"/>
     </row>
     <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="4"/>
-      <c r="B11" s="97" t="s">
-        <v>104</v>
-      </c>
-      <c r="C11" s="198" t="str">
+      <c r="B11" s="96" t="s">
+        <v>103</v>
+      </c>
+      <c r="C11" s="196" t="str">
         <f>IF(Inputs!C28="","",Inputs!C28)</f>
         <v/>
       </c>
-      <c r="D11" s="198" t="str">
+      <c r="D11" s="196" t="str">
         <f>IF(Inputs!D28="","",Inputs!D28)</f>
         <v/>
       </c>
-      <c r="E11" s="198" t="str">
+      <c r="E11" s="196" t="str">
         <f>IF(Inputs!E28="","",Inputs!E28)</f>
         <v/>
       </c>
-      <c r="F11" s="198" t="str">
+      <c r="F11" s="196" t="str">
         <f>IF(Inputs!F28="","",Inputs!F28)</f>
         <v/>
       </c>
-      <c r="G11" s="198" t="str">
+      <c r="G11" s="196" t="str">
         <f>IF(Inputs!G28="","",Inputs!G28)</f>
         <v/>
       </c>
-      <c r="H11" s="198" t="str">
+      <c r="H11" s="196" t="str">
         <f>IF(Inputs!H28="","",Inputs!H28)</f>
         <v/>
       </c>
-      <c r="I11" s="198" t="str">
+      <c r="I11" s="196" t="str">
         <f>IF(Inputs!I28="","",Inputs!I28)</f>
         <v/>
       </c>
-      <c r="J11" s="198" t="str">
+      <c r="J11" s="196" t="str">
         <f>IF(Inputs!J28="","",Inputs!J28)</f>
         <v/>
       </c>
-      <c r="K11" s="198" t="str">
+      <c r="K11" s="196" t="str">
         <f>IF(Inputs!K28="","",Inputs!K28)</f>
         <v/>
       </c>
-      <c r="L11" s="198" t="str">
+      <c r="L11" s="196" t="str">
         <f>IF(Inputs!L28="","",Inputs!L28)</f>
         <v/>
       </c>
-      <c r="M11" s="198" t="str">
+      <c r="M11" s="196" t="str">
         <f>IF(Inputs!M28="","",Inputs!M28)</f>
         <v/>
       </c>
-      <c r="N11" s="87"/>
+      <c r="N11" s="86"/>
     </row>
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
-      <c r="B12" s="99" t="s">
-        <v>226</v>
-      </c>
-      <c r="C12" s="198">
+      <c r="B12" s="98" t="s">
+        <v>225</v>
+      </c>
+      <c r="C12" s="196">
         <f>IF(Inputs!C30="","",MAX(Inputs!C30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>60156.862745098035</v>
       </c>
-      <c r="D12" s="198">
+      <c r="D12" s="196">
         <f>IF(Inputs!D30="","",MAX(Inputs!D30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>0</v>
       </c>
-      <c r="E12" s="198" t="str">
+      <c r="E12" s="196" t="str">
         <f>IF(Inputs!E30="","",MAX(Inputs!E30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="F12" s="198" t="str">
+      <c r="F12" s="196" t="str">
         <f>IF(Inputs!F30="","",MAX(Inputs!F30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="G12" s="198" t="str">
+      <c r="G12" s="196" t="str">
         <f>IF(Inputs!G30="","",MAX(Inputs!G30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="H12" s="198" t="str">
+      <c r="H12" s="196" t="str">
         <f>IF(Inputs!H30="","",MAX(Inputs!H30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="I12" s="198" t="str">
+      <c r="I12" s="196" t="str">
         <f>IF(Inputs!I30="","",MAX(Inputs!I30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="J12" s="198" t="str">
+      <c r="J12" s="196" t="str">
         <f>IF(Inputs!J30="","",MAX(Inputs!J30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="K12" s="198" t="str">
+      <c r="K12" s="196" t="str">
         <f>IF(Inputs!K30="","",MAX(Inputs!K30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="L12" s="198" t="str">
+      <c r="L12" s="196" t="str">
         <f>IF(Inputs!L30="","",MAX(Inputs!L30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="M12" s="198" t="str">
+      <c r="M12" s="196" t="str">
         <f>IF(Inputs!M30="","",MAX(Inputs!M30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="N12" s="87"/>
+      <c r="N12" s="86"/>
     </row>
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
-      <c r="B13" s="225" t="s">
-        <v>227</v>
-      </c>
-      <c r="C13" s="226">
+      <c r="B13" s="223" t="s">
+        <v>226</v>
+      </c>
+      <c r="C13" s="224">
         <f t="shared" ref="C13:M13" si="3">IF(C14="","",C14/C6)</f>
         <v>0.17445779619528262</v>
       </c>
-      <c r="D13" s="226">
+      <c r="D13" s="224">
         <f t="shared" si="3"/>
         <v>-0.29995085321828624</v>
       </c>
-      <c r="E13" s="226" t="str">
+      <c r="E13" s="224" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F13" s="226" t="str">
+      <c r="F13" s="224" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="G13" s="226" t="str">
+      <c r="G13" s="224" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="H13" s="226" t="str">
+      <c r="H13" s="224" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="I13" s="226" t="str">
+      <c r="I13" s="224" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="J13" s="226" t="str">
+      <c r="J13" s="224" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="K13" s="226" t="str">
+      <c r="K13" s="224" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="L13" s="226" t="str">
+      <c r="L13" s="224" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="M13" s="226" t="str">
+      <c r="M13" s="224" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="N13" s="87"/>
+      <c r="N13" s="86"/>
     </row>
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
-      <c r="B14" s="225" t="s">
-        <v>219</v>
-      </c>
-      <c r="C14" s="227">
+      <c r="B14" s="223" t="s">
+        <v>218</v>
+      </c>
+      <c r="C14" s="225">
         <f>IF(C6="","",C9-C10-MAX(C11,0)-MAX(C12,0))</f>
         <v>6225396.1372549022</v>
       </c>
-      <c r="D14" s="227">
+      <c r="D14" s="225">
         <f t="shared" ref="D14:M14" si="4">IF(D6="","",D9-D10-MAX(D11,0)-MAX(D12,0))</f>
         <v>-3441574</v>
       </c>
-      <c r="E14" s="227" t="str">
+      <c r="E14" s="225" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="F14" s="227" t="str">
+      <c r="F14" s="225" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G14" s="227" t="str">
+      <c r="G14" s="225" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="H14" s="227" t="str">
+      <c r="H14" s="225" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="I14" s="227" t="str">
+      <c r="I14" s="225" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="J14" s="227" t="str">
+      <c r="J14" s="225" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="K14" s="227" t="str">
+      <c r="K14" s="225" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="L14" s="227" t="str">
+      <c r="L14" s="225" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="M14" s="227" t="str">
+      <c r="M14" s="225" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="N14" s="87"/>
+      <c r="N14" s="86"/>
     </row>
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
-      <c r="B15" s="228" t="s">
-        <v>228</v>
-      </c>
-      <c r="C15" s="229" t="str">
+      <c r="B15" s="226" t="s">
+        <v>227</v>
+      </c>
+      <c r="C15" s="227" t="str">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
         <v>Turn</v>
       </c>
-      <c r="D15" s="229" t="str">
+      <c r="D15" s="227" t="str">
         <f t="shared" ref="D15:M15" si="5">IF(E14="","",IF(ABS(D14+E14)=ABS(D14)+ABS(E14),IF(D14&lt;0,-1,1)*(D14-E14)/E14,"Turn"))</f>
         <v/>
       </c>
-      <c r="E15" s="229" t="str">
+      <c r="E15" s="227" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="F15" s="229" t="str">
+      <c r="F15" s="227" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="G15" s="229" t="str">
+      <c r="G15" s="227" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="H15" s="229" t="str">
+      <c r="H15" s="227" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I15" s="229" t="str">
+      <c r="I15" s="227" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="J15" s="229" t="str">
+      <c r="J15" s="227" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="K15" s="229" t="str">
+      <c r="K15" s="227" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="L15" s="229" t="str">
+      <c r="L15" s="227" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="M15" s="229" t="str">
+      <c r="M15" s="227" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="N15" s="87"/>
+      <c r="N15" s="86"/>
     </row>
     <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="4"/>
-      <c r="B16" s="97" t="s">
-        <v>107</v>
-      </c>
-      <c r="C16" s="198" t="str">
+      <c r="B16" s="96" t="s">
+        <v>106</v>
+      </c>
+      <c r="C16" s="196" t="str">
         <f>IF(Inputs!C31="","",Inputs!C31)</f>
         <v/>
       </c>
-      <c r="D16" s="198" t="str">
+      <c r="D16" s="196" t="str">
         <f>IF(Inputs!D31="","",Inputs!D31)</f>
         <v/>
       </c>
-      <c r="E16" s="198" t="str">
+      <c r="E16" s="196" t="str">
         <f>IF(Inputs!E31="","",Inputs!E31)</f>
         <v/>
       </c>
-      <c r="F16" s="198" t="str">
+      <c r="F16" s="196" t="str">
         <f>IF(Inputs!F31="","",Inputs!F31)</f>
         <v/>
       </c>
-      <c r="G16" s="198" t="str">
+      <c r="G16" s="196" t="str">
         <f>IF(Inputs!G31="","",Inputs!G31)</f>
         <v/>
       </c>
-      <c r="H16" s="198" t="str">
+      <c r="H16" s="196" t="str">
         <f>IF(Inputs!H31="","",Inputs!H31)</f>
         <v/>
       </c>
-      <c r="I16" s="198" t="str">
+      <c r="I16" s="196" t="str">
         <f>IF(Inputs!I31="","",Inputs!I31)</f>
         <v/>
       </c>
-      <c r="J16" s="198" t="str">
+      <c r="J16" s="196" t="str">
         <f>IF(Inputs!J31="","",Inputs!J31)</f>
         <v/>
       </c>
-      <c r="K16" s="198" t="str">
+      <c r="K16" s="196" t="str">
         <f>IF(Inputs!K31="","",Inputs!K31)</f>
         <v/>
       </c>
-      <c r="L16" s="198" t="str">
+      <c r="L16" s="196" t="str">
         <f>IF(Inputs!L31="","",Inputs!L31)</f>
         <v/>
       </c>
-      <c r="M16" s="198" t="str">
+      <c r="M16" s="196" t="str">
         <f>IF(Inputs!M31="","",Inputs!M31)</f>
         <v/>
       </c>
-      <c r="N16" s="87"/>
+      <c r="N16" s="86"/>
     </row>
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
-      <c r="B17" s="97" t="s">
-        <v>240</v>
-      </c>
-      <c r="C17" s="198" t="str">
+      <c r="B17" s="96" t="s">
+        <v>238</v>
+      </c>
+      <c r="C17" s="196" t="str">
         <f>IF(Inputs!C29="","",Inputs!C29)</f>
         <v/>
       </c>
-      <c r="D17" s="198" t="str">
+      <c r="D17" s="196" t="str">
         <f>IF(Inputs!D29="","",Inputs!D29)</f>
         <v/>
       </c>
-      <c r="E17" s="198" t="str">
+      <c r="E17" s="196" t="str">
         <f>IF(Inputs!E29="","",Inputs!E29)</f>
         <v/>
       </c>
-      <c r="F17" s="198" t="str">
+      <c r="F17" s="196" t="str">
         <f>IF(Inputs!F29="","",Inputs!F29)</f>
         <v/>
       </c>
-      <c r="G17" s="198" t="str">
+      <c r="G17" s="196" t="str">
         <f>IF(Inputs!G29="","",Inputs!G29)</f>
         <v/>
       </c>
-      <c r="H17" s="198" t="str">
+      <c r="H17" s="196" t="str">
         <f>IF(Inputs!H29="","",Inputs!H29)</f>
         <v/>
       </c>
-      <c r="I17" s="198" t="str">
+      <c r="I17" s="196" t="str">
         <f>IF(Inputs!I29="","",Inputs!I29)</f>
         <v/>
       </c>
-      <c r="J17" s="198" t="str">
+      <c r="J17" s="196" t="str">
         <f>IF(Inputs!J29="","",Inputs!J29)</f>
         <v/>
       </c>
-      <c r="K17" s="198" t="str">
+      <c r="K17" s="196" t="str">
         <f>IF(Inputs!K29="","",Inputs!K29)</f>
         <v/>
       </c>
-      <c r="L17" s="198" t="str">
+      <c r="L17" s="196" t="str">
         <f>IF(Inputs!L29="","",Inputs!L29)</f>
         <v/>
       </c>
-      <c r="M17" s="198" t="str">
+      <c r="M17" s="196" t="str">
         <f>IF(Inputs!M29="","",Inputs!M29)</f>
         <v/>
       </c>
-      <c r="N17" s="87"/>
+      <c r="N17" s="86"/>
     </row>
     <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="4"/>
-      <c r="B18" s="94" t="s">
-        <v>96</v>
-      </c>
-      <c r="C18" s="151" t="str">
+      <c r="B18" s="93" t="s">
+        <v>95</v>
+      </c>
+      <c r="C18" s="150" t="str">
         <f t="shared" ref="C18:M18" si="6">IF(OR(C6="",C19=""),"",C19/C6)</f>
         <v/>
       </c>
-      <c r="D18" s="151" t="str">
+      <c r="D18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="E18" s="151" t="str">
+      <c r="E18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="F18" s="151" t="str">
+      <c r="F18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="G18" s="151" t="str">
+      <c r="G18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="H18" s="151" t="str">
+      <c r="H18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="I18" s="151" t="str">
+      <c r="I18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="J18" s="151" t="str">
+      <c r="J18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="K18" s="151" t="str">
+      <c r="K18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="L18" s="151" t="str">
+      <c r="L18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="M18" s="151" t="str">
+      <c r="M18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="N18" s="87"/>
+      <c r="N18" s="86"/>
     </row>
     <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="4"/>
-      <c r="B19" s="97" t="s">
-        <v>102</v>
-      </c>
-      <c r="C19" s="198" t="str">
+      <c r="B19" s="96" t="s">
+        <v>101</v>
+      </c>
+      <c r="C19" s="196" t="str">
         <f>IF(Inputs!C32="","",Inputs!C32)</f>
         <v/>
       </c>
-      <c r="D19" s="198" t="str">
+      <c r="D19" s="196" t="str">
         <f>IF(Inputs!D32="","",Inputs!D32)</f>
         <v/>
       </c>
-      <c r="E19" s="198" t="str">
+      <c r="E19" s="196" t="str">
         <f>IF(Inputs!E32="","",Inputs!E32)</f>
         <v/>
       </c>
-      <c r="F19" s="198" t="str">
+      <c r="F19" s="196" t="str">
         <f>IF(Inputs!F32="","",Inputs!F32)</f>
         <v/>
       </c>
-      <c r="G19" s="198" t="str">
+      <c r="G19" s="196" t="str">
         <f>IF(Inputs!G32="","",Inputs!G32)</f>
         <v/>
       </c>
-      <c r="H19" s="198" t="str">
+      <c r="H19" s="196" t="str">
         <f>IF(Inputs!H32="","",Inputs!H32)</f>
         <v/>
       </c>
-      <c r="I19" s="198" t="str">
+      <c r="I19" s="196" t="str">
         <f>IF(Inputs!I32="","",Inputs!I32)</f>
         <v/>
       </c>
-      <c r="J19" s="198" t="str">
+      <c r="J19" s="196" t="str">
         <f>IF(Inputs!J32="","",Inputs!J32)</f>
         <v/>
       </c>
-      <c r="K19" s="198" t="str">
+      <c r="K19" s="196" t="str">
         <f>IF(Inputs!K32="","",Inputs!K32)</f>
         <v/>
       </c>
-      <c r="L19" s="198" t="str">
+      <c r="L19" s="196" t="str">
         <f>IF(Inputs!L32="","",Inputs!L32)</f>
         <v/>
       </c>
-      <c r="M19" s="198" t="str">
+      <c r="M19" s="196" t="str">
         <f>IF(Inputs!M32="","",Inputs!M32)</f>
         <v/>
       </c>
-      <c r="N19" s="87"/>
+      <c r="N19" s="86"/>
     </row>
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
-      <c r="B20" s="97" t="s">
-        <v>221</v>
-      </c>
-      <c r="C20" s="151">
+      <c r="B20" s="96" t="s">
+        <v>220</v>
+      </c>
+      <c r="C20" s="150">
         <f t="shared" ref="C20:M20" si="7">IF(C6="","",MAX(C21,0)/C6)</f>
         <v>0</v>
       </c>
-      <c r="D20" s="151">
+      <c r="D20" s="150">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="E20" s="151" t="str">
+      <c r="E20" s="150" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="F20" s="151" t="str">
+      <c r="F20" s="150" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="G20" s="151" t="str">
+      <c r="G20" s="150" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="H20" s="151" t="str">
+      <c r="H20" s="150" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="I20" s="151" t="str">
+      <c r="I20" s="150" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="J20" s="151" t="str">
+      <c r="J20" s="150" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="K20" s="151" t="str">
+      <c r="K20" s="150" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="L20" s="151" t="str">
+      <c r="L20" s="150" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="M20" s="151" t="str">
+      <c r="M20" s="150" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="N20" s="87"/>
+      <c r="N20" s="86"/>
     </row>
     <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="4"/>
-      <c r="B21" s="97" t="s">
-        <v>105</v>
-      </c>
-      <c r="C21" s="198" t="str">
+      <c r="B21" s="96" t="s">
+        <v>104</v>
+      </c>
+      <c r="C21" s="196" t="str">
         <f>IF(Inputs!C33="","",Inputs!C33)</f>
         <v/>
       </c>
-      <c r="D21" s="198" t="str">
+      <c r="D21" s="196" t="str">
         <f>IF(Inputs!D33="","",Inputs!D33)</f>
         <v/>
       </c>
-      <c r="E21" s="198" t="str">
+      <c r="E21" s="196" t="str">
         <f>IF(Inputs!E33="","",Inputs!E33)</f>
         <v/>
       </c>
-      <c r="F21" s="198" t="str">
+      <c r="F21" s="196" t="str">
         <f>IF(Inputs!F33="","",Inputs!F33)</f>
         <v/>
       </c>
-      <c r="G21" s="198" t="str">
+      <c r="G21" s="196" t="str">
         <f>IF(Inputs!G33="","",Inputs!G33)</f>
         <v/>
       </c>
-      <c r="H21" s="198" t="str">
+      <c r="H21" s="196" t="str">
         <f>IF(Inputs!H33="","",Inputs!H33)</f>
         <v/>
       </c>
-      <c r="I21" s="198" t="str">
+      <c r="I21" s="196" t="str">
         <f>IF(Inputs!I33="","",Inputs!I33)</f>
         <v/>
       </c>
-      <c r="J21" s="198" t="str">
+      <c r="J21" s="196" t="str">
         <f>IF(Inputs!J33="","",Inputs!J33)</f>
         <v/>
       </c>
-      <c r="K21" s="198" t="str">
+      <c r="K21" s="196" t="str">
         <f>IF(Inputs!K33="","",Inputs!K33)</f>
         <v/>
       </c>
-      <c r="L21" s="198" t="str">
+      <c r="L21" s="196" t="str">
         <f>IF(Inputs!L33="","",Inputs!L33)</f>
         <v/>
       </c>
-      <c r="M21" s="198" t="str">
+      <c r="M21" s="196" t="str">
         <f>IF(Inputs!M33="","",Inputs!M33)</f>
         <v/>
       </c>
-      <c r="N21" s="87"/>
+      <c r="N21" s="86"/>
     </row>
     <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="4"/>
-      <c r="B22" s="98" t="s">
-        <v>109</v>
-      </c>
-      <c r="C22" s="160">
+      <c r="B22" s="97" t="s">
+        <v>108</v>
+      </c>
+      <c r="C22" s="158">
         <f>IF(C6="","",C14-MAX(C16,0)-MAX(C17,0)-ABS(MAX(C21,0)-MAX(C19,0)))</f>
         <v>6225396.1372549022</v>
       </c>
-      <c r="D22" s="160">
+      <c r="D22" s="158">
         <f t="shared" ref="D22:M22" si="8">IF(D6="","",D14-MAX(D16,0)-MAX(D17,0)-ABS(MAX(D21,0)-MAX(D19,0)))</f>
         <v>-3441574</v>
       </c>
-      <c r="E22" s="160" t="str">
+      <c r="E22" s="158" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="F22" s="160" t="str">
+      <c r="F22" s="158" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="G22" s="160" t="str">
+      <c r="G22" s="158" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="H22" s="160" t="str">
+      <c r="H22" s="158" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="I22" s="160" t="str">
+      <c r="I22" s="158" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="J22" s="160" t="str">
+      <c r="J22" s="158" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="K22" s="160" t="str">
+      <c r="K22" s="158" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="L22" s="160" t="str">
+      <c r="L22" s="158" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="M22" s="160" t="str">
+      <c r="M22" s="158" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="N22" s="87"/>
+      <c r="N22" s="86"/>
     </row>
     <row r="23" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="4"/>
-      <c r="B23" s="100" t="s">
-        <v>110</v>
-      </c>
-      <c r="C23" s="152">
+      <c r="B23" s="99" t="s">
+        <v>109</v>
+      </c>
+      <c r="C23" s="151">
         <f t="shared" ref="C23:M23" si="9">IF(C6="","",C24/C6)</f>
         <v>0.13346021408939118</v>
       </c>
-      <c r="D23" s="152">
+      <c r="D23" s="151">
         <f t="shared" si="9"/>
         <v>-0.22946240271198895</v>
       </c>
-      <c r="E23" s="152" t="str">
+      <c r="E23" s="151" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="F23" s="152" t="str">
+      <c r="F23" s="151" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="G23" s="152" t="str">
+      <c r="G23" s="151" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="H23" s="152" t="str">
+      <c r="H23" s="151" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="I23" s="152" t="str">
+      <c r="I23" s="151" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="J23" s="152" t="str">
+      <c r="J23" s="151" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="K23" s="152" t="str">
+      <c r="K23" s="151" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="L23" s="152" t="str">
+      <c r="L23" s="151" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="M23" s="152" t="str">
+      <c r="M23" s="151" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="N23" s="87"/>
+      <c r="N23" s="86"/>
     </row>
     <row r="24" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="4"/>
-      <c r="B24" s="101" t="s">
-        <v>111</v>
-      </c>
-      <c r="C24" s="153">
+      <c r="B24" s="100" t="s">
+        <v>110</v>
+      </c>
+      <c r="C24" s="152">
         <f>IF(C6="","",C22*(1-Fin_Analysis!$I$84))</f>
         <v>4762428.0449999999</v>
       </c>
@@ -6651,63 +6646,63 @@
         <f>IF(M6="","",M22*(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="N24" s="87"/>
+      <c r="N24" s="86"/>
     </row>
     <row r="25" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="4"/>
-      <c r="B25" s="231" t="s">
-        <v>124</v>
-      </c>
-      <c r="C25" s="230" t="str">
+      <c r="B25" s="229" t="s">
+        <v>123</v>
+      </c>
+      <c r="C25" s="228" t="str">
         <f>IF(D24="","",IF(ABS(C24+D24)=ABS(C24)+ABS(D24),IF(C24&lt;0,-1,1)*(C24-D24)/D24,"Turn"))</f>
         <v>Turn</v>
       </c>
-      <c r="D25" s="230" t="str">
+      <c r="D25" s="228" t="str">
         <f t="shared" ref="D25:M25" si="10">IF(E24="","",IF(ABS(D24+E24)=ABS(D24)+ABS(E24),IF(D24&lt;0,-1,1)*(D24-E24)/E24,"Turn"))</f>
         <v/>
       </c>
-      <c r="E25" s="230" t="str">
+      <c r="E25" s="228" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="F25" s="230" t="str">
+      <c r="F25" s="228" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="G25" s="230" t="str">
+      <c r="G25" s="228" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="H25" s="230" t="str">
+      <c r="H25" s="228" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="I25" s="230" t="str">
+      <c r="I25" s="228" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="J25" s="230" t="str">
+      <c r="J25" s="228" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="K25" s="230" t="str">
+      <c r="K25" s="228" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="L25" s="230" t="str">
+      <c r="L25" s="228" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="M25" s="230" t="str">
+      <c r="M25" s="228" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="N25" s="87"/>
+      <c r="N25" s="86"/>
     </row>
     <row r="26" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A26" s="16"/>
-      <c r="B26" s="114" t="s">
-        <v>130</v>
+      <c r="B26" s="113" t="s">
+        <v>129</v>
       </c>
       <c r="C26" s="48">
         <f>Fin_Analysis!D9</f>
@@ -6753,11 +6748,11 @@
         <f t="shared" ref="M26" si="19">EOMONTH(EDATE(L26,-12),0)</f>
         <v>41639</v>
       </c>
-      <c r="N26" s="87"/>
+      <c r="N26" s="86"/>
     </row>
     <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="4"/>
-      <c r="B27" s="94" t="s">
+      <c r="B27" s="93" t="s">
         <v>14</v>
       </c>
       <c r="C27" s="65">
@@ -6804,266 +6799,266 @@
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="N27" s="87"/>
+      <c r="N27" s="86"/>
     </row>
     <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="4"/>
-      <c r="B28" s="94" t="s">
-        <v>113</v>
+      <c r="B28" s="93" t="s">
+        <v>112</v>
       </c>
       <c r="C28" s="65">
         <f>Fin_Analysis!C13</f>
         <v>0</v>
       </c>
-      <c r="D28" s="198" t="str">
+      <c r="D28" s="196" t="str">
         <f>IF(Inputs!D35="","",Inputs!D35)</f>
         <v/>
       </c>
-      <c r="E28" s="198" t="str">
+      <c r="E28" s="196" t="str">
         <f>IF(Inputs!E35="","",Inputs!E35)</f>
         <v/>
       </c>
-      <c r="F28" s="198" t="str">
+      <c r="F28" s="196" t="str">
         <f>IF(Inputs!F35="","",Inputs!F35)</f>
         <v/>
       </c>
-      <c r="G28" s="198" t="str">
+      <c r="G28" s="196" t="str">
         <f>IF(Inputs!G35="","",Inputs!G35)</f>
         <v/>
       </c>
-      <c r="H28" s="198" t="str">
+      <c r="H28" s="196" t="str">
         <f>IF(Inputs!H35="","",Inputs!H35)</f>
         <v/>
       </c>
-      <c r="I28" s="198" t="str">
+      <c r="I28" s="196" t="str">
         <f>IF(Inputs!I35="","",Inputs!I35)</f>
         <v/>
       </c>
-      <c r="J28" s="198" t="str">
+      <c r="J28" s="196" t="str">
         <f>IF(Inputs!J35="","",Inputs!J35)</f>
         <v/>
       </c>
-      <c r="K28" s="198" t="str">
+      <c r="K28" s="196" t="str">
         <f>IF(Inputs!K35="","",Inputs!K35)</f>
         <v/>
       </c>
-      <c r="L28" s="198" t="str">
+      <c r="L28" s="196" t="str">
         <f>IF(Inputs!L35="","",Inputs!L35)</f>
         <v/>
       </c>
-      <c r="M28" s="198" t="str">
+      <c r="M28" s="196" t="str">
         <f>IF(Inputs!M35="","",Inputs!M35)</f>
         <v/>
       </c>
-      <c r="N28" s="87"/>
+      <c r="N28" s="86"/>
     </row>
     <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="4"/>
-      <c r="B29" s="94" t="s">
-        <v>142</v>
+      <c r="B29" s="93" t="s">
+        <v>141</v>
       </c>
       <c r="C29" s="65">
         <f>Fin_Analysis!C18</f>
         <v>0</v>
       </c>
-      <c r="D29" s="198" t="str">
+      <c r="D29" s="196" t="str">
         <f>IF(Inputs!D36="","",Inputs!D36)</f>
         <v/>
       </c>
-      <c r="E29" s="198" t="str">
+      <c r="E29" s="196" t="str">
         <f>IF(Inputs!E36="","",Inputs!E36)</f>
         <v/>
       </c>
-      <c r="F29" s="198" t="str">
+      <c r="F29" s="196" t="str">
         <f>IF(Inputs!F36="","",Inputs!F36)</f>
         <v/>
       </c>
-      <c r="G29" s="198" t="str">
+      <c r="G29" s="196" t="str">
         <f>IF(Inputs!G36="","",Inputs!G36)</f>
         <v/>
       </c>
-      <c r="H29" s="198" t="str">
+      <c r="H29" s="196" t="str">
         <f>IF(Inputs!H36="","",Inputs!H36)</f>
         <v/>
       </c>
-      <c r="I29" s="198" t="str">
+      <c r="I29" s="196" t="str">
         <f>IF(Inputs!I36="","",Inputs!I36)</f>
         <v/>
       </c>
-      <c r="J29" s="198" t="str">
+      <c r="J29" s="196" t="str">
         <f>IF(Inputs!J36="","",Inputs!J36)</f>
         <v/>
       </c>
-      <c r="K29" s="198" t="str">
+      <c r="K29" s="196" t="str">
         <f>IF(Inputs!K36="","",Inputs!K36)</f>
         <v/>
       </c>
-      <c r="L29" s="198" t="str">
+      <c r="L29" s="196" t="str">
         <f>IF(Inputs!L36="","",Inputs!L36)</f>
         <v/>
       </c>
-      <c r="M29" s="198" t="str">
+      <c r="M29" s="196" t="str">
         <f>IF(Inputs!M36="","",Inputs!M36)</f>
         <v/>
       </c>
-      <c r="N29" s="87"/>
+      <c r="N29" s="86"/>
     </row>
     <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="4"/>
-      <c r="B30" s="94" t="s">
-        <v>261</v>
+      <c r="B30" s="93" t="s">
+        <v>259</v>
       </c>
       <c r="C30" s="65">
         <f>Inputs!C37</f>
         <v>0</v>
       </c>
-      <c r="D30" s="198" t="str">
+      <c r="D30" s="196" t="str">
         <f>IF(Inputs!D37="","",Inputs!D37)</f>
         <v/>
       </c>
-      <c r="E30" s="198" t="str">
+      <c r="E30" s="196" t="str">
         <f>IF(Inputs!E37="","",Inputs!E37)</f>
         <v/>
       </c>
-      <c r="F30" s="198" t="str">
+      <c r="F30" s="196" t="str">
         <f>IF(Inputs!F37="","",Inputs!F37)</f>
         <v/>
       </c>
-      <c r="G30" s="198" t="str">
+      <c r="G30" s="196" t="str">
         <f>IF(Inputs!G37="","",Inputs!G37)</f>
         <v/>
       </c>
-      <c r="H30" s="198" t="str">
+      <c r="H30" s="196" t="str">
         <f>IF(Inputs!H37="","",Inputs!H37)</f>
         <v/>
       </c>
-      <c r="I30" s="198" t="str">
+      <c r="I30" s="196" t="str">
         <f>IF(Inputs!I37="","",Inputs!I37)</f>
         <v/>
       </c>
-      <c r="J30" s="198" t="str">
+      <c r="J30" s="196" t="str">
         <f>IF(Inputs!J37="","",Inputs!J37)</f>
         <v/>
       </c>
-      <c r="K30" s="198" t="str">
+      <c r="K30" s="196" t="str">
         <f>IF(Inputs!K37="","",Inputs!K37)</f>
         <v/>
       </c>
-      <c r="L30" s="198" t="str">
+      <c r="L30" s="196" t="str">
         <f>IF(Inputs!L37="","",Inputs!L37)</f>
         <v/>
       </c>
-      <c r="M30" s="198" t="str">
+      <c r="M30" s="196" t="str">
         <f>IF(Inputs!M37="","",Inputs!M37)</f>
         <v/>
       </c>
-      <c r="N30" s="87"/>
+      <c r="N30" s="86"/>
     </row>
     <row r="31" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="4"/>
-      <c r="B31" s="94" t="s">
+      <c r="B31" s="93" t="s">
         <v>17</v>
       </c>
       <c r="C31" s="65">
         <f>Fin_Analysis!I15</f>
         <v>0</v>
       </c>
-      <c r="D31" s="198" t="str">
+      <c r="D31" s="196" t="str">
         <f>IF(Inputs!D39="","",Inputs!D39)</f>
         <v/>
       </c>
-      <c r="E31" s="198" t="str">
+      <c r="E31" s="196" t="str">
         <f>IF(Inputs!E39="","",Inputs!E39)</f>
         <v/>
       </c>
-      <c r="F31" s="198" t="str">
+      <c r="F31" s="196" t="str">
         <f>IF(Inputs!F39="","",Inputs!F39)</f>
         <v/>
       </c>
-      <c r="G31" s="198" t="str">
+      <c r="G31" s="196" t="str">
         <f>IF(Inputs!G39="","",Inputs!G39)</f>
         <v/>
       </c>
-      <c r="H31" s="198" t="str">
+      <c r="H31" s="196" t="str">
         <f>IF(Inputs!H39="","",Inputs!H39)</f>
         <v/>
       </c>
-      <c r="I31" s="198" t="str">
+      <c r="I31" s="196" t="str">
         <f>IF(Inputs!I39="","",Inputs!I39)</f>
         <v/>
       </c>
-      <c r="J31" s="198" t="str">
+      <c r="J31" s="196" t="str">
         <f>IF(Inputs!J39="","",Inputs!J39)</f>
         <v/>
       </c>
-      <c r="K31" s="198" t="str">
+      <c r="K31" s="196" t="str">
         <f>IF(Inputs!K39="","",Inputs!K39)</f>
         <v/>
       </c>
-      <c r="L31" s="198" t="str">
+      <c r="L31" s="196" t="str">
         <f>IF(Inputs!L39="","",Inputs!L39)</f>
         <v/>
       </c>
-      <c r="M31" s="198" t="str">
+      <c r="M31" s="196" t="str">
         <f>IF(Inputs!M39="","",Inputs!M39)</f>
         <v/>
       </c>
-      <c r="N31" s="87"/>
+      <c r="N31" s="86"/>
     </row>
     <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="4"/>
-      <c r="B32" s="94" t="s">
+      <c r="B32" s="93" t="s">
         <v>18</v>
       </c>
       <c r="C32" s="65">
         <f>Fin_Analysis!I34</f>
         <v>0</v>
       </c>
-      <c r="D32" s="198" t="str">
+      <c r="D32" s="196" t="str">
         <f>IF(Inputs!D40="","",Inputs!D40)</f>
         <v/>
       </c>
-      <c r="E32" s="198" t="str">
+      <c r="E32" s="196" t="str">
         <f>IF(Inputs!E40="","",Inputs!E40)</f>
         <v/>
       </c>
-      <c r="F32" s="198" t="str">
+      <c r="F32" s="196" t="str">
         <f>IF(Inputs!F40="","",Inputs!F40)</f>
         <v/>
       </c>
-      <c r="G32" s="198" t="str">
+      <c r="G32" s="196" t="str">
         <f>IF(Inputs!G40="","",Inputs!G40)</f>
         <v/>
       </c>
-      <c r="H32" s="198" t="str">
+      <c r="H32" s="196" t="str">
         <f>IF(Inputs!H40="","",Inputs!H40)</f>
         <v/>
       </c>
-      <c r="I32" s="198" t="str">
+      <c r="I32" s="196" t="str">
         <f>IF(Inputs!I40="","",Inputs!I40)</f>
         <v/>
       </c>
-      <c r="J32" s="198" t="str">
+      <c r="J32" s="196" t="str">
         <f>IF(Inputs!J40="","",Inputs!J40)</f>
         <v/>
       </c>
-      <c r="K32" s="198" t="str">
+      <c r="K32" s="196" t="str">
         <f>IF(Inputs!K40="","",Inputs!K40)</f>
         <v/>
       </c>
-      <c r="L32" s="198" t="str">
+      <c r="L32" s="196" t="str">
         <f>IF(Inputs!L40="","",Inputs!L40)</f>
         <v/>
       </c>
-      <c r="M32" s="198" t="str">
+      <c r="M32" s="196" t="str">
         <f>IF(Inputs!M40="","",Inputs!M40)</f>
         <v/>
       </c>
-      <c r="N32" s="87"/>
+      <c r="N32" s="86"/>
     </row>
     <row r="33" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="4"/>
-      <c r="B33" s="94" t="s">
+      <c r="B33" s="93" t="s">
         <v>19</v>
       </c>
       <c r="C33" s="77">
@@ -7110,165 +7105,165 @@
         <f t="shared" ref="M33" si="31">IF(OR(M31="",M32=""),"",M31+M32)</f>
         <v/>
       </c>
-      <c r="N33" s="87"/>
+      <c r="N33" s="86"/>
     </row>
     <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="4"/>
-      <c r="B34" s="94" t="s">
-        <v>133</v>
+      <c r="B34" s="93" t="s">
+        <v>132</v>
       </c>
       <c r="C34" s="65">
         <f>Inputs!C41</f>
         <v>0</v>
       </c>
-      <c r="D34" s="198" t="str">
+      <c r="D34" s="196" t="str">
         <f>IF(Inputs!D41="","",Inputs!D41)</f>
         <v/>
       </c>
-      <c r="E34" s="198" t="str">
+      <c r="E34" s="196" t="str">
         <f>IF(Inputs!E41="","",Inputs!E41)</f>
         <v/>
       </c>
-      <c r="F34" s="198" t="str">
+      <c r="F34" s="196" t="str">
         <f>IF(Inputs!F41="","",Inputs!F41)</f>
         <v/>
       </c>
-      <c r="G34" s="198" t="str">
+      <c r="G34" s="196" t="str">
         <f>IF(Inputs!G41="","",Inputs!G41)</f>
         <v/>
       </c>
-      <c r="H34" s="198" t="str">
+      <c r="H34" s="196" t="str">
         <f>IF(Inputs!H41="","",Inputs!H41)</f>
         <v/>
       </c>
-      <c r="I34" s="198" t="str">
+      <c r="I34" s="196" t="str">
         <f>IF(Inputs!I41="","",Inputs!I41)</f>
         <v/>
       </c>
-      <c r="J34" s="198" t="str">
+      <c r="J34" s="196" t="str">
         <f>IF(Inputs!J41="","",Inputs!J41)</f>
         <v/>
       </c>
-      <c r="K34" s="198" t="str">
+      <c r="K34" s="196" t="str">
         <f>IF(Inputs!K41="","",Inputs!K41)</f>
         <v/>
       </c>
-      <c r="L34" s="198" t="str">
+      <c r="L34" s="196" t="str">
         <f>IF(Inputs!L41="","",Inputs!L41)</f>
         <v/>
       </c>
-      <c r="M34" s="198" t="str">
+      <c r="M34" s="196" t="str">
         <f>IF(Inputs!M41="","",Inputs!M41)</f>
         <v/>
       </c>
-      <c r="N34" s="87"/>
+      <c r="N34" s="86"/>
     </row>
     <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="4"/>
-      <c r="B35" s="94" t="s">
-        <v>134</v>
+      <c r="B35" s="93" t="s">
+        <v>133</v>
       </c>
       <c r="C35" s="65">
         <f>Inputs!C42</f>
         <v>0</v>
       </c>
-      <c r="D35" s="198" t="str">
+      <c r="D35" s="196" t="str">
         <f>IF(Inputs!D42="","",Inputs!D42)</f>
         <v/>
       </c>
-      <c r="E35" s="198" t="str">
+      <c r="E35" s="196" t="str">
         <f>IF(Inputs!E42="","",Inputs!E42)</f>
         <v/>
       </c>
-      <c r="F35" s="198" t="str">
+      <c r="F35" s="196" t="str">
         <f>IF(Inputs!F42="","",Inputs!F42)</f>
         <v/>
       </c>
-      <c r="G35" s="198" t="str">
+      <c r="G35" s="196" t="str">
         <f>IF(Inputs!G42="","",Inputs!G42)</f>
         <v/>
       </c>
-      <c r="H35" s="198" t="str">
+      <c r="H35" s="196" t="str">
         <f>IF(Inputs!H42="","",Inputs!H42)</f>
         <v/>
       </c>
-      <c r="I35" s="198" t="str">
+      <c r="I35" s="196" t="str">
         <f>IF(Inputs!I42="","",Inputs!I42)</f>
         <v/>
       </c>
-      <c r="J35" s="198" t="str">
+      <c r="J35" s="196" t="str">
         <f>IF(Inputs!J42="","",Inputs!J42)</f>
         <v/>
       </c>
-      <c r="K35" s="198" t="str">
+      <c r="K35" s="196" t="str">
         <f>IF(Inputs!K42="","",Inputs!K42)</f>
         <v/>
       </c>
-      <c r="L35" s="198" t="str">
+      <c r="L35" s="196" t="str">
         <f>IF(Inputs!L42="","",Inputs!L42)</f>
         <v/>
       </c>
-      <c r="M35" s="198" t="str">
+      <c r="M35" s="196" t="str">
         <f>IF(Inputs!M42="","",Inputs!M42)</f>
         <v/>
       </c>
-      <c r="N35" s="87"/>
+      <c r="N35" s="86"/>
     </row>
     <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="4"/>
-      <c r="B36" s="94" t="s">
-        <v>132</v>
+      <c r="B36" s="93" t="s">
+        <v>131</v>
       </c>
       <c r="C36" s="65">
         <f>Inputs!C40</f>
         <v>0</v>
       </c>
-      <c r="D36" s="198" t="str">
+      <c r="D36" s="196" t="str">
         <f>IF(Inputs!D43="","",Inputs!D43)</f>
         <v/>
       </c>
-      <c r="E36" s="198" t="str">
+      <c r="E36" s="196" t="str">
         <f>IF(Inputs!E43="","",Inputs!E43)</f>
         <v/>
       </c>
-      <c r="F36" s="198" t="str">
+      <c r="F36" s="196" t="str">
         <f>IF(Inputs!F43="","",Inputs!F43)</f>
         <v/>
       </c>
-      <c r="G36" s="198" t="str">
+      <c r="G36" s="196" t="str">
         <f>IF(Inputs!G43="","",Inputs!G43)</f>
         <v/>
       </c>
-      <c r="H36" s="198" t="str">
+      <c r="H36" s="196" t="str">
         <f>IF(Inputs!H43="","",Inputs!H43)</f>
         <v/>
       </c>
-      <c r="I36" s="198" t="str">
+      <c r="I36" s="196" t="str">
         <f>IF(Inputs!I43="","",Inputs!I43)</f>
         <v/>
       </c>
-      <c r="J36" s="198" t="str">
+      <c r="J36" s="196" t="str">
         <f>IF(Inputs!J43="","",Inputs!J43)</f>
         <v/>
       </c>
-      <c r="K36" s="198" t="str">
+      <c r="K36" s="196" t="str">
         <f>IF(Inputs!K43="","",Inputs!K43)</f>
         <v/>
       </c>
-      <c r="L36" s="198" t="str">
+      <c r="L36" s="196" t="str">
         <f>IF(Inputs!L43="","",Inputs!L43)</f>
         <v/>
       </c>
-      <c r="M36" s="198" t="str">
+      <c r="M36" s="196" t="str">
         <f>IF(Inputs!M43="","",Inputs!M43)</f>
         <v/>
       </c>
-      <c r="N36" s="87"/>
+      <c r="N36" s="86"/>
     </row>
     <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="4"/>
-      <c r="B37" s="94" t="s">
-        <v>136</v>
+      <c r="B37" s="93" t="s">
+        <v>135</v>
       </c>
       <c r="C37" s="65">
         <f>Fin_Analysis!C68</f>
@@ -7314,63 +7309,63 @@
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="N37" s="87"/>
+      <c r="N37" s="86"/>
     </row>
     <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="4"/>
-      <c r="B38" s="98" t="s">
-        <v>150</v>
-      </c>
-      <c r="C38" s="154" t="e">
+      <c r="B38" s="97" t="s">
+        <v>149</v>
+      </c>
+      <c r="C38" s="153" t="e">
         <f>IF(C6="","",C14/MAX(C37,0))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D38" s="154" t="e">
+      <c r="D38" s="153" t="e">
         <f>IF(D6="","",D14/MAX(D37,0))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E38" s="154" t="str">
+      <c r="E38" s="153" t="str">
         <f>IF(E6="","",E14/MAX(E37,0))</f>
         <v/>
       </c>
-      <c r="F38" s="154" t="str">
+      <c r="F38" s="153" t="str">
         <f t="shared" ref="F38:M38" si="33">IF(F37="","",F14/F37)</f>
         <v/>
       </c>
-      <c r="G38" s="154" t="str">
+      <c r="G38" s="153" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="H38" s="154" t="str">
+      <c r="H38" s="153" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="I38" s="154" t="str">
+      <c r="I38" s="153" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="J38" s="154" t="str">
+      <c r="J38" s="153" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="K38" s="154" t="str">
+      <c r="K38" s="153" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="L38" s="154" t="str">
+      <c r="L38" s="153" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="M38" s="154" t="str">
+      <c r="M38" s="153" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="N38" s="87"/>
+      <c r="N38" s="86"/>
     </row>
     <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="16"/>
       <c r="B39" s="55" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C39" s="54"/>
       <c r="D39" s="54"/>
@@ -7383,372 +7378,372 @@
       <c r="K39" s="54"/>
       <c r="L39" s="54"/>
       <c r="M39" s="54"/>
-      <c r="N39" s="87"/>
+      <c r="N39" s="86"/>
     </row>
     <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="4"/>
-      <c r="B40" s="95" t="s">
-        <v>95</v>
-      </c>
-      <c r="C40" s="155">
+      <c r="B40" s="94" t="s">
+        <v>94</v>
+      </c>
+      <c r="C40" s="154">
         <f t="shared" ref="C40:M40" si="34">IF(C6="","",C8/C6)</f>
         <v>0.47272944175123971</v>
       </c>
-      <c r="D40" s="155">
+      <c r="D40" s="154">
         <f t="shared" si="34"/>
         <v>0.56850345827225579</v>
       </c>
-      <c r="E40" s="155" t="str">
+      <c r="E40" s="154" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="F40" s="155" t="str">
+      <c r="F40" s="154" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="G40" s="155" t="str">
+      <c r="G40" s="154" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="H40" s="155" t="str">
+      <c r="H40" s="154" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="I40" s="155" t="str">
+      <c r="I40" s="154" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="J40" s="155" t="str">
+      <c r="J40" s="154" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="K40" s="155" t="str">
+      <c r="K40" s="154" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="L40" s="155" t="str">
+      <c r="L40" s="154" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="M40" s="155" t="str">
+      <c r="M40" s="154" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="N40" s="87"/>
+      <c r="N40" s="86"/>
     </row>
     <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="4"/>
-      <c r="B41" s="94" t="s">
-        <v>220</v>
-      </c>
-      <c r="C41" s="152">
+      <c r="B41" s="93" t="s">
+        <v>219</v>
+      </c>
+      <c r="C41" s="151">
         <f t="shared" ref="C41:M41" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
         <v>0.35112695227219692</v>
       </c>
-      <c r="D41" s="152">
+      <c r="D41" s="151">
         <f t="shared" si="35"/>
         <v>0.7314473949460305</v>
       </c>
-      <c r="E41" s="152" t="str">
+      <c r="E41" s="151" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="F41" s="152" t="str">
+      <c r="F41" s="151" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="G41" s="152" t="str">
+      <c r="G41" s="151" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="H41" s="152" t="str">
+      <c r="H41" s="151" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="I41" s="152" t="str">
+      <c r="I41" s="151" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="J41" s="152" t="str">
+      <c r="J41" s="151" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="K41" s="152" t="str">
+      <c r="K41" s="151" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="L41" s="152" t="str">
+      <c r="L41" s="151" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="M41" s="152" t="str">
+      <c r="M41" s="151" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="N41" s="87"/>
+      <c r="N41" s="86"/>
     </row>
     <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="4"/>
-      <c r="B42" s="94" t="s">
-        <v>106</v>
-      </c>
-      <c r="C42" s="152">
+      <c r="B42" s="93" t="s">
+        <v>105</v>
+      </c>
+      <c r="C42" s="151">
         <f t="shared" ref="C42:M42" si="36">IF(C6="","",MAX(C16,0)/C6)</f>
         <v>0</v>
       </c>
-      <c r="D42" s="152">
+      <c r="D42" s="151">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="E42" s="152" t="str">
+      <c r="E42" s="151" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="F42" s="152" t="str">
+      <c r="F42" s="151" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="G42" s="152" t="str">
+      <c r="G42" s="151" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="H42" s="152" t="str">
+      <c r="H42" s="151" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="I42" s="152" t="str">
+      <c r="I42" s="151" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="J42" s="152" t="str">
+      <c r="J42" s="151" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="K42" s="152" t="str">
+      <c r="K42" s="151" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="L42" s="152" t="str">
+      <c r="L42" s="151" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="M42" s="152" t="str">
+      <c r="M42" s="151" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="N42" s="87"/>
+      <c r="N42" s="86"/>
     </row>
     <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="4"/>
-      <c r="B43" s="94" t="s">
-        <v>118</v>
-      </c>
-      <c r="C43" s="152">
+      <c r="B43" s="93" t="s">
+        <v>117</v>
+      </c>
+      <c r="C43" s="151">
         <f t="shared" ref="C43:M43" si="37">IF(C6="","",MAX(C17,0)/C6)</f>
         <v>0</v>
       </c>
-      <c r="D43" s="152">
+      <c r="D43" s="151">
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-      <c r="E43" s="152" t="str">
+      <c r="E43" s="151" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="F43" s="152" t="str">
+      <c r="F43" s="151" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="G43" s="152" t="str">
+      <c r="G43" s="151" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="H43" s="152" t="str">
+      <c r="H43" s="151" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="I43" s="152" t="str">
+      <c r="I43" s="151" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="J43" s="152" t="str">
+      <c r="J43" s="151" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="K43" s="152" t="str">
+      <c r="K43" s="151" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="L43" s="152" t="str">
+      <c r="L43" s="151" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="M43" s="152" t="str">
+      <c r="M43" s="151" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="N43" s="87"/>
+      <c r="N43" s="86"/>
     </row>
     <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="4"/>
-      <c r="B44" s="94" t="s">
-        <v>125</v>
-      </c>
-      <c r="C44" s="152">
+      <c r="B44" s="93" t="s">
+        <v>124</v>
+      </c>
+      <c r="C44" s="151">
         <f t="shared" ref="C44:M44" si="38">IF(C6="","",MAX(C12,0)/C6)</f>
         <v>1.6858097812807804E-3</v>
       </c>
-      <c r="D44" s="152">
+      <c r="D44" s="151">
         <f t="shared" si="38"/>
         <v>0</v>
       </c>
-      <c r="E44" s="152" t="str">
+      <c r="E44" s="151" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="F44" s="152" t="str">
+      <c r="F44" s="151" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="G44" s="152" t="str">
+      <c r="G44" s="151" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="H44" s="152" t="str">
+      <c r="H44" s="151" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="I44" s="152" t="str">
+      <c r="I44" s="151" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="J44" s="152" t="str">
+      <c r="J44" s="151" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="K44" s="152" t="str">
+      <c r="K44" s="151" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="L44" s="152" t="str">
+      <c r="L44" s="151" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="M44" s="152" t="str">
+      <c r="M44" s="151" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="N44" s="87"/>
+      <c r="N44" s="86"/>
     </row>
     <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="4"/>
-      <c r="B45" s="94" t="s">
-        <v>222</v>
-      </c>
-      <c r="C45" s="152">
+      <c r="B45" s="93" t="s">
+        <v>221</v>
+      </c>
+      <c r="C45" s="151">
         <f t="shared" ref="C45:M45" si="39">IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
         <v>0</v>
       </c>
-      <c r="D45" s="152">
+      <c r="D45" s="151">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="E45" s="152" t="str">
+      <c r="E45" s="151" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="F45" s="152" t="str">
+      <c r="F45" s="151" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="G45" s="152" t="str">
+      <c r="G45" s="151" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="H45" s="152" t="str">
+      <c r="H45" s="151" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="I45" s="152" t="str">
+      <c r="I45" s="151" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="J45" s="152" t="str">
+      <c r="J45" s="151" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="K45" s="152" t="str">
+      <c r="K45" s="151" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="L45" s="152" t="str">
+      <c r="L45" s="151" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="M45" s="152" t="str">
+      <c r="M45" s="151" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="N45" s="87"/>
+      <c r="N45" s="86"/>
     </row>
     <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="4"/>
-      <c r="B46" s="94" t="s">
-        <v>120</v>
-      </c>
-      <c r="C46" s="152">
+      <c r="B46" s="93" t="s">
+        <v>119</v>
+      </c>
+      <c r="C46" s="151">
         <f t="shared" ref="C46:M46" si="40">IF(C6="","",C22/C6)</f>
         <v>0.17445779619528262</v>
       </c>
-      <c r="D46" s="152">
+      <c r="D46" s="151">
         <f t="shared" si="40"/>
         <v>-0.29995085321828624</v>
       </c>
-      <c r="E46" s="152" t="str">
+      <c r="E46" s="151" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="F46" s="152" t="str">
+      <c r="F46" s="151" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="G46" s="152" t="str">
+      <c r="G46" s="151" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="H46" s="152" t="str">
+      <c r="H46" s="151" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="I46" s="152" t="str">
+      <c r="I46" s="151" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="J46" s="152" t="str">
+      <c r="J46" s="151" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="K46" s="152" t="str">
+      <c r="K46" s="151" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="L46" s="152" t="str">
+      <c r="L46" s="151" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="M46" s="152" t="str">
+      <c r="M46" s="151" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="N46" s="87"/>
+      <c r="N46" s="86"/>
     </row>
     <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="16"/>
-      <c r="B47" s="102" t="s">
-        <v>247</v>
-      </c>
-      <c r="C47" s="280" t="s">
-        <v>265</v>
+      <c r="B47" s="101" t="s">
+        <v>245</v>
+      </c>
+      <c r="C47" s="278" t="s">
+        <v>262</v>
       </c>
       <c r="D47" s="36"/>
       <c r="E47" s="36"/>
@@ -7760,216 +7755,216 @@
       <c r="K47" s="36"/>
       <c r="L47" s="36"/>
       <c r="M47" s="36"/>
-      <c r="N47" s="87"/>
+      <c r="N47" s="86"/>
     </row>
     <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="4"/>
-      <c r="B48" s="268" t="s">
-        <v>253</v>
-      </c>
-      <c r="C48" s="269" t="e">
+      <c r="B48" s="266" t="s">
+        <v>251</v>
+      </c>
+      <c r="C48" s="267" t="e">
         <f t="shared" ref="C48:M48" si="41">IF(C6="","",C6/C27)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D48" s="269" t="e">
+      <c r="D48" s="267" t="e">
         <f t="shared" si="41"/>
         <v>#VALUE!</v>
       </c>
-      <c r="E48" s="269" t="str">
+      <c r="E48" s="267" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="F48" s="269" t="str">
+      <c r="F48" s="267" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="G48" s="269" t="str">
+      <c r="G48" s="267" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="H48" s="269" t="str">
+      <c r="H48" s="267" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="I48" s="269" t="str">
+      <c r="I48" s="267" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="J48" s="269" t="str">
+      <c r="J48" s="267" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="K48" s="269" t="str">
+      <c r="K48" s="267" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="L48" s="269" t="str">
+      <c r="L48" s="267" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="M48" s="269" t="str">
+      <c r="M48" s="267" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="N48" s="87"/>
+      <c r="N48" s="86"/>
     </row>
     <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="4"/>
-      <c r="B49" s="94" t="s">
-        <v>254</v>
-      </c>
-      <c r="C49" s="152">
+      <c r="B49" s="93" t="s">
+        <v>252</v>
+      </c>
+      <c r="C49" s="151">
         <f t="shared" ref="C49:M49" si="42">IF(C28="","",C28/C6)</f>
         <v>0</v>
       </c>
-      <c r="D49" s="152" t="str">
+      <c r="D49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="E49" s="152" t="str">
+      <c r="E49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="F49" s="152" t="str">
+      <c r="F49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="G49" s="152" t="str">
+      <c r="G49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="H49" s="152" t="str">
+      <c r="H49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="I49" s="152" t="str">
+      <c r="I49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="J49" s="152" t="str">
+      <c r="J49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="K49" s="152" t="str">
+      <c r="K49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="L49" s="152" t="str">
+      <c r="L49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="M49" s="152" t="str">
+      <c r="M49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="N49" s="87"/>
+      <c r="N49" s="86"/>
     </row>
     <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="4"/>
-      <c r="B50" s="94" t="s">
-        <v>255</v>
-      </c>
-      <c r="C50" s="152">
+      <c r="B50" s="93" t="s">
+        <v>253</v>
+      </c>
+      <c r="C50" s="151">
         <f t="shared" ref="C50:M50" si="43">IF(C29="","",C29/C6)</f>
         <v>0</v>
       </c>
-      <c r="D50" s="152" t="str">
+      <c r="D50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="E50" s="152" t="str">
+      <c r="E50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="F50" s="152" t="str">
+      <c r="F50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="G50" s="152" t="str">
+      <c r="G50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="H50" s="152" t="str">
+      <c r="H50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="I50" s="152" t="str">
+      <c r="I50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="J50" s="152" t="str">
+      <c r="J50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="K50" s="152" t="str">
+      <c r="K50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="L50" s="152" t="str">
+      <c r="L50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="M50" s="152" t="str">
+      <c r="M50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="N50" s="87"/>
+      <c r="N50" s="86"/>
     </row>
     <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="4"/>
-      <c r="B51" s="94" t="s">
-        <v>245</v>
-      </c>
-      <c r="C51" s="152" t="e">
+      <c r="B51" s="93" t="s">
+        <v>243</v>
+      </c>
+      <c r="C51" s="151" t="e">
         <f t="shared" ref="C51:M51" si="44">IF(D6="","",C16/(C6-D6))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D51" s="152" t="str">
+      <c r="D51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="E51" s="152" t="str">
+      <c r="E51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="F51" s="152" t="str">
+      <c r="F51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="G51" s="152" t="str">
+      <c r="G51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="H51" s="152" t="str">
+      <c r="H51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="I51" s="152" t="str">
+      <c r="I51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="J51" s="152" t="str">
+      <c r="J51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="K51" s="152" t="str">
+      <c r="K51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="L51" s="152" t="str">
+      <c r="L51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="M51" s="152" t="str">
+      <c r="M51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="N51" s="87"/>
+      <c r="N51" s="86"/>
     </row>
     <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="16"/>
-      <c r="B52" s="102" t="s">
-        <v>248</v>
+      <c r="B52" s="101" t="s">
+        <v>246</v>
       </c>
       <c r="C52" s="36"/>
       <c r="D52" s="36"/>
@@ -7985,350 +7980,350 @@
     </row>
     <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="4"/>
-      <c r="B53" s="95" t="s">
-        <v>249</v>
-      </c>
-      <c r="C53" s="155" t="e">
+      <c r="B53" s="94" t="s">
+        <v>247</v>
+      </c>
+      <c r="C53" s="154" t="e">
         <f t="shared" ref="C53:M53" si="45">IF(C34="","",(C34-C35)/C27)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D53" s="155" t="str">
+      <c r="D53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="E53" s="155" t="str">
+      <c r="E53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="F53" s="155" t="str">
+      <c r="F53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="G53" s="155" t="str">
+      <c r="G53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="H53" s="155" t="str">
+      <c r="H53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="I53" s="155" t="str">
+      <c r="I53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="J53" s="155" t="str">
+      <c r="J53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="K53" s="155" t="str">
+      <c r="K53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="L53" s="155" t="str">
+      <c r="L53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="M53" s="155" t="str">
+      <c r="M53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
     </row>
     <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A54" s="4"/>
-      <c r="B54" s="94" t="s">
-        <v>117</v>
-      </c>
-      <c r="C54" s="156" t="str">
+      <c r="B54" s="93" t="s">
+        <v>116</v>
+      </c>
+      <c r="C54" s="155" t="str">
         <f t="shared" ref="C54:M54" si="46">IF(OR(C22="",C33=""),"",IF(C33&lt;=0,"-",C22/C33))</f>
         <v>-</v>
       </c>
-      <c r="D54" s="156" t="str">
+      <c r="D54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="E54" s="156" t="str">
+      <c r="E54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="F54" s="156" t="str">
+      <c r="F54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="G54" s="156" t="str">
+      <c r="G54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="H54" s="156" t="str">
+      <c r="H54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="I54" s="156" t="str">
+      <c r="I54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="J54" s="156" t="str">
+      <c r="J54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="K54" s="156" t="str">
+      <c r="K54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="L54" s="156" t="str">
+      <c r="L54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="M54" s="156" t="str">
+      <c r="M54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
     </row>
     <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="4"/>
-      <c r="B55" s="94" t="s">
-        <v>119</v>
-      </c>
-      <c r="C55" s="152" t="str">
+      <c r="B55" s="93" t="s">
+        <v>118</v>
+      </c>
+      <c r="C55" s="151" t="str">
         <f t="shared" ref="C55:M55" si="47">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
         <v>-</v>
       </c>
-      <c r="D55" s="152" t="str">
+      <c r="D55" s="151" t="str">
         <f t="shared" si="47"/>
         <v>-</v>
       </c>
-      <c r="E55" s="152" t="str">
+      <c r="E55" s="151" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="F55" s="152" t="str">
+      <c r="F55" s="151" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="G55" s="152" t="str">
+      <c r="G55" s="151" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="H55" s="152" t="str">
+      <c r="H55" s="151" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="I55" s="152" t="str">
+      <c r="I55" s="151" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="J55" s="152" t="str">
+      <c r="J55" s="151" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="K55" s="152" t="str">
+      <c r="K55" s="151" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="L55" s="152" t="str">
+      <c r="L55" s="151" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="M55" s="152" t="str">
+      <c r="M55" s="151" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
     </row>
     <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="4"/>
-      <c r="B56" s="98" t="s">
-        <v>20</v>
-      </c>
-      <c r="C56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/C30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/D30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/E30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/F30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/G30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/H30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/I30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/J30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/K30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/L30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="M56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/M30)</f>
-        <v>#REF!</v>
+      <c r="B56" s="93" t="s">
+        <v>266</v>
+      </c>
+      <c r="C56" s="151">
+        <f>IF(C34="","",IF(Inputs!C38=0,0,Inputs!C38/C27))</f>
+        <v>0</v>
+      </c>
+      <c r="D56" s="151" t="str">
+        <f>IF(D34="","",IF(Inputs!D38=0,0,Inputs!D38/D27))</f>
+        <v/>
+      </c>
+      <c r="E56" s="151" t="str">
+        <f>IF(E34="","",IF(Inputs!E38=0,0,Inputs!E38/E27))</f>
+        <v/>
+      </c>
+      <c r="F56" s="151" t="str">
+        <f>IF(F34="","",IF(Inputs!F38=0,0,Inputs!F38/F27))</f>
+        <v/>
+      </c>
+      <c r="G56" s="151" t="str">
+        <f>IF(G34="","",IF(Inputs!G38=0,0,Inputs!G38/G27))</f>
+        <v/>
+      </c>
+      <c r="H56" s="151" t="str">
+        <f>IF(H34="","",IF(Inputs!H38=0,0,Inputs!H38/H27))</f>
+        <v/>
+      </c>
+      <c r="I56" s="151" t="str">
+        <f>IF(I34="","",IF(Inputs!I38=0,0,Inputs!I38/I27))</f>
+        <v/>
+      </c>
+      <c r="J56" s="151" t="str">
+        <f>IF(J34="","",IF(Inputs!J38=0,0,Inputs!J38/J27))</f>
+        <v/>
+      </c>
+      <c r="K56" s="151" t="str">
+        <f>IF(K34="","",IF(Inputs!K38=0,0,Inputs!K38/K27))</f>
+        <v/>
+      </c>
+      <c r="L56" s="151" t="str">
+        <f>IF(L34="","",IF(Inputs!L38=0,0,Inputs!L38/L27))</f>
+        <v/>
+      </c>
+      <c r="M56" s="151" t="str">
+        <f>IF(M34="","",IF(Inputs!M38=0,0,Inputs!M38/M27))</f>
+        <v/>
       </c>
     </row>
     <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A57" s="16"/>
-      <c r="B57" s="102" t="s">
-        <v>250</v>
-      </c>
-      <c r="C57" s="270" t="str">
+      <c r="B57" s="101" t="s">
+        <v>248</v>
+      </c>
+      <c r="C57" s="268" t="str">
         <f t="shared" ref="C57:M57" si="48">IFERROR(IF(C13*C48*(1/C53)=C58,"","Error"),"")</f>
         <v/>
       </c>
-      <c r="D57" s="270" t="str">
+      <c r="D57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="E57" s="270" t="str">
+      <c r="E57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="F57" s="270" t="str">
+      <c r="F57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="G57" s="270" t="str">
+      <c r="G57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="H57" s="270" t="str">
+      <c r="H57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="I57" s="270" t="str">
+      <c r="I57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="J57" s="270" t="str">
+      <c r="J57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="K57" s="270" t="str">
+      <c r="K57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="L57" s="270" t="str">
+      <c r="L57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="M57" s="270" t="str">
+      <c r="M57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
     </row>
     <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="4"/>
-      <c r="B58" s="268" t="s">
-        <v>251</v>
-      </c>
-      <c r="C58" s="271" t="e">
+      <c r="B58" s="266" t="s">
+        <v>249</v>
+      </c>
+      <c r="C58" s="269" t="e">
         <f t="shared" ref="C58:M58" si="49">IF(C14="","",C14/(C34-C35))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D58" s="271" t="e">
+      <c r="D58" s="269" t="e">
         <f t="shared" si="49"/>
         <v>#VALUE!</v>
       </c>
-      <c r="E58" s="271" t="str">
+      <c r="E58" s="269" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="F58" s="271" t="str">
+      <c r="F58" s="269" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="G58" s="271" t="str">
+      <c r="G58" s="269" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="H58" s="271" t="str">
+      <c r="H58" s="269" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="I58" s="271" t="str">
+      <c r="I58" s="269" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="J58" s="271" t="str">
+      <c r="J58" s="269" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="K58" s="271" t="str">
+      <c r="K58" s="269" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="L58" s="271" t="str">
+      <c r="L58" s="269" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="M58" s="271" t="str">
+      <c r="M58" s="269" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
     </row>
     <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="4"/>
-      <c r="B59" s="268" t="s">
-        <v>252</v>
-      </c>
-      <c r="C59" s="271" t="e">
+      <c r="B59" s="266" t="s">
+        <v>250</v>
+      </c>
+      <c r="C59" s="269" t="e">
         <f t="shared" ref="C59:M59" si="50">IF(C22="","",C22/(C34-C35))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D59" s="271" t="e">
+      <c r="D59" s="269" t="e">
         <f t="shared" si="50"/>
         <v>#VALUE!</v>
       </c>
-      <c r="E59" s="271" t="str">
+      <c r="E59" s="269" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="F59" s="271" t="str">
+      <c r="F59" s="269" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="G59" s="271" t="str">
+      <c r="G59" s="269" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="H59" s="271" t="str">
+      <c r="H59" s="269" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="I59" s="271" t="str">
+      <c r="I59" s="269" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="J59" s="271" t="str">
+      <c r="J59" s="269" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="K59" s="271" t="str">
+      <c r="K59" s="269" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="L59" s="271" t="str">
+      <c r="L59" s="269" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="M59" s="271" t="str">
+      <c r="M59" s="269" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
@@ -9607,7 +9602,7 @@
       <formula>LEN(TRIM(F4))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="1">
+  <dataValidations disablePrompts="1" count="1">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3" xr:uid="{00000000-0002-0000-0100-000001000000}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -9625,7 +9620,7 @@
   <dimension ref="A2:K108"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -9643,25 +9638,25 @@
     <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2"/>
       <c r="B2" s="45" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C2" s="45"/>
       <c r="D2" s="64"/>
-      <c r="E2" s="87"/>
+      <c r="E2" s="86"/>
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
-      <c r="I2" s="87"/>
+      <c r="I2" s="86"/>
       <c r="K2" s="50" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" s="87"/>
-      <c r="D3" s="204">
+        <v>21</v>
+      </c>
+      <c r="C3" s="86"/>
+      <c r="D3" s="202">
         <f>Inputs!C41</f>
         <v>0</v>
       </c>
@@ -9669,12 +9664,12 @@
         <f>IF((C49-I49)=D3,"", "Error!")</f>
         <v/>
       </c>
-      <c r="F3" s="87"/>
-      <c r="G3" s="87"/>
+      <c r="F3" s="86"/>
+      <c r="G3" s="86"/>
       <c r="H3" s="47" t="s">
-        <v>23</v>
-      </c>
-      <c r="I3" s="282">
+        <v>22</v>
+      </c>
+      <c r="I3" s="280">
         <f>D3-D4</f>
         <v>0</v>
       </c>
@@ -9682,28 +9677,28 @@
     </row>
     <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" s="87"/>
-      <c r="D4" s="198">
+        <v>23</v>
+      </c>
+      <c r="C4" s="86"/>
+      <c r="D4" s="196">
         <f>Inputs!C42</f>
         <v>0</v>
       </c>
       <c r="E4" s="37"/>
-      <c r="F4" s="87"/>
-      <c r="G4" s="87"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
       <c r="H4" s="21"/>
       <c r="I4" s="54"/>
       <c r="K4" s="24"/>
     </row>
     <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C5" s="87"/>
-      <c r="D5" s="87"/>
+      <c r="C5" s="86"/>
+      <c r="D5" s="86"/>
       <c r="E5" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="I5" s="63" t="e">
         <f>C28/I28</f>
@@ -9716,7 +9711,7 @@
         <f>"Adj. Net Asset in "&amp;Dashboard!G6</f>
         <v>Adj. Net Asset in HKD</v>
       </c>
-      <c r="C6" s="87"/>
+      <c r="C6" s="86"/>
       <c r="D6" s="69">
         <f>(E49-I49-E53)</f>
         <v>0</v>
@@ -9725,16 +9720,16 @@
         <f>1-D6/D3</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F6" s="87"/>
-      <c r="G6" s="87"/>
+      <c r="F6" s="86"/>
+      <c r="G6" s="86"/>
       <c r="H6" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I6" s="63" t="e">
         <f>(C24+C25)/I28</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J6" s="87"/>
+      <c r="J6" s="86"/>
       <c r="K6" s="24"/>
     </row>
     <row r="7" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
@@ -9742,7 +9737,7 @@
         <f>"Adj. Net Asset per Shares in "&amp;Dashboard!H3</f>
         <v>Adj. Net Asset per Shares in HKD</v>
       </c>
-      <c r="C7" s="87"/>
+      <c r="C7" s="86"/>
       <c r="D7" s="66">
         <f>MAX((D6*Exchange_Rate*Data!C4)/Common_Shares, 0)</f>
         <v>0</v>
@@ -9752,287 +9747,287 @@
         <v>HKD</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I7" s="63" t="e">
         <f>C24/I28</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J7" s="87"/>
+      <c r="J7" s="86"/>
       <c r="K7" s="33"/>
     </row>
     <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C8" s="87"/>
-      <c r="D8" s="87"/>
-      <c r="E8" s="87"/>
+      <c r="C8" s="86"/>
+      <c r="D8" s="86"/>
+      <c r="E8" s="86"/>
       <c r="K8" s="24"/>
     </row>
     <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="2"/>
       <c r="B9" s="46" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" s="86"/>
-      <c r="D9" s="202">
+        <v>28</v>
+      </c>
+      <c r="C9" s="85"/>
+      <c r="D9" s="200">
         <f>Inputs!C14</f>
         <v>45473</v>
       </c>
-      <c r="E9" s="118" t="str">
+      <c r="E9" s="117" t="str">
         <f>IF(MONTH(D9)=MONTH(Data!C3),"FY","Quarter")</f>
         <v>Quarter</v>
       </c>
-      <c r="F9" s="86"/>
-      <c r="G9" s="86"/>
-      <c r="H9" s="86"/>
-      <c r="I9" s="86"/>
+      <c r="F9" s="85"/>
+      <c r="G9" s="85"/>
+      <c r="H9" s="85"/>
+      <c r="I9" s="85"/>
       <c r="K9" s="24"/>
     </row>
     <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="74" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="74" t="s">
+      <c r="D10" s="74" t="s">
+        <v>182</v>
+      </c>
+      <c r="E10" s="74" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="74" t="s">
-        <v>183</v>
-      </c>
-      <c r="E10" s="74" t="s">
+      <c r="F10" s="110" t="s">
         <v>32</v>
       </c>
-      <c r="F10" s="111" t="s">
+      <c r="G10" s="86"/>
+      <c r="H10" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="G10" s="87"/>
-      <c r="H10" s="22" t="s">
-        <v>34</v>
-      </c>
       <c r="I10" s="74" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K10" s="24"/>
     </row>
     <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C11" s="40">
         <f>Inputs!C48</f>
         <v>0</v>
       </c>
-      <c r="D11" s="197">
+      <c r="D11" s="195">
         <f>Inputs!D48</f>
         <v>0.9</v>
       </c>
-      <c r="E11" s="88">
+      <c r="E11" s="87">
         <f t="shared" ref="E11:E22" si="0">C11*D11</f>
         <v>0</v>
       </c>
-      <c r="F11" s="112"/>
-      <c r="G11" s="87"/>
+      <c r="F11" s="111"/>
+      <c r="G11" s="86"/>
       <c r="H11" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I11" s="40">
         <f>Inputs!C73</f>
         <v>0</v>
       </c>
-      <c r="J11" s="87"/>
+      <c r="J11" s="86"/>
       <c r="K11" s="24"/>
     </row>
     <row r="12" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B12" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C12" s="40">
         <f>Inputs!C49</f>
         <v>0</v>
       </c>
-      <c r="D12" s="197">
+      <c r="D12" s="195">
         <f>Inputs!D49</f>
         <v>0.8</v>
       </c>
-      <c r="E12" s="88">
+      <c r="E12" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F12" s="112"/>
-      <c r="G12" s="87"/>
+      <c r="F12" s="111"/>
+      <c r="G12" s="86"/>
       <c r="H12" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I12" s="40">
         <f>Inputs!C74</f>
         <v>0</v>
       </c>
-      <c r="J12" s="87"/>
+      <c r="J12" s="86"/>
       <c r="K12" s="24"/>
     </row>
     <row r="13" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B13" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C13" s="40">
         <f>Inputs!C50</f>
         <v>0</v>
       </c>
-      <c r="D13" s="197">
+      <c r="D13" s="195">
         <f>Inputs!D50</f>
         <v>0.6</v>
       </c>
-      <c r="E13" s="88">
+      <c r="E13" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F13" s="112"/>
-      <c r="G13" s="87"/>
+      <c r="F13" s="111"/>
+      <c r="G13" s="86"/>
       <c r="H13" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I13" s="40">
         <f>Inputs!C75</f>
         <v>0</v>
       </c>
-      <c r="J13" s="87"/>
+      <c r="J13" s="86"/>
       <c r="K13" s="26"/>
     </row>
     <row r="14" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C14" s="40">
         <f>Inputs!C51</f>
         <v>0</v>
       </c>
-      <c r="D14" s="197">
+      <c r="D14" s="195">
         <f>Inputs!D51</f>
         <v>0.6</v>
       </c>
-      <c r="E14" s="88">
+      <c r="E14" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F14" s="112"/>
-      <c r="G14" s="87"/>
-      <c r="H14" s="86" t="s">
-        <v>40</v>
-      </c>
-      <c r="I14" s="203">
+      <c r="F14" s="111"/>
+      <c r="G14" s="86"/>
+      <c r="H14" s="85" t="s">
+        <v>39</v>
+      </c>
+      <c r="I14" s="201">
         <f>Inputs!C76</f>
         <v>0</v>
       </c>
-      <c r="J14" s="87"/>
+      <c r="J14" s="86"/>
       <c r="K14" s="27"/>
     </row>
     <row r="15" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C15" s="40">
         <f>Inputs!C52</f>
         <v>0</v>
       </c>
-      <c r="D15" s="197">
+      <c r="D15" s="195">
         <f>Inputs!D52</f>
         <v>0.5</v>
       </c>
-      <c r="E15" s="88">
+      <c r="E15" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F15" s="112"/>
-      <c r="G15" s="87"/>
+      <c r="F15" s="111"/>
+      <c r="G15" s="86"/>
       <c r="H15" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="I15" s="84">
+        <v>50</v>
+      </c>
+      <c r="I15" s="83">
         <f>SUM(I11:I14)</f>
         <v>0</v>
       </c>
-      <c r="J15" s="87"/>
+      <c r="J15" s="86"/>
     </row>
     <row r="16" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C16" s="40">
         <f>Inputs!C53</f>
         <v>0</v>
       </c>
-      <c r="D16" s="197">
+      <c r="D16" s="195">
         <f>Inputs!D53</f>
         <v>0.6</v>
       </c>
-      <c r="E16" s="88">
+      <c r="E16" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F16" s="112"/>
+      <c r="F16" s="111"/>
       <c r="G16" s="30"/>
       <c r="H16" s="3"/>
       <c r="I16" s="40"/>
-      <c r="J16" s="87"/>
+      <c r="J16" s="86"/>
     </row>
     <row r="17" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C17" s="40">
         <f>Inputs!C54</f>
         <v>0</v>
       </c>
-      <c r="D17" s="197">
+      <c r="D17" s="195">
         <f>Inputs!D54</f>
         <v>0.1</v>
       </c>
-      <c r="E17" s="88">
+      <c r="E17" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F17" s="112"/>
-      <c r="G17" s="87"/>
+      <c r="F17" s="111"/>
+      <c r="G17" s="86"/>
       <c r="H17" s="3"/>
       <c r="I17" s="40"/>
-      <c r="J17" s="87"/>
+      <c r="J17" s="86"/>
     </row>
     <row r="18" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C18" s="40">
         <f>Inputs!C55</f>
         <v>0</v>
       </c>
-      <c r="D18" s="197">
+      <c r="D18" s="195">
         <f>Inputs!D55</f>
         <v>0.5</v>
       </c>
-      <c r="E18" s="88">
+      <c r="E18" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F18" s="112"/>
-      <c r="G18" s="87"/>
-      <c r="H18" s="87"/>
-      <c r="I18" s="87"/>
+      <c r="F18" s="111"/>
+      <c r="G18" s="86"/>
+      <c r="H18" s="86"/>
+      <c r="I18" s="86"/>
     </row>
     <row r="19" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C19" s="40">
         <f>Inputs!C56</f>
         <v>0</v>
       </c>
-      <c r="D19" s="197">
+      <c r="D19" s="195">
         <f>Inputs!D56</f>
         <v>0.6</v>
       </c>
-      <c r="E19" s="88">
+      <c r="E19" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F19" s="133" t="str">
+      <c r="F19" s="132" t="str">
         <f>Inputs!E56</f>
         <v>N</v>
       </c>
@@ -10043,21 +10038,21 @@
     </row>
     <row r="20" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C20" s="40">
         <f>Inputs!C57</f>
         <v>0</v>
       </c>
-      <c r="D20" s="197">
+      <c r="D20" s="195">
         <f>Inputs!D57</f>
         <v>0.6</v>
       </c>
-      <c r="E20" s="88">
+      <c r="E20" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F20" s="133" t="str">
+      <c r="F20" s="132" t="str">
         <f>Inputs!E57</f>
         <v>Y</v>
       </c>
@@ -10070,45 +10065,45 @@
     </row>
     <row r="21" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C21" s="40">
         <f>Inputs!C58</f>
         <v>0</v>
       </c>
-      <c r="D21" s="197">
+      <c r="D21" s="195">
         <f>Inputs!D58</f>
         <v>0.9</v>
       </c>
-      <c r="E21" s="88">
+      <c r="E21" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F21" s="112"/>
-      <c r="G21" s="87"/>
+      <c r="F21" s="111"/>
+      <c r="G21" s="86"/>
       <c r="H21" s="3"/>
       <c r="I21" s="40"/>
     </row>
     <row r="22" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C22" s="40">
         <f>Inputs!C59</f>
         <v>0</v>
       </c>
-      <c r="D22" s="197">
+      <c r="D22" s="195">
         <f>Inputs!D59</f>
         <v>0.05</v>
       </c>
-      <c r="E22" s="88">
+      <c r="E22" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F22" s="112"/>
-      <c r="G22" s="87"/>
+      <c r="F22" s="111"/>
+      <c r="G22" s="86"/>
       <c r="H22" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I22" s="52">
         <f>I28-SUM(I11:I14)</f>
@@ -10116,17 +10111,17 @@
       </c>
     </row>
     <row r="23" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C23" s="87"/>
-      <c r="D23" s="87"/>
-      <c r="E23" s="87"/>
-      <c r="F23" s="111" t="s">
-        <v>49</v>
-      </c>
-      <c r="G23" s="87"/>
+      <c r="C23" s="86"/>
+      <c r="D23" s="86"/>
+      <c r="E23" s="86"/>
+      <c r="F23" s="110" t="s">
+        <v>48</v>
+      </c>
+      <c r="G23" s="86"/>
     </row>
     <row r="24" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="23" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C24" s="61">
         <f>SUM(C11:C14)</f>
@@ -10136,19 +10131,19 @@
         <f>IF(E24=0,0,E24/C24)</f>
         <v>0</v>
       </c>
-      <c r="E24" s="88">
+      <c r="E24" s="87">
         <f>SUM(E11:E14)</f>
         <v>0</v>
       </c>
-      <c r="F24" s="113" t="e">
+      <c r="F24" s="112" t="e">
         <f>E24/$E$28</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G24" s="87"/>
+      <c r="G24" s="86"/>
     </row>
     <row r="25" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="23" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C25" s="61">
         <f>SUM(C15:C17)</f>
@@ -10158,17 +10153,17 @@
         <f>IF(E25=0,0,E25/C25)</f>
         <v>0</v>
       </c>
-      <c r="E25" s="88">
+      <c r="E25" s="87">
         <f>SUM(E15:E17)</f>
         <v>0</v>
       </c>
-      <c r="F25" s="113" t="e">
+      <c r="F25" s="112" t="e">
         <f>E25/$E$28</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G25" s="87"/>
+      <c r="G25" s="86"/>
       <c r="H25" s="23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I25" s="63" t="e">
         <f>E28/I28</f>
@@ -10177,7 +10172,7 @@
     </row>
     <row r="26" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C26" s="61">
         <f>C18+C19+C20</f>
@@ -10187,17 +10182,17 @@
         <f>IF(E26=0,0,E26/C26)</f>
         <v>0</v>
       </c>
-      <c r="E26" s="88">
+      <c r="E26" s="87">
         <f>E18+E19+E20</f>
         <v>0</v>
       </c>
-      <c r="F26" s="113" t="e">
+      <c r="F26" s="112" t="e">
         <f>E26/$E$28</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G26" s="87"/>
+      <c r="G26" s="86"/>
       <c r="H26" s="23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I26" s="63" t="e">
         <f>E24/($I$28-I22)</f>
@@ -10210,7 +10205,7 @@
     </row>
     <row r="27" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B27" s="23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C27" s="77">
         <f>C21+C22</f>
@@ -10220,17 +10215,17 @@
         <f>IF(E27=0,0,E27/C27)</f>
         <v>0</v>
       </c>
-      <c r="E27" s="88">
+      <c r="E27" s="87">
         <f>E21+E22</f>
         <v>0</v>
       </c>
-      <c r="F27" s="113" t="e">
+      <c r="F27" s="112" t="e">
         <f>E27/$E$28</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G27" s="87"/>
+      <c r="G27" s="86"/>
       <c r="H27" s="23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I27" s="63" t="e">
         <f>(E25+E24)/$I$28</f>
@@ -10257,12 +10252,12 @@
         <f>SUM(E24:E27)</f>
         <v>0</v>
       </c>
-      <c r="F28" s="112"/>
-      <c r="G28" s="87"/>
+      <c r="F28" s="111"/>
+      <c r="G28" s="86"/>
       <c r="H28" s="78" t="s">
         <v>16</v>
       </c>
-      <c r="I28" s="204">
+      <c r="I28" s="202">
         <f>Inputs!C77</f>
         <v>0</v>
       </c>
@@ -10272,171 +10267,171 @@
       </c>
     </row>
     <row r="29" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C29" s="87"/>
-      <c r="D29" s="87"/>
-      <c r="E29" s="87"/>
-      <c r="F29" s="112" t="s">
-        <v>33</v>
-      </c>
-      <c r="G29" s="87"/>
-      <c r="H29" s="87"/>
-      <c r="I29" s="87"/>
-      <c r="J29" s="87"/>
+      <c r="C29" s="86"/>
+      <c r="D29" s="86"/>
+      <c r="E29" s="86"/>
+      <c r="F29" s="111" t="s">
+        <v>32</v>
+      </c>
+      <c r="G29" s="86"/>
+      <c r="H29" s="86"/>
+      <c r="I29" s="86"/>
+      <c r="J29" s="86"/>
     </row>
     <row r="30" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B30" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C30" s="40">
         <f>Inputs!C60</f>
         <v>0</v>
       </c>
-      <c r="D30" s="197">
+      <c r="D30" s="195">
         <f>Inputs!D60</f>
         <v>0.8</v>
       </c>
-      <c r="E30" s="88">
-        <v>0</v>
-      </c>
-      <c r="F30" s="112"/>
-      <c r="G30" s="87"/>
+      <c r="E30" s="87">
+        <v>0</v>
+      </c>
+      <c r="F30" s="111"/>
+      <c r="G30" s="86"/>
       <c r="H30" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I30" s="40">
         <f>Inputs!C78</f>
         <v>0</v>
       </c>
-      <c r="J30" s="87"/>
+      <c r="J30" s="86"/>
     </row>
     <row r="31" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B31" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C31" s="40">
         <f>Inputs!C61</f>
         <v>0</v>
       </c>
-      <c r="D31" s="197">
+      <c r="D31" s="195">
         <f>Inputs!D61</f>
         <v>0.6</v>
       </c>
-      <c r="E31" s="88">
+      <c r="E31" s="87">
         <f t="shared" ref="E31:E42" si="1">C31*D31</f>
         <v>0</v>
       </c>
-      <c r="F31" s="112"/>
-      <c r="G31" s="87"/>
+      <c r="F31" s="111"/>
+      <c r="G31" s="86"/>
       <c r="H31" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I31" s="40">
         <f>Inputs!C79</f>
         <v>0</v>
       </c>
-      <c r="J31" s="87"/>
+      <c r="J31" s="86"/>
     </row>
     <row r="32" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C32" s="40">
         <f>Inputs!C62</f>
         <v>0</v>
       </c>
-      <c r="D32" s="197">
+      <c r="D32" s="195">
         <f>Inputs!D62</f>
         <v>0.5</v>
       </c>
-      <c r="E32" s="88">
+      <c r="E32" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F32" s="112"/>
-      <c r="G32" s="87"/>
+      <c r="F32" s="111"/>
+      <c r="G32" s="86"/>
       <c r="H32" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I32" s="40">
         <f>Inputs!C80</f>
         <v>0</v>
       </c>
-      <c r="J32" s="87"/>
+      <c r="J32" s="86"/>
     </row>
     <row r="33" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C33" s="40">
         <f>Inputs!C63</f>
         <v>0</v>
       </c>
-      <c r="D33" s="197">
+      <c r="D33" s="195">
         <f>Inputs!D63</f>
         <v>0.5</v>
       </c>
-      <c r="E33" s="88">
+      <c r="E33" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F33" s="112"/>
+      <c r="F33" s="111"/>
       <c r="G33" s="30">
         <f>IF(F33="Y",0,1)</f>
         <v>1</v>
       </c>
-      <c r="H33" s="86" t="s">
-        <v>64</v>
-      </c>
-      <c r="I33" s="203">
+      <c r="H33" s="85" t="s">
+        <v>63</v>
+      </c>
+      <c r="I33" s="201">
         <f>Inputs!C81</f>
         <v>0</v>
       </c>
-      <c r="J33" s="87"/>
+      <c r="J33" s="86"/>
     </row>
     <row r="34" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B34" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C34" s="40">
         <f>Inputs!C64</f>
         <v>0</v>
       </c>
-      <c r="D34" s="197">
+      <c r="D34" s="195">
         <f>Inputs!D64</f>
         <v>0.4</v>
       </c>
-      <c r="E34" s="88">
+      <c r="E34" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F34" s="112"/>
-      <c r="G34" s="87"/>
+      <c r="F34" s="111"/>
+      <c r="G34" s="86"/>
       <c r="H34" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="I34" s="84">
+        <v>74</v>
+      </c>
+      <c r="I34" s="83">
         <f>SUM(I30:I33)</f>
         <v>0</v>
       </c>
-      <c r="J34" s="87"/>
+      <c r="J34" s="86"/>
     </row>
     <row r="35" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C35" s="40">
         <f>Inputs!C65</f>
         <v>0</v>
       </c>
-      <c r="D35" s="197">
+      <c r="D35" s="195">
         <f>Inputs!D65</f>
         <v>0.1</v>
       </c>
-      <c r="E35" s="88">
+      <c r="E35" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F35" s="133" t="str">
+      <c r="F35" s="132" t="str">
         <f>Inputs!E65</f>
         <v>N</v>
       </c>
@@ -10444,25 +10439,25 @@
         <f>IF(F35="Y",0,1)</f>
         <v>1</v>
       </c>
-      <c r="J35" s="87"/>
+      <c r="J35" s="86"/>
     </row>
     <row r="36" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C36" s="40">
         <f>Inputs!C66</f>
         <v>0</v>
       </c>
-      <c r="D36" s="197">
+      <c r="D36" s="195">
         <f>Inputs!D66</f>
         <v>0.2</v>
       </c>
-      <c r="E36" s="88">
+      <c r="E36" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F36" s="133" t="str">
+      <c r="F36" s="132" t="str">
         <f>Inputs!E66</f>
         <v>N</v>
       </c>
@@ -10470,26 +10465,26 @@
         <f>IF(F36="Y",0,1)</f>
         <v>1</v>
       </c>
-      <c r="H36" s="87"/>
-      <c r="I36" s="87"/>
+      <c r="H36" s="86"/>
+      <c r="I36" s="86"/>
     </row>
     <row r="37" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B37" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C37" s="40">
         <f>Inputs!C67</f>
         <v>0</v>
       </c>
-      <c r="D37" s="197">
+      <c r="D37" s="195">
         <f>Inputs!D67</f>
         <v>0.1</v>
       </c>
-      <c r="E37" s="88">
+      <c r="E37" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F37" s="133" t="str">
+      <c r="F37" s="132" t="str">
         <f>Inputs!E67</f>
         <v>Y</v>
       </c>
@@ -10497,113 +10492,113 @@
         <f>IF(F37="Y",0,1)</f>
         <v>0</v>
       </c>
-      <c r="H37" s="87"/>
-      <c r="I37" s="87"/>
+      <c r="H37" s="86"/>
+      <c r="I37" s="86"/>
     </row>
     <row r="38" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B38" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C38" s="40">
         <f>Inputs!C68</f>
         <v>0</v>
       </c>
-      <c r="D38" s="197">
+      <c r="D38" s="195">
         <f>Inputs!D68</f>
         <v>0.1</v>
       </c>
-      <c r="E38" s="88">
+      <c r="E38" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F38" s="112"/>
-      <c r="G38" s="87"/>
-      <c r="H38" s="87"/>
-      <c r="I38" s="87"/>
+      <c r="F38" s="111"/>
+      <c r="G38" s="86"/>
+      <c r="H38" s="86"/>
+      <c r="I38" s="86"/>
     </row>
     <row r="39" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B39" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C39" s="40">
         <f>Inputs!C69</f>
         <v>0</v>
       </c>
-      <c r="D39" s="197">
+      <c r="D39" s="195">
         <f>Inputs!D69</f>
         <v>0.05</v>
       </c>
-      <c r="E39" s="88">
+      <c r="E39" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F39" s="112"/>
-      <c r="G39" s="87"/>
-      <c r="H39" s="87"/>
-      <c r="I39" s="87"/>
+      <c r="F39" s="111"/>
+      <c r="G39" s="86"/>
+      <c r="H39" s="86"/>
+      <c r="I39" s="86"/>
     </row>
     <row r="40" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B40" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C40" s="40">
         <f>Inputs!C70</f>
         <v>0</v>
       </c>
-      <c r="D40" s="197">
+      <c r="D40" s="195">
         <f>Inputs!D70</f>
         <v>0.05</v>
       </c>
-      <c r="E40" s="88">
+      <c r="E40" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F40" s="112"/>
-      <c r="G40" s="87"/>
-      <c r="H40" s="87"/>
-      <c r="I40" s="87"/>
+      <c r="F40" s="111"/>
+      <c r="G40" s="86"/>
+      <c r="H40" s="86"/>
+      <c r="I40" s="86"/>
     </row>
     <row r="41" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B41" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C41" s="40">
         <f>Inputs!C71</f>
         <v>0</v>
       </c>
-      <c r="D41" s="197">
+      <c r="D41" s="195">
         <f>Inputs!D71</f>
         <v>0.9</v>
       </c>
-      <c r="E41" s="88">
+      <c r="E41" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F41" s="112"/>
-      <c r="G41" s="87"/>
-      <c r="H41" s="87"/>
-      <c r="I41" s="87"/>
+      <c r="F41" s="111"/>
+      <c r="G41" s="86"/>
+      <c r="H41" s="86"/>
+      <c r="I41" s="86"/>
     </row>
     <row r="42" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B42" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C42" s="40">
         <f>Inputs!C72</f>
         <v>0</v>
       </c>
-      <c r="D42" s="197">
+      <c r="D42" s="195">
         <f>Inputs!D72</f>
         <v>0</v>
       </c>
-      <c r="E42" s="88">
+      <c r="E42" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F42" s="112"/>
-      <c r="G42" s="87"/>
+      <c r="F42" s="111"/>
+      <c r="G42" s="86"/>
       <c r="H42" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I42" s="52">
         <f>I48-SUM(I30:I33)</f>
@@ -10611,17 +10606,17 @@
       </c>
     </row>
     <row r="43" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C43" s="87"/>
-      <c r="D43" s="87"/>
-      <c r="E43" s="87"/>
-      <c r="F43" s="87"/>
-      <c r="G43" s="87"/>
-      <c r="H43" s="87"/>
-      <c r="I43" s="87"/>
+      <c r="C43" s="86"/>
+      <c r="D43" s="86"/>
+      <c r="E43" s="86"/>
+      <c r="F43" s="86"/>
+      <c r="G43" s="86"/>
+      <c r="H43" s="86"/>
+      <c r="I43" s="86"/>
     </row>
     <row r="44" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B44" s="23" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C44" s="61">
         <f>SUM(C30:C31)</f>
@@ -10631,16 +10626,16 @@
         <f>IF(E44=0,0,E44/C44)</f>
         <v>0</v>
       </c>
-      <c r="E44" s="88">
+      <c r="E44" s="87">
         <f>SUM(E30:E31)</f>
         <v>0</v>
       </c>
       <c r="F44" s="72"/>
-      <c r="G44" s="87"/>
+      <c r="G44" s="86"/>
     </row>
     <row r="45" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B45" s="23" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C45" s="61">
         <f>SUM(C32:C35)</f>
@@ -10650,16 +10645,16 @@
         <f>IF(E45=0,0,E45/C45)</f>
         <v>0</v>
       </c>
-      <c r="E45" s="88">
+      <c r="E45" s="87">
         <f>SUM(E32:E35)</f>
         <v>0</v>
       </c>
       <c r="F45" s="72"/>
-      <c r="G45" s="87"/>
+      <c r="G45" s="86"/>
     </row>
     <row r="46" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B46" s="23" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C46" s="61">
         <f>C36+C37+C38+C39</f>
@@ -10669,14 +10664,14 @@
         <f>IF(E46=0,0,E46/C46)</f>
         <v>0</v>
       </c>
-      <c r="E46" s="88">
+      <c r="E46" s="87">
         <f>E36+E37+E38+E39</f>
         <v>0</v>
       </c>
-      <c r="F46" s="87"/>
-      <c r="G46" s="87"/>
+      <c r="F46" s="86"/>
+      <c r="G46" s="86"/>
       <c r="H46" s="23" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I46" s="63" t="e">
         <f>(E44+E24)/E64</f>
@@ -10689,7 +10684,7 @@
     </row>
     <row r="47" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B47" s="23" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C47" s="61">
         <f>C40+C41+C42</f>
@@ -10699,14 +10694,14 @@
         <f>IF(E47=0,0,E47/C47)</f>
         <v>0</v>
       </c>
-      <c r="E47" s="88">
+      <c r="E47" s="87">
         <f>E40+E41+E42</f>
         <v>0</v>
       </c>
-      <c r="F47" s="87"/>
-      <c r="G47" s="87"/>
+      <c r="F47" s="86"/>
+      <c r="G47" s="86"/>
       <c r="H47" s="23" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I47" s="63" t="e">
         <f>(E44+E45+E24+E25)/$I$49</f>
@@ -10719,13 +10714,13 @@
     </row>
     <row r="48" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B48" s="80" t="s">
-        <v>81</v>
-      </c>
-      <c r="C48" s="81">
+        <v>80</v>
+      </c>
+      <c r="C48" s="281">
         <f>SUM(C30:C42)</f>
         <v>0</v>
       </c>
-      <c r="D48" s="82" t="e">
+      <c r="D48" s="81" t="e">
         <f>E48/C48</f>
         <v>#DIV/0!</v>
       </c>
@@ -10733,12 +10728,12 @@
         <f>SUM(E30:E42)</f>
         <v>0</v>
       </c>
-      <c r="F48" s="87"/>
-      <c r="G48" s="87"/>
+      <c r="F48" s="86"/>
+      <c r="G48" s="86"/>
       <c r="H48" s="80" t="s">
-        <v>82</v>
-      </c>
-      <c r="I48" s="281">
+        <v>81</v>
+      </c>
+      <c r="I48" s="279">
         <f>I49-I28</f>
         <v>0</v>
       </c>
@@ -10749,63 +10744,63 @@
         <v>14</v>
       </c>
       <c r="C49" s="61">
-        <f>C28+C48</f>
+        <f>Inputs!C41+Inputs!C37</f>
         <v>0</v>
       </c>
       <c r="D49" s="56" t="e">
         <f>E49/C49</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E49" s="88">
+      <c r="E49" s="87">
         <f>E28+E48</f>
         <v>0</v>
       </c>
-      <c r="F49" s="87"/>
-      <c r="G49" s="87"/>
+      <c r="F49" s="86"/>
+      <c r="G49" s="86"/>
       <c r="H49" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I49" s="40">
         <f>Inputs!C37</f>
         <v>0</v>
       </c>
-      <c r="J49" s="87"/>
+      <c r="J49" s="86"/>
     </row>
     <row r="50" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C50" s="87"/>
-      <c r="D50" s="87"/>
-      <c r="E50" s="87"/>
-      <c r="I50" s="87"/>
+      <c r="C50" s="86"/>
+      <c r="D50" s="86"/>
+      <c r="E50" s="86"/>
+      <c r="I50" s="86"/>
     </row>
     <row r="51" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B51" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C51" s="31"/>
       <c r="D51" s="18"/>
     </row>
     <row r="52" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B52" s="44" t="s">
-        <v>85</v>
-      </c>
-      <c r="C52" s="87"/>
+        <v>84</v>
+      </c>
+      <c r="C52" s="86"/>
       <c r="D52" s="74" t="str">
         <f>IF(E53=D4,"BV of the MI","P/B Approach")</f>
         <v>BV of the MI</v>
       </c>
-      <c r="E52" s="87"/>
-      <c r="F52" s="87"/>
-      <c r="G52" s="87"/>
-      <c r="I52" s="87"/>
+      <c r="E52" s="86"/>
+      <c r="F52" s="86"/>
+      <c r="G52" s="86"/>
+      <c r="I52" s="86"/>
       <c r="K52" s="50" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="53" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="C53" s="88">
+        <v>85</v>
+      </c>
+      <c r="C53" s="87">
         <f>MAX(D4,0)</f>
         <v>0</v>
       </c>
@@ -10813,45 +10808,45 @@
         <f>IF(E53=0, 0,E53/C53)</f>
         <v>0</v>
       </c>
-      <c r="E53" s="88">
+      <c r="E53" s="87">
         <f>IF(C53=0,0,MAX(C53,C53*Dashboard!G23))</f>
         <v>0</v>
       </c>
-      <c r="F53" s="87"/>
-      <c r="G53" s="87"/>
+      <c r="F53" s="86"/>
+      <c r="G53" s="86"/>
       <c r="I53" s="41"/>
       <c r="K53" s="33"/>
     </row>
     <row r="54" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C54" s="87"/>
-      <c r="D54" s="87"/>
-      <c r="E54" s="87"/>
-      <c r="F54" s="87"/>
-      <c r="G54" s="87"/>
-      <c r="I54" s="87"/>
+      <c r="C54" s="86"/>
+      <c r="D54" s="86"/>
+      <c r="E54" s="86"/>
+      <c r="F54" s="86"/>
+      <c r="G54" s="86"/>
+      <c r="I54" s="86"/>
       <c r="K54" s="33"/>
     </row>
     <row r="55" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="25" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C55" s="3"/>
-      <c r="E55" s="124"/>
+      <c r="E55" s="123"/>
       <c r="F55" s="3"/>
       <c r="G55" s="3"/>
-      <c r="I55" s="87"/>
+      <c r="I55" s="86"/>
       <c r="K55" s="33"/>
     </row>
     <row r="56" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B56" s="20" t="s">
-        <v>87</v>
-      </c>
-      <c r="C56" s="87"/>
-      <c r="D56" s="296">
+        <v>86</v>
+      </c>
+      <c r="C56" s="86"/>
+      <c r="D56" s="295">
         <f>I15+I34</f>
         <v>0</v>
       </c>
-      <c r="E56" s="294"/>
+      <c r="E56" s="293"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="I56" s="56"/>
@@ -10859,61 +10854,61 @@
     </row>
     <row r="57" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B57" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="C57" s="86"/>
+      <c r="D57" s="294">
+        <f>Inputs!C84</f>
+        <v>0</v>
+      </c>
+      <c r="E57" s="293"/>
+      <c r="G57" s="86"/>
+      <c r="I57" s="86"/>
+      <c r="K57" s="33" t="s">
         <v>88</v>
-      </c>
-      <c r="C57" s="87"/>
-      <c r="D57" s="295">
-        <f>Inputs!C84</f>
-        <v>0</v>
-      </c>
-      <c r="E57" s="294"/>
-      <c r="G57" s="87"/>
-      <c r="I57" s="87"/>
-      <c r="K57" s="33" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="58" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B58" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="C58" s="87"/>
-      <c r="D58" s="295">
+        <v>89</v>
+      </c>
+      <c r="C58" s="86"/>
+      <c r="D58" s="294">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="294"/>
+      <c r="E58" s="293"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
-      <c r="I58" s="87"/>
+      <c r="I58" s="86"/>
       <c r="K58" s="33"/>
     </row>
     <row r="59" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C59" s="87"/>
-      <c r="D59" s="87"/>
-      <c r="E59" s="87"/>
-      <c r="F59" s="87"/>
-      <c r="G59" s="87"/>
-      <c r="I59" s="87"/>
+      <c r="C59" s="86"/>
+      <c r="D59" s="86"/>
+      <c r="E59" s="86"/>
+      <c r="F59" s="86"/>
+      <c r="G59" s="86"/>
+      <c r="I59" s="86"/>
       <c r="K59" s="33"/>
     </row>
     <row r="60" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="25" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="75" t="s">
-        <v>91</v>
-      </c>
-      <c r="E60" s="87"/>
+        <v>90</v>
+      </c>
+      <c r="E60" s="86"/>
       <c r="F60" s="9"/>
       <c r="G60" s="9"/>
-      <c r="I60" s="87"/>
+      <c r="I60" s="86"/>
       <c r="K60" s="33"/>
     </row>
     <row r="61" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B61" s="19" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C61" s="68">
         <f>C14+C15+(C19*G19)+(C20*G20)+C31+C32+(C35*G35)+(C36*G36)+(C37*G37)</f>
@@ -10927,35 +10922,35 @@
         <f>E14+E15+(E19*G19)+(E20*G20)+E31+E32+(E35*G35)+(E36*G36)+(E37*G37)</f>
         <v>0</v>
       </c>
-      <c r="F61" s="87"/>
-      <c r="G61" s="87"/>
-      <c r="I61" s="87"/>
+      <c r="F61" s="86"/>
+      <c r="G61" s="86"/>
+      <c r="I61" s="86"/>
       <c r="K61" s="33"/>
     </row>
     <row r="62" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B62" s="35" t="s">
-        <v>135</v>
-      </c>
-      <c r="C62" s="116">
+        <v>134</v>
+      </c>
+      <c r="C62" s="115">
         <f>C11+C30</f>
         <v>0</v>
       </c>
-      <c r="D62" s="107">
+      <c r="D62" s="106">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="E62" s="117">
+      <c r="E62" s="116">
         <f>E11+E30</f>
         <v>0</v>
       </c>
-      <c r="F62" s="87"/>
-      <c r="G62" s="87"/>
-      <c r="I62" s="87"/>
+      <c r="F62" s="86"/>
+      <c r="G62" s="86"/>
+      <c r="I62" s="86"/>
       <c r="K62" s="33"/>
     </row>
     <row r="63" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="19" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C63" s="68">
         <f>C61+C62</f>
@@ -10969,29 +10964,29 @@
         <f>E61+E62</f>
         <v>0</v>
       </c>
-      <c r="F63" s="87"/>
-      <c r="G63" s="87"/>
-      <c r="I63" s="87"/>
+      <c r="F63" s="86"/>
+      <c r="G63" s="86"/>
+      <c r="I63" s="86"/>
       <c r="K63" s="33"/>
     </row>
     <row r="64" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B64" s="120" t="s">
-        <v>144</v>
-      </c>
-      <c r="C64" s="205"/>
-      <c r="D64" s="205"/>
+      <c r="B64" s="119" t="s">
+        <v>143</v>
+      </c>
+      <c r="C64" s="203"/>
+      <c r="D64" s="203"/>
       <c r="E64" s="69">
         <f>D56+D57+D58</f>
         <v>0</v>
       </c>
-      <c r="F64" s="87"/>
-      <c r="G64" s="87"/>
-      <c r="I64" s="87"/>
+      <c r="F64" s="86"/>
+      <c r="G64" s="86"/>
+      <c r="I64" s="86"/>
       <c r="K64" s="33"/>
     </row>
     <row r="65" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B65" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C65" s="68">
         <f>C63-E64</f>
@@ -11005,9 +11000,9 @@
         <f>E63-E64</f>
         <v>0</v>
       </c>
-      <c r="F65" s="87"/>
-      <c r="G65" s="87"/>
-      <c r="I65" s="87"/>
+      <c r="F65" s="86"/>
+      <c r="G65" s="86"/>
+      <c r="I65" s="86"/>
       <c r="K65" s="33"/>
     </row>
     <row r="66" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
@@ -11015,28 +11010,28 @@
       <c r="C66" s="68"/>
       <c r="D66" s="29"/>
       <c r="E66" s="61"/>
-      <c r="F66" s="87"/>
-      <c r="G66" s="87"/>
-      <c r="I66" s="87"/>
+      <c r="F66" s="86"/>
+      <c r="G66" s="86"/>
+      <c r="I66" s="86"/>
       <c r="K66" s="33"/>
     </row>
     <row r="67" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="25" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C67" s="3"/>
       <c r="D67" s="75" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E67" s="61"/>
-      <c r="F67" s="87"/>
-      <c r="G67" s="87"/>
-      <c r="I67" s="87"/>
+      <c r="F67" s="86"/>
+      <c r="G67" s="86"/>
+      <c r="I67" s="86"/>
       <c r="K67" s="33"/>
     </row>
     <row r="68" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="19" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C68" s="68">
         <f>C49-C63</f>
@@ -11050,29 +11045,29 @@
         <f>E49-E63</f>
         <v>0</v>
       </c>
-      <c r="F68" s="87"/>
-      <c r="G68" s="87"/>
-      <c r="I68" s="87"/>
+      <c r="F68" s="86"/>
+      <c r="G68" s="86"/>
+      <c r="I68" s="86"/>
       <c r="K68" s="33"/>
     </row>
     <row r="69" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B69" s="120" t="s">
-        <v>145</v>
-      </c>
-      <c r="C69" s="205"/>
-      <c r="D69" s="205"/>
-      <c r="E69" s="125">
+      <c r="B69" s="119" t="s">
+        <v>144</v>
+      </c>
+      <c r="C69" s="203"/>
+      <c r="D69" s="203"/>
+      <c r="E69" s="124">
         <f>I49-E64</f>
         <v>0</v>
       </c>
-      <c r="F69" s="87"/>
-      <c r="G69" s="87"/>
-      <c r="I69" s="87"/>
+      <c r="F69" s="86"/>
+      <c r="G69" s="86"/>
+      <c r="I69" s="86"/>
       <c r="K69" s="33"/>
     </row>
     <row r="70" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B70" s="19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C70" s="68">
         <f>C68-E69</f>
@@ -11086,29 +11081,29 @@
         <f>E68-E69</f>
         <v>0</v>
       </c>
-      <c r="F70" s="87"/>
-      <c r="G70" s="87"/>
-      <c r="I70" s="87"/>
+      <c r="F70" s="86"/>
+      <c r="G70" s="86"/>
+      <c r="I70" s="86"/>
       <c r="K70" s="33"/>
     </row>
     <row r="72" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="5"/>
-      <c r="B72" s="106" t="s">
-        <v>123</v>
-      </c>
-      <c r="C72" s="283">
+      <c r="B72" s="105" t="s">
+        <v>122</v>
+      </c>
+      <c r="C72" s="282">
         <f>Data!C5</f>
         <v>45291</v>
       </c>
-      <c r="D72" s="283"/>
-      <c r="E72" s="297" t="s">
-        <v>193</v>
-      </c>
-      <c r="F72" s="297"/>
-      <c r="H72" s="297" t="s">
+      <c r="D72" s="282"/>
+      <c r="E72" s="296" t="s">
         <v>192</v>
       </c>
-      <c r="I72" s="297"/>
+      <c r="F72" s="296"/>
+      <c r="H72" s="296" t="s">
+        <v>191</v>
+      </c>
+      <c r="I72" s="296"/>
       <c r="K72" s="50" t="s">
         <v>8</v>
       </c>
@@ -11118,66 +11113,66 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000HKD)</v>
       </c>
-      <c r="C73" s="284" t="s">
+      <c r="C73" s="283" t="s">
+        <v>97</v>
+      </c>
+      <c r="D73" s="283"/>
+      <c r="E73" s="297" t="s">
         <v>98</v>
       </c>
-      <c r="D73" s="284"/>
-      <c r="E73" s="298" t="s">
-        <v>99</v>
-      </c>
-      <c r="F73" s="284"/>
-      <c r="H73" s="298" t="s">
-        <v>99</v>
-      </c>
-      <c r="I73" s="284"/>
+      <c r="F73" s="283"/>
+      <c r="H73" s="297" t="s">
+        <v>98</v>
+      </c>
+      <c r="I73" s="283"/>
       <c r="K73" s="24"/>
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B74" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C74" s="77">
         <f>Data!C6</f>
         <v>35684253</v>
       </c>
-      <c r="D74" s="206"/>
-      <c r="E74" s="235">
+      <c r="D74" s="204"/>
+      <c r="E74" s="233">
         <f>Inputs!E91</f>
         <v>35684253</v>
       </c>
-      <c r="F74" s="206"/>
-      <c r="H74" s="235">
+      <c r="F74" s="204"/>
+      <c r="H74" s="233">
         <f>Inputs!F91</f>
         <v>35684253</v>
       </c>
-      <c r="I74" s="206"/>
+      <c r="I74" s="204"/>
       <c r="K74" s="24"/>
     </row>
     <row r="75" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B75" s="104" t="s">
-        <v>103</v>
+      <c r="B75" s="103" t="s">
+        <v>102</v>
       </c>
       <c r="C75" s="77">
         <f>Data!C8</f>
         <v>16868997</v>
       </c>
-      <c r="D75" s="158">
+      <c r="D75" s="156">
         <f>C75/$C$74</f>
         <v>0.47272944175123971</v>
       </c>
-      <c r="E75" s="235">
+      <c r="E75" s="233">
         <f>Inputs!E92</f>
         <v>16868997</v>
       </c>
-      <c r="F75" s="159">
+      <c r="F75" s="157">
         <f>E75/E74</f>
         <v>0.47272944175123971</v>
       </c>
-      <c r="H75" s="235">
+      <c r="H75" s="233">
         <f>Inputs!F92</f>
         <v>16868997</v>
       </c>
-      <c r="I75" s="159">
+      <c r="I75" s="157">
         <f>H75/$H$74</f>
         <v>0.47272944175123971</v>
       </c>
@@ -11185,50 +11180,50 @@
     </row>
     <row r="76" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B76" s="35" t="s">
-        <v>93</v>
-      </c>
-      <c r="C76" s="160">
+        <v>92</v>
+      </c>
+      <c r="C76" s="158">
         <f>C74-C75</f>
         <v>18815256</v>
       </c>
-      <c r="D76" s="207"/>
-      <c r="E76" s="161">
+      <c r="D76" s="205"/>
+      <c r="E76" s="159">
         <f>E74-E75</f>
         <v>18815256</v>
       </c>
-      <c r="F76" s="207"/>
-      <c r="H76" s="161">
+      <c r="F76" s="205"/>
+      <c r="H76" s="159">
         <f>H74-H75</f>
         <v>18815256</v>
       </c>
-      <c r="I76" s="207"/>
+      <c r="I76" s="205"/>
       <c r="K76" s="24"/>
     </row>
     <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B77" s="104" t="s">
-        <v>231</v>
+      <c r="B77" s="103" t="s">
+        <v>230</v>
       </c>
       <c r="C77" s="77">
         <f>Data!C10+MAX(Data!C11,0)</f>
         <v>12529703</v>
       </c>
-      <c r="D77" s="158">
+      <c r="D77" s="156">
         <f>C77/$C$74</f>
         <v>0.35112695227219692</v>
       </c>
-      <c r="E77" s="235">
+      <c r="E77" s="233">
         <f>Inputs!E93</f>
         <v>12529703</v>
       </c>
-      <c r="F77" s="159">
+      <c r="F77" s="157">
         <f>E77/E74</f>
         <v>0.35112695227219692</v>
       </c>
-      <c r="H77" s="235">
+      <c r="H77" s="233">
         <f>Inputs!F93</f>
         <v>12529703</v>
       </c>
-      <c r="I77" s="159">
+      <c r="I77" s="157">
         <f>H77/$H$74</f>
         <v>0.35112695227219692</v>
       </c>
@@ -11236,60 +11231,60 @@
     </row>
     <row r="78" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B78" s="73" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C78" s="77">
         <f>MAX(Data!C12,0)</f>
         <v>60156.862745098035</v>
       </c>
-      <c r="D78" s="158">
+      <c r="D78" s="156">
         <f>C78/$C$74</f>
         <v>1.6858097812807804E-3</v>
       </c>
-      <c r="E78" s="179">
+      <c r="E78" s="177">
         <f>E74*F78</f>
         <v>60156.862745098035</v>
       </c>
-      <c r="F78" s="159">
+      <c r="F78" s="157">
         <f>I78</f>
         <v>1.6858097812807804E-3</v>
       </c>
-      <c r="H78" s="235">
+      <c r="H78" s="233">
         <f>Inputs!F97</f>
         <v>60156.862745098035</v>
       </c>
-      <c r="I78" s="159">
+      <c r="I78" s="157">
         <f>H78/$H$74</f>
         <v>1.6858097812807804E-3</v>
       </c>
       <c r="K78" s="24"/>
     </row>
     <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B79" s="253" t="s">
-        <v>218</v>
-      </c>
-      <c r="C79" s="254">
+      <c r="B79" s="251" t="s">
+        <v>217</v>
+      </c>
+      <c r="C79" s="252">
         <f>C76-C77-C78</f>
         <v>6225396.1372549022</v>
       </c>
-      <c r="D79" s="255">
+      <c r="D79" s="253">
         <f>C79/C74</f>
         <v>0.17445779619528262</v>
       </c>
-      <c r="E79" s="256">
+      <c r="E79" s="254">
         <f>E76-E77-E78</f>
         <v>6225396.1372549022</v>
       </c>
-      <c r="F79" s="255">
+      <c r="F79" s="253">
         <f>E79/E74</f>
         <v>0.17445779619528262</v>
       </c>
-      <c r="G79" s="257"/>
-      <c r="H79" s="256">
+      <c r="G79" s="255"/>
+      <c r="H79" s="254">
         <f>H76-H77-H78</f>
         <v>6225396.1372549022</v>
       </c>
-      <c r="I79" s="255">
+      <c r="I79" s="253">
         <f>H79/H74</f>
         <v>0.17445779619528262</v>
       </c>
@@ -11297,61 +11292,61 @@
     </row>
     <row r="80" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B80" s="28" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C80" s="77">
         <f>MAX(Data!C16,0)</f>
         <v>0</v>
       </c>
-      <c r="D80" s="158">
+      <c r="D80" s="156">
         <f>C80/$C$74</f>
         <v>0</v>
       </c>
-      <c r="E80" s="179">
+      <c r="E80" s="177">
         <f>E74*F80</f>
         <v>0</v>
       </c>
-      <c r="F80" s="159">
+      <c r="F80" s="157">
         <f>I80</f>
         <v>0</v>
       </c>
-      <c r="H80" s="235">
+      <c r="H80" s="233">
         <f>Inputs!F96</f>
         <v>0</v>
       </c>
-      <c r="I80" s="159">
+      <c r="I80" s="157">
         <f>H80/$H$74</f>
         <v>0</v>
       </c>
-      <c r="K80" s="180" t="s">
-        <v>127</v>
+      <c r="K80" s="178" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B81" s="104" t="s">
-        <v>240</v>
+      <c r="B81" s="103" t="s">
+        <v>238</v>
       </c>
       <c r="C81" s="77">
         <f>MAX(Data!C17,0)</f>
         <v>0</v>
       </c>
-      <c r="D81" s="158">
+      <c r="D81" s="156">
         <f>C81/$C$74</f>
         <v>0</v>
       </c>
-      <c r="E81" s="179">
+      <c r="E81" s="177">
         <f>E74*F81</f>
         <v>0</v>
       </c>
-      <c r="F81" s="159">
+      <c r="F81" s="157">
         <f>I81</f>
         <v>0</v>
       </c>
-      <c r="H81" s="235">
+      <c r="H81" s="233">
         <f>Inputs!F94</f>
         <v>0</v>
       </c>
-      <c r="I81" s="159">
+      <c r="I81" s="157">
         <f>H81/$H$74</f>
         <v>0</v>
       </c>
@@ -11359,59 +11354,59 @@
     </row>
     <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="28" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C82" s="77">
         <f>ABS(MAX(Data!C21,0)-MAX(Data!C19,0))</f>
         <v>0</v>
       </c>
-      <c r="D82" s="158">
+      <c r="D82" s="156">
         <f>C82/$C$74</f>
         <v>0</v>
       </c>
-      <c r="E82" s="235">
+      <c r="E82" s="233">
         <f>Inputs!E95</f>
         <v>0</v>
       </c>
-      <c r="F82" s="159">
+      <c r="F82" s="157">
         <f>E82/E74</f>
         <v>0</v>
       </c>
-      <c r="H82" s="235">
+      <c r="H82" s="233">
         <f>Inputs!F95</f>
         <v>0</v>
       </c>
-      <c r="I82" s="159">
+      <c r="I82" s="157">
         <f>H82/$H$74</f>
         <v>0</v>
       </c>
       <c r="K82" s="24"/>
     </row>
     <row r="83" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B83" s="105" t="s">
-        <v>121</v>
-      </c>
-      <c r="C83" s="162">
+      <c r="B83" s="104" t="s">
+        <v>120</v>
+      </c>
+      <c r="C83" s="160">
         <f>C79-C81-C82-C80</f>
         <v>6225396.1372549022</v>
       </c>
-      <c r="D83" s="163">
+      <c r="D83" s="161">
         <f>C83/$C$74</f>
         <v>0.17445779619528262</v>
       </c>
-      <c r="E83" s="164">
+      <c r="E83" s="162">
         <f>E79-E81-E82-E80</f>
         <v>6225396.1372549022</v>
       </c>
-      <c r="F83" s="163">
+      <c r="F83" s="161">
         <f>E83/E74</f>
         <v>0.17445779619528262</v>
       </c>
-      <c r="H83" s="164">
+      <c r="H83" s="162">
         <f>H79-H81-H82-H80</f>
         <v>6225396.1372549022</v>
       </c>
-      <c r="I83" s="163">
+      <c r="I83" s="161">
         <f>H83/$H$74</f>
         <v>0.17445779619528262</v>
       </c>
@@ -11419,184 +11414,184 @@
     </row>
     <row r="84" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B84" s="28" t="s">
-        <v>94</v>
-      </c>
-      <c r="C84" s="208"/>
-      <c r="D84" s="158">
+        <v>93</v>
+      </c>
+      <c r="C84" s="206"/>
+      <c r="D84" s="156">
         <f>I84</f>
         <v>0.23499999999999999</v>
       </c>
-      <c r="E84" s="209"/>
-      <c r="F84" s="178">
+      <c r="E84" s="207"/>
+      <c r="F84" s="176">
         <f t="shared" ref="F84" si="3">I84</f>
         <v>0.23499999999999999</v>
       </c>
-      <c r="H84" s="209"/>
-      <c r="I84" s="201">
+      <c r="H84" s="207"/>
+      <c r="I84" s="199">
         <f>Inputs!C16</f>
         <v>0.23499999999999999</v>
       </c>
       <c r="K84" s="24"/>
     </row>
     <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B85" s="260" t="s">
-        <v>157</v>
-      </c>
-      <c r="C85" s="254">
+      <c r="B85" s="258" t="s">
+        <v>156</v>
+      </c>
+      <c r="C85" s="252">
         <f>C83*(1-I84)</f>
         <v>4762428.0449999999</v>
       </c>
-      <c r="D85" s="255">
+      <c r="D85" s="253">
         <f>C85/$C$74</f>
         <v>0.13346021408939118</v>
       </c>
-      <c r="E85" s="261">
+      <c r="E85" s="259">
         <f>E83*(1-F84)</f>
         <v>4762428.0449999999</v>
       </c>
-      <c r="F85" s="255">
+      <c r="F85" s="253">
         <f>E85/E74</f>
         <v>0.13346021408939118</v>
       </c>
-      <c r="G85" s="257"/>
-      <c r="H85" s="261">
+      <c r="G85" s="255"/>
+      <c r="H85" s="259">
         <f>H83*(1-I84)</f>
         <v>4762428.0449999999</v>
       </c>
-      <c r="I85" s="255">
+      <c r="I85" s="253">
         <f>H85/$H$74</f>
         <v>0.13346021408939118</v>
       </c>
       <c r="K85" s="24"/>
     </row>
     <row r="86" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B86" s="87" t="s">
-        <v>153</v>
-      </c>
-      <c r="C86" s="166">
+      <c r="B86" s="86" t="s">
+        <v>152</v>
+      </c>
+      <c r="C86" s="164">
         <f>C85*Data!C4/Common_Shares</f>
         <v>1.0889066769172429</v>
       </c>
-      <c r="D86" s="206"/>
-      <c r="E86" s="167">
+      <c r="D86" s="204"/>
+      <c r="E86" s="165">
         <f>E85*Data!C4/Common_Shares</f>
         <v>1.0889066769172429</v>
       </c>
-      <c r="F86" s="206"/>
-      <c r="H86" s="167">
+      <c r="F86" s="204"/>
+      <c r="H86" s="165">
         <f>H85*Data!C4/Common_Shares</f>
         <v>1.0889066769172429</v>
       </c>
-      <c r="I86" s="206"/>
+      <c r="I86" s="204"/>
       <c r="K86" s="24"/>
     </row>
     <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B87" s="87" t="s">
-        <v>195</v>
-      </c>
-      <c r="C87" s="258">
+      <c r="B87" s="86" t="s">
+        <v>194</v>
+      </c>
+      <c r="C87" s="256">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>3.1839376518048031E-2</v>
-      </c>
-      <c r="D87" s="206"/>
-      <c r="E87" s="259">
+        <v>3.1792895676415849E-2</v>
+      </c>
+      <c r="D87" s="204"/>
+      <c r="E87" s="257">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>3.1839376518048031E-2</v>
-      </c>
-      <c r="F87" s="206"/>
-      <c r="H87" s="259">
+        <v>3.1792895676415849E-2</v>
+      </c>
+      <c r="F87" s="204"/>
+      <c r="H87" s="257">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>3.1839376518048031E-2</v>
-      </c>
-      <c r="I87" s="206"/>
+        <v>3.1792895676415849E-2</v>
+      </c>
+      <c r="I87" s="204"/>
       <c r="K87" s="24"/>
     </row>
     <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B88" s="86" t="s">
-        <v>194</v>
-      </c>
-      <c r="C88" s="168">
+      <c r="B88" s="85" t="s">
+        <v>193</v>
+      </c>
+      <c r="C88" s="166">
         <f>Inputs!C44</f>
         <v>0.8</v>
       </c>
-      <c r="D88" s="165">
+      <c r="D88" s="163">
         <f>C88/C86</f>
         <v>0.73468187582874034</v>
       </c>
-      <c r="E88" s="169">
+      <c r="E88" s="167">
         <f>Inputs!E98</f>
         <v>0.5</v>
       </c>
-      <c r="F88" s="165">
+      <c r="F88" s="163">
         <f>E88/E86</f>
         <v>0.45917617239296266</v>
       </c>
-      <c r="H88" s="169">
+      <c r="H88" s="167">
         <f>Inputs!F98</f>
         <v>0.5</v>
       </c>
-      <c r="I88" s="165">
+      <c r="I88" s="163">
         <f>H88/H86</f>
         <v>0.45917617239296266</v>
       </c>
       <c r="K88" s="24"/>
     </row>
     <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B89" s="87" t="s">
-        <v>207</v>
-      </c>
-      <c r="C89" s="258">
+      <c r="B89" s="86" t="s">
+        <v>206</v>
+      </c>
+      <c r="C89" s="256">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>2.3391812865497075E-2</v>
-      </c>
-      <c r="D89" s="206"/>
-      <c r="E89" s="258">
+        <v>2.3357664233576644E-2</v>
+      </c>
+      <c r="D89" s="204"/>
+      <c r="E89" s="256">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>1.4619883040935672E-2</v>
-      </c>
-      <c r="F89" s="206"/>
-      <c r="H89" s="258">
+        <v>1.4598540145985401E-2</v>
+      </c>
+      <c r="F89" s="204"/>
+      <c r="H89" s="256">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>1.4619883040935672E-2</v>
-      </c>
-      <c r="I89" s="206"/>
+        <v>1.4598540145985401E-2</v>
+      </c>
+      <c r="I89" s="204"/>
       <c r="K89" s="24"/>
     </row>
     <row r="90" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B90" s="28"/>
-      <c r="C90" s="88"/>
+      <c r="C90" s="87"/>
     </row>
     <row r="91" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A91" s="5"/>
-      <c r="B91" s="106" t="str">
+      <c r="B91" s="105" t="str">
         <f xml:space="preserve"> "Valuation Drivers in "&amp;Dashboard!H3</f>
         <v>Valuation Drivers in HKD</v>
       </c>
       <c r="C91" s="21"/>
       <c r="K91" s="50" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="92" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B92" s="10" t="s">
-        <v>148</v>
-      </c>
-      <c r="C92" s="197" t="str">
+        <v>147</v>
+      </c>
+      <c r="C92" s="195" t="str">
         <f>Inputs!C15</f>
         <v>HK</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="E92" s="297" t="s">
-        <v>193</v>
-      </c>
-      <c r="F92" s="297"/>
-      <c r="G92" s="87"/>
-      <c r="H92" s="297" t="s">
+        <v>148</v>
+      </c>
+      <c r="E92" s="296" t="s">
         <v>192</v>
       </c>
-      <c r="I92" s="297"/>
+      <c r="F92" s="296"/>
+      <c r="G92" s="86"/>
+      <c r="H92" s="296" t="s">
+        <v>191</v>
+      </c>
+      <c r="I92" s="296"/>
       <c r="K92" s="24"/>
     </row>
     <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11604,55 +11599,55 @@
         <f>C92&amp;" Discount Rate"</f>
         <v>HK Discount Rate</v>
       </c>
-      <c r="C93" s="135">
+      <c r="C93" s="134">
         <f>IF(C92="CN",Dashboard!C17,IF(C92="US",Dashboard!C12,IF(C92="HK",Dashboard!D12,Dashboard!D17)))</f>
         <v>8.0625000000000002E-2</v>
       </c>
-      <c r="D93" s="236">
+      <c r="D93" s="234">
         <f>Inputs!C86</f>
         <v>5</v>
       </c>
-      <c r="E93" s="87" t="s">
-        <v>196</v>
-      </c>
-      <c r="F93" s="143">
+      <c r="E93" s="86" t="s">
+        <v>195</v>
+      </c>
+      <c r="F93" s="142">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>21.008710429039304</v>
-      </c>
-      <c r="H93" s="87" t="s">
-        <v>196</v>
-      </c>
-      <c r="I93" s="143">
+        <v>21.003979001879603</v>
+      </c>
+      <c r="H93" s="86" t="s">
+        <v>195</v>
+      </c>
+      <c r="I93" s="142">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>21.008710429039304</v>
+        <v>21.003979001879603</v>
       </c>
       <c r="K93" s="24"/>
     </row>
     <row r="94" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B94" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="C94" s="181">
+        <v>197</v>
+      </c>
+      <c r="C94" s="179">
         <f>Dashboard!G20</f>
         <v>0.15</v>
       </c>
-      <c r="D94" s="267">
+      <c r="D94" s="265">
         <f>Inputs!D87</f>
         <v>0.02</v>
       </c>
-      <c r="E94" s="87" t="s">
-        <v>197</v>
-      </c>
-      <c r="F94" s="143">
+      <c r="E94" s="86" t="s">
+        <v>196</v>
+      </c>
+      <c r="F94" s="142">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>8.8681921878864802</v>
-      </c>
-      <c r="H94" s="87" t="s">
-        <v>197</v>
-      </c>
-      <c r="I94" s="143">
+        <v>8.867259499030542</v>
+      </c>
+      <c r="H94" s="86" t="s">
+        <v>196</v>
+      </c>
+      <c r="I94" s="142">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>8.8681921878864802</v>
+        <v>8.867259499030542</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -11662,123 +11657,123 @@
     </row>
     <row r="96" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A96" s="5"/>
-      <c r="B96" s="106" t="str">
+      <c r="B96" s="105" t="str">
         <f xml:space="preserve"> "Valuation in "&amp;Dashboard!H3</f>
         <v>Valuation in HKD</v>
       </c>
-      <c r="C96" s="126" t="str">
+      <c r="C96" s="125" t="str">
         <f>Dashboard!H3</f>
         <v>HKD</v>
       </c>
-      <c r="D96" s="123" t="s">
-        <v>200</v>
-      </c>
-      <c r="E96" s="182" t="str">
+      <c r="D96" s="122" t="s">
+        <v>199</v>
+      </c>
+      <c r="E96" s="180" t="str">
         <f>E72</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F96" s="224" t="s">
-        <v>223</v>
-      </c>
-      <c r="H96" s="182" t="str">
+      <c r="F96" s="222" t="s">
+        <v>222</v>
+      </c>
+      <c r="H96" s="180" t="str">
         <f>H72</f>
         <v>Base Case</v>
       </c>
-      <c r="I96" s="123" t="s">
-        <v>112</v>
+      <c r="I96" s="122" t="s">
+        <v>111</v>
       </c>
       <c r="K96" s="24"/>
     </row>
     <row r="97" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B97" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="C97" s="91">
+        <v>125</v>
+      </c>
+      <c r="C97" s="90">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>45682299.788375974</v>
-      </c>
-      <c r="D97" s="210"/>
-      <c r="E97" s="122">
+        <v>45672011.556993745</v>
+      </c>
+      <c r="D97" s="208"/>
+      <c r="E97" s="121">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>10.445042063936896</v>
-      </c>
-      <c r="F97" s="210"/>
-      <c r="H97" s="122">
+        <v>10.442689708428334</v>
+      </c>
+      <c r="F97" s="208"/>
+      <c r="H97" s="121">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>10.445042063936896</v>
-      </c>
-      <c r="I97" s="122">
+        <v>10.442689708428334</v>
+      </c>
+      <c r="I97" s="121">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>14.256875003887272</v>
+        <v>14.253664175415258</v>
       </c>
       <c r="K97" s="24"/>
     </row>
     <row r="98" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B98" s="28" t="s">
+        <v>139</v>
+      </c>
+      <c r="C98" s="90">
+        <f>-E53*Exchange_Rate</f>
+        <v>0</v>
+      </c>
+      <c r="D98" s="208"/>
+      <c r="E98" s="208"/>
+      <c r="F98" s="208"/>
+      <c r="H98" s="121">
+        <f>C98*Data!$C$4/Common_Shares</f>
+        <v>0</v>
+      </c>
+      <c r="I98" s="210"/>
+      <c r="K98" s="24"/>
+    </row>
+    <row r="99" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B99" s="104" t="s">
         <v>140</v>
       </c>
-      <c r="C98" s="91">
-        <f>-E53*Exchange_Rate</f>
-        <v>0</v>
-      </c>
-      <c r="D98" s="210"/>
-      <c r="E98" s="210"/>
-      <c r="F98" s="210"/>
-      <c r="H98" s="122">
-        <f>C98*Data!$C$4/Common_Shares</f>
-        <v>0</v>
-      </c>
-      <c r="I98" s="212"/>
-      <c r="K98" s="24"/>
-    </row>
-    <row r="99" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B99" s="105" t="s">
-        <v>141</v>
-      </c>
-      <c r="C99" s="108">
+      <c r="C99" s="107">
         <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
         <v>0</v>
       </c>
-      <c r="D99" s="211"/>
-      <c r="E99" s="144">
+      <c r="D99" s="209"/>
+      <c r="E99" s="143">
         <f>IF(H99&gt;0,H99*(1-C94),H99*(1+C94))</f>
         <v>0</v>
       </c>
-      <c r="F99" s="211"/>
-      <c r="H99" s="144">
+      <c r="F99" s="209"/>
+      <c r="H99" s="143">
         <f>C99*Data!$C$4/Common_Shares</f>
         <v>0</v>
       </c>
-      <c r="I99" s="213"/>
+      <c r="I99" s="211"/>
       <c r="K99" s="24"/>
     </row>
     <row r="100" spans="2:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B100" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="C100" s="91">
+        <v>111</v>
+      </c>
+      <c r="C100" s="90">
         <f>C97+C98+$C$99</f>
-        <v>45682299.788375974</v>
-      </c>
-      <c r="D100" s="109">
+        <v>45672011.556993745</v>
+      </c>
+      <c r="D100" s="108">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>8.8782857543463614</v>
-      </c>
-      <c r="E100" s="109">
+        <v>8.8762862521640837</v>
+      </c>
+      <c r="E100" s="108">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>10.445042063936896</v>
-      </c>
-      <c r="F100" s="109">
+        <v>10.442689708428334</v>
+      </c>
+      <c r="F100" s="108">
         <f>(E100+H100)/2</f>
-        <v>10.445042063936896</v>
-      </c>
-      <c r="H100" s="109">
+        <v>10.442689708428334</v>
+      </c>
+      <c r="H100" s="108">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>10.445042063936896</v>
-      </c>
-      <c r="I100" s="109">
+        <v>10.442689708428334</v>
+      </c>
+      <c r="I100" s="108">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>14.256875003887272</v>
+        <v>14.253664175415258</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -11788,58 +11783,58 @@
     </row>
     <row r="102" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B102" s="10" t="s">
-        <v>155</v>
-      </c>
-      <c r="C102" s="126" t="str">
+        <v>154</v>
+      </c>
+      <c r="C102" s="125" t="str">
         <f>C96</f>
         <v>HKD</v>
       </c>
-      <c r="D102" s="123" t="s">
-        <v>200</v>
-      </c>
-      <c r="E102" s="182" t="str">
+      <c r="D102" s="122" t="s">
+        <v>199</v>
+      </c>
+      <c r="E102" s="180" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F102" s="224" t="s">
-        <v>223</v>
-      </c>
-      <c r="H102" s="182" t="str">
+      <c r="F102" s="222" t="s">
+        <v>222</v>
+      </c>
+      <c r="H102" s="180" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
-      <c r="I102" s="123" t="s">
-        <v>112</v>
+      <c r="I102" s="122" t="s">
+        <v>111</v>
       </c>
       <c r="K102" s="24"/>
     </row>
     <row r="103" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B103" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="C103" s="91">
+        <v>153</v>
+      </c>
+      <c r="C103" s="90">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>19283402.257188883</v>
-      </c>
-      <c r="D103" s="109">
+        <v>19281374.175928481</v>
+      </c>
+      <c r="D103" s="108">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>3.747700013975519</v>
-      </c>
-      <c r="E103" s="122">
+        <v>3.7473058594551407</v>
+      </c>
+      <c r="E103" s="121">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>4.4090588399711992</v>
-      </c>
-      <c r="F103" s="109">
+        <v>4.4085951287707541</v>
+      </c>
+      <c r="F103" s="108">
         <f>(E103+H103)/2</f>
-        <v>4.4090588399711992</v>
-      </c>
-      <c r="H103" s="122">
+        <v>4.4085951287707541</v>
+      </c>
+      <c r="H103" s="121">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>4.4090588399711992</v>
-      </c>
-      <c r="I103" s="109">
+        <v>4.4085951287707541</v>
+      </c>
+      <c r="I103" s="108">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>6.018108915356625</v>
+        <v>6.0174759765343424</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -11849,58 +11844,58 @@
     </row>
     <row r="105" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B105" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="C105" s="126" t="str">
+        <v>183</v>
+      </c>
+      <c r="C105" s="125" t="str">
         <f>C102</f>
         <v>HKD</v>
       </c>
-      <c r="D105" s="123" t="s">
-        <v>200</v>
-      </c>
-      <c r="E105" s="183" t="str">
+      <c r="D105" s="122" t="s">
+        <v>199</v>
+      </c>
+      <c r="E105" s="181" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F105" s="224" t="s">
-        <v>223</v>
-      </c>
-      <c r="H105" s="183" t="str">
+      <c r="F105" s="222" t="s">
+        <v>222</v>
+      </c>
+      <c r="H105" s="181" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
-      <c r="I105" s="123" t="s">
-        <v>112</v>
+      <c r="I105" s="122" t="s">
+        <v>111</v>
       </c>
       <c r="K105" s="24"/>
     </row>
     <row r="106" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B106" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="C106" s="91">
+        <v>184</v>
+      </c>
+      <c r="C106" s="90">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>32482851.02278243</v>
-      </c>
-      <c r="D106" s="109">
+        <v>32476692.866461113</v>
+      </c>
+      <c r="D106" s="108">
         <f>(D100+D103)/2</f>
-        <v>6.3129928841609404</v>
-      </c>
-      <c r="E106" s="122">
+        <v>6.3117960558096122</v>
+      </c>
+      <c r="E106" s="121">
         <f>(E100+E103)/2</f>
-        <v>7.427050451954047</v>
-      </c>
-      <c r="F106" s="109">
+        <v>7.4256424185995442</v>
+      </c>
+      <c r="F106" s="108">
         <f>(F100+F103)/2</f>
-        <v>7.427050451954047</v>
-      </c>
-      <c r="H106" s="122">
+        <v>7.4256424185995442</v>
+      </c>
+      <c r="H106" s="121">
         <f>(H100+H103)/2</f>
-        <v>7.427050451954047</v>
-      </c>
-      <c r="I106" s="122">
+        <v>7.4256424185995442</v>
+      </c>
+      <c r="I106" s="121">
         <f>(I100+I103)/2</f>
-        <v>10.137491959621949</v>
+        <v>10.135570075974801</v>
       </c>
       <c r="K106" s="24"/>
     </row>
@@ -11909,15 +11904,16 @@
     </row>
     <row r="108" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B108" s="10" t="s">
-        <v>158</v>
-      </c>
-      <c r="C108" s="127" t="str">
+        <v>157</v>
+      </c>
+      <c r="C108" s="126" t="str">
         <f>Inputs!C87</f>
         <v>Profit</v>
       </c>
       <c r="K108" s="24"/>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="11">
     <mergeCell ref="D56:E56"/>
     <mergeCell ref="D57:E57"/>

--- a/financial_models/opportunities/0027.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0027.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C88F4E98-20F4-46E4-8422-C876E220A4FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3A8BC8CB-8A97-4245-BEA7-24BD53B78611}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="275">
   <si>
     <t>Company Info:</t>
   </si>
@@ -983,6 +983,14 @@
   </si>
   <si>
     <t>Contin. Liabilities / Total Assets</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Leverage Ratio</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://pages.stern.nyu.edu/~adamodar/New_Home_Page/datafile/countrytaxrates.html</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -1678,7 +1686,7 @@
     <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="298">
+  <cellXfs count="300">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2330,9 +2338,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="4" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2341,9 +2346,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -2351,6 +2353,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="180" fontId="4" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2806,7 +2820,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C73" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -2828,7 +2842,7 @@
         <v>180</v>
       </c>
       <c r="C4" s="185" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -2836,7 +2850,7 @@
         <v>181</v>
       </c>
       <c r="C5" s="188" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -2869,7 +2883,7 @@
         <v>202</v>
       </c>
       <c r="C9" s="189" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -2928,13 +2942,16 @@
         <v>0.23499999999999999</v>
       </c>
       <c r="D16" s="24"/>
+      <c r="E16" s="109" t="s">
+        <v>268</v>
+      </c>
     </row>
     <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="235" t="s">
         <v>209</v>
       </c>
       <c r="C17" s="237" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D17" s="24"/>
     </row>
@@ -2952,7 +2969,7 @@
         <v>224</v>
       </c>
       <c r="C19" s="237" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D19" s="24"/>
     </row>
@@ -2961,7 +2978,7 @@
         <v>213</v>
       </c>
       <c r="C20" s="237" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D20" s="24"/>
     </row>
@@ -2979,7 +2996,7 @@
         <v>215</v>
       </c>
       <c r="C22" s="238" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="D22" s="24"/>
     </row>
@@ -3377,7 +3394,7 @@
       </c>
       <c r="C45" s="150">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>2.3357664233576644E-2</v>
+        <v>2.3494860499265788E-2</v>
       </c>
       <c r="D45" s="150" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -3810,11 +3827,11 @@
       <c r="B89" s="105" t="s">
         <v>122</v>
       </c>
-      <c r="C89" s="282">
+      <c r="C89" s="284">
         <f>C24</f>
         <v>45291</v>
       </c>
-      <c r="D89" s="282"/>
+      <c r="D89" s="284"/>
       <c r="E89" s="88" t="s">
         <v>192</v>
       </c>
@@ -3828,10 +3845,10 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000HKD)</v>
       </c>
-      <c r="C90" s="283" t="s">
+      <c r="C90" s="285" t="s">
         <v>97</v>
       </c>
-      <c r="D90" s="283"/>
+      <c r="D90" s="285"/>
       <c r="E90" s="230" t="s">
         <v>98</v>
       </c>
@@ -4052,8 +4069,11 @@
       <formula1>"Consumer Monopoly,Unclear,Commodity-type Business"</formula1>
     </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="E16" r:id="rId1" xr:uid="{F8B38130-6ADB-477B-BA33-0F2CE7EF4838}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -4066,8 +4086,8 @@
   </sheetPr>
   <dimension ref="A1:J923"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView showGridLines="0" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4110,60 +4130,60 @@
       <c r="B3" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="C3" s="288" t="str">
+      <c r="C3" s="290" t="str">
         <f>Inputs!C4</f>
         <v>0027.HK</v>
       </c>
-      <c r="D3" s="289"/>
+      <c r="D3" s="291"/>
       <c r="E3" s="86"/>
       <c r="F3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="130">
-        <v>34.25</v>
+        <v>34.049999999999997</v>
       </c>
       <c r="H3" s="132" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="35" t="s">
         <v>181</v>
       </c>
-      <c r="C4" s="290" t="str">
+      <c r="C4" s="292" t="str">
         <f>Inputs!C5</f>
         <v>銀河娛樂</v>
       </c>
-      <c r="D4" s="291"/>
+      <c r="D4" s="293"/>
       <c r="E4" s="86"/>
       <c r="F4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="294">
+      <c r="G4" s="296">
         <f>Inputs!C10</f>
         <v>4373586962</v>
       </c>
-      <c r="H4" s="294"/>
+      <c r="H4" s="296"/>
       <c r="I4" s="39"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="C5" s="292">
+      <c r="C5" s="294">
         <f>Inputs!C6</f>
         <v>45603</v>
       </c>
-      <c r="D5" s="293"/>
+      <c r="D5" s="295"/>
       <c r="E5" s="34"/>
       <c r="F5" s="35" t="s">
         <v>96</v>
       </c>
-      <c r="G5" s="286">
+      <c r="G5" s="288">
         <f>G3*G4/1000000</f>
-        <v>149795.35344850001</v>
-      </c>
-      <c r="H5" s="286"/>
+        <v>148920.63605609999</v>
+      </c>
+      <c r="H5" s="288"/>
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
@@ -4186,11 +4206,11 @@
       <c r="F6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="287" t="str">
+      <c r="G6" s="289" t="str">
         <f>Inputs!C11</f>
         <v>HKD</v>
       </c>
-      <c r="H6" s="287"/>
+      <c r="H6" s="289"/>
       <c r="I6" s="38"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4331,7 +4351,7 @@
         <v>249</v>
       </c>
       <c r="C20" s="271" t="e">
-        <f>C23*C22*(1/C21)</f>
+        <f>C21*C22*C23</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F20" s="86" t="s">
@@ -4343,20 +4363,20 @@
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B21" s="272" t="s">
-        <v>247</v>
-      </c>
-      <c r="C21" s="273" t="e">
-        <f>Data!C53</f>
-        <v>#DIV/0!</v>
+        <v>254</v>
+      </c>
+      <c r="C21" s="283">
+        <f>Data!C13</f>
+        <v>0.17445779619528262</v>
       </c>
       <c r="F21" s="86"/>
       <c r="G21" s="29"/>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="274" t="s">
+      <c r="B22" s="273" t="s">
         <v>261</v>
       </c>
-      <c r="C22" s="275" t="e">
+      <c r="C22" s="274" t="e">
         <f>Data!C48</f>
         <v>#DIV/0!</v>
       </c>
@@ -4365,12 +4385,12 @@
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="276" t="s">
-        <v>254</v>
-      </c>
-      <c r="C23" s="277">
-        <f>Data!C13</f>
-        <v>0.17445779619528262</v>
+      <c r="B23" s="275" t="s">
+        <v>267</v>
+      </c>
+      <c r="C23" s="282" t="e">
+        <f>1/Data!C53</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="F23" s="138" t="s">
         <v>175</v>
@@ -4381,10 +4401,10 @@
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B24" s="135" t="s">
+      <c r="B24" s="280" t="s">
         <v>255</v>
       </c>
-      <c r="C24" s="168">
+      <c r="C24" s="281">
         <f>Fin_Analysis!I81</f>
         <v>0</v>
       </c>
@@ -4393,7 +4413,7 @@
       </c>
       <c r="G24" s="263">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>31.453567808917942</v>
+        <v>31.269897339960753</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4425,7 +4445,7 @@
       </c>
       <c r="G26" s="175">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>1.4598540145985401E-2</v>
+        <v>1.4684287812041117E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4444,10 +4464,10 @@
       <c r="F28" s="53" t="s">
         <v>222</v>
       </c>
-      <c r="G28" s="284" t="s">
+      <c r="G28" s="286" t="s">
         <v>239</v>
       </c>
-      <c r="H28" s="284"/>
+      <c r="H28" s="286"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="86" t="s">
@@ -4455,22 +4475,22 @@
       </c>
       <c r="C29" s="128">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>8.8762862521640837</v>
+        <v>8.8843216787810917</v>
       </c>
       <c r="D29" s="127">
         <f>G29*(1+G20)</f>
-        <v>16.391713801727544</v>
+        <v>16.406552711789583</v>
       </c>
       <c r="E29" s="86"/>
       <c r="F29" s="129">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>10.442689708428334</v>
-      </c>
-      <c r="G29" s="285">
+        <v>10.452143151507167</v>
+      </c>
+      <c r="G29" s="287">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>14.253664175415258</v>
-      </c>
-      <c r="H29" s="285"/>
+        <v>14.266567575469203</v>
+      </c>
+      <c r="H29" s="287"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5501,7 +5521,7 @@
       <formula>LEN(TRIM(G20))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="3">
+  <dataValidations disablePrompts="1" count="3">
     <dataValidation type="list" allowBlank="1" sqref="G6" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"HKD,USD,CNY,EUR"</formula1>
     </dataValidation>
@@ -7742,7 +7762,7 @@
       <c r="B47" s="101" t="s">
         <v>245</v>
       </c>
-      <c r="C47" s="278" t="s">
+      <c r="C47" s="276" t="s">
         <v>262</v>
       </c>
       <c r="D47" s="36"/>
@@ -9669,7 +9689,7 @@
       <c r="H3" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="I3" s="280">
+      <c r="I3" s="278">
         <f>D3-D4</f>
         <v>0</v>
       </c>
@@ -10716,7 +10736,7 @@
       <c r="B48" s="80" t="s">
         <v>80</v>
       </c>
-      <c r="C48" s="281">
+      <c r="C48" s="279">
         <f>SUM(C30:C42)</f>
         <v>0</v>
       </c>
@@ -10733,7 +10753,7 @@
       <c r="H48" s="80" t="s">
         <v>81</v>
       </c>
-      <c r="I48" s="279">
+      <c r="I48" s="277">
         <f>I49-I28</f>
         <v>0</v>
       </c>
@@ -10842,11 +10862,11 @@
         <v>86</v>
       </c>
       <c r="C56" s="86"/>
-      <c r="D56" s="295">
+      <c r="D56" s="297">
         <f>I15+I34</f>
         <v>0</v>
       </c>
-      <c r="E56" s="293"/>
+      <c r="E56" s="295"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="I56" s="56"/>
@@ -10857,11 +10877,11 @@
         <v>87</v>
       </c>
       <c r="C57" s="86"/>
-      <c r="D57" s="294">
+      <c r="D57" s="296">
         <f>Inputs!C84</f>
         <v>0</v>
       </c>
-      <c r="E57" s="293"/>
+      <c r="E57" s="295"/>
       <c r="G57" s="86"/>
       <c r="I57" s="86"/>
       <c r="K57" s="33" t="s">
@@ -10873,11 +10893,11 @@
         <v>89</v>
       </c>
       <c r="C58" s="86"/>
-      <c r="D58" s="294">
+      <c r="D58" s="296">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="293"/>
+      <c r="E58" s="295"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
       <c r="I58" s="86"/>
@@ -11091,19 +11111,19 @@
       <c r="B72" s="105" t="s">
         <v>122</v>
       </c>
-      <c r="C72" s="282">
+      <c r="C72" s="284">
         <f>Data!C5</f>
         <v>45291</v>
       </c>
-      <c r="D72" s="282"/>
-      <c r="E72" s="296" t="s">
+      <c r="D72" s="284"/>
+      <c r="E72" s="298" t="s">
         <v>192</v>
       </c>
-      <c r="F72" s="296"/>
-      <c r="H72" s="296" t="s">
+      <c r="F72" s="298"/>
+      <c r="H72" s="298" t="s">
         <v>191</v>
       </c>
-      <c r="I72" s="296"/>
+      <c r="I72" s="298"/>
       <c r="K72" s="50" t="s">
         <v>8</v>
       </c>
@@ -11113,18 +11133,18 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000HKD)</v>
       </c>
-      <c r="C73" s="283" t="s">
+      <c r="C73" s="285" t="s">
         <v>97</v>
       </c>
-      <c r="D73" s="283"/>
-      <c r="E73" s="297" t="s">
+      <c r="D73" s="285"/>
+      <c r="E73" s="299" t="s">
         <v>98</v>
       </c>
-      <c r="F73" s="283"/>
-      <c r="H73" s="297" t="s">
+      <c r="F73" s="285"/>
+      <c r="H73" s="299" t="s">
         <v>98</v>
       </c>
-      <c r="I73" s="283"/>
+      <c r="I73" s="285"/>
       <c r="K73" s="24"/>
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11491,17 +11511,17 @@
       </c>
       <c r="C87" s="256">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>3.1792895676415849E-2</v>
+        <v>3.1979638088612129E-2</v>
       </c>
       <c r="D87" s="204"/>
       <c r="E87" s="257">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>3.1792895676415849E-2</v>
+        <v>3.1979638088612129E-2</v>
       </c>
       <c r="F87" s="204"/>
       <c r="H87" s="257">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>3.1792895676415849E-2</v>
+        <v>3.1979638088612129E-2</v>
       </c>
       <c r="I87" s="204"/>
       <c r="K87" s="24"/>
@@ -11542,17 +11562,17 @@
       </c>
       <c r="C89" s="256">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>2.3357664233576644E-2</v>
+        <v>2.3494860499265788E-2</v>
       </c>
       <c r="D89" s="204"/>
       <c r="E89" s="256">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>1.4598540145985401E-2</v>
+        <v>1.4684287812041117E-2</v>
       </c>
       <c r="F89" s="204"/>
       <c r="H89" s="256">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>1.4598540145985401E-2</v>
+        <v>1.4684287812041117E-2</v>
       </c>
       <c r="I89" s="204"/>
       <c r="K89" s="24"/>
@@ -11583,15 +11603,15 @@
       <c r="D92" s="10" t="s">
         <v>148</v>
       </c>
-      <c r="E92" s="296" t="s">
+      <c r="E92" s="298" t="s">
         <v>192</v>
       </c>
-      <c r="F92" s="296"/>
+      <c r="F92" s="298"/>
       <c r="G92" s="86"/>
-      <c r="H92" s="296" t="s">
+      <c r="H92" s="298" t="s">
         <v>191</v>
       </c>
-      <c r="I92" s="296"/>
+      <c r="I92" s="298"/>
       <c r="K92" s="24"/>
     </row>
     <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11612,14 +11632,14 @@
       </c>
       <c r="F93" s="142">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>21.003979001879603</v>
+        <v>21.022993252562834</v>
       </c>
       <c r="H93" s="86" t="s">
         <v>195</v>
       </c>
       <c r="I93" s="142">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>21.003979001879603</v>
+        <v>21.022993252562834</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -11640,14 +11660,14 @@
       </c>
       <c r="F94" s="142">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>8.867259499030542</v>
+        <v>8.8710071652593534</v>
       </c>
       <c r="H94" s="86" t="s">
         <v>196</v>
       </c>
       <c r="I94" s="142">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>8.867259499030542</v>
+        <v>8.8710071652593534</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -11690,21 +11710,21 @@
       </c>
       <c r="C97" s="90">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>45672011.556993745</v>
+        <v>45713357.012389332</v>
       </c>
       <c r="D97" s="208"/>
       <c r="E97" s="121">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>10.442689708428334</v>
+        <v>10.452143151507167</v>
       </c>
       <c r="F97" s="208"/>
       <c r="H97" s="121">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>10.442689708428334</v>
+        <v>10.452143151507167</v>
       </c>
       <c r="I97" s="121">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>14.253664175415258</v>
+        <v>14.266567575469203</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -11753,27 +11773,27 @@
       </c>
       <c r="C100" s="90">
         <f>C97+C98+$C$99</f>
-        <v>45672011.556993745</v>
+        <v>45713357.012389332</v>
       </c>
       <c r="D100" s="108">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>8.8762862521640837</v>
+        <v>8.8843216787810917</v>
       </c>
       <c r="E100" s="108">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>10.442689708428334</v>
+        <v>10.452143151507167</v>
       </c>
       <c r="F100" s="108">
         <f>(E100+H100)/2</f>
-        <v>10.442689708428334</v>
+        <v>10.452143151507167</v>
       </c>
       <c r="H100" s="108">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>10.442689708428334</v>
+        <v>10.452143151507167</v>
       </c>
       <c r="I100" s="108">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>14.253664175415258</v>
+        <v>14.266567575469203</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -11814,27 +11834,27 @@
       </c>
       <c r="C103" s="90">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>19281374.175928481</v>
+        <v>19289523.272597201</v>
       </c>
       <c r="D103" s="108">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>3.7473058594551407</v>
+        <v>3.7488896240466754</v>
       </c>
       <c r="E103" s="121">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>4.4085951287707541</v>
+        <v>4.4104583812313827</v>
       </c>
       <c r="F103" s="108">
         <f>(E103+H103)/2</f>
-        <v>4.4085951287707541</v>
+        <v>4.4104583812313827</v>
       </c>
       <c r="H103" s="121">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>4.4085951287707541</v>
+        <v>4.4104583812313827</v>
       </c>
       <c r="I103" s="108">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>6.0174759765343424</v>
+        <v>6.0200192077888701</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -11875,27 +11895,27 @@
       </c>
       <c r="C106" s="90">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>32476692.866461113</v>
+        <v>32501440.14249327</v>
       </c>
       <c r="D106" s="108">
         <f>(D100+D103)/2</f>
-        <v>6.3117960558096122</v>
+        <v>6.3166056514138837</v>
       </c>
       <c r="E106" s="121">
         <f>(E100+E103)/2</f>
-        <v>7.4256424185995442</v>
+        <v>7.4313007663692749</v>
       </c>
       <c r="F106" s="108">
         <f>(F100+F103)/2</f>
-        <v>7.4256424185995442</v>
+        <v>7.4313007663692749</v>
       </c>
       <c r="H106" s="121">
         <f>(H100+H103)/2</f>
-        <v>7.4256424185995442</v>
+        <v>7.4313007663692749</v>
       </c>
       <c r="I106" s="121">
         <f>(I100+I103)/2</f>
-        <v>10.135570075974801</v>
+        <v>10.143293391629037</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0027.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0027.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3A8BC8CB-8A97-4245-BEA7-24BD53B78611}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{750693A2-129C-485A-B6E7-76B6A1D4B4C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3394,7 +3394,7 @@
       </c>
       <c r="C45" s="150">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>2.3494860499265788E-2</v>
+        <v>2.3323615160349857E-2</v>
       </c>
       <c r="D45" s="150" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4140,7 +4140,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="130">
-        <v>34.049999999999997</v>
+        <v>34.299999999999997</v>
       </c>
       <c r="H3" s="132" t="s">
         <v>274</v>
@@ -4181,7 +4181,7 @@
       </c>
       <c r="G5" s="288">
         <f>G3*G4/1000000</f>
-        <v>148920.63605609999</v>
+        <v>150014.03279659999</v>
       </c>
       <c r="H5" s="288"/>
       <c r="I5" s="38"/>
@@ -4413,7 +4413,7 @@
       </c>
       <c r="G24" s="263">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>31.269897339960753</v>
+        <v>31.499485426157236</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4445,7 +4445,7 @@
       </c>
       <c r="G26" s="175">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>1.4684287812041117E-2</v>
+        <v>1.457725947521866E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4475,20 +4475,20 @@
       </c>
       <c r="C29" s="128">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>8.8843216787810917</v>
+        <v>8.8742929381270699</v>
       </c>
       <c r="D29" s="127">
         <f>G29*(1+G20)</f>
-        <v>16.406552711789583</v>
+        <v>16.388032776546126</v>
       </c>
       <c r="E29" s="86"/>
       <c r="F29" s="129">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>10.452143151507167</v>
+        <v>10.440344633090671</v>
       </c>
       <c r="G29" s="287">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>14.266567575469203</v>
+        <v>14.250463283953154</v>
       </c>
       <c r="H29" s="287"/>
     </row>
@@ -9640,7 +9640,7 @@
   <dimension ref="A2:K108"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="C99" sqref="C99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -11511,17 +11511,17 @@
       </c>
       <c r="C87" s="256">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>3.1979638088612129E-2</v>
+        <v>3.1746550347441484E-2</v>
       </c>
       <c r="D87" s="204"/>
       <c r="E87" s="257">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>3.1979638088612129E-2</v>
+        <v>3.1746550347441484E-2</v>
       </c>
       <c r="F87" s="204"/>
       <c r="H87" s="257">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>3.1979638088612129E-2</v>
+        <v>3.1746550347441484E-2</v>
       </c>
       <c r="I87" s="204"/>
       <c r="K87" s="24"/>
@@ -11562,17 +11562,17 @@
       </c>
       <c r="C89" s="256">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>2.3494860499265788E-2</v>
+        <v>2.3323615160349857E-2</v>
       </c>
       <c r="D89" s="204"/>
       <c r="E89" s="256">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>1.4684287812041117E-2</v>
+        <v>1.457725947521866E-2</v>
       </c>
       <c r="F89" s="204"/>
       <c r="H89" s="256">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>1.4684287812041117E-2</v>
+        <v>1.457725947521866E-2</v>
       </c>
       <c r="I89" s="204"/>
       <c r="K89" s="24"/>
@@ -11632,14 +11632,14 @@
       </c>
       <c r="F93" s="142">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>21.022993252562834</v>
+        <v>20.999262217743965</v>
       </c>
       <c r="H93" s="86" t="s">
         <v>195</v>
       </c>
       <c r="I93" s="142">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>21.022993252562834</v>
+        <v>20.999262217743965</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -11660,14 +11660,14 @@
       </c>
       <c r="F94" s="142">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>8.8710071652593534</v>
+        <v>8.8663296075173825</v>
       </c>
       <c r="H94" s="86" t="s">
         <v>196</v>
       </c>
       <c r="I94" s="142">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>8.8710071652593534</v>
+        <v>8.8663296075173825</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -11710,21 +11710,21 @@
       </c>
       <c r="C97" s="90">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>45713357.012389332</v>
+        <v>45661755.166072026</v>
       </c>
       <c r="D97" s="208"/>
       <c r="E97" s="121">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>10.452143151507167</v>
+        <v>10.440344633090671</v>
       </c>
       <c r="F97" s="208"/>
       <c r="H97" s="121">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>10.452143151507167</v>
+        <v>10.440344633090671</v>
       </c>
       <c r="I97" s="121">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>14.266567575469203</v>
+        <v>14.250463283953154</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -11751,7 +11751,7 @@
         <v>140</v>
       </c>
       <c r="C99" s="107">
-        <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
+        <f>(E65+IF(E70&lt;0,E70,0))*Exchange_Rate</f>
         <v>0</v>
       </c>
       <c r="D99" s="209"/>
@@ -11773,27 +11773,27 @@
       </c>
       <c r="C100" s="90">
         <f>C97+C98+$C$99</f>
-        <v>45713357.012389332</v>
+        <v>45661755.166072026</v>
       </c>
       <c r="D100" s="108">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>8.8843216787810917</v>
+        <v>8.8742929381270699</v>
       </c>
       <c r="E100" s="108">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>10.452143151507167</v>
+        <v>10.440344633090671</v>
       </c>
       <c r="F100" s="108">
         <f>(E100+H100)/2</f>
-        <v>10.452143151507167</v>
+        <v>10.440344633090671</v>
       </c>
       <c r="H100" s="108">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>10.452143151507167</v>
+        <v>10.440344633090671</v>
       </c>
       <c r="I100" s="108">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>14.266567575469203</v>
+        <v>14.250463283953154</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -11834,27 +11834,27 @@
       </c>
       <c r="C103" s="90">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>19289523.272597201</v>
+        <v>19279352.177338026</v>
       </c>
       <c r="D103" s="108">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>3.7488896240466754</v>
+        <v>3.7469128870924511</v>
       </c>
       <c r="E103" s="121">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>4.4104583812313827</v>
+        <v>4.4081328083440603</v>
       </c>
       <c r="F103" s="108">
         <f>(E103+H103)/2</f>
-        <v>4.4104583812313827</v>
+        <v>4.4081328083440603</v>
       </c>
       <c r="H103" s="121">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>4.4104583812313827</v>
+        <v>4.4081328083440603</v>
       </c>
       <c r="I103" s="108">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>6.0200192077888701</v>
+        <v>6.0168449360373506</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -11895,27 +11895,27 @@
       </c>
       <c r="C106" s="90">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>32501440.14249327</v>
+        <v>32470553.67170503</v>
       </c>
       <c r="D106" s="108">
         <f>(D100+D103)/2</f>
-        <v>6.3166056514138837</v>
+        <v>6.3106029126097605</v>
       </c>
       <c r="E106" s="121">
         <f>(E100+E103)/2</f>
-        <v>7.4313007663692749</v>
+        <v>7.4242387207173657</v>
       </c>
       <c r="F106" s="108">
         <f>(F100+F103)/2</f>
-        <v>7.4313007663692749</v>
+        <v>7.4242387207173657</v>
       </c>
       <c r="H106" s="121">
         <f>(H100+H103)/2</f>
-        <v>7.4313007663692749</v>
+        <v>7.4242387207173657</v>
       </c>
       <c r="I106" s="121">
         <f>(I100+I103)/2</f>
-        <v>10.143293391629037</v>
+        <v>10.133654109995252</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0027.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0027.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2FA0A66F-C2AC-4498-A0C2-E4D15048DF79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A37E4B4F-FB6B-4937-BB6F-A4D099EC480E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3607,7 +3607,7 @@
       </c>
       <c r="C45" s="87">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>2.3668639053254441E-2</v>
+        <v>2.3598820058997053E-2</v>
       </c>
       <c r="D45" s="87" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4353,7 +4353,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="10">
-        <v>33.799999999999997</v>
+        <v>33.9</v>
       </c>
       <c r="H3" s="11" t="s">
         <v>260</v>
@@ -4394,7 +4394,7 @@
       </c>
       <c r="G5" s="313">
         <f>G3*G4/1000000</f>
-        <v>147827.23931559999</v>
+        <v>148264.5980118</v>
       </c>
       <c r="H5" s="313"/>
       <c r="I5" s="17"/>
@@ -4574,7 +4574,7 @@
         <v>0.15</v>
       </c>
       <c r="H20" s="307">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
@@ -4631,7 +4631,7 @@
       </c>
       <c r="G24" s="43">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>31.040309253764274</v>
+        <v>31.132144488242869</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4663,7 +4663,7 @@
       </c>
       <c r="G26" s="47">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>1.4792899408284025E-2</v>
+        <v>1.4749262536873156E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4693,20 +4693,20 @@
       </c>
       <c r="C29" s="53">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>11.040183532651643</v>
+        <v>8.8904143445644994</v>
       </c>
       <c r="D29" s="54">
         <f>G29*(1+G20)</f>
-        <v>18.002121853113586</v>
+        <v>16.417803952564615</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="55">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>12.988451214884286</v>
+        <v>10.459310993605294</v>
       </c>
       <c r="G29" s="312">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>15.654019002707468</v>
+        <v>14.276351263099667</v>
       </c>
       <c r="H29" s="312"/>
     </row>
@@ -11743,17 +11743,17 @@
       </c>
       <c r="C87" s="238">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>3.2216173873291211E-2</v>
+        <v>3.2121140912013062E-2</v>
       </c>
       <c r="D87" s="103"/>
       <c r="E87" s="239">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>3.2216173873291211E-2</v>
+        <v>3.2121140912013062E-2</v>
       </c>
       <c r="F87" s="103"/>
       <c r="H87" s="239">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>3.2216173873291211E-2</v>
+        <v>3.2121140912013062E-2</v>
       </c>
       <c r="I87" s="103"/>
       <c r="K87" s="75"/>
@@ -11794,17 +11794,17 @@
       </c>
       <c r="C89" s="238">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>2.3668639053254441E-2</v>
+        <v>2.3598820058997053E-2</v>
       </c>
       <c r="D89" s="103"/>
       <c r="E89" s="238">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>1.4792899408284025E-2</v>
+        <v>1.4749262536873156E-2</v>
       </c>
       <c r="F89" s="103"/>
       <c r="H89" s="238">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>1.4792899408284025E-2</v>
+        <v>1.4749262536873156E-2</v>
       </c>
       <c r="I89" s="103"/>
       <c r="K89" s="75"/>
@@ -11857,21 +11857,21 @@
       </c>
       <c r="D93" s="259">
         <f>Dashboard!H20</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E93" s="3" t="s">
         <v>185</v>
       </c>
       <c r="F93" s="243">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>19.753810741437132</v>
+        <v>21.037410343285767</v>
       </c>
       <c r="H93" s="3" t="s">
         <v>185</v>
       </c>
       <c r="I93" s="243">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>19.753810741437132</v>
+        <v>21.037410343285767</v>
       </c>
       <c r="K93" s="75"/>
     </row>
@@ -11892,14 +11892,14 @@
       </c>
       <c r="F94" s="243">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>8.6188736080153419</v>
+        <v>8.8738477782409646</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>186</v>
       </c>
       <c r="I94" s="243">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>8.6188736080153419</v>
+        <v>8.8738477782409646</v>
       </c>
       <c r="K94" s="75"/>
     </row>
@@ -11942,21 +11942,21 @@
       </c>
       <c r="C97" s="249">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>56806120.889990978</v>
+        <v>45744706.193135381</v>
       </c>
       <c r="D97" s="250"/>
       <c r="E97" s="251">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>12.988451214884286</v>
+        <v>10.459310993605294</v>
       </c>
       <c r="F97" s="250"/>
       <c r="H97" s="251">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>12.988451214884286</v>
+        <v>10.459310993605294</v>
       </c>
       <c r="I97" s="251">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>15.654019002707468</v>
+        <v>14.276351263099667</v>
       </c>
       <c r="K97" s="75"/>
     </row>
@@ -12006,23 +12006,23 @@
       <c r="C100" s="249"/>
       <c r="D100" s="257">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>11.040183532651643</v>
+        <v>8.8904143445644994</v>
       </c>
       <c r="E100" s="257">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>12.988451214884286</v>
+        <v>10.459310993605294</v>
       </c>
       <c r="F100" s="257">
         <f>(E100+H100)/2</f>
-        <v>12.988451214884286</v>
+        <v>10.459310993605294</v>
       </c>
       <c r="H100" s="257">
         <f>MAX(H97+H98+H99,0)</f>
-        <v>12.988451214884286</v>
+        <v>10.459310993605294</v>
       </c>
       <c r="I100" s="257">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>15.654019002707468</v>
+        <v>14.276351263099667</v>
       </c>
       <c r="K100" s="75"/>
     </row>
@@ -12061,23 +12061,23 @@
       <c r="C103" s="249"/>
       <c r="D103" s="257">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>4.8169919071672833</v>
+        <v>3.7500900677318518</v>
       </c>
       <c r="E103" s="251">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>5.6670493025497457</v>
+        <v>4.4118706679198256</v>
       </c>
       <c r="F103" s="257">
         <f>(E103+H103)/2</f>
-        <v>5.6670493025497457</v>
+        <v>4.4118706679198256</v>
       </c>
       <c r="H103" s="251">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>5.6670493025497457</v>
+        <v>4.4118706679198256</v>
       </c>
       <c r="I103" s="257">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>6.8300751185586339</v>
+        <v>6.0219468969895011</v>
       </c>
       <c r="K103" s="75"/>
     </row>
@@ -12116,23 +12116,23 @@
       <c r="C106" s="249"/>
       <c r="D106" s="257">
         <f>(D100+D103)/2</f>
-        <v>7.928587719909463</v>
+        <v>6.3202522061481758</v>
       </c>
       <c r="E106" s="251">
         <f>(E100+E103)/2</f>
-        <v>9.3277502587170158</v>
+        <v>7.4355908307625604</v>
       </c>
       <c r="F106" s="257">
         <f>(F100+F103)/2</f>
-        <v>9.3277502587170158</v>
+        <v>7.4355908307625604</v>
       </c>
       <c r="H106" s="251">
         <f>(H100+H103)/2</f>
-        <v>9.3277502587170158</v>
+        <v>7.4355908307625604</v>
       </c>
       <c r="I106" s="251">
         <f>(I100+I103)/2</f>
-        <v>11.242047060633052</v>
+        <v>10.149149080044584</v>
       </c>
       <c r="K106" s="75"/>
     </row>

--- a/financial_models/opportunities/0027.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0027.HK_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A37E4B4F-FB6B-4937-BB6F-A4D099EC480E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{81EE5817-7480-4795-B10D-A7D6652364AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="4" r:id="rId1"/>
@@ -2582,6 +2582,9 @@
     <xf numFmtId="181" fontId="37" fillId="13" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2598,9 +2601,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="177" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2814,11 +2814,11 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF0000FF"/>
+      <color rgb="FFFFFFCC"/>
       <color rgb="FFB6D7A8"/>
       <color rgb="FF2F75B5"/>
-      <color rgb="FFFFFFCC"/>
       <color rgb="FFFF0000"/>
-      <color rgb="FF0000FF"/>
       <color rgb="FFCCFF33"/>
     </mruColors>
   </colors>
@@ -3033,7 +3033,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A69" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A69" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -3058,6 +3058,7 @@
       <c r="C4" s="66" t="s">
         <v>281</v>
       </c>
+      <c r="D4" s="66"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B5" s="46" t="s">
@@ -4258,7 +4259,7 @@
       <formula>LEN(TRIM(E98))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="8">
+  <dataValidations count="9">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8" xr:uid="{4F1A5CDA-569A-4509-AA2D-9CF95C6DB1A5}">
       <formula1>"Tier 1, Superior Cycl. ,Tier 3, N"</formula1>
     </dataValidation>
@@ -4281,6 +4282,9 @@
     <dataValidation type="list" allowBlank="1" sqref="C22" xr:uid="{AC11383D-4B80-4250-901A-577B0CB0078C}">
       <formula1>"Consumer Monopoly,Unclear,Commodity-type Business"</formula1>
     </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="D4" xr:uid="{EC47C593-A7DE-4ABB-B6D2-C8BF531E4639}">
+      <formula1>"HOLD"</formula1>
+    </dataValidation>
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="E16" r:id="rId1" xr:uid="{F8B38130-6ADB-477B-BA33-0F2CE7EF4838}"/>
@@ -4299,8 +4303,8 @@
   </sheetPr>
   <dimension ref="A1:J923"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4336,18 +4340,21 @@
       <c r="D2" s="3"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
+      <c r="G2" s="311" t="str">
+        <f>IF(Inputs!D4="","",Inputs!D4)</f>
+        <v/>
+      </c>
+      <c r="H2" s="311"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="9" t="s">
         <v>170</v>
       </c>
-      <c r="C3" s="315" t="str">
+      <c r="C3" s="316" t="str">
         <f>Inputs!C4</f>
         <v>0027.HK</v>
       </c>
-      <c r="D3" s="316"/>
+      <c r="D3" s="317"/>
       <c r="E3" s="3"/>
       <c r="F3" s="9" t="s">
         <v>1</v>
@@ -4363,7 +4370,7 @@
       <c r="B4" s="12" t="s">
         <v>171</v>
       </c>
-      <c r="C4" s="317" t="str">
+      <c r="C4" s="311" t="str">
         <f>Inputs!C5</f>
         <v>銀河娛樂</v>
       </c>
@@ -4392,11 +4399,11 @@
       <c r="F5" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="G5" s="313">
+      <c r="G5" s="314">
         <f>G3*G4/1000000</f>
         <v>148264.5980118</v>
       </c>
-      <c r="H5" s="313"/>
+      <c r="H5" s="314"/>
       <c r="I5" s="17"/>
       <c r="J5" s="18"/>
     </row>
@@ -4419,11 +4426,11 @@
       <c r="F6" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="314" t="str">
+      <c r="G6" s="315" t="str">
         <f>Inputs!C11</f>
         <v>HKD</v>
       </c>
-      <c r="H6" s="314"/>
+      <c r="H6" s="315"/>
       <c r="I6" s="17"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4491,10 +4498,10 @@
         <v>222</v>
       </c>
       <c r="C12" s="120">
-        <v>7.4999999999999997E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="D12" s="121">
-        <v>8.0625000000000002E-2</v>
+        <v>7.5250000000000011E-2</v>
       </c>
       <c r="F12" s="25"/>
     </row>
@@ -4541,7 +4548,7 @@
         <v>223</v>
       </c>
       <c r="C17" s="119">
-        <v>8.6249999999999993E-2</v>
+        <v>8.0500000000000002E-2</v>
       </c>
       <c r="D17" s="122"/>
     </row>
@@ -4682,10 +4689,10 @@
       <c r="F28" s="52" t="s">
         <v>211</v>
       </c>
-      <c r="G28" s="311" t="s">
+      <c r="G28" s="312" t="s">
         <v>226</v>
       </c>
-      <c r="H28" s="311"/>
+      <c r="H28" s="312"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="3" t="s">
@@ -4693,22 +4700,22 @@
       </c>
       <c r="C29" s="53">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>8.8904143445644994</v>
+        <v>9.7553189074972426</v>
       </c>
       <c r="D29" s="54">
         <f>G29*(1+G20)</f>
-        <v>16.417803952564615</v>
+        <v>18.46980590655042</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="55">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>10.459310993605294</v>
-      </c>
-      <c r="G29" s="312">
+        <v>11.476845773526168</v>
+      </c>
+      <c r="G29" s="313">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>14.276351263099667</v>
-      </c>
-      <c r="H29" s="312"/>
+        <v>16.060700788304715</v>
+      </c>
+      <c r="H29" s="313"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -5690,15 +5697,16 @@
     <row r="922" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="923" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="G2:H2"/>
     <mergeCell ref="G28:H28"/>
     <mergeCell ref="G29:H29"/>
     <mergeCell ref="G5:H5"/>
     <mergeCell ref="G6:H6"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="G4:H4"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="C11:C12 C16:C17">
@@ -5726,7 +5734,7 @@
       <formula>LEN(TRIM(G20))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations disablePrompts="1" count="3">
+  <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" sqref="G6" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"HKD,USD,CNY,EUR"</formula1>
     </dataValidation>
@@ -11853,7 +11861,7 @@
       </c>
       <c r="C93" s="242">
         <f>IF(C92="CN",Dashboard!C17,IF(C92="US",Dashboard!C12,IF(C92="HK",Dashboard!D12,Dashboard!D17)))</f>
-        <v>8.0625000000000002E-2</v>
+        <v>7.5250000000000011E-2</v>
       </c>
       <c r="D93" s="259">
         <f>Dashboard!H20</f>
@@ -11864,14 +11872,14 @@
       </c>
       <c r="F93" s="243">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>21.037410343285767</v>
+        <v>23.084036236410849</v>
       </c>
       <c r="H93" s="3" t="s">
         <v>185</v>
       </c>
       <c r="I93" s="243">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>21.037410343285767</v>
+        <v>23.084036236410849</v>
       </c>
       <c r="K93" s="75"/>
     </row>
@@ -11892,14 +11900,14 @@
       </c>
       <c r="F94" s="243">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>8.8738477782409646</v>
+        <v>9.7371406616444958</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>186</v>
       </c>
       <c r="I94" s="243">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>8.8738477782409646</v>
+        <v>9.7371406616444958</v>
       </c>
       <c r="K94" s="75"/>
     </row>
@@ -11942,21 +11950,21 @@
       </c>
       <c r="C97" s="249">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>45744706.193135381</v>
+        <v>50194983.039978854</v>
       </c>
       <c r="D97" s="250"/>
       <c r="E97" s="251">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>10.459310993605294</v>
+        <v>11.476845773526168</v>
       </c>
       <c r="F97" s="250"/>
       <c r="H97" s="251">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>10.459310993605294</v>
+        <v>11.476845773526168</v>
       </c>
       <c r="I97" s="251">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>14.276351263099667</v>
+        <v>16.060700788304715</v>
       </c>
       <c r="K97" s="75"/>
     </row>
@@ -12006,23 +12014,23 @@
       <c r="C100" s="249"/>
       <c r="D100" s="257">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>8.8904143445644994</v>
+        <v>9.7553189074972426</v>
       </c>
       <c r="E100" s="257">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>10.459310993605294</v>
+        <v>11.476845773526168</v>
       </c>
       <c r="F100" s="257">
         <f>(E100+H100)/2</f>
-        <v>10.459310993605294</v>
+        <v>11.476845773526168</v>
       </c>
       <c r="H100" s="257">
         <f>MAX(H97+H98+H99,0)</f>
-        <v>10.459310993605294</v>
+        <v>11.476845773526168</v>
       </c>
       <c r="I100" s="257">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>14.276351263099667</v>
+        <v>16.060700788304715</v>
       </c>
       <c r="K100" s="75"/>
     </row>
@@ -12061,23 +12069,23 @@
       <c r="C103" s="249"/>
       <c r="D103" s="257">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>3.7500900677318518</v>
+        <v>4.114917834502144</v>
       </c>
       <c r="E103" s="251">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>4.4118706679198256</v>
+        <v>4.8410798052966406</v>
       </c>
       <c r="F103" s="257">
         <f>(E103+H103)/2</f>
-        <v>4.4118706679198256</v>
+        <v>4.8410798052966406</v>
       </c>
       <c r="H103" s="251">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>4.4118706679198256</v>
+        <v>4.8410798052966406</v>
       </c>
       <c r="I103" s="257">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>6.0219468969895011</v>
+        <v>6.774608266020584</v>
       </c>
       <c r="K103" s="75"/>
     </row>
@@ -12116,23 +12124,23 @@
       <c r="C106" s="249"/>
       <c r="D106" s="257">
         <f>(D100+D103)/2</f>
-        <v>6.3202522061481758</v>
+        <v>6.9351183709996933</v>
       </c>
       <c r="E106" s="251">
         <f>(E100+E103)/2</f>
-        <v>7.4355908307625604</v>
+        <v>8.1589627894114045</v>
       </c>
       <c r="F106" s="257">
         <f>(F100+F103)/2</f>
-        <v>7.4355908307625604</v>
+        <v>8.1589627894114045</v>
       </c>
       <c r="H106" s="251">
         <f>(H100+H103)/2</f>
-        <v>7.4355908307625604</v>
+        <v>8.1589627894114045</v>
       </c>
       <c r="I106" s="251">
         <f>(I100+I103)/2</f>
-        <v>10.149149080044584</v>
+        <v>11.41765452716265</v>
       </c>
       <c r="K106" s="75"/>
     </row>

--- a/financial_models/opportunities/0027.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0027.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{81EE5817-7480-4795-B10D-A7D6652364AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{16B9BFC8-DB51-46A8-8B06-573687E832F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2582,31 +2582,31 @@
     <xf numFmtId="181" fontId="37" fillId="13" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="177" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4340,21 +4340,21 @@
       <c r="D2" s="3"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
-      <c r="G2" s="311" t="str">
+      <c r="G2" s="313" t="str">
         <f>IF(Inputs!D4="","",Inputs!D4)</f>
         <v/>
       </c>
-      <c r="H2" s="311"/>
+      <c r="H2" s="313"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="9" t="s">
         <v>170</v>
       </c>
-      <c r="C3" s="316" t="str">
+      <c r="C3" s="311" t="str">
         <f>Inputs!C4</f>
         <v>0027.HK</v>
       </c>
-      <c r="D3" s="317"/>
+      <c r="D3" s="312"/>
       <c r="E3" s="3"/>
       <c r="F3" s="9" t="s">
         <v>1</v>
@@ -4370,40 +4370,40 @@
       <c r="B4" s="12" t="s">
         <v>171</v>
       </c>
-      <c r="C4" s="311" t="str">
+      <c r="C4" s="313" t="str">
         <f>Inputs!C5</f>
         <v>銀河娛樂</v>
       </c>
-      <c r="D4" s="318"/>
+      <c r="D4" s="314"/>
       <c r="E4" s="3"/>
       <c r="F4" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="321">
+      <c r="G4" s="317">
         <f>Inputs!C10</f>
         <v>4373586962</v>
       </c>
-      <c r="H4" s="321"/>
+      <c r="H4" s="317"/>
       <c r="I4" s="14"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="C5" s="319">
+      <c r="C5" s="315">
         <f>Inputs!C6</f>
         <v>45603</v>
       </c>
-      <c r="D5" s="320"/>
+      <c r="D5" s="316"/>
       <c r="E5" s="16"/>
       <c r="F5" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="G5" s="314">
+      <c r="G5" s="320">
         <f>G3*G4/1000000</f>
         <v>148264.5980118</v>
       </c>
-      <c r="H5" s="314"/>
+      <c r="H5" s="320"/>
       <c r="I5" s="17"/>
       <c r="J5" s="18"/>
     </row>
@@ -4426,11 +4426,11 @@
       <c r="F6" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="315" t="str">
+      <c r="G6" s="321" t="str">
         <f>Inputs!C11</f>
         <v>HKD</v>
       </c>
-      <c r="H6" s="315"/>
+      <c r="H6" s="321"/>
       <c r="I6" s="17"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4581,7 +4581,7 @@
         <v>0.15</v>
       </c>
       <c r="H20" s="307">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
@@ -4689,10 +4689,10 @@
       <c r="F28" s="52" t="s">
         <v>211</v>
       </c>
-      <c r="G28" s="312" t="s">
+      <c r="G28" s="318" t="s">
         <v>226</v>
       </c>
-      <c r="H28" s="312"/>
+      <c r="H28" s="318"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="3" t="s">
@@ -4700,22 +4700,22 @@
       </c>
       <c r="C29" s="53">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>9.7553189074972426</v>
+        <v>10.869476749317165</v>
       </c>
       <c r="D29" s="54">
         <f>G29*(1+G20)</f>
-        <v>18.46980590655042</v>
+        <v>19.241596760114568</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="55">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>11.476845773526168</v>
-      </c>
-      <c r="G29" s="313">
+        <v>12.787619705079019</v>
+      </c>
+      <c r="G29" s="319">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>16.060700788304715</v>
-      </c>
-      <c r="H29" s="313"/>
+        <v>16.731823269664844</v>
+      </c>
+      <c r="H29" s="319"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -5698,15 +5698,15 @@
     <row r="923" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G6:H6"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="G4:H4"/>
     <mergeCell ref="G2:H2"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G6:H6"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="C11:C12 C16:C17">
@@ -11079,7 +11079,7 @@
         <f>I15+I34</f>
         <v>0</v>
       </c>
-      <c r="E56" s="320"/>
+      <c r="E56" s="316"/>
       <c r="F56" s="9"/>
       <c r="G56" s="9"/>
       <c r="I56" s="176"/>
@@ -11090,11 +11090,11 @@
         <v>83</v>
       </c>
       <c r="C57" s="3"/>
-      <c r="D57" s="321">
+      <c r="D57" s="317">
         <f>Inputs!C84</f>
         <v>0</v>
       </c>
-      <c r="E57" s="320"/>
+      <c r="E57" s="316"/>
       <c r="G57" s="3"/>
       <c r="I57" s="3"/>
       <c r="K57" s="178" t="s">
@@ -11106,11 +11106,11 @@
         <v>85</v>
       </c>
       <c r="C58" s="3"/>
-      <c r="D58" s="321">
+      <c r="D58" s="317">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="320"/>
+      <c r="E58" s="316"/>
       <c r="F58" s="9"/>
       <c r="G58" s="9"/>
       <c r="I58" s="3"/>
@@ -11865,21 +11865,21 @@
       </c>
       <c r="D93" s="259">
         <f>Dashboard!H20</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E93" s="3" t="s">
         <v>185</v>
       </c>
       <c r="F93" s="243">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>23.084036236410849</v>
+        <v>22.365626786806352</v>
       </c>
       <c r="H93" s="3" t="s">
         <v>185</v>
       </c>
       <c r="I93" s="243">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>23.084036236410849</v>
+        <v>22.365626786806352</v>
       </c>
       <c r="K93" s="75"/>
     </row>
@@ -11900,14 +11900,14 @@
       </c>
       <c r="F94" s="243">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>9.7371406616444958</v>
+        <v>9.5956124543531498</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>186</v>
       </c>
       <c r="I94" s="243">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>9.7371406616444958</v>
+        <v>9.5956124543531498</v>
       </c>
       <c r="K94" s="75"/>
     </row>
@@ -11950,21 +11950,21 @@
       </c>
       <c r="C97" s="249">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>50194983.039978854</v>
+        <v>55927766.817147881</v>
       </c>
       <c r="D97" s="250"/>
       <c r="E97" s="251">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>11.476845773526168</v>
+        <v>12.787619705079019</v>
       </c>
       <c r="F97" s="250"/>
       <c r="H97" s="251">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>11.476845773526168</v>
+        <v>12.787619705079019</v>
       </c>
       <c r="I97" s="251">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>16.060700788304715</v>
+        <v>16.731823269664844</v>
       </c>
       <c r="K97" s="75"/>
     </row>
@@ -12014,23 +12014,23 @@
       <c r="C100" s="249"/>
       <c r="D100" s="257">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>9.7553189074972426</v>
+        <v>10.869476749317165</v>
       </c>
       <c r="E100" s="257">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>11.476845773526168</v>
+        <v>12.787619705079019</v>
       </c>
       <c r="F100" s="257">
         <f>(E100+H100)/2</f>
-        <v>11.476845773526168</v>
+        <v>12.787619705079019</v>
       </c>
       <c r="H100" s="257">
         <f>MAX(H97+H98+H99,0)</f>
-        <v>11.476845773526168</v>
+        <v>12.787619705079019</v>
       </c>
       <c r="I100" s="257">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>16.060700788304715</v>
+        <v>16.731823269664844</v>
       </c>
       <c r="K100" s="75"/>
     </row>
@@ -12069,23 +12069,23 @@
       <c r="C103" s="249"/>
       <c r="D103" s="257">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>4.114917834502144</v>
+        <v>4.6633741795949444</v>
       </c>
       <c r="E103" s="251">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>4.8410798052966406</v>
+        <v>5.4863225642293463</v>
       </c>
       <c r="F103" s="257">
         <f>(E103+H103)/2</f>
-        <v>4.8410798052966406</v>
+        <v>5.4863225642293463</v>
       </c>
       <c r="H103" s="251">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>4.8410798052966406</v>
+        <v>5.4863225642293463</v>
       </c>
       <c r="I103" s="257">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>6.774608266020584</v>
+        <v>7.1785196668462099</v>
       </c>
       <c r="K103" s="75"/>
     </row>
@@ -12124,23 +12124,23 @@
       <c r="C106" s="249"/>
       <c r="D106" s="257">
         <f>(D100+D103)/2</f>
-        <v>6.9351183709996933</v>
+        <v>7.7664254644560549</v>
       </c>
       <c r="E106" s="251">
         <f>(E100+E103)/2</f>
-        <v>8.1589627894114045</v>
+        <v>9.136971134654182</v>
       </c>
       <c r="F106" s="257">
         <f>(F100+F103)/2</f>
-        <v>8.1589627894114045</v>
+        <v>9.136971134654182</v>
       </c>
       <c r="H106" s="251">
         <f>(H100+H103)/2</f>
-        <v>8.1589627894114045</v>
+        <v>9.136971134654182</v>
       </c>
       <c r="I106" s="251">
         <f>(I100+I103)/2</f>
-        <v>11.41765452716265</v>
+        <v>11.955171468255527</v>
       </c>
       <c r="K106" s="75"/>
     </row>

--- a/financial_models/opportunities/0027.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0027.HK_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{918DF81F-4D27-4481-91F8-B4669854159D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D9ECE1BF-042E-4A84-96D6-ACABCBDF307E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="735" yWindow="735" windowWidth="12690" windowHeight="7643" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="4" r:id="rId1"/>
@@ -2595,6 +2595,9 @@
     <xf numFmtId="181" fontId="37" fillId="12" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2611,9 +2614,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="177" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3631,7 +3631,7 @@
       </c>
       <c r="C45" s="82">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>2.3598820058997053E-2</v>
+        <v>2.4353120243531201E-2</v>
       </c>
       <c r="D45" s="82" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4368,27 +4368,27 @@
       <c r="D2" s="3"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
-      <c r="G2" s="318" t="str">
+      <c r="G2" s="312" t="str">
         <f>IF(Inputs!D4="","",Inputs!D4)</f>
         <v/>
       </c>
-      <c r="H2" s="318"/>
+      <c r="H2" s="312"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="9" t="s">
         <v>168</v>
       </c>
-      <c r="C3" s="316" t="str">
+      <c r="C3" s="317" t="str">
         <f>Inputs!C4</f>
         <v>0027.HK</v>
       </c>
-      <c r="D3" s="317"/>
+      <c r="D3" s="318"/>
       <c r="E3" s="3"/>
       <c r="F3" s="9" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="10">
-        <v>33.9</v>
+        <v>32.85</v>
       </c>
       <c r="H3" s="11" t="s">
         <v>257</v>
@@ -4398,7 +4398,7 @@
       <c r="B4" s="12" t="s">
         <v>169</v>
       </c>
-      <c r="C4" s="318" t="str">
+      <c r="C4" s="312" t="str">
         <f>Inputs!C5</f>
         <v>銀河娛樂</v>
       </c>
@@ -4427,11 +4427,11 @@
       <c r="F5" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="G5" s="314">
+      <c r="G5" s="315">
         <f>G3*G4/1000000</f>
-        <v>148264.5980118</v>
-      </c>
-      <c r="H5" s="314"/>
+        <v>143672.33170170002</v>
+      </c>
+      <c r="H5" s="315"/>
       <c r="I5" s="17"/>
       <c r="J5" s="18"/>
     </row>
@@ -4454,11 +4454,11 @@
       <c r="F6" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="315" t="str">
+      <c r="G6" s="316" t="str">
         <f>Inputs!C11</f>
         <v>HKD</v>
       </c>
-      <c r="H6" s="315"/>
+      <c r="H6" s="316"/>
       <c r="I6" s="17"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4666,7 +4666,7 @@
       </c>
       <c r="G24" s="43">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>31.132144488242869</v>
+        <v>30.167874526217648</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4698,7 +4698,7 @@
       </c>
       <c r="G26" s="47">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>1.4749262536873156E-2</v>
+        <v>1.5220700152207001E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4717,10 +4717,10 @@
       <c r="F28" s="52" t="s">
         <v>209</v>
       </c>
-      <c r="G28" s="312" t="s">
+      <c r="G28" s="313" t="s">
         <v>224</v>
       </c>
-      <c r="H28" s="312"/>
+      <c r="H28" s="313"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="3" t="s">
@@ -4728,22 +4728,22 @@
       </c>
       <c r="C29" s="53">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>10.91888346181406</v>
+        <v>10.962394596034519</v>
       </c>
       <c r="D29" s="54">
         <f>G29*(1+G20)</f>
-        <v>19.347045356410433</v>
+        <v>19.424142240008109</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="55">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>12.845745249193012</v>
-      </c>
-      <c r="G29" s="313">
+        <v>12.896934818864141</v>
+      </c>
+      <c r="G29" s="314">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>16.823517701226464</v>
-      </c>
-      <c r="H29" s="313"/>
+        <v>16.890558469572269</v>
+      </c>
+      <c r="H29" s="314"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -5726,15 +5726,15 @@
     <row r="923" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="G4:H4"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="G28:H28"/>
     <mergeCell ref="G29:H29"/>
     <mergeCell ref="G5:H5"/>
     <mergeCell ref="G6:H6"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="G4:H4"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="C11:C12 C16:C17">
@@ -11881,17 +11881,17 @@
       </c>
       <c r="C87" s="232">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>3.2121140912013062E-2</v>
+        <v>3.3147844046186994E-2</v>
       </c>
       <c r="D87" s="98"/>
       <c r="E87" s="233">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>3.2121140912013062E-2</v>
+        <v>3.3147844046186994E-2</v>
       </c>
       <c r="F87" s="98"/>
       <c r="H87" s="233">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>3.2121140912013062E-2</v>
+        <v>3.3147844046186994E-2</v>
       </c>
       <c r="I87" s="98"/>
       <c r="K87" s="75"/>
@@ -11932,17 +11932,17 @@
       </c>
       <c r="C89" s="232">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>2.3598820058997053E-2</v>
+        <v>2.4353120243531201E-2</v>
       </c>
       <c r="D89" s="98"/>
       <c r="E89" s="232">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>1.4749262536873156E-2</v>
+        <v>1.5220700152207001E-2</v>
       </c>
       <c r="F89" s="98"/>
       <c r="H89" s="232">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>1.4749262536873156E-2</v>
+        <v>1.5220700152207001E-2</v>
       </c>
       <c r="I89" s="98"/>
       <c r="K89" s="75"/>
@@ -12002,14 +12002,14 @@
       </c>
       <c r="F93" s="237">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>22.467288726746379</v>
+        <v>22.556819604035994</v>
       </c>
       <c r="H93" s="3" t="s">
         <v>183</v>
       </c>
       <c r="I93" s="237">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>22.467288726746379</v>
+        <v>22.556819604035994</v>
       </c>
       <c r="K93" s="75"/>
     </row>
@@ -12030,14 +12030,14 @@
       </c>
       <c r="F94" s="237">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>9.6392288746002102</v>
+        <v>9.6571543387216003</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>184</v>
       </c>
       <c r="I94" s="237">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>9.6392288746002102</v>
+        <v>9.6571543387216003</v>
       </c>
       <c r="K94" s="75"/>
     </row>
@@ -12080,21 +12080,21 @@
       </c>
       <c r="C97" s="243">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>56181983.939043999</v>
+        <v>56405865.973548032</v>
       </c>
       <c r="D97" s="244"/>
       <c r="E97" s="245">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>12.845745249193012</v>
+        <v>12.896934818864141</v>
       </c>
       <c r="F97" s="244"/>
       <c r="H97" s="245">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>12.845745249193012</v>
+        <v>12.896934818864141</v>
       </c>
       <c r="I97" s="245">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>16.823517701226464</v>
+        <v>16.890558469572269</v>
       </c>
       <c r="K97" s="75"/>
     </row>
@@ -12144,23 +12144,23 @@
       <c r="C100" s="243"/>
       <c r="D100" s="251">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>10.91888346181406</v>
+        <v>10.962394596034519</v>
       </c>
       <c r="E100" s="251">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>12.845745249193012</v>
+        <v>12.896934818864141</v>
       </c>
       <c r="F100" s="251">
         <f>(E100+H100)/2</f>
-        <v>12.845745249193012</v>
+        <v>12.896934818864141</v>
       </c>
       <c r="H100" s="251">
         <f>MAX(H97+H98+H99,0)</f>
-        <v>12.845745249193012</v>
+        <v>12.896934818864141</v>
       </c>
       <c r="I100" s="251">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>16.823517701226464</v>
+        <v>16.890558469572269</v>
       </c>
       <c r="K100" s="75"/>
     </row>
@@ -12199,23 +12199,23 @@
       <c r="C103" s="243"/>
       <c r="D103" s="251">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>4.6845713349567397</v>
+        <v>4.6932829359033814</v>
       </c>
       <c r="E103" s="245">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>5.5112603940667526</v>
+        <v>5.5215093363569192</v>
       </c>
       <c r="F103" s="251">
         <f>(E103+H103)/2</f>
-        <v>5.5112603940667526</v>
+        <v>5.5215093363569192</v>
       </c>
       <c r="H103" s="245">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>5.5112603940667526</v>
+        <v>5.5215093363569192</v>
       </c>
       <c r="I103" s="251">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>7.2178596879363672</v>
+        <v>7.2312822849669516</v>
       </c>
       <c r="K103" s="75"/>
     </row>
@@ -12254,23 +12254,23 @@
       <c r="C106" s="243"/>
       <c r="D106" s="251">
         <f>(D100+D103)/2</f>
-        <v>7.8017273983853999</v>
+        <v>7.8278387659689503</v>
       </c>
       <c r="E106" s="245">
         <f>(E100+E103)/2</f>
-        <v>9.1785028216298823</v>
+        <v>9.20922207761053</v>
       </c>
       <c r="F106" s="251">
         <f>(F100+F103)/2</f>
-        <v>9.1785028216298823</v>
+        <v>9.20922207761053</v>
       </c>
       <c r="H106" s="245">
         <f>(H100+H103)/2</f>
-        <v>9.1785028216298823</v>
+        <v>9.20922207761053</v>
       </c>
       <c r="I106" s="245">
         <f>(I100+I103)/2</f>
-        <v>12.020688694581416</v>
+        <v>12.060920377269611</v>
       </c>
       <c r="K106" s="75"/>
     </row>

--- a/financial_models/opportunities/0027.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0027.HK_Valuation.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D9ECE1BF-042E-4A84-96D6-ACABCBDF307E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{884CEABE-C85C-45D8-A88C-794EAA0E8DF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2595,31 +2595,31 @@
     <xf numFmtId="181" fontId="37" fillId="12" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="177" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3631,7 +3631,7 @@
       </c>
       <c r="C45" s="82">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>2.4353120243531201E-2</v>
+        <v>2.5117739403453691E-2</v>
       </c>
       <c r="D45" s="82" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4368,27 +4368,27 @@
       <c r="D2" s="3"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
-      <c r="G2" s="312" t="str">
+      <c r="G2" s="314" t="str">
         <f>IF(Inputs!D4="","",Inputs!D4)</f>
         <v/>
       </c>
-      <c r="H2" s="312"/>
+      <c r="H2" s="314"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="9" t="s">
         <v>168</v>
       </c>
-      <c r="C3" s="317" t="str">
+      <c r="C3" s="312" t="str">
         <f>Inputs!C4</f>
         <v>0027.HK</v>
       </c>
-      <c r="D3" s="318"/>
+      <c r="D3" s="313"/>
       <c r="E3" s="3"/>
       <c r="F3" s="9" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="10">
-        <v>32.85</v>
+        <v>31.85</v>
       </c>
       <c r="H3" s="11" t="s">
         <v>257</v>
@@ -4398,40 +4398,40 @@
       <c r="B4" s="12" t="s">
         <v>169</v>
       </c>
-      <c r="C4" s="312" t="str">
+      <c r="C4" s="314" t="str">
         <f>Inputs!C5</f>
         <v>銀河娛樂</v>
       </c>
-      <c r="D4" s="319"/>
+      <c r="D4" s="315"/>
       <c r="E4" s="3"/>
       <c r="F4" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="322">
+      <c r="G4" s="318">
         <f>Inputs!C10</f>
         <v>4373586962</v>
       </c>
-      <c r="H4" s="322"/>
+      <c r="H4" s="318"/>
       <c r="I4" s="14"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="C5" s="320">
+      <c r="C5" s="316">
         <f>Inputs!C6</f>
         <v>45603</v>
       </c>
-      <c r="D5" s="321"/>
+      <c r="D5" s="317"/>
       <c r="E5" s="16"/>
       <c r="F5" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="G5" s="315">
+      <c r="G5" s="321">
         <f>G3*G4/1000000</f>
-        <v>143672.33170170002</v>
-      </c>
-      <c r="H5" s="315"/>
+        <v>139298.74473970002</v>
+      </c>
+      <c r="H5" s="321"/>
       <c r="I5" s="17"/>
       <c r="J5" s="18"/>
     </row>
@@ -4454,11 +4454,11 @@
       <c r="F6" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="316" t="str">
+      <c r="G6" s="322" t="str">
         <f>Inputs!C11</f>
         <v>HKD</v>
       </c>
-      <c r="H6" s="316"/>
+      <c r="H6" s="322"/>
       <c r="I6" s="17"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4666,7 +4666,7 @@
       </c>
       <c r="G24" s="43">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>30.167874526217648</v>
+        <v>29.249522181431722</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4698,7 +4698,7 @@
       </c>
       <c r="G26" s="47">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>1.5220700152207001E-2</v>
+        <v>1.5698587127158554E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4717,10 +4717,10 @@
       <c r="F28" s="52" t="s">
         <v>209</v>
       </c>
-      <c r="G28" s="313" t="s">
+      <c r="G28" s="319" t="s">
         <v>224</v>
       </c>
-      <c r="H28" s="313"/>
+      <c r="H28" s="319"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="3" t="s">
@@ -4728,22 +4728,22 @@
       </c>
       <c r="C29" s="53">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>10.962394596034519</v>
+        <v>11.006633563053727</v>
       </c>
       <c r="D29" s="54">
         <f>G29*(1+G20)</f>
-        <v>19.424142240008109</v>
+        <v>19.50252876225964</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="55">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>12.896934818864141</v>
-      </c>
-      <c r="G29" s="314">
+        <v>12.948980662416149</v>
+      </c>
+      <c r="G29" s="320">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>16.890558469572269</v>
-      </c>
-      <c r="H29" s="314"/>
+        <v>16.95872066283447</v>
+      </c>
+      <c r="H29" s="320"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -5726,15 +5726,15 @@
     <row r="923" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G6:H6"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="G4:H4"/>
     <mergeCell ref="G2:H2"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G6:H6"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="C11:C12 C16:C17">
@@ -11209,7 +11209,7 @@
         <f>I15+I34</f>
         <v>0</v>
       </c>
-      <c r="E56" s="321"/>
+      <c r="E56" s="317"/>
       <c r="F56" s="9"/>
       <c r="G56" s="9"/>
       <c r="I56" s="170"/>
@@ -11220,11 +11220,11 @@
         <v>83</v>
       </c>
       <c r="C57" s="3"/>
-      <c r="D57" s="322">
+      <c r="D57" s="318">
         <f>Inputs!C84</f>
         <v>0</v>
       </c>
-      <c r="E57" s="321"/>
+      <c r="E57" s="317"/>
       <c r="G57" s="3"/>
       <c r="I57" s="3"/>
       <c r="K57" s="172" t="s">
@@ -11236,11 +11236,11 @@
         <v>85</v>
       </c>
       <c r="C58" s="3"/>
-      <c r="D58" s="322">
+      <c r="D58" s="318">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="321"/>
+      <c r="E58" s="317"/>
       <c r="F58" s="9"/>
       <c r="G58" s="9"/>
       <c r="I58" s="3"/>
@@ -11881,17 +11881,17 @@
       </c>
       <c r="C87" s="232">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>3.3147844046186994E-2</v>
+        <v>3.4188592681860058E-2</v>
       </c>
       <c r="D87" s="98"/>
       <c r="E87" s="233">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>3.3147844046186994E-2</v>
+        <v>3.4188592681860058E-2</v>
       </c>
       <c r="F87" s="98"/>
       <c r="H87" s="233">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>3.3147844046186994E-2</v>
+        <v>3.4188592681860058E-2</v>
       </c>
       <c r="I87" s="98"/>
       <c r="K87" s="75"/>
@@ -11932,17 +11932,17 @@
       </c>
       <c r="C89" s="232">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>2.4353120243531201E-2</v>
+        <v>2.5117739403453691E-2</v>
       </c>
       <c r="D89" s="98"/>
       <c r="E89" s="232">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>1.5220700152207001E-2</v>
+        <v>1.5698587127158554E-2</v>
       </c>
       <c r="F89" s="98"/>
       <c r="H89" s="232">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>1.5220700152207001E-2</v>
+        <v>1.5698587127158554E-2</v>
       </c>
       <c r="I89" s="98"/>
       <c r="K89" s="75"/>
@@ -12002,14 +12002,14 @@
       </c>
       <c r="F93" s="237">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>22.556819604035994</v>
+        <v>22.647848109694976</v>
       </c>
       <c r="H93" s="3" t="s">
         <v>183</v>
       </c>
       <c r="I93" s="237">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>22.556819604035994</v>
+        <v>22.647848109694976</v>
       </c>
       <c r="K93" s="75"/>
     </row>
@@ -12030,14 +12030,14 @@
       </c>
       <c r="F94" s="237">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>9.6571543387216003</v>
+        <v>9.6753505314917163</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>184</v>
       </c>
       <c r="I94" s="237">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>9.6571543387216003</v>
+        <v>9.6753505314917163</v>
       </c>
       <c r="K94" s="75"/>
     </row>
@@ -12080,21 +12080,21 @@
       </c>
       <c r="C97" s="243">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>56405865.973548032</v>
+        <v>56633492.996333398</v>
       </c>
       <c r="D97" s="244"/>
       <c r="E97" s="245">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>12.896934818864141</v>
+        <v>12.948980662416149</v>
       </c>
       <c r="F97" s="244"/>
       <c r="H97" s="245">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>12.896934818864141</v>
+        <v>12.948980662416149</v>
       </c>
       <c r="I97" s="245">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>16.890558469572269</v>
+        <v>16.95872066283447</v>
       </c>
       <c r="K97" s="75"/>
     </row>
@@ -12144,23 +12144,23 @@
       <c r="C100" s="243"/>
       <c r="D100" s="251">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>10.962394596034519</v>
+        <v>11.006633563053727</v>
       </c>
       <c r="E100" s="251">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>12.896934818864141</v>
+        <v>12.948980662416149</v>
       </c>
       <c r="F100" s="251">
         <f>(E100+H100)/2</f>
-        <v>12.896934818864141</v>
+        <v>12.948980662416149</v>
       </c>
       <c r="H100" s="251">
         <f>MAX(H97+H98+H99,0)</f>
-        <v>12.896934818864141</v>
+        <v>12.948980662416149</v>
       </c>
       <c r="I100" s="251">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>16.890558469572269</v>
+        <v>16.95872066283447</v>
       </c>
       <c r="K100" s="75"/>
     </row>
@@ -12199,23 +12199,23 @@
       <c r="C103" s="243"/>
       <c r="D103" s="251">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>4.6932829359033814</v>
+        <v>4.7021261083360688</v>
       </c>
       <c r="E103" s="245">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>5.5215093363569192</v>
+        <v>5.5319130686306694</v>
       </c>
       <c r="F103" s="251">
         <f>(E103+H103)/2</f>
-        <v>5.5215093363569192</v>
+        <v>5.5319130686306694</v>
       </c>
       <c r="H103" s="245">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>5.5215093363569192</v>
+        <v>5.5319130686306694</v>
       </c>
       <c r="I103" s="251">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>7.2312822849669516</v>
+        <v>7.244907603753127</v>
       </c>
       <c r="K103" s="75"/>
     </row>
@@ -12254,23 +12254,23 @@
       <c r="C106" s="243"/>
       <c r="D106" s="251">
         <f>(D100+D103)/2</f>
-        <v>7.8278387659689503</v>
+        <v>7.8543798356948979</v>
       </c>
       <c r="E106" s="245">
         <f>(E100+E103)/2</f>
-        <v>9.20922207761053</v>
+        <v>9.2404468655234098</v>
       </c>
       <c r="F106" s="251">
         <f>(F100+F103)/2</f>
-        <v>9.20922207761053</v>
+        <v>9.2404468655234098</v>
       </c>
       <c r="H106" s="245">
         <f>(H100+H103)/2</f>
-        <v>9.20922207761053</v>
+        <v>9.2404468655234098</v>
       </c>
       <c r="I106" s="245">
         <f>(I100+I103)/2</f>
-        <v>12.060920377269611</v>
+        <v>12.101814133293798</v>
       </c>
       <c r="K106" s="75"/>
     </row>
